--- a/classified_requirements.xlsx
+++ b/classified_requirements.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LR3_other</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.2061612910514417</v>
+        <v>0.6077384310987872</v>
       </c>
     </row>
     <row r="3">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.2025979481521361</v>
+        <v>0.5676121371873883</v>
       </c>
     </row>
     <row r="4">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.2034154109805173</v>
+        <v>0.5807473489652029</v>
       </c>
     </row>
     <row r="5">
@@ -548,7 +548,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR3_other</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.192586022615491</v>
+        <v>0.577983822890715</v>
       </c>
     </row>
     <row r="6">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.2267699161353894</v>
+        <v>0.6875973831561824</v>
       </c>
     </row>
     <row r="7">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.2482401013255854</v>
+        <v>0.6585521373376819</v>
       </c>
     </row>
     <row r="8">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.2464001466747738</v>
+        <v>0.6745876697238239</v>
       </c>
     </row>
     <row r="9">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.2491538574872023</v>
+        <v>0.7029086160885609</v>
       </c>
     </row>
     <row r="10">
@@ -673,7 +673,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR3_other</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.1983692440023894</v>
+        <v>0.5690872017843593</v>
       </c>
     </row>
     <row r="11">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.1931361093379365</v>
+        <v>0.5604340364267851</v>
       </c>
     </row>
     <row r="12">
@@ -723,7 +723,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.202196756181634</v>
+        <v>0.6246528812023089</v>
       </c>
     </row>
     <row r="13">
@@ -748,7 +748,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR3_other</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.2361850624880329</v>
+        <v>0.6566125041370295</v>
       </c>
     </row>
     <row r="14">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.2176903817061423</v>
+        <v>0.5970461390090313</v>
       </c>
     </row>
     <row r="15">
@@ -798,7 +798,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.2312099411263695</v>
+        <v>0.6516624992957248</v>
       </c>
     </row>
     <row r="16">
@@ -823,7 +823,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.2162956432321904</v>
+        <v>0.5863605729765066</v>
       </c>
     </row>
     <row r="17">
@@ -857,7 +857,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.2365807474574455</v>
+        <v>0.6592956398669667</v>
       </c>
     </row>
     <row r="18">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.2048462510828243</v>
+        <v>0.6140413528525036</v>
       </c>
     </row>
     <row r="19">
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.1995071769760643</v>
+        <v>0.5739420476360719</v>
       </c>
     </row>
     <row r="20">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.1909307765708602</v>
+        <v>0.5608710684452218</v>
       </c>
     </row>
     <row r="21">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.1791252463470673</v>
+        <v>0.5436471462903746</v>
       </c>
     </row>
     <row r="22">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.1841692006041259</v>
+        <v>0.5348007727792031</v>
       </c>
     </row>
     <row r="23">
@@ -998,7 +998,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.2031039634145646</v>
+        <v>0.7002801311176623</v>
       </c>
     </row>
     <row r="24">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.2411696302365539</v>
+        <v>0.6785881524847925</v>
       </c>
     </row>
     <row r="25">
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.1832100674816395</v>
+        <v>0.5647252059872219</v>
       </c>
     </row>
     <row r="26">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.2390467767806703</v>
+        <v>0.6680321697468004</v>
       </c>
     </row>
     <row r="27">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>LR3_other</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.212796106016991</v>
+        <v>0.5968168985724113</v>
       </c>
     </row>
     <row r="28">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.244199360467337</v>
+        <v>0.6875826968663854</v>
       </c>
     </row>
     <row r="29">
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.1977569631857116</v>
+        <v>0.5718188593859584</v>
       </c>
     </row>
     <row r="30">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.207058493848454</v>
+        <v>0.5765003501019581</v>
       </c>
     </row>
     <row r="31">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.2426789978175963</v>
+        <v>0.6655729117738267</v>
       </c>
     </row>
     <row r="32">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.2065915182067066</v>
+        <v>0.6440185094176631</v>
       </c>
     </row>
     <row r="33">
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.2123564226936483</v>
+        <v>0.6110080358820285</v>
       </c>
     </row>
     <row r="34">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR3_other</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.2318554821407856</v>
+        <v>0.6815444062738008</v>
       </c>
     </row>
     <row r="35">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,7 +1307,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.2201242573856594</v>
+        <v>0.6834763353675209</v>
       </c>
     </row>
     <row r="36">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.1958988276637397</v>
+        <v>0.5641521724472557</v>
       </c>
     </row>
     <row r="37">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR3_other</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.1990634084442686</v>
+        <v>0.666780003879725</v>
       </c>
     </row>
     <row r="38">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.1814454871708435</v>
+        <v>0.5535057892274129</v>
       </c>
     </row>
     <row r="39">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR3_other</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.2329480353553873</v>
+        <v>0.6518979155981524</v>
       </c>
     </row>
     <row r="40">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.233798156357161</v>
+        <v>0.6356216615246701</v>
       </c>
     </row>
     <row r="41">
@@ -1457,7 +1457,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.2116545766132362</v>
+        <v>0.6256987787171775</v>
       </c>
     </row>
     <row r="42">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.2436634483316407</v>
+        <v>0.6920849156503396</v>
       </c>
     </row>
     <row r="43">
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.2408071375224229</v>
+        <v>0.6846679969513726</v>
       </c>
     </row>
     <row r="44">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.1894993171609753</v>
+        <v>0.5552099764744204</v>
       </c>
     </row>
     <row r="45">
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.2184211632593074</v>
+        <v>0.6867315462096182</v>
       </c>
     </row>
     <row r="46">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.209178268968018</v>
+        <v>0.6226865745606156</v>
       </c>
     </row>
     <row r="47">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.2466007910943694</v>
+        <v>0.6918521239613371</v>
       </c>
     </row>
     <row r="48">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.1989118940464753</v>
+        <v>0.6240995449824275</v>
       </c>
     </row>
     <row r="49">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.227176951264811</v>
+        <v>0.6986081537989165</v>
       </c>
     </row>
     <row r="50">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.1817814854527411</v>
+        <v>0.5410678101919424</v>
       </c>
     </row>
     <row r="51">
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.2470349421394815</v>
+        <v>0.6949363903702647</v>
       </c>
     </row>
     <row r="52">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.2441060548402795</v>
+        <v>0.6659942091969222</v>
       </c>
     </row>
     <row r="53">
@@ -1757,7 +1757,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.209006576308492</v>
+        <v>0.587471636619973</v>
       </c>
     </row>
     <row r="54">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.1930981390024901</v>
+        <v>0.5691297066792967</v>
       </c>
     </row>
     <row r="55">
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.1944617698026087</v>
+        <v>0.5614261326668378</v>
       </c>
     </row>
     <row r="56">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.2439058332190712</v>
+        <v>0.6877941059193086</v>
       </c>
     </row>
     <row r="57">
@@ -1857,7 +1857,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.2194328837598004</v>
+        <v>0.7256233846173087</v>
       </c>
     </row>
     <row r="58">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.2451619946144038</v>
+        <v>0.6974494397345261</v>
       </c>
     </row>
     <row r="59">
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.2465880402747253</v>
+        <v>0.6619611095095291</v>
       </c>
     </row>
     <row r="60">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.2240872039180002</v>
+        <v>0.6624516462878558</v>
       </c>
     </row>
     <row r="61">
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.2465318222807898</v>
+        <v>0.6785698847089061</v>
       </c>
     </row>
     <row r="62">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.205471809075969</v>
+        <v>0.5721511379575926</v>
       </c>
     </row>
     <row r="63">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.2414006404411606</v>
+        <v>0.6669702385544822</v>
       </c>
     </row>
     <row r="64">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.2003240792533399</v>
+        <v>0.567710888433699</v>
       </c>
     </row>
     <row r="65">
@@ -2057,7 +2057,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.1749353005801892</v>
+        <v>0.5241378914469227</v>
       </c>
     </row>
     <row r="66">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR3_other</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.2106803632036459</v>
+        <v>0.6309033577831158</v>
       </c>
     </row>
     <row r="67">
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.181737101803323</v>
+        <v>0.5270145400899887</v>
       </c>
     </row>
     <row r="68">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>LR3_other</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.2031616044390916</v>
+        <v>0.5734978827351047</v>
       </c>
     </row>
     <row r="69">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.2411783640033435</v>
+        <v>0.6621156476400103</v>
       </c>
     </row>
     <row r="70">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.1951344996135554</v>
+        <v>0.5549423931360536</v>
       </c>
     </row>
     <row r="71">
@@ -2207,7 +2207,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.187487218504061</v>
+        <v>0.5592027956857066</v>
       </c>
     </row>
     <row r="72">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.2149964620431609</v>
+        <v>0.6079451639677238</v>
       </c>
     </row>
     <row r="73">
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.2014044064938049</v>
+        <v>0.5937733520479671</v>
       </c>
     </row>
     <row r="74">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.2463448114985736</v>
+        <v>0.6771617282013017</v>
       </c>
     </row>
     <row r="75">
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.2303657394693001</v>
+        <v>0.6424575790978876</v>
       </c>
     </row>
     <row r="76">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>LR3_other</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.1847941043961451</v>
+        <v>0.5539725274224939</v>
       </c>
     </row>
     <row r="77">
@@ -2357,7 +2357,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.2432506604572154</v>
+        <v>0.6701871539113655</v>
       </c>
     </row>
     <row r="78">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.2137897493747982</v>
+        <v>0.6334426128454733</v>
       </c>
     </row>
     <row r="79">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.2036271182853243</v>
+        <v>0.5597900734724914</v>
       </c>
     </row>
     <row r="80">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>LR3_other</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.2151059803808965</v>
+        <v>0.6310394252531588</v>
       </c>
     </row>
     <row r="81">
@@ -2457,7 +2457,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.1959748629306112</v>
+        <v>0.6161758231208476</v>
       </c>
     </row>
     <row r="82">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.212245094826251</v>
+        <v>0.6146393793606026</v>
       </c>
     </row>
     <row r="83">
@@ -2507,7 +2507,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.216482286941728</v>
+        <v>0.6445522025907785</v>
       </c>
     </row>
     <row r="84">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.2103437344564799</v>
+        <v>0.6036984693615891</v>
       </c>
     </row>
     <row r="85">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>LR3_other</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.1901563618027113</v>
+        <v>0.5746635055979473</v>
       </c>
     </row>
     <row r="86">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.1810163154559154</v>
+        <v>0.5748408061268547</v>
       </c>
     </row>
     <row r="87">
@@ -2607,7 +2607,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.2197733864184454</v>
+        <v>0.6566415377713357</v>
       </c>
     </row>
     <row r="88">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.2424062340639414</v>
+        <v>0.6611246413887588</v>
       </c>
     </row>
   </sheetData>

--- a/classified_requirements.xlsx
+++ b/classified_requirements.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,21 +468,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>22851-j00.docx</t>
+          <t>22104-j00.docx</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['1\tScope&lt;/h1&gt;', '', 'The present document investigates use cases and potential new requirements related to 3GPP system enhanced support of specific 5G network sharing deployment scenarios, in particular where there is no direct interconnection between the shared NG-RAN and participating operators’ core networks. It includes the following aspects:', '', '-\tMobility and service continuity, e.g., when moving from a non-shared 4G/5G network to a shared 5G network and vice versa, with focus on CN aspects. ', '', '-\tPotential security requirements.', '', '-\tCharging requirements (e.g., based on traffic differentiation in specific network sharing geographical areas).', '', '-\tUser/service experience (e.g., maintain the communication latency for voice, and SMS) when accessing the shared network, including scenarios of home-routed traffic or local breakout.', '', '-\tOther aspects, e.g., regulatory requirements, emergency services, PWS support.', '', '', '']</t>
+          <t>['1\tScope&lt;/h1&gt;', '', 'The present document provides Stage 1 normative service requirements for 5G systems, in particular service requirements for cyber-physical control applications in vertical domains and requirements for auxiliary applications. In the context of the present document, cyber-physical systems are to be understood as systems that include engineered, interacting networks of physical and computational components; control applications are to be understood as applications that control physical processes. Examples for auxiliary applications are distributed sensing and asset monitoring.', '', 'Communication services supporting cyber-physical control applications need to be ultra-reliable and, in some cases, the end-to-end latency must be very low. Communication for cyber-physical control applications supports operation in various vertical domains, for instance industrial automation, Smart Grid . ', '', 'The aspects addressed in the present document include:', '', '-\tend-to-end service performance requirements and network performance requirements related to these end-to-end service performance requirements; ', '', '-\tsupport for Ethernet services specific to industrial/high performance use cases. Related Ethernet functionalities include, for example, those in IEEE 802.1Qbv;', '', '-\tdirect device connection and indirect network connection for cyber-physical applications.', '']</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.6077384310987872</v>
+        <v>0.1975625151368258</v>
       </c>
     </row>
     <row r="3">
@@ -493,27 +493,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>22856-j00.docx</t>
+          <t>22851-j00.docx</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR3_other</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['1\tScope&lt;/h1&gt;', '', 'The present document investigates specific use cases and service requirements for 5GS support of enhanced XR-based services, (as XR-based services are an essential part of "Metaverse" services considered in this study,) as well as potentially other functionality, to offer shared and interactive user experience of local content and services, accessed either by users in the proximity or remotely. In particular, the following areas are studied:', '', '-\tSupport of interactive XR media shared among multiple users in a single location, including:', '', '-\tperformance (KPI) aspects; e.g. latency, throughput, connection density', '', '-\tefficiency and scalability aspects, for large numbers of users in a single location.', '', '-\tthe combination of haptics type of XR media and other non-haptics types of XR media.', '', '-\tIdentification of users and other digital representations of entities interacting within the Metaverse service.', '', '-\tAcquisition, use and exposure of local (physical and digital) information to enable Metaverse services, including:', '', '-\tacquiring local spatial/environmental information and user/UE(s) information (including viewing angle, position and direction);', '', '-\texposing local acquired spatial, environmental and user/UE information to 3&lt;sup&gt;rd&lt;/sup&gt; parties to enable Metaverse services.', '', '-\tOther aspects, such as privacy, charging, public safety and security requirements.', '', 'The study also investigates gaps between the identified new potential requirements and the requirements already specified for the 5G system. ', '', 'It is acknowledged that there are activities related to the topic Metaverse outside of 3GPP, such as the W3C Open Metaverse Interoperability Group (OMI). These activities may be considered in the form of use cases and related contributions to this study, but there is no specific objective for this study to consider or align with external standardization activities.', '', 'A difference between this study and TR 22.847 " Study on supporting tactile and multi-modality communication services" is that Metaverse services would involve coordination of input data from different devices/sensors from different users and coordination of output data to different devices at different destinations to support the same task or application.', '']</t>
+          <t>['1\tScope&lt;/h1&gt;', '', 'The present document investigates use cases and potential new requirements related to 3GPP system enhanced support of specific 5G network sharing deployment scenarios, in particular where there is no direct interconnection between the shared NG-RAN and participating operators’ core networks. It includes the following aspects:', '', '-\tMobility and service continuity, e.g., when moving from a non-shared 4G/5G network to a shared 5G network and vice versa, with focus on CN aspects. ', '', '-\tPotential security requirements.', '', '-\tCharging requirements (e.g., based on traffic differentiation in specific network sharing geographical areas).', '', '-\tUser/service experience (e.g., maintain the communication latency for voice, and SMS) when accessing the shared network, including scenarios of home-routed traffic or local breakout.', '', '-\tOther aspects, e.g., regulatory requirements, emergency services, PWS support.', '', '', '']</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.5676121371873883</v>
+        <v>0.2061612745754245</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>&lt;h1&gt;4	Overview&lt;/h1&gt;</t>
+          <t>&lt;h1&gt;</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,47 +528,47 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['', 'Mobile metaverse services are discussed in this technical report both in the abstract and concrete. Specific services mentioned in the TR include:', '', '-\tSituational awareness for drivers, pedestrians, cyclists, to increase safety and efficiency of transport (see 5.2).', '', '-\tXR enabled collaborative and concurrent engineering, to enable local and remote collaboration (see 5.3).', '', '-\tParticipatory in and passive observation of virtual reality events, e.g. basketball (see 5.6).', '', '-\tPresentation of AR content, e.g. a feature length movie, on a virtual screen (see 5.7).', '', '-\tRemote critical health care, including surgery and treatment (see 5.10).', '', 'The study also considers a number of use cases that feature new service enablers, including:', '', '-\tProviding users with information and services that are of local relevance (see 5.1).', '', '-\tEnhancements to IMS to support multiple users and multi-modal XR communication (see 5.3).', '', '-\tSupport for spatial anchors to link service information to specific locations (see 5.4).', '', '-\tSupport for spatial localization and mapping services, and enablers for them in the 5GS (see 5.5).', '', '-\tSupport for multi-service coordination for different input and output devices and diverse services (see 5.8).', '', '-\tSupport for synchronization of different data streams and predicted network conditions (especially latency) to enable immersive remote collaboration despite significant distance and therefore communication delay between participants (see 5.9).', '']</t>
+          <t>['1\tScope&lt;/h1&gt;', '', 'The present document investigates specific use cases and service requirements for 5GS support of enhanced XR-based services, (as XR-based services are an essential part of "Metaverse" services considered in this study,) as well as potentially other functionality, to offer shared and interactive user experience of local content and services, accessed either by users in the proximity or remotely. In particular, the following areas are studied:', '', '-\tSupport of interactive XR media shared among multiple users in a single location, including:', '', '-\tperformance (KPI) aspects; e.g. latency, throughput, connection density', '', '-\tefficiency and scalability aspects, for large numbers of users in a single location.', '', '-\tthe combination of haptics type of XR media and other non-haptics types of XR media.', '', '-\tIdentification of users and other digital representations of entities interacting within the Metaverse service.', '', '-\tAcquisition, use and exposure of local (physical and digital) information to enable Metaverse services, including:', '', '-\tacquiring local spatial/environmental information and user/UE(s) information (including viewing angle, position and direction);', '', '-\texposing local acquired spatial, environmental and user/UE information to 3&lt;sup&gt;rd&lt;/sup&gt; parties to enable Metaverse services.', '', '-\tOther aspects, such as privacy, charging, public safety and security requirements.', '', 'The study also investigates gaps between the identified new potential requirements and the requirements already specified for the 5G system. ', '', 'It is acknowledged that there are activities related to the topic Metaverse outside of 3GPP, such as the W3C Open Metaverse Interoperability Group (OMI). These activities may be considered in the form of use cases and related contributions to this study, but there is no specific objective for this study to consider or align with external standardization activities.', '', 'A difference between this study and TR 22.847 " Study on supporting tactile and multi-modality communication services" is that Metaverse services would involve coordination of input data from different devices/sensors from different users and coordination of output data to different devices at different destinations to support the same task or application.', '']</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.5807473489652029</v>
+        <v>0.2025979705918417</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;3.1	Terms&lt;/h2&gt;</t>
+          <t>&lt;h1&gt;4	Overview&lt;/h1&gt;</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>22837-j00.docx</t>
+          <t>22261-j30.docx</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LR3_other</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['', 'For the purposes of the present document, the terms given in 3GPP TR\xa021.905\xa0[1] and the following apply. A term defined in the present document takes precedence over the definition of the same term, if any, in 3GPP TR\xa021.905\xa0[1].', '', '&lt;b&gt;3GPP sensing data&lt;/b&gt;: data derived from 3GPP radio signals impacted (e.g. reflected, refracted, diffracted) by an object or environment of interest for sensing purposes, and optionally processed within the 5G system.', '', '&lt;b&gt;5G Wireless sensing: &lt;/b&gt;5GS feature providing capabilities to get information about characteristics of the environment and/or objects within the environment (e.g. shape, size, orientation, speed, location, distances or relative motion between objects, etc) using NR RF signals and, in some cases, previously defined information available in EPC and/or E-UTRA.', '', '&lt;b&gt;Human motion rate accuracy&lt;/b&gt; describes the closeness of the measured value of the human body movement frequency caused by part(s) (e.g. chest) of the target object (i.e. human body) to the true value of the human body movement frequency.', '', '&lt;b&gt;non-3GPP&lt;/b&gt; &lt;b&gt;sensing data&lt;/b&gt;: data provided by non-3GPP sensors (e.g. video, LiDAR, sonar) about an object or environment of interest for sensing purposes.', '', '&lt;b&gt;Sensing assistance information: &lt;/b&gt;information that is provided to 5G system and can be used to derive sensing result. ', '', 'NOTE 1: Examples of sensing assistance information are map information, area information, a UE ID attached to or in the proximity of the sensing target, UE position information, UE velocity information and etc&lt;b&gt;.&lt;/b&gt;', '', '&lt;b&gt;Sensing contextual information&lt;/b&gt;: information that is exposed with the sensing results by 5G system to a trusted third party which provides context to the conditions under which the sensing results were derived. ', '', 'NOTE 2: Examples includes map information, area information, time of capture, UE location and ID. This contextual information can be required in scenarios where the sensing result is to be combined with data from other sources outside the 5GS.', '', '&lt;b&gt;Sensing group&lt;/b&gt;: a set of sensing transmitters and sensing receivers whose location is known and whose sensing data can be collected synchronously.', '', '&lt;b&gt;Sensing measurement process&lt;/b&gt;: process of collecting sensing data.', '', '&lt;b&gt;Sensing receiver:&lt;/b&gt; a sensing receiver is an entity that receives the sensing signal which the sensing service will use in its operation. A sensing receiver is an NR RAN node or a UE. A Sensing receiver can be located in the same or different entity as the Sensing transmitter.', '', '&lt;b&gt;Sensing result&lt;/b&gt;: processed 3GPP sensing data requested by a service consumer.', '', '&lt;b&gt;Sensing signals: &lt;/b&gt;Transmissions on the 3GPP radio interface that can be used for sensing purposes.', '', 'NOTE 3:\tThe definition refers to NR RF signals and, in some cases, previously defined information available in EPC and/or E-UTRA can be used, without leading to impacts on EPC and E-UTRA.', '', '&lt;b&gt;Sensing transmitter:&lt;/b&gt; a sensing transmitter is the entity that sends out the sensing signal which the sensing service will use in its operation. A Sensing transmitter is an NR RAN node or a UE. A Sensing transmitter can be located in the same or different entity as the Sensing receiver.', '', '&lt;b&gt;Target sensing service area&lt;/b&gt;: a cartesian location area that needs to be sensed by deriving characteristics of the environment and/or objects within the environment with certain sensing service quality from the impacted (e.g. reflected, refracted, diffracted) wireless signals. This includes both indoor and outdoor environments.', '', '&lt;b&gt;Moving target sensing service area:&lt;/b&gt; the case where a target sensing service area is moving according to the mobility of a target from sensing transmitter’s perspective.', '', '&lt;b&gt;Transparent sensing&lt;/b&gt;: sensing measurements are communicated such that they can be discerned and interpreted by the 5G system, e.g. the data is communicated using a standard protocol to an interface defined by the 5G system.', '', 'The following KPIs apply to the definition of the use cases on sensing quantitative requirements:', '', '&lt;b&gt;-&lt;/b&gt;\t&lt;b&gt;Accuracy of positioning estimate&lt;/b&gt; describes the closeness of the measured sensing result (i.e. position) of the target object to its true position value. It can be further derived into a horizontal sensing accuracy – referring to the sensing result error in a 2D reference or horizontal plane, and into a vertical sensing accuracy – referring to the sensing result error on the vertical axis or altitude.', '', '-\t&lt;b&gt;Accuracy of velocity estimate&lt;/b&gt; describes the closeness of the measured sensing result (i.e. velocity) of the target object’s velocity to its true velocity.', '', '-\t&lt;b&gt;Confidence level&lt;/b&gt; describes the percentage of all the possible measured sensing results that can be expected to include the true sensing result considering the accuracy.', '', '-\t&lt;b&gt;Sensing&lt;/b&gt; &lt;b&gt;Resolution&lt;/b&gt; describes the minimum difference in the measured magnitude of target objects (e.g. range, velocity) to be allowed to detect objects in different magnitude.', '', '&lt;b&gt;-&lt;/b&gt;\t&lt;b&gt;Missed detection probability&lt;/b&gt; denotes the ratio of missing event to acquire a sensing result over all events during any predetermined period when the 5G system attempts to acquire a sensing result. It applies only to binary sensing results.', '', '-\t&lt;b&gt;False alarm probability &lt;/b&gt;denotes the ratio of detecting an event that does not represent the characteristics of a target object or environment over all events during any predetermined period when the 5G system attempts to acquire a sensing result. It applies only to binary sensing results.', '', '-\t&lt;b&gt;Max sensing service latency&lt;/b&gt;: time elapsed between the event triggering the determination of the sensing result and the availability of the sensing result at the sensing system interface.', '', '-\t&lt;b&gt;Refreshing rate&lt;/b&gt;: rate at which the sensing result is generated by the sensing system. It is the inverse of the time elapsed between two successive sensing results.', '']</t>
+          <t>['', "Unlike previous 3GPP systems that attempted to provide a 'one size fits all' system, the 5G system is expected to be able to provide optimized support for a variety of different services, different traffic loads, and different end user communities. Various industry white papers, most notably, the NGMN 5G White Paper [2], describe a multi-faceted 5G system capable of simultaneously supporting multiple combinations of reliability, latency, throughput, positioning, and availability. This technology revolution is achievable with the introduction of new technologies, both in access and the core, such as flexible, scalable assignment of network resources. In addition to increased flexibility and optimization, a 5G system needs to support stringent KPIs for latency, reliability, throughput, etc. Enhancements in the radio interface contribute to meeting these KPIs as do enhancements in the core network, such as network slicing, in-network caching and hosting services closer to the end points.", '', 'A 5G system also supports new business models such as those for IoT and enterprise managed networks. Drivers for the 5G KPIs include services such as Uncrewed Aerial Vehicle (UAV) control, Augmented Reality (AR), and factory automation. Network flexibility enhancements support self-contained enterprise networks, installed and maintained by network operators while being managed by the enterprise. Enhanced connection modes and evolved security facilitate support of massive IoT, expected to include tens of millions of UEs sending and receiving data over the 5G network.', '', 'Flexible network operations are the mainstay of the 5G system. The capabilities to provide this flexibility include network slicing, network capability exposure, scalability, and diverse mobility. Other network operations requirements address the necessary control and data plane resource efficiencies, as well as network configurations that optimize service delivery by minimizing routing between end users and application servers. Enhanced charging and security mechanisms handle new types of UEs connecting to the network in different ways. The enhanced flexibility of the 5G system also allows to cater to the needs of various verticals. For example, the 5G system introduces the concept of non-public networks providing exclusive access for a specific set of users and specific purpose(s). Non-public networks can, depending on deployment and (national) regulations, support different subsets of 5G functionality. In this specification 5G network requirements apply to both NPNs and PLMNs, unless specified otherwise. Additionally, there are specific requirements dedicated only to NPNs or PLMNs, which are indicated accordingly. More information can be found in Section 6.25.', '', 'Mobile Broadband (MBB) enhancements aim to meet a number of new KPIs. These pertain to high data rates, high user density, high user mobility, highly variable data rates, deployment, and coverage. High data rates are driven by the increasing use of data for services such as streaming (e.g. video, music, and user generated content), interactive services (e.g. AR), and IoT. These services come with stringent requirements for user experienced data rates as well as associated requirements for latency to meet service requirements. Additionally, increased coverage in densely populated areas such as sports arenas, urban areas, and transportation hubs has become essential for pedestrians and users in urban vehicles. New KPIs on traffic and connection density enable both the transport of high volumes of data traffic per area (traffic density) and transport of data for a high number of connections (e.g. UE density or connection density). Many UEs are expected to support a variety of services which exchange either a very large (e.g. streaming video) or very small (e.g. data burst) amount of data. The 5G system will handle this variability in a resource efficient manner. All of these cases introduce new deployment requirements for indoor and outdoor, local area connectivity, high user density, wide area connectivity, and UEs travelling at high speeds.', '', 'Another aspect of 5G KPIs includes requirements for various combinations of latency and reliability, as well as higher accuracy for positioning. These KPIs are driven by support for both commercial and public safety services. On the commercial side, industrial control, industrial automation, UAV control, and AR are examples of those services. Services such as UAV control will require more precise positioning information that includes altitude, speed, and direction, in addition to horizontal coordinates.', '', 'Support for Massive Internet of Things (MIoT) brings many new requirements in addition to those for the enhanced KPIs. The expansion of connected things introduces a need for significant improvements in resource efficiency in all system components (e.g. UEs, IoT devices, radio, access network, core network).', '', 'The 5G system also aims to enhance its capability to meet KPIs that emerging V2X applications require. For these advanced applications, the requirements, such as data rate, reliability, latency, communication range and speed, are made more stringent.', '']</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.577983822890715</v>
+        <v>0.1868822749345736</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;6.1	Network support and exposure for UAV usage&lt;/h2&gt;</t>
+          <t>&lt;h1&gt;4	Overview&lt;/h1&gt;</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>22843-j00.docx</t>
+          <t>22856-j00.docx</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -578,47 +578,47 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['', 'CPR #', '', 'Consolidated Potential Requirement', '', 'Original PR #', '', 'Comment', '', 'CPR 6.1-001', '', 'Based on operator’s policy, the 5G system shall be able to support a method to predict, monitor network conditions and QoS (e.g. bitrate, latency, reliability) and report to 3rd party along a continuous geographic planned flight path of a UAV at specific times of its expected flight duration.', '', 'P.R 5.2.6-001', '', 'P.R 5.6.6-001', '', '', '', 'CPR 6.1-002', '', 'Based on operator’s policy, the 5G system shall be able to provide UTM with the information about geographic areas where UAV service requirements could or could not be met based on predicted network conditions and QoS (e.g. bitrate, latency, reliability).', '', 'P.R 5.2.6-002', '', '', '', 'CPR 6.1-003', '', 'Based on a 3&lt;sup&gt;rd&lt;/sup&gt; party request, the 5G system shall be able to provide to the 3&lt;sup&gt;rd&lt;/sup&gt; party alternative UAV flight paths, as long as UTM-provided required waypoints (e.g. start/end locations), required QoS, and exclusion zones are fulfilled.', '', 'P.R 5.2.6-003', '', '', '', 'CPR 6.1-004', '', 'Based on a 3&lt;sup&gt;rd&lt;/sup&gt; party request and operator’s policy, the 5G system shall be able to reconfigure network resources to provide the required QoS along a UAV planned flight path, e.g. at particular geographical area(s) and time(s).', '', 'P.R 5.2.6-004', '', '', '', 'CPR 6.1-005', '', '&lt;span style="color:000000"&gt;The 5G system shall be able to support a mechanism to enable a network operator to track a UAV which doesn’t have subscription with this network operator.&lt;/span&gt;', '', '', '', '&lt;span style="color:000000"&gt;P.R 5.7.6-001&lt;/span&gt;', '', '', '', '', '', 'CPR 6.1-006', '', 'The 5G system shall be able to support service enablement layer exposure mechanisms for the UTM or other authorized 3rd party to provide the UAV application with configuration information to route and switch traffic between one active and one standby PLMN connection, e.g. for C2 communication reliability and redundancy purpose, or to route different traffic across different PLMN connections simultaneously, e.g. C2 traffic via one PLMN and other data via the second PLMN.', '', 'NOTE 1: The above requirement can be extended to scenarios where one network is a PLMN and one is an NPN.', '', 'NOTE 2: There is no impact on legacy network selection. ', '', 'NOTE 3: It is assumed that UAV traffic handling, over each PLMN, is subject to NW control mechanisms (e.g. in accordance with MNO routing priorities, available QoS/NW resources, etc.).', '', '', '', '&lt;span style="color:000000"&gt;P.R 5.8.6-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;P.R 5.9.6-001&lt;/span&gt;', '', '', '', 'CPR 6.1-007', '', 'The 5G system shall be able to support mechanisms for the UTM to configure different aerial flight zones where UAV application settings and communication QoS may be different, and provide network and UAV with means to identify those flight zones.', '', '&lt;span style="color:000000"&gt;P.R 5.10.6-001&lt;/span&gt;', '', '', '', 'CPR 6.1-008', '', 'The 5G system shall be able to support mechanisms for the UTM to provide network and UAV with policy information including UAV application settings and communication QoS to be applied in specific aerial flight zones, e.g. based on flight zone type indicated or available to the UAV in a certain geographical location.', '', '&lt;span style="color:000000"&gt;P.R 5.10.6-002&lt;/span&gt;', '', '', '', '', '']</t>
+          <t>['', 'Mobile metaverse services are discussed in this technical report both in the abstract and concrete. Specific services mentioned in the TR include:', '', '-\tSituational awareness for drivers, pedestrians, cyclists, to increase safety and efficiency of transport (see 5.2).', '', '-\tXR enabled collaborative and concurrent engineering, to enable local and remote collaboration (see 5.3).', '', '-\tParticipatory in and passive observation of virtual reality events, e.g. basketball (see 5.6).', '', '-\tPresentation of AR content, e.g. a feature length movie, on a virtual screen (see 5.7).', '', '-\tRemote critical health care, including surgery and treatment (see 5.10).', '', 'The study also considers a number of use cases that feature new service enablers, including:', '', '-\tProviding users with information and services that are of local relevance (see 5.1).', '', '-\tEnhancements to IMS to support multiple users and multi-modal XR communication (see 5.3).', '', '-\tSupport for spatial anchors to link service information to specific locations (see 5.4).', '', '-\tSupport for spatial localization and mapping services, and enablers for them in the 5GS (see 5.5).', '', '-\tSupport for multi-service coordination for different input and output devices and diverse services (see 5.8).', '', '-\tSupport for synchronization of different data streams and predicted network conditions (especially latency) to enable immersive remote collaboration despite significant distance and therefore communication delay between participants (see 5.9).', '']</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.6875973831561824</v>
+        <v>0.2034154293636458</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;7.2	Consolidated potential KPIs of sensing results&lt;/h2&gt;</t>
+          <t>&lt;h1&gt;4	Overview&lt;/h1&gt;</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>22837-j00.docx</t>
+          <t>22989-j30.docx</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service level&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area &lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[ms]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[s]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Missed detection&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Example Services&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Object detection and tracking&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1 (use cases 5.1; 5.13 – level1)&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Object to be detected indoor: Human, object to be detected outdoor: UAV&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤10&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤10&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;10 &lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE 2&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;10&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE 3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt;1000&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 2&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;intruder detection in smart home,&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;UAV intrusion detection&lt;/span&gt;', '', '', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;2 (use cases 5.13 – level2, 5.6)&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Object to be detected outdoor:&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Human, UAV&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;10 &lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE 2&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;10&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE 3&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤1000]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤1]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;UAV flight route intrusion detection,&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;intruder detection in surroundings of smart home&lt;/span&gt;', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;3 (use cases 5.2, 5.7, 5.10, 5.11, 5.12, 5.23)&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Factory (100m2), crossroad, highway, railway [air]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE 4&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Object to be detected: Animal, Human, UAV, Vehicle&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE\xa05&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;&amp;lt;1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE\xa05&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE\xa08&lt;/span&gt;', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1 x 1 NOTE\xa09&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤100 ≤1000&lt;/span&gt;', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE\xa06&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE\xa010&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≥0.05 ÷ ≤ 0.1 ≤ 1]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE\xa011&lt;/span&gt;', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤2&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤2&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;pedestrian/animal intrusion detection on a highway/railway,&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;sensing at crossroads with/without obstacle,&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;UAV flight trajectory tracing&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;UAV collision avoidance,&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;AMR collision avoidance in smart factories&lt;/span&gt;', '', '', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;4 (use cases 5.20, 5.22, 5.25, 5.27, 5.32)&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Public area safety, factory&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE 7&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Object to be detected: Animal, Human, UAV, AGV/AMR, Vehicle&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.1&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;Pedestrian: ≤1.5&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;Vehicle: ≤15&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;Pedestrian: ≤1.5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.5m &lt;/span&gt;', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;5 x 5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;for factories 0.5 may be needed&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;250&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.25 ≤ 1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Parking Space Determination,&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;UAVs/vehicles/pedestrians detection near Smart Grid equipment,&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;immersive experience based on sensing,&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;public safety search and rescue or apprehend,&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;integrated sensing and positioning in factory hall&lt;/span&gt;', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;5 (use cases 5.28)&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;ADAS -TBD&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Object to be detected: Vehicle&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[95]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;~ [0.1]-[1.3] ; for short range radar ~[0.02]-[2.6]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;TBD&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[±0.03] -[±0.12] m/s&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt; [0.4]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[0.1] – [0.6]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[50]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[0.05] -[0.2]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[1-10] %&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[&amp;lt;1] %&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;ADAS&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Environment monitoring&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1 (use case 5.14)&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Object to be detected outdoor:&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Human&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤2]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[1] &lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[1]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1000 NOTE\xa010&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤0.2]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;traffic management&lt;/span&gt;', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;2 (use cases 5.3 and 5.5.)&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Rainfall monitoring and flooding&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE 14&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Object to be detected: Rain&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤10&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤0.2]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE\xa015&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1 min&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1&amp;lt;10min, application configurable&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;&amp;lt; 0.1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;&amp;lt; 3&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;rainfall monitoring,&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;flooding monitoring&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Motion monitoring&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1 (use cases 5.15, 5.24, 5.29)&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Indoor human motion -sleep monitoring NOTE 12, sports monitoring NOTE 13, gesture recognition&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Motion on human, gesture&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.1 valid for gesture recognition&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.1 valid for gesture recognition&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;60s&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;60, ≤&lt;/span&gt;&lt;span style="font-size:16pt"&gt;0.1 for gesture recognition&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;sleep monitoring,&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;sports monitoring,&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;gesture recognition&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 1:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 7.2-1 are found in Section 3.1.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 2: To detect the UAV existance (e.g., for intrusion detection), the sensing resolution of distance is 10m [25].&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa03:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;To detect the UAV existence, the sensing resolution of velocity is 10m/s [25].&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa04: The typical size (Length x Width x Height) of UAV is 1.6m x 1.5m x 0.7m, the typical size of pedestrian is 0.5m x 0.5m x 1.75m, and the typical size of engineering vehicle is 7.5m x 2.5m x 3.5 m.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa05:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;T&lt;/span&gt;he KPI values for UAVs are sourced from [25] and [40] and for factories &lt;span style="font-size:16pt"&gt;are sourced from [47]&lt;/span&gt;.', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa06:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The value 100 ms is sourced from [28] and is valid for sensing at crossroads.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa07: The safe distance between pedestrian/vehicle and transmission station/line is 0.7m/0.95m [46]. The size of the park of Smart Grid depends on the real environment.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa08:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;To track the UAV flying (e.g., for collision detection and warning), the sensing resolution of distance is 1m [25].&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa09:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;To track the UAV flying, the sensing resolution of velocity is 1m/s [25].&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa010:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;To realize 1m granularity tracking, when the velocity resolution is 1 m/s, the maximum corresponding sensing service latency is 1s.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa011:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Echodyne MESA-DAA&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;TM &lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:16pt"&gt;has approximate 1Hz scan rate [40].&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 12:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Additional KPI on motion rate accuracy of 2 times/min (0.033 Hz).&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 13:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Additional KPI on motion rate accuracy of 3 times/min (0.05Hz) and 4 times/min (0.07 Hz)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa014:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Rainfall estimation accuracy is1 mm/h[39] and describes the closeness of the measured rainfall estimation to its true rainfall value.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa015:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;This value is for the water level. Description related to NOTE in clause 5.5.1 suggests 0.01 m. [≤0.2] is derived from the water level where people feel difficulty in walking.&lt;/span&gt;', '', '', '', 'Editor’s note: The values in brackets are FFS', '', '', '', 'Editor’s note: Different service level of the KPIs is FFS', '', '', '']</t>
+          <t>['', 'The present document is an 800 series Technical Report (TR) written by 3GPP TSG SA WG1 (SA1). Such a TR is not normative, i.e. cannot be used for implementation directly and cannot be referred to by other 3GPP specifications. It was primarily written by SA1 to summarise the high-level communication needs of the railway community and to identify the corresponding requirements, which, in another step have been introduced into normative Technical Specifications (TS) of 3GPP. ', '', 'An 800 series TR will not be updated when in the process of introduction of the requirements to TS changes are made to those requirements, i.e. the text of the requirements listed here in this TR will not be aligned with the requirements in the TS. Due to the fact that most of the requirements identified in this document were introduced in already existing Mission Critical Communication (MCX) TS, an alignment with the MCX terminology and functionality was made resulting in most of the requirements in here being reworded in the TS. Also, TS requirements changes due to future work affecting requirements stemming from this TR will not result in updates of this TR.', '', 'However, the columns “Comments” of the requirements tables listed below were updated to indicate the disposition of the requirement in the TS and most of the time summarising deviations and decisions taken when introducing those requirement into normative TS. By following these references into the normative TS the functionality provided by 3GPP for railway communication can be derived by the reader. ', '', 'FRMCS will adapt 3GPP transport to provide communication to railway users. It eventually will resemble GSM-R and will additionally provide communication capabilities beyond what GSM-R has been able to. It will provide higher data rates, lower data latencies, multimedia communication, and improved communication reliability. FRMCS considers end-to-end use cases and also provides requirements that might or might not be in scope of 3GPP existing specifications. To facilitate smooth migration from legacy communication systems (e.g. GSM) to FRMCS, interworking requirements between legacy communication systems and FRMCS are provided.', '', 'FRMCS Equipment shall connect to application domain through 3GPP radio access or other access. It provides emergency group communication, low latency and high reliable data and video service in high speed train environment. Amongst others it has the following important features:', '', '-\tPrioritized emergency group communication, train control data and video service', '', '-\tSeamless connectivity in high speed railway moving environments', '', '-\tLow latency and high reliable data and video service', '', '-\tReal time train monitoring and management for safe train operation', '', '-\tReliable location tracking including in tunnel tracking', '', '-\tLegacy railway communication interworking to GSM-R system', '', '', '', '----media/image3.jpeg----', '', 'Figure 4-1: High-level relation of FRMCS and legacy systems', '', 'Basically, railway communication services [5] can be categorized into', '', '-\tTrain control services', '', '-\tMaintenance services', '', '-\tRailway specific services (such as Railway Emergency Call, functional addressing, and location-based addressing)', '', '-\tOther services (providing train crews or train Drivers with information of train operation and interworking with the existing railway communication systems)', '', 'This study categorizes all the use cases by considering inherent characteristics of railway applications. Specifically, the following categories of use cases are considered.', '', '-\tBasic functionality', '', '-\tCritical communication applications', '', '-\tPerformance communication applications', '', '-\tBusiness communication applications', '', '-\tCritical support applications', '', '-\tPerformance support applications', '', '-\tBusiness support applications', '', '-\tFRMCS System principles', '', 'The categories can be depicted conceptually as follows:', '', '', '', '----media/image4.png----', '', 'Figure 4-2: Grouping of FRMCS Applications', '']</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.6585521373376819</v>
+        <v>0.211391078034468</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;7.2	Consolidated potential KPIs&lt;/h2&gt;</t>
+          <t>&lt;h1&gt;B.6	Unacceptable deviation from target end-to-end latency&lt;/h1&gt;</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>22856-j00.docx</t>
+          <t>22104-j00.docx</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -628,97 +628,97 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['', '&lt;span style="font-size:16pt"&gt;Use Cases&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Characteristic parameter (KPI)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Influence quantity&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Remarks&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Max allowed end-to-end latency&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Service bit rate: user-experienced data rate&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Reliability&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Area Traffic capacity&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Message size (byte)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Transfer Interval&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Positioning accuracy&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UE Speed&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Service Area&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;5G-enabled Traffic Flow Simulation and Situational Awareness&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 2)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[5-20] ms (NOTE 1)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[10~100 Mbit/s] &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 6)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&amp;gt; 99.9%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[~39.6 Tbit/s/km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:16pt"&gt; ] &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 5)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;20~100 ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 3)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 250 km/h&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;City or Country wide&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 4)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UL&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Collaborative and concurrent engineering&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[≤10] ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[14]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 7)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[1-100] Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[14]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[&amp;gt; 99.9%] &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[14]&lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;[1.55] Tbit/s/km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:16pt"&gt; &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 8)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Video: 1500&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Audio: 100&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[14]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;typically &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 9)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UL and DL audio/video&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[5] ms UL &lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[1-50] ms DL&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[14]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 7)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[&amp;lt;1] Mbit/s &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[14]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[&amp;gt; 99.9%] (without compression)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[&amp;gt; 99.999%] (with compression (NOTE 10))&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[26]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[2.25] Tbit/s/km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:16pt"&gt; &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 8)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1 DoF: 2-8 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3 DoFs: 6-24 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6 DoFs: 12-48 &lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[14]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.25-10 ms &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[14]&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;UL and DL haptic feedback&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Metaverse-based Tele-Operated Driving&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 16)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[100] ms [25] (NOTE 11)&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;[10~50 Mbit/s] [25] &lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;99% [25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[~360 Mbit/s/km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:16pt"&gt; ] &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 14)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;20~100 ms [25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 12)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[10] cm [25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[10-50] km/h (vehicle) [25]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Stationary/Pedestrian (user)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Up to 10km radius [25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 13)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UL real-time vehicle data (video streaming and/or sensor data) [25]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[20] ms [25]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[0.1~0.4 Mbit/s] [25]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;99,999% [25]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[~4 Mbit/s/km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:16pt"&gt; ] &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 14)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Up to 8Kb&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt; [25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;20 ms [25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 12)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[10] cm [25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[10-50] km/h (vehicle) [25]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Stationary/Pedestrian (user)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Up to 10km radius [25]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;(NOTE 13)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;DL control traffic (commands from the remote driver) [25].&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;1-20ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 15)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16 kbit/s -2 Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(without haptic compression encoding);&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;0.8 - 200 kbit/s &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(with haptic compression encoding)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 15)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.999%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 15)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[~20 Mbit/s/km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:16pt"&gt; ] &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 14)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2-8 (1 DoF) (NOTE 15)&lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Stationary/Pedestrian (user)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Up to 10km radius [25]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;(NOTE 13)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Haptic feedback&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 1: The mobile metaverse server receives the data from various sensors, performs data processing, rendering and provide feedback to the vehicles and users. The end-to-end latency refers to the transmission delay between a UE and the mobile metaverse server.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 2: Examples of typical data volume including 1) camera: 10 Mbit/s per sensor (unstructured), 2) LiDAR: 90 Mbit/s per sensor (unstructured), 3) radar: 10 Mbit/s per sensor (unstructured), and 4) real-time Status information including Telemetry data: [&amp;lt; 50 kbit/s] per sensor/vehicle/VRU (structured). This is to support at least 80 vehicles and 1600 users present at the same location (e.g. in an area of 40m*250m) to actively enjoy immersive metaverse services for traffic simulation and traffic awareness, the area traffic capacity is calculated considering 2 cameras, 2 Radars, 2 LiDARs on road side, 1600 user’s smart phones and 80 vehicles with 7 cameras, 4 radar and 2 LiDAR for each vehicle.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 3: The frequency considers different sensor types such as Radar/LiDAR (10Hz) and camera (10~50Hz).&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 4: &lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The service area for traffic flow simulation and situational awareness depends on the actual deployment, for example, it can be deployed for a city or a district within a city or even countrywide. In some cases a local approach (e.g. the application servers are hosted at the network edge) is preferred in order to satisfy the requirements of low latency and high reliability.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 5: The calculation is this table is done per one 5G network, in case of N 5G networks to be involved for such use case in the same area, this value can be divided by N.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 6: User experienced data rate refers to the data rate needed for the vehicle or human, the value is observed from industrial practice. &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 7: The network based conference focus is assumed, which receives data from all the participants, performs rendering (image synthesis), and then distributes the results to all participants. The latency refers to the transmission delay between a UE and the application server. As rendering and hardware introduce some delay, the communication delay for haptic feedback is typically less than 5ms.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 8: To support at least 15 users present at the same location (e.g. in an area of 20m*20m) to actively enjoy immersive Metaverse service concurrently, the area traffic capacity is calculated considering per user consuming non-haptic XR media (e.g. for video per stream up to 40000 kbit/s) and concurrently 60 haptic sensors (per haptic sensor generates data up to 1024 kbit/s).&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 9: &lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;In practice, the service area depends on the actual deployment. In some cases a local approach (e.g. the application servers are hosted at the network edge) is preferred in order to satisfy the requirements of low latency and high reliability.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 10: The arrival interval of compressed haptic data usually follow some statistical distributions, such as generalized Pareto distribution, and Exponential distribution [26].&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 11: The end-to-end latency refers to the transmission delay between a UE and the mobile metaverse server or vice-versa, not including sensor acquisition or actuator control on the vehicle side, processing, and rendering on the user side (estimated additional 100ms total). Target e2e user experienced max delay depends on reaction time of the remote driver (e.g. at 50km/h, 20ms means 27cm of remote vehicle movement).&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 12: UL data transfer interval around 20ms (video) to 100ms (sensor), DL data transfer interval (commands) around 20ms.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 13: The service area for teleoperation depends on the actual deployment; for example, it can be deployed for a warehouse, a factory, a transportation hub (seaport, airport etc.), or even a city district or city. In some cases, a local approach (e.g., the application servers are hosted at the network edge) is preferred to satisfy low latency and high-reliability requirements.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 14: The area traffic capacity is calculated for one 5G network, considering 4 cameras + sensors on each vehicle. Density is estimated to 10 vehicles/km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:16pt"&gt;, each of the vehicles with one user controlling them. [25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 15: KPI comes from [5] clause 7.11 “remote control robot” use case.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 16: Examples of typical data volume including 1) ~8Mbps video stream. Four cameras per vehicle (one for each side): 4*8=32Mbps. 2) sensor data (interpreted objects), assuming 1 kB/object/100 ms and 50 objects: 4 Mbps [25].&lt;/span&gt;', '', '', '']</t>
+          <t>['', 'Messages may be delayed or advanced beyond their permitted arrival time window. Causes for this behaviour include errors in the transmission medium, congested transmission lines, interference, and applications sending messages in such a manner that communication services are delayed or denied.', '', 'Message errors can be recovered in the following ways using scheduled or cyclic scans, for instance, in field buses:', '', 'a)\timmediate repetition;', '', 'b)\trepetition using spare time at the end of the cycle;', '', 'c)\ttreating the message as lost and waiting for the next cycle to receive the next value.', '', 'In case of (a), all subsequent messages in that cycle are slightly delayed, while in case (b) only the resent message is delayed.', '', 'Cases (a) and (b) are often not classed as an unacceptable deviation from the target end-to-end latency.', '', 'Case (c) would be classed as an unacceptable delay for cyclic, distributed automation functions, unless the cycle repetition interval is short enough to ensure that delays between cycles are not significant and that the next cyclic value can be accepted as a replacement for the missed previous value before the survival time expiries (see Clause C.3) [3].', '']</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.6745876697238239</v>
+        <v>0.207674632745685</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;	5.32.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+          <t>&lt;h1&gt;C.5	Communication service terminology w.r.t. 5G network and vertical applications&lt;/h1&gt;</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>22837-j00.docx</t>
+          <t>22104-j00.docx</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR3_other</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['', '[PR 5.32.6-1] Based on operator’s policy, the 5G system may provide a mechanism for a trusted third party to provide sensing assistance information about a sensing target.', '', '[PR 5.32.6-2] The 5G system shall be able to provide sensing results with the following KPIs:', '', 'Table 5.32.6-1\tPerformance requirements of the sensing results exposed to the third party', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area &lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[ms]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[s]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Missed detection&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Indoor Factory&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;100 m&lt;/span&gt;&lt;span style="color:0C0C0C;font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;99&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤0.5]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[0.5]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[0.5]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤100&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.32.6-1 are found in Section 3.1.&lt;/span&gt;', '', '', '']</t>
+          <t>['', 'This section clarifies the wording and terminology with respect to communication interfaces that are relevant for vertical applications. Because the 3GPP network does not cover the complete ISO-OSI communication stack, it is important to distinguish between', '', '-\tthe vertical applications’ point of view, and ', '', '-\tthe 3GPP network’s point of view. ', '', 'In this section, the relation between those two is clarified.', '', 'Figure C.5-1 shows a simplified version of the communication stack. The PHY layer, the MAC layer and some parts of the IP layer are part of the 3GPP network. The layers that are part of the 3GPP network are referred to as lower communication layers (LCL). The communication stack also includes an application. The OSI layers related to providing data to the application are referred to as the higher communication layers (HCL). The interface between LCL and HCL is referred to as communication service interface (CSIF).', '', 'For the assessment of the overall system performance, it is important to differentiate between the 3GPP network’s performance (i.e., including only the LCL and measured at the CSIF) and the overall system performance including the application layer (i.e., including both, the LCL and the HCL). In Figure C.5-1, the orange arrow depicts the vertical application’s point of view. The blue arrows indicate two options to measure the 3GPP network’s performance, i.e., including and excluding the IP layer.', '', '----media/image25.emf----', '', 'Figure C&lt;b&gt;.&lt;/b&gt;5-1: Network performance measurements at different communication system interfaces (CSIF)', '', 'Figure C.5-2 illustrates how messages are transmitted from a source application device (e.g., a programmable logic controller) to a target application device (e.g. an industrial robot). The source application function (AF) is executed in the source operating system (OS) and hands over a message to the application layer interface of the source communication device. In the higher communication layers (HCL), which are not part of the 3GPP system, the data is processed. From the HCL the data is transferred to the lower communication layers (LCL), which are part of the 3GPP system. After transmission through the physical communication channel and the LCL of the target communication device, the data is passed to the HCL and lastly to the target application device. Characteristic parameters with respect to time are defined in Figure C.5-2.', '', 'From 3GPP system point of view:', '', '-\tTransfer interval of 5G system: Time between the arrival of two pieces of data at the source CSIF.', '', '-\tEnd-to-end latency: Time measured from the point when a piece of data received at the CSIF in the source communication device until the same piece of data is passed to the CSIF in the target communication device.', '', 'From vertical application point of view:', '', '-\tTransfer interval of vertical application: Time between the transmission of two successive pieces of data from the source application.', '', '-\tTransmission time: Time measured from the point when a piece of data is handed from the application layer interface of the source application device, until the same piece of data is received at the application layer interface of the target application device.', '', '-\tUpdate time: Time between the reception of two consecutive pieces of data at the application layer interface to the target application device.', '', 'If not stated otherwise, the terms "end-to-end latency" and "transfer interval" refer to the 3GPP system / 5G network parameters in this document.', '', '----media/image26.emf----', '', 'Figure &lt;span style="font-size:18pt"&gt;C&lt;/span&gt;&lt;span style="font-size:18pt"&gt;&lt;b&gt;.&lt;/b&gt;&lt;/span&gt;&lt;span style="font-size:18pt"&gt;5-2&lt;/span&gt;: Relation between application device and communication device (downlink example).', '', '', 'Annex D (informative):', '5G in industrial automation: different and multiple time domains for synchronization', '']</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.7029086160885609</v>
+        <v>0.1922865084008719</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.1.1	Description&lt;/h3&gt;</t>
+          <t>&lt;h1&gt;G.2	Battery life expectancy and message size to support example use cases for asset tracking&lt;/h1&gt;</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>22882-j00.docx</t>
+          <t>22261-j30.docx</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LR3_other</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>['', 'Currently energy consumption and efficiency can be monitored and considered through O&amp;amp;M and network operation, but not as a service performance criterion, as for example bit rate, latency or availability. Guidance from SA to all working groups in states: ', '', '&lt;i&gt;"The EE-specific efforts so far undertaken e.g., in SA5 have aimed mostly at improving the energy efficiency by impacting the operations of the system. As we now are starting to specify the 5G-Advanced features, TSG SA kindly requests the recipient WGs and TSGs to consider EE even more as a guiding principle when developing new solutions and evolving the 3GPP systems specification, in addition to the other established principles of 3GPP system design.&lt;/i&gt;', '', '&lt;i&gt;TSG SA clarifies that in addition to EE, other system level criteria shall continue to be met (i.e. the energy efficiency aspects of a solution defined in 3GPP is not to be interpreted to take priority or to be alternative to security, privacy, complexity etc. and to meeting the requirements and performance targets of the specific feature(s) the solution addresses)."&lt;/i&gt;', '', 'There is an important type of traffic where energy efficiency policy, for example a &lt;i&gt;maximum amount of energy to be utilized &lt;/i&gt;could be applied without conflict with this guidance. Best effort traffic is a type of traffic that is provided as a service to customers &lt;i&gt;everything else being equal&lt;/i&gt;. Of course, security, privacy and complexity principles will not be sacrificed, but there is no conflict between a service policy that constrains performance (e.g. latency, throughput, even availability) on the basis of energy consumption and a best effort service, since there are no guarantees in the case of best effort traffic. We can say that best effort traffic is not associated with QoS policy service performance level criteria.', '', 'Today the 5G system works to support services efficiently, though does not take into account energy consumption at the service level. The use case explores a particular opportunity to identify this information and use it to make more efficient use of all network resources without sacrificing service quality. In particular, information gathered through O&amp;amp;M, and in the future possibly from the network (see 5.1.5 which identifies a gap and opportunity), can be leveraged to make it possible to employ energy consumption information as part of service delivery. ', '', 'In the following use case, the possibility of using energy consumption as a new service criterion for this less constrained type of mobile telecommunication service is explored.', '', "A large-scale logistics company L has deployed a large number of communicating components. These are integrated into vehicles, palettes, facilities, etc. Essentially, IoT terminals enable remote tracking and monitoring functions. The information gathered is relevant, but not constrained with respect to latency. In fact, eventual delivery (e.g. after hours or even a full day) of communication is entirely acceptable for L. The MNO M offers a 'green service' which limits the rate of energy utilized for communication over a particular time interval (e.g. per day) and this service is appropriate for L, whose overall corporate goals are also served by 'green service,' as they strive to operate with energy efficiency.", '']</t>
+          <t>['', 'For asset tracking it is important to be able to have the asset on the field during a period corresponding to the life of the asset without changing the UE or the battery of the UE.', '', 'The battery life expectancy, message size and device density values required to support the potential opportunities in various asset tracking use cases are summarised in table G.2-1', '', 'Table G.2-1: Battery life expectancy and message size to support example use cases for asset tracking', '', '', '', '&lt;span style="font-size:16pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Battery Life&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Expectancy&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 1)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Typical Message size&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Maximum &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Message size&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Typical Frequency &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(number of messages per day)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Typical&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Battery &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Capacity&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Device density &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Containers&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 2)&lt;/span&gt;', '', '12 years', '', '200 bytes', '', '2500 bytes', '', '24', '', '21,6 Wh', '', '&lt;span style="color:000000"&gt;1,4 devices / m&lt;/span&gt;&lt;span style="color:000000"&gt;&lt;sup&gt;3&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Wagons&lt;/span&gt;', '', '20 years', '', '200 bytes', '', '2500 bytes', '', '24', '', '36 Wh', '', '0,3 devices /&lt;span style="color:000000"&gt; m&lt;/span&gt;&lt;span style="color:000000"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Pallets&lt;/span&gt;', '', '7 years', '', '300 bytes', '', '300 bytes', '', '24', '', '12 Wh', '', '4 devices/&lt;span style="color:000000"&gt; m&lt;/span&gt;&lt;span style="color:000000"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 1:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Battery life expectancy is to be assumed in all coverage conditions and is based on typical message size value and typical frequency &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 2:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;A large containership with a mix of 20 ft and 40 ft containers is assumed.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 3:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;All the values in this table are targeted values and not strict requirements.&lt;/span&gt;', '', '', '', '', '', 'Annex H (informative):', 'Interworking between Network Operators and Application Providers for localized services', '', 'This clause illustrates examples of scenarios applicable for interworking between hosting network operators (PLMN or NPN) and data applications based on service agreements for localized services among network operators and application/service providers:', '', '--\tHosting network operator owns the 5G network which provides access and IP connectivity to serving UEs. ', '', '--\tNetwork operator owned application layer entities, e.g., including Service Hosting Environment, or IMS network.', '', '--\tApplication platforms in third party domain can be owned by third party application/service providers, or home/other network operators. ', '', '--\tThe Application platforms could be application servers (e.g., Video on Demand Server, Cloud gaming server, etc.), 3rd party software development platforms, and third party/operator Service Hosting Environments. ', '', 'The following figures show the collaborative relationship in three domains including network operators providing access and IP connectivity, network operators providing services via IMS/application platforms, and application/service providers providing services via application platforms or applications. The dashed line between visited hosting network operator and Home network operator is based on service level localized service agreement and the horizontal line represents the demarcation between the network operator domains and the 3rd party domain. In an operator network, the application layer entities can include IMS network, Application platforms, and API Gateway for third party applications developed using APIs (e.g., REST, GSMA OneAPI). ', '', 'Figure H-1 provides the home operator owned/collaborative interworking scenarios where traffic is routed to home network operator and applications are delivered by the home operator via interworking agreements between network operators. ', '', '----media/image9.emf----', '', '&lt;span style="color:000000"&gt;Figure H-1: Home Operator owned/collaborative interworking scenario Home Routed&lt;/span&gt;', '', '&lt;span style="color:auto"&gt;NOTE: The other network operators and service/application operators in 3rd party domain provides collaborative services in application platforms to Home operator. The arrow solid line represents the traffics routed over domains within home operator network while the arrow dash lines represent the traffics routed over domains outside of home operator network.  &lt;/span&gt;', '', 'Figure H-2 provides hosting network operator owned and collaborative interworking scenarios between visited hosting network operator and operators in 3rd party domains where traffic is routed to application from the hosting network to 1) hosting network owned application platforms, 2) collaborative home network owned application platforms, and 3) third parties via interworking agreements between visited hosting network operator and home/other network operators, and between hosting network operator and other application/service providers.', '', '----media/image10.emf----', '', '&lt;span style="color:000000"&gt;Figure H-2: Hosting Network Operator owned/collaborative interworking scenario Local Breakout&lt;/span&gt;', '', 'NOTE: \tThe other network operators and application/service operators in 3rd party domain provides collaborative services in application platform to hosting network operator and/or home network operator. The arrow solid lines represent the traffics routed over domains within hosting network while the arrow dash lines represent the traffics routed over domains outside of hosting operator network.', '', 'Other interworking scenarios are not excluded.', '', '', 'Annex I (informative):', 'Indirect Network Sharing of NG-RAN Sharing', '', "This annex clarifies scenarios applicable for Indirect Network Sharing between a Shared NG-RAN and the corresponding participating operator's core network as alternatives for operators who intend to deploy a NG Radio Access Network. Examples of such scenarios include wide-range coverage of rural areas, long-distance road coverage, compatibility with existing networks, service consistency, cooperation with diverse networks, considering different operators' strategies, commercial agreements, and specific rules/legislation in different countries.", '', "Two or more operators have deployed or plan to deploy 5G access networks and core networks with MOCN. The challenge for the network operators is the maintenance generated by the interconnection (e.g., number of network interfaces) between the shared RAN and two or more core networks, especially for a large number of shared base stations. For these reasons, it is valuable to introduce a newly supported network sharing scenario as the operators' agreement. ", '', 'There is an agreement between all the operators to work together and build a shared network together cover the entire country, utilizing the different operator’s allocated spectrum appropriately in different parts of the coverage area (for example, Low Traffic Areas, LTA and High Traffic Areas, HTA). Multiple operators share one NG-RAN, but their 5GCs are independent. As shown in the following Figures, UEs access their subscribed PLMN services provided by their participating operators respectively, when entering the Shared NG-RAN.', '', '-\tThe Hosting NG-RAN Operator 1, as illustrated below, can share its NG-RAN with the participating operators with or without direct connections between the shared access and the core networks of the participating operators. ', '', '-\tThe Participating NG-RAN Operators 2 and 3, using shared NG-RAN resources provided by the Hosting NG-RAN Operator, e.g., within a specific 5G frequency band or within a specific area, when\tthe Shared NG-RAN does not have direct connections between the shared access and the core networks of the Participating NG-RAN Operators 2 and 3.', '', '-\tThe Participating NG-RAN Operator 4, using shared NG-RAN resources provided by the Hosting NG-RAN Operator, with direct connections between the shared NG-RAN and the core networks of the participating operator, is in a MOCN arrangement.', '', '----media/image11.png----', '', 'Figure I-1: Different options both direct and indirect connections between the Shared NG-RAN and the core networks of the participating operators.', '', '----media/image12.png----', '', 'Figure I-2: Indirect Network Sharing scenario involving core network of Hosting NG-RAN Operator between the Shared NG-RAN and the core networks of the participating operators.', '', '', '', '', '', 'Annex J (informative):', 'Change history', '', '&lt;b&gt;Change history&lt;/b&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Date&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Meeting&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;TDoc&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;CR&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Rev&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Cat&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Subject/Comment&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;New version&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2016-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#75&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-170156&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Skeleton&lt;/span&gt;', '', '0.1.0', '', '&lt;span style="font-size:16pt"&gt;2017-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#75&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-170156&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Agreements in SA1#75: S1-162342, S1-162305, S1-162480, S1-162345, S1-162481, S1-162471, S1-162313, S1-162347, S1-162486, S1-162349, S1-162546, S1-162322, S1-162323, S1-162450, S1-162547, S1-162548, S1-162549, S1-162492, S1-162550, S1-162520, S1-162485, S1-162517, S1-162551, S1-162505. And rapporteur\'s clean-up.&lt;/span&gt;', '', '0.1.1', '', '', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Agreements in SA1#76: S1-163412, S1-163445, S1-163446, S1-163256, S1-163070, S1-163415, S1-163258, S1-163293, S1-163260, S1-163416, S1-163296, S1-163264, S1-163265, S1-163266, S1-163267, S1-163268, S1-163297, S1-163298, S1-163417, S1-163418, S1-163299, S1-163274, S1-163275, S1-163277, S1-163278, S1-163280, S1-163448, S1-163421, S1-163029, S1-163112, S1-163285, S1-163286, S1-163287, S1-163422, S1-163289, S1-163382, S1-163132, and rapporteur\'s clean-up.&lt;/span&gt;', '', '0.2.0', '', '&lt;span style="font-size:16pt"&gt;2017-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#75&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-170156&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;MCC Clean-up for presentation to SA for information&lt;/span&gt;', '', '1.0.0', '', '&lt;span style="font-size:16pt"&gt;2017-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#75&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-170156&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Agreements in SA1#76bis: S1-170198, S1-170199, S1-170335, S1-170201, S1-170008, S1-170207, S1-170106, S1-170338, S1-170092, S1-170339, S1-170212, S1-170340, S1-170341, S1-170014, S1-170217, S1-170218, S1-170219, S1-170131, S1-170342, S1-170314, S1-170224, S1-170206, S1-170090, S1-170225, S1-170226, S1-170343, S1-170228, S1-170229, S1-170230, S1-170232, S1-170122, S1-170042, S1-170234, S1-170345, S1-170364, S1-170236, S1-170347, S1-170220, S1-170239, S1-170243, S1-170209, S1-170365, S1-170245, S1-170048, and rapporteur\'s clean-up.&lt;/span&gt;', '', '1.1.0', '', '&lt;span style="font-size:16pt"&gt;2017-02&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA1#77&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Agreements in SA1#77: S1-171400, S1-171401, S1-171430, S1-171141, S1-171252, S1-171253, S1-171256, S1-171257, S1-171258, S1-171143, S1-171259, S1-171431, S1-171149, S1-171261, S1-171144, S1-171263, S1-171297, S1-171290, S1-171266, S1-171154, S1-171267, S1-171268, S1-171269, S1-171073, S1-171291, S1-171150, S1-171272, S1-171151, S1-171152, S1-171273, S1-171188, S1-171153, S1-171155, S1-171283, S1-171274, S1-171277, S1-171278, S1-171393, S1-171399, S1-171156, S1-171060, S1-171069, S1-171180, S1-171284, S1-171285, S1-171140, S1-171286, S1-171288, S1-171398, S1-171292, S1-171435, and rapporteur\'s clean-up.&lt;/span&gt;', '', '1.2.0', '', '&lt;span style="font-size:16pt"&gt;2017-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#75&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-170156&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Presentation for approval&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2017-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#75&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Raised to v.15.0.0 following SA’s approval&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.0.0&lt;/span&gt;', '', '', '', '&lt;b&gt;Change history&lt;/b&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;TSG\xa0SA#&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;SA Doc.&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;SA1 Doc&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Spec&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;CR&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Rev&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Rel&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Cat&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Subject/Comment&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Old&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;New&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;WI&lt;/b&gt;&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="color:000000;font-size:16pt"&gt;SP-76&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;SP-170443&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;S1-172288&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Specifications/SpecificationDetails.aspx?specificationId=3107"&gt;&lt;span style="color:000000;font-size:16pt"&gt;22.261&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;0017&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="color:000000;font-size:16pt"&gt;Rel-15&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;Addition of requirement on charging for the tenant of the slice&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;15.0.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/WorkItem/WorkItemDetails.aspx?workitemId=720005"&gt;&lt;span style="color:000000;font-size:16pt"&gt;SMARTER&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="color:000000;font-size:16pt"&gt;SP-76&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;SP-170443&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;S1-172286&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Specifications/SpecificationDetails.aspx?specificationId=3107"&gt;&lt;span style="color:000000;font-size:16pt"&gt;22.261&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;0016&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="color:000000;font-size:16pt"&gt;Rel-15&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;Addition of requirement on maintaining user experience when UE performs handover&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;15.0.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/WorkItem/WorkItemDetails.aspx?workitemId=720005"&gt;&lt;span style="color:000000;font-size:16pt"&gt;SMARTER&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="color:000000;font-size:16pt"&gt;SP-76&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;SP-170443&lt;/span&gt;', '', '&lt;a href="http://www.3gpp.org/ftp/tsg_sa/WG1_Serv/TSGS1_78_Porto/docs/S1-172270.zip"&gt;&lt;span style="color:000000;font-size:16pt"&gt;S1-172270&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Specifications/SpecificationDetails.aspx?specificationId=3107"&gt;&lt;span style="color:000000;font-size:16pt"&gt;22.261&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;0022&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="color:000000;font-size:16pt"&gt;Rel-15&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;Alignment of network slicing requirements&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;15.0.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/WorkItem/WorkItemDetails.aspx?workitemId=720005"&gt;&lt;span style="color:000000;font-size:16pt"&gt;SMARTER&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="color:000000;font-size:16pt"&gt;SP-76&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;SP-170443&lt;/span&gt;', '', '&lt;a href="http://www.3gpp.org/ftp/tsg_sa/WG1_Serv/TSGS1_78_Porto/docs/S1-172283.zip"&gt;&lt;span style="color:000000;font-size:16pt"&gt;S1-172283&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Specifications/SpecificationDetails.aspx?specificationId=3107"&gt;&lt;span style="color:000000;font-size:16pt"&gt;22.261&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;0011&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="color:000000;font-size:16pt"&gt;Rel-15&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;Clarification on removal of network function&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;15.0.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/WorkItem/WorkItemDetails.aspx?workitemId=720005"&gt;&lt;span style="color:000000;font-size:16pt"&gt;SMARTER&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="color:000000;font-size:16pt"&gt;SP-76&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;SP-170443&lt;/span&gt;', '', '&lt;a href="http://www.3gpp.org/ftp/tsg_sa/WG1_Serv/TSGS1_78_Porto/docs/S1-172279.zip"&gt;&lt;span style="color:000000;font-size:16pt"&gt;S1-172279&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Specifications/SpecificationDetails.aspx?specificationId=3107"&gt;&lt;span style="color:000000;font-size:16pt"&gt;22.261&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;0021&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="color:000000;font-size:16pt"&gt;Rel-15&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;Clarifications on network slicing&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;15.0.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/WorkItem/WorkItemDetails.aspx?workitemId=720005"&gt;&lt;span style="color:000000;font-size:16pt"&gt;SMARTER&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="color:000000;font-size:16pt"&gt;SP-76&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;SP-170443&lt;/span&gt;', '', '&lt;a href="http://www.3gpp.org/ftp/tsg_sa/WG1_Serv/TSGS1_78_Porto/docs/S1-172257.zip"&gt;&lt;span style="color:000000;font-size:16pt"&gt;S1-172257&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Specifications/SpecificationDetails.aspx?specificationId=3107"&gt;&lt;span style="color:000000;font-size:16pt"&gt;22.261&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;0020&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="color:000000;font-size:16pt"&gt;Rel-15&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;Clean-up of requirements on network slice scaling&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;15.0.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/WorkItem/WorkItemDetails.aspx?workitemId=720005"&gt;&lt;span style="color:000000;font-size:16pt"&gt;SMARTER&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="color:000000;font-size:16pt"&gt;SP-76&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;SP-170443&lt;/span&gt;', '', '&lt;a href="http://www.3gpp.org/ftp/tsg_sa/WG1_Serv/TSGS1_78_Porto/docs/S1-172262.zip"&gt;&lt;span style="color:000000;font-size:16pt"&gt;S1-172262&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Specifications/SpecificationDetails.aspx?specificationId=3107"&gt;&lt;span style="color:000000;font-size:16pt"&gt;22.261&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;0025&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="color:000000;font-size:16pt"&gt;Rel-15&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;Correction on \'8 securtiy\'&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;15.0.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/WorkItem/WorkItemDetails.aspx?workitemId=720005"&gt;&lt;span style="color:000000;font-size:16pt"&gt;SMARTER&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="color:000000;font-size:16pt"&gt;SP-76&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;SP-170443&lt;/span&gt;', '', '&lt;a href="http://www.3gpp.org/ftp/tsg_sa/WG1_Serv/TSGS1_78_Porto/docs/S1-172012.zip"&gt;&lt;span style="color:000000;font-size:16pt"&gt;S1-172012&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Specifications/SpecificationDetails.aspx?specificationId=3107"&gt;&lt;span style="color:000000;font-size:16pt"&gt;22.261&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;0001&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;\xa0&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="color:000000;font-size:16pt"&gt;Rel-15&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;CR to 22.261 Correction of the references for eV2X TS&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;15.0.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/WorkItem/WorkItemDetails.aspx?workitemId=720005"&gt;&lt;span style="color:000000;font-size:16pt"&gt;SMARTER&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="color:000000;font-size:16pt"&gt;SP-76&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;SP-170443&lt;/span&gt;', '', '&lt;a href="http://www.3gpp.org/ftp/tsg_sa/WG1_Serv/TSGS1_78_Porto/docs/S1-172285.zip"&gt;&lt;span style="color:000000;font-size:16pt"&gt;S1-172285&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Specifications/SpecificationDetails.aspx?specificationId=3107"&gt;&lt;span style="color:000000;font-size:16pt"&gt;22.261&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;0015&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="color:000000;font-size:16pt"&gt;Rel-15&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;Efficient User Plane&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;15.0.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/WorkItem/WorkItemDetails.aspx?workitemId=720005"&gt;&lt;span style="color:000000;font-size:16pt"&gt;SMARTER&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="color:000000;font-size:16pt"&gt;SP-76&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;SP-170443&lt;/span&gt;', '', '&lt;a href="http://www.3gpp.org/ftp/tsg_sa/WG1_Serv/TSGS1_78_Porto/docs/S1-172280.zip"&gt;&lt;span style="color:000000;font-size:16pt"&gt;S1-172280&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Specifications/SpecificationDetails.aspx?specificationId=3107"&gt;&lt;span style="color:000000;font-size:16pt"&gt;22.261&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;0012&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="color:000000;font-size:16pt"&gt;Rel-15&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;C&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;Exposure of QoE capability&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;15.0.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/WorkItem/WorkItemDetails.aspx?workitemId=720005"&gt;&lt;span style="color:000000;font-size:16pt"&gt;SMARTER&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="color:000000;font-size:16pt"&gt;SP-76&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;SP-170443&lt;/span&gt;', '', '&lt;a href="http://www.3gpp.org/ftp/tsg_sa/WG1_Serv/TSGS1_78_Porto/docs/S1-172256.zip"&gt;&lt;span style="color:000000;font-size:16pt"&gt;S1-172256&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Specifications/SpecificationDetails.aspx?specificationId=3107"&gt;&lt;span style="color:000000;font-size:16pt"&gt;22.261&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;0023&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="color:000000;font-size:16pt"&gt;Rel-15&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;C&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;Maintaining a session whose priority changes in real time&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;15.0.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/WorkItem/WorkItemDetails.aspx?workitemId=720005"&gt;&lt;span style="color:000000;font-size:16pt"&gt;SMARTER&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="color:000000;font-size:16pt"&gt;SP-76&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;SP-170443&lt;/span&gt;', '', '&lt;a href="http://www.3gpp.org/ftp/tsg_sa/WG1_Serv/TSGS1_78_Porto/docs/S1-172261.zip"&gt;&lt;span style="color:000000;font-size:16pt"&gt;S1-172261&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Specifications/SpecificationDetails.aspx?specificationId=3107"&gt;&lt;span style="color:000000;font-size:16pt"&gt;22.261&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;0027&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="color:000000;font-size:16pt"&gt;Rel-15&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;parallel transfer of multiple multicast/broadcast user services to a UE&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;15.0.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/WorkItem/WorkItemDetails.aspx?workitemId=720005"&gt;&lt;span style="color:000000;font-size:16pt"&gt;SMARTER&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="color:000000;font-size:16pt"&gt;SP-76&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;SP-170443&lt;/span&gt;', '', '&lt;a href="http://www.3gpp.org/ftp/tsg_sa/WG1_Serv/TSGS1_78_Porto/docs/S1-172277.zip"&gt;&lt;span style="color:000000;font-size:16pt"&gt;S1-172277&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Specifications/SpecificationDetails.aspx?specificationId=3107"&gt;&lt;span style="color:000000;font-size:16pt"&gt;22.261&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;0002&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="color:000000;font-size:16pt"&gt;Rel-15&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;Replacement of 5G-RAN with NG-RAN&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;15.0.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/WorkItem/WorkItemDetails.aspx?workitemId=720005"&gt;&lt;span style="color:000000;font-size:16pt"&gt;SMARTER&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="color:000000;font-size:16pt"&gt;SP-76&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;SP-170443&lt;/span&gt;', '', '&lt;a href="http://www.3gpp.org/ftp/tsg_sa/WG1_Serv/TSGS1_78_Porto/docs/S1-172278.zip"&gt;&lt;span style="color:000000;font-size:16pt"&gt;S1-172278&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Specifications/SpecificationDetails.aspx?specificationId=3107"&gt;&lt;span style="color:000000;font-size:16pt"&gt;22.261&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;0006&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="color:000000;font-size:16pt"&gt;Rel-15&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;Update service continuity definition&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;15.0.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/WorkItem/WorkItemDetails.aspx?workitemId=720005"&gt;&lt;span style="color:000000;font-size:16pt"&gt;SMARTER&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="color:000000;font-size:16pt</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.5690872017843593</v>
+        <v>0.2571863287726727</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.1.3	Service flows&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;3.1	Terms&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>22882-j00.docx</t>
+          <t>22837-j00.docx</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LR3_other</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['', "1.\tThe fleet of trucks belonging to L leave the logistic center located in the middle of the uninhabited region hundreds of kilometers northeast of the major city Erehwon. There are many devices located in this fleet. The trucks and their contents comprise a physically dense group of UEs, all communicating periodically with the network. This 'massive IoT' group leaves the coverage of the logistics center. The network coverage over the road through the uninhabited region is very sparse.", '', '2.\tAs the trucks proceed into extreme low coverage, the energy utilized to communicate with the IoT devices increases. This energy consumption increase is monitored by the 5G network and can be aggregated, e.g. at the slice level.', '', "3.\tThe 'green service' policy for the service provided to L includes a maximum energy consumption rate. At a certain point the IoT communication of the fleet exceed&lt;i&gt;s&lt;/i&gt; this maximum energy consumption rate.", '', "4.\tThe policy indicates that latency can be traded off with energy consumption for service to L; the communication service is delay tolerant in this condition. As the energy consumption rate has exceeded the maximum, the latency is increased to enforce this policy. In effect, L's fleet receives very limited service, with high latency, even for a limited period of time, no service at all.", '', 'NOTE:\tThis use case does not describe how latency is increased, but does assume that this increase will result in a reduction of energy consumption. It is possible to reduce energy consumption by offering less service.', '', "The use case description does not define how operator M offers the 'green service'. One possibility is that the maximum energy consumption policy applies to all services for the subscription of a device deployed by L with operator M. This simple policy may not be appropriate if the UEs deployed by L use different kinds of services at different times. In this case, the policy would apply to specific services (service flows, etc.) A requirement at the service flow level is not pursued in this use case.", '', "A further option is that specific network slices apply a 'green service' policy to all services communicating by means of that slice. ", '', "The use case does not describe how energy consumption is determined. There is related work in SA5 and RAN3 to determine energy consumption. If energy consumption cannot be determined at the granularity, e.g. of a specific service or network slice or even the aggregate energy consumption of a subscriber, it is still possible to identify the total energy consumption of different elements in the 5G network. It is therefore possible, at least in principle, to divide the total energy by the number of served sessions, subscribers, etc. 'Average consumption' of a node or cell or slice, etc. is a course unit of measurement, and does not reflect the true energy consumption at the finer granularity, though it still can be a useful metric.", '', "Though an averaging approach could be useful to count the total amount of energy used to attribute to each subscriber, this approach is not enough to measure the rate of energy consumption as described in this use case. For this, there would have to be finer granularity energy reporting than 'per node' or 'per cell.' Though this is not yet supported in the 5G network.", '']</t>
+          <t>['', 'For the purposes of the present document, the terms given in 3GPP TR\xa021.905\xa0[1] and the following apply. A term defined in the present document takes precedence over the definition of the same term, if any, in 3GPP TR\xa021.905\xa0[1].', '', '&lt;b&gt;3GPP sensing data&lt;/b&gt;: data derived from 3GPP radio signals impacted (e.g. reflected, refracted, diffracted) by an object or environment of interest for sensing purposes, and optionally processed within the 5G system.', '', '&lt;b&gt;5G Wireless sensing: &lt;/b&gt;5GS feature providing capabilities to get information about characteristics of the environment and/or objects within the environment (e.g. shape, size, orientation, speed, location, distances or relative motion between objects, etc) using NR RF signals and, in some cases, previously defined information available in EPC and/or E-UTRA.', '', '&lt;b&gt;Human motion rate accuracy&lt;/b&gt; describes the closeness of the measured value of the human body movement frequency caused by part(s) (e.g. chest) of the target object (i.e. human body) to the true value of the human body movement frequency.', '', '&lt;b&gt;non-3GPP&lt;/b&gt; &lt;b&gt;sensing data&lt;/b&gt;: data provided by non-3GPP sensors (e.g. video, LiDAR, sonar) about an object or environment of interest for sensing purposes.', '', '&lt;b&gt;Sensing assistance information: &lt;/b&gt;information that is provided to 5G system and can be used to derive sensing result. ', '', 'NOTE 1: Examples of sensing assistance information are map information, area information, a UE ID attached to or in the proximity of the sensing target, UE position information, UE velocity information and etc&lt;b&gt;.&lt;/b&gt;', '', '&lt;b&gt;Sensing contextual information&lt;/b&gt;: information that is exposed with the sensing results by 5G system to a trusted third party which provides context to the conditions under which the sensing results were derived. ', '', 'NOTE 2: Examples includes map information, area information, time of capture, UE location and ID. This contextual information can be required in scenarios where the sensing result is to be combined with data from other sources outside the 5GS.', '', '&lt;b&gt;Sensing group&lt;/b&gt;: a set of sensing transmitters and sensing receivers whose location is known and whose sensing data can be collected synchronously.', '', '&lt;b&gt;Sensing measurement process&lt;/b&gt;: process of collecting sensing data.', '', '&lt;b&gt;Sensing receiver:&lt;/b&gt; a sensing receiver is an entity that receives the sensing signal which the sensing service will use in its operation. A sensing receiver is an NR RAN node or a UE. A Sensing receiver can be located in the same or different entity as the Sensing transmitter.', '', '&lt;b&gt;Sensing result&lt;/b&gt;: processed 3GPP sensing data requested by a service consumer.', '', '&lt;b&gt;Sensing signals: &lt;/b&gt;Transmissions on the 3GPP radio interface that can be used for sensing purposes.', '', 'NOTE 3:\tThe definition refers to NR RF signals and, in some cases, previously defined information available in EPC and/or E-UTRA can be used, without leading to impacts on EPC and E-UTRA.', '', '&lt;b&gt;Sensing transmitter:&lt;/b&gt; a sensing transmitter is the entity that sends out the sensing signal which the sensing service will use in its operation. A Sensing transmitter is an NR RAN node or a UE. A Sensing transmitter can be located in the same or different entity as the Sensing receiver.', '', '&lt;b&gt;Target sensing service area&lt;/b&gt;: a cartesian location area that needs to be sensed by deriving characteristics of the environment and/or objects within the environment with certain sensing service quality from the impacted (e.g. reflected, refracted, diffracted) wireless signals. This includes both indoor and outdoor environments.', '', '&lt;b&gt;Moving target sensing service area:&lt;/b&gt; the case where a target sensing service area is moving according to the mobility of a target from sensing transmitter’s perspective.', '', '&lt;b&gt;Transparent sensing&lt;/b&gt;: sensing measurements are communicated such that they can be discerned and interpreted by the 5G system, e.g. the data is communicated using a standard protocol to an interface defined by the 5G system.', '', 'The following KPIs apply to the definition of the use cases on sensing quantitative requirements:', '', '&lt;b&gt;-&lt;/b&gt;\t&lt;b&gt;Accuracy of positioning estimate&lt;/b&gt; describes the closeness of the measured sensing result (i.e. position) of the target object to its true position value. It can be further derived into a horizontal sensing accuracy – referring to the sensing result error in a 2D reference or horizontal plane, and into a vertical sensing accuracy – referring to the sensing result error on the vertical axis or altitude.', '', '-\t&lt;b&gt;Accuracy of velocity estimate&lt;/b&gt; describes the closeness of the measured sensing result (i.e. velocity) of the target object’s velocity to its true velocity.', '', '-\t&lt;b&gt;Confidence level&lt;/b&gt; describes the percentage of all the possible measured sensing results that can be expected to include the true sensing result considering the accuracy.', '', '-\t&lt;b&gt;Sensing&lt;/b&gt; &lt;b&gt;Resolution&lt;/b&gt; describes the minimum difference in the measured magnitude of target objects (e.g. range, velocity) to be allowed to detect objects in different magnitude.', '', '&lt;b&gt;-&lt;/b&gt;\t&lt;b&gt;Missed detection probability&lt;/b&gt; denotes the ratio of missing event to acquire a sensing result over all events during any predetermined period when the 5G system attempts to acquire a sensing result. It applies only to binary sensing results.', '', '-\t&lt;b&gt;False alarm probability &lt;/b&gt;denotes the ratio of detecting an event that does not represent the characteristics of a target object or environment over all events during any predetermined period when the 5G system attempts to acquire a sensing result. It applies only to binary sensing results.', '', '-\t&lt;b&gt;Max sensing service latency&lt;/b&gt;: time elapsed between the event triggering the determination of the sensing result and the availability of the sensing result at the sensing system interface.', '', '-\t&lt;b&gt;Refreshing rate&lt;/b&gt;: rate at which the sensing result is generated by the sensing system. It is the inverse of the time elapsed between two successive sensing results.', '']</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.5604340364267851</v>
+        <v>0.1925860711661109</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.1.4	Post-conditions&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;4.3	Communication attributes&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>22882-j00.docx</t>
+          <t>22104-j00.docx</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -728,47 +728,47 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>['', 'The IoT devices in the fleet belonging to L are able to communicate with varying latency, depending on the energy consumption required to serve the devices. When the UEs are in poor coverage, they communicate seldom, when under good coverage, they can communicate more frequently.', '', "The total energy consumption of M's network has reduced while still providing adequate service to customer L.", '', "It is important to emphasize that there has been no trade-off between 'energy efficiency' and 'service quality.' Customer L received what was necessary while using less energy precisely because the energy consumption was taken into account in the service delivery.", '']</t>
+          <t>['', 'Communication in automation can be characterised by two main attributes: periodicity and determinism. ', '', 'Periodicity means that a transmission interval is repeated. For example, a transmission occurs every 15 ms. Reasons for a periodical transmission can be the periodic update of a position or the repeated monitoring of a characteristic parameter. Most periodic intervals in communication for automation are rather short. The transmission is started once and continuous unless a stop command is provided.', '', 'An aperiodic transmission is, for example, a transmission which is triggered instantaneously by an event, i.e., events are the trigger of the transmission. Events are defined by the control system or by the user. Example events are:', '', '-\tProcess events: events that come from the process when thresholds are exceeded or fallen below, e.g., temperature, pressure, level, etc.', '', '-\tDiagnostic events: events that indicate malfunctions of an automation device or module, e.g., power supply defective; short circuit; too high temperature; etc.', '', '-\tMaintenance events: events based on information that indicates necessary maintenance work to prevent the failure of an automation device.', '', 'Most events, and especially alarms, are confirmed. In this context, alarms are messages that inform a controller or operator that an event has occurred, e.g., an equipment malfunction, process deviation, or other abnormal condition requiring a response. The receipt of the alarm is acknowledged usually within a short time period by the application that received the alarm. If no acknowledgment is received from the target application after a preset time, the so-called monitoring time, the alarm is sent again after a preset time or some failure response action is started.', '', 'Determinism refers to whether the delay between transmission of a message and receipt of the message at the destination address is stable (within bounds). Usually, communication is called deterministic if it is bounded by a given threshold for the latency/transmission time. In case of a periodic transmission, the variation of the interval is bounded.', '']</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.6246528812023089</v>
+        <v>0.2053560458026542</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.1.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;4.3	Overview of MCPTT Group affiliation, call and transmission&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>22837-j00.docx</t>
+          <t>22179-j00.docx</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LR3_other</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>['', '[P.R.5.1.6-1] The 5G system shall provide a mechanism for an operator to authorize a UE for sensing, e.g., based on location.', '', "Editor's Note:\tTerminology of UE/base station needs to be adapted.", '', '[PR 5.1.6-2] The 5G system shall support a UE to perform sensing measurement process based on the trusted third-party’s request.', '', '[PR 5.1.6-3] The 5G system shall provide mechanisms for an operator to only collect or expose the sensing information requested by a trusted third-party according to agreement.', '', '[PR 5.1.6-4] The 5G system shall support UE to perform sensing measurement process using signals received from other UE(s).', '', '[PR 5.1.6-5] The 5G system shall support UE to perform sensing measurement process in licensed or unlicensed band.', '', '[PR 5.1.6-6] The 5G system shall be able to provide the sensing service with following KPIs:', '', 'Table 5.1.6-1\tPerformance requirements of sensing results for intruder detection in smart home', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency[ms]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate [s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Missed detection [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm [%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Intruder detection in smart home&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Indoor&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤10&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤10&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt;1000&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE: &lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.1.6-1 are found in Section 3.1.&lt;/span&gt;', '', "Editor's Note:\tit is FFS whether other potential requirements will be identified.", '', 'NOTE:\tIn this use case UE is acting as sensing transmitter and/or sensing receiver. This is an example and other options can also be valid.', '']</t>
+          <t>['', "An MCPTT Service provides Group Call and Private Call capabilities, which have various process flows, states and permissions associated with them. The figure 4.3.1, figure 4.3.2, and figure 4.3.3 indicate the high level flows, states and permissions associated with Group Calls and Private Calls. The diagrams apply to the on-network case and off-network case, as from a user perspective the service and concepts should appear similar on the network and off the network. From a technical perspective there might be differences between the on-network states and off-network states (e.g., off the network Affiliation might not require notifying an application server of a user's affiliation and there might also be other differences in the detail depending on the extent to which the off-network capabilities can match the on-network capabilities).", '', 'If an MCPTT User wants to communicate with an MCPTT Group they have to be allowed to access the MCPTT Group (i.e., be an MCPTT Group Member), they then have to affiliate and then can have an MCPTT Group as their Selected MCPTT Group. If an MCPTT User is only affiliated to a group this is so that they can receive from the group, however if an MCPTT User has a Selected MCPTT Group this is their group for transmitting on. The differences in states enable an MCPTT User to receive from multiple MCPTT Groups, but specify which MCPTT Group they would like to transmit on.', '', '', '', '----media/image3.emf----', '', 'NOTE:\tThis diagram is for illustrative purposes only and does not supersede the requirements. The diagram is not exhaustive and does not include all the different scenarios.', '', 'Figure 4.3.1: MCPTT User state diagram- transmit and receive for a particular MCPTT Group', '', '----media/image4.emf----', '', 'NOTE:\tThis diagram is for illustrative purposes only and does not supersede the requirements. The diagram is not exhaustive and does not include all the different scenarios.', '', 'Figure 4.3.2: MCPTT User state diagram- transmit only for a particular MCPTT Group', '', '----media/image5.emf----', '', 'NOTE:\tThis diagram is for illustrative purposes only and does not supersede the requirements. The diagram is not exhaustive and does not include all the different scenarios.', '', 'Figure 4.3.3: MCPTT User state diagram- receive only for a particular MCPTT Group', '', "It is possible for an MCPTT User to be affiliated with one or more MCPTT Groups. Normally, while in operation, an MCPTT User informs the MCPTT Service about which MCPTT Groups he would like to be affiliated to. These affiliations remain in effect until the MCPTT User removes them, or changes them, or signs out of the service. Some MCPTT Users have permanent affiliations to certain MCPTT Groups and those affiliations are set up implicitly (i.e., automatically) when operating on the network. For those users, the MCPTT Group affiliation starts when the MCPTT Service successfully signs in the user and ends when the MCPTT User's explicit or implicit (e.g., due to inactivity or the turning off of all its devices) request to sign out of the MCPTT Service is acknowledged.", '', 'Every time a PTT request is granted a user can start an MCPTT&lt;i&gt; &lt;/i&gt;transmission or "talk burst". An MCPTT Group Call consists of one or more MCPTT transmissions. Whether two consecutive transmissions from same or different users are part of the same call, or the second transmission starts a new call, depends on the configurable maximum length of the inactivity period between the consecutive MCPTT transmissions. This inactivity period can be seen as a Hang Time that starts at the end of the preceding transmission. While this timer is running, the resources associated with the call stay assigned to the call (except in case of pre-emption), which could reduce the latency of future floor requests for this group versus groups who are not involved in a call. When a new transmission starts during the inactivity period, the timer is stopped, reset and restarted again at the end of that transmission.', '', 'The MCPTT Service recognizes a number of "special" group calls including: Broadcast Group Call, Emergency Group Call and Imminent Peril group call.', '', 'A Broadcast Group Call can be seen as a special group call with only one MCPTT transmission.', '', 'While the In-progress Emergency state or In-progress Imminent Peril state is active, the inactivity period is conceptually set to infinity; i.e., the resources assigned to calls during these states are never released (except in case of pre-emption). An MCPTT Emergency Group Call or an Imminent Peril group call can be seen as having an unspecified number of transmissions: essentially, all the transmissions to a group during In-progress Emergency state or In-progress Imminent Peril are part of the same MCPTT Group Call.', '', 'Conditions on starting ("commencement") and continuing an MCPTT call can be established. Usually at least the call initiator (but also other users) are kept informed via notifications of the starting, stopping, queuing, etc., of a call.', '', 'In general, commencement conditions are related to the presence on the call (i.e., participation) of certain members of the group, and/or of a minimum number of members, as well as on the availability of resources (e.g., GBR bearers) of proper ARP. If the commencement conditions are not met, the call does not start (it can be queued or rejected). Normally, commencement conditions are not checked for individual transmission within a call.', '', 'Continuation conditions are similar (though not required to be identical) to commencement conditions and get re-evaluated when pre-emption, degradation of priority, motion out of communication range, de-selection of the group or de-affiliation (explicit or implicit) occur. If the continuation conditions are not met, the call stops.', '']</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.6566125041370295</v>
+        <v>0.2141004742579205</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.10.1	Description&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;5.1	Overview&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>22856-j00.docx</t>
+          <t>22104-j00.docx</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -778,97 +778,97 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>['', '&lt;b&gt;Mobile metaverse for Critical HealthCare Services. &lt;/b&gt;Immersive interactive mobile services encompass multiple services such as gaming, education, healthcare, shopping, recreation etc. Healthcare is a lifesaving critical service, which will benefit the most from mobile metaverse services. Remote surgery and surgeon training are already emerging examples, for geographically spread specialized surgeons, students and patients. Healthcare making use of mobile metaverse services can save lives by providing healthcare services at the earliest, train students better and free surgeons/doctors from being physically present at patient’s location. This area will encompass services such as surgery, medical student training, surgeon training. It will enable remote physician and patient examination. Mobile metaverse services can be characterized as a typical class of application that involves a server and a client device. This class of application will typically exchange haptic signals (forces, torques, position, velocity, vibration etc.), video and audio signals. Mobile metaverse services largely depend on low latency, highly reliable, secure wireless communication networks. [14, 32, 33, 36, 37]', '', '&lt;b&gt;Mobile metaverse-Surgeries. &lt;/b&gt;Normally, surgeons have to be physically present at hospital to perform their surgeries. Surgeons and patients may have to travel a great distance for surgeries, which is resource intensive and burdensome. The outbreak of coronavirus has further proves the case for remote surgeries. At present, there are increasingly more surgical rooms adapted with advanced surgical robots and doctors can remotely operate on the patients by controlling these surgical robots as shown in Figure-5.10.1-1b [35]. Mobile metaverse services can bring doctors and patients closer virtually, which further improves the accuracy and surgery flexibility. It can also facilitate consultation to provide suggestions and domain knowledge to reduce risks in actual operation. Recently, a real time remote breast cancer surgery was performed using private 5G network and head mounted display. Dr. G, physically present in the operating room, wore a head mounted display and could see the crucial information displayed by the goggles and performed breast cancer surgery remotely. Dr. G received constant advice from Dr. A, who was seated on the stage at the congress of Spanish association of Breast Surgeons, 900 km away from the surgery room [34, 35]. ', '', '&lt;b&gt;Mobile metaverse Physician Consultation. &lt;/b&gt;With the outbreak of COVID&lt;b&gt;, v&lt;/b&gt;irtual consultation through audio and video conference calls has gained considerable momentum. Mobile metaverse services enabled by tactile sensors along with video and audio media can provide a rich and successful experience to both physician and patient. The ability to perform mobile metaverse service consultation without the need for the doctors and patient to be physically co-located is an extremely efficient prospect. Doctors can potentially use mobile metaverse services to examine and interact with representations of aspects and views of the patient, and benefit from a plethora of medical advice database as shown in Figure-5.10.1-1.c. 5G communication is one the key factors to enable mobile metaverse service based physician consolation. Doctors and patients both need high throughput, ultra-reliable and low latency 5G communication for these services to succeed. [30, 32]. ', '', '&lt;b&gt;Mobile metaverse Body scan and vitals. &lt;/b&gt;Mobile metaverse services can significantly improve and change the way current body scan diagnostics and vital statistics are gathered. Mobile metaverse services can be utilized to see the real-time diagnostic data of the patient such as body temperature, heart rate, blood pressure, breathing rate along with MRI, CT and 3D scans as show in Figure-5.10.1-1.d. Medical challenges such as vein detection for IV, shots etc., can easily be resolved using mobile metaverse services. These will help medical professionals to detect, diagnose and treat a patient [30, 32].&lt;span style="font-size:22pt"&gt; &lt;/span&gt;', '', '----media/image25.jpeg----', '', 'Figure-5.10.1-1: Mobile metaverse service examples', '', 'The examples in Figure 5.10.1-1 feature the use of mobile metaverse services for a) Training Surgeons, b) remote surgery, c) physician consultation d) remote medical diagnostics. (Image source: healthcareoutlook.net, courthousenews.com, gmw3.com, ourplnt.com) ', '', '&lt;b&gt;Mobile metaverse Training Medical Students. &lt;/b&gt;Surgeries performed by surgeons all over the world can be used to train students using mobile metaverse services. Students can observe a live surgery with almost all the important vital and view on display, as they would be displayed to a surgeon. Further, the students can view the live surgery from different viewing perspectives, hear surgeon’s instruction, display of suggestions and domain knowledge as show in Figure-5.10.1-1.a. In May 2021, a live lung surgery was performed using an extended reality (XR) technology platform. More than 200 thoracic surgeons from Asian countries attended the outreach program and received training. The participants wore a head-mounted display (HMD) at their respective locations and participated in the program virtually represented by a digital representation (e.g. an avatar). They participants viewed the live lung surgery with lecture and 360deg high resolution surgical scenes as show in Figure-5.10.1-2 [31]. ', '', '----media/image26.jpeg----', '', ' Figure-5.10.1-2: Live lung surgery training through metaverse ', '', 'The source of figure 5.10.1-2 is [31] (Image source: Journal of Educational Evaluation for Health Professions (Jeehp)) ', '']</t>
+          <t>['', 'There are two fundamental perspectives concerning dependable communication in 5G systems: the end-to-end perspective of the communication services and the network perspective (see Figure 5.1-1).', '', '----media/image3.emf----', '', 'Figure 5.1-1: Network perspective of 5G system ', '', 'The Communication Service in Figure 5.1-1 may be implemented as a logical communication link between a UE on one side and a network server on the other side, or between a UE on one side and a UE on the other side.', '', 'In some cases, a local approach (e.g. network edge) is preferred for the communication service on the network side in order to reduce the latency, to increase communication service availability, or to keep sensitive data in a non-public network on the factory site.', '', 'The tables in Clauses 5.2 through 5.5 below provide sets of requirements where periodicity and determinism are critical to meeting cyber-physical control application needs in various vertical scenarios. While many use cases have similar KPI values, the important distinction is that in order to meet the needs of different verticals and different uses, the 5G system will need to be sufficiently flexible to allow deployment configurations that can meet the different sets of KPIs specific to each use. ', '', 'Communication service availability is considered an important service performance requirement for cyber-physical applications, especially for applications with deterministic traffic. The communication service availability depends on the latency and reliability (in the context of network layer packet transmissions, as defined in TS 22.261 [2]) of the logical communication link, as well as the survival time of the cyber-physical application (see Annex C.3 for further details on these relations).', '', 'The communication service reliability requirements also depend on the operation characteristics of the corresponding cyber-physical applications. Typically, the communication services critical for the automation application also come with stringent communication service reliability requirements. Note that the communication service reliability requirement has no direct relationship with the communication service availability requirement.', '', 'The "# of UEs" in the tables in clauses 5.2 to 5.5 is intended to give an indication of the UE density that would need to be served within a given service area.', '', 'Clock synchronisation is needed in many "vertical" use cases. The requirements and tables in Clause 5.6 provide specific criteria for managing time sensitive communications in an industrial environment.', '', 'High accuracy positioning is becoming essential for Factories of the Future. The reason for this is that tracking of mobile devices as well as mobile assets is becoming increasingly important in improving processes and increasing flexibility in industrial environments, Clause 5.7 provides positioning requirements for horizontal and vertical accuracy, availability, heading, latency and UE speed in an industrial use case scenario.', '', 'An example of the relationship between reliability (in the context of network layer packet transmissions, as defined in TS 22.261 [2]), survival time and communication service availability of a logical communication link is illustrated in the following Table 5.1-1. This is done for a special case where packet errors are uncorrelated, which in many cases is an unrealistic assumption.', '', 'Table 5.1-1: Example of relationship between reliability (as defined in TS 22.261) and communication service availability when the survival time is equal to the transfer interval.', '', 'Communication service availability', '', 'Reliability', '( as defined in TS 22.261) ', '1 - p', '', '99.999 9 %', '', '99.9 %', '', '99.999 999 %', '', '99.99 %', '', '99.999 999 99 %', '', '99.999 %', '', '99.999 999 999 9 %', '', '99.999 9 %', '', '99.999 999 999 999 %', '', '99.999 99 %', '', '', '']</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.5970461390090313</v>
+        <v>0.2032615037288057</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.10.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;5.2	Periodic deterministic communication&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>22837-j00.docx</t>
+          <t>22104-j00.docx</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>['', '[PR 5.10.6-1] Based on operator policy, request from UTM and sensing configuration (e.g. sensing area), the 5G system shall be able to support RAN entities and UEs in sensing the characteristics of an airborne object of interest (e.g., UAV), including generating 3GPP sensing data related to the object’s location and motion metrics &lt;span style="color:000000"&gt;(see examples in Table 5.10.6-1).&lt;/span&gt;', '', '[PR 5.10.6-2] The 5G system shall be able to support means to authorize RAN entities and UEs in certain location area generating and reporting 3GPP sensing data (e.g., related to a UAV position, velocity) to a 5G sensing processing entity.', '', 'NOTE 1:\tThe requirement above assumes that the 3GPP sensing data is post-processed in 5G sensing processing entity which is located within the 5G system.', '', '[PR 5.10.6-3] The 5G system shall be able to support means to process the 3GPP sensing data and expose in real time the sensing results (e.g., related to a UAV position, velocity) from a 5G sensing processing entity to a trusted third-party application.', '', '&lt;span style="color:7030A0"&gt;[&lt;/span&gt;&lt;span style="color:000000"&gt;PR 5.10.6-4] The 5G system shall support energy efficient sensing operations.&lt;/span&gt;', '', 'NOTE 2:\tExamples of energy efficient sensing operations can include temporarily disabling sensing transmitters and receivers that are not involved in sensing and communication operations or adjusting the sensing operation parameters (e.g. sensing frequency).', '', '[PR 5.10.6-5] Subject to operator’s policy, the 5G network may provide secure means for the operator to expose information on sensing service availability (e.g., if sensing service is available and the supported KPIs) in a desired sensing service area location to a trusted third-party.', '', '[PR 5.10.6-6] The 5G system shall be able to provide the means for supporting sensing service continuity.', '', '[PR 5.10.6-7] The 5G system shall support sensing services with KPIs as given in Table 5.10.6-1.', '', 'Table 5.10.6-1\tPerformance requirements of sensing results for UAV flight trajectory tracing', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency[ms]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate [s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Missed detection [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm [%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution (horizontal/vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[mxm]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;UAV flight trajectory tracing&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Outdoor&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1-2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1-2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1-2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1-2&lt;/span&gt;', '', '&lt;span style="color:242424;font-size:16pt"&gt;1m x 1m ~10m x 10m NOTE&lt;/span&gt;&lt;span style="font-size:16pt"&gt;\xa02&lt;/span&gt;', '', '&lt;span style="color:242424;font-size:16pt"&gt;1m/s x 1m/s ~ 10m/s x 10m/s &lt;/span&gt;&lt;span style="font-size:16pt"&gt;NOTE\xa03&lt;/span&gt;', '', '&lt;span style="color:242424;font-size:16pt"&gt;100~1000 NOTE\xa04&lt;/span&gt;', '', '&lt;span style="color:242424;font-size:16pt"&gt;1Hz&lt;/span&gt;', '', '&lt;span style="color:242424;font-size:16pt"&gt;NOTE\xa05&lt;/span&gt;', '', '&lt;span style="color:242424"&gt;5&lt;/span&gt;', '', '&lt;span style="color:242424"&gt;5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa01:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.10.6-1 are found in Section 3.1.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa02:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;To detect the UAV existence (e.g., for intrusion detection), the sensing resolution of distance is 10m [25]. To track the UAV flying (e.g., for collision detection and warning), the sensing resolution of distance is 1m [25].&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa03:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;To detect the UAV existence, the sensing resolution of velocity is 10m/s [25]. To track the UAV flying, the sensing resolution of velocity is 1m/s [25].&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa04:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;To realize 1m granularity tracking, when the velocity resolution is 1~10m/s, the maximum corresponding sensing service latency is 0.1~1s.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa05:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Echodyne MESA-DAA&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;TM &lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:16pt"&gt;has approximate 1Hz scan rate [40].&lt;/span&gt;', '']</t>
+          <t>['', 'Periodic deterministic communication is periodic with stringent requirements on timeliness and availability of the communication service. A transmission occurs every transfer interval. A description of periodic deterministic communication can be found in Clauses 4.3 and 4.4. Additional information on the underlying use cases of the sets of requirements in Table 5.2-1 can be found in Annex A. Further information on characteristic parameters and influence quantities used in Table 5.2-1 can be found in Annex C. ', '', 'The 5G system shall be able to provide periodic deterministic communication with the service performance requirements for individual logical communication links that realise the communication services reported in Table\xa05.21. ', '', 'Process and asset monitoring using industrial wireless sensors is a special case of periodic deterministic communication with more relaxed requirements on timeliness and availability. These use cases put a slightly different set of requirements on the 5G system due to the specific constraints of industrial wireless sensors. These requirements for individual logical communication links are listed in Table 5.2-2 and additional information on the underlying use cases can be found in Annex A.', '', 'Smart-Grid use case information can be found in Annex A.     ', '', '', '', 'Table 5.2-1: Periodic deterministic communication service performance requirements', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value (note 1)', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum (note 2)&lt;b&gt; (note 12a)&lt;/b&gt;', '', 'Service bit rate: user experienced data rate&lt;b&gt; (note 12a)&lt;/b&gt;', '', 'Message size [byte]&lt;b&gt; (note 12a)&lt;/b&gt;', '', 'Transfer interval: target value&lt;b&gt; (note 12a)&lt;/b&gt;', '', 'Survival time&lt;b&gt; (note 12a)&lt;/b&gt;', '', 'UE ', 'speed&lt;b&gt; (note 13)&lt;/b&gt;', '', '# of UEs', '', 'Service area ', '(note 3)', '', 'Remarks', '', '99.999 % to 99.999\xa099 %', '', '~ 10 years', '', '', '', '&amp;lt; transfer interval value', '', '–', '', '50', '', '500\xa0μs ', '', '500\xa0μs', '', '≤ 75 km/h', '', '≤ 20', '', '50 m x 10\xa0m x 10\xa0m', '', 'Motion control (A.2.2.1)', '', '99.999\xa09\xa0% to 99.999\xa0999\xa0%', '', '~ 10 years', '', '&amp;lt; transfer interval value', '', '–', '', '40', '', '1 ms ', '', '1 ms', '', '≤ 75\xa0km/h', '', '≤ 50', '', '50 m x 10\xa0m x 10\xa0m', '', 'Motion control (A.2.2.1)', '', '99.999\xa09\xa0% to 99.999\xa0999\xa0%', '', '~ 10 years', '', '&amp;lt; transfer interval value', '', '–', '', '&lt;span style="color:000000"&gt;20&lt;/span&gt;', '', '2 ms ', '', '2 ms', '', '≤ 75 km/h', '', '≤\xa0100', '', '50 m x 10\xa0m x 10\xa0m', '', 'Motion control (A.2.2.1)', '', '99.999\xa09\xa0%', '', '–', '', '&amp;lt; 5 ms', '', '1 kbit/s (steady state)', '1.5 Mbit/s (fault case)', '', '&amp;lt; 1,500', '', '&amp;lt; 60 s ', '(steady state)', '≥ 1 ms (fault case)', '', 'transfer interval', '', 'stationary', '', '20', '', '30 km x 20\xa0km', '', 'Electrical Distribution – Distributed automated switching for isolation and service restoration (A.4.4); (note 5) ', '', '99.999\xa09\xa0% to 99.999\xa0999\xa0%', '', '~ 10 years', '', '&amp;lt; transfer interval value', '', '', '', '1 k', '', '≤\xa010\xa0ms', '', '10 ms', '', '-', '', '5 to 10', '', '100 m x 30\xa0m x 10\xa0m', '', 'Control-to-control in motion control (A.2.2.2); (note 9)', '', '99.999\xa09 % to 99.999\xa0999\xa0%', '', '~ 10 years', '', '&amp;lt; transfer interval value (note\xa05)', '', '50 Mbit/s', '', '', '', '≤\xa01\xa0ms', '', '3 x transfer interval', '', 'stationary', '', '2 to 5', '', '100 m x 30\xa0m x 10 m', '', 'Wired-2-wireless 100\xa0Mbit/s link replacement (A.2.2.4)', '', '99.999\xa09 % to 99.999\xa0999\xa0%', '', '~ 10 years', '', '&amp;lt; transfer interval value (note\xa05)', '', '250 Mbit/s', '', '', '', '≤\xa01\xa0ms', '', '3 x transfer interval', '', 'stationary', '', '2 to 5', '', '100 m x', '', '30 m x 10 m', '', 'Wired-2-wireless 1\xa0Gbit/s link replacement (A.2.2.4)', '', '&lt;span style="font-size:18pt"&gt;99.999\xa09\xa0% to 99.999\xa0999\xa0%&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;~ 10 years&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&amp;lt; transfer interval value&lt;/span&gt;', '', '', '', '&lt;span style="font-size:18pt"&gt;1 k&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;≤\xa050\xa0ms&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;50 ms&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;5 to 10&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;1,000 m x 30\xa0m x 10\xa0m&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Control-to-control in motion control (A.2.2.2); (note 9)&lt;/span&gt;', '', '&amp;gt; 99.999\xa09\xa0%', '', '~ 10 years', '', '&amp;lt; transfer interval value', '', '–', '', '40 to 250', '', '1\xa0ms to 50\xa0ms (note 6) (note\xa07)', '', 'transfer interval value', '', '≤ 50 km/h', '', '≤\xa02,000', '', '≤ 1 km&lt;sup&gt;2&lt;/sup&gt;', '', 'Mobile robots (A.2.2.3)', '', '99.999\xa09\xa0% to 99.999\xa0999\xa0%', '', '~ 1 month', '', '&amp;lt; transfer interval value', '', '–', '', '40 to 250', '', '4 ms to 8\xa0ms (note 7)', '', 'transfer interval value', '', '&amp;lt; 8 km/h (linear movement)', '', 'TBD', '', '50 m x 10\xa0m x 4\xa0m', '', 'Mobile control panels – remote control of e.g. assembly robots, milling machines (A.2.4.1); (note 9)', '', '99.999\xa0999\xa0%', '', '1 day', '', '&amp;lt;\xa08\xa0ms', '', '(note 14)', '', '250 kbit/s', '', '40 to 250', '', '8\xa0ms', '', '16 ms', '', 'quasi-static; up to 10\xa0km/h', '', '2 or more', '', '30\xa0m x 30\xa0m', '', 'Mobile Operation Panel: Emergency stop (connectivity availability) (A.2.4.1A)', '', '99.999\xa099\xa0%', '', '1 day', '', '&amp;lt;\xa010 ms', '', '(note 14)', '', '&amp;lt; 1 Mbit/s', '', '&amp;lt; 1024', '', '10 ms', '', '~10 ms', '', 'quasi-static; up to 10 km/h', '', '2 or more', '', '30\xa0m x 30\xa0m', '', 'Mobile Operation Panel: Safety data stream (A.2.4.1A)', '', '99.999\xa0999\xa0%', '', '1 day', '', '10\xa0ms to 100\xa0ms', '', '(note 14)', '', '10\xa0kbit/s', '', '10 to 100', '', '10\xa0ms to 100\xa0ms', '', 'transfer interval', '', 'stationary', '', '2 or more', '', '100\xa0m² to 2,000\xa0m²', '', 'Mobile Operation Panel: Control to visualization (A.2.4.1A)', '', '99.999\xa0999\xa0%', '', '1 day', '', '&amp;lt;\xa01 ms', '', '(note 14)', '', '12\xa0Mbit/s to 16\xa0Mbit/s', '', '10 to 100', '', '1 ms', '', '~\xa01 ms', '', 'stationary', '', '2 or more', '', '100\xa0m²', '', 'Mobile Operation Panel: Motion control (A.2.4.1A)', '', '99.999\xa0999\xa0%', '', '1 day', '', '&amp;lt;\xa02 ms ', '', '(note 14)', '', '16 kbit/s (UL)', '2 Mbit/s (DL)', '', '50', '', '2 ms', '', '~\xa02 ms', '', 'stationary', '', '2 or more', '', '100\xa0m²', '', 'Mobile Operation Panel: Haptic feedback data stream (A.2.4.1A)', '', '99.999\xa09\xa0% to 99.999\xa0999\xa0%', '', '~ 1 year', '', '&amp;lt; transfer interval', '', '–', '', '40 to 250', '', '', '', '&amp;lt; 12 ms (note\xa07)', '', '12 ms', '', '&amp;lt; 8 km/h (linear movement)', '', 'TBD', '', 'typically 40\xa0m x 60\xa0m; maximum 200 m x 300\xa0m', '', 'Mobile control panels -remote control of e.g. mobile cranes, mobile pumps, fixed portal cranes (A.2.4.1); (note 9)', '', '99.999\xa09\xa0% to 99.999\xa0999\xa0%', '', '≥ 1 year', '', '&amp;lt; transfer interval value', '', '–', '', '20', '', '≥\xa010\xa0ms (note\xa08)', '', '0', '', 'typically stationary', '', 'typically 10 to 20', '', 'typically ≤\xa0100 m x 100 m x 50\xa0m', '', 'Process automation – closed loop control (A.2.3.1)', '', '99.999\xa0%', '', 'TBD', '', '~ 50 ms ', '', '–', '', '~ 100', '', '~ 50 ms', '', 'TBD', '', 'stationary', '', '≤\xa0100,000', '', 'several km&lt;sup&gt;2&lt;/sup&gt; up to 100,000\xa0km&lt;sup&gt;2&lt;/sup&gt;', '', 'Primary frequency control (A.4.2); (note 9)', '', '99.999\xa0%', '', 'TBD', '', '~ 100 ms', '', '–', '', '~ 100', '', '~ 200 ms', '', 'TBD', '', 'stationary', '', '≤\xa0100,000', '', 'several km&lt;sup&gt;2&lt;/sup&gt; up to 100,000\xa0km&lt;sup&gt;2&lt;/sup&gt;', '', 'Distributed Voltage Control (A.4.3) (note 9)', '', '&amp;gt; 99.999\xa09\xa0%', '', '~ 1 year', '', '&amp;lt; transfer interval value', '', '–', '', '15 k to 250\xa0k', '', '10\xa0ms to 100\xa0ms (note\xa07)', '', 'transfer interval value', '', '≤ 50 km/h', '', '≤\xa02,000', '', '≤ 1 km&lt;sup&gt;2&lt;/sup&gt;', '', 'Mobile robots – video-operated remote control (A.2.2.3)', '', '&amp;gt; 99.999\xa09\xa0%', '', '~ 1 year', '', '&amp;lt; transfer interval value', '', '–', '', '40 to 250', '', '40 ms to 500\xa0ms (note\xa07)', '', 'transfer interval value', '', '≤ 50 km/h', '', '≤\xa02,000', '', '≤ 1 km&lt;sup&gt;2&lt;/sup&gt;', '', 'Mobile robots (A.2.2.3)', '', '99.99\xa0%', '', '≥ 1 week', '', '&amp;lt; transfer interval value', '', '–', '', '20 to 255', '', '100 ms to 60\xa0s (note 7)', '', '≥\xa03 x transfer interval value', '', 'typically stationary', '', '≤ 10,000 to 100,000', '', '≤ 10 km x 10\xa0km x 50\xa0m', '', 'Plant asset management (A.2.3.3)', '', '&amp;gt;99.999\xa0999\xa0%', '', '&amp;gt;\xa010 years', '', '&amp;lt;\xa02 ms', '', '2\xa0Mbit/s to 16\xa0Mbit/s', '', '250 to 2,000', '', '1\xa0ms', '', 'transfer interval value', '', 'stationary', '', '1', '', '&amp;lt; 100 m&lt;sup&gt;2&lt;/sup&gt;', '', 'Robotic Aided Surgery (A.6.2)', '', '&amp;gt;99.999\xa09\xa0% ', '', '&amp;gt;\xa01 year', '', '&amp;lt;\xa020 ms', '', '2\xa0Mbit/s to 16\xa0Mbit/s', '', '250 to 2,000', '', '1\xa0ms', '', 'transfer interval value', '', 'stationary', '', '2 per 1,000\xa0km&lt;sup&gt;2&lt;/sup&gt;', '', '&amp;lt; 400 km (note 12)', '', 'Robotic Aided Surgery (A.6.2)', '', '&amp;gt;99.999\xa0%', '', '&lt;span style="color:000000"&gt;&amp;gt;&amp;gt; 1 month ', '(&amp;lt; 1 year)&lt;/span&gt;', '', '&amp;lt;\xa020 ms', '', '2\xa0Mbit/s to 16\xa0Mbit/s', '', '80', '', '1\xa0ms', '', 'transfer interval value', '', 'stationary', '', '20 per 100 km&lt;sup&gt;2&lt;/sup&gt;', '', '&amp;lt; 50 km (note 12)', '', 'Robotic Aided Diagnosis (A.6.3)', '', '99.999\xa09\xa0% to 99.999\xa0999\xa0%', '', '~ 10 years', '', '&amp;lt; 0.5 x transfer interval', '', '2.5 Mbit/s', '', '&lt;span style="font-size:18pt"&gt;250', '500 with localisation information&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&amp;gt; 5 ms', '&amp;gt;\xa02.5 ms', '&amp;gt;\xa01.7 ms', '(note 10)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;0', 'transfer interval', '2 x transfer interval', '(note 10)&lt;/span&gt;', '', '≤\xa06 km/h (linear movement)', '', '2 to 8', '', '10\xa0m x 10\xa0m x 5\xa0m;', '50 m x 5\xa0m x 5\xa0m', '(note 11)', '', 'Cooperative carrying – fragile work pieces; (ProSe communication) (A.2.2.5)', '', '99.999\xa09\xa0% to 99.999\xa0999\xa0%', '', '~ 10 years', '', '&amp;lt; 0.5 x transfer interval', '', '2.5 Mbit/s', '', '&lt;span style="font-size:18pt"&gt;250', '500 with localisation information&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&amp;gt; 5 ms ', '&amp;gt;\xa02.5 ms', '&amp;gt;\xa01.7 ms (note 10)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;0', 'transfer interval', '2 x transfer interval', '(note 10)&lt;/span&gt;', '', '≤\xa012 km/h (linear movement)', '', '2 to 8', '', '10\xa0m x 10\xa0m x 5\xa0m;', '50\xa0m x 5\xa0m x 5\xa0m', '(note 11)', '', 'Cooperative carrying – elastic work pieces; (ProSe communication) (A.2.2.5)', '', '&lt;span style="font-size:18pt"&gt; &amp;gt; 99.9 %&lt;/span&gt;', '', '', '', '&lt;span style="font-size:18pt"&gt;DL: &amp;lt; 10\xa0ms', 'UL: &amp;lt; 10\xa0ms&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;UL: &amp;gt; 16\xa0Mbit/s (urban), 640\xa0Mbit/s (rural)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;DL: &amp;gt; 100\xa0kbit/s&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;(note 15)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;UL: 800\xa0kbyte&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;UL: 10\xa0ms&lt;/span&gt;', '', '', '', '', '', '&amp;gt; 10/km&lt;sup&gt;2&lt;/sup&gt; (urban), ', '', '&amp;gt; 100/km&lt;sup&gt;2&lt;/sup&gt; (rural)', '', '(note 16)', '', '', '', 'Distributed energy storage ‒ monitoring (A.4.6)', '', '', '', '&amp;gt; 99.9 %', '', '', '', 'DL: &amp;lt; 10\xa0ms', '', 'UL: &amp;lt; 1\xa0s', '', 'UL: &amp;gt; 128\xa0kbit/s (urban), 10.4\xa0Mbit/s (rural);', '', 'DL: &amp;gt; 100\xa0kbit/s', '', '(note 15)', '', 'UL: 1.3\xa0Mbyte', '', 'DL: &amp;gt; 100\xa0kbyte', '', 'UL: 1000\xa0ms', '', '', '', '', '', '&amp;gt; 10/km&lt;sup&gt;2&lt;/sup&gt; (urban), ', '', '&amp;gt; 100/km&lt;sup&gt;2&lt;/sup&gt; (rural)', '', ' (note 16)', '', '', '', 'Distributed energy storage ‒ data collection (A.4.6)', '', '', '', '&amp;gt; 99.99 %', '', '', '', 'General information data collection: &amp;lt; 3\xa0s', '', '(note 17)', '', 'UL: &amp;lt; 2\xa0Mbit/s', 'DL: &amp;lt; 1\xa0Mbit/s', '', '', '', '', '', '', '', '', '', '&amp;lt; 10,000/km&lt;sup&gt;2&lt;/sup&gt; (note 18)', '', '', '', 'Advanced metering (A.4.7)', '', '99.999 %', '', '', '', '&amp;lt; 10\xa0ms', '', '', '', '2\xa0Mbit/s to 10\xa0Mbit/s', '', '', '', 'normal: 1 s;', '', 'fault: 2 ms ', '', '(note 24)', '', '', '', '', '', '54/km²', '', '(note 19),', '', '78/km&lt;sup&gt;2&lt;/sup&gt; (note\xa020)', '', '', '', 'Intelligent distributed feeder automation (A.4.4.3)', '', '&amp;gt; 99.99 %', '', '', '', '10\xa0ms, 100\xa0ms, 3\xa0s (note 22)', '', '&amp;gt; 2\xa0Mbit/s (note 21)', '', '', '', '', '', '', '', '', '', '500 in the service area (note\xa023)', '', 'Communication distance is from 100 m to 500\xa0m, outdoor, indoor / deep indoor', '', 'Smart distribution ‒transformer terminal (A.4.8)', '', '99.999 %', '', '', '', '5 ms, 10\xa0ms, 15\xa0ms (note 25)', '', '1.2 Mbit/s to 2.5 Mbit/s', '', '&amp;lt; 245\xa0byte', '', '≤ 1 ms', '', '≤ 2\xa0ms', '', '(note 26)', '', '', '', '', '', '≤ 100/km&lt;sup&gt;2&lt;/sup&gt;', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', 'High speed current differential protection (note 12a) (A.4.4.4)', '', '99.999 9\xa0%', '', '', '', '', '', '3 ms', '', '5.4\xa0Mbit/s', '', '140\xa0byte', '', '≤ 1 ms', '', '', '', 'stationary', '', '', '', '', '', 'Distributed Energy Resources (DER) and micro-grids (A.4.9)', '', '99.999 9\xa0%', '', '', '', '', '', '100 ms', '', '(note 12a and note 5)', '', '&amp;lt; 1 kbit/s per DER', '', '', '', '', '', '', '', 'stationary', '', '', '', '', '', 'Ensuring uninterrupted communication service availability during emergencies (A.4.10)', '', '', '', 'NOTE 1:\tOne or more retransmissions of network layer packets may take place in order to satisfy the communication service availability requirement.', '', 'NOTE 2:\tUnless otherwise specified, all communication includes 1 wireless link (UE to network node or network node to UE) rather than two wireless links (UE to UE).', '', 'NOTE 3:\tLength x width (x height).', '', 'NOTE 4:\t(void)', '', 'NOTE 5:\tCommunication includes two wireless links (UE to UE).', '', 'NOTE 6:\tThis covers different transfer intervals for different similar use cases with target values of 1 ms, 1 ms to 10 ms, and 10 ms to 50 ms.', '', 'NOTE 7:\tThe transfer interval deviates around its target value by &amp;lt; ±25 %.', '', 'NOTE 8:\tThe transfer interval deviates around its target value by &amp;lt; ±5 %.', '', 'NOTE 9:\tCommunication may include two wireless links (UE to UE).', '', 'NOTE 10:\tThe first value is the application requirement, the other values are the requirement with multiple transmission of the same information (two or three times, respectively).', '', 'NOTE 11:\tService Area for direct communication between UEs. The group of UEs with direct communication might move throughout the whole factory site (up to several km²). ', '', 'NOTE 12:\tMaximum straight-line distance between UEs. ', '', 'NOTE 12a:\tIt applies to both UL and DL unless stated otherwise.', '', 'NOTE 13:\tIt applies to both linear movement and rotation unless stated otherwise. ', '', 'NOTE 14:\tThe mobile operation panel is connected wirelessly to the 5G system. If the mobile robot/production line is also connected wirelessly to the 5G system, the communication includes two wireless links.', '', 'NOTE 15:\tService bit rate for one energy storage station.', '', 'NOTE 16:\tActivity storage nodes/km&lt;sup&gt;2&lt;/sup&gt;. This value is used for deducing the data volume in an area that features multiple energy storage stations. The data volume can be calculated with the following formula (current service bit rate per storage station) x (activity storage nodes/km&lt;sup&gt;2&lt;/sup&gt;) + (video service bit rate per storage station) x (activity storage nodes/km&lt;sup&gt;2&lt;/sup&gt;). ', '', 'NOTE 17:\tOne-way delay from 5G IoT device to backend system. The distance between the two is below 40\xa0km (city range).', '', 'NOTE 18:\tTypical connection density in today’s city environment. With the evolution from centralised meters to socket meters in the home, the connection density is expected to increase 5 to 10 times. ', '', 'NOTE 19:\tWhen the distributed terminals are deployed along an overhead line, there are about 54 terminals per square kilometre. ', '', 'NOTE 20: When the distributed terminals are deployed in power distribution cabinets, there are about 78 terminals per square kilometre.', '', 'NOTE 21: Service bit rate of the smart metering application between the smart distribution transformer terminal and the energy end equipment. Once there are multiple smart grid applications, the required service bit rate will be higher.', '', 'NOTE 22:\tThe end-to-end latency depends on the applications supported by the smart distribution transformer terminal. The lower the end-to-end latency, the more applications can be supported.', '', 'NOTE 23:\tThe service area is circular with a radius between 100 m and 500 m (0.031 km&lt;sup&gt;2&lt;/sup&gt; to 0.79 km&lt;sup&gt;2&lt;/sup&gt;).', '', 'NOTE 24:\tDuring the normal working phase of the feeder system, the heartbeat packet is transmitted periodically with a 1 s transfer interval. When a fault occurs, the heartbeat is sent with a 2 ms transfer interval.', '', 'NOTE 25: The maximum allowed delay between two protection relays would be between 5 ms and 10 ms, depending on the voltage (see IEC 61850-90-1 for more details [aa]). For some legacy systems, the end-to-end latency is usually set to 15 ms.', '', 'NOTE 26: For a sampling rate of 600 Hz, the transfer interval is 1.7 ms. For 1200 Hz, the transfer interval is 0.83 ms.', '', '', '', '', '', 'Table 5.2-2: Communication service performance requirements for industrial wireless sensors', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value', '', 'Communication service reliability: mean time between failure', '', 'End-to-end latency&lt;b&gt; (note 6)&lt;/b&gt;', '', 'Transfer interval', '', '(note 1)&lt;b&gt; (note 7)&lt;/b&gt;', '', 'Service bit rate: user experienced data rate', '', '(note 2)&lt;b&gt; (note 7)&lt;/b&gt;', '', 'Battery lifetime [year]', '', '(note 3)', '', 'Message', '', 'Size', '', '[byte]&lt;b&gt; (note 7)&lt;/b&gt;', '', 'Survival time&lt;b&gt; ', '(note 7)&lt;/b&gt;', '', 'UE speed', '', 'UE density [UE / m²]', '', 'Range', '', '[m]', '', '(note 4)', '', 'Remarks', '', '99.99 %', '', '≥ 1 week', '', '&amp;lt; 100 ms', '', '100 ms to 60 s', '', '≤ 1\xa0Mbit/s', '', '≥\xa05', '', '20', '', '(note 5)', '', '3 x transfer interval', '', 'stationary', '', 'Up to 1', '', '&amp;lt;\xa0500', '', 'Process monitoring, e.g. temperature sensor (A.2.3.2)', '', '99.99 %', '', '≥ 1 week', '', '&amp;lt; 100 ms', '', '≤ 1 s', '', '≤ 200\xa0kbit/s', '', '≥\xa05', '', '25 k', '', '3 x transfer interval', '', 'stationary', '', 'Up to 0.05', '', '&amp;lt;\xa0500', '', 'Asset monitoring, e.g. vibration sensor (A.2.3.2)', '', '99.99 %', '', '≥ 1 week', '', '&amp;lt; 100 ms', '', '≤ 1 s', '', '≤ 2 Mbit/s', '', '≥\xa05', '', '250 k', '', '3 x transfer interval', '', 'stationary', '', 'Up to 0.05', '', '&amp;lt;\xa0500', '', 'Asset monitoring, e.g. thermal camera (A.2.3.2)', '', 'NOTE 1:\tThe transfer interval deviates around its target value by &amp;lt; ± 25 %.', '', 'NOTE 2:\tThe traffic is predominantly mobile originated.', '', 'NOTE 3:\tIndustrial sensors can use a wide variety of batteries depending on the use case, but in general they are highly constrained in terms of battery size.', '', 'NOTE 4:\tDistance between the gNB and the UE.', '', 'NOTE 5:\tThe application-level messages in this use case are typically transferred over Ethernet. For small messages, the minimum Ethernet frame size of 64 bytes applies and dictates the minimum size of the PDU sent over the air interface. ', '', 'NOTE 6:\tIt applies to both UL and DL unless stated otherwise.', '', 'NOTE 7: \tIt applies to UL.', '']</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.6516624992957248</v>
+        <v>0.2157137117177951</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.11.5	Existing feature partly or fully covering use case functionality&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;5.3	Aperiodic deterministic communication&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>22856-j00.docx</t>
+          <t>22104-j00.docx</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>['', 'TS 22.228 define the service requirements for IMS. IMS supports different IMS multimedia applications. IMS supports a wide range of services, notably voice and video calls. There is extensive support for services, tightly integrated with the 3GPP system, with extensive support for roaming and integration with both PSTN and ISDN telephony, emergency services and more. The requirements for a 3D avatar application are largely covered by existing requirements in the 5G standard for IMS.', '', 'TS 22.173 defines the media handling capabilities of the IMS Multimedia Telephony service', '', 'The specific gaps that are addressed in 5.A.6 include: extended feature negotiation, enabling the user to decide whether to present video or avatar communication, the ability to support Avatar communication and content efficiently, the ability to support standardized Avatar media in the 5G system.', '', 'The following KPIs are easily supported by the 5G system. They are included in order to contrast the requirements of an avatar call with a video call.', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Use Case&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Characteristic parameter (KPI)&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;End-to-end latency&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Service bit rate: user-experienced data rate&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Avatar call&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[NOTE1]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt;5 kbps [45]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Video call&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 150 msec preferred&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt;400 msec limit&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Lip-synch: &amp;lt; 100 msec [46]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;32-384 kb/s [46]&lt;/span&gt;', '', 'NOTE1: \tThe latency requirement for real time immersive service experience would be the same as the video call below. For some user experiences (smaller devices or an embedded icon-sized representation in other application, etc.) the latency tolerance could be greater.', '', 'NOTE2: \tThe video call KPIs are from TS 22.105 and have not changed since Rel-99. Actual transactional video call parameters may be higher now.', '']</t>
+          <t>['', 'Aperiodic deterministic communication is without a pre-set sending time, but still with stringent requirements on timeliness and availability of the communication service. A description of aperiodic deterministic communication can be found in Clauses 4.3 and 4.4. Additional information on the underlying use cases of the sets of requirements in Table 5.3-1 can be found in Annex A. Further information on characteristic parameters and influence quantities used in Table 5.3-1 can be found in Annex C. ', '', 'The 5G system shall be able to provide aperiodic deterministic communication with the service performance requirements for individual logical communication links that realise the communication services reported in Table 5.3-1.', '', 'Table 5.3-1: Aperiodic deterministic communication service performance requirements', '', 'Characteristic parameter (KPI)', '', 'Influence quantity', '', '', '', 'Communication service availability', '', 'Communication service reliability: mean time between failures', '', 'Max Allowed End-to-end latency (note\xa01)&lt;b&gt; ', '(note 5)&lt;/b&gt;', '', 'Service bit rate: user-experienced data rate&lt;b&gt; (note 5)&lt;/b&gt;', '', 'Message size [byte]&lt;b&gt; (note 5)&lt;/b&gt;', '', 'Survival time', '', 'UE speed&lt;b&gt; (note 6)&lt;/b&gt;', '', '# of UEs', '', '', '', 'Service Area (note 3)', '', 'Remarks', '', '&amp;gt; 99.999\xa09\xa0%', '', '~ 1 week', '', '10 ms', '', 'UL: &amp;gt; 10 Mbit/s', '', '–', '', '–', '', '≤ 50 km/h', '', '≤\xa02,000', '', '≤ 1 km&lt;sup&gt;2&lt;/sup&gt;', '', 'Mobile robots – video streaming (A.2.2.3)', '', '99.999\xa09\xa0% to 99.999\xa0999\xa0%', '', '~ 1 month', '', '&amp;lt; 30 ms', '', '&amp;gt; 5 Mbit/s', '', '–', '', '–', '', '&amp;lt; 8 km/h (linear movement)', '', 'TBD', '', 'TBD', '', 'Mobile control panels - parallel data transmission (A.2.4.1)', '', '99.999\xa0999\xa0%', '', '1 day', '', '&amp;lt;8\xa0ms', '', '(note 8)', '', '250 kbit/s', '', '40 to 250', '', '16 ms', '', 'quasi-static; up to 10\xa0km/h', '', '2 or more', '', '30\xa0m x 30\xa0m', '', 'Mobile Operation Panel: Emergency stop (emergency stop events) (A.2.4.1A)', '', '99.999\xa09\xa0%', '', '– ', '', '&amp;lt; 50 ms', '', '0.59 kbit/s', '28 kbit/s', '', '&amp;lt; 100', '', '–', '', 'stationary', '', '&lt;span style="color:000000"&gt;10\xa0km&lt;/span&gt;&lt;span style="color:000000"&gt;² to 100\xa0km&lt;/span&gt;&lt;span style="color:000000"&gt;²&lt;/span&gt;', '', 'TBD', '', 'Smart grid millisecond level precise load control (A.4.5)', '', '&amp;gt; 99.9\xa0%', '', '~ 1 month', '', '&amp;lt; 10 ms', '', '–', '', '–', '', '–', '', '&amp;lt; 8 km/h (linear movement)', '', '≥ 3', '', '20 m x 20 m x 4 m', '', 'Augmented reality; bi-directional transmission to image processing server (A.2.4.2)', '', '99.999\xa09\xa0% to 99.999\xa0999\xa0%', '', '~ 10 years', '', '&amp;lt; 1\xa0ms', '', '(note 4)', '', '25 Mbit/s', '', '–', '', '–', '', 'stationary', '', '2 to 5', '', '100 m x', '', '30 m x 10 m', '', 'Wired-2-wireless 100\xa0Mbit/s link replacement (A.2.2.4)', '', '99.999\xa09\xa0% to 99.999\xa0999\xa0%', '', '~ 10 years', '', '&amp;lt; 1\xa0ms', '', '(note 4)', '', '500 Mbit/s', '', '–', '', '–', '', 'stationary', '', '2 to 5', '', '100 m x', '', '30 m x 10 m', '', 'Wired-2-wireless 1\xa0Gbit/s link replacement (A.2.2.4)', '', ' &amp;gt; 99.9 %', '', '–', '', 'DL: &amp;lt; 10\xa0ms', '', 'UL:&amp;lt;1\xa0s', '', '(rural)', '', 'DL: &amp;gt; 100\xa0kbit/s UL: &amp;gt; 5\xa0Gbit/s', '(note 9)', '', '–', '', '–', '', 'stationary', '', '&amp;gt; 100', '', '', '', 'Distributed energy storage; energy storage station video (A.4.6)', '', '&amp;gt; 99.99 %', '', '–', '', '&amp;lt; 100\xa0ms (note 10);', '', 'DL:&amp;lt;1\xa0Mbit/s', '', '–', '', '–', '', '–', '', '–', '', '–', '', 'Advanced metering (A.4.7)', '', '&amp;gt; 99.999\xa0%', '', '–', '', '20 ms', '', '–', '', '&amp;lt; 100 byte', '', '–', '', '–', '', '–', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', 'Distributed automated switching for isolation and service restoration (A.4.4.1) (note 7)', '', '&amp;gt; 99.999 9\xa0%', '', '', '', '&amp;lt; 3\xa0ms', '', '–', '', '160\xa0byte', '', '–', '', '–', '', '–', '', '–', '', 'Distributed Energy Resources (DERs) and micro-grids (A.4.9) (note 7)', '', 'NOTE 1:\tUnless otherwise specified, all communication includes 1 wireless link (UE to network node or network node to UE) rather than two wireless links (UE to UE).', '', 'NOTE 2:\t(void)', '', 'NOTE 3:\tLength x width x height.', '', 'NOTE 4:\tScheduled aperiodic traffic with transfer interval (max end-to-end allowed latency &amp;lt; transfer interval). ', '', 'NOTE 5:\tIt applies to both UL and DL unless stated otherwise.', '', 'NOTE 6:\tIt applies to both linear movement and rotation unless stated otherwise. ', '', 'NOTE 7:\tCommunication includes two wireless links (UE to UE).', '', 'NOTE 8:\tThe mobile operation panel is connected wirelessly to the 5G system. If the mobile robot/production line is also connected wirelessly to the 5G system, the communication includes two wireless links.', '', 'NOTE 9:\tThe service bit rate in one energy storage station can be calculated as follows:12.5\xa0Mbytes/s x 50 containers x 8 = 5\xa0Gbit/s.', '', 'NOTE 10:\tThe maximum allowed end-to-end latency is for accuracy fee control. It is the delay for one-way communication between the backend system and the 5G IoT device. The distance between the two is 40\xa0km or lower (city range).', '', '', '']</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.5863605729765066</v>
+        <v>0.2175129391301303</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.11.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;5.5	Mixed traffic&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>22837-j00.docx</t>
+          <t>22104-j00.docx</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>['', '[PR 5.11.6-1] The 5G system shall be able to support a mechanism to provide available sensing service in a target sensing service area.', '', '[PR 5.11.6-2] The 5G RAN shall be able to collect 3GPP sensing data from requested target sensing service area according to the operator’s policy.', '', 'NOTE 1:\tThe operator policy means to configure the target sensing service area, real time 3GPP sensing data collection or periodic collection etc.', '', '[PR 5.11.6-3] The 5G system shall be able to report the sensing result to the trusted third-party with refresh rate which is requested by the trusted third-party e.g. a map service provider, and controllable by the operator,\xa0according to a business agreement.', '', 'NOTE 2:\tThe sensing result can be the target object’s size, shape, position, moving\xa0direction, moving speed, etc.', '', '[PR 5.11.6-4] The 5G system shall support means for\xa0a trusted third-party application, e.g. a map service provider to configure sensing per location.', '', '[PR. 5.11.6-5] The 5G system shall be able to support the sensing service with given KPIs in Table 5.11.6-1.', '', 'Table 5.11.6-1\tPerformance requirements of sensing results for sensing at crossroads with/without obstacle', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency[ms]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate [s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Missed detection [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm [%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Sensing at crossroads with/without obstacle&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Outdoor &lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤100&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;NOTE\xa02&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤ 0.1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa01:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.11.6-1 are found in Section 3.1.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa02:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The value is sourced from [28].&lt;/span&gt;', '', 'NOTE:\tIn this use case base station is acting as sensing transmitter and/or sensing receiver. This is an example and other options can also be valid.', '']</t>
+          <t>['', 'Mixed traffic cannot be assigned to one of the other communication patterns exclusively. Additional information on the underlying use cases of the sets of requirements in Table 5.5-1 can be found in Annex A. Further information on characteristic parameters and influence quantities used in Table 5.5-1 can be found in Annex C. ', '', 'The 5G system shall be able to provide mixed traffic communication with the service performance requirements for individual logical communication links that realise the communication services reported in Table 5.5-1.', '', 'Table 5.5-1: Mixed traffic communication service performance requirements', '', 'Characteristic parameter (KPI)', '', 'Influence quantity', '', 'Remarks', '', 'Communication service availability', '', 'Communication service reliability: mean time between failures', '', 'Max Allowed End-to-end latency (note\xa01)&lt;b&gt; ', '(note 3)&lt;/b&gt;', '', 'Service bit rate: aggregate user-experienced data rate', '', 'Message', '', 'Size', '', '[byte]', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service Area', '', '', '', '99.999\xa0999\xa09\xa0%', '', '~ 10 years', '', '16 ms', '', '', '', '', '', '', '', 'stationary', '', '&amp;lt; 1,000', '', 'several km²', '', 'Wind power plant – control traffic (A.5.2) ', '', '99.999\xa09\xa0% to 99.999\xa099\xa0%', '', '1 day', '', '(note\xa04)', '', '12\xa0Mbit/s', '', '250 to 1,500', '', '', '', 'quasi-static; up to 10\xa0km/h', '', '2 or more', '', '30\xa0m x 30\xa0m', '', 'Mobile Operation Panel: Manufacturing data stream (A.2.4.1A)', '', 'NOTE 1:\tUnless otherwise specified, all communication includes 1 wireless link (UE to network node or network node to UE) rather than two wireless links (UE to UE).', '', 'NOTE 2:\t(void) ', '', 'NOTE 3: \tIt applies to both UL and DL unless stated otherwise.', '', 'NOTE 4:\tThe mobile operation panel is connected wirelessly to the 5G system. If the mobile robot/production line is also connected wirelessly to the 5G system, the communication includes two wireless links.', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.6592956398669667</v>
+        <v>0.2208672291873073</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.12.1	Description&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;6.1	Network support and exposure for UAV usage&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>22856-j00.docx</t>
+          <t>22843-j00.docx</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -878,22 +878,22 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>['', "Virtual humans (or digital representations of humans, also referred to as 'avatars' in this use case) are simulations of human beings on computers [47]. There is a wide range of applications, such as games, film and TV productions, financial industry (smart adviser), telecommunications (avatars), etc. ", '', 'In the coming era, the technology of virtual humans is one of foundations of mobile metaverse service. A virtual human can be a digital representation of a natural person in a mobile metaverse service, which is driven by the natural person. Or a virtual human also can be a digital representation of a digital assistant driven by AI model. ', '', "Mobile metaverse services offer an important opportunity for socialization and entertainment, where user experience of the virtual world and the real world combine. This use case focuses on the scenario of a natural person's digital embodiment in a metaverse as a location agnostic service experience. A virtual human is customized according to a user's personal characteristics and shape preferences. Users wear motion capture devices, vibrating backpacks, haptic gloves, VR glasses to drive the virtual human in a meta-universe space for semi-open exploration. The devices mentioned above are 5G UEs, which need to collaborate with each other to complete the actions of user and get real-time feedback.", '', '----media/image30.png----', '', 'Figure\xa05.12.1-1: Virtual humans in metaverse (Source: &lt;a href="https://vr.baidu.com/product/xirang"&gt;https://vr.baidu.com/product/xirang&lt;/a&gt;, https://en.wikipedia.org/wiki/Virtual_humans)', '', 'For smooth experience, the motion-to-photon latency should be less than 20ms [48]. The motion-to-photon latency requires that the latency between the moment that players do one movement and the corresponding new videos shown in VR glasses and tactile from vibrating backpacks or haptic gloves should be less than 20ms. As the asynchrony between different modalities increases, users’ experience will decrease because uses are able to detect asynchronies. Therefore, the synchronisation among audio, visual and tactile is also very important. The synchronisation thresholds regarding audio, visual and tactile modalities measured by Hirsh and Sherrick are described as follows [49]. The obtained results vary, depending on the kind of stimuli, biasing effects of stimulus range, the psychometric methods employed, etc.', '', '-\taudio-tactile stimuli: 12 ms when the audio comes first and 25 ms when the tactile comes first to be perceived as being synchronous.', '', '-\tvisual-tactile stimuli: 30 ms when the video comes first and 20 ms when the tactile comes first to be perceived as being synchronous.', '', '-\taudio-visual stimuli: 20 ms when the audio comes first and 20 ms when the video comes first to be perceived as being synchronous.', '', 'NOTE 1:\tTaking audio-tactile stimuli as an example, when the audio comes first, users are not able to detect asynchronies if the tactile comes within 12ms. Accordingly, when the tactile comes first, users are not able to detect asynchronies if the audio comes within 25ms.', '', '', '']</t>
+          <t>['', 'CPR #', '', 'Consolidated Potential Requirement', '', 'Original PR #', '', 'Comment', '', 'CPR 6.1-001', '', 'Based on operator’s policy, the 5G system shall be able to support a method to predict, monitor network conditions and QoS (e.g. bitrate, latency, reliability) and report to 3rd party along a continuous geographic planned flight path of a UAV at specific times of its expected flight duration.', '', 'P.R 5.2.6-001', '', 'P.R 5.6.6-001', '', '', '', 'CPR 6.1-002', '', 'Based on operator’s policy, the 5G system shall be able to provide UTM with the information about geographic areas where UAV service requirements could or could not be met based on predicted network conditions and QoS (e.g. bitrate, latency, reliability).', '', 'P.R 5.2.6-002', '', '', '', 'CPR 6.1-003', '', 'Based on a 3&lt;sup&gt;rd&lt;/sup&gt; party request, the 5G system shall be able to provide to the 3&lt;sup&gt;rd&lt;/sup&gt; party alternative UAV flight paths, as long as UTM-provided required waypoints (e.g. start/end locations), required QoS, and exclusion zones are fulfilled.', '', 'P.R 5.2.6-003', '', '', '', 'CPR 6.1-004', '', 'Based on a 3&lt;sup&gt;rd&lt;/sup&gt; party request and operator’s policy, the 5G system shall be able to reconfigure network resources to provide the required QoS along a UAV planned flight path, e.g. at particular geographical area(s) and time(s).', '', 'P.R 5.2.6-004', '', '', '', 'CPR 6.1-005', '', '&lt;span style="color:000000"&gt;The 5G system shall be able to support a mechanism to enable a network operator to track a UAV which doesn’t have subscription with this network operator.&lt;/span&gt;', '', '', '', '&lt;span style="color:000000"&gt;P.R 5.7.6-001&lt;/span&gt;', '', '', '', '', '', 'CPR 6.1-006', '', 'The 5G system shall be able to support service enablement layer exposure mechanisms for the UTM or other authorized 3rd party to provide the UAV application with configuration information to route and switch traffic between one active and one standby PLMN connection, e.g. for C2 communication reliability and redundancy purpose, or to route different traffic across different PLMN connections simultaneously, e.g. C2 traffic via one PLMN and other data via the second PLMN.', '', 'NOTE 1: The above requirement can be extended to scenarios where one network is a PLMN and one is an NPN.', '', 'NOTE 2: There is no impact on legacy network selection. ', '', 'NOTE 3: It is assumed that UAV traffic handling, over each PLMN, is subject to NW control mechanisms (e.g. in accordance with MNO routing priorities, available QoS/NW resources, etc.).', '', '', '', '&lt;span style="color:000000"&gt;P.R 5.8.6-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;P.R 5.9.6-001&lt;/span&gt;', '', '', '', 'CPR 6.1-007', '', 'The 5G system shall be able to support mechanisms for the UTM to configure different aerial flight zones where UAV application settings and communication QoS may be different, and provide network and UAV with means to identify those flight zones.', '', '&lt;span style="color:000000"&gt;P.R 5.10.6-001&lt;/span&gt;', '', '', '', 'CPR 6.1-008', '', 'The 5G system shall be able to support mechanisms for the UTM to provide network and UAV with policy information including UAV application settings and communication QoS to be applied in specific aerial flight zones, e.g. based on flight zone type indicated or available to the UAV in a certain geographical location.', '', '&lt;span style="color:000000"&gt;P.R 5.10.6-002&lt;/span&gt;', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.6140413528525036</v>
+        <v>0.2267699313305028</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.12.1	Description&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;7.1	High data rates and traffic densities&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>22865-j00.docx</t>
+          <t>22261-j30.docx</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -903,92 +903,92 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>['', 'In Mediterranean climate regions, forest fires are quite common in summer months due to temperature rise [14]. The early detection and monitoring of forest fire is important for fire suppression quickly and reducing the loss of human and property. Therefore, how to detect the forest fire in real time and accurately is an urgent problem to be solved. Another problem is that due to extremely low population density and complex geography, these regions are often not covered by terrestrial networks. ', '', 'UAV equipped with satellite access capabilities is a feasible method, mainly through the following steps:', '', '--\tThe UAV collects real-time information (including high-precision three-dimensional surface topographic data, real-time pictures, real-time video, etc.);', '', '--\tThis real-time information is transmitted to the forest fire monitoring centre via the 5G network with satellite access;', '', '--\tThe forest fire monitoring centre monitors whether there is a fire, and may request the position of the UAV and adjust its route;', '', '--\tThe positioning services request and adjustment command are sent to the UAV via the 5G network with satellite access.', '', 'Forest fire monitoring centre with AI system can optimize the route through real-time information collected by UAV. In addition, the 5G system provides high-precision positioning of the UAV, which has been specified in 3GPP TS 22.261 [2].  But for UAVs using only satellites access, 5G system is difficult to provide high-precision positioning service under low latency. The end-to-end delay of LEO based satellite access can reach 35 ms [2]. After 5G system gets the real-time location data of flying UAV, it sends them to a trusted third party (e.g., The forest fire monitoring centre equipped with AI system) for UAVs to assist flying.', '']</t>
+          <t>['', 'Several scenarios require the support of very high data rates or traffic densities of the 5G system. The scenarios address different service areas: urban and rural areas, office and home, and special deployments (e.g. massive gatherings, broadcast, residential, and high-speed vehicles). The scenarios and their performance requirements can be found in table 7.1-1.', '', '-\tUrban macro – The general wide-area scenario in urban area', '', '-\tRural macro – The general wide-area scenario in rural area', '', '-\tIndoor hotspot – The scenario for offices and homes, and residential deployments.', '', '-\tBroadband access in a crowd – The scenario for very dense crowds, for example, at stadiums or concerts. In addition to a very high connection density the users want to share what they see and hear, putting a higher requirement on the uplink than the downlink.', '', '-\tDense urban – The scenario for pedestrian users, and users in urban vehicles, for example, in offices, city centres, shopping centres, and residential areas. The users in vehicles can be connected either directly or via an onboard base station to the network.', '', '-\tBroadcast-like services – The scenario for stationary users, pedestrian users, and users in vehicles, for example, in offices, city centres, shopping centres, residential areas, rural areas and in high speed trains. The passengers in vehicles can be connected either directly or via an onboard base station to the network.', '', '-\tHigh-speed train – The scenario for users in trains. The users can be connected either directly or via an onboard base station to the network.', '', '-\tHigh-speed vehicle – The scenario for users in road vehicles. The users can be connected either directly or via an onboard base station to the network.', '', '-\tAirplanes connectivity – The scenario for users in airplanes. The users can be connected either directly or via an onboard base station to the network.', '', 'Table 7.1-1 Performance requirements for high data rate and traffic density scenarios.', '', '', '', '&lt;span style="font-size:16pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Experienced data rate (DL)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Experienced data rate (UL)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Area traffic capacity&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(DL)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Area traffic capacity&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(UL)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Overall user density &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Activity factor&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UE speed&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Coverage&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Urban macro&lt;/span&gt;', '', '50 Mbit/s', '', '25 Mbit/s', '', '100 Gbit/s/km&lt;sup&gt;2&lt;/sup&gt;', '', '(note 4)', '', '50 Gbit/s/km&lt;sup&gt;2&lt;/sup&gt;', '', '(note 4)', '', '10 000/km&lt;sup&gt;2&lt;/sup&gt;', '', '20\xa0%', '', 'Pedestrians and users in vehicles (up to 120 km/h', '', 'Full network (note 1)', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Rural macro&lt;/span&gt;', '', '50 Mbit/s', '', '25 Mbit/s', '', '1 Gbit/s/km&lt;sup&gt;2&lt;/sup&gt;', '', '(note 4)', '', '500 Mbit/s/km&lt;sup&gt;2&lt;/sup&gt;', '', '(note 4)', '', '100/km&lt;sup&gt;2&lt;/sup&gt;', '', '20\xa0%', '', 'Pedestrians and users in vehicles (up to 120 km/h', '', 'Full network (note 1)', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Indoor hotspot&lt;/span&gt;', '', '1 Gbit/s', '', '500 Mbit/s', '', '15 Tbit/s/km&lt;sup&gt;2&lt;/sup&gt;', '', '2 Tbit/s/km&lt;sup&gt;2&lt;/sup&gt;', '', '250 000/km&lt;sup&gt;2&lt;/sup&gt;', '', 'note 2', '', 'Pedestrians', '', '&lt;span style="font-size:16pt"&gt;Office and residential &lt;/span&gt;(note 2) (note 3)', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Broadband access in a crowd&lt;/span&gt;', '', '25 Mbit/s', '', '50 Mbit/s', '', '[3,75] Tbit/s/km&lt;sup&gt;2&lt;/sup&gt;', '', '[7,5] Tbit/s/km&lt;sup&gt;2&lt;/sup&gt;', '', '[500 000]/km&lt;sup&gt;2&lt;/sup&gt;', '', '30\xa0%', '', 'Pedestrians', '', 'Confined area', '', '&lt;span style="font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Dense urban&lt;/span&gt;', '', '300 Mbit/s', '', '50 Mbit/s', '', '750 Gbit/s/km&lt;sup&gt;2&lt;/sup&gt;', '', '(note 4)', '', '125 Gbit/s/km&lt;sup&gt;2&lt;/sup&gt;', '', '(note 4)', '', '25 000/km&lt;sup&gt;2&lt;/sup&gt;', '', '10\xa0%', '', 'Pedestrians and users in vehicles (up to 60 km/h)', '', '&lt;span style="font-size:16pt"&gt;Downtown&lt;/span&gt; (note 1)', '', '&lt;span style="font-size:16pt"&gt;6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Broadcast-like services&lt;/span&gt;', '', 'Maximum 200 Mbit/s (per TV channel)', '', 'N/A or modest (e.g. 500 kbit/s per user)', '', 'N/A', '', 'N/A', '', '[15] TV channels of [20 Mbit/s] on one carrier', '', 'N/A', '', 'Stationary users, pedestrians and users in vehicles (up to 500 km/h)', '', 'Full network (note 1)', '', '&lt;span style="font-size:16pt"&gt;7&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;High-speed train&lt;/span&gt;', '', '50 Mbit/s', '', '25 Mbit/s', '', '15 Gbit/s/train', '', '7,5 Gbit/s/train', '', '1 000/train', '', '30\xa0%', '', 'Users in trains (up to 500 km/h)', '', 'Along railways', '', '(note 1)', '', '&lt;span style="font-size:16pt"&gt;8&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;High-speed vehicle&lt;/span&gt;', '', '50 Mbit/s', '', '25 Mbit/s', '', '[100] Gbit/s/km&lt;sup&gt;2&lt;/sup&gt;', '', '[50] Gbit/s/km&lt;sup&gt;2&lt;/sup&gt;', '', '4 000/km&lt;sup&gt;2&lt;/sup&gt;', '', '50\xa0%', '', 'Users in vehicles (up to 250 km/h)', '', 'Along roads', '', '(note 1)', '', '&lt;span style="font-size:16pt"&gt;9&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Airplanes connectivity&lt;/span&gt;', '', '15 Mbit/s', '', '7,5 Mbit/s', '', '1,2 Gbit/s/plane', '', '600 Mbit/s/plane', '', '400/plane', '', '20\xa0%', '', 'Users in airplanes (up to 1 000 km/h)', '', '(note 1)', '', 'NOTE 1: \tFor users in vehicles, the UE can be connected to the network directly, or via an on-board moving base station.', '', 'NOTE 2:\t\tA certain traffic mix is assumed; only some users use services that require the highest data rates [2].', '', 'NOTE 3: \tFor interactive audio and video services, for example, virtual meetings, the required two-way end-to-end latency (UL and DL) is 24 ms while the corresponding experienced data rate needs to be up to 8K 3D video [300 Mbit/s] in uplink and downlink.', '', 'NOTE 4: \tThese values are derived based on overall user density. Detailed information can be found in [10].', '', 'NOTE 5: \tAll the values in this table are targeted values and not strict requirements.', '', '', '']</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.5739420476360719</v>
+        <v>0.2161799104847844</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.12.3	Service Flows&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;7.10	KPIs for AI/ML model transfer in 5GS&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>22865-j00.docx</t>
+          <t>22261-j30.docx</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>['', '1. The UAV A takes a real-time picture with its 4-way 4K full-angle camera; ', '', '2. The picture is transmitted to the forest fire monitoring centre via the 5G network with satellite access network. This would require high data rate (e.g., 120Mbit/s) in UL direction.', '', '3. The forest fire monitoring centre uses the AI system to determine whether there is a fire, according to the received picture. In case of fire, the forest fire monitoring centre will request the position of the UAV.', '', '4. After receiving the positioning service request, the 5G network detects an error that the negotiated location delivery latency cannot be guaranteed. Then, it provides a lower position accuracy to ensure latency.', '', '5. If the forest fire monitoring centre decides to adjust the route of UAV A, it will send adjustment commands to the UAV via the 5G network with satellite access network, which requires low delay and high reliability in DL direction.', '']</t>
+          <t>['', 'The 5G system shall support split AI/ML inference between UE and Network Server/Application function with performance requirements as given in Table 7.10-1.', '', 'Table 7.10-1 KPI Table of split AI/ML inference between UE and Network Server/Application function', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Uplink KPI&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Downlink KPI&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Remarks&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Max allowed UL end-to-end latency&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Experienced data rate&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Payload size&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Communication service availability&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Reliability&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Max allowed DL end-to-end latency&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Experienced data rate&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Payload size&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Reliability&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;15&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;b&gt;\xa0ms&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;144&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;b&gt;\xa0&lt;/b&gt;&lt;/span&gt;&lt;span style="font-size:16pt"&gt;M&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;b&gt;bit/s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.27 MByte&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.999\xa0%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.9\xa0%&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;99.999\xa0%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Split AI/ML image recognition&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;100\xa0ms&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1.5\xa0Mbit/s&lt;/b&gt;&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;100\xa0ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;150\xa0Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1.5 MByte/\u200cframe&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Enhanced media recognition&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;4.7\xa0Mbit/s&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;12\xa0ms&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;320\xa0Mbit/s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;40\xa0kByte&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Split control for robotics&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 1:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Communication service availability relates to the service interfaces, and reliability relates to a given system entity. One or more retransmissions of network layer packets can take place in order to satisfy the reliability requirement.&lt;/span&gt;', '', '', '', 'The 5G system shall support AI/ML model downloading with performance requirements as given in Table 7.10-2.', '', 'Table 7.10-2 KPI Table of AI/ML model downloading', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Max allowed DL end-to-end latency&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Experienced data rate&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;(DL)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Model size&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Communication service availability&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Reliability&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;User density&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;# of downloaded AI/ML models&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Remarks&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1.1Gbit/s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;138MByte&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;99.999\xa0%&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;99.9% for data transmission of model weight factors; 99.999% for data transmission of model topology&lt;/b&gt;&lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;AI/ML model distribution for image recognition&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;640Mbit/s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;80MByte&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;99.999\xa0%&lt;/b&gt;&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;AI/ML model distribution for speech recognition&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;512Mbit/s(see note 1)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;64MByte&lt;/b&gt;&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Parallel download of up to 50 AI/ML models&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Real time media editing with on-board AI inference&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1s&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;536MByte&lt;/b&gt;&lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;up to 5000~ 10000/km2 in an urban area&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;AI model management as a Service&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;22Mbit/s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;2.4MByte&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;99.999\xa0%&lt;/b&gt;&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;AI/ML based Automotive Networked Systems&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1s&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt; 500MByte&lt;/b&gt;&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Shared AI/ML model monitoring&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;3s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;450Mbit/s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;170MByte&lt;/b&gt;&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Media quality enhancement&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;NOTE 1:&lt;/b&gt;&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;&lt;b&gt;512Mbit/s concerns AI/ML models having a payload size below 64\xa0MB. TBD for larger payload sizes.&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;NOTE 2: &lt;/b&gt;&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;&lt;b&gt;Communication service availability relates to the service interfaces, and reliability relates to a given system entity. One or more retransmissions of network layer packets can take place in order to satisfy the reliability requirement.&lt;/b&gt;&lt;/span&gt;', '', '', '', 'The 5G system shall support Federated Learning between UE and Network Server/Application function with performance requirements as given in Table 7.10-3.', '', 'Table 7.10-3: KPI Table of Federated Learning between UE and Network Server/Application function', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Max allowed DL or UL end-to-end latency&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;DL experienced data rate&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;UL experienced data rate&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;DL packet size&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;UL packet size&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Communication service availability&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Remarks&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1.0Gbit/s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1.0Gbit/s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;132MByte&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;132MByte&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Uncompressed Federated Learning for image recognition&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;80.88Mbit/s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;80.88Mbit/s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;10Mbyte&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;10Mbyte&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt; TBD&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Compressed Federated Learning for image/video processing&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;TBD&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;TBD&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;10MByte&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;10MByte&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Data Transfer Disturbance in Multi-agent multi-device ML Operations&lt;/b&gt;&lt;/span&gt;', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.5608710684452218</v>
+        <v>0.2462436406778705</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.12.5	Existing features partly or fully covering the use case functionality&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;7.11	KPIs for tactile and multi-modal communication service&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>22856-j00.docx</t>
+          <t>22261-j30.docx</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>['', '3GPP TS 22.261 [6] specifies KPIs for high data rate and low latency interactive services including Cloud/Edge/Split Rendering, Gaming or Interactive Data Exchanging, Consumption of VR content via tethered VR headset, and audio-video synchronization thresholds.', '', 'Support of audio-video synchronization thresholds has been captured in TS 22.261:', '', '\tDue to the separate handling of the audio and video component, the 5G system will have to cater for the VR audio-video synchronisation in order to avoid having a negative impact on the user experience (i.e. viewers detecting lack of synchronization). To support VR environments, the 5G system shall support audio-video synchronisation thresholds:', '', '-\tin the range of [125 ms to 5 ms] for audio delayed and', '', '-\tin the range of [45 ms to 5 ms] for audio advanced.', '', 'Existing synchronization requirements in current SA1 specification are only for data transmission of one UE. Existing specifications do not contain requirements for coordination of synchronization transmission of data packet for multiple UEs.', '']</t>
+          <t>['', 'The 5G system shall support tactile and multi-modal communication services with the following KPIs.', '', '&lt;b&gt;Table 7.11-1: Multi-modal communication service performance requirements&lt;/b&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Use Cases&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Characteristic parameter (KPI)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Influence quantity&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Remarks&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Max allowed end-to-end latency&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Service bit rate: user-experienced data rate&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Reliability&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Message size (byte)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;UE Speed&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Service Area&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Immersive multi-modal VR (UL: device &lt;span style=font-family:Wingdings&gt;&amp;#x00E0;&lt;/span&gt; application sever)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5 ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 2)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16 kbit/s -2 Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(without haptic compression encoding);&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;0.8 - 200 kbit/s &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(with haptic compression encoding)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.9% (without haptic compression encoding)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;99.999% (with haptic compression encoding)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1 DoF: 2-8 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3 DoFs: 6-24 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6 DoFs: 12-48 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;More DoFs can be supported by the haptic device&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;typically &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 5)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Haptic feedback&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;5 ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 1Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.99%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1500&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;typically &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 5)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Sensing information e.g. position and view information generated by the VR glasses&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Immersive multi-modal VR (DL: application sever &lt;span style=font-family:Wingdings&gt;&amp;#x00E0;&lt;/span&gt; device)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;10 ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note1)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1-100 Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.9%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1500&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;typically &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 5)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Video&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;10 ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5-512 kbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.9%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;50&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;typically &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 5)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Audio&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;5 ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 2)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16 kbit/s -2 Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(without haptic compression encoding);&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;0.8 - 200 kbit/s &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(with haptic compression encoding)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.9% (without haptic compression encoding)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;99.999% (with haptic compression encoding)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1 DoF: 2-8 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3 DoFs: 6-24 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6 DoFs: 12-48&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;typically &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 5)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Haptic feedback&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Remote control robot&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1-20ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16 kbit/s -2 Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(without haptic compression encoding);&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;0.8 - 200 kbit/s &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(with haptic compression encoding)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.999%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2-8 (1 DoF)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;high-dynamic (≤ 50 km/h)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤ 1 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Haptic feedback&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;20-100ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16 kbit/s -2 Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(without haptic compression encoding);&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;0.8 - 200 kbit/s &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(with haptic compression encoding)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.999%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2-8 (1 DoF)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤ 1 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Haptic feedback&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;5 ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1-100 Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.999%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1500&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤ 1 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Video&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;5 ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5-512 kbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.9%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;50-100&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤ 1 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Audio&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;5 ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 1Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.999%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤ 1 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Sensor information&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Skillset sharing low- dynamic robotics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(including teleoperation) Controller to controlee&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5-10ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.8 - 200 kbit/s (with compression)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99,999%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40][45]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1 DoF: 2-8 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3 DoFs: 6-24 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6 DoFs: 12-48&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Haptic &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(position, velocity)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Skillset sharing low- dynamic robotics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(including teleoperation)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Controlee to controller&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5-10ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.8 - 200 kbit/s (with compression)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;99,999%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40][45]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1 DoF: 2-8 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;10 DoFs: 20-80 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;100 DoFs: 200-800&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Haptic feedback&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;10ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1-100 Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99,999%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40] [45]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;1500&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Video&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt; 10ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5-512 kbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99,9%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40] [45]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;50&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Audio&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Skillset sharing Highly dynamic/ mobile robotics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Controller to controlee&lt;/span&gt;&lt;span style="font-size:18pt"&gt; &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1-5ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16 kbit/s -2 Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(without haptic compression encoding);&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;0.8 - 200 kbit/s &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(with haptic compression encoding)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99,999% (with compression)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;99,9% (w/o compression)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40] [45]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1 DoF: 2-8 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3 DoFs: 6-24 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6 DoFs: 12-48&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;high-dynamic&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Haptic &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(position, velocity)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Skillset sharing Highly dynamic/ mobile robotics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Controlee to controller&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1-5ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.8 - 200 kbit/s &lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;99,999% (with compression)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99,9% (w/o compression)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40] [45]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1 DoF: 2-8 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;10 DoFs: 20-80 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;100 DoFs: 200-800&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;high-dynamic&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Haptic feedback&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;1-10ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1-10 Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99,999%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40] [45]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2000-4000&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;high-dynamic&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Video&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;1-10ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;100-500 kbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99,9%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40] [45]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;100&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;high-dynamic&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Audio&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Immersive multi-modal navigation applications &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Remote Site &lt;span style=font-family:Wingdings&gt;&amp;#x00E0;&lt;/span&gt; Local Site (DL)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;50\xa0ms [39]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16\xa0kbit/s -2 Mbit/s (without haptic compression encoding);&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.8 - 200 kbit/s (with haptic compression encoding)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.999\xa0%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1 DoF: 2 to 8&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;10 DoF: 20 to 80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;100 DoF: 200 to 800&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤\xa0100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(&lt;/span&gt; &lt;span style="font-size:16pt"&gt;note\xa05)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Haptic feedback &lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&amp;lt;400\xa0ms [39]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1-100\xa0Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.999\xa0%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1500&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary/ or Pedestrian, &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤\xa0100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note\xa05)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Video&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&amp;lt;150\xa0ms [39]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5-512\xa0kbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.9\xa0%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;50&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤ 100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note\xa05)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Audio&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&amp;lt;300\xa0ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;600\xa0Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.9\xa0%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1500&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤ 100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note\xa05)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;VR&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Immersive multi-modal navigation applications Local Site &lt;span style=font-family:Wingdings&gt;&amp;#x00E0;&lt;/span&gt; Remote Site (UL)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt;300\xa0ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;12 kbit/s\xa0[26]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.999\xa0%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1500&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤ 100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note\xa05)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Biometric / Affective &lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&amp;lt;400\xa0ms [39]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1-100\xa0Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.999\xa0%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1500&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Workers: Stationary/ or Pedestrian, UAV: [30-300mph]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤ 100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note\xa05)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Video&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&amp;lt;150\xa0ms [39]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5-512\xa0kbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.9\xa0%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;50&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤\xa0100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note\xa05)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Audio&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&amp;lt;300\xa0ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;600\xa0Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.9\xa0%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1500&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤\xa0100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note\xa05)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;VR&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;NOTE 1:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Motion-to-photon delay (the time difference between the user’s motion and corresponding change of the video image on display) is less than 20 ms, and the communication latency for transferring the packets of one audio-visual media is less than 10 ms, e.g. the packets corresponding to one video/audio frame are transferred to the devices within 10 ms.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 2:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;According to IEEE 1918.1 [40] as for haptic feedback, the latency is less than 25 ms for accurately completing haptic operations. As rendering and hardware introduce some delay, the communication delay for haptic modality can be reasonably less than 5 ms, i.e. the packets related to one haptic feedback are transferred to the devices within 10 ms.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 3:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Haptic feedback is typically haptic signal, such as force level, torque level, vibration and texture. &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 4:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The latency requirements are expected to be satisfied even when multimodal communication for skillset sharing is via indirect network connection (i.e., relayed by one UE to network relay). &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 5:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;In practice, the service area depends on the actual deployment. In some cases a local approach (e.g. the application servers are hosted at the network edge) is preferred in order to satisfy the requirements of low latency and high reliability.&lt;/span&gt;', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.5436471462903746</v>
+        <v>0.2474733267048287</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.12.5	Existing features partly or fully covering use case functionality&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;7.2	Consolidated potential KPIs of sensing results&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>22865-j00.docx</t>
+          <t>22837-j00.docx</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>['', 'There are a few position requirements specified in 3GPP TS 22.125 [15], which have been described as:', '', '&lt;i&gt;[R-5.1-009] The 3GPP system should enable an MNO to augment the data sent to a UTM with the following: network-based positioning information of UAV and UAV controller.&lt;/i&gt;', '', '&lt;i&gt;NOTE 1: &lt;/i&gt;\t&lt;i&gt;This augmentation may be trust-based (i.e. the MNO informs the UTM that the UAV position information is trusted) or it may be additional location information based on network information, such as OTDOA, cell coordinates, synchronization source, etc.&lt;/i&gt;', '', '&lt;i&gt;NOTE 2: &lt;/i&gt;\t&lt;i&gt;This requirement will not be applied to the case which the UAS and UTM has direct control communication connection without going through MNO, such as OTDOA, cell coordinates, synchronization source, etc.&lt;/i&gt;', '', '&lt;i&gt;[R-5.1-012] The 3GPP system shall enable a UAS to update a UTM with the live location information of a UAV and its UAV controller.&lt;/i&gt;', '', '&lt;i&gt;[R-5.1-013] The 3GPP network should be able to provide supplement location information of UAV and its controller to a UTM.&lt;/i&gt;', '', '&lt;i&gt;NOTE 3: &lt;/i&gt;\t&lt;i&gt;This supplement may be trust-based (i.e. the MNO informs the UTM that the UAV position information&lt;/i&gt; is &lt;i&gt;trusted) or it may be additional location information based on network information.&lt;/i&gt;', '', 'There are also a few position requirements specified in 3GPP TS 22.261 [2], which have been described as:', '', '&lt;i&gt;The 5G system shall support mechanisms to determine the UE’s position-related data for period when the UE is outside the coverage of 3GPP RAT-dependent positioning technologies but within the 5G positioning service area (e.g. within the coverage of satellite access).&lt;/i&gt;', '', 'In 3GPP TS 22.071 [x], the following location service requirements are captured:', '', '&lt;i&gt;The precision of the location shall be network design dependent, i.e., should be an operator’s choice. This precision requirement may vary from one part of a network to another.&lt;/i&gt;', '', 'About horizontal accuracy:', '', '&lt;i&gt;The LCS service shall provide techniques that allow operators to deploy networks that can provide at least the level of accuracy required by the regional regulatory bodies.&lt;/i&gt;', '', '&lt;i&gt;10m-50m: Asset Location, route guidance, navigation&lt;/i&gt;', '', 'About vertical accuracy:', '', '&lt;i&gt;For Value Added Services, and PLMN Operator Services, the following is applicable:&lt;/i&gt;', '', '&lt;i&gt;-&lt;/i&gt;\t&lt;i&gt;When providing a Location Estimate, the LCS Server may provide the vertical location of a UE in terms of either absolute height/depth or relative height/depth to local ground level. The LCS Server shall allow an LCS Client to specify or negotiate the required vertical accuracy. The LCS Server shall normally attempt to satisfy or approach as closely as possible the requested or negotiated accuracy when other quality of service parameters are not in conflict.&lt;/i&gt;', '', '&lt;i&gt;-&lt;/i&gt;\t&lt;i&gt;The vertical accuracy may range from about three metres (e.g. to resolve within 1 floor of a building) to hundreds of metres.&lt;/i&gt;', '', 'About location delivery latency:', '', '&lt;i&gt;Location Delivery Latency (Time to First Fix) is set at a maximum of 30 seconds from the time the user initiates an emergency service call to the time it is available at the location information center.&lt;/i&gt;', '']</t>
+          <t>['', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service level&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area &lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[ms]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[s]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Missed detection&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Example Services&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Object detection and tracking&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1 (use cases 5.1; 5.13 – level1)&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Object to be detected indoor: Human, object to be detected outdoor: UAV&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤10&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤10&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;10 &lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE 2&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;10&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE 3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt;1000&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 2&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;intruder detection in smart home,&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;UAV intrusion detection&lt;/span&gt;', '', '', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;2 (use cases 5.13 – level2, 5.6)&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Object to be detected outdoor:&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Human, UAV&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;10 &lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE 2&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;10&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE 3&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤1000]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤1]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;UAV flight route intrusion detection,&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;intruder detection in surroundings of smart home&lt;/span&gt;', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;3 (use cases 5.2, 5.7, 5.10, 5.11, 5.12, 5.23)&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Factory (100m2), crossroad, highway, railway [air]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE 4&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Object to be detected: Animal, Human, UAV, Vehicle&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE\xa05&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;&amp;lt;1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE\xa05&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE\xa08&lt;/span&gt;', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1 x 1 NOTE\xa09&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤100 ≤1000&lt;/span&gt;', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE\xa06&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE\xa010&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≥0.05 ÷ ≤ 0.1 ≤ 1]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE\xa011&lt;/span&gt;', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤2&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤2&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;pedestrian/animal intrusion detection on a highway/railway,&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;sensing at crossroads with/without obstacle,&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;UAV flight trajectory tracing&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;UAV collision avoidance,&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;AMR collision avoidance in smart factories&lt;/span&gt;', '', '', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;4 (use cases 5.20, 5.22, 5.25, 5.27, 5.32)&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Public area safety, factory&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE 7&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Object to be detected: Animal, Human, UAV, AGV/AMR, Vehicle&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.1&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;Pedestrian: ≤1.5&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;Vehicle: ≤15&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;Pedestrian: ≤1.5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.5m &lt;/span&gt;', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;5 x 5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;for factories 0.5 may be needed&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;250&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.25 ≤ 1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Parking Space Determination,&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;UAVs/vehicles/pedestrians detection near Smart Grid equipment,&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;immersive experience based on sensing,&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;public safety search and rescue or apprehend,&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;integrated sensing and positioning in factory hall&lt;/span&gt;', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;5 (use cases 5.28)&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;ADAS -TBD&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Object to be detected: Vehicle&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[95]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;~ [0.1]-[1.3] ; for short range radar ~[0.02]-[2.6]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;TBD&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[±0.03] -[±0.12] m/s&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt; [0.4]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[0.1] – [0.6]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[50]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[0.05] -[0.2]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[1-10] %&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[&amp;lt;1] %&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;ADAS&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Environment monitoring&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1 (use case 5.14)&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Object to be detected outdoor:&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Human&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤2]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[1] &lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[1]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1000 NOTE\xa010&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤0.2]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;traffic management&lt;/span&gt;', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;2 (use cases 5.3 and 5.5.)&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Rainfall monitoring and flooding&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE 14&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Object to be detected: Rain&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤10&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤0.2]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE\xa015&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1 min&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1&amp;lt;10min, application configurable&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;&amp;lt; 0.1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;&amp;lt; 3&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;rainfall monitoring,&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;flooding monitoring&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Motion monitoring&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1 (use cases 5.15, 5.24, 5.29)&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Indoor human motion -sleep monitoring NOTE 12, sports monitoring NOTE 13, gesture recognition&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Motion on human, gesture&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.1 valid for gesture recognition&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.1 valid for gesture recognition&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;60s&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;60, ≤&lt;/span&gt;&lt;span style="font-size:16pt"&gt;0.1 for gesture recognition&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;sleep monitoring,&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;sports monitoring,&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;gesture recognition&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 1:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 7.2-1 are found in Section 3.1.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 2: To detect the UAV existance (e.g., for intrusion detection), the sensing resolution of distance is 10m [25].&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa03:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;To detect the UAV existence, the sensing resolution of velocity is 10m/s [25].&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa04: The typical size (Length x Width x Height) of UAV is 1.6m x 1.5m x 0.7m, the typical size of pedestrian is 0.5m x 0.5m x 1.75m, and the typical size of engineering vehicle is 7.5m x 2.5m x 3.5 m.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa05:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;T&lt;/span&gt;he KPI values for UAVs are sourced from [25] and [40] and for factories &lt;span style="font-size:16pt"&gt;are sourced from [47]&lt;/span&gt;.', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa06:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The value 100 ms is sourced from [28] and is valid for sensing at crossroads.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa07: The safe distance between pedestrian/vehicle and transmission station/line is 0.7m/0.95m [46]. The size of the park of Smart Grid depends on the real environment.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa08:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;To track the UAV flying (e.g., for collision detection and warning), the sensing resolution of distance is 1m [25].&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa09:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;To track the UAV flying, the sensing resolution of velocity is 1m/s [25].&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa010:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;To realize 1m granularity tracking, when the velocity resolution is 1 m/s, the maximum corresponding sensing service latency is 1s.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa011:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Echodyne MESA-DAA&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;TM &lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:16pt"&gt;has approximate 1Hz scan rate [40].&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 12:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Additional KPI on motion rate accuracy of 2 times/min (0.033 Hz).&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 13:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Additional KPI on motion rate accuracy of 3 times/min (0.05Hz) and 4 times/min (0.07 Hz)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa014:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Rainfall estimation accuracy is1 mm/h[39] and describes the closeness of the measured rainfall estimation to its true rainfall value.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa015:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;This value is for the water level. Description related to NOTE in clause 5.5.1 suggests 0.01 m. [≤0.2] is derived from the water level where people feel difficulty in walking.&lt;/span&gt;', '', '', '', 'Editor’s note: The values in brackets are FFS', '', '', '', 'Editor’s note: Different service level of the KPIs is FFS', '', '', '']</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.5348007727792031</v>
+        <v>0.2482400792858852</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.12.6	Potential New Requirements needed to support the use case	&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;7.2	Consolidated potential KPIs&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1003,122 +1003,122 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>['', '[PR 5.12.6-1]\tThe 5G system shall provide a mechanism to support coordination and synchronization of multiple data flows transmitted via one UE or different UEs, e.g., subject to synchronization thresholds provided by 3&lt;sup&gt;rd&lt;/sup&gt; party. ', '', '[PR 5.12.6-2]\tThe 5G system shall provide means to achieve low end-to-end round-trip latency (e.g., [20ms]).', '', '', '']</t>
+          <t>['', '&lt;span style="font-size:16pt"&gt;Use Cases&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Characteristic parameter (KPI)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Influence quantity&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Remarks&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Max allowed end-to-end latency&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Service bit rate: user-experienced data rate&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Reliability&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Area Traffic capacity&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Message size (byte)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Transfer Interval&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Positioning accuracy&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UE Speed&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Service Area&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;5G-enabled Traffic Flow Simulation and Situational Awareness&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 2)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[5-20] ms (NOTE 1)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[10~100 Mbit/s] &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 6)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&amp;gt; 99.9%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[~39.6 Tbit/s/km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:16pt"&gt; ] &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 5)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;20~100 ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 3)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 250 km/h&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;City or Country wide&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 4)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UL&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Collaborative and concurrent engineering&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[≤10] ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[14]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 7)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[1-100] Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[14]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[&amp;gt; 99.9%] &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[14]&lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;[1.55] Tbit/s/km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:16pt"&gt; &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 8)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Video: 1500&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Audio: 100&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[14]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;typically &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 9)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UL and DL audio/video&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[5] ms UL &lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[1-50] ms DL&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[14]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 7)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[&amp;lt;1] Mbit/s &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[14]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[&amp;gt; 99.9%] (without compression)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[&amp;gt; 99.999%] (with compression (NOTE 10))&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[26]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[2.25] Tbit/s/km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:16pt"&gt; &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 8)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1 DoF: 2-8 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3 DoFs: 6-24 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6 DoFs: 12-48 &lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[14]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.25-10 ms &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[14]&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;UL and DL haptic feedback&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Metaverse-based Tele-Operated Driving&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 16)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[100] ms [25] (NOTE 11)&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;[10~50 Mbit/s] [25] &lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;99% [25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[~360 Mbit/s/km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:16pt"&gt; ] &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 14)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;20~100 ms [25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 12)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[10] cm [25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[10-50] km/h (vehicle) [25]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Stationary/Pedestrian (user)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Up to 10km radius [25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 13)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UL real-time vehicle data (video streaming and/or sensor data) [25]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[20] ms [25]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[0.1~0.4 Mbit/s] [25]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;99,999% [25]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[~4 Mbit/s/km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:16pt"&gt; ] &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 14)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Up to 8Kb&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt; [25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;20 ms [25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 12)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[10] cm [25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[10-50] km/h (vehicle) [25]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Stationary/Pedestrian (user)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Up to 10km radius [25]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;(NOTE 13)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;DL control traffic (commands from the remote driver) [25].&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;1-20ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 15)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16 kbit/s -2 Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(without haptic compression encoding);&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;0.8 - 200 kbit/s &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(with haptic compression encoding)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 15)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.999%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 15)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[~20 Mbit/s/km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:16pt"&gt; ] &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 14)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2-8 (1 DoF) (NOTE 15)&lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Stationary/Pedestrian (user)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Up to 10km radius [25]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;(NOTE 13)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Haptic feedback&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 1: The mobile metaverse server receives the data from various sensors, performs data processing, rendering and provide feedback to the vehicles and users. The end-to-end latency refers to the transmission delay between a UE and the mobile metaverse server.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 2: Examples of typical data volume including 1) camera: 10 Mbit/s per sensor (unstructured), 2) LiDAR: 90 Mbit/s per sensor (unstructured), 3) radar: 10 Mbit/s per sensor (unstructured), and 4) real-time Status information including Telemetry data: [&amp;lt; 50 kbit/s] per sensor/vehicle/VRU (structured). This is to support at least 80 vehicles and 1600 users present at the same location (e.g. in an area of 40m*250m) to actively enjoy immersive metaverse services for traffic simulation and traffic awareness, the area traffic capacity is calculated considering 2 cameras, 2 Radars, 2 LiDARs on road side, 1600 user’s smart phones and 80 vehicles with 7 cameras, 4 radar and 2 LiDAR for each vehicle.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 3: The frequency considers different sensor types such as Radar/LiDAR (10Hz) and camera (10~50Hz).&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 4: &lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The service area for traffic flow simulation and situational awareness depends on the actual deployment, for example, it can be deployed for a city or a district within a city or even countrywide. In some cases a local approach (e.g. the application servers are hosted at the network edge) is preferred in order to satisfy the requirements of low latency and high reliability.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 5: The calculation is this table is done per one 5G network, in case of N 5G networks to be involved for such use case in the same area, this value can be divided by N.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 6: User experienced data rate refers to the data rate needed for the vehicle or human, the value is observed from industrial practice. &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 7: The network based conference focus is assumed, which receives data from all the participants, performs rendering (image synthesis), and then distributes the results to all participants. The latency refers to the transmission delay between a UE and the application server. As rendering and hardware introduce some delay, the communication delay for haptic feedback is typically less than 5ms.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 8: To support at least 15 users present at the same location (e.g. in an area of 20m*20m) to actively enjoy immersive Metaverse service concurrently, the area traffic capacity is calculated considering per user consuming non-haptic XR media (e.g. for video per stream up to 40000 kbit/s) and concurrently 60 haptic sensors (per haptic sensor generates data up to 1024 kbit/s).&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 9: &lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;In practice, the service area depends on the actual deployment. In some cases a local approach (e.g. the application servers are hosted at the network edge) is preferred in order to satisfy the requirements of low latency and high reliability.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 10: The arrival interval of compressed haptic data usually follow some statistical distributions, such as generalized Pareto distribution, and Exponential distribution [26].&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 11: The end-to-end latency refers to the transmission delay between a UE and the mobile metaverse server or vice-versa, not including sensor acquisition or actuator control on the vehicle side, processing, and rendering on the user side (estimated additional 100ms total). Target e2e user experienced max delay depends on reaction time of the remote driver (e.g. at 50km/h, 20ms means 27cm of remote vehicle movement).&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 12: UL data transfer interval around 20ms (video) to 100ms (sensor), DL data transfer interval (commands) around 20ms.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 13: The service area for teleoperation depends on the actual deployment; for example, it can be deployed for a warehouse, a factory, a transportation hub (seaport, airport etc.), or even a city district or city. In some cases, a local approach (e.g., the application servers are hosted at the network edge) is preferred to satisfy low latency and high-reliability requirements.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 14: The area traffic capacity is calculated for one 5G network, considering 4 cameras + sensors on each vehicle. Density is estimated to 10 vehicles/km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:16pt"&gt;, each of the vehicles with one user controlling them. [25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 15: KPI comes from [5] clause 7.11 “remote control robot” use case.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 16: Examples of typical data volume including 1) ~8Mbps video stream. Four cameras per vehicle (one for each side): 4*8=32Mbps. 2) sensor data (interpreted objects), assuming 1 kB/object/100 ms and 50 objects: 4 Mbps [25].&lt;/span&gt;', '', '', '']</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.7002801311176623</v>
+        <v>0.2464001567216211</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.12.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;7.2	Low latency and high reliability&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>22837-j00.docx</t>
+          <t>22261-j30.docx</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>['', '[PR 5.12.6-1] The 5G system shall be able to provide a sensing service to track one specific target object and the environment around the target object with the sensing assistance information provided by the UE on board the specific target object or authorized third-party.', '', '[PR 5.12.6-2] The base stations shall be able to sense multiple specific target objects and their environments at the same time.', '', ' [PR 5.12.6-3] The 5G system shall be able to provide a mechanism controllable by the operator,\xa0according to a business agreement, for a trusted third-party to request the sensing service related with a certain target object or multiple target objects of a certain location area.', '', '[PR 5.12.6-4] Based on &lt;span style="color:000000;font-size:21pt"&gt;operator policy, &lt;/span&gt;the 5G system shall be able to provide a mechanism for a trusted third-party to request per location area different sensing services configuration (e.g. sensing KPI, report refresh rate etc.).', '', '[PR 5.12.6-5] The 5G system shall be able to report sensing result of the environment around a specific target object to a trusted third-party.', '', 'NOTE\xa02: \tThe sensing result of the environment for example can be its position, the size of obstacles around, and other moving objects nearby.', '', '[PR 5.12.6-6] The 5G system shall be able to provide sensing service with follow KPIs:', '', 'Table 5.12.6-1\tPerformance requirements of sensing results for network assisted sensing to avoid UAV collision', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area &lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[ms]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[s]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Missed detection&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Network assisted sensing to avoid UAV collision&lt;/span&gt;', '', '&lt;span style="color:242424;font-size:16pt"&gt;Outdoor&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa02&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1 NOTE 2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa02&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;500&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa01:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.12.6-1 are found in Section 3.1.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa02:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;T&lt;/span&gt;he KPI values are sourced from [25] and [40].', '', "Editor's Note: Other potential new requirements are FFS.", '', 'NOTE 3:\tIn this use case base station is acting as sensing transmitter and/or sensing receiver. This is an example and other options can also be valid.', '']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.6785881524847925</v>
+        <v>0.2912154848903127</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.13.5	Existing features partly or fully covering use case functionality&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;7.3	Performance &lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>22865-j00.docx</t>
+          <t>22890-j00.docx</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>['', 'Regarding TS 22.261[2] as below, UE using satellite access shall have the capability to offer the location, and 5G system needs to determine the location for service, but not consider the situation that the location cannot be decided by UE alone. ', '', '&lt;i&gt;A UE supporting satellite access shall be able to provide or assist in providing its location to the 5G network.&lt;/i&gt;', '', "&lt;i&gt;A 5G system with satellite access shall be able to determine a UE's location in order to provide service (e.g. route traffic, support emergency calls) in accordance with the governing national or regional regulatory requirements applicable to that UE. &lt;/i&gt;", '', 'The legacy requirements for positioning service defined in TS 22.261 [2] are not well adapted to all types of UE with satellite access considering the satellite characteristics (e.g. latency). ', '', '&lt;i&gt;The 5G system shall provide 5G positioning services in compliance with regulatory requirements.&lt;/i&gt;', '', '&lt;i&gt;The 5G network shall be able to request the UE to provide its position-related-data on request—together with the accuracy of its position—triggered by an event or periodically and to request the UE to stop providing its position-related data periodically.&lt;/i&gt;', '', "&lt;i&gt;The 5G System with satellite access shall be able to negotiate the positioning methods according to the operator's policy or the application’s requirements or the user's preferences and shall support mechanisms to allow the network or the UE to trigger this negotiation.&lt;/i&gt;", '']</t>
+          <t>['', 'Table 7.3-1: KPIs for Railway Smart Station Services', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Scenario&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;(Note 5)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;End-to-end latency&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Reliability&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;(Note 1)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;UE speed&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;UE Relative&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Speed&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;User experienced data rate&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Payload&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;size&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;(Note 2)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Area traffic density&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Overall UE density&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Service area dimension', '(Note 3)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Multiple trains\' stops at the same platform (Korea, urban railway)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤10 ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.9999%&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;≤100\xa0km/h&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤50km/h&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤1Mb/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Small to large&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤ 1 Mb/s/km&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤ 5 (100m)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤ 15 km&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;along rail tracks including bad weather conditions&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(Note 4)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;NOTE 1:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Reliability as defined in TS 22.289 sub-clause 3.1.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 2:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Small: payload ≤ 256 octets, Medium: payload ≤512 octets; Large: payload 513 -1500 octets.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 3:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Estimates of maximum dimensions.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 4:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Non-Line-of-Sight (NLOS) between UEs shall be supported&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 5:    Off-network traffic characteristics are not addressed in this table since it can be covered by TR22.990.&lt;/span&gt;', '', 'Note:\tThis table is intended to be included in clause 6.2 of TS 22.289 [9].', '', '', '']</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.5647252059872219</v>
+        <v>0.2418821432652148</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.13.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;7.6	High data rate and low latency&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>22837-j00.docx</t>
+          <t>22261-j30.docx</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>['', '[PR 5.13.6-1] The 5G system shall be able to provide a sensing service by using RAN to collect 3GPP sensing data.', '', '[PR 5.13.6-2] The RAN shall be able to sense a target object by obtaining 3GPP sensing data without active involvement of the target object.', '', '[PR 5.13.6-3] The 5G system shall provide mechanisms for an operator to transport 3GPP sensing data from RAN towards the core network.', '', '[PR 5.13.6-4] Based on operator’s policy and subject to regulatory requirements, the 5G system shall be able to provide a mechanism for a trusted third-party to request the sensing service and based on the request, the base station shall be able to operate sensing periodically or continuously in certain location area for a certain amount of time.', '', '[PR 5.13.6-5] Based on operator’s policy and subject to regulatory requirements, the 5G system shall be able to periodically expose sensing results to a trusted third-party application.', '', '[PR 5.13.6-6] The 5G system shall provide a mechanism controllable by the operator, according to a business agreement, to report sensing result to a trusted third-party about a target object and multiple target objects when specific conditions are met.', '', ' NOTE:\tThese conditions could be the target object distance from the restricted area border less than 10m or entering restricted area.', '', '[PR 5.13.6-7] The 5G system shall be able to support the activation and deactivation of the sensing service according to operator’s policy.', '', '[PR 5.13.6-8] The 5G system shall be able to provide a mechanism for network operator to configure and adjust sensing operation (e.g. authorization, sensing area, sensing operation period and sensing operation time window etc.) based on request from a trusted third-party.', '', '[PR 5.13.6-9] The 5G system shall be able to provide sensing with following KPIs:', '', 'Table 5.13.6-1\tPerformance requirements of sensing results for UAV intrusion detection', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area &lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[ms]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[s]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Missed detection&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;UAV intrusion detection&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE\xa02&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Level 1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Outdoor&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤10&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤10&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;10&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[5]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤1000]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤1]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤5&lt;/span&gt;', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Levle2&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Outdoor&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;10&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[5]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤1000]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤1]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa01:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.13.6-1 are found in Section 3.1.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa02: &lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Level 1 and level 2 depend on the size of the restriction area to be sensed.&lt;/span&gt;', '', 'NOTE:\tIn this use case base station is acting as sensing transmitter and/or sensing receiver. This is an example and other options can also be valid.', '']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.6680321697468004</v>
+        <v>0.2912154848903127</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.14.1	Description&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;7.7	KPIs for UE to network relaying in 5G system&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>22882-j00.docx</t>
+          <t>22261-j30.docx</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>['', 'Global warming caused by excessive emissions of GHG (e.g., carbon dioxide) due to human activity (e.g., burning fossil fuels for electricity generation) is the main driver to climate change, which poses a significant threat to society and the environment. &lt;span style="color:000000"&gt;To achieve carbon neutrality, it is important to reduce the GHG incl. carbon emissions in the first place rather than offset them later. Recent advancements in communication and computing capabilities of networks (e.g., 5GS, cloud services) enables offloading tasks to networked and distributed computing nodes (e.g., edge computing, cloud computing) for a wide range of services. However, the rising demand for such services in turn triggers a rising demand for energy and a greater risk of an even higher resulting GHG footprint. 3GPP plays a crucial role in the ICT sector to enable the deployment of these technologies on a global scale and therefore must also play a central role in enabling a sustainable future.&lt;/span&gt;', '', 'The adoption of alternative sustainable sources of energy incl. renewable energy (e.g., solar, wind, hydropower, geothermy) could help offset the GHG footprint of energy generation based on fossil fuels, even though their corresponding environmental impact also need to be considered. From an ICT standpoint and, 3GPP system in particular, the energy used by computing nodes in networks can be from varied energy with different related levels of environmental impact incl. GHG emissions. Due to the highly variable and unpredictable nature of renewable energy sources, the supply of renewable energy varies substantially by time and location. Hence, it is critical to take temporal and spatial dimensions of energy sources into account to accomplish compute tasks not only for a better traceability of the energy sources used but in turn for enabling a more sustainable energy use to achieve those tasks.', '', 'Up until now usually a system is designed to finish compute tasks as soon as possible (high throughput) and indicate results to the requester as soon as possible (low latency). However, some compute tasks have flexibility in both when and where they are executed, i.e., such type of workload could be executed in any computing node and tolerate some delays if the workload gets completed within certain given deadline. For example, some of AI/ML training, simulation, and video processing tasks might not require a quick response, which would &lt;span style="color:000000"&gt;allow flexibility to delay the execution of the related workloads in a computing node until, e.g., the utilized energy is deemed satisfactory in terms of GHG emissions. Such flexibility further allows to route workloads to a computing node using the (most) sustainable energy sources at that moment. As part of service, 3GPP system is able to execute compute tasks in a sustainable way by leveraging such flexibility.&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;In addition, consuming the renewable energy immediately when they are available, instead of storing them for the future use (e.g., in a big battery system), can also bring some economic benefits to operators or service providers, because this can reduce the cost and investment for scaling the energy storage system needed by the overall system. &lt;/span&gt;', '', 'In the following use case, by considering the temporal and spatial information of sustainable energy source and availability, the possibility of reduction of the GHG footprint for application services is explored.', '']</t>
+          <t>['', 'In several scenarios, it can be beneficial to relay communication between one UE and the network via one or more other UEs. The functional requirements related to relaying can be found in clause 6.9.2. Performance requirements for relaying in different scenarios can be found in table 7.7-1.', '', 'Table 7.7-1: Key Performance for UE to network relaying', '', '&lt;span style="font-size:16pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Max. data rate (DL)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Max. data rate (UL)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;End-to-end latency&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 7)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Area traffic capacity&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(DL)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Area traffic capacity&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(UL)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Area user density &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Area&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Range of a single hop&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 8)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Estimated number of hops &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;InHome Scenario&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 1)&lt;/span&gt;', '', '1 Gbit/s', '', '500 Mbit/s', '', '10 ms', '', '5 Gbit/s/ home', '', '2 Gbit/s /home', '', '50 devices /house', '', '10 m x 10m – 3 floors&lt;sup&gt; &lt;/sup&gt;', '', '10 m indoor', '', '2 to 3', '', '&lt;span style="font-size:16pt"&gt;Factory Sensors&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 2)&lt;/span&gt;', '', '100 kbit/s', '', '5 Mbit/s', '', '50 ms to 1 s', '', '1 Gbit/s /factory', '', '50 Gbit/s /factory', '', '10000 devices /factory', '', '100\xa0m x 100\xa0m', '', '30 m indoor / metallic', '', '2 to 3', '', '&lt;span style="font-size:16pt"&gt;Smart Metering&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 3)&lt;/span&gt;', '', '100 bytes / 15 mins', '', '100 bytes / 15 mins', '', '10 s', '', '200 x 100 bytes / 15 mins /hectare', '', '200 x 100 bytes / 15 mins /hectare', '', '200 devices /hectare', '', '100 m x 100 m', '', '&amp;gt;\xa0100 m indoor / deep indoor', '', '2 to 5', '', '&lt;span style="font-size:16pt"&gt;Containers&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 4)&lt;/span&gt;', '', '100 bytes / 15 mins', '', '100 bytes / 15 mins', '', '10 s', '', '15000 x 100 bytes / 15 mins /ship', '', '15000 x 100 bytes / 15 mins /ship', '', '15000 containers /ship', '', '400 m x 60 m x 40 m', '', '&amp;gt;\xa0100 m indoor / outdoor / metallic', '', '3 to 9', '', '&lt;span style="font-size:16pt"&gt;Freight Wagons&lt;/span&gt;', '', '100 bytes / 15 mins', '', '100 bytes / 15 mins', '', '10 s', '', '200 x 100 bytes / 15 mins /train', '', '200 x 100 bytes / 15 mins /train', '', '120 wagons /train', '', '1 km', '', '&amp;gt;\xa0100 m outdoor / tunnel', '', '10 to 15', '', '&lt;span style="font-size:16pt"&gt;Public Safety&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 5)&lt;/span&gt;', '', '12 Mbit/s', '', '12 Mbit/s', '', '30 ms', '', '20 Mbit/s /building', '', '40 Mbit/s /building', '', '30', '', 'devices', '', '/building', '', '100 m x 100 m – 3 floors', '', '&amp;gt;\xa050 m indoor (floor or stairwell)', '', '2 to 4', '', '&lt;span style="font-size:16pt"&gt;Wearables&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 6)&lt;/span&gt;', '', '10 Mbit/s', '', '10 Mbit/s', '', '10 ms', '', '20 Mbit/s per 100 m&lt;sup&gt;2&lt;/sup&gt;', '', '20 Mbit/s per 100 m&lt;sup&gt;2&lt;/sup&gt;', '', '10 wearables per 100 m&lt;sup&gt;2&lt;/sup&gt;', '', '10 m x 10 m', '', '10 m indoor / outdoor', '', '1 to 2', '', 'NOTE 1:\tArea traffic capacity is determined by high bandwidth consuming devices (e.g. ultra HD TVs, VR headsets), the number of devices has been calculated assuming a family of 4 members.', '', 'NOTE 2:\tHighest data rate assumes audio sensors with sampling rate of 192 kHz and 24 bits sample size.', '', 'NOTE 3:\tThree meters (gas, water, electricity) per house, medium density of 50 to 70 houses per hectare.', '', 'NOTE 4:\tA large containership with a mix of 20 foot and 40 foot containers is assumed.', '', 'NOTE 5:\tA mix of MCPTT, MCVideo, and MCData is assumed. Average 3 devices per firefighter / police officer, of which one video device. Area traffic based on 1080 p, 60 fps is 12 Mbit/s video, with an activity factor of 30% in uplink (30% of devices transmit simultaneously at high bitrate) and 15% in downlink. ', '', 'NOTE 6:\tCommunication for wearables is relayed via a UE. This relay UE can use a further relay UE.', '', 'NOTE 7:\tEnd-to-end latency implies that all hops are included.', '', "NOTE 8:\t'Metallic' implies an environment with a lot of metal obstructions (e.g. machinery, containers). 'Deep indoor' implies that there can be concrete walls / floors between the devices.", '', 'NOTE 9:\tAll the values in this table are example values and not strict requirements.', '', '', '']</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.5968168985724113</v>
+        <v>0.2132580952264782</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.14.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;7.9	KPIs for ranging based services&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>22837-j00.docx</t>
+          <t>22261-j30.docx</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1128,22 +1128,22 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>['', '[PR 5.14.6-1] The 5G system shall be able to provide means to use base station(s) to perform sensing in certain area. ', '', '[PR 5.14.6-2] Subject to regulatory requirements and operator policy, the 5G system shall be able to expose sensing results to a trusted third-party application.', '', '[PR 5.14.6-3] Subject to regulatory requirements and operator policy, the 5G system shall be able to support the activation and deactivation of the sensing service based on location.', '', '[PR 5.14.6-4] The 5G system shall be able to provide sensing service with KPIs given in Table 5.14.6-1.', '', 'Table 5.14.6-1\tPerformance requirements of sensing results for tourist spot traffic management', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area &lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[ms]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[s]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Missed detection&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Tourist spot traffic management&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Outdoor&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤2]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[1]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[1]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[1]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤5000]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤0.2]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE\xa02&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE\xa02&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa01:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.14.6-1 are found in Section 3.1.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa02:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Missed detection or false alarm describes missing to acquire a sensing result or acquiring a wrong sensing result which referring to a target object (a person or a vehicle), in this use case will be missing detect a person or a vehicle, not referring to the number of a crowd of people or vehicles.&lt;/span&gt;', '', 'NOTE:\tIn this use case base station is acting as sensing transmitter and/or sensing receiver. This is an example and other options can also be valid.', '']</t>
+          <t>['', 'In several scenarios, it can be beneficial to determine the distance between two UEs and/or the direction of one UE from the other one via direct communication connection. The functional requirements related to ranging based services can be found in clause 6.37. Performance requirements for ranging based services in different scenarios can be found in table 7.9-1.', '', '&lt;span style="font-size:20pt"&gt;Key performance indicators and key attributes for ranging are defined as follows: &lt;/span&gt;', '', '-\t&lt;b&gt;Ranging accuracy&lt;/b&gt;: describes the absolute value of the deviation of the measured distance and/or direction between two UEs to the true distance and/or direction value. ', '', '-\t&lt;b&gt;Confidence level&lt;/b&gt;: describes the percentage of all the possible measured distance and/or direction that can be expected to include the true distance and/or direction considering the ranging accuracy.', '', '-\t&lt;b&gt;Effective ranging distance&lt;/b&gt;: the largest distance between the UE who initiates the ranging and target UEs in the ranging operation. ', '', '-\t&lt;b&gt;Line-of-sight (LOS) Environment&lt;/b&gt;: the environment between the UE who initiates the ranging and target UEs, such as LOS and non-LOS (NLOS). ', '', '- \t&lt;b&gt;Coverage:&lt;/b&gt; type of radio coverage conditions of the UEs who are involved in ranging, such as in coverage (IC), partial coverage (PC) and out of coverage (OOC). See also figure 6.37.1-1.', '', 'NOTE:\tIf using licensed spectrum&lt;s&gt;,&lt;/s&gt; ranging is only permitted in network coverage\xa0under the full control of the operator who provides the coverage\u200b, except for public safety networks with dedicated spectrum where ranging might be allowed out of coverage or in partial coverage as well. ', '', '-\t&lt;b&gt;Relative UE velocity&lt;/b&gt;: the target UE can be either static or mobile relative to the UE who initiates the ranging. In the latter, the attribute shall also provide some elements about its motion, e.g. maximum speed, trajectory.', '', '-\t&lt;b&gt;Availability&lt;/b&gt;: percentage value of the amount of time when a ranging system is able to provide the required ranging-related data within the performance targets or requirements divided by the amount of time the system is expected to provide the ranging service in a targeted service area.', '', '-\t&lt;b&gt;Latency&lt;/b&gt;: time elapsed between the event that triggers the determination of the ranging-related data and the availability of the ranging-related data at the ranging system interface. ', '', '&lt;b&gt;-&lt;/b&gt;\t&lt;b&gt;Ranging interval: &lt;/b&gt;time difference between two consecutive ranging operations.', '', 'Table 7.9-1: Performance requirements for ranging based services', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Ranging scenario&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Ranging Accuracy &lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;(95 % confidence level)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Availability&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Latency&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;10ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;50ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;50ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Effective ranging distance&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Coverage &lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;NLOS/LOS&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Relative UE velocity &lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Ranging interval&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Number of concurrent ranging operation for a UE&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Number of concurrent ranging operation in an area&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Distance Accuracy&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Direction Accuracy&lt;/b&gt;&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:18pt"&gt;Smart TV Remoter&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;10cm up to 3 meter separation&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;±2° horizontal direction accuracy at 0.1 to 3 meter separation and AoA coverage of (-60°) to (+60°);&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;±2° Elevation direction accuracy at 0.1 to 3 meter separation and AoA coverage of (-45°) to (+45°)&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;99 %&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;50ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;10m&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;IC/PC/OOC&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;LOS&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;Static/ Moving&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;(&amp;lt;1m/s)&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;50ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;\xa0-&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Picture and video sharing based on Ranging results&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;10cm&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;2°&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;99 %&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;50ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;10m&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;IC/PC/OOC&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;LOS&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;Static/ Moving&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;(&amp;lt;1m/s)&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;50ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt; -&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Distance based smart device control&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;10cm&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;99 %&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;100ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;20m&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;IC/PC/OOC&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;LOS&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;Static/ Moving&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;(&amp;lt;1m/s)&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;50ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;\xa020&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Smart Vehicle Key&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;10 cm&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;99 %&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;50ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;30m&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;IC/PC/OOC&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;LOS&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;Static/ Moving&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;(&amp;lt;2m/s)&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;25ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt; -&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;50UEs/&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;(10&lt;/span&gt;&lt;span style="font-size:15pt"&gt;&lt;sup&gt;4&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:15pt"&gt;m&lt;/span&gt;&lt;span style="font-size:15pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:15pt"&gt;)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Touchless Self-checkout Machine Control&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;10cm&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;99%&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;150ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;1m&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;IC/PC/OOC&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;LOS&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;Static/ Moving&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;(&amp;lt;1m/s)&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;100ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;=&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Hands Free Access&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;10cm&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;99 %&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;500ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;10 m&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;IC/PC/OOC&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;LOS&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;Static/ Moving&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;(1 m/s)&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;50ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt; -&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;20 UEs/3.14*100m&lt;/span&gt;&lt;span style="font-size:15pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Smart Transportation Metro/Bus Validation&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;10cm&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;99 %&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;2m&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;IC/PC/OOC&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;LOS&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;Static/ Moving&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;(3km/h)&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;50ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;\xa020&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;100 in the area of 8 m&lt;/span&gt;&lt;span style="font-size:15pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Ranging of UE’s in front of vending machine&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;20cm&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;10°&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;1s&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;5m&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;IC/PC/OOC&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;LOS&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;Static/ Moving&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;(&amp;lt;1m/s)&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;50ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt; -&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;10&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Finding Items in a supermarket &lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;50 cm&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;5 degree&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;95 %&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;100m&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;IC/PC/OOC&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;LOS&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;Static/ Moving&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;(&amp;lt;1m/s)&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;250ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt; -&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;100 UEs/&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;(3.14*10&lt;/span&gt;&lt;span style="font-size:15pt"&gt;&lt;sup&gt;4&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:15pt"&gt;m&lt;/span&gt;&lt;span style="font-size:15pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:15pt"&gt;)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;distance based intelligent perception for public safety&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;50cm&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;99 %&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;20m&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;IC/PC/OOC&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;LOS&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;Static/ Moving&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;(&amp;lt;20km/h)&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;100&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Long Distance Search&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;20m&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;5°&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;99 %&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;100m-1km&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;IC/PC/OOC&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;LOS&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;Static/ Moving&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;(up to 10m/s)&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;5s&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt; -&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Long range approximate location&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;[10m]&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;±[12.5°]&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;99 %&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;500m&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;IC/PC/OOC&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;LOS&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;Static/ Moving&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;(&amp;lt;10m/s)&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;[50]UEs/&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;(10&lt;/span&gt;&lt;span style="font-size:15pt"&gt;&lt;sup&gt;4&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:15pt"&gt;m&lt;/span&gt;&lt;span style="font-size:15pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:15pt"&gt;)&lt;/span&gt;', '', '', '']</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.6875826968663854</v>
+        <v>0.2360911915853937</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.15.2	Pre-conditions&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;8.9	Data security and privacy&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>22882-j00.docx</t>
+          <t>22261-j30.docx</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1153,222 +1153,222 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>['', 'Eva watches videos during the commute. She receives 5G service from the mobile network operator A.', '', 'The 5G system operated by operator A is powered by both of renewable energy (e.g., solar energy) and non-renewable energy (e.g., coal). The ratio of renewable energy measures the ratio of the power that is used from renewable energy sources as a percentage of total power usage in a given time unit. Calculation of ratio of renewable energy is done by means of averaging or applying a statistical model.', '', 'The operator A offers a “green communication service option”, in which the service has adaptable QoS levels considering the ratio of renewable energy and the subscriber’s preferences, e.g., the operator A can provide a communication service with bit rate of 30Mbps and low ratio of renewable energy, which can be adapted to the service with bit rate is 10Mbps when high ratio of renewable energy is more desirable to the subscriber.', '', 'The operator A monitors the supply of renewables for its 5G system and adjust the operation of communication services. Following the pre-agreed QoS requirements with a subscriber, the operator A adjusts the communication services based on the supply of renewable energy. ', '', 'Eva loves our planet, so she subscribes the optional green communication service. Therefore, the operator can determine to use a higher latency but greener network function entities (e.g., located in a faraway but powered by 80%+ renewable energy large scale computing/communication center) to provide services to Eva. ', '', 'NOTE: This green service ensures that QoS level criteria continues to be met (i.e., there is no trade-off between energy efficiency and service quality) since all the adapted QoS levels are satisfied by the subscriber based on the pre-agreement.', '']</t>
+          <t>['', '\tThe 5G system shall support data integrity protection and confidentiality methods that serve URLLC, high data rates and energy constrained devices. ', '', 'The 5G system shall support a mechanism to verify the integrity of a message as well as the authenticity of the sender of the message.', '', 'The 5G system shall support encryption for URLLC services within the requested end-to-end latency.', '', 'Subject to regulatory requirements, the 5G system shall enable an MNO to provide end-to-end integrity protection, confidentiality, and protection against replay attacks between a UE and third-party application server, such that the 3GPP network is not able to intercept or modify the data transferred between a UE and third-party application server.', '', 'Subject to regulatory requirements and based on operator policy, the 5G system shall provide a mechanism to support data integrity verification service to assure the integrity of the data exchanged between the 5G network and a third-party service provider.', '', 'NOTE: \tThis requirement could apply&lt;span style="color:000000"&gt; to &lt;/span&gt;mechanisms supported over the interface between 5G core network and an external application, &lt;span style="color:000000"&gt;with &lt;/span&gt;no&lt;span style="color:000000"&gt; impact on RAN and UE&lt;/span&gt;.', '', 'Subject to regulatory requirements and based on operator policy, the 5G system shall provide a mechanism to support confidentiality to prevent exposure of data exchanged between the 5G network and a third party service provider.', '', 'NOTE: \tThis requirement could apply&lt;span style="color:000000"&gt; to &lt;/span&gt;mechanisms supported over the interface between 5G core network and an external application, &lt;span style="color:000000"&gt;with &lt;/span&gt;no&lt;span style="color:000000"&gt; impact on RAN and UE&lt;/span&gt;.', '']</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.5718188593859584</v>
+        <v>0.1729215590060198</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.15.3	Service Flows&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;A.2.1	Overview&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>22865-j00.docx</t>
+          <t>22104-j00.docx</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>['', '1)\tThe devices on UAM vehicle A and B register with the Ter-OP network. ', '', '2)\tUAM vehicle A is flying out of Ter-OP network coverage, thus its device has a connection to the satellite operated by Sat-OP.', '', '3)\tUAM vehicle B is ready to fly in the ground station, and hence its device has a connection to the Ter-OP network.', '', '4)\tBefore or Just after taking off, UAM vehicle B needs to gather the information on the movement of other flying vehicles including vehicle A. The data traffic between UAM vehicle A and B is routed though the satellite and terrestrial networks. ', '', '5)\tUAM vehicle B keeps gathering the movement information of vehicle A even after it moves out of Ter-OP network coverage. Since the information exchange between UAM vehicles should be performed in real time (with very low latency), the vehicles communicate with each other via satellite directly without going through the ground network.', '', '6)\tAfter then, as UAM vehicle B approaches the ground, it has a connection to the terrestrial network. ', '', '7)\tThe traffic between UAM vehicle A and B is going through the satellite and terrestrial network. ', '', '8)\tAs a result, the communication between UAM vehicle A and B keep going without any discontinuation of service. ', '']</t>
+          <t>['', 'The manufacturing industry is currently subject to a fundamental change, which is often referred to as the "Fourth Industrial Revolution" or simply "Industry 4.0" [15]. The main goals of Industry 4.0 are―among others―the improvement of flexibility, versatility, resource efficiency, cost efficiency, worker support, and quality of industrial production and logistics. These improvements are important for addressing the needs of increasingly volatile and globalised markets. A major enabler for all this is cyber-physical production systems based on a ubiquitous and powerful connectivity, communication, and computing infrastructure. The infrastructure interconnects people, machines, products, and all kinds of other devices in a flexible, secure and consistent manner. Several different application areas can be distinguished:', '', '&lt;b&gt;1)&lt;/b&gt;\t&lt;b&gt;Factory automation:&lt;/b&gt; Factory automation deals with the automated control, monitoring and optimisation of processes and workflows within a factory. This includes aspects like closed-loop control applications (e.g., based on programmable logic or motion controllers) and robotics, as well as aspects of computer-integrated manufacturing. Factory automation generally represents a key enabler for industrial mass production with high quality and cost-efficiency. Corresponding applications are often characterised by highest requirements on the underlying communication infrastructure, especially in terms of communication service availability, determinism, and latency. In the Factories of the Future, static sequential production systems will be more and more replaced by novel modular production systems offering a high flexibility and versatility. This involves many increasingly mobile production assets, for which powerful wireless communication and localisation services are required. ', '', '&lt;b&gt;2)&lt;/b&gt;\t&lt;b&gt;Process automation: &lt;/b&gt;Process automation refers to the control of production and handling of substances like chemicals, food &amp;amp; beverage, pulp, etc. Process automation improves the efficiency of production processes, energy consumption, and safety of the facilities. Sensors measuring process values, such as pressures or temperatures, are working in closed loops via centralised and decentralised controllers. In turn, the controllers interact with actuators, e.g., valves, pumps, heaters. Also, monitoring of attributes such as the filling levels of tanks, quality of material, or environmental data are important, as well as safety warnings or plant shut downs. Workers in the plant are supported by mobile devices. A process automation facility may range from a few 100\xa0m² to several km², and the facility may be geographically distributed. Depending on the size, a production plant may have several 10,000 measurement points and actuators. Autarkic device power supply for years is needed in order to stay flexible and to keep the total costs of ownership low. ', '', '&lt;b&gt;3)&lt;/b&gt;\t&lt;b&gt;HMIs and production IT: &lt;/b&gt;Human-machine interfaces (HMIs) include all sorts of devices for the interaction between people and production facilities, such as panels attached to a machine or production line, but also standard IT devices, such as laptops, tablet PCs, smartphones, etc. In addition, augmented- and virtual-reality applications are expected to play an increasingly important role in future. ', '', '4) \t&lt;b&gt;Logistics and warehousing&lt;/b&gt;: Organisation and control of the flow and storage of materials and goods in the context of industrial production. In this respect, intra-logistics is dealing with logistics within a certain property (e.g., within a factory), for example by ensuring the uninterrupted supply of raw materials on the shop floor level using automated guided vehicles (AGVs), fork-lifts, etc. This is to be seen in contrast to logistics between different sites. Warehousing particularly refers to the storage of materials and goods, which is also getting more and more automated, for example based on conveyors, cranes and automated storage and retrieval systems.', '', '5)\t&lt;b&gt;Monitoring and maintenance&lt;/b&gt;: Monitoring of certain processes and/or assets in the context of industrial production without an immediate impact on the processes themselves (in contrast to a typical closed-loop control system in factory automation, for example). This particularly includes applications such as condition monitoring and predictive maintenance based on sensor data, but also big data analytics for optimising future parameter sets of a certain process, for instance. For these use cases, the data acquisition process is typically not latency-critical.', '', 'For each of these application areas, a multitude of potential use cases exists, some of which are outlined in the following subclauses. These use cases can be mapped to the given application areas (see Table A.2.1-1).', '', 'Table A&lt;b&gt;.&lt;/b&gt;2.1-1: Mapping of the considered use cases (columns) to application areas (rows)', '', '', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Motion control&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Control-to-control&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Mobile control panels with safety&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Mobile robots&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Remote access and maintenance&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Augmented reality&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Closed-loop process control&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Process monitoring&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Plant asset management&lt;/b&gt;&lt;/span&gt;', '', 'Factory automation', '', 'X', '', 'X', '', '', '', 'X', '', '', '', '', '', '', '', '', '', '', '', 'Process automation', '', '', '', '', '', '', '', 'X', '', '', '', '', '', 'X', '', 'X', '', 'X', '', 'HMIs and Production IT', '', '', '', '', '', 'X', '', '', '', '', '', 'X', '', '', '', '', '', '', '', 'Logistics and warehousing', '', '', '', 'X', '', '', '', 'X', '', '', '', '', '', '', '', '', '', 'X', '', 'Monitoring and maintenance', '', '', '', '', '', '', '', '', '', 'X', '', '', '', '', '', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.5765003501019581</v>
+        <v>0.2578804919804748</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.15.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;A.4.10	Ensuring uninterrupted communication service availability during emergencies&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>22837-j00.docx</t>
+          <t>22104-j00.docx</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>['', '\t[PR 5.15.6-1] The 5G system shall support mechanisms to discover and configure a UE and a base station to perform sensing measurement process in a certain sensing service location area.', '', '[PR 5.15.6-2] The 5G system shall support mechanisms to derive and expose sensing results to a trusted third-party.', '', '[PR 5.15.6-3] The 5G system shall be able to provide 5G wireless sensing service with the following KPIs:', '', 'Table 5.15.6-1\tPerformance requirements of sensing results for contactless sleep monitoring', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Human motion rate accuracy&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[Hz]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency[ms]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate [s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Missed detection [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm [%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Sleep monitoring&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Outdoor (bedroom)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.033&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa02&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;60s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;60&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5 NOTE\xa03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa01:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.15.6-1 are found in Section 3.1.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa02:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Respiration rate = 18 times/min as reference, any detected value in [16,20] satisfies accuracy requirements, 0.033Hz corresponds to 2 times/min.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa03:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Detect event = “breathing stoppages duration &amp;gt;= 10 seconds” as reference.&lt;/span&gt;', '', 'NOTE:\tIn this use case base station and UE is acting as sensing transmitter and/or sensing receiver. This is an example and other options can also be valid.', '']</t>
+          <t>['', 'During emergencies, public mobile land networks (PLMNs) may restrict network access, which may lead to a prohibitevly low communication service availability for machine-type communication (MTC) for Smart Grid applications. An example is communication for microgrids. Microgrids are separate parts of a power grid that can be controlled and operated individually in a so-called island mode, or together with other parts of the power grid. The idea is to prioritise Smart Grid-related communication in order to ensure reliable and available communication for selected devices during emergency conditions. Existing features of a mobile network can be used to differentiate MTC of devices in a microgrid from other kind of MTC traffic or human-to-human communication. These features can help these microgrid devices to have communication service during emergencies. The communication among the microgrid devices enables co-ordination of DERs, which help the DERs can autarkically implement recovery of an islanded microgrid. ', '', 'The associated KPI is provided in Table A.4.10-1.', '', '&lt;span style="font-size:20pt"&gt;&lt;b&gt;Table A.4.10-1: Key Performance for uninterrupted MTC service availability&lt;/b&gt;&lt;/span&gt;', '', '', '', 'Characteristic parameter (KPI)', '', 'Influence quantity', '', 'Communication service availability: target value', '', 'Communication service reliability: mean time between failures', '', 'Max Allowed End-to-end latency (note\xa01;  ', '(note 2)', '', 'Service bit rate: user-experienced data rate (note 2)', '', 'Message size [byte] ', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', '', '', 'Service Area', '', '99.999\xa09\xa0%', '', '–', '', '100 ms', '', '&amp;lt; 1 kbit/s per DER', '', '–', '', '–', '', 'Stationary', '', '–', '', '–', '', 'NOTE 1:\tUnless otherwise specified, all communication includes 1 wireless link (UE to network node or network node to UE) rather than two wireless links (UE to UE).', '', 'NOTE 2:\tIt applies to both UL and DL unless stated otherwise.', '']</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.6655729117738267</v>
+        <v>0.2143682924958542</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.19.1	Description&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;A.4.2	Primary frequency control&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>22856-j00.docx</t>
+          <t>22104-j00.docx</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>LR3_other</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>['', 'With the proliferation of APIs in existing mobile applications already creating an extensive market for application exposure, API integration in emerging Metaverse applications and features is likely to emerge as a major functionality for enhancing experiences across extended reality functions that builds upon already-existing API development. Given the importance of consistent, reliable network access and the low-latency connections necessary to generate and maintain immersive experiences in Metaverse immersive experiences, one could reasonably expect the development of APIs supporting network exposure for configuring and optimizing network features for a diverse array of emerging functions in extended reality interactions. As 5G begins to support VR, AR, and MR interactions through the cellular network, questions surrounding the efficiency and trustworthiness of network exposure to application developers abound. ', '', 'In particular, the exposure of network characteristics through and the development of network-focused applications raises important questions around the privacy of user data with respect to the use of sensitive data around their internet usage, which could potentially reveal personally identifiable information about their location, environment, behaviour, or specific activities through such exposure. This concern extends beyond industry best practices and into emerging requirements from regulations such as the GDPR [52], CCPA [53], and other emerging national and international privacy regulation frameworks which specify the right of individuals to privacy across the lifecycle of data that could reveal personally identifiable information across a broad specification of contexts. It is thus incumbent on this body to proactively standardize the privacy features of the emerging 5GS in the context of APIs to ensure that such network exposure in application contexts does not expose providers or users to undue risks or liability. ', '']</t>
+          <t>['', 'Primary frequency control is among the most challenging and demanding control applications in the utility sector. A primary frequency control system is responsible for controlling the energy supply injected and withheld to ensure that the frequency is not deviating more than 0.02\xa0% from the nominal value (e.g., 50 Hz in Europe). Frequency control is based on having sensors for measuring the features in all parts of the network at all points where energy generation or storage units are connected to the grid. At these points, electronic power converters, also known as inverters, are equipped with communication units to send measurement values to other points in the grid such as a frequency control unit, or receive control commands to inject more, or less, energy into the local network. ', '', 'With the widespread deployment of local generation units, i.e. solar power units, or wind turbines, hundreds of thousands of such units, and their inverters, may have to be connected in a larger power distribution network. ', '', 'Primary frequency control is carried out in one of three ways: ', '', '1)\tCentralised control, all data analysis and corrective actions are determined by a central frequency control unit.', '', '2)\tDecentralised control, the automatic routine frequency control is performed by the individual local inverter based on local frequency values. Statistics and other information is communicated to the central frequency control unit. ', '', '3)\tDistributed control, the automatic routine frequency control is performed by the individual local inverter based on local and neighbouring frequency values. Statistics and other information are communicated to the central frequency control unit. ', '', 'Table A&lt;b&gt;.&lt;/b&gt;4.2-1: Service performance requirements for primary frequency control', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Message size [byte]', '', 'Transfer interval: target value', '', 'Survival time', '', '# of UEs', '', 'Service area', '', '1', '', '99.999', '', 'TBD', '', '~ 50 ms ', '', '~ 100', '', '~ 50 ms', '', 'TBD', '', '≤\xa0100,000', '', 'several km&lt;sup&gt;2&lt;/sup&gt; up to 100,000\xa0km&lt;sup&gt;2&lt;/sup&gt;', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Periodic communication service supporting message exchange for primary frequency control.', '']</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.6440185094176631</v>
+        <v>0.2126139674435083</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.2.1	Description&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;A.4.3	Distributed voltage control&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>22856-j00.docx</t>
+          <t>22104-j00.docx</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>LR3_other</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>['', 'Smart transport is a very important area for 5G system as well as an important mobile metaverse service. To reduce traffic jam and minimize traffic accident, 5G, including cellular based V2X technologies becomes more and more essential. The 5G system can be utilized to support real-time information &amp;amp; data delivery for the traffic participants including pedestrians, bicycle riders, and vehicles with or without autonomous driving mode. As shown in Figure 5.2.1-1, the physical objects including road infrastructure and vehicles including cars and trucks in each lanes, will have a corresponding digital twin in the virtual world, and the virtual and physical objects form the mobile metaverse. In this use case, there are virtual objects which actually represent the physical objects including vehicle, road and also pedestrians. This is the basis to enable smart transport applications like traffic flow simulation and situational awareness.', '', '----Image alt text----&gt;公路上的汽车', '', '描述已自动生成&lt;----media/image5.png----', '', 'Figure 5.2.1-1 Example of Smart Transport Metaverse', '', 'With the support of 5GS, real-time information and data about the physical objects can be delivered and the virtual objects of the road infrastructure and traffic participants including vulnerable road users can form a smart transport mobile metaverse service as shown in Figure 5.2.1-2. Then real-time processing&amp;amp; computing can be conducted to support traffic simulation, situational awareness, and real time path guidance. Real-time safety or security alerts can be generated for vehicles as well as the driver and passengers.', '', '----media/image6.png----', '', 'Figure 5.2.1-2 Scenario of 5G-enabled Traffic Flow Simulation and Situational Awareness', '', 'In order to support traffic flow simulation and situational awareness service, the 5G network need to provide low latency, high data rate and high reliability transmission, handover procedures that minimize service disruptions, and in addition, the 5G network may also need to be further enhanced to meet the service requirements for 5G-enabled traffic flow simulation and situation awareness. Meanwhile, in addition to the physical objects which may use UEs for telecommunication services, their corresponding virtual objects are also capable of interacting with each other and also interact with physical objects via 5GS.', '', 'This use case employs terminology defined in Table 5.2.1-1.', '', 'Table 5.2.1-1: Traffic Flow Simulation and Situational Awareness Terminology', '', 'Situational Awareness', '', 'The ability to know and understand what is going on in the surroundings, e.g. the perception of environmental elements and events', '', '', '']</t>
+          <t>['', 'In the evolution towards 100\xa0% renewable electric power production, the objective of voltage control is to balance the voltage in future low voltage distribution grids connecting local loads and prosumers, as well as energy storage facilities. The aim is to stabilise the voltage as locally as possible, so that decisions and control commands can be issued as quickly as possible. Distributed voltage control is a challenging and demanding control application. Consumer devices rely on having stable voltage levels to operate successfully. When future energy networks rely on thousands of local energy generation units relying mostly on solar and wind power, then it is crucial to stabilise the voltage levels in all segments of the distribution grid. Inverters, or electronic power converters, measure the voltage and power and change the amount of power injected into the grid, and they connect and disconnect end points from the distribution network.', '', 'Distributed control means that the automated voltage control shall be performed by the local voltage control units based on local &lt;i&gt;and neighbouring&lt;/i&gt; voltage and impedance values. Statistics and other information shall be communicated to the central distribution management system, though. ', '', 'Table A&lt;b&gt;.&lt;/b&gt;4.3-1: Service performance requirements for distributed voltage control', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Message size [byte]', '', 'Transfer interval: target value', '', 'Survival time', '', '# of UEs', '', 'Service area', '', '1', '', '99.999', '', 'TBD', '', '~ 100 ms', '', '~ 100', '', '~\xa0200\xa0ms', '', 'TBD', '', '≤\xa0100,000', '', 'several km&lt;sup&gt;2&lt;/sup&gt; up to 100,000\xa0km&lt;sup&gt;2&lt;/sup&gt;', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Periodic communication service supporting message exchange for distributed voltage control.', '']</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.6110080358820285</v>
+        <v>0.2162285749832517</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.2.1	Description&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;A.4.5	Smart grid millisecond-level precise load control&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>22882-j00.docx</t>
+          <t>22104-j00.docx</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>LR3_other</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>['', 'Industrial campuses are very typical scenarios of edge computing and local traffic offload. Dedicated network facilities are usually deployed near the campus for lower latency and local data protection. This brings a problem that these network facilities are used only for the campus, so while the manufacturing load is light or during vacation, these network facilities will be in very light load or even no load. Under this scenario, the energy consumption of these network facilities will be unnecessary.', '']</t>
+          <t>['', 'Precise Load Control is the basic application for smart grid. When serious HVDC (high-voltage direct current) transmission fault happens, Millisecond-Level Precise Load Control is used to quickly remove interruptible less-important load, such as electric vehicle charging piles and non-continuous production power supplies in factories.', '', 'Table A&lt;b&gt;.&lt;/b&gt;4.5-1: Service performance requirements for smart grid millisecond-level precise load control ', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Service bitrate: user experienced data rate', '', 'Message size [byte]', '', 'Transfer interval: target value', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service area', '', '1', '', '99.999\xa09', '', '– ', '', '&amp;lt; 50 ms', '', '0.59 kbit/s', '28 kbit/s', '', '&amp;lt; 100', '', 'n/a ', '(note)', '', '–', '', 'stationary', '', '&lt;span style="color:000000"&gt;10\xa0km&lt;/span&gt;&lt;span style="color:000000"&gt;&lt;sup&gt;-&lt;/sup&gt;&lt;/span&gt;&lt;span style="color:000000"&gt;² to 100\xa0km&lt;/span&gt;&lt;span style="color:000000"&gt;&lt;sup&gt;-&lt;/sup&gt;&lt;/span&gt;&lt;span style="color:000000"&gt;²&lt;/span&gt;', '', 'TBD', '', 'NOTE:\tevent-triggered', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'A non-periodic deterministic communication service between control primary station and load control terminals for removing interruptible less-important load quickly.', '']</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.6815444062738008</v>
+        <v>0.2133236832286611</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.2.2	Pre-conditions&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;A.4.6	Distributed energy storage&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>22882-j00.docx</t>
+          <t>22104-j00.docx</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>['', 'Factory F, a smart manufacturing factory locates in a remote area outside the city. Factory F requires low latency in AGV transporting services and local data processing using computing vision to support image comparison for fault detection in circuit boards. Factory F has an agreement with Operator T on the communication service with certain SLA. As the manufacturing activity is not consistent, Operator T provides a replaceable SLA which can be used during off-peak time. This replaceable SLA can reduce energy consumption by changing the energy state of network functions used locally (e.g. to “energy saving” state), and the action can be activated either by pre-configured policy or by notification from Factory F.', '']</t>
+          <t>['', 'Distributed power generation includes various power sources such as solar, wind, fuel cells, and gas. Distributed power generation typically comes with a low power density and entails thus typicall a decentralised deployment. Decentralisation causes technical problems and challenges Smart Grid operators. When distributed power generation is connected to the elctrical grid, the energy flow becomes more complicated as the user often is both an electricity consumer and producer (a so-called “prosumer”). Therefore, the current in the electricity grid can change direction at different locations of the grid and at different times of the day. ', '', 'The information exchange in a distributed energy grid does not only include power-generation-related data, but also control commands for the distributed energy storage equipment. An example for such a command is “change the load characteristics to realise a flexible electricity grid” etc.', '', '----media/image10.jpeg----', '', 'Figure A.4.6-1 Example of a distributed-energy storage grid', '', 'Figure A.4.6-1 shows an example of distributed-energy storage grid. The distributed-energy storage grid needs to exchange information among the distributed-energy storage management platform (DESMP) and distributed-energy devices (DEDs). ', '', 'The DED is a plug-and-play device and periodically collects its energy information, such as battery energy, charge and discharge status, energy alarm information, etc. The DED then transfers this information via 5G UE to the DESMP. The DESMP regularly manages the DEDs, e.g., the DESMP monitors the DEDs working status, controls the DEDs working modes, or configures the DEDs energy parameters etc. The associated KPIs are provided in Table A.4.6-1. ', '', '', '', 'Table A.4.6-1: Communication service performance requirements ‒ data for distributed energy storage', '', 'Use case#', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value ', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum ', '', 'Service bit rate: user experienced data rate&lt;b&gt; &lt;/b&gt;', '', 'Message size [byte]&lt;b&gt; &lt;/b&gt;', '', 'Transfer interval: target value&lt;b&gt; &lt;/b&gt;', '', 'Survival time&lt;b&gt; &lt;/b&gt;', '', 'UE ', 'speed&lt;b&gt; &lt;/b&gt;', '', '# of UEs', '', 'Service area ', '', '', '1', '', ' &amp;gt; 99.9 %', '', '', '', 'DL: &amp;lt; 10\xa0ms', 'UL: &amp;lt; 10\xa0ms', '', 'UL: &amp;gt; 16\xa0Mbit/s (urban); 640\xa0Mbit/s (rural)', '', 'DL: &amp;gt; 100\xa0kbit/s', '', '(note 1)', '', 'UL: 800\xa0kbyte', '', 'UL: 10\xa0ms', '', '–', '', 'stationary', '', '&amp;gt; 10/km&lt;sup&gt;2&lt;/sup&gt; (urban); ', '', '&amp;gt; 100/km&lt;sup&gt;2&lt;/sup&gt; (rural)', '', '(note 2)', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', '2', '', '&amp;gt; 99.9 %', '', '', '', 'DL: &amp;lt; 10\xa0ms', '', 'UL: &amp;lt; 1\xa0s', '', 'UL: &amp;gt; 128\xa0kbit/s (urban); 10.4\xa0Mbit/s (rural);', '', 'DL: &amp;gt; 100\xa0kbit/s', '', '(note 1)', '', 'UL: 1.3\xa0Mbyte', '', 'DL: &amp;gt; 100\xa0kbyte', '', 'UL: 1000\xa0ms', '', '–', '', 'stationary', '', '&amp;gt; 10/km&lt;sup&gt;2&lt;/sup&gt; (urban); ', '', '&amp;gt; 100/km&lt;sup&gt;2&lt;/sup&gt; (rural)', '', ' (note 2)', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', '3', '', ' &amp;gt; 99.9 %', '', '', '', '&lt;span style="font-size:18pt"&gt;DL: &amp;lt; 10\xa0ms&lt;/span&gt;', '', 'UL:&amp;lt; 1\xa0s (rural)', '', 'DL: &amp;gt; 100\xa0kbit/s', '', 'UL: &amp;gt; 5\xa0Gbit/s', '(note 3)', '', '', '', '', '', '', '', 'stationary', '', '&amp;gt; 100/km&lt;sup&gt;2&lt;/sup&gt;', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', 'NOTE 1:\tService bit rate for one energy storage station.', '', 'NOTE 2:\tActivity storage nodes/km&lt;sup&gt;2&lt;/sup&gt;. This value is used for deducing the data volume in an area that features multiple energy storage stations. The data volume can be calculated with the following formula (current service bit rate per storage station) x (activity storage nodes/km&lt;sup&gt;2&lt;/sup&gt;) + (video service bit rate per storage station) x (activity storage nodes/km&lt;sup&gt;2&lt;/sup&gt;). ', '', 'NOTE 3:\tThe downlink user experienced data rate is calculated as follows: 12.5 Mbytes/s x 50(containers) x 8 = 5\xa0Gbit/s', '', '&lt;span style="font-size:20pt"&gt;&lt;i&gt;Use case#1:&lt;/i&gt;&lt;/span&gt; Distributed energy storage ‒ periodic communication for monitoring ', '', '&lt;span style="font-size:20pt"&gt;&lt;i&gt;Use case#2:&lt;/i&gt;&lt;/span&gt; Distributed energy storage ‒ periodic communication for data collection ', '', '&lt;b&gt;&lt;i&gt;Use case#3:&lt;/i&gt;&lt;/b&gt;&lt;span style="font-size:18pt"&gt;&lt;b&gt; Distributed energy storage ‒ aperiodic video communication&lt;/b&gt;&lt;/span&gt;', '']</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.6834763353675209</v>
+        <v>0.2187879276115464</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.2.3		Service Flows&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;A.4.7	Advanced metering&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>22843-j00.docx</t>
+          <t>22104-j00.docx</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>['', '----media/image3.png----', '', 'Figure 5.2.3-1: Supporting UAV pre-flight preparation', '', '1.\tThe pipeline company plans to use UAV A to provide video inspection of pipelines from X to Y and the logistics company uses UAV B to deliver express from X to Z.', '', '2.\tUAV/UAV-C A and UAV/UAV-C B register in 5G network and can communicate with UTM though 5G network.', '', '3.\tThe UAV-C A provides planned flight path information from X to Y to UTM (e.g. waypoints and required QoS from X to Y). The UAV-C B provides planned flight path on start point X, end point Z and needed QoS.', '', '4.\tUTM checks with 5G system for required and needed QoS information in predictions/statistics (e.g. end-to-end latency, QoE) along required and possible flight paths.', '', '5.\tBased on the available analytics information, the 5G system can provide confirmation that required QoS is available for UAV A flight path or alternatively can reconfigure network resources to be able to provide the required QoS to UAV A along the flight path. As UAV B can take alternative routes, 5G system can provide optimized flight path considering where the QoS is available.', '', '6.\tUTM/UAS determines the final flight paths based on the information from Operator A and sends to UAV/UAV-C A and UAV/UAV-C B separately.', '', '7.\tUAV A and UAV B receive the flight path information from UTM/UAS via the 5G system and start flight mission.', '']</t>
+          <t>['', 'Instead of recording and sending metering data from a wired electricity meter unit, electricity metering collecting can be executed by a UE-integrated smart meter unit. Smart meter units can send real-time metering data to a server in the utility through mobile networks. In this way, the power enterprise―based on the analysis of the user’s power consumption behavior―gives the user power consumption suggestions, which fosters the user’s power consumption and energy saving habits. ', '', 'The electric smart meters monitor relevant user energy status and deliver the status data to a measurement data management system (MDMS). The MDMS sends control commands according to its policy and the status of the data collected from the smart meters. The MDMS commands include tripping, closing permission, alarm, alarm release, power protection, and power protection release. Accurate-fee control is one of the basic services of advanced metering. When the electric power user doesn’t pay her electric fee on time, the MDMS can cut off the power supply. And when there is a need for temporary power supply for this user, the MDMS can recover the power supply. This operation requires real-time interaction between the electric smart meter and the MDMS. Due to massive number of electricity meters, it is estimated that in the near future, the amount of this kind of interaction will increase 5 to 10 times. The associated KPIs are provided in Table A.4.7-1.', '', 'Table A.4.7-1: Communication KPI for advanced metering', '', 'Use case#', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value ', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum ', '', 'Service bit rate: user experienced data rate&lt;b&gt; &lt;/b&gt;', '', 'Message size [byte]&lt;b&gt; &lt;/b&gt;', '', 'Transfer interval: target value&lt;b&gt; &lt;/b&gt;', '', 'Survival time&lt;b&gt; &lt;/b&gt;', '', 'UE ', 'speed&lt;b&gt; &lt;/b&gt;', '', '# of UEs', '', 'Service area ', '', '', '&lt;span style="font-size:18pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&amp;gt; 99.99&lt;/span&gt;', '', '', '', '&lt;span style="font-size:18pt"&gt;Accuracy fee control: &amp;lt; 100 (note 1);&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;General information data collection: &amp;lt; 3000&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;UL: &amp;lt; 2 M&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;DL: &amp;lt; 1 M&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;stationary&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&amp;lt; 10\xa0000/km2 (note2)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;–&lt;/span&gt;', '', 'NOTE 1: \tOne-way delay from 5G IoT device to backend system. The distance between the two is below 40\xa0km (city range).', '', 'NOTE 2: \tIt is the typical connection density in today city environment. With the evolution from centralised meters to socket meters in the home, the connection density is expected to increase 5 to 10 times.', '', '&lt;b&gt;&lt;i&gt;Use case#1:&lt;/i&gt;&lt;/b&gt;&lt;span style="font-size:18pt"&gt;&lt;b&gt; Advanced metering&lt;/b&gt;&lt;/span&gt;', '', '', '']</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.5641521724472557</v>
+        <v>0.2239796435878373</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.2.5	Existing features partly or fully covering the use case functionality&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;A.4.8	Smart distribution transformer terminal&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>22856-j00.docx</t>
+          <t>22104-j00.docx</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>LR3_other</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>['', 'The QoS framework of 5G system supports low latency, high reliability or high data rate transmission of data traffic.', '']</t>
+          <t>['', 'A smart distribution transformer terminal is usually deployed in a distribution transformer area. The terminal can support multiple energy applications simultaneously. Multiple kinds of energy data are collected by the terminal and then delivered to a energy application platform. Figure A.4.8.1-1 illustrates a workflow example for a smart distribution transformer terminal.', '', '----media/image11.png----', '', 'Figure A.4.8-1: Example of a smart distribution transformer terminal workflow', '', 'In general, the connections between the smart distribution transformer terminal and the energy application platform are provided by the 5G system. The connections between energy end equipment and smart distribution transformer terminal may be provided by 5G system. In this case, about 300 to 500 energy end devices are connected to one smart distribution transformer terminal. The average service bit rate between the smart distribution transformer terminal and an energy end device is more than 2\xa0Mbit/s in uplink for each application. The related communication distance is between 100 m and 500 m. The associated KPI is provided in Table A.4.8-1.', '', '', '', '&lt;span style="font-size:20pt"&gt;&lt;b&gt;Table A.4.8-1: Key Performance for Smart Distribution Transformer Terminal&lt;/b&gt;&lt;/span&gt;', '', 'Use case#', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value ', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum ', '', 'Service bit rate: user experienced data rate&lt;b&gt; &lt;/b&gt;', '', 'Message size [byte]&lt;b&gt; &lt;/b&gt;', '', 'Transfer interval: target value&lt;b&gt; &lt;/b&gt;', '', 'Survival time&lt;b&gt; &lt;/b&gt;', '', 'UE ', 'speed&lt;b&gt; &lt;/b&gt;', '', '# of UEs', '', 'Service area ', '', '', '&lt;span style="font-size:18pt"&gt;1&lt;/span&gt;', '', '&lt;b&gt;&amp;gt;99.99%&lt;/b&gt;', '', '&lt;b&gt;–&lt;/b&gt;', '', '&lt;b&gt;10\xa0ms, 100\xa0ms, 3\xa0s (note 2)&lt;/b&gt;', '', '&lt;b&gt;&amp;gt; 2\xa0Mbit/s (note 1)&lt;/b&gt;', '', '–', '', '–', '', '–', '', '–', '', '&lt;b&gt;500 in the service area (note\xa03)&lt;/b&gt;', '', '&lt;b&gt;Communication distance is from 100 m to 500\xa0m, (outdoor, indoor, and deep indoor)&lt;/b&gt;', '', 'NOTE 1: \tIt is the smart metering application data rate between the Smart Distribution Transformer Terminal and energy end equipment. Once there are multiple smart grid applications, it is required more data rate.', '', 'NOTE 2: \tIt depends on different applications supported by the Smart Distribution Transformer Terminal. The less the latency is, the more applications can be supported.', '', 'NOTE 3: \tThe distribution area can be calculated as 3.14 x range&lt;sup&gt;2&lt;/sup&gt; and in general is between 0.031 km&lt;sup&gt;2&lt;/sup&gt; and 0.79 km&lt;sup&gt;2&lt;/sup&gt;.', '', '&lt;b&gt;&lt;i&gt;Use case#1:&lt;/i&gt;&lt;/b&gt;&lt;span style="font-size:18pt"&gt;&lt;b&gt; smart distribution transformer terminal&lt;/b&gt;&lt;/span&gt;', '', '', '']</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.666780003879725</v>
+        <v>0.2185563781732996</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.2.6		Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;A.4.9	Distributed energy resources and micro-grids&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>22843-j00.docx</t>
+          <t>22104-j00.docx</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1378,47 +1378,47 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>['', '[P.R 5.2.6-001] Based on operator’s policy, the 5G system shall be able to support a method to predict network conditions and QoS (e.g. bitrate, latency, reliability) along a continuous geographic planned flight path of a UAV at specific times of its expected flight duration. ', '', '[P.R 5.2.6-002] Based on operator’s policy, the 5G system shall be able to provide UTM with the information about geographic areas where UAV service requirements could or could not be met based on predicted network conditions and QoS (e.g. bitrate, latency, reliability).', '', '[P.R 5.2.6-003] Based on 3&lt;sup&gt;rd&lt;/sup&gt; party request, the 5G system shall be able to provide to the 3&lt;sup&gt;rd&lt;/sup&gt; party alternative UAV flight paths, as long as UTM-provided required waypoints (e.g. start/end locations), required QoS, and exclusion zones are fulfilled.', '', '[P.R 5.2.6-004] Based on 3&lt;sup&gt;rd&lt;/sup&gt; party request and operator’s policy, the 5G system shall be able to reconfigure network resources to provide the required QoS along a UAV planned flight path, e.g. at particular geographical area(s) and time(s).', '']</t>
+          <t>['', 'Distributed energy resources (DER) become increasingly important. The potentially large number of DERs will have an impact on security, stability, and operation efficiency of the energy grid. ', '', 'The integration of DERs into the energy grid poses many challenges for the involved communication system. To incorporate more renewable and alternative energy sources, the communication infrastructure must have the ability to easily handle an increasing amount of data traffic or service requests and must provide a real-time monitoring and control operation for these distributed energy resources. A reliable communication between the DERs is crucial. ', '', 'When it comes to communications architecture, IEC 61850 is a widely used standard for automation and equipment of power utilities and DER, specifically for defining protocols for IEDs (Intelligent electronic devices) at electrical substations The IEC 61850 standard specifies the timing constraints for messages typically used in substations. GOOSE (Generic Object Oriented Substation Events) and SV (Sampled Values) messages are assumed as time critical messages. They have the tightest deadlines (maximum allowed transfer time) among all IEC 61850 messages, corresponding to 3 ms. While GOOSE is typically used for transfering information related to monitoring and control functions (circuit breaker status etc.), SV is used for transfering measurement samples of current and voltage signals. The SV protocol works on a periodic information transmission model, sending messages at a fixed rate. For protection purposes, the default rate is 4000 or 4800 messages per second for 50 and 60 Hz power systems, respectively. On the other hand, the GOOSE protocol operates in a sporadic information transmission model, where a continuous flow of data is maintained to increase communication reliability. The typical sizes of GOOSE and SV messages are160 and 140 bytes, respectively. GOOSE messages are transmitted in two different modes: (1) safe operation: 1 message per second (service bit rate = 1.28 kbit/s); (2) emergency operation: 32 messages per second (service bit rate = 41.0 kbit/s). SV messages are transmitted at much higher rate, namely 4800 messages per second (service bit rate = 5.4 Mbit/s). The associated KPIs are provided in Table A.4.9-1.', '', '&lt;span style="font-size:20pt"&gt;&lt;b&gt;Table A.4.9-1: Key Performance for Distributed energy resources (DER): using SV (Sampled Values) message&lt;/b&gt;&lt;/span&gt;', '', '', '', 'Use case#', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Service bit rate: user experienced data rate', '', 'Message size [byte]', '', 'Transfer interval: target value', '', 'Survival time', '', 'UE ', 'speed', '', '&lt;b&gt;1&lt;/b&gt;', '', '&lt;b&gt;99,9999\xa0%&lt;/b&gt;', '', '&lt;b&gt;–&lt;/b&gt;', '', '&lt;b&gt;&amp;lt; 3 ms&lt;/b&gt;', '', '&lt;b&gt;4.5 Mbit/s&lt;/b&gt;', '', '&lt;b&gt;140&lt;/b&gt;', '', '&lt;b&gt;≤ 1 ms&lt;/b&gt;', '', '&lt;b&gt;transfer interval&lt;/b&gt;', '', '&lt;b&gt;stationary&lt;/b&gt;', '', '&lt;b&gt;2&lt;/b&gt;', '', '&lt;b&gt;99,9999\xa0%&lt;/b&gt;', '', '&lt;b&gt;–&lt;/b&gt;', '', '&lt;b&gt;&amp;lt; 3 ms&lt;/b&gt;', '', '&lt;b&gt;5.4 Mbit/s&lt;/b&gt;', '', '&lt;b&gt;140&lt;/b&gt;', '', '&lt;b&gt;≤ 1 ms&lt;/b&gt;', '', '&lt;b&gt;transfer interval&lt;/b&gt;', '', '&lt;b&gt;stationary&lt;/b&gt;', '', '&lt;b&gt;3&lt;/b&gt;', '', '&lt;b&gt;&amp;gt; 99.9999\xa0%&lt;/b&gt;', '', '&lt;b&gt;–&lt;/b&gt;', '', '&lt;b&gt;&amp;lt; 3 ms&lt;/b&gt;', '', '&lt;b&gt;–&lt;/b&gt;', '', '&lt;b&gt;160&lt;/b&gt;', '', '&lt;b&gt;–&lt;/b&gt;', '', '&lt;b&gt;–&lt;/b&gt;', '', '&lt;b&gt;stationary&lt;/b&gt;', '', 'NOTE:\tUE to UE communication is assumed.', '', '', '', '&lt;b&gt;&lt;i&gt;Use case#1:&lt;/i&gt;&lt;/b&gt;&lt;span style="font-size:18pt"&gt;&lt;b&gt; &lt;/b&gt;&lt;/span&gt;&lt;b&gt;Distributed energy resources and micro-grids: using SV(sample value) message with 50Hz&lt;/b&gt;', '', '&lt;b&gt;&lt;i&gt;Use case#2:&lt;/i&gt;&lt;/b&gt;&lt;span style="font-size:18pt"&gt;&lt;b&gt; &lt;/b&gt;&lt;/span&gt;&lt;b&gt;Distributed energy resources and micro-grids: using SV(sample value) message with 60Hz&lt;/b&gt;', '', '&lt;b&gt;&lt;i&gt;Use case#3:&lt;/i&gt;&lt;/b&gt;&lt;span style="font-size:18pt"&gt;&lt;b&gt; &lt;/b&gt;&lt;/span&gt;&lt;b&gt;Distributed energy resources and micro-grids: using GOOSE message&lt;/b&gt;', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.5535057892274129</v>
+        <v>0.2235125704868153</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.2.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;A.5.2	Wind power plant network&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>22837-j00.docx</t>
+          <t>22104-j00.docx</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>LR3_other</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>['', '[PR 5.2.6-1] The 5G system shall be able to support a base station to perform sensing.', '', '[PR 5.2.6-2] The 5G system shall be able to support means to select suitable base station(s) to perform sensing, e.g. based on the base station’s location, sensing capability, and the sensing service information requested by trusted third party application.', '', '[PR 5.2.6-3] The 5G system shall be able to support means to configure the sensing operation of a base station(e.g. authorization, sensing activation and/or deactivation, sensing duration, sensing accuracy, target sensing location area).', '', '[PR 5.2.6-4] The 5G system shall be able to support means to enable a base station to transfer 3GPP sensing data to the core network.', '', '[PR 5.2.6-5] The 5G system shall be able to support means to enable the core network to process 3GPP sensing data for obtaining sensing results.', '', '[PR 5.2.6-6] Based on operator’s policy, the 5G system shall expose a suitable API to a trusted third party to provide the information regarding sensing results.', '', '[PR 5.2.6-7] The 5G system shall be able to support charging data collection for the sensing services (e.g. considering service type, sensing accuracy, target area, duration) requested by a trusted third-party application.', '', '[PR 5.2.6-8] Subject to operator’s policy, the 5G network may provide secure means for the operator to expose information on sensing service availability (e.g., if sensing service is available and the supported KPIs) in a desired sensing service area location to a trusted third-party.', '', '[PR 5.2.6-9] The 5G system shall be able to support the following KPIs:', '', 'Table 5.2.6-1\tPerformance requirements of sensing results for pedestrian/animal intrusion detection', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency[ms]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate [s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Missed detection [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm [%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;Pedestrian/animal intrusion detection on a highway&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;Outdoor (Highway)&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;≤1&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;≤5000&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;≤ 0.1&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;≤5&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;≤5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE: &lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.2.6-1 are found in Section 3.1.&lt;/span&gt;', '', 'NOTE:\tIn this use case base station is acting as sensing transmitter and/or sensing receiver. This is an example and other options can also be valid.', '']</t>
+          <t>['', 'Table A&lt;b&gt;.&lt;/b&gt;5.2-1: Service performance requirements for wind power plant network', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Packet error ratio', '', 'UE speed', '', 'Service area', '', '1', '', '99.999\xa0999\xa09', '', '~ 10 years', '', '16 ms', '', '&amp;lt; 10&lt;sup&gt;-9&lt;/sup&gt;', '', 'stationary', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Communication in support of closed-loop cyber-physical control in a wind farm. The wind farm can be deployed offshore.', '', 'NOTE:\tThis type of communication service can be provided via a wired connection.', '']</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.6518979155981524</v>
+        <v>0.2179340450720584</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.2.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;A.6.1	Overview&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>22856-j00.docx</t>
+          <t>22104-j00.docx</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1428,22 +1428,22 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>['', '[PR 2.1.6-1] The 5G system shall be able to support the following KPIs for transmission for traffic between a large number of UEs and application server (e.g. mobile metaverse server).', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Use Cases&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Characteristic parameter (KPI)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Influence quantity&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Max allowed end-to-end latency&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Service bit rate: user-experienced data rate&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Reliability&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Area Traffic capacity&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Message Data Volume&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Transfer Interval&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Service Area&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5G-enabled Traffic Flow Simulation and Situational Awareness&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt; [5-20] ms (NOTE 1)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[10~100 Mbit/s] [25](NOTE 6)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&amp;gt; 99.9%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[~39.6 Tbit/s/km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:16pt"&gt; ] &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 5)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Typical data:&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Camera: 10M bits/s per sensor (unstructured)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;LiDAR: 90M bits/s per sensor (unstructured)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Radar: 10M per sensor (unstructured)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Real-time Status information including Telemetry data:&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[&amp;lt; 50K bits/s] per sensor/vehicle/VRU&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(structured)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;(NOTE 2)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;20-100 ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 3)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;City or Country wide&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 4)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 1: The mobile metaverse server receives the data from various sensors, performs data processing, rendering and provide feedback to the vehicles and user s. The end-to-end latency refers to the transmission delay between a UE and the mobile metaverse server. Exact value is FFS&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 2: To support at least 80 vehicles and 1600 users present at the same location (e.g. in an area of 40m*250m) to actively enjoy immersive metaverse services for traffic simulation and traffic awareness, the area traffic capacity is calculated considering 2 cameras, 2 Radars, 2 LiDARs on road side, 1600 user’s smart phones and 80 vehicles with 7 cameras, 4 radar and 2 LiDAR for each vehicle. These application layer message data need to be segmented for network transport thus doesn’t mean packet size. The real-time status information including telemetry data may be structured.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 3: The frequency considers different sensor types such as Radar/LiDAR (10Hz) and Camera (10~50Hz).&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 4: &lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The service area for traffic flow simulation and situational awareness depends on the actual deployment, for example, it can be deployed for a city or a district within a city or even countrywide. In some cases a local approach (e.g. the application servers are hosted at the network edge) is preferred in order to satisfy the requirements of low latency and high reliability.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 5: The calculation is this table is done per one 5G network, in case of N 5G networks to be involved for such use case in the same area, this value can be divided by N. Exact value is FFS.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 6: User experienced data rate refers to the data rate needed for the vehicle or human, the value is observed from industrial practice and exact value is FFS. &lt;/span&gt;', '', '', '']</t>
+          <t>['', 'The traditional value chain for the medical device industry, which historically has been driven by innovation and research and development, is currently witnessing a shift in the landscape. As governments and health insurers worldwide implement measures to control costs, public hospitals are operating on tighter budgets, while private facilities are receiving lower reimbursements. In the developed world, decisions that used to be the sole preserve of doctors are now also made by regulators, hospital administrators, and other non-clinicians. This broader set of influencers comes with different objectives, e.g. the prioritization of cost effectiveness or even just costs. ', '', 'This shift in focus from volume-based healthcare to value-based healthcare has led medical devices companies to move to business models based on providing clinical value with cost efficiency.', '', 'Technological progress and better infrastructures, in particular high-quality wireless networks, have fed this business model transformation, allowing coordinated therapies, services, and health analytics and enabling efficient outcome measurement solutions. ', '', 'On this matter, 5G enables shifting care location from hospitals to homes and others lower cost facilities which mechanically translates into more savings. Additionally, another example showing that 5G can enable cost savings required by the medical industry can be found inside hospitals where wireless transmission of low latency data streams improves operating room planning, enable streamlining equipment usage and simplifies operating theater implementation.', '']</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.6356216615246701</v>
+        <v>0.2215444770523926</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.20.2	Pre-conditions&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;A.6.2	Robotic Aided Surgery&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>22856-j00.docx</t>
+          <t>22104-j00.docx</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1453,122 +1453,122 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>['', 'Bob works in a seaport; he operates a lifting device. The place in which he is operating is surrounded by cranes, machines, containers, pipes, and barrels containing hazardous substances. ', '', 'A new mobile metaverse service is available: instead of locally controlling the device, Bob is installed in a safe remote location from which he is working. The surrounding information is available through a digital twin of the seaport and can come from various sources (IoT sensors, CCTV cameras, connected machines, and other vehicles). ', '', 'In order to maximize Bob’s efficiency, the metaverse service experience delivered by the system is real-time with non-noticeable latency. This use case includes both location related and location agnostic service experience examples.', '', 'The mobile metaverse service Bob uses for teleoperation is running on a mobile metaverse server. In addition, Bob is equipped with a head-mounted display and haptic gloves to remotely control the vehicle.', '']</t>
+          <t>['', '&lt;span style="color:000000"&gt;Robotic aided surgery is particularly suitable to invasive surgical procedures that require delicate tissue manipulation and access to areas with difficult exposure. It is achieved through complex systems that translate the surgeon’s hand movements into smaller, precise movements of tiny instruments that can generally bend and rotate far more than a human hand is capable of doing inside the patient’s body. In addition, those systems are usually able to filter out hand tremor and therefore &lt;/span&gt;allow more consistent outcomes for existing procedures, and more importantly the development of new procedures currently made impractical by the accuracy limits of unaided manipulation&lt;span style="color:000000"&gt;.&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;A typical robotic setup for telesurgery can be depicted as follows.&lt;/span&gt;', '', '----media/image12.png----', '', 'Figure A.6.2-1: Typical Robotic Surgery System Setup', '', 'The robot and the surgeon’s console can be co-located in the same operating room in which case they communicate through a NPN, or, in another deployment option, when specialists and patients are far from each other (hundreds of kilometres) they can exchange data through communication services delivered by PLMNs. The depicted medical application can be instantiated at either side or in the Cloud. Its role consists in: ', '', '-\tGenerating appropriate haptic feedback based on instrument location, velocity, effort measurements data and images issued by surgical instruments and 3D pre-operative patient body model. This allows to provide tactile guidance by constraining where the instruments (scalpel, etc.) can go.', '', '-\tFiltering motion control commands for better closed loop stability', '', 'Typical surgery robotic systems can have around 40 actuators and the same number of sensors which allows to compute the data rate requires in each direction in order to execute a given movement. ', '', 'Human sensitivity of touch is very high, tactile sensing has about 400 Hz bandwidth, where bandwidth refers to the frequency of which the stimuli can be sensed. This is why, in general, haptic feedback systems operate at frequencies around 1,000 Hz. This rate naturally applies to the update of all information used in the generation of the haptic feedback, e.g. instruments velocity, position … Therefore, the robot control process involves:', '', '-\tThe surgeon console periodically sending a set of points to actuators', '', '-\tActuators executing a given process ', '', '-\tSensors sampling velocity, forces, positions, … at the very same time and returning that information to the surgeon console at the rate of 1 kHz', '', 'As opposed to machine to machine communication, robotic aided surgery implies there is a human being in the middle of the control loop, which means that the console generates new commands based on the system state collected in the previous 1 kHz cycle and also on surgeon’s hand movement.', '', 'Each equipment involved in a robotic telesurgery setup (endoscopes, image processing system, displays, motion controller and haptic feedback systems) is synchronized thanks to a common clock either external or provided by the 5G system. The synchronization is often achieved through dedicated protocols such as e.g. PTP version 2 and allows to e.g. guarantee the consistency of the haptic feedback and displayed images at the master console, or enable the recording and offline replay of the whole procedure.', '', '', '', '', '', 'Table A.6.2-1: Service performance requirements for motion control and haptic feedback', '', 'Use case # ', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: Mean Time Between Failure', '', 'End-to-end latency: maximum', '', 'Bit rate', '', 'Direction', '', 'Message', '', 'Size', '', '[byte]', '', 'Transfer Interval', '', 'Survival time', '', 'UE speed', '', '# of active UEs', '(note1)', '', 'Service Area', '', '1', '', '&amp;gt;\xa099.999\xa0999', '', '&amp;gt;\xa010 years', '', '&amp;lt;\xa02 ms', '', '2\xa0Mbit/s to 16\xa0Mbit/s', '', 'network to UE; UE to network', '', '250 to 2,000', '', '1 ms', '', 'transfer interval', '', 'stationary', '', '1', '', 'room', '', '2', '', '&amp;gt;\xa099.999\xa09', '', '&amp;gt;\xa01 year', '', '&amp;lt;\xa020 ms', '', '2\xa0Mbit/s to 16\xa0Mbit/s', '', 'network to UE; UE to network', '', '250 to 2,000', '', '1 ms', '', 'transfer interval', '', 'stationary', '', '&amp;lt;\xa02 per 1,000\xa0km&lt;sup&gt;2&lt;/sup&gt;', '', 'national', '', 'Note 1: The upper limit of UEs’ density is provided for large service areas to address non-uniform distributions of UEs, while an absolute number of UEs is provided for small service areas.', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Periodic communication for the support of precise cooperative robotic motion control and haptic feedback in case of robotic aided surgery where the surgeon console and the robot are collocated in the same operating room', '', '&lt;i&gt;Use case two&lt;/i&gt;', '', 'Periodic communication for the support of cooperative robotic motion control and haptic feedback in case of telesurgery. In this case, the surgeon console and the robot are not collocated and communicate with each other through a connection established over a PLMN possibly spanning an entire country. Relaxed requirements imply that much less complex surgical procedures are achievable in use case 2 than in use case 1. It shall be noted that this use case also involves more experienced and trained surgeons, who can cope with longer latencies in the communication system.', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.6256987787171775</v>
+        <v>0.2168361989318253</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.20.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;A.6.3	Robotic Aided Diagnosis&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>22837-j00.docx</t>
+          <t>22104-j00.docx</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>['', '', '', '[PR 5.20.6-1] The 5G system shall be able to provide sensing services in licensed and unlicensed spectrum. ', '', '[PR 5.20.6-2] The 5G system shall be able to authorize Sensing receiver(s) and Sensing transmitter(s) to participate in a sensing service.', '', '[PR 5.20.6-3] &lt;span style="color:0D0D0D"&gt;Based on operator’s policy, the 5G system shall enable a trusted third-party to request the activation of the sensing service with specific KPI requirement, as well as deactivation of the same service.&lt;/span&gt;', '', '[PR 5.20.6-4] &lt;span style="color:0D0D0D"&gt;The 5G system shall be able to support charging for the sensing services (e.g. considering service type, sensing accuracy, target area, duration).&lt;/span&gt;', '', '[PR 5.20.6-5] The 5G system shall be able to provide a sensing service considering the interference to the Sensing service caused by the sensing operations between multiple Sensing transmitter(s) and Sensing receiver(s).', '', '[PR 5.20.6-6] The 5G system shall be able to provide sensing with following KPIs.', '', 'Table 5.20.6-1\tPerformance requirements of sensing results for parking space determination', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area &lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[ms]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[s]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Missed detection&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Parking space determination&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Indoor/ outdoor&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2.5m perpendicular to the parking space&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5m parallel to the parking space&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1000&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.20.6-1 are found in Section 3.1.&lt;/span&gt;', '']</t>
+          <t>['', 'Robotic aided diagnosis involves a remote expert in a large central hospital who controls a diagnosis robotic system deployed in a local medical facility. Such robotic systems can be e.g.:', '', '-\tHaptic feedback tool used for palpating and deployed in e.g. a Mobile Specialist Practise facility', '', '-\tUltrasound probe deployed in an ambulance or a medical facility ', '', '&lt;span style="color:000000"&gt;A typical robotic setup for tele diagnosis can be depicted as follows:&lt;/span&gt;', '', '----media/image13.png----', '', 'Figure A.6.3-1: Typical Robotic Surgery System Setup', '', 'Specialists and patients are far from each other (typically dozens of kilometres) and can exchange data through communication services delivered by PLMNs. The depicted medical application can be instantiated at either side or in the Cloud. Its role consists in: ', '', '--\tGenerating appropriate haptic feedback based on instrument location, velocity, effort measurements data and images issued by instruments.', '', '--\tFiltering motion control commands for better closed loop stability', '', '', '', '', '', 'Table A.6.3-1: Service performance requirements for motion control and haptic feedback', '', 'Use case # ', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: Mean Time Between Failure', '', 'End-to-end latency: maximum', '', 'Bit rate', '', 'Direction', '', 'Message', '', 'Size', '', '[byte]', '', 'Transfer Interval', '', 'Survival time', '', 'UE speed', '', '# of active UEs', '', 'Service Area', '', '1', '', '&amp;gt;\xa099.999', '', '&lt;span style="color:000000"&gt;&amp;gt;&amp;gt; 1 month (&amp;lt; 1 year)&lt;/span&gt;', '', '&amp;lt;\xa020 ms', '', '2\xa0Mbit/s to 16\xa0Mbit/s', '', 'network to UE; UE to network', '', '~80', '', '&amp;lt;\xa020\xa0ms per 100\xa0km&lt;sup&gt;2&lt;/sup&gt; ', '', 'transfer interval', '', 'stationary', '', '&amp;lt; 20 per 100\xa0km&lt;sup&gt;2&lt;/sup&gt;', '', 'regional', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Periodic communication for the support of precise cooperative robotic motion control and haptic feedback in case of robotic aided diagnosis where the expert and the patient are not collocated and communicate with each other through a connection established over a PLMN.', '', '', '']</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.6920849156503396</v>
+        <v>0.2192007100680515</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.20.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;C.1.1	Area of consideration&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>22856-j00.docx</t>
+          <t>22104-j00.docx</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR3_other</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>['', '[PR 5.20.6-1] The 5G system shall be able to provide a means to associate data flows related to one or multiple UEs with a single digital twin maintained by the mobile metaverse service.', '', '[PR 5.20.6-2] The 5G system shall be able to provide a means to support data flows from one or multiple UEs to update a digital twin maintained by the mobile metaverse service.', '', '[PR 5.20.6-3] Subject to regulatory requirements and operator’s policy, the 5G system shall be able to support data flows directed towards one or multiple UEs as a result of a change in a digital twin maintained by the mobile metaverse service, so that physical objects could be affected via actuators.', '', 'NOTE 1: How an application actually operates on physical objects upon receiving a command via the mobile metaverse service, e.g. using actuators, changing environmental controls configuration, etc is out of scope of the 5G system. In addition, regulations and/or other standards could apply to remote operations (e.g. based on a specific industry).', '', '[PR 5.20.6-4] The 5G system shall be able to support the following KPIs for remotely controlling physical objects via the mobile metaverse service.', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Use Cases&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Characteristic parameter (KPI)&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Influence quantity&lt;/b&gt;&lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Max allowed end-to-end latency&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Service bit rate: user-experienced data rate&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Reliability&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Area Traffic capacity&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Message Data Volume (bits)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Transfer interval&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Position accuracy&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;UE speed&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Service Area&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Remarks&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Metaverse-based Tele-Operated Driving&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[100] ms [25] (NOTE 1)&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;[10~50 Mbit/s] [25] &lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;99%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt; [25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[~360 Mbit/s/km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:16pt"&gt; ] &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 4)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt; ~8Mbps video stream. Four cameras per vehicle (one for each side): 4*8=32Mbps. &lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Sensor data (interpreted objects).&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Assuming 1 kB/object/100 ms and 50 objects: 4 Mbps [25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;20~100 ms [25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 2)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[10] cm [25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[10-50] km/h (vehicle) [25]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Stationary/Pedestrian (user)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Up to 10km radius [25]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;(NOTE 3)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UL (NOTE 5)&lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;[20] ms [25]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[0.1~0.4 Mbit/s] [25]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;99,999% [25]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[~4 Mbit/s/km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:16pt"&gt; ] &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 4)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Up to 8Kb &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;per message [25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;20 ms [25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 2)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[10] cm [25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[10-50] km/h (vehicle) [25]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Stationary/Pedestrian (user)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Up to 10km radius [25]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;(NOTE 3)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;DL (NOTE 5)&lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;1-20ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 6)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16 kbit/s -2 Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(without haptic compression encoding);&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;0.8 - 200 kbit/s &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(with haptic compression encoding)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 6)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.999%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 6)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[~20 Mbit/s/km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:16pt"&gt; ] &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 4)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2-8 (1 DoF) (NOTE 6)&lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Stationary/Pedestrian (user)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Up to 10km radius [25]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;(NOTE 3)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Haptic feedback&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 1: The end-to-end latency refers to the transmission delay between a UE and the mobile metaverse server or vice-versa, not including sensor acquisition or actuator control on the vehicle side, processing, and rendering on the user side (estimated additional 100ms total). Target e2e user experienced max delay depends on reaction time of the remote driver (e.g. at 50km/h, 20ms means 27cm of remote vehicle movement). &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 2: UL data transfer interval around 20ms (video) to 100ms (sensor), DL data transfer interval (commands) around 20ms.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 3: &lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The service area for teleoperation depends on the actual deployment; for example, it can be deployed for a warehouse, a factory, a transportation hub (seaport, airport etc.), or even a city district or city. In some cases, a local approach (e.g., the application servers are hosted at the network edge) is preferred to satisfy low latency and high-reliability requirements.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 4: The area traffic capacity is calculated for one 5G network, considering 4 cameras + sensors on each vehicle. Density is estimated to 10 vehicles/km2, each of the vehicles with one user controlling them. [25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 5: Based on [25]. UL is real-time vehicle data (video streaming and/or sensor data), DL is control traffic (commands from the remote driver)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 6: KPI comes from [5] cl 7.11 “remote control robot” use case&lt;/span&gt;', '', 'Table-5.20.6-1: Key Performance Indicator (KPI) for mobile metaverse Tele-Operated Driving', '', '', '']</t>
+          <t>['', 'For our discussion of communication in automation we apply a definition of the area of consideration for industrial radio communication that is found elsewhere in the literature [4]. This definition is illustrated in Figure C.1.1-1. ', '', '----media/image14.emf----', '', 'NOTE:\tBlue objects: communication system; other objects: automation application system.', '', 'Figure\xa0C&lt;b&gt;.&lt;/b&gt;1.1-1: Abstract diagram of the area of consideration for industrial radio communication ', '', 'Here, a distributed automation application system is depicted. This system includes a distributed automation application, which is the aggregation of several automation functions. These can be functions in sensors, measurement devices, drives, switches, I/O devices, encoders etc. All of these functions contribute toward the control of physical objects. Field bus systems, industrial Ethernet systems, or wireless communication systems can be used for connecting the distributed functions. The essential function of these communication systems is the distribution of messages among the distributed automation functions. For cyber-physical control applications, the dependability of the entire communication system and/or of its devices or its links is essential. Communication functions are realised by the respective hardware and software implementation.', '', 'In order for the automation application system to operate, messages need to be exchanged between spatially distributed application functions. For that process, messages are exchanged at an interface between the automation application system and the communication system. This interface is termed the reference interface. Required and guaranteed values for characteristic parameters, which describe the behavioural properties of the radio communication system, as well as some influence quantities refer to that interface.', '', 'The conditions that influence the behaviour of wireless communication are framed by the communication requirements of the application (e.g., end-to-end latency), the characteristics of the communication system (e.g., output power of a transmitter), and the transmission conditions of the media (e.g., signal fluctuations caused by multipath propagation). ', '', 'General requirements from the application point of view for the time and failure behaviour of a communication system are mostly related to an end-to-end link. It is assumed in the present document that the behaviour of the link is representative of the communication system as a whole and of the entire scope of the application. ', '']</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.6846679969513726</v>
+        <v>0.2087407855453877</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.21.1	Description&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;C.2.2	Characteristic parameters&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>22837-j00.docx</t>
+          <t>22104-j00.docx</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>['', 'Extended Reality (XR) is an important 5G use case. Split-rendering architectures, where the heavy XR video rendering computation is done at the application server based on control information received from the UE, poses strict Quality-of-Service (QoS) requirements in terms of round-trip latency and throughput for delivering the video and control info. ', '', 'It is therefore crucial to always maintain a high-quality wireless link for XR. Thus, it is critical to predict and adapt fast to wireless channel changes. This is especially true in Millimeter wave bands in which the channel and propagation characteristics are very sensitive to user and environment changes such as blockages, user motion or rotation.', '', 'To adapt fast to the wireless channel changes, an understanding of the wireless channel dynamics is required. The channel dynamics depend on understanding the surrounding environment such as the transmitter and receiver locations, geometry of the buildings, moving scatterers, location and material of blockers, etc.', '', 'Interestingly, most of the XR streaming devices (e.g., 5G phones, AR/VR headsets) and third-party entities that support 5G (i.e., 3GPP sensors) also support non-3GPP sensors, such as RF sensors, Inertial Measurement Units (IMU) sensors, RGB cameras, position sensors, and others.', '', 'In light of the availability of 3GPP and non-3GPP sensors and the need of environment understanding, it is therefore natural to utilize the overall sensing information to acquire an understanding of the surrounding environment.', '', 'To this end, a “Sensing RF Map Service” can be envisioned that enables the collection of sensing information from 3GPP and non-3GPP sensors, process and provide that information to a sensing service.', '', '--\tThe input to this “Sensing RF Map” service could be 3GPP sensing data and non-3GPP sensing data from multiple sensors, e.g., RF sensing data, XR user position, camera images, depth maps, hand tracking, motion type, etc. Such input could be produced by a 5GS entity (e.g,, UE or RAN entities) or by a third-party (e.g., surveillance camera). It is essential to note that the collection of this sensing should be done with appropriate user consent and adherence to regional and national regulations.', '', '--\tThe processing of 3GPP and non-3GPP sensing data can be performed within the 5G system or outside the 5GS (for example on an application server). In this use case, we are focus on processing in the 5G system.', '', '--\tThe output of this service (i.e., sensing result) is some understanding of the environment and/or impact to communication performance of a service consumer, e.g., RF environment mapping, etc. When sensing result is shared outside of the 5GS, the appropriate consent and permissions for sharing this information is required.', '', '--\tThe consumer of this service could be a third-party application or other entities in the 5GS.', '', 'It is important to note that while this service is provided by 5GSor edge server, business model for the monetization of this service would need to consider factors such as the entities involved in sensing, the transfer of the non-3GPP sensing data and the value of sensing RF Map information produced by these entities as well as the value to the consumer of the service. These considerations are also required for scenarios involving 3GPP only sensing operations but additional considerations are indeed required for non-3GPP sensing data which is generated outside the 5G system.', '']</t>
+          <t>['', 'Table C&lt;b&gt;.&lt;/b&gt;2.2-1: Candidate characteristic parameters for the dependable communication service interface', '', 'Parameter name', '', 'Typical metric (unit)', '', 'Traffic class (note)', '', '', '', '', '', 'Deterministic periodic communication', '', 'Deterministic aperiodic communication', '', 'Non-deterministic communication', '', 'Communication service availability', '', 'Minimum availability (dimensionless)', '', 'X', '', 'X', '', 'X', '', 'End-to-end latency', '', 'Target value and timeliness (ms)', '', 'X', '', 'X', '', 'X', '', 'Communication service reliability', '', 'Mean time between failures (days)', '', 'X', '', 'X', '', 'X', '', 'Service bit rate', '', 'Target value (bit/s); user experienced data rate (bit/s); time window (s)', '', '–', '', 'X', '', 'X', '', 'Update time', '', 'Target value and timeliness', '', 'X', '', '–', '', '–', '', 'NOTE:\t– application requirements (KPIs). X: applies; –: does not apply.', '', '', '', '&lt;b&gt;Parameter description&lt;/b&gt;', '', '&lt;i&gt;Communication service availability&lt;/i&gt;', '', 'This parameter indicates if the communication system works as contracted ("available"/"unavailable" state). The communication system is in the "available" state as long as the availability criteria for transmitted packets are met. The service is unavailable if the packets received at the target are impaired and/or untimely (e.g. update time &amp;gt; stipulated maximum). If the survival time (see Table C.2.3-1) is larger than zero, consecutive impairments and/or delays are ignored until the respective time has expired.', '', '&lt;i&gt;End-to-end latency&lt;/i&gt;', '', 'This parameter indicates the time allotted to the communication system for transmitting a message and the permitted timeliness.', '', '&lt;i&gt;Communication service reliability&lt;/i&gt;', '', 'Mean time between failures is one of the typical indicators for communication service reliability. This parameter states the mean value of how long the communication service is available before it becomes unavailable. For instance, a mean time between failures of one month indicates that a communication service runs error-free for one month on average before an error/errors make the communication service unavailable. Usually, an exponential distribution is assumed. This means, there will be several failures where the time between two subsequent errors is below the mean value (1 month in the example).', '', 'Communication service availability and communication service reliability (mean time between failures) give an indication on the time between failures and the length of the failures.', '', '&lt;i&gt;Service bit rate&lt;/i&gt;', '', '&lt;i&gt;a) deterministic communication&lt;/i&gt;', '', 'The target value indicates committed data rate in bit/s sought from the communication service. This is the minimum data rate the communication system guarantees to provide at any time, i.e. in this case target value = user experienced data rate. ', '', '&lt;i&gt;b) non-deterministic communication&lt;/i&gt;', '', 'The target value indicates the target data rate in bit/s. This is the information rate the communication system aims at providing on average during a given (moving) time window (unit: s). The user experienced data rate the lower data rate threshold for any of the time windows.', '', '&lt;i&gt;Update time&lt;/i&gt;', '', 'Applicable only to periodic communication, the update time indicates the time interval between any two consecutive messages delivered from the egress (of the communication system) to the application.', '', '&lt;b&gt;Traffic classes&lt;/b&gt;', '', 'In practice, vertical communication networks serve applications exhibiting a wide range of communication requirements. In order to facilitate efficient modelling of the communication network during engineering, and for reducing the complexity of network optimisation, disjoint QoS sets have been identified. These sets are referred to as traffic classes [6]. Typically, only three traffic classes are needed in industrial environments [6], i.e.', '', '-\tdeterministic periodic communication; ', '', '-\tdeterministic aperiodic communication; and ', '', '-\tnon-deterministic communication.', '', 'Deterministic periodic communication stands for periodic communication with stringent requirements on timeliness of the transmission.', '', 'Deterministic aperiodic communication stands for communication without a pre-set sending time. Typical activity patterns for which this kind of communication is suitable are event-driven actions.', '', 'Non-deterministic communication subsumes all other types of traffic. Periodic non-real time and aperiodic non-real time traffic are subsumed by the non-deterministic traffic class, since periodicity is irrelevant in case the communication is not time-critical.', '', '&lt;b&gt;Usage of the parameters in Table C.2.2-1&lt;/b&gt;', '', 'Control service request and response; monitoring service response and indication.', '']</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.5552099764744204</v>
+        <v>0.2121255814079211</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.22.1	Description&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;C.4.1	Overview&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>22856-j00.docx</t>
+          <t>22104-j00.docx</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR3_other</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>['', 'Mobile metaverse services allow people to enjoy an online digital concert with their avatars beyond the limitation of time and space. In order to provide immersive interactive location agnostic service experience to mobile metaverse service customers, large amount of computing resouces is needed to perform real-time processing for audio, video, and interactive data, etc. The thing to realise here is that different customers will use terminals e.g. XR glasess with different brands and different processing capabilities, some of the glasses will not have enough computing resources to perform the real-time rendering. Through split rendering, most of the computing work task can offload to the network, the high speed and low latency transmission provided by 5G system can cooperate with the edge cloud side for real-time rendering, and combine with the local optimized rendering of the XR terminal side to provide the immersive and unbounded XR experience. In addition to this, similar to the real world, people are more likely to watch a concert together with their friends, further, the mobile metaverse live concert service is also provides private boxs for group of avatars to enjoy the concert privately, and different types of social authority can be provided in the private box on demand.', '']</t>
+          <t>['', 'There are several time parameters in dependability assessment. A required value is specified for every time parameter. This value can be a maximum, mean, modal, minimum etc. Typically, there is a deviation from the desired value to the actual value. Jitter is often used to characterise this variation. Since jitter generally is used for characterising the behaviour of a measured parameter, for instance the scatter of measured end-to-end latencies ("the world as it is"), it can be quite confusing to use it for formulating service performance requirements ("the world as we want it to be"). What is needed is a concept and related parameters that allow for formulating and talking about the end-to-end latency requirements in Clause 5 and Annex A.', '', 'The most important attribute is timeliness. Timeliness can be formulated a permitted interval for the actual value of the time parameter. Accuracy, earliness and lateness describe the allowed deviation from a target value. Accuracy is the magnitude of deviation. It can be negative (early) or positive (tardy).', '']</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.6867315462096182</v>
+        <v>0.2042076333505576</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.22.2	Pre-conditions&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;C.4.2	Network latency requirement formulated by use of timeliness&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>22856-j00.docx</t>
+          <t>22104-j00.docx</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1578,22 +1578,22 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>['', '1) Alex, Bob and Carey are good friends live in different cities, they agree to watch the mobile metaverse live concert together.', '', '2) Alex, Bob and Carey are equipment with XR glasses and tactile, the equipment can capture their voice, facial expression, pose information to generate avatars and interact with the whole live concert.', '', '3) Enough computing resources can be provided to the mobile metaverse live concert service and the 5G network is capable of providing sufficiently high throughput and low latency network transmission. ', '']</t>
+          <t>['', 'In 5G networks, the end-to-end latency KPI is a critical KPI in order to ensure that the network can deliver the packet within a time limit specified by an application: not too early and not too late. ', '', 'In cyber-physical automation, the arrival time of a specific packet should be strictly inside a prescribed time window. In other words, a strict time boundary applies: [minimum end-to-end latency, maximum end-to-end latency]. Otherwise, the transmission is erroneous. Although most use cases that require timely delivery only specify the maximum end-to-end latency, the minimum latency is also sometimes prescribed. In the latter case, a communication error occurs if the packet is delivered earlier than the minimum end-to-end latency. An example for a related application is putting labels at a specific location on moving objects, and the arrival of a message is interpreted as a trigger for this action. In other words, the application does not keep its own time, but interprets the message arrival as clock signal. Maximum and minimum end-to-end latency alone do not disclose which value is preferred, i.e. target value. The next three subclauses introduce concepts help with relating maximum end-to-end latency, minimum end-to-end latency, and target vale to each other. ', '']</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.6226865745606156</v>
+        <v>0.1807571548471393</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.22.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;C.4.3	Timeliness&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>22837-j00.docx</t>
+          <t>22104-j00.docx</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1603,22 +1603,22 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>['', '[PR 5.22.6-1] Subject to operator policy, the 5G system shall enable the network to expose a suitable API to a authorized third party to provide the information regarding sensing results.', '', '[PR 5.22.6-2] Based on operator policy, the 5G system may be able to utilize sensing assistance information exposed by a trusted third-party to derive the sensing result.', '', '', '', '[PR 5.22.6-3] The 5G system shall be able to support the following KPIs:', '', 'Table 5.22.6-1\tPerformance requirements of sensing results for UAVs/vehicles/pedestrians’ detection near Smart Grid equipment ', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area &lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[ms]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[s]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Missed detection&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Sensing for the use case in Smart Grid &lt;/span&gt;&lt;span style="color:0D0D0D;font-size:16pt"&gt;NOTE\xa02&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Outdoor&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;≤&lt;/span&gt;&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.7&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;UAV: ≤25&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;Pedestrian: ≤1.5&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;Vehicle: ≤15&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤5s&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≥10Hz&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤5]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤5]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa01: The terms in Table 5.22.6-1 are found in Section 3.1.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa02: The typical size (Length x Width x Height) of UAV is 1.6m x 1.5m x 0.7m, the typical size of pedestrian is 0.5m x 0.5m x 1.75m, and the typical size of engineering vehicle is 7.5m x 2.5m x 3.5 m. The size of the park of Smart Grid depends on the real environment. &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa03: The safe distance between pedestrian/vehicle and transmission station/line is 0.7m/0.95m [46].&lt;/span&gt;', '']</t>
+          <t>['', 'Timeliness is described by a time interval (see Figure C.4.3-1). The interval is restricted by a lower bound (&lt;i&gt;t&lt;/i&gt;&lt;sub&gt;LB&lt;/sub&gt;) and an upper bound (&lt;i&gt;t&lt;/i&gt;&lt;sub&gt;UB&lt;/sub&gt;). This interval contains all values &lt;i&gt;t&lt;/i&gt;&lt;sub&gt;A&lt;/sub&gt; that are within an accepted "distance" to the target value &lt;i&gt;t&lt;/i&gt;&lt;sub&gt;R&lt;/sub&gt;. ', '', '----media/image20.png----', '', 'Figure\xa0C.4.3-1: Timeliness function ', '', 'A message reception is considered in time, if it is received within the timeliness interval. If it is received outside the timeliness interval, the message reception is considered invalid. This is related to the communication error "unacceptable deviation from target end-to-end latency" (see Subclause B.6). In other words, maximum end-to-end latency = &lt;i&gt;t&lt;/i&gt;&lt;sub&gt;UB&lt;/sub&gt; and minimum end-to-end latency = &lt;i&gt;t&lt;/i&gt;&lt;sub&gt;LB&lt;/sub&gt;.', '', 'Timeliness is related to deviation (see Subclause C.4.4), the lower bound &lt;i&gt;t&lt;/i&gt;&lt;sub&gt;LB&lt;/sub&gt; is related to earliness (see Subclause C.4.5), and the upper bound &lt;i&gt;t&lt;/i&gt;&lt;sub&gt;UB&lt;/sub&gt; is related to lateness (see Subclause C.4.6).', '']</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.6918521239613371</v>
+        <v>0.2099464793656442</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.23.1	Description&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;D.1.0		General&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>22856-j00.docx</t>
+          <t>22261-j30.docx</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1628,22 +1628,22 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>['', 'The mobile metaverse allows users to access an endless virtual world at anytime and anywhere through their terminals. The mobile metaverse are expected to behave as the real world, which means in addition to rendering a virtual environment like the physical world, the perceived spatial-temporal consistency is also the key point to achieve an immersive location agnostic service experience.', '', 'In mobile metaverse, spatial-temporal consistency for single user could mean, for example, dropping a virtual pen and seeing this pen fall subsequently. While for multiple players, this consistency could mean, for example, that one person cuts down a tree and other people see the tree falling down. This user experience requires the motion-to-photon latency in the range of 7 ms to 15ms [5] at least for a single user viewing the consequence of her own actions. Immersive VR requires the delivery of massive amount of data (in the order of Gigabyte) at ultra-low latency (less than 20 ms) [54].', '', '', '', 'NOTE: \tFor location agnostic service experience involving multiple users who are not in the same location, the requirements above do not apply, since the service can impose ordering and timing of representations of virtual events in an arbitrary manner.', '', 'It should be noted that the computation resources for rendering involved in the mobile metaverse is different from the cloud gaming and traditional VR. For example, running a typical massively multiplayer online game today requires multiple tera FLOPS of graphics horsepower, and the demand is expected to grow by two orders of magnitude to create fully immersive mobile metaverse experiences. [55]', '', "For the mobile metaverse world, distributed computation is an inevitable processing mode, so the selection of proper servers and data centers should consider the requirements of network delay, processing delay, storage and computation resource. The goal is to minimize the user's perception of delay.", '', 'Therefore, in order to obtain consistent experience in mobile metaverse service anytime and anywhere, deep collaboration between mobile metaverse and 5G network is needed. The potential collaboration aspects may include caching location, computation location, communication path, traffic scheduling and resource allocation in network. For example, when a service request emerges, the network control policy needs to coordinate the selection of (i) caching locations to provide digital objects, (ii) computation locations to execute service functions, and (iii) communication paths to route all associated data streams, jointly optimized with dynamic decisions on (iv) traffic scheduling and (v) resource allocation at all network locations. [55]', '']</t>
+          <t>['', 'Factory automation requires communications for closed-loop control applications. Examples for such applications are motion control of robots, machine tools, as well as packaging and printing machines. All other factory automation applications are addressed in Annex D.2.', '', 'The corresponding industrial communication solutions are referred to as fieldbuses. The pertinent standard suite is IEC 61158. Note that clock synchronization is an integral part of fieldbuses that support motion control use cases.', '', 'In motion control applications, a controller interacts with a large number of sensors and actuators (e.g. up to 100) that are integrated in a manufacturing unit. The resulting sensor/actuator density is often very high (up to 1 m&lt;sup&gt;-3&lt;/sup&gt;). Many such manufacturing units have to be supported within close proximity within a factory (e.g. up to 100 in automobile assembly line production).', '', 'In a closed-loop control application, the controller periodically submits instructions to a set of sensor/actuator devices, which return a response within a so-called cycle time. The messages, which are referred to as telegrams, are typically small (≤ 56\xa0bytes). The cycle time can be as low as 2 ms, setting stringent end-to-end latency constraints on telegram forwarding (≤ 1\xa0ms). Additional constraints on isochronous telegram delivery add tight constraints on the lateness (1\xa0\uf06ds), and the communication service has also to be highly available (99,9999%). ', '', 'Multi-robot cooperation is a case in closed-loop control, where a group of robots collaborate to conduct an action, for example, symmetrical welding of a car body to minimize deformation. This requires isochronous operation between all robots. For multi-robot cooperation, the lateness (1\xa0µs) is to be interpreted as the lateness among the command messages of a control event to the group robots.', '', 'To meet the stringent requirements of closed-loop factory automation, the following considerations have to be taken:', '', '-\tLimitation to short-range communications.', '', '-\tUse of direct device connection between the controller and actuators.', '', '-\tAllocation of licensed spectrum. Licensed spectrum can further be used as a complement to unlicensed spectrum, e.g. to enhance reliability.', '', '-\tReservation of dedicated radio interface resources for each link.', '', '-\tCombination of multiple diversity techniques to approach the high reliability target within stringent end-to-end latency constraints (example: frequency, antenna and various forms of spatial diversity, e.g. via relaying)', '', '-\tUtilizing OTA time synchronization to satisfy latency-variation constraints for isochronous operation.', '', 'A typical industrial closed-loop motion control application is based on individual control events. Each closed-loop control event consists of a downlink transaction followed by a synchronous uplink transaction, both of which are executed within a cycle time. Control events within a manufacturing unit might need to occur isochronously. Factory automation considers application layer transaction cycles between controller devices and sensor/actuator devices. Each transaction cycle consists of (1) a command sent by the controller to the sensor/actuator (downlink), (2) application-layer processing on the sensor/actuator device, and (3) a subsequent response by the sensor/actuator to the controller (uplink). Cycle time includes the entire transaction from the transmission of a command by the controller to the reception of a response by the controller. It includes all lower layer processes and latencies on the radio interface as well the application-layer processing time on the sensor/actuator.', '', '----media/image5.emf----', '', 'Figure D.1.0-1: Communication path for isochronous control cycles within factory units. Step 1 (red): controller requests sensor data (or an actuator to conduct actuation) from the sensor/actuator (S/A). Step 2 (blue): sensor sends measurement information (or acknowledges actuation) to controller.', '', 'Figure D.1.0-1 depicts how communication can occur in factory automation. In this use case, communication is confined to local controller-to-sensor/actuator interaction within each manufacturing unit. Repeaters can provide spatial diversity to enhance reliability.', '']</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.6240995449824275</v>
+        <v>0.194293950144844</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.23.2	Pre-conditions&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;D.2.0		General&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>22856-j00.docx</t>
+          <t>22261-j30.docx</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1653,22 +1653,22 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>['', 'There are about 12,000 players sign up for a popular game and appear simultaneously in a specific setting, such as Eve Online in 2021. Due to the limitations of the existing server processing, it is not possible to support such a large number of high concurrency, so the network and application server need to cooperate to support the distribution of visitors to other servers while ensuring low latency requirement by XR applications.', '']</t>
+          <t>['', 'Factory automation encompasses all types of production that result in discrete products: cars, chocolate bars, etc. Automation that addresses the control of flows and chemical reactions is referred to as process automation (see clause D.3). Discrete automation requires communications for supervisory and open-loop control applications, as well as process monitoring and tracking of operations inside an industrial plant. In these applications, a large number of sensors, which are distributed over the plant, forward measurement data to process controllers on a periodic or event-driven base. Traditionally, wireline field bus technologies have been used to interconnect sensors and control equipment. Due to the sizable extension of a plant (up to10\xa0km&lt;sup&gt;2&lt;/sup&gt;), the large number of sensors, rotary joints, and the high deployment complexity of wired infrastructure, wireless solutions have made inroads into industrial process automation. ', '', 'The related use cases require support of a large number of sensor devices per plant, as well as high communication service availability (99,99%). Furthermore, power consumption is relevant since some sensor devices are battery-powered with a targeted battery lifetime of several years (while providing measurement updates every few seconds). Range also becomes a critical factor due to the low transmit power levels of the sensors, the large size of the plant, and the high-reliability requirements on transport. End-to-end latency requirements typically range between 10\xa0ms and 1\xa0s. User-experienced data rates can be rather low since each transaction typically comprises less than 256 bytes. However, there has been a shift from field busses featuring somewhat modest data rates (~ 2 Mbit/s) to those with higher data rates (~ 10 Mbit/s) due to the increasing number of distributed applications and "data-hungry" applications. An example for the latter is the visual control of production processes. For this application, the user experienced data rate is typically around 10 Mbit/s and the transmitted packets are much larger than what was stated earlier.', '', 'Existing wireless technologies for factory automation rely on unlicensed bands. Communication is therefore vulnerable to interference caused by other technologies (e.g. WLAN). With the stringent requirements on transport reliability, such interference is detrimental to proper operation.', '', 'The use of licensed spectrum could overcome the vulnerability to same-band interference and therefore enable higher reliability. Utilization of licensed spectrum can be confined to those events where high interference bursts in unlicensed bands jeopardizes communication service availability and end-to-end latency constraints. This allows sharing the licensed spectrum between process automation and conventional mobile services.', '', 'Multi-hop topologies can provide range extension and mesh topologies can increase reliability through path redundancy. Clock synchronization will be highly beneficial since it enables more power-efficient sensor operation and mesh forwarding.', '', 'The corresponding industrial communication solutions are referred to as fieldbuses. The related standard suite is IEC 61158.', '', 'A typical discrete automation application supports downstream and upstream data flows between process controllers and sensors/actuators. The communication consists of individual transactions. The process controller resides in the plant network. This network interconnects via base stations to the wireless (mesh-) network which hosts the sensor/actuator devices. Typically, each transaction uses less than 256 bytes. An example of a controller-initiated transaction service flow is:', '', '1.\tThe process controller requests sensor data (or an actuator to conduct actuation). The request is forwarded via the plant network and the wireless network to the sensors/actuators.', '', '2.\tThe sensors/actuators process the request and send a replay in upstream direction to the controller. This reply can contain an acknowledgement or a measurement reading.', '', 'An example of a sensor/actuator device-initiated transaction service flow:', '', '1.\tThe sensor sends a measurement reading to the process controller. The request is forwarded via the wireless (mesh) network and the plant network.', '', '2.\tThe process controller can send an acknowledgement in opposite direction.', '', 'For both controller- and sensor/actuator-initiated service flows, upstream and downstream transactions can occur asynchronously.', '', 'Figure D.2.0-1 depicts how communication can occur in discrete automation. In this use case, communication runs between process controller and sensor/actuator device via the plant network and the wireless (mesh) network. The wireless (mesh) network can also support access for handheld devices for supervisory control or process monitoring purposes.', '', '----media/image6.emf----', '', 'Figure D.2.0-1: Communication path for service flows between process controllers and sensor/actuator devices. Left-hand side: Step 1 (red) – the sensor/actuator (S/A) sends measurement report autonomously, Step 2 (blue) controller acknowledges. Right-hand side: Step 1 (red) - controller requests sensor data (or an actuator to conduct actuation), Step 2 (blue): S/A sends measurement information (or acknowledges actuation) to controller.', '']</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.6986081537989165</v>
+        <v>0.2006051538005999</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.23.3	Service Flows&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;D.5.0 	General&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>22856-j00.docx</t>
+          <t>22261-j30.docx</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1678,97 +1678,97 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>['', '1. Bob is a player who attends a popular AR interactive game and gathers with others in a shared environment, they are aware of each other’s action so that they need high synchronization.', '', '2. The service provider will provide deployment information of each server to the 5G network, and request the Bob’s physical location and transmission delay in 5G network.', '', '3. According to the cooperation agreement with application, 5G network will expose information to service providers, including the physical location and network delay of specific terminals or a group of terminals. The network delay includes the delay inside 5G system (UE to PSA UPF) and the latency information between PSA UPF and some potential servers.', '', '4. The new server is selected by the service provider according to the UE location, network delay, business requirements, computation resource and storage resource of application servers. The decision result will be sent back to 5G network. Then the 5G network can then formulate corresponding policies for the service flows.', '', '5. The content information will be synchronized to the new server in real time. 5G network should support the ultra-low latency data transmission, potentially among multiple operators.', '']</t>
+          <t>['', 'Intelligent Transport Systems (ITS) embrace a wide variety of communications-related applications that are intended to increase travel safety, minimize environmental impact, improve traffic management, and maximize the benefits of transportation to both commercial users and the general public. Over recent years, the emphasis in intelligent vehicle research has turned to co-operative systems, in which the traffic participants (vehicles, bicycles, pedestrians, etc.) communicate with each other and/or with the infrastructure.', '', 'Cooperative ITS is the term used to describe technology that allows vehicles to become connected to each other, and to the infrastructure and other parts of the transport network. In addition to what drivers can immediately see around them, and what vehicle sensors can detect, all parts of the transport system will increasingly be able to share information to improve decision making. Thus, this technology can improve road safety through avoiding collisions, but also assist in reducing congestion and improving traffic flows, and reduce environmental impacts. Once the basic technology is in place as a platform, an array of applications can be developed.', '', 'Cooperative ITS can greatly increase the quality and reliability of information available about vehicles, their location and the road environment. In the future, cars will know the location of road works and the switching phases of traffic lights ahead, and they will be able to react accordingly. This will make for safer and more convenient travel and faster arrival at the destination. &lt;span style="color:000000"&gt;On-board driver assistance, coupled with two-way communication between vehicles and between vehicles and road infrastructure, can help drivers to better control their vehicle and hence have positive effects in terms of safety and traffic efficiency. An important role in this plays the so-called road side units (RSUs). Vehicles can also function as sensors reporting weather and road conditions including incidents. In this way, cars can be used as information sources for high-quality information services.&lt;/span&gt;', '', 'RSUs are connected to the traffic control centre for management and control purposes. They broadcast, e.g., traffic light information (RSU &lt;span style=font-family:Wingdings&gt;&amp;#x00E0;&lt;/span&gt; vehicle) and traffic information from the traffic-control centre (TCC) via the RSU to the vehicles (TCC &lt;span style=font-family:Wingdings&gt;&amp;#x00E0;&lt;/span&gt; RSU &lt;span style=font-family:Wingdings&gt;&amp;#x00E0;&lt;/span&gt; vehicle). RSUs also collect vehicle probe data for the traffic control centre (vehicle &lt;span style=font-family:Wingdings&gt;&amp;#x00E0;&lt;/span&gt; RSU &lt;span style=font-family:Wingdings&gt;&amp;#x00E0;&lt;/span&gt; TCC). For reliable distribution of data, low-latency and high-capacity connections between RSUs (e.g. traffic lights, traffic signs, etc.) and the TCC are required. This type of application comes with rather tight end-to-end latency requirements for the communication service between RSU and TCC (10 ms), since relayed data needs to be processed in the TCC and, if needed, the results are forwarded to neighbouring RSUs. Also, the availability of the communication service has to be very high (99,9999%) in order to compete with existing wired technology and in order to justify the costly deployment and maintenance of RSUs. Furthermore, due to considerably large aggregation areas (see clause D.5.1), considerable amounts of data need to be backhauled to the TCC (up to 10 Mbit/s per RSU).', '']</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.5410678101919424</v>
+        <v>0.2197491127760855</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.23.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;E.1	Description&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>22837-j00.docx</t>
+          <t>22104-j00.docx</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>['', '[PR 5.23.6-1] The 5G system shall be able to provide the continuity of sensing service for a specific target object, across indoor and outdoor.', '', '[PR 5.23.6-2] The 5G system shall be able to provide a secure mechanism to ensure sensing result data privacy within the sensing service area.', '', '[PR 5.23.6-3] The 5G system shall be able to support the following sensing related KPIs:', '', 'Table 5.23.6-1\tPerformance requirements of sensing results for AMR collision avoidance in smart factories', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area &lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[ms]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[s]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Missed detection&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;AMR collision avoidance in smart factories&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;indoor/outdoor&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;99&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1.5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;˂&lt;/span&gt;&lt;span style="font-size:16pt"&gt;500&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.05&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa01:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.23.6-1 are found in Section 3.1.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa02:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The KPI values are sourced from [47].&lt;/span&gt;', '']</t>
+          <t>['', 'AV production includes television and radio studios, outside and remotely controlled broadcasts, live newsgathering, sports events, music festivals, among others. All of these applications require a high degree of reliability, since they are related to the capturing and transmission of data at the beginning of a production chain. This differs drastically when compared to other multimedia services because the communication errors will be propagated to the entire audience that is consuming that content both live and recorded for later distribution. Furthermore, the transmitted data is often post-processed with nonlinear filters which could actually amplify defects that would be otherwise not noticed by humans. Therefore, these applications call for uncompressed or only slightly compressed data, and very low probability of errors. These devices will also be used alongside existing technologies which have a high level of performance and so any new technologies will need to match or improve upon the existing workflows to drive adoption of the technology.', '', 'The performance aspects that are covered by/in TS 22.263 [27] (Service requirements for Video, Imaging and Audio for professional applications) also target the latency that these services experience. ', '', 'In recent years, production facilities have moved from bespoke unidirectional highly specialised networks to IP based systems and software-based workflows. This migration is expected to continue, and wireless IP connectivity is key to a number of these workflows.', '', 'Typical set ups require multiple devices such as cameras, microphones and control surfaces that require extremely close synchronisation to maintain consistency of pictures and audio. Such clock synchronization requirements are captured in clause 5.6. Often devices need to communicate directly to each other for instance a camera to a monitor or a microphone to a PA system.', '', 'Video and audio applications also require extremely high quality of service metrics as the loss of a single packet can cause picture or sound breakup in the downstream processing or distribution. Often this is a legal, regulatory or contractual agreement to maintain a high quality, stable and clear video or audio signal.', '']</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.6949363903702647</v>
+        <v>0.1930882802125889</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.24.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;E.2	Multiple source wireless studio&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>22837-j00.docx</t>
+          <t>22104-j00.docx</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>['', '[PR 5.24.6-1] Based on operator policy, the 5G System shall be able to provide the 5G wireless sensing services in case of roaming.', '', '[PR 5.24.6-2] 5G network shall provide means for mobile operator to provide / revoke authorization for the operation(s) of a 5G wireless sensing service based on location, time, specific KPI level and the origin of the request.', '', '[PR.5.24.6-3] The 5G system shall be able to provide 5G wireless sensing service with the following KPIs:', '', 'Table 5.24.6-1\tPerformance requirements of sensing results for sports monitoring', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Human motion rate accuracy&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[Hz]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency[ms]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate [s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Missed detection [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm [%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Sports monitoring&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Indoor (living room)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.05&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa02&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;60s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1min&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa01:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.24.6-1 are found in Section 3.1.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa02:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Sit-up rate = 30 times/min as reference, 0.05Hz corresponds to 3 times/min.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa03:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Push-up rate = 40 times/min as reference, 0.07Hz corresponds to 4 times/min.&lt;/span&gt;', '']</t>
+          <t>['', 'This use case will deploy a multiple camera studio of approximately 1,000 m&lt;sup&gt;2&lt;/sup&gt; (~5 cameras) where wired and wireless functionalities currently provided by traditional infrastructure technologies are likely to be deployed using a standalone non-public network. A combination of IP enabled wired and wireless cameras working at both HD and UHD resolutions will be deployed in a studio. Associated equipment such as video monitors,\xa0prompting systems, camera control will be provided over the 5G network. Camera timing and synchronisation will be provided over the 5G system. As well as video, audio will be sourced from both wired and wireless microphones incl. control/monitoring and combined with the video to produce high quality synchronised AV content. 5G will also be deployed to control lighting and camera robotics. Talkback intercom systems will be deployed using low latency multicast links.', '', '&lt;b&gt;Today’s digital AV network transport is typically handled separately for wireless and wired transfers (see &lt;/b&gt;&lt;span style="color:000000"&gt;&lt;b&gt;figure E.1.2-1&lt;/b&gt;&lt;/span&gt;&lt;b&gt;). Wireless AV transmissions are implemented with application specific solutions that allow deterministic data transport of a single isolated audio or video link. Wired AV transmissions are Ethernet / IP based. Quality of service in AV IP networks is mainly achieved with IP DiffServ / DSCP based prioritization of packets in network switches. This method is sufficient for most AV use cases since jitter resulting from packet collisions is small, for example in the order of 10 µs per concurring data stream in Gbit Ethernet.&lt;/b&gt;', '', '', '', '', '', '        ----media/image29.jpeg----', '', 'Figure E.2-1: Typical AVPROD setup', '', 'The microphones and cameras can be co-located in a broadcast centre in which case they would communicate through a LAN or NPN. For remote production operations the mixing and production console may be separated by some distance (existing examples are cross continental. In this instance they may communicate via a PLMN or combination of PLMN and WAN networks.', '', 'Some approaches may also deploy main (leader) equipment at the broadcast centre with secondary (follower) equipment at the location site to reduce latency. ', '', 'Other aspects of this workflow may also include robotic control where both the physical position (height, direction and tilt) and the technical control (focus, zoom, iris, colour) of a device of a camera, microphone or light may be controlled remotely. In this instance round trip latency of &amp;lt; 20ms is required in order for an operator to see a move reflected at his control position as it is made.', '', 'It is important to note that these are a combination of automated robotics (pre-programmed moves) and manually controlled robotics (following an unpredictable event such a sport).', '']</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.6659942091969222</v>
+        <v>0.2162556306856115</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.25.1	Description&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;E.3	Timing use in AV production applications&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>22837-j00.docx</t>
+          <t>22104-j00.docx</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>['', 'Sensing based on the 5G signals is a technology using the difference between wireless signals and its reflective signals including the Doppler frequency shift, time of flight (ToF), amplitude variation and so on, to sense the surroundings. The information collected during sensing cannot be directly understood by human beings, providing good privacy protection. Along with 5G stepping into the home, more interesting functions can be introduced based on the sensing using 5G signals.', '', 'It will be fantastic to have an immersive audio and light experience when watching movies and listening to music in the home. The speakers can provide this kind of audio experience if they can know the position of each other and also the user. Usually, to have immersive audio experience, several speakers are needed. Ranging technology can help the speakers to determine position relative to each other and this gives a chance for speakers to provide a fantastic experience together to a listener by adjusting the audio field at a place when the listener stays at that special place.', '', 'Different from ranging service where only the UE’s position can be identified, sensing can identify the relative position of the reflector even the reflector is not a UE. If the speakers can obtain the sensing results, this will give a chance to the speakers to follow the listener and provide an immersive audio experience, even when the listener is moving around. The speakers can follow the position of the human and adjust the audio field anytime anywhere. Similar to the audio case, if the smart light can obtain the sensing results, the light can also track the user anytime anywhere to provide an immersive experience.', '', 'For the immersive experience scenario, the audio field and light adjustment should be based on the user’s position. For example, the smart screen, lights and speakers can provide immersive sound and light experience for the user who sits at the sofa area (around 2~3m&lt;sup&gt;2&lt;/sup&gt; area) and at the same time lower the sound volume and turn down the light at other places of the home avoiding the interference on others. The sensing node (e.g., smart screen, i.e., a UE) can perform sensing operations to track the user’s movement using RF signals [29] and provide the information to the speakers and lights for adjustment. Then both the lights and speakers can provide a cosy zone around the user.', '', 'In home, there is usually a mixed deployment of smart screen, lights, and speakers. We take smart screen as the sensing node as an example. Assume that the smart screen, the smart lights, and the speakers are placed in the drawing-room, and the smart screen can sense the object in the room as shown in Fig. 5.25.1-1. The smart screen (i.e., UE) can receive the reflected sensing signals transmitted by UEs in the room, or by the gNB to perform sensing operation on the user in the room.', '', ' ----media/image32.png----', '', 'Figure\xa05.25.1-1: Example deployment of the smart screen, speakers and lights', '', 'The smart screen can track the user’s position via sensing operation. Each user is assumed to occupy an area 0.5m * 0.5m and move with a speed lower than 2m/s in horizontal dimension. Then the audio field and light can be adjusted based on the user position (e.g. an area 1.5m * 1.5m) to avoid the experience deterioration even when the user is walking around.', '', 'To identify multiple users in the room, in the horizontal dimension, the resolution requires to distinguish objects as large as 0.5m. With higher accuracy on distance, each user in the room can be identify with a more accurate location such as 0.2m, the light and audio can target the user better [30]. If the results are accurate but out of date due to the movement of the user, this will also degrade the experience as the cosy zone is lagging the movement of the user. Consider the audio field and lights are adjusted in an area with 1.5m * 1.5m, to avoid the experience deterioration, the service latency should smaller than 0.5m/2m/s, i.e., 250ms. To track the user’s movement, the results need to be refreshed in 250ms, i.e., 4 times per second (4 Hz).', '', '----media/image33.png----', '', 'Figure\xa05.25.1-2: Example of accuracy required for the use case', '']</t>
+          <t>['', 'Timing of multiple devices such as microphones and camera is also critical. Timing signals are used in 2 separate ways. ', '', '-\tTo maintain synchronisation between devices so that electronic shutters on cameras operate at the same time and frequency and that when cutting between any two cameras pointed at the same source no discernible jumps can be seen. This requires accuracy within the frame boundary of a given video signal. A single frame of video at 120 Hz would require a clock accurate to within 8\xa0ms. ', '', '-\tTo timestamp an IP packet carrying a video or audio sample. Existing standards and workflows for AVPROD rely on IEEE 1588 PTP timing with a SMPTE media profile applied. This requires a clock accurate to within 1\xa0µs', '', '', '', '', '', '----media/image30.jpeg----', '', 'Figure E.3-1 Typical IP based timing set up for AVPROD', '', '', '', '', '', 'Annex F (informative):', 'Relation of reliability and communication service availability', '', 'Availability and reliability are used both in 3GPP and vertical industries, but with different meanings. Communication service availability addresses the availability of a communication service. This definition follows the vertical standard IEC 61907 [7]. On the other hand, reliability is a 3GPP term and addresses the availability of a communication network. The relation of both terms is depicted in figure F-1 for a mobile network.', '', '----media/image31.emf----', '', '&lt;b&gt;Figure F-1: Illustration of the concepts reliability and communication service availability.&lt;/b&gt;', '', 'As depicted, reliability covers the communication-related aspects between two nodes (here: end nodes), while communication service availability addresses the communication-related aspects between two communication service interfaces. This might seem to be a small difference, but this difference can lead to situations, where reliability and communication service availability have different values.', '', '&lt;b&gt;Example: traffic gets "stuck"&lt;/b&gt;', '', 'The related scenario is depicted in figure F-2.', '', '----media/image32.emf----', '', '&lt;b&gt;Figure F-2: Example in which reliability and communication service availability have different values. Packets are reliably transmitted from the communication service interface A to end node B, but they are not exposed at the communication service interface B.&lt;/b&gt;', '', 'This scenario addresses unicast communication from application A to B. The packets are handed over at the communication service interface A from the application to the communication network, and the packets are then transmitted to the end node B. In this example, the packets received by end node B are not exposed at the communication service interface B. So, even if all packets that are handed over to end node A are successfully delivered to end node B within the time constraint required by the targeted service (reliability = 100 %), the communication service availability is 0% since no packets arrive at the "end", namely the communication service interface B.', '', '&lt;b&gt;Example: packets dropped at the communication service interface&lt;/b&gt;', '', 'The related scenario is depicted in figure F-3.', '', '&lt;span style="color:000000;font-size:0pt"&gt;&lt;b&gt;&lt;u&gt; &lt;/u&gt;&lt;/b&gt;&lt;/span&gt;----media/image33.emf----', '', '&lt;b&gt;Figure F-3: Example in which reliability and communication service availability have different values. Only half of the packets handed over to the end node A are actually transmitted to end node B and then handed over to application B at the communication service interface B.&lt;/b&gt;', '', 'This scenario describes unicast communication of evenly interspersed packets from application A to B. The packets are handed over at the communication service interface A from the application to the communication network, and the packets are then transmitted to the end node B. However, only every second packet is actually successfully handed over to end node A and then transmitted to end node B. Thus, only half of the packets arrive at application B. Note though that the reliability of the mobile network is 100%, since all packets transmitted by end node A are delivered to end node B within the time constraint required by the targeted service. However, depending on the agreed QoS, the communication service availability can be of the same value as the reliability or much lower. For instance, if the agreed survival time is equal to or larger than the end-to-end latency, reliability and communication service availability are equal. However, if the survival time is smaller, the reliability is two times the communication service availability. ', '', 'Note that the shortest time interval over which the communication service availability should be calculated is the sum of maximum allowed end-to-end latency and survival time.', '', 'Annex G (informative):', 'Change history', '', '', '', '&lt;b&gt;Change history&lt;/b&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Date&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Meeting&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;TDoc&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;CR&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Rev&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Cat&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Subject/Comment&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;New version&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-05&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA1#82&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;S1-181551&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Skeleton for TS 22.104 ("Service requirements for cyber-physical control applications in vertical domains")&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-05&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA1#82&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;S1-181552&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Includes agreements at SA1#82, Dubrovnik, Croatia&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-08&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA1#83&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;S1-182344&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Includes agreements at SA1#83, West Palm Beach, Florida&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-11&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA1#84&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;S1-183276&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Includes agreements at SA1#83, Spokane, WA, USA, rapporteur’s clean-up&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#82&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-181006&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Presentation to SA for one-step approval&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#82&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-181006&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Raised to v.16.0.0 following SA approval&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#83&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190081&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0003&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarifying UE-to-UE versus UE-to-network&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#83&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190081&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0002&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Moving rail-bound mass transit requirements – shift from cyberCAV&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#83&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190081&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0001&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clean-up and corrections of TS 22.104 cyberCAV&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#84&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190299&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0008&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to TS 22.104 v16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#84&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190299&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0006&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Add missing abbreviations to TS 22.104&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#84&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190299&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0005&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;C&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Adding edge computing aspect&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#84&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190311&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0009&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;C&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Adding vertical positioning requirements to TS 22.104 v16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190807&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0012&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Addition of a new synchronisation performance requirement&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190807&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0011&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Addition of robotic aided surgery and diagnosis performance requirements&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190800&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0023&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of a figure number in Annex D.2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190812&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0010&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Add one more case for control-to-control communication&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190812&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0013&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Network operation requirements&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190812&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0015&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;eCAV – Further 5G service requirements for Positioning&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190812&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;eCAV – Service performance requirements for Industrial Wireless Sensors&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190812&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0016&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;eCAV – further 5G service requirements for wired to wireless link replacement for smart manufacturing / Industry 4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190812&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0020&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;eCAV – further 5G service requirements for network performance&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190857&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0021&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;ECAV - further 5G service requirements for ProSe communication for CAV&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190856&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0019&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;ECAV - further 5G service requirements for industrial Ethernet integration (clock synchronization, time-sensitive communication)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191016&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0027&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Addition of informative annex for AV Prod&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191020&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0026&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of CMED KPIs tables&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191028&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0034&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification of clock synchronicity requirements&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191028&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0028&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Addition of transmission directions and movement characteristics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191028&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0030&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on communication service reliability&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191028&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0035&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Derivation of communication service availability and reliability from network performance metrics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191028&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0037&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Editorial and minor corrections to TR 22.104&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191028&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0032&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;C&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Network performance requirements for mobile operation panel&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191028&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0038&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TS 22104 - Annex A for cooperative carrying&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#88e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200568&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0050&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of service performance requirements in tables of annex A.6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#88e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200567&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0049&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;22.104 Miscellaneous editorial corrections&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#88e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200562&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0041&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarifications to communication service performance requirements&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#88e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200567&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0048&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Miscellaneous values for further study&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#88e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200562&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0045&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correcting description of communication service status in Clause C.3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#88e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200562&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0047&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clock synchronicity budget for the 5G system&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#89e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200790&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0055&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Quality improvement – burst definition&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#89e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200790&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0058&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;CR 22.104 R17 - Editorial Improvements – Decimal Separator&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#91e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210200&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0063&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt; &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Non-inclusive language replacement 22.104&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.5.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#91e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210217&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Adding energy efficiency use cases for positioning to the ANNEX A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.5.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#92e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210564&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0075&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Quality improvement - update of definition of communication service availability &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#92e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210565&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0066&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Quality improvement - addition of new annex (relationship between reliability and communication service availability) &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#92e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210565&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0068&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;22.104 - V18.0.0 - quality improvement - update of mobile-robots use case description  &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#92e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210565&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0069&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of mobile-robot use cases (UE number)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#92e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210565&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Quality improvement - service duration &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#92e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210517&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0065&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5G timing resiliency &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#92e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210524&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0073&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Alignment of positioning power consumption aspects between 22.261 and 22.104&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#92e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210524&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0072&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Adding LPHAP requirements for Industrial IoT&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#93e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211038&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0077&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Quality improvement: update of reference to IEEE 802.1AS&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#93e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0078&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Introduction of Smart Energy Infrastructure Requirements&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#93e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0080&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Annex for smart grid&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#93e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0082&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Introduction of SEI KPIs&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#93e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0083&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Adjusting scope clause in TS 22.104 to the specification s content&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#93e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211039&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0084&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification of requirements for clock synchronization with direct device connection and indirect network connection communication&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#93e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0087&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Inclusion of Smart Energy Infrastructure Requirements&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-94&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211497&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0089&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;C&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of references for clause 2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-94&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211497&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0090&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Remove editor note for Figure A.4.4.3-1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-94&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211497&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0091&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update to Smart Grid normative requirements&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230230&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0093&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Additional clarification on security, privacy for mobile robots using edge cloud&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;19.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230230&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0094&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;An additional u</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.587471636619973</v>
+        <v>0.2572981744426481</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.25.1	Description&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>22856-j00.docx</t>
+          <t>22876-j00.docx</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1778,197 +1778,197 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>['', 'The metaverse enables immersive virtual media, 3D avatar and holographic communications for realizing use cases such as interactive gaming, virtualized shared workspaces, and immersive conference rooms for remote collaboration, etc. The goal is to create a virtual world we can work in, interact with, and even escape to. Many mobile metaverse use cases are applicable to indoor and/or localized areas such as home, offices, stadiums, shopping malls, movie theatres, theme parks, hospitals, universities, concert halls, etc. Even though metaverse services go beyond virtual reality media presenting virtual worlds that seem to be distant, the scenarios that this use case focusses on are tied to a single physical location which is mostly indoors and serving a localized area. Such physical locations may prefer non-3GPP (trusted, untrusted or wireline) access. ', '', 'Some mobile metaverse services require more bandwidth and lower latencies which can be challenging to meet. Major improvements to satisfy these requirements of uninterrupted, lag-free, immersive mobile metaverse service experience using non-3GPP access have been made such as:', '', '-\tincorporation of 1200 MHz of new spectrum in the 6 GHz band with Wi-Fi 6E enabling bigger channel sizes up to 160 MHz', '', '-\tsupport up to 1024 QAM with Wi-Fi 6 and 6E and Wi-Fi 7 aiming to support up to 4096 QAM', '', '-\tdoubling maximum channel bandwidth available to each device to 320MHz in the 6GHz band with Wi-Fi 7', '', '-\tincorporation of High Band Simultaneous (HBS) Multi-Link Operation (MLO) in 802.11be that aggregates two simultaneous 160 MHz channels (four streams) in 5 GHz and 6 GHz bands reducing latency to &amp;lt; 2msec', '', 'In case of converged or hybrid network architecture, a single mobile metaverse user can access mobile metaverse services via 5GS using both 3GPP and non-3GPP accesses simultaneously. In such scenario, the metaverse traffic would need to be synchronized as it may be subject to varying latencies when routed over both 3GPP and non-3GPP access. Alternatively, a single mobile metaverse service can be accessed by multiple users across multiple access networks from a network operator.', '']</t>
+          <t>['8.1.2\tQoS support&lt;/h3&gt;', '', 'Table 8.1.2 – QoS support Consolidated Requirements', '', 'CPR #', '', 'Consolidated Potential Requirement', '', 'Original PR #', '', 'Comment', '', '&lt;b&gt;CPR 8.1.2-1&lt;/b&gt;', '', 'Based on user consent and operator policy, the 5G network shall be able to have the means for operator to modify the communication QoS so that the end to end latency can be satisfied when a relay UE is involved for a proximity-based work task offloading.', '', 'NOTE\xa01:\tDue to the proximity-based work task offloading, the data size transmitted via sidelink and Uu of the indirect network connection can be different', '', 'NOTE 2:\tThe split point selection is dynamic. In consequence, the amount of intermediate data will vary. ', '', 'NOTE 3:  Similarly as existing direct device connection based transmission the QoS for the specific service can be impacted by the distance between UEs then the UE reselection may be needed.', '', 'P.R.5.1.6-001', '', 'P.R.5.2.6-005', '', '', '', '&lt;b&gt;CPR 8.1.2-2&lt;/b&gt;', '', 'Subject to user consent and operator policy, the 5G network shall be able to configure the QoS (latency, reliability, data rate) of the communication path of the direct device connection.', '', 'P.R.5.2.6-004', '', '', '', '&lt;b&gt;CPR 8.1.2-3&lt;/b&gt;', '', 'Based on user consent, operator policy and regulatory requirement, the 5G network shall be able to support means to monitor the characteristics (e.g. experienced data rate, latency) of the traffic transmitted via direct device connection or the traffic relayed by a UE and expose the monitoring information to trusted 3rd party.', '', 'NOTE:  The monitoring information doesn’t include any user position-related data.', '', 'P.R.6.1-001', '', '', '', '&lt;b&gt;CPR 8.1.2-4&lt;/b&gt;', '', 'Subject to user consent, operator policy and trusted 3&lt;sup&gt;rd&lt;/sup&gt; party request, the 5G system shall be able to provide means for operator to predict and expose condition changes of QoS for indirect network connection (i.e. bitrate, latency, reliability).', '', 'P.R.5.2.6-002', '', '', '', '&lt;b&gt;CPR 8.1.2-5&lt;/b&gt;', '', 'The 5G system shall support a mechanism for an authorized third-party to negotiate with a 5G network for a suitable QoS for direct device connections for a group of UEs to exchange data with each other', '', 'P.R.6.1-003', '', '', '', '&lt;b&gt;CPR 8.1.2-6&lt;/b&gt;', '', 'Based on user consent, operator policy and trusted 3&lt;sup&gt;rd&lt;/sup&gt; party’s request, the 5G network shall be able to support and provision an aggregated QoS for a group of UEs served by a relay UE.', '', 'P.R. 7.2-001', '', 'P.R. 7.2-002', '', '', '', '&lt;b&gt;CPR 8.1.2-7&lt;/b&gt;', '', 'Based on user consent, operator policy and 3&lt;sup&gt;rd&lt;/sup&gt; party’s request, the 5G network shall be able to provide and configure the QoS limitation applied to a group of UEs communicating via direct device connection (e.g. part of a joint AIML inference task).', '', 'NOTE: the above requirement assumes unicast type of communication.', '', 'P.R.7.3-001', '', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.5691297066792967</v>
+        <v>0.2197259518282827</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.25.3	Service Flows&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;	5.32.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>22856-j00.docx</t>
+          <t>22837-j00.docx</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>['', '1. Mark starts the immersive gaming via an authorized 3&lt;sup&gt;rd&lt;/sup&gt; party metaverse application using the network operators broadband access network (non-3GPP access).', '', '2. Bob joins the immersive gaming to play along with Mark via the same authorized 3&lt;sup&gt;rd&lt;/sup&gt; party mobile metaverse services using the same network operator but connecting to the 3GPP access network. ', '', '3. Both Mark and Bob experience different network conditions, e.g., bitrate, reliability, latency across the access networks. ', '', '4. 5GS exposes varying network condition changes across the two access networks to an authorized 3&lt;sup&gt;rd&lt;/sup&gt; party mobile metaverse service. ', '', '5. Based on the real-time network condition information shared by 5GS, the authorized 3&lt;sup&gt;rd&lt;/sup&gt; party mobile metaverse service adjusts the requested QoS for both users for coordinated user experience. ', '', '6. Based on the requested QoS from the authorized 3&lt;sup&gt;rd&lt;/sup&gt; party mobile metaverse service, the 5GS performs dynamic policy updates for the users to meet the desired QoS levels for the metaverse traffic and synchronizes the metaverse application data streams for both users using different access networks.', '']</t>
+          <t>['', '[PR 5.32.6-1] Based on operator’s policy, the 5G system may provide a mechanism for a trusted third party to provide sensing assistance information about a sensing target.', '', '[PR 5.32.6-2] The 5G system shall be able to provide sensing results with the following KPIs:', '', 'Table 5.32.6-1\tPerformance requirements of the sensing results exposed to the third party', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area &lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[ms]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[s]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Missed detection&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Indoor Factory&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;100 m&lt;/span&gt;&lt;span style="color:0C0C0C;font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;99&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤0.5]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[0.5]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[0.5]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤100&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.32.6-1 are found in Section 3.1.&lt;/span&gt;', '', '', '']</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.5614261326668378</v>
+        <v>0.2491538676627245</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.25.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;12.20.2	Description&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>22837-j00.docx</t>
+          <t>22989-j30.docx</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>['', '[PR 5.25.6-1] The 5G system shall be able to configure and authorize sensing for a Sensing device or a group of Sensing devices when using licensed spectrum based on the Sensing device’s location.', '', '[PR 5.25.6-2] The 5G system shall be able to enable a Sensing device to perform sensing with licensed band under operator’s control based on the Sensing device’s location.', '', '[PR 5.25.6-3] The 5G system shall be able to enable UEs without 5G coverage to use unlicensed spectrum to perform sensing.', '', '[PR 5.25.6-4] Subject to user consent and national or regional regulation, based on operator policy, the 5G system shall be able to allow a Sensing device to provide sensing results to a trusted third party.', '', '[PR 5.25.6-5] The 5G system shall be able to provide sensing with following KPIs:', '', 'Table 5.25.6-1\tPerformance requirements of sensing results for immersive experience', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area &lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[ms]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[s]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Missed detection&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Immersiveexperience&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Indoor&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;250&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(granularity of field is 1.5m x 1.5m)&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.25&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.25.6-1 are found in Section 3.1.&lt;/span&gt;', '']</t>
+          <t>['', 'In the case of vehicle/train composition, FRMCS Users can take full advantage of the transport facilities of the 3GPP system while ensuring priority, latency and reliability for each communication. FRMCS User and the associated communication applications need to be decoupled from the FRMCS Equipment.', '']</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.6877941059193086</v>
+        <v>0.2166992227326293</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.25.6	Potential New Requirements&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;12.20.6	Potential requirements and gap analysis&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>22856-j00.docx</t>
+          <t>22989-j30.docx</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>LR3_other</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>['', '[P.R.-5.25.6-1] Subject to operator policy and user consent, 5G system shall be able to provide means to expose network performance information (e.g., bitrate, latency) to an authorized 3rd party metaverse application.', '', '', '', 'NOTE:\tThe network performance information can be per UE and take into account all available 5G access network types with the aim of improving user experience.', '', '', '', '[P.R.-5.25.6-2] 5G system shall be able to provide means to enable authorized 3rd party to synchronize the metaverse traffic which is routed or steered over available 5G access networks.\xa0', '']</t>
+          <t>['', 'Reference Number', '', 'Requirement text', '', 'Application / Transport', '', 'SA1 spec covering', '', 'Comments', '', '[R-12.20.6-001]', '', 'Multiple FRMCS Users in the vehicle/train shall be able to use one FRMCS Equipment simultaneously.', '', 'A/T', '', 'TS 22.280', '', 'TS 22.280 sub-clause 5.15', '', '5.15-001 ', '', '[R-12.20.6-002]', '', 'The service capabilities of an FRMCS Equipment shall be attributable individually to multiple FRMCS Users.', '', 'A/T', '', 'TS 22.280', '', 'TS 22.280 [R-5.15-002] &amp;amp; [R-5.15-003] ', '', '[R-12.20.6-003]', '', 'When an FRMCS Equipment is simultaneously used by multiple FRMCS Users, the communication for each of the FRMCS Users shall receive its required priority and QoS (latency and reliability) within the FRMCS System.', '', 'T', '', 'TS 22.280', '', 'TS 22.280 [R-5.15-003] [', '', '[R-12.20.6-004]', '', 'When an FRMCS Equipment is simultaneously used by multiple FRMCS Users, each of the FRMCS Users shall be individually addressable.', '', 'A', '', 'TS 22.280', '', 'TS 22.280 [R-5.15-002] ', '', '', '']</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.7256233846173087</v>
+        <v>0.2232725019605552</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.27.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;12.22.5	Potential requirements and gap analysis&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>22837-j00.docx</t>
+          <t>22989-j30.docx</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>['', '[PR.5.27.6-1] The 5G system shall support exposing the information of sensing result (e.g., location, relative location, velocity vectors, relative headings, etc.) to the trusted and secure mission critical applications.', '', '&lt;span style="color:000000"&gt;[PR.5.27.6-2] The 5G system shall support mechanisms for combining 3GPP sensing data and non-3GPP sensing data (e.g., body cameras.) depending on location, availability of non-3GPP sensing data, and public safety applications.&lt;/span&gt;', '', '[PR.5.27.6-3] The 5G system shall support security and protection of the 3GPP sensing data, non-3GPP sensing data, and sensing results.', '', '[PR.5.27.6-4] The 5G system shall provide a secure sensing service for Mission Critical Services.', '', '[PR.5.27.6-5] The 5G system shall be able to provide the sensing service with the following KPIs:', '', 'Table 5.27.6-1\tPerformance requirements of sensing results for public safety search and rescue or apprehend', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area &lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[ms]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[s]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Missed detection&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Search and Rescue/Apprehend&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Outdoor/Indoor&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;99&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;≤ 0.5&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;≤ 1.&lt;/span&gt;&lt;span style="color:0C0C0C;font-size:16pt"&gt;0&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;Pedestrian: ≤1.5&lt;/span&gt;', '', '', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;Pedestrian: ≤1.5&lt;/span&gt;', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Horiz: 5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Vert: 5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤1s&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≥10Hz&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤3]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤3]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.27.6-1 are found in Section 3.1.&lt;/span&gt;', '']</t>
+          <t>['', 'Reference Number', '', 'Requirement text', '', 'Application / Transport', '', 'SA1 spec covering', '', 'Comments', '', '[R-12.22-001]', '', 'The FRMCS System shall be able to provide a mechanism to allow redundancy of transmission paths making use of multiple spectrum blocks.', '', 'T', '', 'Covered in TS 22.261 chapter 7.2 by referring to TS 22.289', '', 'The reliability figures for rail is included in 22.289 (KPI for rail) and referenced in 22.261 sub-clause 7.2 on low latency and high reliability. ', '', '[R-12.22-002]', '', 'The FRMCS System shall provide a mechanism that minimizes the risk of single point of failure.', '', 'A/T', '', 'Covered in TS 22.261 chapter 7.2 by referring to TS 22.289', '', 'The reliability figures for rail is included in 22.289 (KPI for rail) and referenced in 22.261 sub-clause 7.2 on low latency and high reliability. ', '']</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.6974494397345261</v>
+        <v>0.2161571150738006</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.28.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.1.1	Description&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>22837-j00.docx</t>
+          <t>22882-j00.docx</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>['', '[PR 5.28.6-1] The 5G system shall be able to configure and authorize UEs supporting V2X applications to perform sensing.', '', '[PR 5.28.6-2] The 5G system shall be able to c&lt;b&gt;ollect charging information &lt;/b&gt;for UEs supporting V2X applications when performing sensing.', '', '[PR 5.28.6-3] The 5G system shall be able to support the following KPIs:', '', 'Table 5.28.6-1 KPIs for Vehicles Sensing for ADAS', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency[ms]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate [s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Missed detection [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm [%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="color:auto;font-size:16pt"&gt;ADAS&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[long range Radar]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Outdoor &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[95]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[≤1.3] &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤0.5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[≤ 0.12]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa04&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt; [0.4]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa05&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[≤ 0.6]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa04&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[50]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[≤ 0.2]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[≤ 10]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[&amp;lt;1]&lt;/span&gt;', '', '&lt;span style="color:auto;font-size:16pt"&gt;ADAS&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[Short range Radar]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Indoor (parking space)/Outdoor &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[95]&lt;/span&gt;', '', '', '', '\t\t', '', '&lt;span style="font-size:16pt"&gt;[≤2.6]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤0.5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[≤ 0.12]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa04&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[0.4]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa05&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[≤ 0.6]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa04&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[20]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[≤ 0.05]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[≤ 10]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[&amp;lt;1]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa01:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.28.6-1 are found in Section 3.1.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa02:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Assuming typical max range of 250m, range accuracy of 10cm, azimuth accuracy of ±0.3deg. Positioning accuracy as (Min-Max) within field of view.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa03:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Assuming typical max range of 30m, range accuracy of 2cm, azimuth accuracy of ±5deg.Positioning accuracy as (Min-Max) within field of view.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa04:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Velocity accuracy and resolution is typically reported for the radial velocity (not absolute H/V velocity).&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa05:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Range resolution typically reported as 3D ranging distance accuracy.&lt;/span&gt;', '']</t>
+          <t>['', 'Currently energy consumption and efficiency can be monitored and considered through O&amp;amp;M and network operation, but not as a service performance criterion, as for example bit rate, latency or availability. Guidance from SA to all working groups in states: ', '', '&lt;i&gt;"The EE-specific efforts so far undertaken e.g., in SA5 have aimed mostly at improving the energy efficiency by impacting the operations of the system. As we now are starting to specify the 5G-Advanced features, TSG SA kindly requests the recipient WGs and TSGs to consider EE even more as a guiding principle when developing new solutions and evolving the 3GPP systems specification, in addition to the other established principles of 3GPP system design.&lt;/i&gt;', '', '&lt;i&gt;TSG SA clarifies that in addition to EE, other system level criteria shall continue to be met (i.e. the energy efficiency aspects of a solution defined in 3GPP is not to be interpreted to take priority or to be alternative to security, privacy, complexity etc. and to meeting the requirements and performance targets of the specific feature(s) the solution addresses)."&lt;/i&gt;', '', 'There is an important type of traffic where energy efficiency policy, for example a &lt;i&gt;maximum amount of energy to be utilized &lt;/i&gt;could be applied without conflict with this guidance. Best effort traffic is a type of traffic that is provided as a service to customers &lt;i&gt;everything else being equal&lt;/i&gt;. Of course, security, privacy and complexity principles will not be sacrificed, but there is no conflict between a service policy that constrains performance (e.g. latency, throughput, even availability) on the basis of energy consumption and a best effort service, since there are no guarantees in the case of best effort traffic. We can say that best effort traffic is not associated with QoS policy service performance level criteria.', '', 'Today the 5G system works to support services efficiently, though does not take into account energy consumption at the service level. The use case explores a particular opportunity to identify this information and use it to make more efficient use of all network resources without sacrificing service quality. In particular, information gathered through O&amp;amp;M, and in the future possibly from the network (see 5.1.5 which identifies a gap and opportunity), can be leveraged to make it possible to employ energy consumption information as part of service delivery. ', '', 'In the following use case, the possibility of using energy consumption as a new service criterion for this less constrained type of mobile telecommunication service is explored.', '', "A large-scale logistics company L has deployed a large number of communicating components. These are integrated into vehicles, palettes, facilities, etc. Essentially, IoT terminals enable remote tracking and monitoring functions. The information gathered is relevant, but not constrained with respect to latency. In fact, eventual delivery (e.g. after hours or even a full day) of communication is entirely acceptable for L. The MNO M offers a 'green service' which limits the rate of energy utilized for communication over a particular time interval (e.g. per day) and this service is appropriate for L, whose overall corporate goals are also served by 'green service,' as they strive to operate with energy efficiency.", '']</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.6619611095095291</v>
+        <v>0.1983692164568904</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.29.1	Description&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.1.3	Service Flows&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>22837-j00.docx</t>
+          <t>22876-j00.docx</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>['', 'As a new way of human-device interface, gesture recognition enables a more intuitive interaction between humans and machines, compared to the conventional text or GUI-based interfaces. Common applications of gesture recognition include touchless control of mobile devices, such as smartphones, laptops, and smart watches. Compared to other use cases, such as sports monitoring or sleep monitoring, gesture recognition requires higher resolution, higher update rate, and lower latency, which makes it more challenging in terms of resource utilization and processing complexity. ', '', 'Gesture recognition identifies motions and postures of human body parts, such as head, hands, and fingers. As shown in Figure\xa05.29.1-1, gesture recognition can be applied to various applications such as human motion recognition, keystroke detection, sign language recognition and touchless control.', '', '', '', '----media/image37.png--------media/image39.png--------media/image41.png--------media/image42.png--------media/image43.png--------media/image44.png----', '', '', '', 'Gesture/motion/posture recognition', '', '--\tHuman motion recognition', '', '--\tKeystroke detection', '', '--\tTouchless control', '', '--\tSign language recognition', '', 'Figure\xa05.29.1-1 Gesture Recognition', '', 'In this use case, we focus on application of gesture recognition for touchless control and immersive (i.e. XR) application.', '', 'For touchless control, the identified gestures are then interpreted to specific behaviours or operations of the device, including locking/unlocking a screen, increasing/decreasing volume, and navigating forward/backward web pages.', '', 'For XR application, the position tracking and mapping of the human body is a basic requirement that permeates XR application to provide the immersive experience [55]. Hereby a variety of sensors are integrated in the XR devices to measure the movement of the human body (e.g., head, eye, hand, arm, etc) in order to simulate normal human mimicry. Besides, the hand tracking goes beyond the simulation and enables a natural and intuitive way of the interaction between the human and the machine compared with the use of the physical controller. The gesture recognition and hand tracking becomes a vital function in XR applications, especially when the human and the controlled object stay in physical and virtual world separately.', '', 'For both touchless control and XR application, NR-based RF sensing is suitable for gesture recognition because certain RF signals can detect small body movements and the RF signals are not susceptible to the ambient illumination condition and occlusions in the environment. In addition, NR-based RF sensing allows for finger and hand tracking in a lower-complexity and economic manner.', '']</t>
+          <t>['', '', '', '', '', '----media/image4.emf----                ----media/image5.emf----', '', '(a)\tno task offloading   \t\t\t\t(b) task offloading by UE-B', '', 'Figure 5.1-2: Using direct device connection (sidelink) to realize the proximity-based work task offloading. In this case, the data rate on Uu need not be increased while the original UE’s computation load is offloaded', '', '1)\tAs shown in left(a) of Figure 5.1-2, UE-A is doing image recognition using Alexnet Model as described in clause 5.4.2. It selects splitting point-3 for the AI inference. ', '', 'The E2E service latency (including image recognition latency and intermediate data transmission latency) is 1 second. ', '', '2)\tWhen the UE-A’s battery becomes low, it cannot afford the heavy work task for the AlexNet model (i.e. calculating layer 1-15 for AlexNet model in local side).', '', '3)\tBeing managed by 5G network, the UE-A discovers UE-B (a Customer Premise Equipment, CPE) which has installed the same model and is willing to take the offloading task from UE-A. ', '', 'NOTE 1:\tThe 5G network does not store UE-A and UE-B’s location data. ', '', 'Then UE-A established the sidelink (direct device connection) to UE-B. During the sidelink establishment, the UE-B also gets the information of the total service latency (including the image recognition latency and intermediate data transmission latency) and the processing time consumed by UE-A for computing layer 1-4.', '', '\tSince the UE-B has acquired the E2E service latency and the processing time consumed by UE-A, and also it knows its own processing time for computing layer 5-15, the UE-B can determine the QoS parameters applied to both Uu and Sidelink while keeping the E2E service latency same as the E2E service latency described in step-1. ', '', 'NOTE 2:\tIt is assumed that the UE-A and UE-B have the same computation capacity, i.e. the time used for computing the certain AlexNet model layers are the same for UE-A and UE-B. Otherwise, the data rate on Uu and Sidelink may be changed accordingly. ', '', '4)\tThe UE-A sends the intermediate data (data after calculating layer 1-4) to UE-B via sidelink and let UE-B make further processing then transmit the intermediate data (data after calculating layer 5-15) to application server via Uu. The specific model layers being computed by UE-A and UE-B are shown in the right(b) in figure 5.1-2.', '', '5)\tUE-A continues to perform image recognition by leveraging sidelink and UE-B’s computation capacity while the source and destination IP address and the E2E service latency for the image recognition service is unchanged.', '']</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.6624516462878558</v>
+        <v>0.1977725274094676</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.29.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.1.3	Service flows&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>22837-j00.docx</t>
+          <t>22882-j00.docx</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR3_other</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>['', 'Editor’s note: Functional requirements are FFS.', '', '[PR 5.29.6-1] The 5G system shall be able to provide sensing with the following KPIs:', '', 'Table 5.29.6-1\tPerformance requirements of sensing results for gesture recognition', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Motion rate accuracy&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency[ms]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate [s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Missed detection [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm [%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Gesture recognition&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Indoor&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;FFS&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;FFS&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;FFS&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[0.3]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;FFS&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤&lt;/span&gt;&lt;span style="font-size:16pt"&gt;0.1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;FFS&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;FFS&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa01:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.29.6-1 are found in Section 3.1.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa02:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;KPIs provided in table are derived from [56] and with the use of the pre-defined gestures to be identified some of the KPIs e.g. positioning accuracy and range resolution could be relaxed.&lt;/span&gt;', '']</t>
+          <t>['', "1.\tThe fleet of trucks belonging to L leave the logistic center located in the middle of the uninhabited region hundreds of kilometers northeast of the major city Erehwon. There are many devices located in this fleet. The trucks and their contents comprise a physically dense group of UEs, all communicating periodically with the network. This 'massive IoT' group leaves the coverage of the logistics center. The network coverage over the road through the uninhabited region is very sparse.", '', '2.\tAs the trucks proceed into extreme low coverage, the energy utilized to communicate with the IoT devices increases. This energy consumption increase is monitored by the 5G network and can be aggregated, e.g. at the slice level.', '', "3.\tThe 'green service' policy for the service provided to L includes a maximum energy consumption rate. At a certain point the IoT communication of the fleet exceed&lt;i&gt;s&lt;/i&gt; this maximum energy consumption rate.", '', "4.\tThe policy indicates that latency can be traded off with energy consumption for service to L; the communication service is delay tolerant in this condition. As the energy consumption rate has exceeded the maximum, the latency is increased to enforce this policy. In effect, L's fleet receives very limited service, with high latency, even for a limited period of time, no service at all.", '', 'NOTE:\tThis use case does not describe how latency is increased, but does assume that this increase will result in a reduction of energy consumption. It is possible to reduce energy consumption by offering less service.', '', "The use case description does not define how operator M offers the 'green service'. One possibility is that the maximum energy consumption policy applies to all services for the subscription of a device deployed by L with operator M. This simple policy may not be appropriate if the UEs deployed by L use different kinds of services at different times. In this case, the policy would apply to specific services (service flows, etc.) A requirement at the service flow level is not pursued in this use case.", '', "A further option is that specific network slices apply a 'green service' policy to all services communicating by means of that slice. ", '', "The use case does not describe how energy consumption is determined. There is related work in SA5 and RAN3 to determine energy consumption. If energy consumption cannot be determined at the granularity, e.g. of a specific service or network slice or even the aggregate energy consumption of a subscriber, it is still possible to identify the total energy consumption of different elements in the 5G network. It is therefore possible, at least in principle, to divide the total energy by the number of served sessions, subscribers, etc. 'Average consumption' of a node or cell or slice, etc. is a course unit of measurement, and does not reflect the true energy consumption at the finer granularity, though it still can be a useful metric.", '', "Though an averaging approach could be useful to count the total amount of energy used to attribute to each subscriber, this approach is not enough to measure the rate of energy consumption as described in this use case. For this, there would have to be finer granularity energy reporting than 'per node' or 'per cell.' Though this is not yet supported in the 5G network.", '']</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.6785698847089061</v>
+        <v>0.1931361343878207</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.3.1	Description&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.1.4	Post-conditions&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>22856-j00.docx</t>
+          <t>22882-j00.docx</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1978,17 +1978,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>['', 'Since the industrial age, engineering design has become an extremely demanding activity. Collaborative and concurrent engineering occur as a concept and methodology at the end of the last century and was defined as a systematic approach to integrated and co-design of products and their related processes. The diversity and complexity of actual products, requires collaboration of engineers from different geographic locations to share the ideas and solutions with customer and to evaluate products development. VR and AR technologies have found their ways into critical applications in industrial sectors such as aerospace engineering, automotive engineering, medical engineering, and also in the fields of education and entertainment. The range of technologies include Cave Automatic Virtual Environment (better known by the recursive acronym CAVE) environments, reality theatres, power walls, holographic workbenches, individual immersive systems, head mounted displays, tactile sensing interfaces, haptic feedback devices, multi-sensational devices, speech interfaces, and mixed reality systems [6].', '', '----media/image7.png----', '', 'Figure\xa05.3.1-1: XR enabled collaborative and concurrent engineering in product design ', '(Source: https://vrtech.wiki/)', '', 'One of the key challenges is to how to enable a distributed virtual environment (DVE) allowing multiple users from different geographical locations (some of them are present at the same location) to interact over a network. A DVEs is defined as multi-user virtual reality that actively support communication, collaboration, and coordination [7], 3D place-like environment in which participants are provided with graphical embodiments called avatars that convey their identity, presence, location, and activities to others [8]. A DVE is the simultaneous existence of multiple users in the same virtual space represented as avatars, their communication, the shared exploration of 3D visualizations, and the collaborative construction of new content. This avatar representation is essential for every user knows about the actual perceptions of other users. The users can communicate with each other. They can interact with other users and with the virtual environment. A DVE in the terms of this study is a location agnostic service experience.', '', 'To support DVEs for collaborative and concurrent engineering, the 5G system needs to fulfil certain KPIs, such as latency, data rate, reliability. Moreover the 5G system (with mobile metaverse services) is expected to support the fundamental features including:', '', '- mobile metaverse media support among multiple users;', '', '- User Identity management;', '', '- data security.', '']</t>
+          <t>['', 'The IoT devices in the fleet belonging to L are able to communicate with varying latency, depending on the energy consumption required to serve the devices. When the UEs are in poor coverage, they communicate seldom, when under good coverage, they can communicate more frequently.', '', "The total energy consumption of M's network has reduced while still providing adequate service to customer L.", '', "It is important to emphasize that there has been no trade-off between 'energy efficiency' and 'service quality.' Customer L received what was necessary while using less energy precisely because the energy consumption was taken into account in the service delivery.", '']</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.5721511379575926</v>
+        <v>0.202196761384169</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.3.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.1.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1998,27 +1998,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>['', '[PR 5.3.6-1] The 5G network shall support collection of the NR based 3GPP sensing data from the base station.', '', '\t[PR 5.3.6-2] Based on operator’s policy, the 5G system shall support mechanisms to process the 3GPP sensing data to derive the sensing results.', '', '[PR 5.3.6-3] Based on operator’s policy, the 5G system shall provide mechanisms to expose NR based sensing results with sensing contextual information, e.g. location, to a trusted third-party application via the core network.', '', '[PR 5.3.6-4] The 5G system shall support sensing services with KPIs as given in Table 5.3.6-1.', '', 'Table 5.3.6-1\tPerformance requirements of sensing results for rainfall monitoring', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;&lt;b&gt;Rainfall estimation accuracy&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;(for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency[ms]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate [s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Missed detection [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm [%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Rainfall monitoring&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;outdoor&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[1mm/h]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa02&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1 min&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;10min, application configurable&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa01:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.3.6-1 are found in Section 3.1.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa02:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;For rainfall rain rate &amp;gt;1 mm/h[39]. Rainfall estimation accuracy describes the closeness of the measured rainfall estimation to its true rainfall value.&lt;/span&gt;', '', 'NOTE:\tIn this use case base station is acting as sensing transmitter and/or sensing receiver. This is an example and other options can also be valid.', '']</t>
+          <t>['', '[P.R.5.1.6-1] The 5G system shall provide a mechanism for an operator to authorize a UE for sensing, e.g., based on location.', '', "Editor's Note:\tTerminology of UE/base station needs to be adapted.", '', '[PR 5.1.6-2] The 5G system shall support a UE to perform sensing measurement process based on the trusted third-party’s request.', '', '[PR 5.1.6-3] The 5G system shall provide mechanisms for an operator to only collect or expose the sensing information requested by a trusted third-party according to agreement.', '', '[PR 5.1.6-4] The 5G system shall support UE to perform sensing measurement process using signals received from other UE(s).', '', '[PR 5.1.6-5] The 5G system shall support UE to perform sensing measurement process in licensed or unlicensed band.', '', '[PR 5.1.6-6] The 5G system shall be able to provide the sensing service with following KPIs:', '', 'Table 5.1.6-1\tPerformance requirements of sensing results for intruder detection in smart home', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency[ms]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate [s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Missed detection [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm [%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Intruder detection in smart home&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Indoor&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤10&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤10&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt;1000&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE: &lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.1.6-1 are found in Section 3.1.&lt;/span&gt;', '', "Editor's Note:\tit is FFS whether other potential requirements will be identified.", '', 'NOTE:\tIn this use case UE is acting as sensing transmitter and/or sensing receiver. This is an example and other options can also be valid.', '']</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.6669702385544822</v>
+        <v>0.2361850176540863</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.32.1	Description&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.10.1	Description&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>22837-j00.docx</t>
+          <t>22856-j00.docx</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2028,22 +2028,22 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>['', 'Autonomous Mobile Robots (AMR)s and automated guided vehicle (AGV) are enabling solutions for a smart factory environment, in which a diversity of logistic tasks are done with an autonomous and efficient implementation, with minimal direct human engagement. In order to achieve a safe and efficient operation to serve a desired goal (e.g., transfer of construction materials with minimal risk, delay and energy consumption), a command center may take over the task of collecting the information of the involved facilities and performing a coordinated planning of the device operations. Nevertheless, a safe and efficient operation of the mobile devices may be only achieved on the condition of an accurate awareness of the environment (e.g., obstacles, humans) and the device positioning/tracking information (e.g., AGV/AMR position and velocity).', '', 'In view of the above, the 5G system shall serve the implementation of a smart factory by means of a reliable data connectivity (e.g., the low-latency and reliable AGV/AMR to command center connection) and positioning of the involved AGV/AMR UE devices. Furthermore, the 5G system sensing services can be utilized to augment the environment awareness by means of detecting and locating the non-connected objects (e.g., obstacles such as trash box, or safety-sensitive objects such as human, etc.).', '', 'In addition to the detection of the non-connected objects, the 5G system sensing enables a higher positioning and tracking accuracy of a target UE at the 5G system, by means of augmenting the positioning and sensing capabilities [27]. In case of an AMR/AGV, the positioning measurement of a device can be augmented at the 5G system with the 3GPP sensing data obtained from the reflections of the sensing signal from the AMR/AGV physical body, in the interest of a higher environment awareness and positioning accuracy, as well as the additional information obtained via sensing of the AMR/AGVs (e.g., orientation of an AMR). In particular, when both 5G system sensing and positioning services are activated, the same 5G system nodes (e.g., sensing Tx nodes) and 5G system signals (e.g., positioning or sensing signals) can be reused to efficiently generate and process the desired sensing and positioning measurements, see Figure\xa05.32.1-1 as an example of a joint sensing and positioning of a UE.', '', '----media/image47.png----', '', 'Figure\xa05.32.1-1 The 5G system obtains position estimate of a UE, utilizing 3GPP sensing data of the UE obtained from the 5G wireless sensing service, in combination with the positioning measurement of the UE', '', 'The obtained higher positioning accuracy of an AGV/AMR is particularly valuable for coordination of multiple AGVs and AMR with indeterministic movement paths, wherein the situations involving sudden break and/or velocity change may lead to a high delay, damage risk, and interruption energy loss.', '', '&lt;span style="font-size:28pt"&gt;5.32.2&lt;/span&gt;\t&lt;span style="font-size:28pt"&gt;Pre-conditions&lt;/span&gt;', '', 'Multiple AMR/AGVs are deployed in a factory hall belonging to the company &lt;b&gt;X&lt;/b&gt;. The AMR/AGVs are coordinated by a command center to perform a collaborative construction task. The command center coordinates the AMR/AGVs’ movements to improve safety and to avoid energy loss (due to an AMR/AGV break) and delay as much as possible.', '', 'To facilitate this, the factory hall is equipped with the 5G system sensing services provided by the Mobile Network Operator (MNO) &lt;b&gt;A&lt;/b&gt;. Moreover, the AMR/AGVs are equipped with the 5G system communication and positioning modules.', '', 'The company &lt;b&gt;X&lt;/b&gt; has provided the MNO with the physical type/characteristics of the deployed AMR/AGVs, as well as the installed camera data of the factory hall to assist detection and positioning of the AMR/AGVs via sensing.', '']</t>
+          <t>['', '&lt;b&gt;Mobile metaverse for Critical HealthCare Services. &lt;/b&gt;Immersive interactive mobile services encompass multiple services such as gaming, education, healthcare, shopping, recreation etc. Healthcare is a lifesaving critical service, which will benefit the most from mobile metaverse services. Remote surgery and surgeon training are already emerging examples, for geographically spread specialized surgeons, students and patients. Healthcare making use of mobile metaverse services can save lives by providing healthcare services at the earliest, train students better and free surgeons/doctors from being physically present at patient’s location. This area will encompass services such as surgery, medical student training, surgeon training. It will enable remote physician and patient examination. Mobile metaverse services can be characterized as a typical class of application that involves a server and a client device. This class of application will typically exchange haptic signals (forces, torques, position, velocity, vibration etc.), video and audio signals. Mobile metaverse services largely depend on low latency, highly reliable, secure wireless communication networks. [14, 32, 33, 36, 37]', '', '&lt;b&gt;Mobile metaverse-Surgeries. &lt;/b&gt;Normally, surgeons have to be physically present at hospital to perform their surgeries. Surgeons and patients may have to travel a great distance for surgeries, which is resource intensive and burdensome. The outbreak of coronavirus has further proves the case for remote surgeries. At present, there are increasingly more surgical rooms adapted with advanced surgical robots and doctors can remotely operate on the patients by controlling these surgical robots as shown in Figure-5.10.1-1b [35]. Mobile metaverse services can bring doctors and patients closer virtually, which further improves the accuracy and surgery flexibility. It can also facilitate consultation to provide suggestions and domain knowledge to reduce risks in actual operation. Recently, a real time remote breast cancer surgery was performed using private 5G network and head mounted display. Dr. G, physically present in the operating room, wore a head mounted display and could see the crucial information displayed by the goggles and performed breast cancer surgery remotely. Dr. G received constant advice from Dr. A, who was seated on the stage at the congress of Spanish association of Breast Surgeons, 900 km away from the surgery room [34, 35]. ', '', '&lt;b&gt;Mobile metaverse Physician Consultation. &lt;/b&gt;With the outbreak of COVID&lt;b&gt;, v&lt;/b&gt;irtual consultation through audio and video conference calls has gained considerable momentum. Mobile metaverse services enabled by tactile sensors along with video and audio media can provide a rich and successful experience to both physician and patient. The ability to perform mobile metaverse service consultation without the need for the doctors and patient to be physically co-located is an extremely efficient prospect. Doctors can potentially use mobile metaverse services to examine and interact with representations of aspects and views of the patient, and benefit from a plethora of medical advice database as shown in Figure-5.10.1-1.c. 5G communication is one the key factors to enable mobile metaverse service based physician consolation. Doctors and patients both need high throughput, ultra-reliable and low latency 5G communication for these services to succeed. [30, 32]. ', '', '&lt;b&gt;Mobile metaverse Body scan and vitals. &lt;/b&gt;Mobile metaverse services can significantly improve and change the way current body scan diagnostics and vital statistics are gathered. Mobile metaverse services can be utilized to see the real-time diagnostic data of the patient such as body temperature, heart rate, blood pressure, breathing rate along with MRI, CT and 3D scans as show in Figure-5.10.1-1.d. Medical challenges such as vein detection for IV, shots etc., can easily be resolved using mobile metaverse services. These will help medical professionals to detect, diagnose and treat a patient [30, 32].&lt;span style="font-size:22pt"&gt; &lt;/span&gt;', '', '----media/image25.jpeg----', '', 'Figure-5.10.1-1: Mobile metaverse service examples', '', 'The examples in Figure 5.10.1-1 feature the use of mobile metaverse services for a) Training Surgeons, b) remote surgery, c) physician consultation d) remote medical diagnostics. (Image source: healthcareoutlook.net, courthousenews.com, gmw3.com, ourplnt.com) ', '', '&lt;b&gt;Mobile metaverse Training Medical Students. &lt;/b&gt;Surgeries performed by surgeons all over the world can be used to train students using mobile metaverse services. Students can observe a live surgery with almost all the important vital and view on display, as they would be displayed to a surgeon. Further, the students can view the live surgery from different viewing perspectives, hear surgeon’s instruction, display of suggestions and domain knowledge as show in Figure-5.10.1-1.a. In May 2021, a live lung surgery was performed using an extended reality (XR) technology platform. More than 200 thoracic surgeons from Asian countries attended the outreach program and received training. The participants wore a head-mounted display (HMD) at their respective locations and participated in the program virtually represented by a digital representation (e.g. an avatar). They participants viewed the live lung surgery with lecture and 360deg high resolution surgical scenes as show in Figure-5.10.1-2 [31]. ', '', '----media/image26.jpeg----', '', ' Figure-5.10.1-2: Live lung surgery training through metaverse ', '', 'The source of figure 5.10.1-2 is [31] (Image source: Journal of Educational Evaluation for Health Professions (Jeehp)) ', '']</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.567710888433699</v>
+        <v>0.2176903863868322</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.4.5		Existing features partly or fully covering the use case functionality&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.10.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>22843-j00.docx</t>
+          <t>22837-j00.docx</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2053,72 +2053,72 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>['', 'SA1 has performed study on UAV DAA in previous releases, where related normative stage 1 requirements are introduced in TS 22.125 [3]. ', '', '&lt;b&gt;TS 22.125 clause 6.2 introduces the network support for UAV detection as below:&lt;/b&gt;', '', '[R-5.2.1-001] The 3GPP system shall provide a mechanism for a UTM to provide route data, along with flight clearance, to a UAV.', '', '[R-5.2.1-002] The 3GPP system shall be able to deliver route modification information received from a UTM to a UAS with a latency of less than 500ms.', '', '[R-5.2.1-003] The 3GPP system shall be able to deliver the notifications received from a UTM to a UAV controller with a latency of less than 500ms.', '', '[R-5.2.1-004] Based on MNO policies and/or regulatory requirements, the 3GPP system shall enable the UTM to take over the communication used to control the UAV.', '', '&lt;b&gt;TS 22.125 clause 5.2 introduces the introduces network support for UAV avoidance as below:&lt;/b&gt;', '', '[R-6.2-001] The 3GPP system shall provide means to allow a 3rd party to request and obtain real-time monitoring the status information (e.g., location of UAV, communication link status) of a UAV.', '', "[R-6.2-002] Based on operator 's policy, the 3GPP system shall provide means to provide a 3rd party with the information regarding the service status for UAVs in a certain geographical area and/or at a certain time.", '']</t>
+          <t>['', '[PR 5.10.6-1] Based on operator policy, request from UTM and sensing configuration (e.g. sensing area), the 5G system shall be able to support RAN entities and UEs in sensing the characteristics of an airborne object of interest (e.g., UAV), including generating 3GPP sensing data related to the object’s location and motion metrics &lt;span style="color:000000"&gt;(see examples in Table 5.10.6-1).&lt;/span&gt;', '', '[PR 5.10.6-2] The 5G system shall be able to support means to authorize RAN entities and UEs in certain location area generating and reporting 3GPP sensing data (e.g., related to a UAV position, velocity) to a 5G sensing processing entity.', '', 'NOTE 1:\tThe requirement above assumes that the 3GPP sensing data is post-processed in 5G sensing processing entity which is located within the 5G system.', '', '[PR 5.10.6-3] The 5G system shall be able to support means to process the 3GPP sensing data and expose in real time the sensing results (e.g., related to a UAV position, velocity) from a 5G sensing processing entity to a trusted third-party application.', '', '&lt;span style="color:7030A0"&gt;[&lt;/span&gt;&lt;span style="color:000000"&gt;PR 5.10.6-4] The 5G system shall support energy efficient sensing operations.&lt;/span&gt;', '', 'NOTE 2:\tExamples of energy efficient sensing operations can include temporarily disabling sensing transmitters and receivers that are not involved in sensing and communication operations or adjusting the sensing operation parameters (e.g. sensing frequency).', '', '[PR 5.10.6-5] Subject to operator’s policy, the 5G network may provide secure means for the operator to expose information on sensing service availability (e.g., if sensing service is available and the supported KPIs) in a desired sensing service area location to a trusted third-party.', '', '[PR 5.10.6-6] The 5G system shall be able to provide the means for supporting sensing service continuity.', '', '[PR 5.10.6-7] The 5G system shall support sensing services with KPIs as given in Table 5.10.6-1.', '', 'Table 5.10.6-1\tPerformance requirements of sensing results for UAV flight trajectory tracing', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency[ms]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate [s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Missed detection [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm [%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution (horizontal/vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[mxm]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;UAV flight trajectory tracing&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Outdoor&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1-2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1-2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1-2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1-2&lt;/span&gt;', '', '&lt;span style="color:242424;font-size:16pt"&gt;1m x 1m ~10m x 10m NOTE&lt;/span&gt;&lt;span style="font-size:16pt"&gt;\xa02&lt;/span&gt;', '', '&lt;span style="color:242424;font-size:16pt"&gt;1m/s x 1m/s ~ 10m/s x 10m/s &lt;/span&gt;&lt;span style="font-size:16pt"&gt;NOTE\xa03&lt;/span&gt;', '', '&lt;span style="color:242424;font-size:16pt"&gt;100~1000 NOTE\xa04&lt;/span&gt;', '', '&lt;span style="color:242424;font-size:16pt"&gt;1Hz&lt;/span&gt;', '', '&lt;span style="color:242424;font-size:16pt"&gt;NOTE\xa05&lt;/span&gt;', '', '&lt;span style="color:242424"&gt;5&lt;/span&gt;', '', '&lt;span style="color:242424"&gt;5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa01:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.10.6-1 are found in Section 3.1.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa02:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;To detect the UAV existence (e.g., for intrusion detection), the sensing resolution of distance is 10m [25]. To track the UAV flying (e.g., for collision detection and warning), the sensing resolution of distance is 1m [25].&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa03:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;To detect the UAV existence, the sensing resolution of velocity is 10m/s [25]. To track the UAV flying, the sensing resolution of velocity is 1m/s [25].&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa04:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;To realize 1m granularity tracking, when the velocity resolution is 1~10m/s, the maximum corresponding sensing service latency is 0.1~1s.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa05:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Echodyne MESA-DAA&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;TM &lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:16pt"&gt;has approximate 1Hz scan rate [40].&lt;/span&gt;', '']</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.5241378914469227</v>
+        <v>0.2312099346782683</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.5.1	Description&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.11.5	Existing feature partly or fully covering use case functionality&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>22851-j00.docx</t>
+          <t>22856-j00.docx</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>LR3_other</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>['', "Subscribers have the opportunity to visit the Hosted Services via its own operator's network, specified in TS 22.261[3]. These Hosted Services contain applications provided by operators and/or trusted 3rd parties. Usually, operators use some technologies to optimize the path of the user plane to reduce latency and bandwidth pressure, if the Hosted Services run on the operator's Service Hosting Environment.", '', 'GSMA provides a scenario when Hosted Services of party operator is located at a shared edge node of hosting operator, the Hosted Services are also applicable for the users accessing through the PLMN of party operator. The sharing edge node means that hosting operator deploys applications on cloud resources in its edge node as requested by a party operator and provides an application endpoint to the party operator, referred to S2-2208120.', '', 'However, when users access through a shared network, it is still expected the Hosted Services to be available. This use case provides the possibility for subscribers visiting Hosted Services via shared networks.', '']</t>
+          <t>['', 'TS 22.228 define the service requirements for IMS. IMS supports different IMS multimedia applications. IMS supports a wide range of services, notably voice and video calls. There is extensive support for services, tightly integrated with the 3GPP system, with extensive support for roaming and integration with both PSTN and ISDN telephony, emergency services and more. The requirements for a 3D avatar application are largely covered by existing requirements in the 5G standard for IMS.', '', 'TS 22.173 defines the media handling capabilities of the IMS Multimedia Telephony service', '', 'The specific gaps that are addressed in 5.A.6 include: extended feature negotiation, enabling the user to decide whether to present video or avatar communication, the ability to support Avatar communication and content efficiently, the ability to support standardized Avatar media in the 5G system.', '', 'The following KPIs are easily supported by the 5G system. They are included in order to contrast the requirements of an avatar call with a video call.', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Use Case&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Characteristic parameter (KPI)&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;End-to-end latency&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Service bit rate: user-experienced data rate&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Avatar call&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[NOTE1]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt;5 kbps [45]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Video call&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 150 msec preferred&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt;400 msec limit&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Lip-synch: &amp;lt; 100 msec [46]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;32-384 kb/s [46]&lt;/span&gt;', '', 'NOTE1: \tThe latency requirement for real time immersive service experience would be the same as the video call below. For some user experiences (smaller devices or an embedded icon-sized representation in other application, etc.) the latency tolerance could be greater.', '', 'NOTE2: \tThe video call KPIs are from TS 22.105 and have not changed since Rel-99. Actual transactional video call parameters may be higher now.', '']</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.6309033577831158</v>
+        <v>0.2162956152315575</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.5.5		Existing features partly or fully covering the use case functionality&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.11.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>22843-j00.docx</t>
+          <t>22837-j00.docx</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>['', '&lt;b&gt;Related requirements in TS 22.125:&lt;/b&gt;', '', '[R-5.1-003] The 3GPP system shall enable a UAS to send UTM the UAV data which can contain: unique identity (this may be a 3GPP identity), UE capability of the UAV, make &amp;amp; model, serial number, take-off weight, position, owner identity, owner address, owner contact details, owner certification, take-off location, mission type, route data, operating status.', '', '[R-5.1-004] The 3GPP system shall enable a UAS to send UTM the UAV controller data which can contain: unique identity (this may be a 3GPP identity), UE capability of the UAV controller, position, owner identity, owner address, owner contact details, owner certification, UAV operator identity, UAV operator license, UAV operator certification, UAV pilot identity, UAV pilot license, UAV pilot certification and flight plan.', '', '[R-5.1-006] The 3GPP system shall support capability to extend UAS data being sent to UTM with the evolution of UTM and its support applications in future. ', '', '[R-5.1-009] The 3GPP system should enable an MNO to augment the data sent to a UTM with the following: network-based positioning information of UAV and UAV controller.', '', '[R-5.1-017] The 3GPP system shall support the UTM in detection of UAV operating without authorization.', '', '[R-6.3-001] The 3GPP network shall be able to support network-based 3D space positioning (e.g., with altitude 30~300m) of a UE onboard UAV.', '', 'Table 7.3-1 lists typical scenarios and the corresponding positioning requirements for horizontal and vertical accuracy, availability, heading, latency, and UE speed.', '', '&lt;b&gt;Related requirements in TS 22.261:&lt;/b&gt;', '', 'The 5G system shall be able to make the position-related data available to an application or to an application server existing within the 5G network, external to the 5G network, or in the User Equipment. ', '', 'NOTE: \t\tthe position service latency can be tailored to the use cases.', '']</t>
+          <t>['', '[PR 5.11.6-1] The 5G system shall be able to support a mechanism to provide available sensing service in a target sensing service area.', '', '[PR 5.11.6-2] The 5G RAN shall be able to collect 3GPP sensing data from requested target sensing service area according to the operator’s policy.', '', 'NOTE 1:\tThe operator policy means to configure the target sensing service area, real time 3GPP sensing data collection or periodic collection etc.', '', '[PR 5.11.6-3] The 5G system shall be able to report the sensing result to the trusted third-party with refresh rate which is requested by the trusted third-party e.g. a map service provider, and controllable by the operator,\xa0according to a business agreement.', '', 'NOTE 2:\tThe sensing result can be the target object’s size, shape, position, moving\xa0direction, moving speed, etc.', '', '[PR 5.11.6-4] The 5G system shall support means for\xa0a trusted third-party application, e.g. a map service provider to configure sensing per location.', '', '[PR. 5.11.6-5] The 5G system shall be able to support the sensing service with given KPIs in Table 5.11.6-1.', '', 'Table 5.11.6-1\tPerformance requirements of sensing results for sensing at crossroads with/without obstacle', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency[ms]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate [s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Missed detection [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm [%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Sensing at crossroads with/without obstacle&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Outdoor &lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤100&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;NOTE\xa02&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤ 0.1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa01:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.11.6-1 are found in Section 3.1.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa02:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The value is sourced from [28].&lt;/span&gt;', '', 'NOTE:\tIn this use case base station is acting as sensing transmitter and/or sensing receiver. This is an example and other options can also be valid.', '']</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.5270145400899887</v>
+        <v>0.2365807748545536</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.5.5	Existing Features partly or fully covering Use Case Functionality&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.12.1	Description&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>22851-j00.docx</t>
+          <t>22856-j00.docx</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2128,47 +2128,47 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>['', 'Session 6.5 of TS 22.261 mainly introduces the relevant terms and related requirements of Hosted Services. Some typical requirements for service in network sharing are:', '', '&lt;span style="font-size:18pt"&gt;&lt;i&gt;5G is designed to meet diverse services with different and enhanced performances (e.g. high throughput, low latency and massive connections) and data traffic model (e.g. IP data traffic, non-IP data traffic, short data bursts and high throughput data transmissions).&lt;/i&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;i&gt;User plane should be more efficient for 5G to support differentiated requirements. On one hand, a Service Hosting Environment located inside of operator\'s network can offer Hosted Services closer to the end user to meet localization requirement like low latency, low bandwidth pressure. These Hosted Services contain applications provided by operators and/or trusted 3rd parties. On the other hand, user plane paths can be selected or changed to improve the user experience or reduce the bandwidth pressure, when a UE or application changes location during an active communication.&lt;/i&gt;&lt;/span&gt;', '', 'In addition, Chapter 4.23.9 of 23.502[7] provides some further work related with efficient user plane, which mainly describe additional PDU Session Anchor and Branching Point or UL CL controlled by I-SMF.', '']</t>
+          <t>['', "Virtual humans (or digital representations of humans, also referred to as 'avatars' in this use case) are simulations of human beings on computers [47]. There is a wide range of applications, such as games, film and TV productions, financial industry (smart adviser), telecommunications (avatars), etc. ", '', 'In the coming era, the technology of virtual humans is one of foundations of mobile metaverse service. A virtual human can be a digital representation of a natural person in a mobile metaverse service, which is driven by the natural person. Or a virtual human also can be a digital representation of a digital assistant driven by AI model. ', '', "Mobile metaverse services offer an important opportunity for socialization and entertainment, where user experience of the virtual world and the real world combine. This use case focuses on the scenario of a natural person's digital embodiment in a metaverse as a location agnostic service experience. A virtual human is customized according to a user's personal characteristics and shape preferences. Users wear motion capture devices, vibrating backpacks, haptic gloves, VR glasses to drive the virtual human in a meta-universe space for semi-open exploration. The devices mentioned above are 5G UEs, which need to collaborate with each other to complete the actions of user and get real-time feedback.", '', '----media/image30.png----', '', 'Figure\xa05.12.1-1: Virtual humans in metaverse (Source: &lt;a href="https://vr.baidu.com/product/xirang"&gt;https://vr.baidu.com/product/xirang&lt;/a&gt;, https://en.wikipedia.org/wiki/Virtual_humans)', '', 'For smooth experience, the motion-to-photon latency should be less than 20ms [48]. The motion-to-photon latency requires that the latency between the moment that players do one movement and the corresponding new videos shown in VR glasses and tactile from vibrating backpacks or haptic gloves should be less than 20ms. As the asynchrony between different modalities increases, users’ experience will decrease because uses are able to detect asynchronies. Therefore, the synchronisation among audio, visual and tactile is also very important. The synchronisation thresholds regarding audio, visual and tactile modalities measured by Hirsh and Sherrick are described as follows [49]. The obtained results vary, depending on the kind of stimuli, biasing effects of stimulus range, the psychometric methods employed, etc.', '', '-\taudio-tactile stimuli: 12 ms when the audio comes first and 25 ms when the tactile comes first to be perceived as being synchronous.', '', '-\tvisual-tactile stimuli: 30 ms when the video comes first and 20 ms when the tactile comes first to be perceived as being synchronous.', '', '-\taudio-visual stimuli: 20 ms when the audio comes first and 20 ms when the video comes first to be perceived as being synchronous.', '', 'NOTE 1:\tTaking audio-tactile stimuli as an example, when the audio comes first, users are not able to detect asynchronies if the tactile comes within 12ms. Accordingly, when the tactile comes first, users are not able to detect asynchronies if the audio comes within 25ms.', '', '', '']</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.5734978827351047</v>
+        <v>0.2048462563484151</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.5.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.12.1	Description&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>22837-j00.docx</t>
+          <t>22865-j00.docx</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>['', '[PR 5.5.6-1] Subject to operator policy, the 5G system shall be able to provide sensing result indicating disasters or other emergencies (e.g., flooding) in a given geographic area to authorized third parties in a timely manner.', '', '[PR 5.5.6-2] Subject to regional or national regulatory requirements and operator policy, the 5G system shall be able to provide its public warning system with a warning notification based on sensing result indicating disasters or other emergencies (e.g., flooding) in a given geographic area in a timely manner.', '', '[PR 5.5.6-3] Subject to operator policy, it shall be possible for an authorized third party to configure the 5G system to initiate sensing for disasters or other emergencies (e.g., flooding) in a given geographic area.', '', '[PR 5.5.6-4] The 5G system shall be able to support the following KPIs:', '', 'Table 5.5.6-1\tPerformance requirements of sensing for flooding in smart cities', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency[ms]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate [s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Missed detection [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm [%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;sensing for flooding in smart cities&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Outdoor&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤10&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤0.2]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE\xa02&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤ 1min&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 1min&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 0.1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa01:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.5.6-1 are found in Section 3.1.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa02:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;This value is for the water level. Description related to NOTE in clause 5.5.1 suggests 0.01 m. [≤0.2] is derived from the water level where people feel difficulty in walking.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa03:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Description related to NOTE in clause 5.5.1 suggests 2 minute-interval monitoring when the water level of the river rises quickly. &lt;/span&gt;', '']</t>
+          <t>['', 'In Mediterranean climate regions, forest fires are quite common in summer months due to temperature rise [14]. The early detection and monitoring of forest fire is important for fire suppression quickly and reducing the loss of human and property. Therefore, how to detect the forest fire in real time and accurately is an urgent problem to be solved. Another problem is that due to extremely low population density and complex geography, these regions are often not covered by terrestrial networks. ', '', 'UAV equipped with satellite access capabilities is a feasible method, mainly through the following steps:', '', '--\tThe UAV collects real-time information (including high-precision three-dimensional surface topographic data, real-time pictures, real-time video, etc.);', '', '--\tThis real-time information is transmitted to the forest fire monitoring centre via the 5G network with satellite access;', '', '--\tThe forest fire monitoring centre monitors whether there is a fire, and may request the position of the UAV and adjust its route;', '', '--\tThe positioning services request and adjustment command are sent to the UAV via the 5G network with satellite access.', '', 'Forest fire monitoring centre with AI system can optimize the route through real-time information collected by UAV. In addition, the 5G system provides high-precision positioning of the UAV, which has been specified in 3GPP TS 22.261 [2].  But for UAVs using only satellites access, 5G system is difficult to provide high-precision positioning service under low latency. The end-to-end delay of LEO based satellite access can reach 35 ms [2]. After 5G system gets the real-time location data of flying UAV, it sends them to a trusted third party (e.g., The forest fire monitoring centre equipped with AI system) for UAVs to assist flying.', '']</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.6621156476400103</v>
+        <v>0.1995071820606371</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.6.3		Service Flows&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.12.3	Service Flows&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>22843-j00.docx</t>
+          <t>22865-j00.docx</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2178,22 +2178,22 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>['', '----media/image7.emf----', '', 'Figure 5.6.3-1: Supporting UAV inflight monitoring', '', '1.\tThe logistics company uses UAV\xa0A and UAV\xa0B to perform delivery operations. UAVs planned flight paths shared a common portion, along waypoint #1 and waypoint #2.', '', '2.\tUAV/UAV-C\xa0A and UAV/UAV-C\xa0B register in 5G network and can communicate with UTM though 5G network.', '', '3.\tThe UAV-C A provides planned flight path\xa0#A information to UTM (e.g., flight path and required QoS along the planned flight path).', '', '4.\tUAV\xa0A receive the flight path information from UTM/UAS via 5G network and start flight mission.', '', '5.\tUTM requests 5G network for network condition information (e.g., bitrate, latency, reliability) along the flight path of UAV\xa0A.', '', '6.\tThe 5G network provides the requested statistics (e.g., end-to-end latency, QoE) for specific requested area/areas (e.g., degraded QoE at waypoint\xa0#2).', '', '7.\tThe UAV-C B provides planned flight path\xa0#B (along waypoint\xa0#1 and waypoint\xa0#2) information to UTM.', '', "8.\tUTM/UAS determines the final flight path\xa0#B (e.g., adjusted to take waypoint\xa0#2') and scheduling for UAV/UAV-C\xa0B based on the information from Operator\xa0A along UAV\xa0A flight route, and sends it to UAV/UAV-C\xa0B.", '', '9.\tUAV\xa0B receive the flight path\xa0#B information from UTM/UAS via 5G network and start flight mission.', '']</t>
+          <t>['', '1. The UAV A takes a real-time picture with its 4-way 4K full-angle camera; ', '', '2. The picture is transmitted to the forest fire monitoring centre via the 5G network with satellite access network. This would require high data rate (e.g., 120Mbit/s) in UL direction.', '', '3. The forest fire monitoring centre uses the AI system to determine whether there is a fire, according to the received picture. In case of fire, the forest fire monitoring centre will request the position of the UAV.', '', '4. After receiving the positioning service request, the 5G network detects an error that the negotiated location delivery latency cannot be guaranteed. Then, it provides a lower position accuracy to ensure latency.', '', '5. If the forest fire monitoring centre decides to adjust the route of UAV A, it will send adjustment commands to the UAV via the 5G network with satellite access network, which requires low delay and high reliability in DL direction.', '']</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.5549423931360536</v>
+        <v>0.1909307326477842</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.6.5		Existing features partly or fully covering the use case functionality&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.12.5	Existing features partly or fully covering the use case functionality&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>22843-j00.docx</t>
+          <t>22856-j00.docx</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2203,22 +2203,22 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>['', 'Existing related service requirements are captured in 3GPP\xa0TS\xa022.125\xa0[3] clause\xa06.2 "Network exposure for UAV services".', '', '[R-6.2-001] The 3GPP system shall provide means to allow a 3&lt;sup&gt;rd&lt;/sup&gt; party to request and obtain real-time monitoring the status information (e.g., location of UAV, communication link status) of a UAV.', '', "[R-6.2-002] Based on operator 's policy, the 3GPP system shall provide means to provide a 3&lt;sup&gt;rd&lt;/sup&gt; party with the information regarding the service status for UAVs in a certain geographical area and/or at a certain time.", '', 'NOTE:\tService status is about the information of whether the communication service to the UAV can be provided with a certain QoS by the network.', '', 'These requirements do not include explicit requirements on QoS related network conditions like bitrate, latency and reliability.', '']</t>
+          <t>['', '3GPP TS 22.261 [6] specifies KPIs for high data rate and low latency interactive services including Cloud/Edge/Split Rendering, Gaming or Interactive Data Exchanging, Consumption of VR content via tethered VR headset, and audio-video synchronization thresholds.', '', 'Support of audio-video synchronization thresholds has been captured in TS 22.261:', '', '\tDue to the separate handling of the audio and video component, the 5G system will have to cater for the VR audio-video synchronisation in order to avoid having a negative impact on the user experience (i.e. viewers detecting lack of synchronization). To support VR environments, the 5G system shall support audio-video synchronisation thresholds:', '', '-\tin the range of [125 ms to 5 ms] for audio delayed and', '', '-\tin the range of [45 ms to 5 ms] for audio advanced.', '', 'Existing synchronization requirements in current SA1 specification are only for data transmission of one UE. Existing specifications do not contain requirements for coordination of synchronization transmission of data packet for multiple UEs.', '']</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.5592027956857066</v>
+        <v>0.1791252165432054</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.6.5	Existing features partly or fully covering the use case functionality&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.12.5	Existing features partly or fully covering use case functionality&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>22856-j00.docx</t>
+          <t>22865-j00.docx</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2228,22 +2228,22 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>['', 'In clause 6.43.2 of 3GPP TS 22.261, there are the following requirements:', '', 'The 5G system shall enable an authorized 3rd party to provide policy(ies) for flows associated with an application. The policy may contain e.g. the set of UEs and data flows, the expected QoS handling and associated triggering events, and other coordination information.', '', 'The 5G system shall support a means to apply 3rd party provided policy(ies) for flows associated with an application. The policy may contain e.g. the set of UEs and data flows, the expected QoS handling and associated triggering events, and other coordination information.', '', 'NOTE:\tThe policy can be used by a 3rd party application for the coordination of the transmission of multiple UEs’ flows (e.g., haptic, audio, and video) of a multi-modal communication session.', '', '5.6.6\tPotential New Requirements needed to support the use case&lt;span style="font-size:28pt"&gt; &lt;/span&gt;[PR 5.6.6-1] The 5G System shall support the transmission of uplink sensor data transmission and downlink feedback information with stringent requirements on packet delay and bandwidth for real-time interaction.', '', '[PR.5.6.6-2] The 5G System shall support a mechanism to obtain the location and gestures of the players with stringent requirements on 3D positioning accuracy.', '', 'KPI requirements related to the potential requirements:', '', '&lt;b&gt;Table\xa05.6.6-1 – Potential key performance requirements for immersive gaming and live shows&lt;/b&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Use Case&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Characteristic parameter (KPI)&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;End-to-end latency&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Service bit rate: user-experienced data rate&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Reliability&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Positioning accuracy&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Mobile Metaverse for immersive gaming and live shows&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[5~20] ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[1~1000] Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[&amp;gt;99.99%]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[&amp;lt;1] m&lt;/span&gt;', '', '', '']</t>
+          <t>['', 'There are a few position requirements specified in 3GPP TS 22.125 [15], which have been described as:', '', '&lt;i&gt;[R-5.1-009] The 3GPP system should enable an MNO to augment the data sent to a UTM with the following: network-based positioning information of UAV and UAV controller.&lt;/i&gt;', '', '&lt;i&gt;NOTE 1: &lt;/i&gt;\t&lt;i&gt;This augmentation may be trust-based (i.e. the MNO informs the UTM that the UAV position information is trusted) or it may be additional location information based on network information, such as OTDOA, cell coordinates, synchronization source, etc.&lt;/i&gt;', '', '&lt;i&gt;NOTE 2: &lt;/i&gt;\t&lt;i&gt;This requirement will not be applied to the case which the UAS and UTM has direct control communication connection without going through MNO, such as OTDOA, cell coordinates, synchronization source, etc.&lt;/i&gt;', '', '&lt;i&gt;[R-5.1-012] The 3GPP system shall enable a UAS to update a UTM with the live location information of a UAV and its UAV controller.&lt;/i&gt;', '', '&lt;i&gt;[R-5.1-013] The 3GPP network should be able to provide supplement location information of UAV and its controller to a UTM.&lt;/i&gt;', '', '&lt;i&gt;NOTE 3: &lt;/i&gt;\t&lt;i&gt;This supplement may be trust-based (i.e. the MNO informs the UTM that the UAV position information&lt;/i&gt; is &lt;i&gt;trusted) or it may be additional location information based on network information.&lt;/i&gt;', '', 'There are also a few position requirements specified in 3GPP TS 22.261 [2], which have been described as:', '', '&lt;i&gt;The 5G system shall support mechanisms to determine the UE’s position-related data for period when the UE is outside the coverage of 3GPP RAT-dependent positioning technologies but within the 5G positioning service area (e.g. within the coverage of satellite access).&lt;/i&gt;', '', 'In 3GPP TS 22.071 [x], the following location service requirements are captured:', '', '&lt;i&gt;The precision of the location shall be network design dependent, i.e., should be an operator’s choice. This precision requirement may vary from one part of a network to another.&lt;/i&gt;', '', 'About horizontal accuracy:', '', '&lt;i&gt;The LCS service shall provide techniques that allow operators to deploy networks that can provide at least the level of accuracy required by the regional regulatory bodies.&lt;/i&gt;', '', '&lt;i&gt;10m-50m: Asset Location, route guidance, navigation&lt;/i&gt;', '', 'About vertical accuracy:', '', '&lt;i&gt;For Value Added Services, and PLMN Operator Services, the following is applicable:&lt;/i&gt;', '', '&lt;i&gt;-&lt;/i&gt;\t&lt;i&gt;When providing a Location Estimate, the LCS Server may provide the vertical location of a UE in terms of either absolute height/depth or relative height/depth to local ground level. The LCS Server shall allow an LCS Client to specify or negotiate the required vertical accuracy. The LCS Server shall normally attempt to satisfy or approach as closely as possible the requested or negotiated accuracy when other quality of service parameters are not in conflict.&lt;/i&gt;', '', '&lt;i&gt;-&lt;/i&gt;\t&lt;i&gt;The vertical accuracy may range from about three metres (e.g. to resolve within 1 floor of a building) to hundreds of metres.&lt;/i&gt;', '', 'About location delivery latency:', '', '&lt;i&gt;Location Delivery Latency (Time to First Fix) is set at a maximum of 30 seconds from the time the user initiates an emergency service call to the time it is available at the location information center.&lt;/i&gt;', '']</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.6079451639677238</v>
+        <v>0.1841692230512538</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.6.6		Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.12.6	Potential New Requirements needed to support the use case	&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>22843-j00.docx</t>
+          <t>22856-j00.docx</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2253,17 +2253,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>['', '[P.R 5.6.6-001] Based on operator’s policy, the 5G system shall be able to provide a method to monitor and provide a 3rd party with information about network conditions and QoS (e.g. bitrate, latency, reliability) along a UAV flight path.', '', '[P.R 5.6.6-002] Based on operator’s policy, the 5G system shall be able to provide a method to monitor and provide a 3rd party with information about deviations and violations along a UAV flight path and time.', '', 'NOTE:\tDeviations can be e.g. in location and/or time with respect to the original flight plan. Violations can be e.g. with respect to exclusion zones provided together with the flight plan or known via other means.', '']</t>
+          <t>['', '[PR 5.12.6-1]\tThe 5G system shall provide a mechanism to support coordination and synchronization of multiple data flows transmitted via one UE or different UEs, e.g., subject to synchronization thresholds provided by 3&lt;sup&gt;rd&lt;/sup&gt; party. ', '', '[PR 5.12.6-2]\tThe 5G system shall provide means to achieve low end-to-end round-trip latency (e.g., [20ms]).', '', '', '']</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.5937733520479671</v>
+        <v>0.2031039787772597</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.6.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.12.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2273,22 +2273,22 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>['', '[PR 5.6.6-1] Subject to operator policy, the 5G system shall be able to collect 3GPP sensing data and yield sensing result from the data for detection of outdoor objects.', '', '[PR 5.6.6-2] The 5G system shall be able to support the following KPIs:', '', 'Table 5.6.6-1\tPerformance requirements of intruder detection in surroundings of smart home', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency[ms]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate [s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Missed detection [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm [%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;intruder detection in surroundings of smart home&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Outdoor&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤2&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤1000&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 0.1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.6.6-1 are found in Section 3.1.&lt;/span&gt;', '']</t>
+          <t>['', '[PR 5.12.6-1] The 5G system shall be able to provide a sensing service to track one specific target object and the environment around the target object with the sensing assistance information provided by the UE on board the specific target object or authorized third-party.', '', '[PR 5.12.6-2] The base stations shall be able to sense multiple specific target objects and their environments at the same time.', '', ' [PR 5.12.6-3] The 5G system shall be able to provide a mechanism controllable by the operator,\xa0according to a business agreement, for a trusted third-party to request the sensing service related with a certain target object or multiple target objects of a certain location area.', '', '[PR 5.12.6-4] Based on &lt;span style="color:000000;font-size:21pt"&gt;operator policy, &lt;/span&gt;the 5G system shall be able to provide a mechanism for a trusted third-party to request per location area different sensing services configuration (e.g. sensing KPI, report refresh rate etc.).', '', '[PR 5.12.6-5] The 5G system shall be able to report sensing result of the environment around a specific target object to a trusted third-party.', '', 'NOTE\xa02: \tThe sensing result of the environment for example can be its position, the size of obstacles around, and other moving objects nearby.', '', '[PR 5.12.6-6] The 5G system shall be able to provide sensing service with follow KPIs:', '', 'Table 5.12.6-1\tPerformance requirements of sensing results for network assisted sensing to avoid UAV collision', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area &lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[ms]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[s]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Missed detection&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Network assisted sensing to avoid UAV collision&lt;/span&gt;', '', '&lt;span style="color:242424;font-size:16pt"&gt;Outdoor&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa02&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1 NOTE 2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa02&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;500&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa01:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.12.6-1 are found in Section 3.1.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa02:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;T&lt;/span&gt;he KPI values are sourced from [25] and [40].', '', "Editor's Note: Other potential new requirements are FFS.", '', 'NOTE 3:\tIn this use case base station is acting as sensing transmitter and/or sensing receiver. This is an example and other options can also be valid.', '']</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.6771617282013017</v>
+        <v>0.2411696712070197</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.7.3	Service Flows&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.13.5	Existing features partly or fully covering use case functionality&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2303,97 +2303,97 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>['', '1. Ed is hiking along the planned route in the Amazon Rainforest, with good connection to ground network through satellite access.', '', '2. Suddenly, Ed is knocked by a piece of deadwood and his left arm is wounded.', '', '3. Ed can not go on his ride with poor medical measures, so he dials the rescue phone number for help.', '', '4. Based on the position information of Ed provided by SatA and TerrB, the rescue center finds Bell is the nearest rescuer and transfers the call to Bell.', '', '5. Bell answers the phone call with satellite access and tries to find Ed based on the real-time position information of Ed. For lower communication latency, this phone call is routed by only one satellite without going through the ground network of TerrA and TerrB.', '']</t>
+          <t>['', 'Regarding TS 22.261[2] as below, UE using satellite access shall have the capability to offer the location, and 5G system needs to determine the location for service, but not consider the situation that the location cannot be decided by UE alone. ', '', '&lt;i&gt;A UE supporting satellite access shall be able to provide or assist in providing its location to the 5G network.&lt;/i&gt;', '', "&lt;i&gt;A 5G system with satellite access shall be able to determine a UE's location in order to provide service (e.g. route traffic, support emergency calls) in accordance with the governing national or regional regulatory requirements applicable to that UE. &lt;/i&gt;", '', 'The legacy requirements for positioning service defined in TS 22.261 [2] are not well adapted to all types of UE with satellite access considering the satellite characteristics (e.g. latency). ', '', '&lt;i&gt;The 5G system shall provide 5G positioning services in compliance with regulatory requirements.&lt;/i&gt;', '', '&lt;i&gt;The 5G network shall be able to request the UE to provide its position-related-data on request—together with the accuracy of its position—triggered by an event or periodically and to request the UE to stop providing its position-related data periodically.&lt;/i&gt;', '', "&lt;i&gt;The 5G System with satellite access shall be able to negotiate the positioning methods according to the operator's policy or the application’s requirements or the user's preferences and shall support mechanisms to allow the network or the UE to trigger this negotiation.&lt;/i&gt;", '']</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.6424575790978876</v>
+        <v>0.1832100336191919</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.7.5	Existing features partly or fully covering the use case functionality&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.13.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>22882-j00.docx</t>
+          <t>22837-j00.docx</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>['', 'The QoS monitoring requirements have been specified in the TS22.261 section 6.23. But it has not any consideration on energy consumption. Some related requirements are listed below:', '', '&lt;i&gt;The 5G system shall be able to provide real time QoS parameters and events information to an authorized application/network entity. &lt;/i&gt;', '', '&lt;i&gt;NOTE 2:&lt;/i&gt;\t&lt;i&gt;The QoS parameters to be monitored and reported can include latency (e.g. UL/DL or round trip), jitter, and packet loss rate.&lt;/i&gt;', '', '&lt;i&gt;The 5G system shall support different levels of granularity for QoS monitoring (e.g. per flow or set of flows)&lt;/i&gt;', '', '&lt;i&gt;The 5G system shall support an update/refresh rate for real time QoS monitoring with a specified value (e.g., at least one update per second)&lt;/i&gt;', '', 'In TR 28.829 [25], there are solutions of collect network information of energy utility via OA&amp;amp;M. ', '', 'In TR28.913 [26], section 4.6, the key issue is to add reliability KPI into the URLLC network slice energy efficiency formula. In this key issue, the energy efficiency is calculated in the 3GPP domain, the related information is not exposed together to external.', '']</t>
+          <t>['', '[PR 5.13.6-1] The 5G system shall be able to provide a sensing service by using RAN to collect 3GPP sensing data.', '', '[PR 5.13.6-2] The RAN shall be able to sense a target object by obtaining 3GPP sensing data without active involvement of the target object.', '', '[PR 5.13.6-3] The 5G system shall provide mechanisms for an operator to transport 3GPP sensing data from RAN towards the core network.', '', '[PR 5.13.6-4] Based on operator’s policy and subject to regulatory requirements, the 5G system shall be able to provide a mechanism for a trusted third-party to request the sensing service and based on the request, the base station shall be able to operate sensing periodically or continuously in certain location area for a certain amount of time.', '', '[PR 5.13.6-5] Based on operator’s policy and subject to regulatory requirements, the 5G system shall be able to periodically expose sensing results to a trusted third-party application.', '', '[PR 5.13.6-6] The 5G system shall provide a mechanism controllable by the operator, according to a business agreement, to report sensing result to a trusted third-party about a target object and multiple target objects when specific conditions are met.', '', ' NOTE:\tThese conditions could be the target object distance from the restricted area border less than 10m or entering restricted area.', '', '[PR 5.13.6-7] The 5G system shall be able to support the activation and deactivation of the sensing service according to operator’s policy.', '', '[PR 5.13.6-8] The 5G system shall be able to provide a mechanism for network operator to configure and adjust sensing operation (e.g. authorization, sensing area, sensing operation period and sensing operation time window etc.) based on request from a trusted third-party.', '', '[PR 5.13.6-9] The 5G system shall be able to provide sensing with following KPIs:', '', 'Table 5.13.6-1\tPerformance requirements of sensing results for UAV intrusion detection', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area &lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[ms]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[s]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Missed detection&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;UAV intrusion detection&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE\xa02&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Level 1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Outdoor&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤10&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤10&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;10&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[5]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤1000]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤1]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤5&lt;/span&gt;', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Levle2&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Outdoor&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;10&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[5]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤1000]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤1]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa01:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.13.6-1 are found in Section 3.1.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa02: &lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Level 1 and level 2 depend on the size of the restriction area to be sensed.&lt;/span&gt;', '', 'NOTE:\tIn this use case base station is acting as sensing transmitter and/or sensing receiver. This is an example and other options can also be valid.', '']</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.5539725274224939</v>
+        <v>0.2390467502569599</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.7.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.14.1	Description&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>22837-j00.docx</t>
+          <t>22882-j00.docx</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR3_other</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>['', '[PR 5.7.6-1] Subject to operator policy, the 5G system shall enable the core network to collect and aggregate 3GPP sensing data data from RAN.', '', '[PR 5.7.6-2] Subject to operator policy, the 5G system shall enable the core network to expose a suitable API to provide the information regarding sensing results to authorized third parties.', '', '[PR 5.7.6-3] The 5G system shall be able to support the following KPIs:', '', 'Table 5.7.6-1\tPerformance requirements of sensing results for railway intrusion detection', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency[ms]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate [s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Missed detection [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm [%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;Intrusion detection on a railway&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;Outdoor (Along railway)&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;≤1.5&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;˂1500&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;≤ 0.1&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.7.6-1 are found in Section 3.1.&lt;/span&gt;', '', 'NOTE:\tIn this use case base station and UE is acting as sensing transmitter and/or sensing receiver. This is an example and other options can also be valid.', '']</t>
+          <t>['', 'Global warming caused by excessive emissions of GHG (e.g., carbon dioxide) due to human activity (e.g., burning fossil fuels for electricity generation) is the main driver to climate change, which poses a significant threat to society and the environment. &lt;span style="color:000000"&gt;To achieve carbon neutrality, it is important to reduce the GHG incl. carbon emissions in the first place rather than offset them later. Recent advancements in communication and computing capabilities of networks (e.g., 5GS, cloud services) enables offloading tasks to networked and distributed computing nodes (e.g., edge computing, cloud computing) for a wide range of services. However, the rising demand for such services in turn triggers a rising demand for energy and a greater risk of an even higher resulting GHG footprint. 3GPP plays a crucial role in the ICT sector to enable the deployment of these technologies on a global scale and therefore must also play a central role in enabling a sustainable future.&lt;/span&gt;', '', 'The adoption of alternative sustainable sources of energy incl. renewable energy (e.g., solar, wind, hydropower, geothermy) could help offset the GHG footprint of energy generation based on fossil fuels, even though their corresponding environmental impact also need to be considered. From an ICT standpoint and, 3GPP system in particular, the energy used by computing nodes in networks can be from varied energy with different related levels of environmental impact incl. GHG emissions. Due to the highly variable and unpredictable nature of renewable energy sources, the supply of renewable energy varies substantially by time and location. Hence, it is critical to take temporal and spatial dimensions of energy sources into account to accomplish compute tasks not only for a better traceability of the energy sources used but in turn for enabling a more sustainable energy use to achieve those tasks.', '', 'Up until now usually a system is designed to finish compute tasks as soon as possible (high throughput) and indicate results to the requester as soon as possible (low latency). However, some compute tasks have flexibility in both when and where they are executed, i.e., such type of workload could be executed in any computing node and tolerate some delays if the workload gets completed within certain given deadline. For example, some of AI/ML training, simulation, and video processing tasks might not require a quick response, which would &lt;span style="color:000000"&gt;allow flexibility to delay the execution of the related workloads in a computing node until, e.g., the utilized energy is deemed satisfactory in terms of GHG emissions. Such flexibility further allows to route workloads to a computing node using the (most) sustainable energy sources at that moment. As part of service, 3GPP system is able to execute compute tasks in a sustainable way by leveraging such flexibility.&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;In addition, consuming the renewable energy immediately when they are available, instead of storing them for the future use (e.g., in a big battery system), can also bring some economic benefits to operators or service providers, because this can reduce the cost and investment for scaling the energy storage system needed by the overall system. &lt;/span&gt;', '', 'In the following use case, by considering the temporal and spatial information of sustainable energy source and availability, the possibility of reduction of the GHG footprint for application services is explored.', '']</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.6701871539113655</v>
+        <v>0.2127961063691381</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.7.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.14.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>22856-j00.docx</t>
+          <t>22837-j00.docx</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>['', '[PR 5.7.6-1] Subject to operator policy, the 5G system shall support a means to provide high data rate transmission to a UE during an extended period of time, including when in high-speed mobility.', '', 'NOTE 1:\tMetaverse service experience over an extended period of time (e.g. 2h) requires significant power consumption by the UE. In some cases, a device with no external power supply cannot sustain downloading and rendering of media over a long interval, e.g. for the duration of an entire feature film or athletic event.', '', '[PR 5.7.6-2] Subject to operator policy, the 5G system shall support a mechanism that enables flexible adjustment of communication services based on the type of devices (e.g., wearables), such that the services can be operated with reduced energy utilization.', '', '[PR 5.7.6-3] Subject to operator policy, the 5G system shall support a means to enable interactive immersive multiparty communications in the metaverse service.', '', 'NOTE 2: The multiparty immersive communication (e.g. amongst multiple friends) could be location related or location agnostic.', '', 'Table\xa05.7.6-1 – Potential key performance requirements for Immersive AR interactive experience: tethered link', '', '', '', 'Characteristic parameter (KPI)', '', 'Influence quantity', '', '', '', 'Max allowed end-to-end latency', '', 'Service bit rate: user-experienced data rate', '', 'Reliability', '', '# of UEs', '', '', '', 'UE Speed', '', 'Service Area', '', '', '', 'Viewports streaming from rendering device to AR glasses through direct device connection', '', '(tethered/relaying case)', '', '(note 1)', '', '&lt;b&gt;10 ms (i.e., UL+DL between AR Glasses display and the rendering UE) (note 2)&lt;/b&gt;', '', '[200-2000] Mbit/s', '', '&lt;b&gt;99,9 % (note 2)&lt;/b&gt;', '', '&lt;b&gt;1-2&lt;/b&gt;', '', 'Stationary or pedestrian', '', '', '', 'Pose information from AR glasses to rendering device through direct device connection', '', '(tethered/relaying case)', '', '(note 1)', '', '&lt;b&gt;5 ms (note 2)&lt;/b&gt;', '', '[100-400] Kbit/s (note 2)', '', '&lt;b&gt;99,99 % (note 2)&lt;/b&gt;', '', '&lt;b&gt;1-2&lt;/b&gt;', '', 'Stationary or pedestrian', '', '\t', '', 'Note 1: These KPIs are only valid for cases where the viewport rendering is done in the tethered device and streamed down to the AR glasses. In the case of rendering capable AR glasses, these KPIs are not valid.', '', 'Note 2: These values are aligned with the tactile and multi-modal communication KPI table in TS 22.261 [5], cl 7.11', '', '', '', 'Table\xa05.7.6-2 – Potential key performance requirements for Immersive AR interactive experience: NG-RAN multimodal communication link', '', '', '', '', '', 'Characteristic parameter (KPI)', '', 'Influence quantity', '', '', '', 'Max allowed end-to-end latency', '', 'Service bit rate: user-experienced data rate', '', 'Reliability', '', '# of UEs', '', '', '', 'UE Speed', '', 'Service Area', '', '', '', 'Movie streaming from metaverse server to the rendering device', '', '(note 2)', '', '&lt;b&gt;Only relevant for live streaming.&lt;/b&gt;', '', '&lt;b&gt;[1-5] s in case of live streaming&lt;/b&gt;', '', '[0,1-50] Mbit/s (i.e., covering a complete OTT ladder from low resolution to 3D-8K)', '', '(note 1)', '', '&lt;b&gt;99,9 %&lt;/b&gt;', '', '&lt;b&gt;1 to [10]&lt;/b&gt;', '', '[up to 500 km/h]', '', '-', '', 'Avatar information streaming between remote UEs (end to end)', '', '(note 3)', '', '&lt;b&gt;20 ms (i.e., UL between UE and the interface to metaverse server + DL back to the other UE)&lt;/b&gt;', '', '[0,1-30] Mbit/s', '', '&lt;b&gt;99,9 %&lt;/b&gt;', '', '&lt;b&gt;1 to [10]&lt;/b&gt;', '', '[up to 500 km/h]', '', '-', '', 'Interactive data exchange: voice and text between remote UEs (end to end)', '', '(note 4)', '', '&lt;b&gt;20 ms (i.e., UL between UE and the interface to metaverse server + DL back to the other UE)&lt;/b&gt;', '', '[0,1-0,5] Mbit/s ', '', '&lt;b&gt;99,9 %&lt;/b&gt;', '', '&lt;b&gt;1 to [10]&lt;/b&gt;', '', '[up to 500 km/h]', '', '-', '', 'Note 1: These values are aligned with “high-speed train” DL KPI from TS 22.261 [5] cl 7.1', '', 'Note 2: To leverage existing streaming assets and delivery ecosystem, it is assumed that the legacy streaming data are delivered to the rendering device, which incrusts this in the virtual screen prior to rendering. For a live streaming event, the user-experience end-to-end latency is expected to be competitive with traditional live TV services, typically [1-5] seconds.', '', 'Note 3: For example, the glTF format [60] can be used to deliver avatar representation and animation metadata in a standardized manner. Based on this format, the required bitrate for transmitting such data is highly dependent on avatar’s complexity (e.g., basic model versus photorealistic).', '', 'Note 4: These values are aligned with “immersive multi-modal VR” KPIs in TS 22.261 [5], cl 7.11. End-to-end latency in this table is calculated as twice the value of the DL “immersive multi-modal VR” latency in TS 22.261 [5], cl 7.11.&lt;u&gt; &lt;/u&gt;', '', '', '']</t>
+          <t>['', '[PR 5.14.6-1] The 5G system shall be able to provide means to use base station(s) to perform sensing in certain area. ', '', '[PR 5.14.6-2] Subject to regulatory requirements and operator policy, the 5G system shall be able to expose sensing results to a trusted third-party application.', '', '[PR 5.14.6-3] Subject to regulatory requirements and operator policy, the 5G system shall be able to support the activation and deactivation of the sensing service based on location.', '', '[PR 5.14.6-4] The 5G system shall be able to provide sensing service with KPIs given in Table 5.14.6-1.', '', 'Table 5.14.6-1\tPerformance requirements of sensing results for tourist spot traffic management', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area &lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[ms]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[s]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Missed detection&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Tourist spot traffic management&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Outdoor&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤2]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[1]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[1]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[1]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤5000]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤0.2]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE\xa02&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE\xa02&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa01:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.14.6-1 are found in Section 3.1.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa02:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Missed detection or false alarm describes missing to acquire a sensing result or acquiring a wrong sensing result which referring to a target object (a person or a vehicle), in this use case will be missing detect a person or a vehicle, not referring to the number of a crowd of people or vehicles.&lt;/span&gt;', '', 'NOTE:\tIn this use case base station is acting as sensing transmitter and/or sensing receiver. This is an example and other options can also be valid.', '']</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.6334426128454733</v>
+        <v>0.2441993284563028</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.8.1		Description&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.15.2	Pre-conditions&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>22843-j00.docx</t>
+          <t>22882-j00.docx</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2403,22 +2403,22 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>['', 'Reliability of UAV traffic is a very important challenge and target for the aviation industry, e.g., for command and control (C2) or other critical data. One scenario of interest includes UAVs, provided with dual SIM/subscription, able to connect simultaneously via two networks for transferring different type of traffic, e.g., using the most reliable network for C2 or other critical data, while other type of traffic is transmitted over the second network. ', '', 'As an example, let us assume the case of a UAV company (“SafeSky”) that offers monitoring and surveillance services for specific venues (e.g., stadiums) or public events. Their drones are 5G-capable and configurable with dual subscription, one for nationwide PLMN connectivity (with MNO-A), one for ad-hoc UAV coverage using networks deployed in specific public safety venues/locations (can be a PLMN or NPN, managed by MNO-A or other MNO).', '', 'In such scenario, when there is available coverage from both NWs, SafeSky can configure their UAVs to transfer C2 traffic with a local UAV-Controller (UAV-C) via the ad-hoc PLMN1/NPN (most suitable for low volume/data rate, but very stringent real-time latency and reliability), while less critical user data is exchanged with the UAV Supplier Service (USS) and UTM via the wide-area PLMN2 coverage. This is illustrated, at high level, in Figure 5.8.1-1, where PLMN1/NPN is the local NW and PLMN2 is the wide area network.', '', '----media/image9.png----', '', 'Figure 5.8.1-1: Example of separating UAV traffic over two PLMNs', '', 'In other examples, different traffic differentiation configurations are possible (in a similar venue scenario), e.g., UAVs may transfer real-time critical payload traffic (e.g., streaming a 4K video of a sport event) with a local endpoint via the ad-hoc PLMN1/NPN, while C2 and UAV monitoring data via the wide-area PLMN2 network.', '']</t>
+          <t>['', 'Eva watches videos during the commute. She receives 5G service from the mobile network operator A.', '', 'The 5G system operated by operator A is powered by both of renewable energy (e.g., solar energy) and non-renewable energy (e.g., coal). The ratio of renewable energy measures the ratio of the power that is used from renewable energy sources as a percentage of total power usage in a given time unit. Calculation of ratio of renewable energy is done by means of averaging or applying a statistical model.', '', 'The operator A offers a “green communication service option”, in which the service has adaptable QoS levels considering the ratio of renewable energy and the subscriber’s preferences, e.g., the operator A can provide a communication service with bit rate of 30Mbps and low ratio of renewable energy, which can be adapted to the service with bit rate is 10Mbps when high ratio of renewable energy is more desirable to the subscriber.', '', 'The operator A monitors the supply of renewables for its 5G system and adjust the operation of communication services. Following the pre-agreed QoS requirements with a subscriber, the operator A adjusts the communication services based on the supply of renewable energy. ', '', 'Eva loves our planet, so she subscribes the optional green communication service. Therefore, the operator can determine to use a higher latency but greener network function entities (e.g., located in a faraway but powered by 80%+ renewable energy large scale computing/communication center) to provide services to Eva. ', '', 'NOTE: This green service ensures that QoS level criteria continues to be met (i.e., there is no trade-off between energy efficiency and service quality) since all the adapted QoS levels are satisfied by the subscriber based on the pre-agreement.', '']</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.5597900734724914</v>
+        <v>0.1977569974376552</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.8.5	Existing features partly or fully covering the use case functionality&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.15.3	Service Flows&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>22882-j00.docx</t>
+          <t>22865-j00.docx</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2428,47 +2428,47 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>['', 'EE TS 28.310 specifies the work in 3GPP related to energy efficiency. It specifies use cases relating to energy efficiency such as switching off edges UPFs for low-latency communication in certain geographical areas when no user is actively using them. Based on the scenarios the document presents requirements to be considered to support energy efficiency. The main requirements among them are requirements related to Power, Energy and Environmental measurements as well as requirements concerning energy saving. ', '', 'This use case uses the existing 3GPP features as input for the application-level energy efficiency prediction, without providing an overlapping capability. In particular, the energy monitoring and optimization tasks in OAM cannot consider per application / session energy monitoring/predictions, and are limited to the energy calculation and monitoring per managed element (e.g. NG-RAN, UPF, slice...). ', '']</t>
+          <t>['', '1)\tThe devices on UAM vehicle A and B register with the Ter-OP network. ', '', '2)\tUAM vehicle A is flying out of Ter-OP network coverage, thus its device has a connection to the satellite operated by Sat-OP.', '', '3)\tUAM vehicle B is ready to fly in the ground station, and hence its device has a connection to the Ter-OP network.', '', '4)\tBefore or Just after taking off, UAM vehicle B needs to gather the information on the movement of other flying vehicles including vehicle A. The data traffic between UAM vehicle A and B is routed though the satellite and terrestrial networks. ', '', '5)\tUAM vehicle B keeps gathering the movement information of vehicle A even after it moves out of Ter-OP network coverage. Since the information exchange between UAM vehicles should be performed in real time (with very low latency), the vehicles communicate with each other via satellite directly without going through the ground network.', '', '6)\tAfter then, as UAM vehicle B approaches the ground, it has a connection to the terrestrial network. ', '', '7)\tThe traffic between UAM vehicle A and B is going through the satellite and terrestrial network. ', '', '8)\tAs a result, the communication between UAM vehicle A and B keep going without any discontinuation of service. ', '']</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.6310394252531588</v>
+        <v>0.207058510546373</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.8.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.15.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>22856-j00.docx</t>
+          <t>22837-j00.docx</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>['', '[PR 5.8.6-1] The 5G system shall provide the capability of reducing the differences between different mobile metaverse services communication performance for a given UE to prevent inconsistency of experience due to XR media with divergent or conflicting characteristics, e.g., resolution, latency or packet loss.', '', 'NOTE:\tThe UE can provide communication services for more than one terminal equipment. ', '']</t>
+          <t>['', '\t[PR 5.15.6-1] The 5G system shall support mechanisms to discover and configure a UE and a base station to perform sensing measurement process in a certain sensing service location area.', '', '[PR 5.15.6-2] The 5G system shall support mechanisms to derive and expose sensing results to a trusted third-party.', '', '[PR 5.15.6-3] The 5G system shall be able to provide 5G wireless sensing service with the following KPIs:', '', 'Table 5.15.6-1\tPerformance requirements of sensing results for contactless sleep monitoring', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Human motion rate accuracy&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[Hz]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency[ms]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate [s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Missed detection [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm [%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Sleep monitoring&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Outdoor (bedroom)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.033&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa02&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;60s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;60&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5 NOTE\xa03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa01:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.15.6-1 are found in Section 3.1.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa02:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Respiration rate = 18 times/min as reference, any detected value in [16,20] satisfies accuracy requirements, 0.033Hz corresponds to 2 times/min.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa03:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Detect event = “breathing stoppages duration &amp;gt;= 10 seconds” as reference.&lt;/span&gt;', '', 'NOTE:\tIn this use case base station and UE is acting as sensing transmitter and/or sensing receiver. This is an example and other options can also be valid.', '']</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.6161758231208476</v>
+        <v>0.2426789170503918</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.9.1	Description&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.19.1	Description&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>22865-j00.docx</t>
+          <t>22856-j00.docx</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2478,17 +2478,17 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>['', 'Network deployment in sparsely populated areas has been a major concern worldwide due to numerous challenges like affordability, infrastructure unavailability, and landscape or topographic conditions. Satellite connectivity can help to serve such areas. However, satellite access may not suffice in all scenarios (for low latency and high throughput applications) and there may be a need for terrestrial network deployment also. In such a situation, satellite connectivity can also facilitate information collection related to UE location and usage statistics, which can later be used for terrestrial network planning in these areas. ', '', 'Connectivity can be provided in sparsely populated areas through satellite access using direct or indirect access through relay nodes/relay UEs (as shown in Figure 5.9.1-1). This eliminates the requirement of everyone having to use satellite UEs. The service provider can implement a subset of Minimization Drive Test (MDT) procedures to collect information such as location of the UEs through satellite connectivity that can be used by Network Management System (NMS). In addition, usage statistics (for UEs) may also be collected and analysed for the purpose of terrestrial network planning.', '', '----media/image11.png----', '', 'Figure 5.9.1-1: Connectivity and data collection from UEs through Satellite Access', '']</t>
+          <t>['', 'With the proliferation of APIs in existing mobile applications already creating an extensive market for application exposure, API integration in emerging Metaverse applications and features is likely to emerge as a major functionality for enhancing experiences across extended reality functions that builds upon already-existing API development. Given the importance of consistent, reliable network access and the low-latency connections necessary to generate and maintain immersive experiences in Metaverse immersive experiences, one could reasonably expect the development of APIs supporting network exposure for configuring and optimizing network features for a diverse array of emerging functions in extended reality interactions. As 5G begins to support VR, AR, and MR interactions through the cellular network, questions surrounding the efficiency and trustworthiness of network exposure to application developers abound. ', '', 'In particular, the exposure of network characteristics through and the development of network-focused applications raises important questions around the privacy of user data with respect to the use of sensitive data around their internet usage, which could potentially reveal personally identifiable information about their location, environment, behaviour, or specific activities through such exposure. This concern extends beyond industry best practices and into emerging requirements from regulations such as the GDPR [52], CCPA [53], and other emerging national and international privacy regulation frameworks which specify the right of individuals to privacy across the lifecycle of data that could reveal personally identifiable information across a broad specification of contexts. It is thus incumbent on this body to proactively standardize the privacy features of the emerging 5GS in the context of APIs to ensure that such network exposure in application contexts does not expose providers or users to undue risks or liability. ', '']</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.6146393793606026</v>
+        <v>0.2065915275851795</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.9.1 	Description&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.2.1	Description&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2498,102 +2498,102 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR3_other</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>['', 'In this first use case, three users are using the 5GS to join an immersive mobile metaverse activity. The users Bob, Lukas, and Yong are located in the USA, Germany and China, respectively. Each of the users is served by a local mobile metaverse service edge computing server (MECS) hosted in the 5GS, each of the mobile metaverse servers is located close to the user it is serving. When a user joins a mobile metaverse activity, such as a joint game or teleconference, the avatar of the user is loaded in the MECS of the other users. For instance, the MECS close to Bob hosts the avatars of Yong and Lukas. ', '', 'The distance between the users, e.g., the distance between USA and China is around 11640 Km, determines minimum communication latency, e.g., 11640/c = 38 msec. This latency might also be higher due to different causes such as, e.g., hardware processing. This latency might also be variable due to multiple reasons, such as, e.g., congestion or delays introduced by (variable processing time of) hardware components such as sensors or rendering devices. Since this value maybe too high and variable for a truly immersive joint location agnostic metaverse service experience, each of the deployed avatars includes one or more predictive models of the person it represents and that allow rendering in the local edge server a synchronized predicted (current) digital representation (i.e. avatar) of the remote users. Similar techniques have been proposed for example in [28]. ', '', 'Figure 5.9.1-1 shows an exemplary scenario in which a MECS at location 3 (USA) runs the predictive models of remote users (Yong and Lukas) and takes as input the received sensed data from all users (Yong, Lukas, and Bob) as well as the current end-to-end communication parameters (e.g., latency) and generates a synchronized predicted (current) avatar digital representation (i.e. avatar) of the users to be rendered in local rendering devices of Bob. A particular example of such scenario might be about gaming: Yong, Lukas, and Bob are playing baseball in an immersive mobile metaverse activity , and it is Yong’s turn to hit the ball that is going to be thrown by Lukas. If Yong hits the ball, then Bob can continue running since Yong and Bob are playing in the same team. In this example, the digital representation (e.g. avatar) predictive models of Lukas and Yong (deployed at the MECS close to Bob) will allow creating a combined synchronized prediction at Location 3 of Lukas throwing the ball and Yong reacting to the ball and hitting the ball so that Bob can start running without delays and can enjoy a great immersive mobile metaverse experience. ', '', 'This example aims at illustrating how predictive models can improve the location agnostic service experience in a similar was as in [28]. Synchronized predictive digital representation (e.g. avatars) are however not limited to the gaming industry and can play a relevant role in other metaverse services, e.g., immersive healthcare or teleconferencing use cases. This scenario involving synchronized predictive digital representation (e.g. avatars) assumes to require synchronization of user experiences to a single clock. ', '', '', '', ' ----media/image24.emf----', '', 'Figure 5.9.1-1: Example of a joint metaverse experience with synchronized predicted avatar representation.', '']</t>
+          <t>['', 'Smart transport is a very important area for 5G system as well as an important mobile metaverse service. To reduce traffic jam and minimize traffic accident, 5G, including cellular based V2X technologies becomes more and more essential. The 5G system can be utilized to support real-time information &amp;amp; data delivery for the traffic participants including pedestrians, bicycle riders, and vehicles with or without autonomous driving mode. As shown in Figure 5.2.1-1, the physical objects including road infrastructure and vehicles including cars and trucks in each lanes, will have a corresponding digital twin in the virtual world, and the virtual and physical objects form the mobile metaverse. In this use case, there are virtual objects which actually represent the physical objects including vehicle, road and also pedestrians. This is the basis to enable smart transport applications like traffic flow simulation and situational awareness.', '', '----Image alt text----&gt;公路上的汽车', '', '描述已自动生成&lt;----media/image5.png----', '', 'Figure 5.2.1-1 Example of Smart Transport Metaverse', '', 'With the support of 5GS, real-time information and data about the physical objects can be delivered and the virtual objects of the road infrastructure and traffic participants including vulnerable road users can form a smart transport mobile metaverse service as shown in Figure 5.2.1-2. Then real-time processing&amp;amp; computing can be conducted to support traffic simulation, situational awareness, and real time path guidance. Real-time safety or security alerts can be generated for vehicles as well as the driver and passengers.', '', '----media/image6.png----', '', 'Figure 5.2.1-2 Scenario of 5G-enabled Traffic Flow Simulation and Situational Awareness', '', 'In order to support traffic flow simulation and situational awareness service, the 5G network need to provide low latency, high data rate and high reliability transmission, handover procedures that minimize service disruptions, and in addition, the 5G network may also need to be further enhanced to meet the service requirements for 5G-enabled traffic flow simulation and situation awareness. Meanwhile, in addition to the physical objects which may use UEs for telecommunication services, their corresponding virtual objects are also capable of interacting with each other and also interact with physical objects via 5GS.', '', 'This use case employs terminology defined in Table 5.2.1-1.', '', 'Table 5.2.1-1: Traffic Flow Simulation and Situational Awareness Terminology', '', 'Situational Awareness', '', 'The ability to know and understand what is going on in the surroundings, e.g. the perception of environmental elements and events', '', '', '']</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.6445522025907785</v>
+        <v>0.2123564148156073</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.9.3	Service Flows&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.2.1	Description&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>22856-j00.docx</t>
+          <t>22876-j00.docx</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>LR3_other</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>['', 'The following service flows need to be provided for each of the users:', '', '1.\tEach of the users, e.g., Bob, decide to join the immersive mobile metaverse service activity and give consent to the deployment of their avatars.', '', '2.\tSensors at each user sample the current representation of each of the users where sampling is done as required by the sensing modalities. The sampled representation of each of the users is distributed to the metaverse edge computing servers of the other users in the metaverse activity.', '', '3. \tEach of the edge computing servers applies the incoming data stream representing each of the far located users to the corresponding digital representation (e.g. avatar) predictive models – taking into account the current communication parameters/performance, e.g., latency – to create a combined, synchronized, and current digital representation of the remote users that is provided as input to rendering devices in the local environment.', '', 'The service flows for the other users (i.e., Yong in China and Lukas in Germany) are the mirrored equivalent. For instance, even if not shown in Figure 5.9.1-1, the local edge computing server associated to Lukas will run the digital representation (e.g. avatar) predictive models of Yong and Bob and consume the data streams coming from those users. ', '']</t>
+          <t>['', 'In a modern factory, a team on a workstation comprises two human operators, two mobile robots and a fixed robot. Everyone has his own pre-defined task. Robots assist the human operators by accomplishing painful tasks in a fluid and precise manner; they also monitor that the workstation environment remains safe for the human operators. The mobile robots must not interfere with humans and between them.', '', 'The robot control is not executed on a distant server in the cloud because reliability and confidentiality were not ensured at a sufficient level. Furthermore, as stated in [14], the overall end-to-end latency is not always guaranteed which can cause production loss. Communications between robots can rely on private wireless networks in the factory that enable expected QoS (reliability, throughput, and latency) as well as confidentiality.', '', 'The new robots are autonomous robots that can react to human voices or learn in real-time what operators do. They can perceive their environment and transmit information to other robots. They can communicate, learn from each other, assist each other and do self-monitoring.', '', 'The autonomous robot’s skills rely on several AI/ML models running on the robot itself which has the inconvenience that the mobile robot’s battery drain quicker. To overcome this issue, when the battery level reaches a certain value, a part of the AI/ML model can be transferred to a service hosting environment and / or to another robot by splitting the AI/ML model as defined in [20]. The split model approach of [20] is applicable to a UE-to-UE (or robot-to-robot) architecture. Thus, the AI/ML model M is split and shared between (e.g.) 2 robots, say an assisted robot and an assistant robot. Intermediate data generated by the assisted robot are transferred to the assisting robot which finalizes the inference and transmits the results back to the assisted robot. This intermediate data transfer must be extremely efficient in terms of latency and throughput. When many models are at stake, the split model method is an additional challenge for the 5GS in terms of throughput, latency and synchronization.', '', 'Because they are more autonomous, mobile and smart, the industry 4.0 robots embed a large variety of sensors that generate huge amount of data to process. Table\xa05.2.1-1 reflects that variety.', '', 'Each type of sensing data requires a different AI/ML model. Each of these models produce predictions in a certain delay and with a certain accuracy.', '', 'Thus, as an offloading strategy, we can imagine that a model is split between 2 robots because it has been established that for a particular AI/ML model, the latency with the sidelink communication was better (smaller) than with the regular 5G communication path, as stated in [12] and [13].', '', 'At the same time, other AI/ML models are split between the robot and the service hosting environment because from an energy standpoint this configuration is the best.', '', 'Table\xa05.2.1-2 is an example of this offloading strategy where four AI/ML models are split between a robot and the service hosting environment and four other AI/ML models are split between two robots.', '', 'Sidelink and 5G communication paths are complementary from an AI/ML model split policy standpoint.', '', 'Table\xa05.2.1-1 shows some typical and diverse AI/ML models that can be used on robots. For each model, all the split point candidates have been considered and only the split points that generate the minimum and the maximum amount of intermediate data have been noted.', '', 'Table\xa05.2.1-1: Intermediate AI/ML data size per AI/ML model', '', '&lt;b&gt;Model Name&lt;/b&gt;', '', '', '', '&lt;b&gt;Model type&lt;/b&gt;', '', '', '', '&lt;b&gt;Intermediate data size (MB)&lt;/b&gt;', '', '', '', '', '', '&lt;b&gt;8 bits data format&lt;/b&gt;', '', '&lt;b&gt;32 bits data format&lt;/b&gt;', '', '', '', '', '', '&lt;b&gt;Min&lt;/b&gt;', '', 'Max', '', 'Min', '', '&lt;b&gt;Max&lt;/b&gt;', '', 'AlexNet\xa0[21]', '', 'Image recognition', '', '&lt;b&gt;0.02&lt;/b&gt;', '', '0.06', '', '0.08', '', '&lt;b&gt;0.27&lt;/b&gt;', '', 'ResNet50\xa0[22]', '', 'Image recognition', '', '&lt;b&gt;0.002&lt;/b&gt;', '', '1.6', '', '0.008', '', '&lt;b&gt;6.4&lt;/b&gt;', '', 'SoundNet\xa0[11]', '', 'Sound recognition', '', '&lt;b&gt;0.0017&lt;/b&gt;', '', '0.22', '', '0.0068', '', '&lt;b&gt;0.88&lt;/b&gt;', '', 'PointNet\xa0[15]', '', 'Point Cloud', '', '&lt;b&gt;0.262&lt;/b&gt;', '', '1.04', '', '0.0068', '', '&lt;b&gt;4.19&lt;/b&gt;', '', 'VGGFace\xa0[19]', '', 'Face recognition', '', '&lt;b&gt;0.000016&lt;/b&gt;', '', '0.8', '', '0.000064', '', '&lt;b&gt;3.2&lt;/b&gt;', '', 'Inception resnet', '', 'Face recognition', '', '&lt;b&gt;0.0017&lt;/b&gt;', '', '0.37', '', '0.0068', '', '&lt;b&gt;1.51&lt;/b&gt;', '', '', '', 'In Table\xa05.2.1-2 the AI/ML models are distributed between the service hosting environment and the proximity robot. The way the models are distributed is out of scope of this use case and depends on various criteria as said previously. Therefore, the next table is an example that illustrates the distribution. The intermediate data size is presented with the range [Min – Max], where Min and Max are respectively the sum of the Min values and the sum of the Max values of the selected models as defined in Table\xa05.2.1-1 (figures in bold).', '', 'Table\xa05.2.1-2: Example of models distribution and data rate for intermediate AI/ML data', '', '&lt;b&gt;Model Name&lt;/b&gt;', '', '&lt;b&gt;Offloading target&lt;/b&gt;', '', '&lt;b&gt;Intermediate data size (MB)&lt;/b&gt;', '', '&lt;b&gt;Transfer time (ms)&lt;/b&gt;', '', '&lt;b&gt;Data rate (Gb/s)&lt;/b&gt;', '', 'AlexNet\xa0[21]', '', 'Proximity robot or Service Hosting Environment', '', '', '', '[0.000016 – 1.6] ', '', '(8 bits data format)', '', '10', '', '[0.128 - 1.28]', '', 'ResNet50\xa0[22]', '', '', '', '', '', '', '', '', '', 'VGGFace\xa0[19]', '', '', '', '', '', '', '', '', '', 'SoundNet\xa0[11]', '', '', '', '[0.000064 – 6.4]', '', '(32 bits data format)', '', '10', '', '[0.512 – 5.12]', '', 'PointNet\xa0[15]', '', '', '', '', '', '', '', '', '', 'Inception resnet', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', 'As previously said latency is a critical requirement. Figure\xa05.2.1-3 summarizes the latency cost in three scenarios:', '', 'A)\tThe inference of model M is done locally. Latency is denoted L&lt;sub&gt;LI&lt;/sub&gt;.', '', 'B)\tThe inference process is fully offloaded on a second device (Robot/UE). Latency is denoted L&lt;sub&gt;FO&lt;/sub&gt;.', '', 'C)\tThe inference process is partially offloaded on a second device (Robot/UE). Latency is denoted L&lt;sub&gt;PO&lt;/sub&gt;.', '', '----media/image6.png----', '', 'Figure\xa05.2.13 Latency summary', '', 'The current Use Case promotes the scenario\xa0(C) where a model M is split in two sub-models M&lt;sub&gt;a&lt;/sub&gt; and M&lt;sub&gt;b&lt;/sub&gt;. If both robots (UEs) have a similar computing power, the assumption is that the latency due to the inference of model M is almost equal to the latency of model M&lt;sub&gt;a&lt;/sub&gt; plus the latency of model M&lt;sub&gt;b&lt;/sub&gt;.', '', 'Hence, once the split model is deployed on the two robots (UEs), the aim is to minimize the E2E latency and to be as close as possible to the non-split case. This is done with a transfer delay of both the intermediate data and the inference results as small as possible. We can note that if the computing power on the assistant robot is more important, then scenario\xa0(C) would be the preferred scenario.', '', 'In scenario\xa0(B), the inference process is fully offloaded on the assistant robot (UE). The major inconvenience is the strong and negative impact on latency of the raw data transfer towards the assistant robot.', '', '&lt;span style="font-size:28pt"&gt;5.2.2&lt;/span&gt;\t&lt;span style="font-size:28pt"&gt;Pre-conditions&lt;/span&gt;', '', 'Two human operators are working.', '', 'Two mobile AI-driven robots (A&lt;sub&gt;robot&lt;/sub&gt; and B&lt;sub&gt;robot&lt;/sub&gt;) and one static AI-driven robot (C&lt;sub&gt;robot&lt;/sub&gt;) assist them.', '', 'The three robots (A&lt;sub&gt;robot&lt;/sub&gt;, B&lt;sub&gt;robot&lt;/sub&gt; and C&lt;sub&gt;robot&lt;/sub&gt;) belong to the same service area, embed the same two powerful AI/ML models M1 and M2, sensors (e.g. LIDAR, microphone) and cameras (e.g., 8K videos stream).', '', 'A&lt;sub&gt;robot&lt;/sub&gt; and B&lt;sub&gt;robot&lt;/sub&gt; are powered with a battery and C&lt;sub&gt;robot&lt;/sub&gt; with fixed ground power.', '', 'The three robots (A&lt;sub&gt;robot&lt;/sub&gt;, B&lt;sub&gt;robot&lt;/sub&gt; and C&lt;sub&gt;robot&lt;/sub&gt;) are connected, e.g., to the AF, 5GC, or to each other using D2D technologies (Prose, BT, WiFi, etc.).', '', 'The workstation is equipped with camera and sensors.', '', 'The service area is 30\xa0m x 30\xa0m and the robot speed is at maximum 10\xa0km/h.', '', 'The service area is covered by a small cell and a service hosting environment is connected and can support AI/ML processes.', '', '&lt;span style="font-size:28pt"&gt;5.2.3&lt;/span&gt;\t&lt;span style="font-size:28pt"&gt;Service Flows&lt;/span&gt;', '', '----media/image7.png----', '', 'Figure\xa05.2.31 Factory service flow', '', 'a)\tB&lt;sub&gt;robot&lt;/sub&gt; battery level is rather low but it can still work for a while if a part of its machine learning process is offloaded.', '', 'b)\tB&lt;sub&gt;robot&lt;/sub&gt; broadcasts a request message to get assistance. C&lt;sub&gt;robot&lt;/sub&gt; and the service hosting environment responds positively.', '', 'c)\tB&lt;sub&gt;robot&lt;/sub&gt; negotiates with C&lt;sub&gt;robot&lt;/sub&gt; and the service hosting environment what parts of M1 and M2 respectively for the inference process they are in charge of, knowing that the quality of the prediction must not be under a certain level and that the end-to-end latency must not be above a certain value. M1 model is split between B&lt;sub&gt;robot&lt;/sub&gt; and the service hosting environment. M2 model is split between B&lt;sub&gt;robot&lt;/sub&gt; and C&lt;sub&gt;robot&lt;/sub&gt;.', '', 'd)\tB&lt;sub&gt;robot&lt;/sub&gt;, C&lt;sub&gt;robot&lt;/sub&gt; and the service hosting environment agree on split points for both M1 and M2 models and B&lt;sub&gt;robot&lt;/sub&gt; starts sending the intermediate data to C&lt;sub&gt;robot&lt;/sub&gt; and the service hosting environment.', '', 'e)\tC&lt;sub&gt;robot&lt;/sub&gt; infers and transmits using unicast mode with a very short delay the predictions back to B&lt;sub&gt;robot&lt;/sub&gt;. The service hosting environment infers and transmits using unicast mode the predictions back to B&lt;sub&gt;robot&lt;/sub&gt; in a very short delay.', '', 'f)\tIn the meanwhile, A&lt;sub&gt;robot&lt;/sub&gt; is carrying a load to the operator A&lt;sub&gt;operator&lt;/sub&gt;.', '', 'g)\tA&lt;sub&gt;operator&lt;/sub&gt; bends down to pick up a screw that has fallen on the floor. At the same time B&lt;sub&gt;operator&lt;/sub&gt; is passing between A&lt;sub&gt;operator&lt;/sub&gt; and A&lt;sub&gt;robot&lt;/sub&gt;. A&lt;sub&gt;robot&lt;/sub&gt; can’t see A&lt;sub&gt;operator&lt;/sub&gt; anymore.', '', 'h)\tB&lt;sub&gt;robot&lt;/sub&gt; is busy with another task, but it can observe the scene. It reports the scene as intermediate data to C&lt;sub&gt;robot&lt;/sub&gt; and the service hosting environment.', '', 'i)\tC&lt;sub&gt;robot&lt;/sub&gt; and the service hosting environment amend the ML model based on the new training data.', '', 'j)\tC&lt;sub&gt;robot&lt;/sub&gt; and the service hosting environment infer and then transmit in unicast the prediction back to B&lt;sub&gt;robot&lt;/sub&gt;. The safety application on the service hosting environment collects the inference results.', '', '&lt;span style="font-size:28pt"&gt;5.2.4&lt;/span&gt;\t&lt;span style="font-size:28pt"&gt;Post-conditions&lt;/span&gt;', '', 'Intermediate data can be exchanged between two robots (UEs) and / or service hosting environment, and the robot with a low battery level can continue working for a while.', '', 'All the robots in the group receive the alert message and react:', '', 'a)\tThey all stop working; or', '', 'b)\tA&lt;sub&gt;robot&lt;/sub&gt; changes its trajectory.', '', 'A&lt;sub&gt;operator&lt;/sub&gt; and B&lt;sub&gt;operator&lt;/sub&gt; can work safely.', '', 'The huge amount of data that is required for inferring is kept local in the factory.', '', '&lt;span style="font-size:28pt"&gt;5.2.5&lt;/span&gt;\t&lt;span style="font-size:28pt"&gt;Existing features partly or fully covering the use case functionality&lt;/span&gt;', '', 'The Use Case can rely on the Proximity Service (ProSe) services as defined in 3GPP\xa0TS\xa023.303\xa0[17].', '', 'Cyber-Physical Control Applications, see 3GPP\xa0TS\xa022.104\xa0[18], already proposes to rely on a ProSe communication path. The proposed requirements are limited in terms of data transfer as shown in Table\xa05.2-1, where the message size does not exceed a few hundred of Bytes (250\xa0kB at maximum).', '', '3GPP\xa0TS\xa022.261\xa0[16] clause\xa06.40 provides requirements for AI/ML model transfer in 5GS. The requirements in this clause does not consider requirements for direct device connection.', '', 'In 3GPP\xa0TS\xa022.261\xa0[16] Table\xa07.6.1-1, the max. end-to-end latency is 10\xa0ms, the maximum data rate is [1]\xa0Gbits/s and reliability is 99.99% for Gaming or Interactive Data Exchanging.', '', 'Table 7.6.1-1 KPI Table for additional high data rate and low latency service', '', 'Use Cases', '', 'Characteristic parameter (KPI)', '', 'Influence quantity', '', '', '', 'Max allowed end-to-end latency', '', 'Service bit rate: user-experienced data rate', '', 'Reliability', '', '# of UEs', '', '', '', 'UE Speed', '', 'Service Area', '', '&lt;b&gt;(note 2)&lt;/b&gt;', '', 'Gaming or Interactive Data Exchanging ', '', '(note 3)', '', '&lt;b&gt;10ms (note 4)&lt;/b&gt;', '', '0,1 to [1] Gbit/s supporting visual content (e.g. VR based or high definition video) with 4K, 8K resolution and up to120 frames per second content.', '', '&lt;b&gt;99,99 % (note 4)&lt;/b&gt;', '', '&lt;b&gt;≤ [10]&lt;/b&gt;', '', 'Stationary or Pedestrian', '', '20 m x 10\xa0m; in one vehicle (up to 120 km/h) and in one train (up to 500 km/h)', '', 'NOTE 1:\tUnless otherwise specified, all communication via wireless link is between UEs and network node (UE to network node and/or network node to UE) rather than direct wireless links (UE to UE).', '', 'NOTE 2:\tLength x width (x height).', '', 'NOTE 3:\tCommunication includes direct wireless links (UE to UE). ', '', 'NOTE 4:\tLatency and reliability KPIs can vary based on specific use case/architecture, e.g. for cloud/edge/split rendering, and can be represented by a range of values.', '', 'NOTE 5:\tThe decoding capability in the VR headset and the encoding/decoding complexity/time of the stream will set the required bit rate and latency over the direct wireless link between the tethered VR headset and its connected UE, bit rate from 100 Mbit/s to [10] Gbit/s and latency from 5 ms to 10 ms.&lt;b&gt; &lt;/b&gt;', '', 'NOTE 6:\tThe performance requirement is valid for the direct wireless link between the tethered VR headset and its connected UE.', '', '', '', 'These requirements partially cover the current Use Case needs.', '', '&lt;span style="font-size:28pt"&gt;5.2.6&lt;/span&gt;\t&lt;span style="font-size:28pt"&gt;Potential New Requirements needed to support the use case&lt;/span&gt;', '']</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.6036984693615891</v>
+        <v>0.2195192968509153</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.9.5	Existing features partly or fully covering the use case functionality&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.2.1	Description&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>22856-j00.docx</t>
+          <t>22882-j00.docx</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>['', 'TS 22.261 includes in Clause 6.40.2 the following requirement related to AI/ML model transfer in 5GS: ', '', '&lt;i&gt;“Based on operator policy, 5G system shall be able to provide means to predict and expose predicted network condition changes (i.e. bitrate, latency, reliability) per UE, to an authorized third party.” &lt;/i&gt;', '', 'This requirement is related to requirement [PR 5.9.6.2], but not exactly the same since the usage of predictive digital representation (e.g. avatar) models requires the knowledge of the end-to-end network conditions, in particular, latency. ', '']</t>
+          <t>['', 'Industrial campuses are very typical scenarios of edge computing and local traffic offload. Dedicated network facilities are usually deployed near the campus for lower latency and local data protection. This brings a problem that these network facilities are used only for the campus, so while the manufacturing load is light or during vacation, these network facilities will be in very light load or even no load. Under this scenario, the energy consumption of these network facilities will be unnecessary.', '']</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.5746635055979473</v>
+        <v>0.2318554724345634</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.9.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.2.2	Pre-conditions&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>22856-j00.docx</t>
+          <t>22882-j00.docx</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>LR3_other</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>['', '[PR 5.9.6.1] the 5G system shall provide a means to synchronize the incoming data streams of multiple (sensor and rendering) devices associated to different users at different locations. ', '', '[PR 5.9.6.2] the 5G system shall provide a means to expose predicted network conditions, in particular, latency, between remote users.', '', '[PR 5.9.6.3] The 5G system shall provide a means to support the distribution, configuration, and execution of a predictive model associated to a remote user in a local service hosting environment. ', '']</t>
+          <t>['', 'Factory F, a smart manufacturing factory locates in a remote area outside the city. Factory F requires low latency in AGV transporting services and local data processing using computing vision to support image comparison for fault detection in circuit boards. Factory F has an agreement with Operator T on the communication service with certain SLA. As the manufacturing activity is not consistent, Operator T provides a replaceable SLA which can be used during off-peak time. This replaceable SLA can reduce energy consumption by changing the energy state of network functions used locally (e.g. to “energy saving” state), and the action can be activated either by pre-configured policy or by notification from Factory F.', '']</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.5748408061268547</v>
+        <v>0.2201242085216637</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;7.1.3	Operational efficiency, exposure, and coordination of mobile metaverse services &lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.2.3		Service Flows&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>22856-j00.docx</t>
+          <t>22843-j00.docx</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2603,36 +2603,3411 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>['', 'Table 7.1.3-1 – Operational efficiency, exposure, and coordination of mobile metaverse services Consolidated Requirements', '', 'CPR #', '', 'Consolidated Potential Requirement', '', 'Original PR #', '', 'Comment', '', '[CPR 3.1]', '', 'Subject to operator policy, the 5G system shall support a mechanism that enables flexible adjustment of communication services based on e.g. the type of devices (e.g., wearables), or communication duration (e.g. more than one hour), such that the services can be operated with reduced energy utilization.', '', 'NOTE:\tMetaverse service experience over an extended period of time (e.g. 2h) requires significant power consumption by the UE. In some cases, a device with no external power supply cannot sustain downloading and rendering of media over a long interval, e.g. for the duration of an entire feature film or athletic event.', '', '[PR 5.7.6-1]', '', '[PR 5.7.6-2]', '', '', '', '&lt;span style="font-size:18pt"&gt;[CPR 3.2]&lt;/span&gt;', '', 'The 5G system shall be able to provide a means to associate and coordinate data flows related to one or multiple UEs e.g. associated with the same object in digital twin applications provided by the mobile metaverse service.', '', '[PR 5.20.6-1]', '', '[PR 5.20.6-2]', '', '[PR 5.20.6-3]', '', '', '', '&lt;span style="font-size:18pt"&gt;[CPR 3.3]&lt;/span&gt;', '', 'Subject to operator policy, regulatory requirements and user consent, the 5G system shall be able to expose network performance information (e.g., observed or predicted bitrate, latency or packet loss) related to one or more users to an authorized third party metaverse application.', '', 'NOTE:\tThe network performance information can be per UE and take into account all available access network types, i.e. 3GPP and non-3GPP.', '', '[PR 5.25.6-1]', '', '[PR 5.9.6.2]', '', '', '', '', '', '', '', '&lt;span style="font-size:18pt"&gt;[CPR 3.4]&lt;/span&gt;', '', 'Subject to operator policy, the 5G system shall support a mechanism to enable one or more authorized third party(ies) to coordinate multiple service data flows delivered to/from one or more UE(s). Multiple UEs may be associated with one user/location or different users at different locations potentially using different access networks, i.e. 3GPP and non-3GPP.', '', 'NOTE 1: \tCoordination refers to the ability to provide an acceptable level of user experience for a given service, e.g. based on latency and synchronization constraints (due to multiple sources or long distance between UEs/users).', '', 'NOTE 2: \tIt is not assumed that it is always possible to coordinate and provide the same capabilities regardless of whether 3GPP or non-3GPP access is used. ', '', '[PR 5.27.6-3]', '', '[PR 5.9.6.1]', '', '[PR 5.3.6.2-4]', '', '[PR 5.25.6-2]', '', '[PR 5.10.6-2]', '', '', '', '[CPR 3.5]', '', 'The 5G system shall enable the coordination of diverse media, transmitted to a UE from one or more mobile metaverse services associated with a physical location, to be combined to form a localized service experience.', '', '', '', '[PR 5.1.6-4]', '', '[PR 5.4.6-1]', '', '', '', '[CPR 3.6]', '', 'Subject to operator policy, the 5G system shall support exposure mechanisms enabling an authorized third party to determine one or more subscribers to whom mobile metaverse media can be distributed in a resource efficient manner.', '', '[PR 5.27.6-1]', '', '', '', '[CPR 3.7]', '', 'Subject to operator policy, subject to user consent, the 5G system shall support a means to provide resource efficient communication of third party mobile metaverse media to one or more subscribers.', '', '[PR 5.27.6-2]', '', '', '']</t>
+          <t>['', '----media/image3.png----', '', 'Figure 5.2.3-1: Supporting UAV pre-flight preparation', '', '1.\tThe pipeline company plans to use UAV A to provide video inspection of pipelines from X to Y and the logistics company uses UAV B to deliver express from X to Z.', '', '2.\tUAV/UAV-C A and UAV/UAV-C B register in 5G network and can communicate with UTM though 5G network.', '', '3.\tThe UAV-C A provides planned flight path information from X to Y to UTM (e.g. waypoints and required QoS from X to Y). The UAV-C B provides planned flight path on start point X, end point Z and needed QoS.', '', '4.\tUTM checks with 5G system for required and needed QoS information in predictions/statistics (e.g. end-to-end latency, QoE) along required and possible flight paths.', '', '5.\tBased on the available analytics information, the 5G system can provide confirmation that required QoS is available for UAV A flight path or alternatively can reconfigure network resources to be able to provide the required QoS to UAV A along the flight path. As UAV B can take alternative routes, 5G system can provide optimized flight path considering where the QoS is available.', '', '6.\tUTM/UAS determines the final flight paths based on the information from Operator A and sends to UAV/UAV-C A and UAV/UAV-C B separately.', '', '7.\tUAV A and UAV B receive the flight path information from UTM/UAS via the 5G system and start flight mission.', '']</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.6566415377713357</v>
+        <v>0.1958988493643399</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
+          <t>&lt;h3&gt;5.2.5	Existing features partly or fully covering the use case functionality&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>22856-j00.docx</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>['', 'The QoS framework of 5G system supports low latency, high reliability or high data rate transmission of data traffic.', '']</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0.1990634014637777</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.2.6		Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>22843-j00.docx</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>['', '[P.R 5.2.6-001] Based on operator’s policy, the 5G system shall be able to support a method to predict network conditions and QoS (e.g. bitrate, latency, reliability) along a continuous geographic planned flight path of a UAV at specific times of its expected flight duration. ', '', '[P.R 5.2.6-002] Based on operator’s policy, the 5G system shall be able to provide UTM with the information about geographic areas where UAV service requirements could or could not be met based on predicted network conditions and QoS (e.g. bitrate, latency, reliability).', '', '[P.R 5.2.6-003] Based on 3&lt;sup&gt;rd&lt;/sup&gt; party request, the 5G system shall be able to provide to the 3&lt;sup&gt;rd&lt;/sup&gt; party alternative UAV flight paths, as long as UTM-provided required waypoints (e.g. start/end locations), required QoS, and exclusion zones are fulfilled.', '', '[P.R 5.2.6-004] Based on 3&lt;sup&gt;rd&lt;/sup&gt; party request and operator’s policy, the 5G system shall be able to reconfigure network resources to provide the required QoS along a UAV planned flight path, e.g. at particular geographical area(s) and time(s).', '']</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>0.1814455013748927</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.2.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>22837-j00.docx</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>['', '[PR 5.2.6-1] The 5G system shall be able to support a base station to perform sensing.', '', '[PR 5.2.6-2] The 5G system shall be able to support means to select suitable base station(s) to perform sensing, e.g. based on the base station’s location, sensing capability, and the sensing service information requested by trusted third party application.', '', '[PR 5.2.6-3] The 5G system shall be able to support means to configure the sensing operation of a base station(e.g. authorization, sensing activation and/or deactivation, sensing duration, sensing accuracy, target sensing location area).', '', '[PR 5.2.6-4] The 5G system shall be able to support means to enable a base station to transfer 3GPP sensing data to the core network.', '', '[PR 5.2.6-5] The 5G system shall be able to support means to enable the core network to process 3GPP sensing data for obtaining sensing results.', '', '[PR 5.2.6-6] Based on operator’s policy, the 5G system shall expose a suitable API to a trusted third party to provide the information regarding sensing results.', '', '[PR 5.2.6-7] The 5G system shall be able to support charging data collection for the sensing services (e.g. considering service type, sensing accuracy, target area, duration) requested by a trusted third-party application.', '', '[PR 5.2.6-8] Subject to operator’s policy, the 5G network may provide secure means for the operator to expose information on sensing service availability (e.g., if sensing service is available and the supported KPIs) in a desired sensing service area location to a trusted third-party.', '', '[PR 5.2.6-9] The 5G system shall be able to support the following KPIs:', '', 'Table 5.2.6-1\tPerformance requirements of sensing results for pedestrian/animal intrusion detection', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency[ms]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate [s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Missed detection [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm [%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;Pedestrian/animal intrusion detection on a highway&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;Outdoor (Highway)&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;≤1&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;≤5000&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;≤ 0.1&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;≤5&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;≤5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE: &lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.2.6-1 are found in Section 3.1.&lt;/span&gt;', '', 'NOTE:\tIn this use case base station is acting as sensing transmitter and/or sensing receiver. This is an example and other options can also be valid.', '']</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0.2329480394329914</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.2.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>22856-j00.docx</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>LR1_signalling</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>['', '[PR 2.1.6-1] The 5G system shall be able to support the following KPIs for transmission for traffic between a large number of UEs and application server (e.g. mobile metaverse server).', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Use Cases&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Characteristic parameter (KPI)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Influence quantity&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Max allowed end-to-end latency&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Service bit rate: user-experienced data rate&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Reliability&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Area Traffic capacity&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Message Data Volume&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Transfer Interval&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Service Area&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5G-enabled Traffic Flow Simulation and Situational Awareness&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt; [5-20] ms (NOTE 1)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[10~100 Mbit/s] [25](NOTE 6)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&amp;gt; 99.9%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[~39.6 Tbit/s/km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:16pt"&gt; ] &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 5)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Typical data:&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Camera: 10M bits/s per sensor (unstructured)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;LiDAR: 90M bits/s per sensor (unstructured)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Radar: 10M per sensor (unstructured)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Real-time Status information including Telemetry data:&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[&amp;lt; 50K bits/s] per sensor/vehicle/VRU&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(structured)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;(NOTE 2)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;20-100 ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 3)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;City or Country wide&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 4)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 1: The mobile metaverse server receives the data from various sensors, performs data processing, rendering and provide feedback to the vehicles and user s. The end-to-end latency refers to the transmission delay between a UE and the mobile metaverse server. Exact value is FFS&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 2: To support at least 80 vehicles and 1600 users present at the same location (e.g. in an area of 40m*250m) to actively enjoy immersive metaverse services for traffic simulation and traffic awareness, the area traffic capacity is calculated considering 2 cameras, 2 Radars, 2 LiDARs on road side, 1600 user’s smart phones and 80 vehicles with 7 cameras, 4 radar and 2 LiDAR for each vehicle. These application layer message data need to be segmented for network transport thus doesn’t mean packet size. The real-time status information including telemetry data may be structured.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 3: The frequency considers different sensor types such as Radar/LiDAR (10Hz) and Camera (10~50Hz).&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 4: &lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The service area for traffic flow simulation and situational awareness depends on the actual deployment, for example, it can be deployed for a city or a district within a city or even countrywide. In some cases a local approach (e.g. the application servers are hosted at the network edge) is preferred in order to satisfy the requirements of low latency and high reliability.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 5: The calculation is this table is done per one 5G network, in case of N 5G networks to be involved for such use case in the same area, this value can be divided by N. Exact value is FFS.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 6: User experienced data rate refers to the data rate needed for the vehicle or human, the value is observed from industrial practice and exact value is FFS. &lt;/span&gt;', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0.2337981509800603</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.20.2	Pre-conditions&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>22856-j00.docx</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>['', 'Bob works in a seaport; he operates a lifting device. The place in which he is operating is surrounded by cranes, machines, containers, pipes, and barrels containing hazardous substances. ', '', 'A new mobile metaverse service is available: instead of locally controlling the device, Bob is installed in a safe remote location from which he is working. The surrounding information is available through a digital twin of the seaport and can come from various sources (IoT sensors, CCTV cameras, connected machines, and other vehicles). ', '', 'In order to maximize Bob’s efficiency, the metaverse service experience delivered by the system is real-time with non-noticeable latency. This use case includes both location related and location agnostic service experience examples.', '', 'The mobile metaverse service Bob uses for teleoperation is running on a mobile metaverse server. In addition, Bob is equipped with a head-mounted display and haptic gloves to remotely control the vehicle.', '']</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>0.2116545976522955</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.20.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>22837-j00.docx</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>LR1_signalling</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>['', '', '', '[PR 5.20.6-1] The 5G system shall be able to provide sensing services in licensed and unlicensed spectrum. ', '', '[PR 5.20.6-2] The 5G system shall be able to authorize Sensing receiver(s) and Sensing transmitter(s) to participate in a sensing service.', '', '[PR 5.20.6-3] &lt;span style="color:0D0D0D"&gt;Based on operator’s policy, the 5G system shall enable a trusted third-party to request the activation of the sensing service with specific KPI requirement, as well as deactivation of the same service.&lt;/span&gt;', '', '[PR 5.20.6-4] &lt;span style="color:0D0D0D"&gt;The 5G system shall be able to support charging for the sensing services (e.g. considering service type, sensing accuracy, target area, duration).&lt;/span&gt;', '', '[PR 5.20.6-5] The 5G system shall be able to provide a sensing service considering the interference to the Sensing service caused by the sensing operations between multiple Sensing transmitter(s) and Sensing receiver(s).', '', '[PR 5.20.6-6] The 5G system shall be able to provide sensing with following KPIs.', '', 'Table 5.20.6-1\tPerformance requirements of sensing results for parking space determination', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area &lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[ms]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[s]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Missed detection&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Parking space determination&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Indoor/ outdoor&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2.5m perpendicular to the parking space&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5m parallel to the parking space&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1000&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.20.6-1 are found in Section 3.1.&lt;/span&gt;', '']</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>0.243663458939336</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.20.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>22856-j00.docx</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>LR1_signalling</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>['', '[PR 5.20.6-1] The 5G system shall be able to provide a means to associate data flows related to one or multiple UEs with a single digital twin maintained by the mobile metaverse service.', '', '[PR 5.20.6-2] The 5G system shall be able to provide a means to support data flows from one or multiple UEs to update a digital twin maintained by the mobile metaverse service.', '', '[PR 5.20.6-3] Subject to regulatory requirements and operator’s policy, the 5G system shall be able to support data flows directed towards one or multiple UEs as a result of a change in a digital twin maintained by the mobile metaverse service, so that physical objects could be affected via actuators.', '', 'NOTE 1: How an application actually operates on physical objects upon receiving a command via the mobile metaverse service, e.g. using actuators, changing environmental controls configuration, etc is out of scope of the 5G system. In addition, regulations and/or other standards could apply to remote operations (e.g. based on a specific industry).', '', '[PR 5.20.6-4] The 5G system shall be able to support the following KPIs for remotely controlling physical objects via the mobile metaverse service.', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Use Cases&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Characteristic parameter (KPI)&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Influence quantity&lt;/b&gt;&lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Max allowed end-to-end latency&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Service bit rate: user-experienced data rate&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Reliability&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Area Traffic capacity&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Message Data Volume (bits)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Transfer interval&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Position accuracy&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;UE speed&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Service Area&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Remarks&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Metaverse-based Tele-Operated Driving&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[100] ms [25] (NOTE 1)&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;[10~50 Mbit/s] [25] &lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;99%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt; [25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[~360 Mbit/s/km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:16pt"&gt; ] &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 4)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt; ~8Mbps video stream. Four cameras per vehicle (one for each side): 4*8=32Mbps. &lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Sensor data (interpreted objects).&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Assuming 1 kB/object/100 ms and 50 objects: 4 Mbps [25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;20~100 ms [25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 2)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[10] cm [25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[10-50] km/h (vehicle) [25]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Stationary/Pedestrian (user)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Up to 10km radius [25]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;(NOTE 3)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UL (NOTE 5)&lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;[20] ms [25]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[0.1~0.4 Mbit/s] [25]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;99,999% [25]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[~4 Mbit/s/km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:16pt"&gt; ] &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 4)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Up to 8Kb &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;per message [25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;20 ms [25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 2)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[10] cm [25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[10-50] km/h (vehicle) [25]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Stationary/Pedestrian (user)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Up to 10km radius [25]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;(NOTE 3)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;DL (NOTE 5)&lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;1-20ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 6)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16 kbit/s -2 Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(without haptic compression encoding);&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;0.8 - 200 kbit/s &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(with haptic compression encoding)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 6)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.999%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 6)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[~20 Mbit/s/km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:16pt"&gt; ] &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 4)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2-8 (1 DoF) (NOTE 6)&lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Stationary/Pedestrian (user)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Up to 10km radius [25]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;(NOTE 3)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Haptic feedback&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 1: The end-to-end latency refers to the transmission delay between a UE and the mobile metaverse server or vice-versa, not including sensor acquisition or actuator control on the vehicle side, processing, and rendering on the user side (estimated additional 100ms total). Target e2e user experienced max delay depends on reaction time of the remote driver (e.g. at 50km/h, 20ms means 27cm of remote vehicle movement). &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 2: UL data transfer interval around 20ms (video) to 100ms (sensor), DL data transfer interval (commands) around 20ms.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 3: &lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The service area for teleoperation depends on the actual deployment; for example, it can be deployed for a warehouse, a factory, a transportation hub (seaport, airport etc.), or even a city district or city. In some cases, a local approach (e.g., the application servers are hosted at the network edge) is preferred to satisfy low latency and high-reliability requirements.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 4: The area traffic capacity is calculated for one 5G network, considering 4 cameras + sensors on each vehicle. Density is estimated to 10 vehicles/km2, each of the vehicles with one user controlling them. [25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 5: Based on [25]. UL is real-time vehicle data (video streaming and/or sensor data), DL is control traffic (commands from the remote driver)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 6: KPI comes from [5] cl 7.11 “remote control robot” use case&lt;/span&gt;', '', 'Table-5.20.6-1: Key Performance Indicator (KPI) for mobile metaverse Tele-Operated Driving', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>0.2408071639303238</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.21.1	Description&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>22837-j00.docx</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>['', 'Extended Reality (XR) is an important 5G use case. Split-rendering architectures, where the heavy XR video rendering computation is done at the application server based on control information received from the UE, poses strict Quality-of-Service (QoS) requirements in terms of round-trip latency and throughput for delivering the video and control info. ', '', 'It is therefore crucial to always maintain a high-quality wireless link for XR. Thus, it is critical to predict and adapt fast to wireless channel changes. This is especially true in Millimeter wave bands in which the channel and propagation characteristics are very sensitive to user and environment changes such as blockages, user motion or rotation.', '', 'To adapt fast to the wireless channel changes, an understanding of the wireless channel dynamics is required. The channel dynamics depend on understanding the surrounding environment such as the transmitter and receiver locations, geometry of the buildings, moving scatterers, location and material of blockers, etc.', '', 'Interestingly, most of the XR streaming devices (e.g., 5G phones, AR/VR headsets) and third-party entities that support 5G (i.e., 3GPP sensors) also support non-3GPP sensors, such as RF sensors, Inertial Measurement Units (IMU) sensors, RGB cameras, position sensors, and others.', '', 'In light of the availability of 3GPP and non-3GPP sensors and the need of environment understanding, it is therefore natural to utilize the overall sensing information to acquire an understanding of the surrounding environment.', '', 'To this end, a “Sensing RF Map Service” can be envisioned that enables the collection of sensing information from 3GPP and non-3GPP sensors, process and provide that information to a sensing service.', '', '--\tThe input to this “Sensing RF Map” service could be 3GPP sensing data and non-3GPP sensing data from multiple sensors, e.g., RF sensing data, XR user position, camera images, depth maps, hand tracking, motion type, etc. Such input could be produced by a 5GS entity (e.g,, UE or RAN entities) or by a third-party (e.g., surveillance camera). It is essential to note that the collection of this sensing should be done with appropriate user consent and adherence to regional and national regulations.', '', '--\tThe processing of 3GPP and non-3GPP sensing data can be performed within the 5G system or outside the 5GS (for example on an application server). In this use case, we are focus on processing in the 5G system.', '', '--\tThe output of this service (i.e., sensing result) is some understanding of the environment and/or impact to communication performance of a service consumer, e.g., RF environment mapping, etc. When sensing result is shared outside of the 5GS, the appropriate consent and permissions for sharing this information is required.', '', '--\tThe consumer of this service could be a third-party application or other entities in the 5GS.', '', 'It is important to note that while this service is provided by 5GSor edge server, business model for the monetization of this service would need to consider factors such as the entities involved in sensing, the transfer of the non-3GPP sensing data and the value of sensing RF Map information produced by these entities as well as the value to the consumer of the service. These considerations are also required for scenarios involving 3GPP only sensing operations but additional considerations are indeed required for non-3GPP sensing data which is generated outside the 5G system.', '']</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>0.1894993063156973</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.22.1	Description&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>22856-j00.docx</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>['', 'Mobile metaverse services allow people to enjoy an online digital concert with their avatars beyond the limitation of time and space. In order to provide immersive interactive location agnostic service experience to mobile metaverse service customers, large amount of computing resouces is needed to perform real-time processing for audio, video, and interactive data, etc. The thing to realise here is that different customers will use terminals e.g. XR glasess with different brands and different processing capabilities, some of the glasses will not have enough computing resources to perform the real-time rendering. Through split rendering, most of the computing work task can offload to the network, the high speed and low latency transmission provided by 5G system can cooperate with the edge cloud side for real-time rendering, and combine with the local optimized rendering of the XR terminal side to provide the immersive and unbounded XR experience. In addition to this, similar to the real world, people are more likely to watch a concert together with their friends, further, the mobile metaverse live concert service is also provides private boxs for group of avatars to enjoy the concert privately, and different types of social authority can be provided in the private box on demand.', '']</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>0.2184212147633635</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.22.2	Pre-conditions&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>22856-j00.docx</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>['', '1) Alex, Bob and Carey are good friends live in different cities, they agree to watch the mobile metaverse live concert together.', '', '2) Alex, Bob and Carey are equipment with XR glasses and tactile, the equipment can capture their voice, facial expression, pose information to generate avatars and interact with the whole live concert.', '', '3) Enough computing resources can be provided to the mobile metaverse live concert service and the 5G network is capable of providing sufficiently high throughput and low latency network transmission. ', '']</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>0.209178330799755</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.22.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>22837-j00.docx</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>LR1_signalling</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>['', '[PR 5.22.6-1] Subject to operator policy, the 5G system shall enable the network to expose a suitable API to a authorized third party to provide the information regarding sensing results.', '', '[PR 5.22.6-2] Based on operator policy, the 5G system may be able to utilize sensing assistance information exposed by a trusted third-party to derive the sensing result.', '', '', '', '[PR 5.22.6-3] The 5G system shall be able to support the following KPIs:', '', 'Table 5.22.6-1\tPerformance requirements of sensing results for UAVs/vehicles/pedestrians’ detection near Smart Grid equipment ', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area &lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[ms]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[s]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Missed detection&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Sensing for the use case in Smart Grid &lt;/span&gt;&lt;span style="color:0D0D0D;font-size:16pt"&gt;NOTE\xa02&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Outdoor&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;≤&lt;/span&gt;&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.7&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;UAV: ≤25&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;Pedestrian: ≤1.5&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;Vehicle: ≤15&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤5s&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≥10Hz&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤5]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤5]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa01: The terms in Table 5.22.6-1 are found in Section 3.1.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa02: The typical size (Length x Width x Height) of UAV is 1.6m x 1.5m x 0.7m, the typical size of pedestrian is 0.5m x 0.5m x 1.75m, and the typical size of engineering vehicle is 7.5m x 2.5m x 3.5 m. The size of the park of Smart Grid depends on the real environment. &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa03: The safe distance between pedestrian/vehicle and transmission station/line is 0.7m/0.95m [46].&lt;/span&gt;', '']</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>0.246600743074571</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.23.1	Description&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>22856-j00.docx</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>['', 'The mobile metaverse allows users to access an endless virtual world at anytime and anywhere through their terminals. The mobile metaverse are expected to behave as the real world, which means in addition to rendering a virtual environment like the physical world, the perceived spatial-temporal consistency is also the key point to achieve an immersive location agnostic service experience.', '', 'In mobile metaverse, spatial-temporal consistency for single user could mean, for example, dropping a virtual pen and seeing this pen fall subsequently. While for multiple players, this consistency could mean, for example, that one person cuts down a tree and other people see the tree falling down. This user experience requires the motion-to-photon latency in the range of 7 ms to 15ms [5] at least for a single user viewing the consequence of her own actions. Immersive VR requires the delivery of massive amount of data (in the order of Gigabyte) at ultra-low latency (less than 20 ms) [54].', '', '', '', 'NOTE: \tFor location agnostic service experience involving multiple users who are not in the same location, the requirements above do not apply, since the service can impose ordering and timing of representations of virtual events in an arbitrary manner.', '', 'It should be noted that the computation resources for rendering involved in the mobile metaverse is different from the cloud gaming and traditional VR. For example, running a typical massively multiplayer online game today requires multiple tera FLOPS of graphics horsepower, and the demand is expected to grow by two orders of magnitude to create fully immersive mobile metaverse experiences. [55]', '', "For the mobile metaverse world, distributed computation is an inevitable processing mode, so the selection of proper servers and data centers should consider the requirements of network delay, processing delay, storage and computation resource. The goal is to minimize the user's perception of delay.", '', 'Therefore, in order to obtain consistent experience in mobile metaverse service anytime and anywhere, deep collaboration between mobile metaverse and 5G network is needed. The potential collaboration aspects may include caching location, computation location, communication path, traffic scheduling and resource allocation in network. For example, when a service request emerges, the network control policy needs to coordinate the selection of (i) caching locations to provide digital objects, (ii) computation locations to execute service functions, and (iii) communication paths to route all associated data streams, jointly optimized with dynamic decisions on (iv) traffic scheduling and (v) resource allocation at all network locations. [55]', '']</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>0.1989119115049995</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.23.2	Pre-conditions&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>22856-j00.docx</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>['', 'There are about 12,000 players sign up for a popular game and appear simultaneously in a specific setting, such as Eve Online in 2021. Due to the limitations of the existing server processing, it is not possible to support such a large number of high concurrency, so the network and application server need to cooperate to support the distribution of visitors to other servers while ensuring low latency requirement by XR applications.', '']</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>0.2271769605937505</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.23.3	Service Flows&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>22856-j00.docx</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>LR1_signalling</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>['', '1. Bob is a player who attends a popular AR interactive game and gathers with others in a shared environment, they are aware of each other’s action so that they need high synchronization.', '', '2. The service provider will provide deployment information of each server to the 5G network, and request the Bob’s physical location and transmission delay in 5G network.', '', '3. According to the cooperation agreement with application, 5G network will expose information to service providers, including the physical location and network delay of specific terminals or a group of terminals. The network delay includes the delay inside 5G system (UE to PSA UPF) and the latency information between PSA UPF and some potential servers.', '', '4. The new server is selected by the service provider according to the UE location, network delay, business requirements, computation resource and storage resource of application servers. The decision result will be sent back to 5G network. Then the 5G network can then formulate corresponding policies for the service flows.', '', '5. The content information will be synchronized to the new server in real time. 5G network should support the ultra-low latency data transmission, potentially among multiple operators.', '']</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>0.1817814731377578</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.23.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>22837-j00.docx</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>LR1_signalling</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>['', '[PR 5.23.6-1] The 5G system shall be able to provide the continuity of sensing service for a specific target object, across indoor and outdoor.', '', '[PR 5.23.6-2] The 5G system shall be able to provide a secure mechanism to ensure sensing result data privacy within the sensing service area.', '', '[PR 5.23.6-3] The 5G system shall be able to support the following sensing related KPIs:', '', 'Table 5.23.6-1\tPerformance requirements of sensing results for AMR collision avoidance in smart factories', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area &lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[ms]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[s]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Missed detection&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;AMR collision avoidance in smart factories&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;indoor/outdoor&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;99&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1.5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;˂&lt;/span&gt;&lt;span style="font-size:16pt"&gt;500&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.05&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa01:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.23.6-1 are found in Section 3.1.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa02:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The KPI values are sourced from [47].&lt;/span&gt;', '']</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>0.2470349143138298</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.24.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>22837-j00.docx</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>LR1_signalling</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>['', '[PR 5.24.6-1] Based on operator policy, the 5G System shall be able to provide the 5G wireless sensing services in case of roaming.', '', '[PR 5.24.6-2] 5G network shall provide means for mobile operator to provide / revoke authorization for the operation(s) of a 5G wireless sensing service based on location, time, specific KPI level and the origin of the request.', '', '[PR.5.24.6-3] The 5G system shall be able to provide 5G wireless sensing service with the following KPIs:', '', 'Table 5.24.6-1\tPerformance requirements of sensing results for sports monitoring', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Human motion rate accuracy&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[Hz]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency[ms]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate [s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Missed detection [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm [%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Sports monitoring&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Indoor (living room)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.05&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa02&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;60s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1min&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa01:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.24.6-1 are found in Section 3.1.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa02:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Sit-up rate = 30 times/min as reference, 0.05Hz corresponds to 3 times/min.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa03:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Push-up rate = 40 times/min as reference, 0.07Hz corresponds to 4 times/min.&lt;/span&gt;', '']</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>0.2441060226876966</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.25.1	Description&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>22837-j00.docx</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>['', 'Sensing based on the 5G signals is a technology using the difference between wireless signals and its reflective signals including the Doppler frequency shift, time of flight (ToF), amplitude variation and so on, to sense the surroundings. The information collected during sensing cannot be directly understood by human beings, providing good privacy protection. Along with 5G stepping into the home, more interesting functions can be introduced based on the sensing using 5G signals.', '', 'It will be fantastic to have an immersive audio and light experience when watching movies and listening to music in the home. The speakers can provide this kind of audio experience if they can know the position of each other and also the user. Usually, to have immersive audio experience, several speakers are needed. Ranging technology can help the speakers to determine position relative to each other and this gives a chance for speakers to provide a fantastic experience together to a listener by adjusting the audio field at a place when the listener stays at that special place.', '', 'Different from ranging service where only the UE’s position can be identified, sensing can identify the relative position of the reflector even the reflector is not a UE. If the speakers can obtain the sensing results, this will give a chance to the speakers to follow the listener and provide an immersive audio experience, even when the listener is moving around. The speakers can follow the position of the human and adjust the audio field anytime anywhere. Similar to the audio case, if the smart light can obtain the sensing results, the light can also track the user anytime anywhere to provide an immersive experience.', '', 'For the immersive experience scenario, the audio field and light adjustment should be based on the user’s position. For example, the smart screen, lights and speakers can provide immersive sound and light experience for the user who sits at the sofa area (around 2~3m&lt;sup&gt;2&lt;/sup&gt; area) and at the same time lower the sound volume and turn down the light at other places of the home avoiding the interference on others. The sensing node (e.g., smart screen, i.e., a UE) can perform sensing operations to track the user’s movement using RF signals [29] and provide the information to the speakers and lights for adjustment. Then both the lights and speakers can provide a cosy zone around the user.', '', 'In home, there is usually a mixed deployment of smart screen, lights, and speakers. We take smart screen as the sensing node as an example. Assume that the smart screen, the smart lights, and the speakers are placed in the drawing-room, and the smart screen can sense the object in the room as shown in Fig. 5.25.1-1. The smart screen (i.e., UE) can receive the reflected sensing signals transmitted by UEs in the room, or by the gNB to perform sensing operation on the user in the room.', '', ' ----media/image32.png----', '', 'Figure\xa05.25.1-1: Example deployment of the smart screen, speakers and lights', '', 'The smart screen can track the user’s position via sensing operation. Each user is assumed to occupy an area 0.5m * 0.5m and move with a speed lower than 2m/s in horizontal dimension. Then the audio field and light can be adjusted based on the user position (e.g. an area 1.5m * 1.5m) to avoid the experience deterioration even when the user is walking around.', '', 'To identify multiple users in the room, in the horizontal dimension, the resolution requires to distinguish objects as large as 0.5m. With higher accuracy on distance, each user in the room can be identify with a more accurate location such as 0.2m, the light and audio can target the user better [30]. If the results are accurate but out of date due to the movement of the user, this will also degrade the experience as the cosy zone is lagging the movement of the user. Consider the audio field and lights are adjusted in an area with 1.5m * 1.5m, to avoid the experience deterioration, the service latency should smaller than 0.5m/2m/s, i.e., 250ms. To track the user’s movement, the results need to be refreshed in 250ms, i.e., 4 times per second (4 Hz).', '', '----media/image33.png----', '', 'Figure\xa05.25.1-2: Example of accuracy required for the use case', '']</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>0.2090064992923266</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.25.1	Description&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>22856-j00.docx</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>['', 'The metaverse enables immersive virtual media, 3D avatar and holographic communications for realizing use cases such as interactive gaming, virtualized shared workspaces, and immersive conference rooms for remote collaboration, etc. The goal is to create a virtual world we can work in, interact with, and even escape to. Many mobile metaverse use cases are applicable to indoor and/or localized areas such as home, offices, stadiums, shopping malls, movie theatres, theme parks, hospitals, universities, concert halls, etc. Even though metaverse services go beyond virtual reality media presenting virtual worlds that seem to be distant, the scenarios that this use case focusses on are tied to a single physical location which is mostly indoors and serving a localized area. Such physical locations may prefer non-3GPP (trusted, untrusted or wireline) access. ', '', 'Some mobile metaverse services require more bandwidth and lower latencies which can be challenging to meet. Major improvements to satisfy these requirements of uninterrupted, lag-free, immersive mobile metaverse service experience using non-3GPP access have been made such as:', '', '-\tincorporation of 1200 MHz of new spectrum in the 6 GHz band with Wi-Fi 6E enabling bigger channel sizes up to 160 MHz', '', '-\tsupport up to 1024 QAM with Wi-Fi 6 and 6E and Wi-Fi 7 aiming to support up to 4096 QAM', '', '-\tdoubling maximum channel bandwidth available to each device to 320MHz in the 6GHz band with Wi-Fi 7', '', '-\tincorporation of High Band Simultaneous (HBS) Multi-Link Operation (MLO) in 802.11be that aggregates two simultaneous 160 MHz channels (four streams) in 5 GHz and 6 GHz bands reducing latency to &amp;lt; 2msec', '', 'In case of converged or hybrid network architecture, a single mobile metaverse user can access mobile metaverse services via 5GS using both 3GPP and non-3GPP accesses simultaneously. In such scenario, the metaverse traffic would need to be synchronized as it may be subject to varying latencies when routed over both 3GPP and non-3GPP access. Alternatively, a single mobile metaverse service can be accessed by multiple users across multiple access networks from a network operator.', '']</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>0.1930981445004257</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.25.3	Service Flows&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>22856-j00.docx</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>['', '1. Mark starts the immersive gaming via an authorized 3&lt;sup&gt;rd&lt;/sup&gt; party metaverse application using the network operators broadband access network (non-3GPP access).', '', '2. Bob joins the immersive gaming to play along with Mark via the same authorized 3&lt;sup&gt;rd&lt;/sup&gt; party mobile metaverse services using the same network operator but connecting to the 3GPP access network. ', '', '3. Both Mark and Bob experience different network conditions, e.g., bitrate, reliability, latency across the access networks. ', '', '4. 5GS exposes varying network condition changes across the two access networks to an authorized 3&lt;sup&gt;rd&lt;/sup&gt; party mobile metaverse service. ', '', '5. Based on the real-time network condition information shared by 5GS, the authorized 3&lt;sup&gt;rd&lt;/sup&gt; party mobile metaverse service adjusts the requested QoS for both users for coordinated user experience. ', '', '6. Based on the requested QoS from the authorized 3&lt;sup&gt;rd&lt;/sup&gt; party mobile metaverse service, the 5GS performs dynamic policy updates for the users to meet the desired QoS levels for the metaverse traffic and synchronizes the metaverse application data streams for both users using different access networks.', '']</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>0.1944617588748147</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.25.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>22837-j00.docx</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>LR1_signalling</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>['', '[PR 5.25.6-1] The 5G system shall be able to configure and authorize sensing for a Sensing device or a group of Sensing devices when using licensed spectrum based on the Sensing device’s location.', '', '[PR 5.25.6-2] The 5G system shall be able to enable a Sensing device to perform sensing with licensed band under operator’s control based on the Sensing device’s location.', '', '[PR 5.25.6-3] The 5G system shall be able to enable UEs without 5G coverage to use unlicensed spectrum to perform sensing.', '', '[PR 5.25.6-4] Subject to user consent and national or regional regulation, based on operator policy, the 5G system shall be able to allow a Sensing device to provide sensing results to a trusted third party.', '', '[PR 5.25.6-5] The 5G system shall be able to provide sensing with following KPIs:', '', 'Table 5.25.6-1\tPerformance requirements of sensing results for immersive experience', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area &lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[ms]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[s]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Missed detection&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Immersiveexperience&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Indoor&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;250&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(granularity of field is 1.5m x 1.5m)&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.25&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.25.6-1 are found in Section 3.1.&lt;/span&gt;', '']</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>0.2439058438318266</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.25.6	Potential New Requirements&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>22856-j00.docx</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>LR3_other</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>['', '[P.R.-5.25.6-1] Subject to operator policy and user consent, 5G system shall be able to provide means to expose network performance information (e.g., bitrate, latency) to an authorized 3rd party metaverse application.', '', '', '', 'NOTE:\tThe network performance information can be per UE and take into account all available 5G access network types with the aim of improving user experience.', '', '', '', '[P.R.-5.25.6-2] 5G system shall be able to provide means to enable authorized 3rd party to synchronize the metaverse traffic which is routed or steered over available 5G access networks.\xa0', '']</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>0.2194328575883924</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.27.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>22837-j00.docx</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>LR1_signalling</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>['', '[PR.5.27.6-1] The 5G system shall support exposing the information of sensing result (e.g., location, relative location, velocity vectors, relative headings, etc.) to the trusted and secure mission critical applications.', '', '&lt;span style="color:000000"&gt;[PR.5.27.6-2] The 5G system shall support mechanisms for combining 3GPP sensing data and non-3GPP sensing data (e.g., body cameras.) depending on location, availability of non-3GPP sensing data, and public safety applications.&lt;/span&gt;', '', '[PR.5.27.6-3] The 5G system shall support security and protection of the 3GPP sensing data, non-3GPP sensing data, and sensing results.', '', '[PR.5.27.6-4] The 5G system shall provide a secure sensing service for Mission Critical Services.', '', '[PR.5.27.6-5] The 5G system shall be able to provide the sensing service with the following KPIs:', '', 'Table 5.27.6-1\tPerformance requirements of sensing results for public safety search and rescue or apprehend', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area &lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[ms]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[s]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Missed detection&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Search and Rescue/Apprehend&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Outdoor/Indoor&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;99&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;≤ 0.5&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;≤ 1.&lt;/span&gt;&lt;span style="color:0C0C0C;font-size:16pt"&gt;0&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;Pedestrian: ≤1.5&lt;/span&gt;', '', '', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;Pedestrian: ≤1.5&lt;/span&gt;', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Horiz: 5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Vert: 5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤1s&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≥10Hz&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤3]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤3]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.27.6-1 are found in Section 3.1.&lt;/span&gt;', '']</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>0.2451619949095651</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.28.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>22837-j00.docx</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>LR1_signalling</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>['', '[PR 5.28.6-1] The 5G system shall be able to configure and authorize UEs supporting V2X applications to perform sensing.', '', '[PR 5.28.6-2] The 5G system shall be able to c&lt;b&gt;ollect charging information &lt;/b&gt;for UEs supporting V2X applications when performing sensing.', '', '[PR 5.28.6-3] The 5G system shall be able to support the following KPIs:', '', 'Table 5.28.6-1 KPIs for Vehicles Sensing for ADAS', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency[ms]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate [s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Missed detection [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm [%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="color:auto;font-size:16pt"&gt;ADAS&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[long range Radar]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Outdoor &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[95]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[≤1.3] &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤0.5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[≤ 0.12]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa04&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt; [0.4]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa05&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[≤ 0.6]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa04&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[50]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[≤ 0.2]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[≤ 10]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[&amp;lt;1]&lt;/span&gt;', '', '&lt;span style="color:auto;font-size:16pt"&gt;ADAS&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[Short range Radar]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Indoor (parking space)/Outdoor &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[95]&lt;/span&gt;', '', '', '', '\t\t', '', '&lt;span style="font-size:16pt"&gt;[≤2.6]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤0.5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[≤ 0.12]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa04&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[0.4]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa05&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[≤ 0.6]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa04&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[20]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[≤ 0.05]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[≤ 10]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[&amp;lt;1]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa01:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.28.6-1 are found in Section 3.1.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa02:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Assuming typical max range of 250m, range accuracy of 10cm, azimuth accuracy of ±0.3deg. Positioning accuracy as (Min-Max) within field of view.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa03:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Assuming typical max range of 30m, range accuracy of 2cm, azimuth accuracy of ±5deg.Positioning accuracy as (Min-Max) within field of view.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa04:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Velocity accuracy and resolution is typically reported for the radial velocity (not absolute H/V velocity).&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa05:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Range resolution typically reported as 3D ranging distance accuracy.&lt;/span&gt;', '']</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>0.2465879816349623</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.29.1	Description&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>22837-j00.docx</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>['', 'As a new way of human-device interface, gesture recognition enables a more intuitive interaction between humans and machines, compared to the conventional text or GUI-based interfaces. Common applications of gesture recognition include touchless control of mobile devices, such as smartphones, laptops, and smart watches. Compared to other use cases, such as sports monitoring or sleep monitoring, gesture recognition requires higher resolution, higher update rate, and lower latency, which makes it more challenging in terms of resource utilization and processing complexity. ', '', 'Gesture recognition identifies motions and postures of human body parts, such as head, hands, and fingers. As shown in Figure\xa05.29.1-1, gesture recognition can be applied to various applications such as human motion recognition, keystroke detection, sign language recognition and touchless control.', '', '', '', '----media/image37.png--------media/image39.png--------media/image41.png--------media/image42.png--------media/image43.png--------media/image44.png----', '', '', '', 'Gesture/motion/posture recognition', '', '--\tHuman motion recognition', '', '--\tKeystroke detection', '', '--\tTouchless control', '', '--\tSign language recognition', '', 'Figure\xa05.29.1-1 Gesture Recognition', '', 'In this use case, we focus on application of gesture recognition for touchless control and immersive (i.e. XR) application.', '', 'For touchless control, the identified gestures are then interpreted to specific behaviours or operations of the device, including locking/unlocking a screen, increasing/decreasing volume, and navigating forward/backward web pages.', '', 'For XR application, the position tracking and mapping of the human body is a basic requirement that permeates XR application to provide the immersive experience [55]. Hereby a variety of sensors are integrated in the XR devices to measure the movement of the human body (e.g., head, eye, hand, arm, etc) in order to simulate normal human mimicry. Besides, the hand tracking goes beyond the simulation and enables a natural and intuitive way of the interaction between the human and the machine compared with the use of the physical controller. The gesture recognition and hand tracking becomes a vital function in XR applications, especially when the human and the controlled object stay in physical and virtual world separately.', '', 'For both touchless control and XR application, NR-based RF sensing is suitable for gesture recognition because certain RF signals can detect small body movements and the RF signals are not susceptible to the ambient illumination condition and occlusions in the environment. In addition, NR-based RF sensing allows for finger and hand tracking in a lower-complexity and economic manner.', '']</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>0.2240872407497982</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.29.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>22837-j00.docx</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>LR1_signalling</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>['', 'Editor’s note: Functional requirements are FFS.', '', '[PR 5.29.6-1] The 5G system shall be able to provide sensing with the following KPIs:', '', 'Table 5.29.6-1\tPerformance requirements of sensing results for gesture recognition', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Motion rate accuracy&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency[ms]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate [s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Missed detection [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm [%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Gesture recognition&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Indoor&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;FFS&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;FFS&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;FFS&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[0.3]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;FFS&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤&lt;/span&gt;&lt;span style="font-size:16pt"&gt;0.1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;FFS&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;FFS&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa01:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.29.6-1 are found in Section 3.1.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa02:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;KPIs provided in table are derived from [56] and with the use of the pre-defined gestures to be identified some of the KPIs e.g. positioning accuracy and range resolution could be relaxed.&lt;/span&gt;', '']</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>0.2465318386050731</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.3.1	Description&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>22856-j00.docx</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>['', 'Since the industrial age, engineering design has become an extremely demanding activity. Collaborative and concurrent engineering occur as a concept and methodology at the end of the last century and was defined as a systematic approach to integrated and co-design of products and their related processes. The diversity and complexity of actual products, requires collaboration of engineers from different geographic locations to share the ideas and solutions with customer and to evaluate products development. VR and AR technologies have found their ways into critical applications in industrial sectors such as aerospace engineering, automotive engineering, medical engineering, and also in the fields of education and entertainment. The range of technologies include Cave Automatic Virtual Environment (better known by the recursive acronym CAVE) environments, reality theatres, power walls, holographic workbenches, individual immersive systems, head mounted displays, tactile sensing interfaces, haptic feedback devices, multi-sensational devices, speech interfaces, and mixed reality systems [6].', '', '----media/image7.png----', '', 'Figure\xa05.3.1-1: XR enabled collaborative and concurrent engineering in product design ', '(Source: https://vrtech.wiki/)', '', 'One of the key challenges is to how to enable a distributed virtual environment (DVE) allowing multiple users from different geographical locations (some of them are present at the same location) to interact over a network. A DVEs is defined as multi-user virtual reality that actively support communication, collaboration, and coordination [7], 3D place-like environment in which participants are provided with graphical embodiments called avatars that convey their identity, presence, location, and activities to others [8]. A DVE is the simultaneous existence of multiple users in the same virtual space represented as avatars, their communication, the shared exploration of 3D visualizations, and the collaborative construction of new content. This avatar representation is essential for every user knows about the actual perceptions of other users. The users can communicate with each other. They can interact with other users and with the virtual environment. A DVE in the terms of this study is a location agnostic service experience.', '', 'To support DVEs for collaborative and concurrent engineering, the 5G system needs to fulfil certain KPIs, such as latency, data rate, reliability. Moreover the 5G system (with mobile metaverse services) is expected to support the fundamental features including:', '', '- mobile metaverse media support among multiple users;', '', '- User Identity management;', '', '- data security.', '']</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>0.2054718399430302</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.3.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>22837-j00.docx</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>LR1_signalling</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>['', '[PR 5.3.6-1] The 5G network shall support collection of the NR based 3GPP sensing data from the base station.', '', '\t[PR 5.3.6-2] Based on operator’s policy, the 5G system shall support mechanisms to process the 3GPP sensing data to derive the sensing results.', '', '[PR 5.3.6-3] Based on operator’s policy, the 5G system shall provide mechanisms to expose NR based sensing results with sensing contextual information, e.g. location, to a trusted third-party application via the core network.', '', '[PR 5.3.6-4] The 5G system shall support sensing services with KPIs as given in Table 5.3.6-1.', '', 'Table 5.3.6-1\tPerformance requirements of sensing results for rainfall monitoring', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;&lt;b&gt;Rainfall estimation accuracy&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;(for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency[ms]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate [s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Missed detection [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm [%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Rainfall monitoring&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;outdoor&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[1mm/h]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa02&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1 min&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;10min, application configurable&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa01:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.3.6-1 are found in Section 3.1.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa02:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;For rainfall rain rate &amp;gt;1 mm/h[39]. Rainfall estimation accuracy describes the closeness of the measured rainfall estimation to its true rainfall value.&lt;/span&gt;', '', 'NOTE:\tIn this use case base station is acting as sensing transmitter and/or sensing receiver. This is an example and other options can also be valid.', '']</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>0.2414006244899207</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.32.1	Description&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>22837-j00.docx</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>['', 'Autonomous Mobile Robots (AMR)s and automated guided vehicle (AGV) are enabling solutions for a smart factory environment, in which a diversity of logistic tasks are done with an autonomous and efficient implementation, with minimal direct human engagement. In order to achieve a safe and efficient operation to serve a desired goal (e.g., transfer of construction materials with minimal risk, delay and energy consumption), a command center may take over the task of collecting the information of the involved facilities and performing a coordinated planning of the device operations. Nevertheless, a safe and efficient operation of the mobile devices may be only achieved on the condition of an accurate awareness of the environment (e.g., obstacles, humans) and the device positioning/tracking information (e.g., AGV/AMR position and velocity).', '', 'In view of the above, the 5G system shall serve the implementation of a smart factory by means of a reliable data connectivity (e.g., the low-latency and reliable AGV/AMR to command center connection) and positioning of the involved AGV/AMR UE devices. Furthermore, the 5G system sensing services can be utilized to augment the environment awareness by means of detecting and locating the non-connected objects (e.g., obstacles such as trash box, or safety-sensitive objects such as human, etc.).', '', 'In addition to the detection of the non-connected objects, the 5G system sensing enables a higher positioning and tracking accuracy of a target UE at the 5G system, by means of augmenting the positioning and sensing capabilities [27]. In case of an AMR/AGV, the positioning measurement of a device can be augmented at the 5G system with the 3GPP sensing data obtained from the reflections of the sensing signal from the AMR/AGV physical body, in the interest of a higher environment awareness and positioning accuracy, as well as the additional information obtained via sensing of the AMR/AGVs (e.g., orientation of an AMR). In particular, when both 5G system sensing and positioning services are activated, the same 5G system nodes (e.g., sensing Tx nodes) and 5G system signals (e.g., positioning or sensing signals) can be reused to efficiently generate and process the desired sensing and positioning measurements, see Figure\xa05.32.1-1 as an example of a joint sensing and positioning of a UE.', '', '----media/image47.png----', '', 'Figure\xa05.32.1-1 The 5G system obtains position estimate of a UE, utilizing 3GPP sensing data of the UE obtained from the 5G wireless sensing service, in combination with the positioning measurement of the UE', '', 'The obtained higher positioning accuracy of an AGV/AMR is particularly valuable for coordination of multiple AGVs and AMR with indeterministic movement paths, wherein the situations involving sudden break and/or velocity change may lead to a high delay, damage risk, and interruption energy loss.', '', '&lt;span style="font-size:28pt"&gt;5.32.2&lt;/span&gt;\t&lt;span style="font-size:28pt"&gt;Pre-conditions&lt;/span&gt;', '', 'Multiple AMR/AGVs are deployed in a factory hall belonging to the company &lt;b&gt;X&lt;/b&gt;. The AMR/AGVs are coordinated by a command center to perform a collaborative construction task. The command center coordinates the AMR/AGVs’ movements to improve safety and to avoid energy loss (due to an AMR/AGV break) and delay as much as possible.', '', 'To facilitate this, the factory hall is equipped with the 5G system sensing services provided by the Mobile Network Operator (MNO) &lt;b&gt;A&lt;/b&gt;. Moreover, the AMR/AGVs are equipped with the 5G system communication and positioning modules.', '', 'The company &lt;b&gt;X&lt;/b&gt; has provided the MNO with the physical type/characteristics of the deployed AMR/AGVs, as well as the installed camera data of the factory hall to assist detection and positioning of the AMR/AGVs via sensing.', '']</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>0.2003240680783756</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.4.5		Existing features partly or fully covering the use case functionality&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>22843-j00.docx</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>['', 'SA1 has performed study on UAV DAA in previous releases, where related normative stage 1 requirements are introduced in TS 22.125 [3]. ', '', '&lt;b&gt;TS 22.125 clause 6.2 introduces the network support for UAV detection as below:&lt;/b&gt;', '', '[R-5.2.1-001] The 3GPP system shall provide a mechanism for a UTM to provide route data, along with flight clearance, to a UAV.', '', '[R-5.2.1-002] The 3GPP system shall be able to deliver route modification information received from a UTM to a UAS with a latency of less than 500ms.', '', '[R-5.2.1-003] The 3GPP system shall be able to deliver the notifications received from a UTM to a UAV controller with a latency of less than 500ms.', '', '[R-5.2.1-004] Based on MNO policies and/or regulatory requirements, the 3GPP system shall enable the UTM to take over the communication used to control the UAV.', '', '&lt;b&gt;TS 22.125 clause 5.2 introduces the introduces network support for UAV avoidance as below:&lt;/b&gt;', '', '[R-6.2-001] The 3GPP system shall provide means to allow a 3rd party to request and obtain real-time monitoring the status information (e.g., location of UAV, communication link status) of a UAV.', '', "[R-6.2-002] Based on operator 's policy, the 3GPP system shall provide means to provide a 3rd party with the information regarding the service status for UAVs in a certain geographical area and/or at a certain time.", '']</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>0.1749353197004262</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.5.1	Description&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>22851-j00.docx</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>LR1_signalling</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>['', "Subscribers have the opportunity to visit the Hosted Services via its own operator's network, specified in TS 22.261[3]. These Hosted Services contain applications provided by operators and/or trusted 3rd parties. Usually, operators use some technologies to optimize the path of the user plane to reduce latency and bandwidth pressure, if the Hosted Services run on the operator's Service Hosting Environment.", '', 'GSMA provides a scenario when Hosted Services of party operator is located at a shared edge node of hosting operator, the Hosted Services are also applicable for the users accessing through the PLMN of party operator. The sharing edge node means that hosting operator deploys applications on cloud resources in its edge node as requested by a party operator and provides an application endpoint to the party operator, referred to S2-2208120.', '', 'However, when users access through a shared network, it is still expected the Hosted Services to be available. This use case provides the possibility for subscribers visiting Hosted Services via shared networks.', '']</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>0.2106803475133468</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.5.5		Existing features partly or fully covering the use case functionality&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>22843-j00.docx</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>['', '&lt;b&gt;Related requirements in TS 22.125:&lt;/b&gt;', '', '[R-5.1-003] The 3GPP system shall enable a UAS to send UTM the UAV data which can contain: unique identity (this may be a 3GPP identity), UE capability of the UAV, make &amp;amp; model, serial number, take-off weight, position, owner identity, owner address, owner contact details, owner certification, take-off location, mission type, route data, operating status.', '', '[R-5.1-004] The 3GPP system shall enable a UAS to send UTM the UAV controller data which can contain: unique identity (this may be a 3GPP identity), UE capability of the UAV controller, position, owner identity, owner address, owner contact details, owner certification, UAV operator identity, UAV operator license, UAV operator certification, UAV pilot identity, UAV pilot license, UAV pilot certification and flight plan.', '', '[R-5.1-006] The 3GPP system shall support capability to extend UAS data being sent to UTM with the evolution of UTM and its support applications in future. ', '', '[R-5.1-009] The 3GPP system should enable an MNO to augment the data sent to a UTM with the following: network-based positioning information of UAV and UAV controller.', '', '[R-5.1-017] The 3GPP system shall support the UTM in detection of UAV operating without authorization.', '', '[R-6.3-001] The 3GPP network shall be able to support network-based 3D space positioning (e.g., with altitude 30~300m) of a UE onboard UAV.', '', 'Table 7.3-1 lists typical scenarios and the corresponding positioning requirements for horizontal and vertical accuracy, availability, heading, latency, and UE speed.', '', '&lt;b&gt;Related requirements in TS 22.261:&lt;/b&gt;', '', 'The 5G system shall be able to make the position-related data available to an application or to an application server existing within the 5G network, external to the 5G network, or in the User Equipment. ', '', 'NOTE: \t\tthe position service latency can be tailored to the use cases.', '']</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>0.1817370775706391</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.5.5	Existing Features partly or fully covering Use Case Functionality&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>22851-j00.docx</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>LR3_other</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>['', 'Session 6.5 of TS 22.261 mainly introduces the relevant terms and related requirements of Hosted Services. Some typical requirements for service in network sharing are:', '', '&lt;span style="font-size:18pt"&gt;&lt;i&gt;5G is designed to meet diverse services with different and enhanced performances (e.g. high throughput, low latency and massive connections) and data traffic model (e.g. IP data traffic, non-IP data traffic, short data bursts and high throughput data transmissions).&lt;/i&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;i&gt;User plane should be more efficient for 5G to support differentiated requirements. On one hand, a Service Hosting Environment located inside of operator\'s network can offer Hosted Services closer to the end user to meet localization requirement like low latency, low bandwidth pressure. These Hosted Services contain applications provided by operators and/or trusted 3rd parties. On the other hand, user plane paths can be selected or changed to improve the user experience or reduce the bandwidth pressure, when a UE or application changes location during an active communication.&lt;/i&gt;&lt;/span&gt;', '', 'In addition, Chapter 4.23.9 of 23.502[7] provides some further work related with efficient user plane, which mainly describe additional PDU Session Anchor and Branching Point or UL CL controlled by I-SMF.', '']</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>0.2031616129398786</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.5.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>22837-j00.docx</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>LR1_signalling</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>['', '[PR 5.5.6-1] Subject to operator policy, the 5G system shall be able to provide sensing result indicating disasters or other emergencies (e.g., flooding) in a given geographic area to authorized third parties in a timely manner.', '', '[PR 5.5.6-2] Subject to regional or national regulatory requirements and operator policy, the 5G system shall be able to provide its public warning system with a warning notification based on sensing result indicating disasters or other emergencies (e.g., flooding) in a given geographic area in a timely manner.', '', '[PR 5.5.6-3] Subject to operator policy, it shall be possible for an authorized third party to configure the 5G system to initiate sensing for disasters or other emergencies (e.g., flooding) in a given geographic area.', '', '[PR 5.5.6-4] The 5G system shall be able to support the following KPIs:', '', 'Table 5.5.6-1\tPerformance requirements of sensing for flooding in smart cities', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency[ms]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate [s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Missed detection [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm [%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;sensing for flooding in smart cities&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Outdoor&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤10&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤0.2]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE\xa02&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤ 1min&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 1min&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 0.1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa01:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.5.6-1 are found in Section 3.1.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa02:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;This value is for the water level. Description related to NOTE in clause 5.5.1 suggests 0.01 m. [≤0.2] is derived from the water level where people feel difficulty in walking.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa03:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Description related to NOTE in clause 5.5.1 suggests 2 minute-interval monitoring when the water level of the river rises quickly. &lt;/span&gt;', '']</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>0.241178331793445</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.6.3		Service Flows&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>22843-j00.docx</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>['', '----media/image7.emf----', '', 'Figure 5.6.3-1: Supporting UAV inflight monitoring', '', '1.\tThe logistics company uses UAV\xa0A and UAV\xa0B to perform delivery operations. UAVs planned flight paths shared a common portion, along waypoint #1 and waypoint #2.', '', '2.\tUAV/UAV-C\xa0A and UAV/UAV-C\xa0B register in 5G network and can communicate with UTM though 5G network.', '', '3.\tThe UAV-C A provides planned flight path\xa0#A information to UTM (e.g., flight path and required QoS along the planned flight path).', '', '4.\tUAV\xa0A receive the flight path information from UTM/UAS via 5G network and start flight mission.', '', '5.\tUTM requests 5G network for network condition information (e.g., bitrate, latency, reliability) along the flight path of UAV\xa0A.', '', '6.\tThe 5G network provides the requested statistics (e.g., end-to-end latency, QoE) for specific requested area/areas (e.g., degraded QoE at waypoint\xa0#2).', '', '7.\tThe UAV-C B provides planned flight path\xa0#B (along waypoint\xa0#1 and waypoint\xa0#2) information to UTM.', '', "8.\tUTM/UAS determines the final flight path\xa0#B (e.g., adjusted to take waypoint\xa0#2') and scheduling for UAV/UAV-C\xa0B based on the information from Operator\xa0A along UAV\xa0A flight route, and sends it to UAV/UAV-C\xa0B.", '', '9.\tUAV\xa0B receive the flight path\xa0#B information from UTM/UAS via 5G network and start flight mission.', '']</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>0.1951345048003239</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.6.5		Existing features partly or fully covering the use case functionality&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>22843-j00.docx</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>['', 'Existing related service requirements are captured in 3GPP\xa0TS\xa022.125\xa0[3] clause\xa06.2 "Network exposure for UAV services".', '', '[R-6.2-001] The 3GPP system shall provide means to allow a 3&lt;sup&gt;rd&lt;/sup&gt; party to request and obtain real-time monitoring the status information (e.g., location of UAV, communication link status) of a UAV.', '', "[R-6.2-002] Based on operator 's policy, the 3GPP system shall provide means to provide a 3&lt;sup&gt;rd&lt;/sup&gt; party with the information regarding the service status for UAVs in a certain geographical area and/or at a certain time.", '', 'NOTE:\tService status is about the information of whether the communication service to the UAV can be provided with a certain QoS by the network.', '', 'These requirements do not include explicit requirements on QoS related network conditions like bitrate, latency and reliability.', '']</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>0.187487220571948</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.6.5	Existing features partly or fully covering the use case functionality&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>22856-j00.docx</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>['', 'In clause 6.43.2 of 3GPP TS 22.261, there are the following requirements:', '', 'The 5G system shall enable an authorized 3rd party to provide policy(ies) for flows associated with an application. The policy may contain e.g. the set of UEs and data flows, the expected QoS handling and associated triggering events, and other coordination information.', '', 'The 5G system shall support a means to apply 3rd party provided policy(ies) for flows associated with an application. The policy may contain e.g. the set of UEs and data flows, the expected QoS handling and associated triggering events, and other coordination information.', '', 'NOTE:\tThe policy can be used by a 3rd party application for the coordination of the transmission of multiple UEs’ flows (e.g., haptic, audio, and video) of a multi-modal communication session.', '', '5.6.6\tPotential New Requirements needed to support the use case&lt;span style="font-size:28pt"&gt; &lt;/span&gt;[PR 5.6.6-1] The 5G System shall support the transmission of uplink sensor data transmission and downlink feedback information with stringent requirements on packet delay and bandwidth for real-time interaction.', '', '[PR.5.6.6-2] The 5G System shall support a mechanism to obtain the location and gestures of the players with stringent requirements on 3D positioning accuracy.', '', 'KPI requirements related to the potential requirements:', '', '&lt;b&gt;Table\xa05.6.6-1 – Potential key performance requirements for immersive gaming and live shows&lt;/b&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Use Case&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Characteristic parameter (KPI)&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;End-to-end latency&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Service bit rate: user-experienced data rate&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Reliability&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Positioning accuracy&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Mobile Metaverse for immersive gaming and live shows&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[5~20] ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[1~1000] Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[&amp;gt;99.99%]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[&amp;lt;1] m&lt;/span&gt;', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>0.2149964669038869</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.6.6		Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>22843-j00.docx</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>['', '[P.R 5.6.6-001] Based on operator’s policy, the 5G system shall be able to provide a method to monitor and provide a 3rd party with information about network conditions and QoS (e.g. bitrate, latency, reliability) along a UAV flight path.', '', '[P.R 5.6.6-002] Based on operator’s policy, the 5G system shall be able to provide a method to monitor and provide a 3rd party with information about deviations and violations along a UAV flight path and time.', '', 'NOTE:\tDeviations can be e.g. in location and/or time with respect to the original flight plan. Violations can be e.g. with respect to exclusion zones provided together with the flight plan or known via other means.', '']</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>0.2014043830145139</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.6.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>22837-j00.docx</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>LR1_signalling</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>['', '[PR 5.6.6-1] Subject to operator policy, the 5G system shall be able to collect 3GPP sensing data and yield sensing result from the data for detection of outdoor objects.', '', '[PR 5.6.6-2] The 5G system shall be able to support the following KPIs:', '', 'Table 5.6.6-1\tPerformance requirements of intruder detection in surroundings of smart home', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency[ms]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate [s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Missed detection [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm [%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;intruder detection in surroundings of smart home&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Outdoor&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤2&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤1000&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 0.1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.6.6-1 are found in Section 3.1.&lt;/span&gt;', '']</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>0.2463448219869709</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.6C.1	Description&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>22104-j00.docx</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>LR3_other</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>['', 'Transmission infrastructure is a key component of the energy system. Communication enables protection of this infrastructure. The algorithms involved depend on certain constraints must be met, particularly concerning the end-to-end latency.', '']</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>0.2111638407176569</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.6C.2	Requirements&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>22104-j00.docx</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>['', 'The 5G system shall support an end-to-end latency of less than 5 ms or 10 ms, as requested by the UE initiating the communication.', '', 'NOTE 1: Whether the end-to-end latency is 5 ms or 10 ms depends on the applied voltage level. ', '', 'NOTE 2: The end-to-end latency is between two UEs, including two wireless links.', '', 'The 5G system shall support communication channel symmetry in terms of end-to-end latency (latency from UE1 to UE2, and end-to-end latency from UE2 to UE1), with an asymmetry of &amp;lt; 2ms. ', '']</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>0.1657027281025913</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.7.1	General requirements&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>22104-j00.docx</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>['', 'High accuracy positioning is becoming essential for Factories of the Future. The reason for this is that tracking of mobile devices as well as mobile assets is becoming increasingly important in improving processes and increasing flexibility in industrial environments.', '', 'The 5G system shall provide positioning information for a UE that is out of coverage of the network, with accuracy of &amp;lt;\xa0[1 m] relative to other UEs that are in proximity and in coverage of the network.', '', 'Table 5.7.1-1 below lists typical scenarios and the corresponding high positioning requirements for horizontal and vertical accuracy, availability, heading, latency, and UE speed.', '', 'NOTE:\tThe column on "Corresponding Positioning Service Level in TS 22.261" maps the scenarios listed in Table 5.7.1-1 to the service levels defined in TS 22.261 [2].', '', 'Table 5.7.1-1: Positioning performance requirements', '', 'Scenario', '', 'Horizontal accuracy', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Vertical accuracy&lt;/b&gt;&lt;/span&gt;', '', 'Availability', '', 'Heading', '', 'Latency for position estimation of UE', '', 'UE speed', '', 'Corresponding Positioning Service Level in TS 22.261', '', 'Mobile control panels with safety functions (non-danger zones)', '', '&amp;lt; 5 m ', '', '&lt;span style="font-size:18pt"&gt;&amp;lt; 3 m&lt;/span&gt;', '', '90\xa0%', '', 'n/a', '', '&amp;lt; 5 s', '', 'n/a', '', 'Service Level 2', '', 'Process automation – plant asset management', '', '&amp;lt; 1 m', '', '&lt;span style="font-size:18pt"&gt;&amp;lt; 3 m&lt;/span&gt;', '', '90\xa0%', '', 'n/a', '', '&amp;lt; 2 s', '', '&amp;lt; 30 km/h', '', 'Service Level 3', '', 'Flexible, modular assembly area in smart factories (for tracking of tools at the work-place location)', '', '&amp;lt; 1\xa0m (relative positioning)', '', 'n/a', '', '99\xa0%', '', 'n/a', '', '1 s', '', '&amp;lt; 30 km/h', '', 'Service Level 3', '', 'Augmented reality in smart factories', '', '&amp;lt; 1 m', '', '&lt;span style="font-size:18pt"&gt;&amp;lt; 3 m&lt;/span&gt;', '', '99\xa0%', '', '&amp;lt;\xa00.17\xa0rad ', '', '&amp;lt; 15 ms', '', '&amp;lt; 10 km/h', '', 'Service Level 4', '', 'Mobile control panels with safety functions in smart factories (within factory danger zones)', '', '&amp;lt; 1 m', '', '&lt;span style="font-size:18pt"&gt;&amp;lt; 3 m&lt;/span&gt;', '', '99.9\xa0% ', '', '&amp;lt;\xa00.54\xa0rad', '', '&amp;lt; 1 s', '', 'n/a', '', 'Service Level 4', '', 'Flexible, modular assembly area in smart factories (for autonomous vehicles, only for monitoring purposes)', '', '&amp;lt; 50 cm', '', '&lt;span style="font-size:18pt"&gt;&amp;lt; 3 m&lt;/span&gt;', '', '99\xa0%', '', 'n/a', '', '1 s', '', '&amp;lt; 30 km/h', '', 'Service Level 5', '', 'Inbound logistics for manufacturing (for driving trajectories (if supported by further sensors like camera, GNSS, IMU) of indoor autonomous driving systems))', '', '&amp;lt; 30 cm (if supported by further sensors like camera, GNSS, IMU) ', '', '&lt;span style="font-size:18pt"&gt;&amp;lt; 3 m&lt;/span&gt;', '', '99.9\xa0%', '', 'n/a', '', '10 ms', '', '&amp;lt; 30 km/h', '', 'Service Level 6', '', 'Inbound logistics for manufacturing (for storage of goods)', '', '&amp;lt; 20 cm', '', '&lt;span style="font-size:18pt"&gt;&amp;lt; 20 cm&lt;/span&gt;', '', '99\xa0%', '', 'n/a', '', '&amp;lt; 1 s', '', '&amp;lt; 30 km/h', '', 'Service Level 7', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>0.2178547054320989</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.7.3	Service Flows&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>22865-j00.docx</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>['', '1. Ed is hiking along the planned route in the Amazon Rainforest, with good connection to ground network through satellite access.', '', '2. Suddenly, Ed is knocked by a piece of deadwood and his left arm is wounded.', '', '3. Ed can not go on his ride with poor medical measures, so he dials the rescue phone number for help.', '', '4. Based on the position information of Ed provided by SatA and TerrB, the rescue center finds Bell is the nearest rescuer and transfers the call to Bell.', '', '5. Bell answers the phone call with satellite access and tries to find Ed based on the real-time position information of Ed. For lower communication latency, this phone call is routed by only one satellite without going through the ground network of TerrA and TerrB.', '']</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>0.2303657488545731</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.7.5	Existing features partly or fully covering the use case functionality&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>22882-j00.docx</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>LR3_other</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>['', 'The QoS monitoring requirements have been specified in the TS22.261 section 6.23. But it has not any consideration on energy consumption. Some related requirements are listed below:', '', '&lt;i&gt;The 5G system shall be able to provide real time QoS parameters and events information to an authorized application/network entity. &lt;/i&gt;', '', '&lt;i&gt;NOTE 2:&lt;/i&gt;\t&lt;i&gt;The QoS parameters to be monitored and reported can include latency (e.g. UL/DL or round trip), jitter, and packet loss rate.&lt;/i&gt;', '', '&lt;i&gt;The 5G system shall support different levels of granularity for QoS monitoring (e.g. per flow or set of flows)&lt;/i&gt;', '', '&lt;i&gt;The 5G system shall support an update/refresh rate for real time QoS monitoring with a specified value (e.g., at least one update per second)&lt;/i&gt;', '', 'In TR 28.829 [25], there are solutions of collect network information of energy utility via OA&amp;amp;M. ', '', 'In TR28.913 [26], section 4.6, the key issue is to add reliability KPI into the URLLC network slice energy efficiency formula. In this key issue, the energy efficiency is calculated in the 3GPP domain, the related information is not exposed together to external.', '']</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>0.1847941407926693</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.7.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>22837-j00.docx</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>LR1_signalling</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>['', '[PR 5.7.6-1] Subject to operator policy, the 5G system shall enable the core network to collect and aggregate 3GPP sensing data data from RAN.', '', '[PR 5.7.6-2] Subject to operator policy, the 5G system shall enable the core network to expose a suitable API to provide the information regarding sensing results to authorized third parties.', '', '[PR 5.7.6-3] The 5G system shall be able to support the following KPIs:', '', 'Table 5.7.6-1\tPerformance requirements of sensing results for railway intrusion detection', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency[ms]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate [s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Missed detection [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm [%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;Intrusion detection on a railway&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;Outdoor (Along railway)&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;≤1.5&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;˂1500&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;≤ 0.1&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.7.6-1 are found in Section 3.1.&lt;/span&gt;', '', 'NOTE:\tIn this use case base station and UE is acting as sensing transmitter and/or sensing receiver. This is an example and other options can also be valid.', '']</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>0.2432506283249894</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.7.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>22856-j00.docx</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>['', '[PR 5.7.6-1] Subject to operator policy, the 5G system shall support a means to provide high data rate transmission to a UE during an extended period of time, including when in high-speed mobility.', '', 'NOTE 1:\tMetaverse service experience over an extended period of time (e.g. 2h) requires significant power consumption by the UE. In some cases, a device with no external power supply cannot sustain downloading and rendering of media over a long interval, e.g. for the duration of an entire feature film or athletic event.', '', '[PR 5.7.6-2] Subject to operator policy, the 5G system shall support a mechanism that enables flexible adjustment of communication services based on the type of devices (e.g., wearables), such that the services can be operated with reduced energy utilization.', '', '[PR 5.7.6-3] Subject to operator policy, the 5G system shall support a means to enable interactive immersive multiparty communications in the metaverse service.', '', 'NOTE 2: The multiparty immersive communication (e.g. amongst multiple friends) could be location related or location agnostic.', '', 'Table\xa05.7.6-1 – Potential key performance requirements for Immersive AR interactive experience: tethered link', '', '', '', 'Characteristic parameter (KPI)', '', 'Influence quantity', '', '', '', 'Max allowed end-to-end latency', '', 'Service bit rate: user-experienced data rate', '', 'Reliability', '', '# of UEs', '', '', '', 'UE Speed', '', 'Service Area', '', '', '', 'Viewports streaming from rendering device to AR glasses through direct device connection', '', '(tethered/relaying case)', '', '(note 1)', '', '&lt;b&gt;10 ms (i.e., UL+DL between AR Glasses display and the rendering UE) (note 2)&lt;/b&gt;', '', '[200-2000] Mbit/s', '', '&lt;b&gt;99,9 % (note 2)&lt;/b&gt;', '', '&lt;b&gt;1-2&lt;/b&gt;', '', 'Stationary or pedestrian', '', '', '', 'Pose information from AR glasses to rendering device through direct device connection', '', '(tethered/relaying case)', '', '(note 1)', '', '&lt;b&gt;5 ms (note 2)&lt;/b&gt;', '', '[100-400] Kbit/s (note 2)', '', '&lt;b&gt;99,99 % (note 2)&lt;/b&gt;', '', '&lt;b&gt;1-2&lt;/b&gt;', '', 'Stationary or pedestrian', '', '\t', '', 'Note 1: These KPIs are only valid for cases where the viewport rendering is done in the tethered device and streamed down to the AR glasses. In the case of rendering capable AR glasses, these KPIs are not valid.', '', 'Note 2: These values are aligned with the tactile and multi-modal communication KPI table in TS 22.261 [5], cl 7.11', '', '', '', 'Table\xa05.7.6-2 – Potential key performance requirements for Immersive AR interactive experience: NG-RAN multimodal communication link', '', '', '', '', '', 'Characteristic parameter (KPI)', '', 'Influence quantity', '', '', '', 'Max allowed end-to-end latency', '', 'Service bit rate: user-experienced data rate', '', 'Reliability', '', '# of UEs', '', '', '', 'UE Speed', '', 'Service Area', '', '', '', 'Movie streaming from metaverse server to the rendering device', '', '(note 2)', '', '&lt;b&gt;Only relevant for live streaming.&lt;/b&gt;', '', '&lt;b&gt;[1-5] s in case of live streaming&lt;/b&gt;', '', '[0,1-50] Mbit/s (i.e., covering a complete OTT ladder from low resolution to 3D-8K)', '', '(note 1)', '', '&lt;b&gt;99,9 %&lt;/b&gt;', '', '&lt;b&gt;1 to [10]&lt;/b&gt;', '', '[up to 500 km/h]', '', '-', '', 'Avatar information streaming between remote UEs (end to end)', '', '(note 3)', '', '&lt;b&gt;20 ms (i.e., UL between UE and the interface to metaverse server + DL back to the other UE)&lt;/b&gt;', '', '[0,1-30] Mbit/s', '', '&lt;b&gt;99,9 %&lt;/b&gt;', '', '&lt;b&gt;1 to [10]&lt;/b&gt;', '', '[up to 500 km/h]', '', '-', '', 'Interactive data exchange: voice and text between remote UEs (end to end)', '', '(note 4)', '', '&lt;b&gt;20 ms (i.e., UL between UE and the interface to metaverse server + DL back to the other UE)&lt;/b&gt;', '', '[0,1-0,5] Mbit/s ', '', '&lt;b&gt;99,9 %&lt;/b&gt;', '', '&lt;b&gt;1 to [10]&lt;/b&gt;', '', '[up to 500 km/h]', '', '-', '', 'Note 1: These values are aligned with “high-speed train” DL KPI from TS 22.261 [5] cl 7.1', '', 'Note 2: To leverage existing streaming assets and delivery ecosystem, it is assumed that the legacy streaming data are delivered to the rendering device, which incrusts this in the virtual screen prior to rendering. For a live streaming event, the user-experience end-to-end latency is expected to be competitive with traditional live TV services, typically [1-5] seconds.', '', 'Note 3: For example, the glTF format [60] can be used to deliver avatar representation and animation metadata in a standardized manner. Based on this format, the required bitrate for transmitting such data is highly dependent on avatar’s complexity (e.g., basic model versus photorealistic).', '', 'Note 4: These values are aligned with “immersive multi-modal VR” KPIs in TS 22.261 [5], cl 7.11. End-to-end latency in this table is calculated as twice the value of the DL “immersive multi-modal VR” latency in TS 22.261 [5], cl 7.11.&lt;u&gt; &lt;/u&gt;', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>0.2137897049437795</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.8.1		Description&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>22843-j00.docx</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>['', 'Reliability of UAV traffic is a very important challenge and target for the aviation industry, e.g., for command and control (C2) or other critical data. One scenario of interest includes UAVs, provided with dual SIM/subscription, able to connect simultaneously via two networks for transferring different type of traffic, e.g., using the most reliable network for C2 or other critical data, while other type of traffic is transmitted over the second network. ', '', 'As an example, let us assume the case of a UAV company (“SafeSky”) that offers monitoring and surveillance services for specific venues (e.g., stadiums) or public events. Their drones are 5G-capable and configurable with dual subscription, one for nationwide PLMN connectivity (with MNO-A), one for ad-hoc UAV coverage using networks deployed in specific public safety venues/locations (can be a PLMN or NPN, managed by MNO-A or other MNO).', '', 'In such scenario, when there is available coverage from both NWs, SafeSky can configure their UAVs to transfer C2 traffic with a local UAV-Controller (UAV-C) via the ad-hoc PLMN1/NPN (most suitable for low volume/data rate, but very stringent real-time latency and reliability), while less critical user data is exchanged with the UAV Supplier Service (USS) and UTM via the wide-area PLMN2 coverage. This is illustrated, at high level, in Figure 5.8.1-1, where PLMN1/NPN is the local NW and PLMN2 is the wide area network.', '', '----media/image9.png----', '', 'Figure 5.8.1-1: Example of separating UAV traffic over two PLMNs', '', 'In other examples, different traffic differentiation configurations are possible (in a similar venue scenario), e.g., UAVs may transfer real-time critical payload traffic (e.g., streaming a 4K video of a sport event) with a local endpoint via the ad-hoc PLMN1/NPN, while C2 and UAV monitoring data via the wide-area PLMN2 network.', '']</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>0.2036271231445413</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.8.5	Existing features partly or fully covering the use case functionality&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>22882-j00.docx</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>LR3_other</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>['', 'EE TS 28.310 specifies the work in 3GPP related to energy efficiency. It specifies use cases relating to energy efficiency such as switching off edges UPFs for low-latency communication in certain geographical areas when no user is actively using them. Based on the scenarios the document presents requirements to be considered to support energy efficiency. The main requirements among them are requirements related to Power, Energy and Environmental measurements as well as requirements concerning energy saving. ', '', 'This use case uses the existing 3GPP features as input for the application-level energy efficiency prediction, without providing an overlapping capability. In particular, the energy monitoring and optimization tasks in OAM cannot consider per application / session energy monitoring/predictions, and are limited to the energy calculation and monitoring per managed element (e.g. NG-RAN, UPF, slice...). ', '']</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>0.2151060000922364</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.8.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>22856-j00.docx</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>['', '[PR 5.8.6-1] The 5G system shall provide the capability of reducing the differences between different mobile metaverse services communication performance for a given UE to prevent inconsistency of experience due to XR media with divergent or conflicting characteristics, e.g., resolution, latency or packet loss.', '', 'NOTE:\tThe UE can provide communication services for more than one terminal equipment. ', '']</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>0.1959748881151854</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.9.1	Description&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>22865-j00.docx</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>LR3_other</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>['', 'Network deployment in sparsely populated areas has been a major concern worldwide due to numerous challenges like affordability, infrastructure unavailability, and landscape or topographic conditions. Satellite connectivity can help to serve such areas. However, satellite access may not suffice in all scenarios (for low latency and high throughput applications) and there may be a need for terrestrial network deployment also. In such a situation, satellite connectivity can also facilitate information collection related to UE location and usage statistics, which can later be used for terrestrial network planning in these areas. ', '', 'Connectivity can be provided in sparsely populated areas through satellite access using direct or indirect access through relay nodes/relay UEs (as shown in Figure 5.9.1-1). This eliminates the requirement of everyone having to use satellite UEs. The service provider can implement a subset of Minimization Drive Test (MDT) procedures to collect information such as location of the UEs through satellite connectivity that can be used by Network Management System (NMS). In addition, usage statistics (for UEs) may also be collected and analysed for the purpose of terrestrial network planning.', '', '----media/image11.png----', '', 'Figure 5.9.1-1: Connectivity and data collection from UEs through Satellite Access', '']</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>0.2122450960856813</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.9.1 	Description&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>22856-j00.docx</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>['', 'In this first use case, three users are using the 5GS to join an immersive mobile metaverse activity. The users Bob, Lukas, and Yong are located in the USA, Germany and China, respectively. Each of the users is served by a local mobile metaverse service edge computing server (MECS) hosted in the 5GS, each of the mobile metaverse servers is located close to the user it is serving. When a user joins a mobile metaverse activity, such as a joint game or teleconference, the avatar of the user is loaded in the MECS of the other users. For instance, the MECS close to Bob hosts the avatars of Yong and Lukas. ', '', 'The distance between the users, e.g., the distance between USA and China is around 11640 Km, determines minimum communication latency, e.g., 11640/c = 38 msec. This latency might also be higher due to different causes such as, e.g., hardware processing. This latency might also be variable due to multiple reasons, such as, e.g., congestion or delays introduced by (variable processing time of) hardware components such as sensors or rendering devices. Since this value maybe too high and variable for a truly immersive joint location agnostic metaverse service experience, each of the deployed avatars includes one or more predictive models of the person it represents and that allow rendering in the local edge server a synchronized predicted (current) digital representation (i.e. avatar) of the remote users. Similar techniques have been proposed for example in [28]. ', '', 'Figure 5.9.1-1 shows an exemplary scenario in which a MECS at location 3 (USA) runs the predictive models of remote users (Yong and Lukas) and takes as input the received sensed data from all users (Yong, Lukas, and Bob) as well as the current end-to-end communication parameters (e.g., latency) and generates a synchronized predicted (current) avatar digital representation (i.e. avatar) of the users to be rendered in local rendering devices of Bob. A particular example of such scenario might be about gaming: Yong, Lukas, and Bob are playing baseball in an immersive mobile metaverse activity , and it is Yong’s turn to hit the ball that is going to be thrown by Lukas. If Yong hits the ball, then Bob can continue running since Yong and Bob are playing in the same team. In this example, the digital representation (e.g. avatar) predictive models of Lukas and Yong (deployed at the MECS close to Bob) will allow creating a combined synchronized prediction at Location 3 of Lukas throwing the ball and Yong reacting to the ball and hitting the ball so that Bob can start running without delays and can enjoy a great immersive mobile metaverse experience. ', '', 'This example aims at illustrating how predictive models can improve the location agnostic service experience in a similar was as in [28]. Synchronized predictive digital representation (e.g. avatars) are however not limited to the gaming industry and can play a relevant role in other metaverse services, e.g., immersive healthcare or teleconferencing use cases. This scenario involving synchronized predictive digital representation (e.g. avatars) assumes to require synchronization of user experiences to a single clock. ', '', '', '', ' ----media/image24.emf----', '', 'Figure 5.9.1-1: Example of a joint metaverse experience with synchronized predicted avatar representation.', '']</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>0.2164823076901363</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.9.3	Service Flows&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>22856-j00.docx</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>LR3_other</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>['', 'The following service flows need to be provided for each of the users:', '', '1.\tEach of the users, e.g., Bob, decide to join the immersive mobile metaverse service activity and give consent to the deployment of their avatars.', '', '2.\tSensors at each user sample the current representation of each of the users where sampling is done as required by the sensing modalities. The sampled representation of each of the users is distributed to the metaverse edge computing servers of the other users in the metaverse activity.', '', '3. \tEach of the edge computing servers applies the incoming data stream representing each of the far located users to the corresponding digital representation (e.g. avatar) predictive models – taking into account the current communication parameters/performance, e.g., latency – to create a combined, synchronized, and current digital representation of the remote users that is provided as input to rendering devices in the local environment.', '', 'The service flows for the other users (i.e., Yong in China and Lukas in Germany) are the mirrored equivalent. For instance, even if not shown in Figure 5.9.1-1, the local edge computing server associated to Lukas will run the digital representation (e.g. avatar) predictive models of Yong and Bob and consume the data streams coming from those users. ', '']</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>0.2103437304758683</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.9.5	Existing features partly or fully covering the use case functionality&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>22856-j00.docx</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>LR3_other</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>['', 'TS 22.261 includes in Clause 6.40.2 the following requirement related to AI/ML model transfer in 5GS: ', '', '&lt;i&gt;“Based on operator policy, 5G system shall be able to provide means to predict and expose predicted network condition changes (i.e. bitrate, latency, reliability) per UE, to an authorized third party.” &lt;/i&gt;', '', 'This requirement is related to requirement [PR 5.9.6.2], but not exactly the same since the usage of predictive digital representation (e.g. avatar) models requires the knowledge of the end-to-end network conditions, in particular, latency. ', '']</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>0.1901563619118075</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.9.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>22856-j00.docx</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>LR3_other</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>['', '[PR 5.9.6.1] the 5G system shall provide a means to synchronize the incoming data streams of multiple (sensor and rendering) devices associated to different users at different locations. ', '', '[PR 5.9.6.2] the 5G system shall provide a means to expose predicted network conditions, in particular, latency, between remote users.', '', '[PR 5.9.6.3] The 5G system shall provide a means to support the distribution, configuration, and execution of a predictive model associated to a remote user in a local service hosting environment. ', '']</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>0.1810163328349501</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;6.1.1	Description&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>22261-j30.docx</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>LR1_signalling</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>['', 'Network slicing allows the operator to provide customised networks. For example, there can be different requirements on functionality (e.g. priority, charging, policy control, security, and mobility), differences in performance requirements (e.g. latency, mobility, availability, reliability and data rates), or they can serve only specific users (e.g. MPS users, Public Safety users, corporate customers, roamers, or hosting an MVNO).', '', 'A network slice can provide the functionality of a complete network, including radio access network functions, core network functions (e.g. potentially from different vendors) and IMS functions. One network can support one or several network slices.', '']</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>0.2114340515924241</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;6.1.3	Service Flows&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>22876-j00.docx</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>['', '1.\tJurassic Park provides panorama AR tour guide services in a commercial area and a tropical rainforest area. AR headsets need to download Model A and B (both are VGG-16, 552MByte) respectively.', '', '2.\tTo provide high quality user experience, Jurassic Park company indicates to the operator that AR headsets require to download model A in area A and model B in area B. ', '', '3.\tThe Jurassic Park company signs a high-quality plan for tour guide Alice and Bob’s AR Headsets for providing better service to the tour group using direct device connection. ', '', '4.\tWhen Bob and his tour group enter area A, their headsets request for the Model A. The operator network finds they requested the same model and Bob is a signed volunteer UE, then triggers to establish a QoS acceleration for Bob’s model downloading timely within 1 second. Meanwhile, Jurassic Park requests the operator network to inform Bob to help transfer the model to all other UE near Bob. Also, the operator network informs all other UE near Bob that Bob can provide the model as well. The UE which is a little far from Bob (e.g. out of Bob’s coverage) will still download the model through the base station directly.', '', '5.\tAlice and her group are 10 meters far from Bob and also move towards to area A. Jurassic Park predicts their desire model based on their movement and finds Bob has already downloaded it based on the model transferring records. Jurassic Park requests operator network to inform Alice that she can request model from Bob. Meanwhile, the operator network indicates all other UE near Alice to download the model from Alice.', '', '6.\tFor Alice and Bob, they can see the status of all direct device connections to themselves through network exposures providing by operators (e.g. monitored bandwidth and latency of each direct device connection)', '', '7.\tWhen Alice and Bob notice that their groups have a poor QoS of model transfer through direct device connection, they can send a request to the park company for promoting the performance of their direct device connections and the park company will send a similar message to the operator through network exposure to active a temporary acceleration of these direct device connections (e.g. expand the bandwidth of each direct device connection).', '']</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>0.2067235459806276</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;6.1.5	Existing features partly or fully covering the use case functionality&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>22876-j00.docx</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>['', '&lt;b&gt;In 3GPP\xa0TS\xa022.261 [8] clause 6.27.2 "Requirements"&lt;/b&gt;', '', 'The 5G system shall be able to make the position-related data available to an application or to an application server existing within the PLMN, external to the PLMN, or in the User Equipment. ', '', '&lt;b&gt;In 3GPP\xa0TS\xa022.261\xa0[8] clause\xa06.9.2.4 "Relay UE Selection"&lt;/b&gt;', '', 'The 3GPP system shall support selection and reselection of relay UEs based on a combination of different criteria e.g. ', '', '-\tthe characteristics of the traffic that is intended to be relayed (e.g. expected message frequency and required QoS),', '', '-\tthe subscriptions of relay UEs and remote UE,', '', '-\tthe capabilities/capacity/coverage when using the relay UE,', '', '-\tthe QoS that is achievable by selecting the relay UE&lt;u&gt;,&lt;/u&gt;', '', '-\tthe power consumption required by relay UE and remote UE&lt;u&gt;,&lt;/u&gt;', '', '-\tthe pre-paired relay UE&lt;u&gt;,&lt;/u&gt;', '', '-\tthe&lt;u&gt; &lt;/u&gt;3GPP or non-3GPP access the relay UE uses to connect to the network,', '', '-\tthe 3GPP network the relay UE connects to (either directly or indirectly),', '', '-\tthe overall optimization of the power consumption/performance of the 3GPP system, or', '', '-\tbattery capabilities and battery lifetime of the relay UE and the remote UE.', '', 'NOTE:\tReselection may be triggered by any dynamic change in the selection criteria, e.g. by the battery of a relay UE getting depleted, a new relay capable UE getting in range, a remote UEs requesting additional resources or higher QoS, etc.', '', '&lt;b&gt;In 3GPP TS 22.261 [8] v18.6.0 clause 6.40.2&lt;/b&gt;', '', 'Based on operator policy, the 5G system shall be able to provide an indication about a planned change of bitrate, latency, or reliability for a QoS flow to an authorized 3rd party so that the 3&lt;sup&gt;rd&lt;/sup&gt; party AI/ML application is able to adjust the application layer behaviour if time allows. The indication shall provide the anticipated time and location of the change, as well as the target QoS parameters.', '', 'Subject to user consent, operator policy and regulatory constraints, the 5G system shall be able to support a mechanism to expose monitoring and status information of an AI-ML session to a 3&lt;sup&gt;rd&lt;/sup&gt; party AI/ML application. ', '', 'NOTE:\tSuch mechanism is needed for AI/ML application to determine an in-time transfer of AI/ML model.', '', 'Subject to user consent, operator policy and regulatory requirements, the 5G system shall be able to expose information (e.g. candidate UEs) to an authorized 3rd party to assist the 3rd party to determine member(s) of a group of UEs (e.g. UEs of a FL group).', '']</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>0.1943188342247638</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;6.12.2	Requirements&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>22261-j30.docx</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>['', 'The 5G network shall enable operators to support wireless self-backhaul using NR and E-UTRA.', '', 'The 5G network shall support flexible and efficient wireless self-backhaul for both indoor and outdoor scenarios.', '', 'The 5G network shall support flexible partitioning of radio resources between access and backhaul functions.', '', 'The 5G network shall support\xa0autonomous configuration of access and wireless self-backhaul functions.', '', 'The 5G network shall support multi-hop wireless self-backhauling.', '', 'NOTE 1: This is to enable flexible extension of range and coverage area.', '', 'The 5G network shall support autonomous adaptation on wireless self-backhaul network topologies to minimize service disruptions.', '', 'The 5G network shall support topologically redundant connectivity on the wireless self-backhaul.', '', 'NOTE 2: This is to enhance reliability and capacity and reduce end-to-end latency.', '']</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>0.187507544681027</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;6.15.2	Requirements&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>22261-j30.docx</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>['', 'The 5G access network shall support an energy saving mode with the following characteristics:', '', '-\tthe energy saving mode can be activated/deactivated either manually or automatically;', '', '-\tservice can be restricted to a group of users (e.g. public safety user, emergency callers).', '', "NOTE:\tWhen in energy saving mode the UE's and Access transmit power may be reduced or turned off (deep sleep mode), end-to-end latency and jitter may be increased with no impact on set of users or applications still allowed.", '', 'The 5G system shall support mechanisms to improve battery life for a UE over what is possible in EPS.', '', 'The 5G system shall optimize the battery consumption of a relay UE via which a UE is in indirect network connection mode.', '', 'The 5G system shall support UEs using small rechargeable and single coin cell batteries (e.g. considering impact on maximum pulse and continuous current).', '']</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>0.191826452954041</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;6.15.3	MCPTT access time and mouth-to-ear latency&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>22179-j00.docx</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>0.2912154848903127</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;6.16.2	Requirements&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>22261-j30.docx</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>['', 'In constrained circumstances (e.g. reduced power supply), the 5G system shall be able to support a minimal user experience (e.g. user experienced data rate of [100] kbit/s, E2E latency of 50 ms, lower availability of the network of 95%).', '', 'The 5G system shall support centralized automation and management of the network in order to reduce local management tasks.', '', 'The 5G system shall support a mechanism to reduce data transfer rate at the cell edge for very large coverage area (e.g. 100 kbit/s for more than 100 km cell coverage, 1 Mbit/s for 100 km cell coverage).', '', 'The 5G system shall be able to give priority to services (e.g. e-Health) when resources are limited.', '']</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>0.1805585472363615</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;6.17.2	Requirements&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>22261-j30.docx</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>['', 'The 5G system shall support the extreme long-range coverage (up to 100 km) in low density areas (up to 2 user/km&lt;sup&gt;2&lt;/sup&gt;).', '', 'The 5G system shall support a minimum user throughput of 1 Mbit/s on DL and 100 kbit/s on UL at the edge of coverage.', '', 'The 5G system shall support a minimum cell throughput capacity of 10 Mbit/s/cell on DL (based on an assumption of 1 GB/month/sub).', '', 'The 5G system shall support a maximum of [400] ms E2E latency for voice services at the edge of coverage.', '']</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>0.1774146355750596</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;6.2.1	Description&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>22261-j30.docx</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>['', 'A key feature of 5G is support for UEs with different mobility management needs. 5G will support UEs with a range of mobility management needs, including UEs that are', '', '-\tstationary during their entire usable life (e.g. sensors embedded in infrastructure),', '', '-\tstationary during active periods, but nomadic between activations (e.g. fixed access),', '', '-\tmobile within a constrained and well-defined space (e.g. in a factory), and', '', '-\tfully mobile.', '', 'Moreover, some applications require the network to ensure seamless mobility of a UE so that mobility is hidden from the application layer to avoid interruptions in service delivery while other applications have application specific means to ensure service continuity. But these other applications can still require the network to minimize interruption time to ensure that their application-specific means to ensure service continuity work effectively.', '', 'With the ever-increasing multimedia broadband data volumes, it is also important to enable the offloading of IP traffic from the 5G network onto traditional IP routing networks via an IP anchor node close to the network edge. As the UE moves, changing the IP anchor node can be needed in order to reduce the traffic load in the system, reduce end-to-end latency and provide a better user experience.', '', 'The flexible nature of a 5G system will support different mobility management methods that minimize signalling overhead and optimize access for these different types of UEs.', '']</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>0.2005130388656639</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;6.23.1	Description &lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>22261-j30.docx</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>LR3_other</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>['', 'The QoS requirements specified for particular services such as URLLC services, vertical automation communication services, and V2X, mandate QoS guarantees from the network. However, the network cannot always guarantee the required QoS of the service. An example reason for this shortcoming is that the latency and/or packet error rate increase due to interference in a radio cell. In such cases, it is critical that the application and/or application server is notified in a timely manner. Hence, the 5G system should be able to support QoS monitoring/assurance for URLLC services, V2X and vertical automation.', '', 'For more information on QoS assurance see Annex F. ', '', 'Vertical automation systems are locally distributed and are typically served by wired and wireless communication networks of different types and with different characteristics. If the operation of the system or one of its sub-processes does not work properly, there is a need for quickly finding and eliminating the related error or fault in order to avoid significant operation and thus financial losses. To that end, automation devices and applications implement diagnosis and error-analysis algorithms, as well as predictive maintenance features.', '', 'Due to their inherent challenges, wireless communication systems are usually under suspicion in case an error occurs in a distributed automation application. Therefore, diagnosis and fault analysis features for 5G systems are required. The 5G system needs to provide sufficient monitoring information as input for such diagnosis features.', '', 'QoS monitoring can be used for the following activities: ', '', '-\tassessing and assuring the dependability of network operation;', '', '-\tassessing and assuring the dependability of the communication services;', '', '-\texcluding particular communication errors;', '', '-\tidentifying communication errors;', '', '-\tanalysing the location of an error including the geographic location of the involved network component (UE; front-haul component; core node);', '', '-\tactivation of application-related countermeasures.', '', 'This section provides requirements for both functionality and service exposure. In addition, the service exposure requirements on QoS monitoring in 22.101 [6], clause 29.2 apply.', '']</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>0.1941888111862492</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;6.23.2	Description&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>22989-j30.docx</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>['', 'In virtual coupling use case, multiple trains can synchronously move together as a platoon, where the distance between each train can be shorter than the absolute braking distance. ', '', 'Virtual Coupling is the application which performs some or all the functions of, synchronous acceleration and braking, protection of individual train within the platoon.', '', 'For trains to move synchronously, Virtual Coupling systems require radio communication to interchange performance and/or safety relevant data among adjacent trains in the same platoon periodically. ', '', 'Due to its safety relevance, the radio communication requires very high reliability as well as very low latency. In order to achieve high reliability and low latency, Virtual Coupling system may use combined On-and Off-network communication mode depending on the proximity.', '', 'The FRMCS users in this case are the Virtual Coupling application on-board of each of two trains that could potentially form a platoon. ', '', 'NOTE: \tMultiple user-to-user communication and group communication for Virtual Coupling data communication are FFS', '']</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>0.2021162816531661</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;6.23.2	Requirements&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>22261-j30.docx</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>LR3_other</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>['', 'The 5G system shall provide a mechanism for supporting real-time E2E QoS monitoring within a system.', '', 'NOTE 1:\tThe end points in E2E are the termination points of the communication service within the boundary of the 5G system.', '', 'The 5G system shall support combined QoS monitoring for a group of UEs.', '', 'NOTE 1A: Combined monitoring stands for the monitoring of several UEs for which the monitoring results are reported together. An example for combined QoS monitoring is that the 5G networks monitors the service bit rates of all connections associated with the group of UEs.', '', 'The 5G network shall provide an interface to an application for QoS monitoring (e.g. to initiate QoS monitoring, request QoS parameters, events, logging information).', '', 'The 5G system shall be able to provide real time QoS parameters and events information to an authorized application/network entity. ', '', 'NOTE 2:\tThe QoS parameters to be monitored and reported can include latency (e.g. UL/DL or round trip), jitter, and packet loss rate.', '', 'The 5G system shall be able to log the history of the communication events. ', '', 'NOTE 3:\tThe communication history may include timestamps of communication events and position-related information. Examples of such information are the positions of UEs and of radio base stations associated with communication events. Communication events include instances when the required QoS is not met.', '', 'The 5G system shall support different levels of granularity for QoS monitoring (e.g. per flow or set of flows).', '', 'The 5G system shall be able to provide event notification upon detecting an error that the negotiated QoS level cannot be met/guaranteed.', '', 'The 5G system shall be able to provide information that identifies the type and the location of a communication error (e.g. cell ID).', '', 'The 5G system shall be able to provide notification of communication events to authorized entities per pre-defined patterns. ', '', 'NOTE 4: An example for a communication event is that the service bit rate drops below a pre-defined threshold for QoS parameters. When such an event occurs, the authorized entity is notified, and the event is logged.', '', 'The 5G system shall support event-based QoS monitoring. ', '', 'NOTE 5:\tAn example for a triggering event is a position change of the pertinent UE. A position change can, for instance, be inferred from a 5G position service that tracks the UE.', '', 'The 5G system shall be able to respond to a request from an authorized entity to provide real-time QoS monitoring information within a specified time after receiving the request (e.g., within 5\xa0s).', '', 'NOTE 6:\tThe response time can be specified by the user.', '', 'The 5G system shall support real time QoS monitoring with a specified update/refresh rate.', '', 'NOTE 6a:\tThe update/refresh rate can be specified by the user.', '', 'NOTE 6b:\tThe update/refresh rates for QoS monitoring measurements and reporting can be different.', '', 'The 5G system shall be able to provide statistical information of service parameters and error types while a communication service is in operation.', '', 'NOTE 7:\tThe time span for collection and evaluation of statistical values can be specified by the user. ', '', 'The 5G system shall provide information on the current availability of a specific communication service in a particular area (e.g. cell ID) upon request of an authorized entity.', '', 'The 5G system shall provide a means by which an MNO informs a third party of network events (failure of network infrastructure affecting UEs in a particular area, etc.).', '', 'Based on MNO policy, the 5G system shall provide a mechanism to\xa0automatically\xa0report service degradations, communications loss, and sustained connection loss\xa0in a specific geographic area (e.g., a cell sector, a cell or a group of cells) to a third party.\xa0', '', 'NOTE 8:\tThese reports use a standard format. The specific values, thresholds, and conditions upon which alarms occur can include the measured values for end-to-end latency, service bit rate, communication service availability, end-to-end latency jitter, etc. for a UE, the UE’s location, and the time(s) during which the degradation occurred.', '', 'The 5G system shall provide a mechanism for an authorised third party to report to an MNO service degradations, communication loss, and sustained connection loss. ', '', 'NOTE 9:\tThese reports use a standard format. The specific values, thresholds, and conditions upon which alarms occur can include the measured values for end-to-end latency, service bit rate, communication service availability, end-to-end latency jitter, etc. for a UE, the UE’s location, and the time(s) during which the degradation occurred.', '', 'NOTE 10:\tWhat the MNO does with such reports is out of scope of 3GPP.', '', 'Based on operator request, for direct network connection scenarios in non-public networks, the 5G system shall be able to activate/deactivate efficient QoS monitoring with a finer granularity (e.g. per data packet) in a specific QoS flow (e.g. supporting URLLC services) to report on data packets not meeting the required QoS level.', '', 'NOTE 11:\t\tThe QoS parameters to be monitored and reported can include latency (e.g. UL or DL).', '', 'NOTE 12:\tThe above requirement does not assume UE impacts.', '']</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>0.1738546029438948</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;6.24.2	Requirements&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>22261-j30.docx</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>['', 'The 3GPP system shall be able to support an Ethernet transport service.', '', 'The 5G network shall support the routing of non-IP packet (e.g. Ethernet frame) efficiently for private communication between UEs within a 5G LAN-type service.', '', 'The 5G network shall be able to provide the required QoS (e.g. reliability, latency, and bandwidth) for non-IP packet (e.g. Ethernet frame) for private communication between UEs within a 5G LAN-type service.', '', 'The Ethernet transport service shall support routing based on information extracted from Virtual LAN (VLAN) ID by the 3GPP system.', '', 'The Ethernet transport service shall support the transport of Ethernet frames between UEs that Ethernet devices are connected to. ', '', 'The Ethernet transport service shall support the transport of Ethernet frames between a UE that an Ethernet device is connected to and an Ethernet network in DN (Data Network).', '', 'NOTE:\tIf more than one Ethernet devices need to be connected to a UE, they can be connected using an Ethernet switch between the devices and the UE. ', '', 'The Ethernet transport service shall support the transport of Ethernet broadcast frames.', '', 'The Ethernet transport service shall support traffic filtering and prioritization based on source and destination MAC addresses.', '', 'The Ethernet transport service shall support traffic filtering and prioritization based on Ethertype (including multiple Ethertypes in double tagging).', '', 'The Ethernet transport service shall support traffic filtering and prioritization based on 802.1Q VLAN tags (including double tagging). ', '', 'The Ethernet transport service shall support routing based on information extracted by the 3GPP system from the Bridge Protocol Data Units created in the Ethernet network based on a Spanning Tree Protocol (e.g. RSTP).', '']</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>0.1964089062840176</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;6.27.2	Requirements&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>22261-j30.docx</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>LR3_other</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>['', 'The 5G system shall provide 5G positioning services in compliance with regulatory requirements.', '', 'NOTE 1: \texample of regulatory requirements encompasses requirements on emergency calls (e.g. e911), reliability and safety requirement (RAMS) applicable to some use cases and verticals, implementation of Priority, Precedence, Preemption (PPP) mechanisms to ensure sufficient reliability metrics are reached.', '', 'The 5G system shall provide different 5G positioning services, supported by different single and hybrid positioning methods to supply absolute and relative positioning.', '', 'NOTE 2: \thybrid positioning methods include both the combination of 3GPP positioning technologies and the combination of 3GPP positioning technologies with non-3GPP positioning technologies such as, GNSS (e.g. Beidou, Galileo, GPS, Glonass), Network-based Assisted GNSS and High-Accuracy GNSS, Terrestrial Beacon Systems, dead-reckoning sensors (e.g. IMU, barometer), WLAN/Bluetooth-based positioning.', '', 'The 5G system shall enable an MCX UE to use the 5G positioning services to determine its position with the associated uncertainty/confidence of the position, on request, triggered by an event or periodically.', '', 'The 5G System shall be able to provide the 5G positioning services in case of roaming.', '', 'The 5G system shall support mechanisms to determine the UE’s position-related data for period when the UE is outside the coverage of 3GPP RAT-dependent positioning technologies but within the 5G positioning service area (e.g. within the coverage of satellite access).', '', 'The 5G system shall be able to make the position-related data available to an application or to an application server existing within the 5G network, external to the 5G network, or in the User Equipment. ', '', 'NOTE 3: \tthe position service latency can be tailored to the use cases.', '', 'The 5G system shall be able to manage and log position-related data in compliance with applicable traceability, authentication and security regulatory requirements.', '', 'The 5G network shall be able to request the UE to provide its position-related-data on request—together with the accuracy of its position—triggered by an event or periodically and to request the UE to stop providing its position-related data periodically.', '', 'NOTE 4: \tThis requirement does not preclude whether the position is computed in the UE or elsewhere in the 5G System (e.g. core network).', '', 'The 5G system shall support mechanisms to configure dynamically the update rate of the position-related data to fulfil different performances (e.g. power consumption, position service latency) or different location modes.', '', 'NOTE 5: \tfor example, the 5G System needs to be able to request the UE to provide its location periodically with an update rate ranging from one location every [1 s to 10 s] in location normal mode to one location every [30 s to 300 s, or more] in location power saving mode. The 5G System needs to allow UEs to sleep for extended periods (e.g. one week), without requiring the UE to update its position data.', '', 'The 5G system shall allow the UE to trigger a different update rate of the position-related data based on whether the UE is moving or not.', '', 'The 5G system shall be able to determine the position-related data of the 5G positioning services with any update rate ranging from one set of position-related data every 0,1 s to one set of position-related data every month.', '', 'NOTE 6: \tthe position service latency can be tailored to the use cases.', '', "The 5G System shall be able to negotiate the positioning methods according to the operator's policy or the application’s requirements or the user's preferences and shall support mechanisms to allow the network or the UE to trigger this negotiation.", '', 'The 5G system shall supply a method for&lt;s&gt; &lt;/s&gt;the operator to configure and manage different positioning services for different users.', '', 'The 5G system shall be able to determine the reliability, and the uncertainty or confidence level, of the position-related data.', '', 'The 5G system shall be able to access to the positioning methods used for calculating the position-related data and to the associated uncertainty/confidence indicators.', '']</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>0.1749274334856361</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;6.28.1	Description&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>22261-j30.docx</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>LR1_signalling</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>['', 'The 5G system is expected to meet the service requirements for cyber-physical control applications in vertical domains. ', '', 'A vertical domain is a particular industry or group of enterprises in which similar products or services are developed, produced, and provided. Automation refers to the control of processes, devices, or systems in vertical domains by automatic means. The main control functions of automated control systems include taking measurements, comparing results, computing any detected or anticipated errors, and correcting the process to avoid future errors. These functions are performed by sensors, transmitters, controllers, and actuators.', '', 'Cyber-physical systems are to be understood as systems that include engineered, interacting networks of physical and computational components. Cyber-physical control applications are to be understood as applications that control physical processes. Cyber-physical control applications in automation follow certain activity patterns, which are open-loop control, closed-loop control, sequence control, and batch control.', '', 'Communication services supporting cyber-physical control applications need to be ultra-reliable, dependable with a high communication service availability, and often require low or (in some cases) very low end-to-end latency.', '', 'Communication in automation in vertical domains follows certain communication patterns. The most well-known is periodic deterministic communication, others are a-periodic deterministic communication and Smart Grid.', '', 'Smart Grid is a term that refers to enhanced cyber-physical control of electrical grids and to related application. Smart Grid operation can cover power generation, transmission, distribution, and consumption, which can require high communication service availability and communication service reliability, and in some cases a low end-to-end latency with more accurate clock synchronization. 5G system functionalities can be used for Smart Grid control, monitoring, availability\xa0assurance, service security, isolation and etc.Communication for cyber-physical control applications supports operation in various vertical domains, for instance industrial automation and energy automation.', '', 'For more information about cyber-physical control applications in specific vertical domains, see clauses D.1 to D.4.', '']</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>0.19785658003882</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;6.29.1	Description&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>22261-j30.docx</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>['', 'The 5G system is expected to support advanced capabilities and performance of messaging service especially for massive IoT communication which are introduced by the MSGin5G Service [22]. The MSGin5G Service provides one to one, group and broadcast message services for thing-to-thing and person-to-thing communication with low end-to-end latency and high reliability of message delivery, in a resource efficient manner to optimize the resource usage of the both control plane and user plane in the network, and power saving in the user devices.', '']</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>0.2078519680899674</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;6.4.1	Description&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>22261-j30.docx</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>['', '5G introduces the opportunity to design a system to be optimized for supporting diverse UEs and services. While support for IoT is provided by EPS, there is room for improvement in efficient resource utilization that can be designed into a 5G system whereas they are not easily retrofitted into an existing system. Some of the underlying principles of the potential service and network operation requirements associated with efficient configuration, deployment, and use of UEs in the 5G network include bulk provisioning, resource efficient access, optimization for UE originated data transfer, and efficiencies based on the reduced needs related to mobility management for stationary UEs and UEs with restricted range of movement.', '', 'As sensors and monitoring UEs are deployed more extensively, the need to support UEs that send data packages ranging in size from a small status update in a few bits to streaming video increases. A similar need exists for smart phones with widely varying amounts of data. Specifically, to support short data bursts, the network should be able to operate in a mode where there is no need for a lengthy and high overhead signalling procedure before and after small amounts of data are sent. The system will, as a result, avoid both a negative impact to battery life for the UE and wasting signalling resources.', '', 'For small form factor UEs it will be challenging to have more than 1 antenna due to the inability to get good isolation between multiple antennas. Thus, these UEs need to meet the expected performance in a 5G network with only one antenna.', '', 'Cloud applications like cloud robotics perform computation in the network rather than in a UE, which requires the system to have high data rate in the uplink and very low round trip latency. Supposed that high density cloud robotics will be deployed in the future, the 5G system need to optimize the resource efficiency for such scenario.', '', 'Additional resource efficiencies will contribute to meeting the various KPIs defined for 5G. Control plane resource efficiencies can be achieved by optimizing and minimizing signalling overhead, particularly for small data transmissions. Mechanisms for minimizing user plane resources utilization include in-network caching and application in a Service Hosting Environment closer to the end user. These optimization efforts contribute to achieving lower latency and higher reliability.', '', 'Diverse mobility management related resource efficiencies are covered in clause 6.2.', '', 'Security related resource efficiencies are covered in clause 8.8.', '']</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>0.1853153563555114</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;6.40.2	Requirements &lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>22261-j30.docx</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>LR3_other</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>['', 'Based on operator policy, the 5G system shall be able to provide means to allow an authorized third-party to monitor the resource utilisation of the network service that is associated with the third-party.', '', 'NOTE 1:\tResource utilization in the preceding requirement refers to measurements relevant to the UE’s performance such as the data throughput provided to the UE.', '', 'Based on operator policy, the 5G system shall be able to provide an indication about a planned change of bitrate, latency, or reliability for a QoS flow to an authorized 3rd party so that the 3&lt;sup&gt;rd&lt;/sup&gt; party AI/ML application is able to adjust the application layer behaviour if time allows. The indication shall provide the anticipated time and location of the change, as well as the target QoS parameters.', '', 'Based on operator policy, 5G system shall be able to provide means to predict and expose predicted network condition changes (i.e. bitrate, latency, reliability) per UE, to an authorized third party.', '', 'Subject to user consent, operator policy and regulatory constraints, the 5G system shall be able to support a mechanism to expose monitoring and status information of an AI-ML session to a 3&lt;sup&gt;rd&lt;/sup&gt; party AI/ML application. ', '', 'NOTE 2:\tSuch mechanism is needed for AI/ML application to determine an in-time transfer of AI/ML model.', '', '5G system shall be able to provide event alerting to an authorized 3rd party, together with a predicted time of the event (e.g., alerting about traffic congestion or UE moving into/out of a different geographical area). ', '', 'NOTE 3:\tA 3rd party AI/ML application may use the prediction information to minimize disturbance in the transfer of learning data and AI/ML model data.', '', 'The 5G system shall be able to expose aggregated QoS parameter values for a group of UEs to an authorized service provider.', '', 'The 5G system shall be able to support an authorised 3rd party to change aggregated QoS parameter values associated with a group of UEs, e.g. UEs of a FL group.', '', 'Subject to user consent, operator policy and regulatory requirements, the 5G system shall be able to expose information (e.g. candidate UEs) to an authorized 3&lt;sup&gt;rd&lt;/sup&gt; party to assist the 3&lt;sup&gt;rd&lt;/sup&gt; party to determine member(s) of a group of UEs (e.g. UEs of a FL group).', '']</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>0.1805304306836719</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;6.42.2	Requirements&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>22261-j30.docx</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>['', 'The 5G system shall support efficient operation of mobile base station relays.', '', 'The 5G system shall be able to support means, for a mobile network operator, to configure, provision and control the operation of a mobile base station relay, e.g. activation/deactivation, permitted location(s) or time of operation.', '', 'The 5G system shall be able to support provisioning and configuration mechanisms to control UEs’ selection and access to a mobile base station relay, e.g. based on UE’s authorization, geographic or temporary restrictions, relay’s load.', '', 'The 5G system shall be able to support RAN sharing between multiple PLMNs for UEs connected to the 5G network via mobile base station relays.', '', 'NOTE 1: \tthe above requirement assumes both relay and (donor) RAN resources, including UE access link and relay backhaul link, are shared among operators.', '', 'The 5G system shall be able to configure and provision specific required QoS for traffic relayed via a mobile base station relay.', '', 'NOTE 2: \tQoS is end-to-end, i.e. from UE to 5GC.', '', 'Subject to regulatory requirements and based on operator policy, the 5G system shall support means to configure and expose monitoring information of a mobile base station relay to an MNO’s authorized third-party.', '', 'The 5G system shall be able to provide means to optimize network behaviour to efficiently deliver data based on the mobility information (e.g., itinerary), known or predicted, of mobile base station relays. ', '', 'The 5G system shall be able to support communication from/to users of one MNO (MNO-A) via mobile base station relays, where the traffic between the relay and the MNO-A network is transported using 5G connectivity (RAN and 5GC) provided by a different MNO (MNO-B).', '', 'NOTE 3: The 5G connectivity provided to the MNO-A relays by the different MNO (MNO-B) assumes a generic wireless backhaul transport, independent from the mobile base station relay functionalities.', '', 'The 5G system shall be able to support&lt;i&gt; &lt;/i&gt;UEs connectivity to RAN using simultaneously, a link without mobile base station relay and a link via a mobile base station relay, or simultaneous links&lt;i&gt; &lt;/i&gt;via different mobile base station relays.', '', 'NOTE 4: \tThe above requirements cover scenarios were the two links (to the RAN) could be connected to the same or different RAN node(s), and assuming both relay(s) and RAN belong to the same PLMN. ', '', 'The 5G system shall be able to provide means to support efficient UE cell selection and cell reselection (between mobile base station relays or between relays and RAN) in the presence of mobile base station relays.', '', 'The 5G system shall be able to ensure end-to-end service continuity, in the presence of mobile base station relays.', '', 'NOTE 5: \tThe above requirement intends to cover different scenarios of UE mobility (e.g. UE moving between two mobile base station relays, or between macro RAN and relay) and relay mobility (e.g. base station relay moving between different donor RAN nodes).', '', 'The 5G system shall be able to support mechanisms to optimize mobility and energy efficiency for UEs located in a vehicle equipped with a base station relay.', '', 'NOTE 6: The above requirements cover scenarios where mobile base station relays provide 5G access for both UEs in the vehicle and around the vehicle.', '', 'The 5G system shall be able to support incremental deployment of connectivity by means of one or a series of mobile base station relays for use only in specific locations where UEs would receive no other 3GPP access (terrestrial or non-terrestrial) coverage, e.g., for public safety scenarios.', '', 'The 5G system shall be able to support mobile base station relays using 3GPP satellite NG-RAN (NR satellite access).', '', 'The 5G system shall be able to support mobile base station relays accessing to 5GC via NR satellite access and NR terrestrial access simultaneously.', '', 'The 5G system shall be able to support service continuity for mobile base station relays using at least one 3GPP satellite NG-RAN.', '', 'NOTE 7:\tThis requirement applies to scenarios where there is a transition between two 3GPP NG-RAN, operated by the same MNO, involving at least one 3GPP satellite NG-RAN.', '', 'The 5G system shall be able to identify and differentiate UEs’ traffic carried via a mobile base station relay and collect charging information, including specific relay information (e.g. geographic location served by the relay).', '', 'The 5G system shall support means for a mobile base station relay to have a certain subscription with a HPLMN, used to get access and connectivity to the HPLMN network (via a donor RAN).', '', 'The 5G system shall support the ability of a base station relay to roam from its HPLMN into a VPLMN.', '', 'The 5G system shall support mechanisms, for the HPLMN controlling a mobile base station relay, to enable/disable mobile relay operation if the relay is roaming in a VPLMN.', '', 'The 5G system shall support mechanisms to disable mobile relay operation by a VPLMN where a mobile base station relay is roaming to.', '', 'The 5G system shall be able to fulfil necessary regulatory requirements (e.g. for support of emergency services) when UEs access the 3GPP network via a mobile base station relay.', '', 'The 5G system shall be able to support priority services (e.g. MPS) when UEs access the 3GPP network via a mobile base station relay.', '', 'The 5G system shall be able to support location services for the UEs accessing 5GS via a mobile base station relay.', '', 'The 5G system shall ensure that existing end-to-end 5G security between the UE and 3GPP network is unaffected when the UE accesses the 3GPP network via a mobile base station relay.', '', 'The 5G system shall be able to minimize radio interference possibly caused by mobile base station relays.', '', 'The 5G system shall minimize the impact of the presence of mobile base station relays on radio network management (e.g. through automatic neighbour cell list configuration).', '', '&lt;span style="font-size:32pt"&gt;6.43&lt;/span&gt;\t&lt;span style="font-size:32pt"&gt;Tactile and multi-modal communication service&lt;/span&gt;', '', '&lt;span style="font-size:28pt"&gt;6.43.1&lt;/span&gt;\t&lt;span style="font-size:28pt"&gt;Description&lt;/span&gt;', '', 'The tactile and multi-modal communication service can be applied in multiple fields, e.g. industry, robotics and telepresence, virtual reality, augmented reality, healthcare, road traffic, serious gaming, education, culture and smart grid [38]. These services support applications enabling input from more than one sources and/or output to more than one destinations to convey information more effectively. As figure 6.43.1-1 illustrates, the input and output can be different modalities including: ', '', '--\tVideo/Audio media;', '', '--\tInformation received by sensors about the environment, e.g. brightness, temperature, humidity, etc.;', '', '--\tHaptic data: can be feelings when touching a surface (e.g., pressure, texture, vibration, temperature), or kinaesthetic senses (e.g. gravity, pull forces, sense of position awareness).', '', '----media/image4.png----', '', '&lt;b&gt;Figure 6.43.1-1. Multi-modal interactive system&lt;/b&gt;', '', 'For immersive multi-modal VR applications, synchronization between different media components is critical in order to avoid having a negative impact on the user experience (i.e. viewers detecting lack of synchronization), particularly when the synchronization threshold between two or more modalities is less than the latency KPI for the application. Example synchronization thresholds [41] [42] [43] [44] are summarised in table 6.43.1-1.', '', '&lt;b&gt;Table\xa06.43.1-1: Typical synchronization thresholds for immersive multi-modality VR applications&lt;/b&gt;', '', '&lt;b&gt;Media components&lt;/b&gt;', '', '&lt;b&gt;synchronization threshold (note 1)&lt;/b&gt;', '', '&lt;b&gt;audio-tactile&lt;/b&gt;', '', 'audio delay:', '', '50 ms', '', 'tactile delay:', '', '25 ms', '', '&lt;b&gt;visual-tactile&lt;/b&gt;', '', 'visual delay:', '', '15 ms', '', 'tactile delay:', '', '50 ms', '', '&lt;span style="font-size:18pt"&gt;NOTE 1:  for each media component, “delay” refers to the case where that media component is delayed compared to the other.&lt;/span&gt;', '', '', '', '&lt;span style="font-size:28pt"&gt;6.43.2&lt;/span&gt;\t&lt;span style="font-size:28pt"&gt;Requirements&lt;/span&gt;', '', 'The 5G system shall enable an authorized 3rd party to provide policy(ies) for flows associated with an application. The policy may contain e.g. the set of UEs and data flows, the expected QoS handling and associated triggering events, other coordination information.', '', 'The 5G system shall support a means to apply 3rd party provided policy(ies) for flows associated with an application. The policy may contain e.g. the set of UEs and data flows, the expected QoS handling and associated triggering events, other coordination information.', '', 'NOTE:\tThe policy can be used by a 3rd party application for coordination of the transmission of multiple UEs’ flows (e.g., haptic, audio and video) of a multi-modal communication session.', '', '&lt;span style="font-size:32pt"&gt;6.44&lt;/span&gt;\t&lt;span style="font-size:32pt"&gt;Roaming value-added services&lt;/span&gt;', '', '&lt;span style="font-size:28pt"&gt;6.44.1&lt;/span&gt;\t&lt;span style="font-size:28pt"&gt;Description&lt;/span&gt;', '']</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>0.1845009880914671</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;6.5.1	Description&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>22261-j30.docx</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>['', '5G is designed to meet diverse services with different and enhanced performances (e.g. high throughput, low latency and massive connections) and data traffic model (e.g. IP data traffic, non-IP data traffic, short data bursts and high throughput data transmissions).', '', "User plane should be more efficient for 5G to support differentiated requirements. On one hand, a Service Hosting Environment located inside of operator's network can offer Hosted Services closer to the end user to meet localization requirement like low latency, low bandwidth pressure. These Hosted Services contain applications provided by operators and/or trusted 3rd parties. On the other hand, user plane paths can be selected or changed to improve the user experience or reduce the bandwidth pressure, when a UE or application changes location during an active communication.", '', 'The 5G network can also support multiple wireless backhaul connections (e.g. satellites and/or terrestrial), and efficiently route and/or bundle traffic among them.', '']</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>0.1947699462359634</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;6.7.1		Description&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>22261-j30.docx</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>LR1_signalling</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>['', 'The 5G network will support many commercial services (e.g. medical) and regional or national regulatory services (e.g. MPS, Emergency, Public Safety) with requirements for priority treatment. Some of these services share common QoS characteristics such as latency and packet loss rate but can have different priority requirements. For example, UAV control and air traffic control can have stringent latency and reliability requirements but not necessarily the same priority requirements. In addition, voice-based services for MPS and Emergency share common QoS characteristics as applicable for normal public voice communications yet can have different priority requirements. The 5G network will need to support mechanisms that enable the decoupling of the priority of a particular communication from the associated QoS characteristics such as latency and reliability to allow flexibility to support different priority services (that need to be configurable to meet operator needs, consistent with operator policies and corresponding national and regional regulatory policies).', '', 'The network needs to support flexible means to make priority decisions based on the state of the network (e.g. during disaster events and network congestion) recognizing that the priority needs can change during a crisis. The priority of any service can be different for a user of that service based on operational needs and regional or national regulations. Therefore, the 5G system should allow a flexible means to prioritise and enforce prioritisation among the services (e.g. MPS, Emergency, medical, Public Safety) and among the users of these services. The traffic prioritisation can be enforced by adjusting resource utilization or pre-empting lower priority traffic.', '', 'The network must offer means to provide the required QoS (e.g. reliability, latency, and bandwidth) for a service and the ability to prioritize resources when necessary to meet the service requirements. Existing QoS and policy frameworks handle latency and improve reliability by traffic engineering. In order to support 5G service requirements, it is necessary for the 5G network to offer QoS and policy control for reliable communication with latency required for a service and enable the resource adaptations as necessary.', '', 'The network needs to allow multiple services to coexist, including multiple priority services (e.g. Emergency, MPS and MCS) and must provide means to prevent a single service from consuming or monopolizing all available network resources, or impacting the QoS (e.g. availability) of other services competing for resources on the same network under specific network conditions. For example, it is necessary to prevent certain services (e.g. citizen-to-authority Emergency) sessions from monopolizing all available resources during events such as disaster, emergency, and DDoS attacks from impacting the availability of other priority services such as MPS and MCS. ', '', 'Also, as 5G network is expected to operate in a heterogeneous environment with multiple access technologies, multiple types of UE, etc., it should support a harmonised QoS and policy framework that applies to multiple accesses.', '', 'Further, for QoS control in EPS only covers RAN and core network, but for 5G network E2E QoS (e.g. RAN, backhaul, core network, network to network interconnect) is needed to achieve the 5G user experience (e.g. ultra-low latency, ultra-high bandwidth).', '']</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>0.1835464171733447</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;6.7.2		Requirements&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>22261-j30.docx</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>LR3_other</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>['', 'The 5G system shall allow flexible mechanisms to establish and enforce priority policies among the different services (e.g. MPS, Emergency, medical, Public Safety) and users.', '', 'NOTE 1:\tPriority between different services is subject to regional or national regulatory and operator policies.', '', 'The 5G system shall be able to provide the required QoS (e.g. reliability, end-to-end latency, and bandwidth) for a service and support prioritization of resources when necessary for that service.', '', 'The 5G system shall enable the network operator to define and statically configure a maximum resource assignment for a specific service that can be adjusted based on the network state (e.g. during congestion, disaster, emergency and DDoS events) subject to regional or national regulatory and operator policies.', '', 'The 5G system shall allow decoupling of the priority of a particular communication from the associated QoS characteristics such as end-to-end latency and reliability.', '', 'The 5G system shall be able to support a harmonised QoS and policy framework applicable to multiple accesses.', '', 'The 5G system shall be able to support E2E (e.g. UE to UE) QoS for a service.', '', 'NOTE 2:\tE2E QoS needs to consider QoS in the access networks, backhaul, core network, and network to network interconnect.', '', 'The 5G system shall be able to support QoS for applications in a Service Hosting Environment.', '', 'A 5G system with multiple access technologies shall be able to select the combination of access technologies to serve an UE on the basis of the targeted priority, pre-emption, QoS parameters and access technology availability. ', '', 'The 5G system shall support a mechanism to determine suitable QoS parameters for traffic over a satellite backhaul, based e.g. on the latency and bandwidth of the specific backhaul . ', '', 'NOTE 3: The case where a backhaul connection has dynamically changed latency and/or bandwidth needs to be considered.', '']</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>0.174320926270338</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;7.1.1	Description&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>22876-j00.docx</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>['', 'In many circumstances, an application server holding a Federated Learning (FL) task has a transmission delay requirement and limited FL coverage. An FL coverage means an area in which UEs the Application server can organize for federated learning.', '', 'An Application server has a transmission delay requirement for each FL member (UE). Some of UEs are actually holding valuable dataset but cannot fulfil transmission delay requirement, which leads to a decreasing of FL performance. However, if a UE’s direct network connection cannot fulfil the transmission delay requirement (i.e. an QoS on Uu), leveraging the devices with direct connections helps to involve more UEs holding valuable dataset for the FL task with the following case study:', '', 'A UE-A with bad transmission condition sends a UE’s training result to UE-B via direct device connection. In such case, a UE-B aggregates the training result locally and provides to UEs an update of training model for next round.', '', 'Some research e.g. in [6][7] have illustrated the increasing performance in subcase-B (we call it “decentralized averaging methods”). In order to include more devices to participate in FL and to reduce the devices’ reliance on the PS, the authors in [7] uses decentralized averaging methods to update the local ML model of each device. In particularly, using the decentralized averaging methods, each device only needs to transmit its local ML parameters to its neighboring devices. And the neighboring devices can use the acquired ML parameters to estimate the global ML model. Therefore, using the decentralized averaging methods can reduce the communication overhead of FL parameter transmission.', '', '----media/image11.png----', '', '\tFigure 7.1-1 FL with decentralized averaging method outperforms the original FL', '', '&lt;span style="color:2E3033"&gt;To show the performance of decentralized averaging method, the [6] implemented a preliminary simulation for a network that consists of one BS that is acted as an application server and six devices, as shown in Figure-1. In Figure-1, the green and purple lines respectively represent the local ML parameter transmission of original FL and the FL with decentralized averaging methods. Due to the transmission latency requirement, only 4 devices can participate in original FL. For the FL with the decentralized averaging update method, 6 devices can participate in the FL training process since the devices which are out of coverage can connect to their neighbouring devices (i.e. Device a and Device b) for model updating.&lt;/span&gt;', '', '&lt;span style="color:2E3033"&gt;From Figure-1, we can see that the FL with decentralized averaging method outperforms the original FL in terms of identification accuracy. Specifically, the original FL (without using direct device connection) has an upper limit of identification accuracy to about 0.85, while using direct device connection for decentralized averaging method helps to increase the identification accuracy to about 0.88 which is actually a big optimization since the line already goes smoothly after 200 round of FL training.&lt;/span&gt;', '', '&lt;span style="color:2E3033"&gt;Besides, the FL leveraging direct device connection can also reduce the energy consumption for some devices since it only needs to transmit its ML model parameters to device instead of the BS. &lt;/span&gt;', '']</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>0.1995318294624074</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;7.1.2	Pre-conditions&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>22876-j00.docx</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>['', '', '', '----media/image12.emf----', '', 'Figure 7.1-2 two UEs performs decentralized FL using Direct Device connection', '', 'As depicted in Figure-2, there is an Application server for federated learning which needs to communicate with the UEs in a FL coverage for FL task.', '', '&lt;span style="color:2E3033"&gt;To achieve an ideal performance (i.e. fast convergence and high model accuracy), there is a transmission latency requirement to each FL member UE’s data transmission.&lt;/span&gt;', '', 'Alice and Bob are FL members but their cell phones sometimes have bad signal condition which cannot transmit data to FL service directly. Meanwhile, Bob is willing to support the “decentralized averaging method” (as described in clause 7.1.1) service for its neighbouring cell phones.', '', '&lt;span style="color:2E3033"&gt;Alice, Bob are neighbouring to each other within a FL coverage.&lt;/span&gt;', '']</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>0.2181035443565043</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;7.1.3	Operational efficiency, exposure, and coordination of mobile metaverse services &lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>22856-j00.docx</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>['', 'Table 7.1.3-1 – Operational efficiency, exposure, and coordination of mobile metaverse services Consolidated Requirements', '', 'CPR #', '', 'Consolidated Potential Requirement', '', 'Original PR #', '', 'Comment', '', '[CPR 3.1]', '', 'Subject to operator policy, the 5G system shall support a mechanism that enables flexible adjustment of communication services based on e.g. the type of devices (e.g., wearables), or communication duration (e.g. more than one hour), such that the services can be operated with reduced energy utilization.', '', 'NOTE:\tMetaverse service experience over an extended period of time (e.g. 2h) requires significant power consumption by the UE. In some cases, a device with no external power supply cannot sustain downloading and rendering of media over a long interval, e.g. for the duration of an entire feature film or athletic event.', '', '[PR 5.7.6-1]', '', '[PR 5.7.6-2]', '', '', '', '&lt;span style="font-size:18pt"&gt;[CPR 3.2]&lt;/span&gt;', '', 'The 5G system shall be able to provide a means to associate and coordinate data flows related to one or multiple UEs e.g. associated with the same object in digital twin applications provided by the mobile metaverse service.', '', '[PR 5.20.6-1]', '', '[PR 5.20.6-2]', '', '[PR 5.20.6-3]', '', '', '', '&lt;span style="font-size:18pt"&gt;[CPR 3.3]&lt;/span&gt;', '', 'Subject to operator policy, regulatory requirements and user consent, the 5G system shall be able to expose network performance information (e.g., observed or predicted bitrate, latency or packet loss) related to one or more users to an authorized third party metaverse application.', '', 'NOTE:\tThe network performance information can be per UE and take into account all available access network types, i.e. 3GPP and non-3GPP.', '', '[PR 5.25.6-1]', '', '[PR 5.9.6.2]', '', '', '', '', '', '', '', '&lt;span style="font-size:18pt"&gt;[CPR 3.4]&lt;/span&gt;', '', 'Subject to operator policy, the 5G system shall support a mechanism to enable one or more authorized third party(ies) to coordinate multiple service data flows delivered to/from one or more UE(s). Multiple UEs may be associated with one user/location or different users at different locations potentially using different access networks, i.e. 3GPP and non-3GPP.', '', 'NOTE 1: \tCoordination refers to the ability to provide an acceptable level of user experience for a given service, e.g. based on latency and synchronization constraints (due to multiple sources or long distance between UEs/users).', '', 'NOTE 2: \tIt is not assumed that it is always possible to coordinate and provide the same capabilities regardless of whether 3GPP or non-3GPP access is used. ', '', '[PR 5.27.6-3]', '', '[PR 5.9.6.1]', '', '[PR 5.3.6.2-4]', '', '[PR 5.25.6-2]', '', '[PR 5.10.6-2]', '', '', '', '[CPR 3.5]', '', 'The 5G system shall enable the coordination of diverse media, transmitted to a UE from one or more mobile metaverse services associated with a physical location, to be combined to form a localized service experience.', '', '', '', '[PR 5.1.6-4]', '', '[PR 5.4.6-1]', '', '', '', '[CPR 3.6]', '', 'Subject to operator policy, the 5G system shall support exposure mechanisms enabling an authorized third party to determine one or more subscribers to whom mobile metaverse media can be distributed in a resource efficient manner.', '', '[PR 5.27.6-1]', '', '', '', '[CPR 3.7]', '', 'Subject to operator policy, subject to user consent, the 5G system shall support a means to provide resource efficient communication of third party mobile metaverse media to one or more subscribers.', '', '[PR 5.27.6-2]', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>0.2197733698656605</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;7.1.5	Existing features partly or fully covering the use case functionality&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>22876-j00.docx</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>LR3_other</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>['', '&lt;b&gt;In 3GPP TS 22.261 [8] v18.6.1 clause 6.40.2&lt;/b&gt;', '', 'Based on operator policy, the 5G system shall be able to provide means to allow an authorized third-party to monitor the resource utilisation of the network service that is associated with the third-party.', '', 'NOTE 1:\tResource utilization in the preceding requirement refers to measurements relevant to the UE’s performance such as the data throughput provided to the UE.', '', 'Based on operator policy, the 5G system shall be able to provide an indication about a planned change of bitrate, latency, or reliability for a QoS flow to an authorized 3rd party so that the 3&lt;sup&gt;rd&lt;/sup&gt; party AI/ML application is able to adjust the application layer behaviour if time allows. The indication shall provide the anticipated time and location of the change, as well as the target QoS parameters.', '', 'Based on operator policy, 5G system shall be able to provide means to predict and expose predicted network condition changes (i.e. bitrate, latency, reliability) per UE, to an authorized third party.', '', 'Subject to user consent, operator policy and regulatory constraints, the 5G system shall be able to support a mechanism to expose monitoring and status information of an AI-ML session to a 3&lt;sup&gt;rd&lt;/sup&gt; party AI/ML application. ', '', 'NOTE 2:\tSuch mechanism is needed for AI/ML application to determine an in-time transfer of AI/ML model.', '', 'Subject to user consent, operator policy and regulatory requirements, the 5G system shall be able to expose information (e.g. candidate UEs) to an authorized 3&lt;sup&gt;rd&lt;/sup&gt; party to assist the 3&lt;sup&gt;rd&lt;/sup&gt; party to determine member(s) of a group of UEs (e.g. UEs of a FL group).', '']</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>0.1846468987536172</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;7.11.1	MCPTT Access time and Mouth-to-ear latency&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>22179-j00.docx</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>0.2912154848903127</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;7.16.2	Group Calls&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>22179-j00.docx</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>LR1_signalling</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>['', '[R-7.16.2-001] Void ', '', '[R-7.16.2-002] Void ', '', '', '', '', 'Annex A (informative):', 'Variables', '', 'Table A.1: List of variables', '', 'Variable', '', 'Meaning', '', 'Value', '', 'Reference', '', 'B1', '', 'Number of levels of group hierarchy', '', '', '', '5.2.2', '', 'B2', '', 'Number of levels of user hierarchy', '', '', '', '5.2.3', '', 'KPI 1', '', 'MCPTT Access time', '', '&amp;lt; 300 ms', '', '6.15.3.2', '', 'KPI 2', '', 'End-to-end MCPTT Access time', '', '&amp;lt; 1000 ms', '', '6.15.3.2', '', 'KPI 3', '', 'Mouth-to-ear latency', '', '&amp;lt; 300 ms', '', '6.15.3.2', '', 'KPI 4&lt;sup&gt;a&lt;/sup&gt;', '', 'Maximum Late call entry time (without application layer encryption)', '', '&amp;lt; 150 ms', '', '6.15.4.2', '', 'KPI 4&lt;sup&gt;b&lt;/sup&gt;', '', 'Maximum Late call entry time (with application layer encryption)', '', '&amp;lt; 350 ms', '', '6.15.4.2', '', '', '', '', '', '', '', '', '', 'N1', '', 'Number of receiving members present for an MCPTT Group.', '', '', '', '6.4.2', '', 'N2', '', 'Total number of MCPTT Groups that an MCPTT User can be affiliated to simultaneously', '', '', '', '5.1.5', '', 'N3', '', 'Minimum length of alphanumeric identifiers (i.e., Alias ID)', '', '', '', '5.8, 6.4.3, 7.1, and 7.2', '', 'N4', '', 'Number of simultaneous MCPTT Group calls received by a UE', '', '', '', '5.5.2', '', 'N5', '', 'Total number of MCPTT Group transmissions that a UE can receive', '', '', '', '5.5.2', '', 'N6', '', 'Number of simultaneous MCPTT Group calls received by a user', '', '', '', '5.5.2', '', 'N7', '', 'Total number of MCPTT Group transmissions that a user can receive', '', '', '', '5.5.2', '', 'N8', '', 'Minimum number of simultaneous off-network MCPTT calls supported by an off-network MCPTT UE.', '', '', '', '7.13', '', 'N9', '', 'Maximum number of simultaneous audios received by an MCPTT User in a single MCPTT Group', '', '', '', '6.2.3.1', '', 'N10', '', 'Total number of MCPTT Private Calls (with Floor control) in which a UE simultaneously participates', '', '', '', '5.5.2', '', 'N11', '', 'Total number of MCPTT Group Members of an MCPTT Group', '', '', '', '6.1', '', '', '', 'Annex A1 (Informative):', 'MCPTT Requirements for MCCoRe', '', 'This table provides an exhaustive list of those requirements in 3GPP TS 22.179 that have been mapped to MCCoRe. ', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5 MCPTT Service Requirements common for on the network and off the network&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.1 General Group call requirements &lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.1.1 General Aspects&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.1.1-001 \uf0e0 R-5.1.1-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.1.1-002 \uf0e0 R-5.1.1-002&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.1.1-003 \uf0e0 R-5.1.1-003&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.1.1-004 \uf0e0 R-5.1.1-004&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.1.1-005 \uf0e0 R-5.1.1-005&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.1.2 Group/status information&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.1.2-001 \uf0e0 R-5.1.2-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.1.2-002 \uf0e0 R-5.1.2-002&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.1.3 Group configuration&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.1.3-001 \uf0e0 R-5.1.3-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.1.3-002 \uf0e0 R-5.1.3-002&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.1.4 Identification&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.1.4-001 \uf0e0 R-5.1.4-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.1.5 Membership/affiliation&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.1.5-001 \uf0e0 R-5.1.5-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.1.5-002 \uf0e0 R-5.1.5-002&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.1.5-003 \uf0e0 R-5.1.5-003&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.1.5-004 \uf0e0 R-5.1.5-004&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.1.5-005 \uf0e0 R-5.1.5-005&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.1.5-006 \uf0e0 R-5.1.5-006&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.1.5-007 \uf0e0 R-5.1.5-007&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.1.5-008 \uf0e0 R-5.1.5-008&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.1.6 Group Call administration&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.1.6-001 \uf0e0 R-5.1.6-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.1.7 Prioritization&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.1.7-001 \uf0e0 R-5.1.7-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.1.7-002 \uf0e0 R-5.1.7-002&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.1.8 Charging requirements for MCPTT&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.1.8-001 \uf0e0 R-5.1.8-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.1.8-002 \uf0e0 R-5.1.8-002&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.1.8-003 \uf0e0 R-5.1.8-003&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.1.8-004 \uf0e0 R-5.1.8-004&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.1.8-005 \uf0e0 R-5.1.8-005&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.1.8-006 \uf0e0 R-5.1.8-006&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.1.8-007 \uf0e0 R-5.1.8-007&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.1.8-008 \uf0e0 R-5.1.8-008&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.1.8-009 \uf0e0 R-5.1.8-009&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.1.8-010 \uf0e0 R-5.1.8-010&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.1.8-011 \uf0e0 R-5.1.8-011&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.2 Broadcast Group&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.2.1 General Broadcast Group Communication&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.2.1-001 \uf0e0 R-5.2.1-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.2.1-002 \uf0e0 R-5.2.1-002&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.2.2 Group-Broadcast Group (e.g., announcement group)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.2.2-001 \uf0e0 R-5.2.2-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.2.2-002 \uf0e0 R-5.2.2-002&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.2.2-003 \uf0e0 R-5.2.2-003&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.2.2-004 \uf0e0 R-5.2.2-004&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.2.3 User-Broadcast Group (e.g., System Communication)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.2.3-001 \uf0e0 R-5.2.3-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.2.3-002 \uf0e0 R-5.2.3-002&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.3 Late call entry&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.3-001 \uf0e0 R-5.3-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.3-002 \uf0e0 R-5.3-002&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.3-003 \uf0e0 R-5.3-003&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.3-004 \uf0e0 R-5.3-004&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.3-005 \uf0e0 R-5.3-005&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.4 Dynamic group management (i.e., dynamic regrouping)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.5 Receiving from multiple MCPTT calls &lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.5.1 Overview&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.5.2 Requirements&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.5.2-004 \uf0e0 R-5.4.2-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.5.2-005 \uf0e0 R-5.4.2-002&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.5.2-008 \uf0e0 R-5.4.2-003&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.5.2-010 \uf0e0 R-5.4.2-004&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.5.2-011 \uf0e0 R-5.4.2-005&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.5.2-012 \uf0e0 R-5.4.2-006&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.5.2-013 \uf0e0 R-5.4.2-007&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.6 Private Call&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.6.1 Private Call Overview&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.6.2 Private Call (with Floor control) general requirements&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.6.3 Private Call (with Floor control) commencement requirements&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.6.4 Private Call (with Floor control) termination&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.6.5 Private Call (with Floor control) administration&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.7 MCPTT priority requirements&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.7.1 Overview&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.7.2 Call types based on priorities&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.7.2.1 MCPTT Emergency Group Call &lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.7.2.1.1 MCPTT Emergency Group Call requirements&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.7.2.1.1-002 \uf0e0 R-5.6.2.2.1-002&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.7.2.1.1-003 \uf0e0 R-5.6.2.2.1-003&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.7.2.1.1-004 \uf0e0 R-5.6.2.2.1-004&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.7.2.1.1-005 \uf0e0 R-5.6.2.2.1-005&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.7.2.1.1-006 \uf0e0 R-5.6.2.2.1-006&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.7.2.1.1-007 \uf0e0 R-5.6.2.2.1-007&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.7.2.1.1-008 \uf0e0 R-5.6.2.2.1-008&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.7.2.1.1-009 \uf0e0 R-5.6.2.2.1-009&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.7.2.1.1-010 \uf0e0 R-5.6.2.2.1-010&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.7.2.1.1-011 \uf0e0 R-5.6.2.2.1-011&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.7.2.1.1-012 \uf0e0 R-5.6.2.2.1-012&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.7.2.1.1-013 \uf0e0 R-5.6.2.2.1-013&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.7.2.1.1-014 \uf0e0 R-5.6.2.2.1-014&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.7.2.1.1-001 &lt;span style=font-family:Wingdings&gt;&amp;#x00E0;&lt;/span&gt; R-5.6.2.2.1-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.7.2.1.2 MCPTT Emergency Group Call cancellation requirements&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.7.2.1.2-001 \uf0e0 R-5.6.2.2.2-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.7.2.1.2-002 \uf0e0 R-5.6.2.2.2-002&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.7.2.1.2-003 \uf0e0 R-5.6.2.2.2-003&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.7.2.1.2-004 \uf0e0 R-5.6.2.2.2-004&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.7.2.1.2-005 \uf0e0 R-5.6.2.2.2-005&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.7.2.2 Imminent Peril group call&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.7.2.2.1 Imminent Peril group call requirements&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.7.2.2.1-001 \uf0e0 R-5.6.2.3.1-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.7.2.2.1-002 \uf0e0 R-5.6.2.3.1-002&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.7.2.2.1-003 \uf0e0 R-5.6.2.3.1-003&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.7.2.2.1-004 \uf0e0 R-5.6.2.3.1-004&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.7.2.2.1-005 \uf0e0 R-5.6.2.3.1-005&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.7.2.2.1-006 \uf0e0 R-5.6.2.3.1-006&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.7.2.2.1-007 \uf0e0 R-5.6.2.3.1-007&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.7.2.2.1-008 \uf0e0 R-5.6.2.3.1-008&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.7.2.2.1-009 \uf0e0 R-5.6.2.3.1-009&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.7.2.2.2 Imminent Peril group call cancellation requirements&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.7.2.2.2-001 \uf0e0 R-5.6.2.3.2-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.7.2.2.2-002 \uf0e0 R-5.6.2.3.2-002&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.7.2.2.2-003 \uf0e0 R-5.6.2.3.2-003&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.7.2.2.2-004 \uf0e0 R-5.6.2.3.2-004&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.7.2.3 MCPTT Emergency Private Call (with Floor Control)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.7.2.3.1 MCPTT Emergency Private Call (with Floor Control) requirements&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.7.2.3.2 MCPTT Emergency Private Call (with Floor Control) cancellation requirements&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.7.2.4 MCPTT Emergency Alert&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.7.2.4.1 MCPTT Emergency Alert requirements&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.7.2.4.1-001 \uf0e0 R-5.6.2.4.1-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.7.2.4.1-002 \uf0e0 R-5.6.2.4.1-002&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.7.2.4.1-003 \uf0e0 R-5.6.2.4.1-003&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.7.2.4.1-004 \uf0e0 R-5.6.2.4.1-004&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.7.2.4.1-005 \uf0e0 R-5.6.2.4.1-005&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.7.2.4.1-006 \uf0e0 R-5.6.2.4.1-006&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.7.2.4.1-007 \uf0e0 R-5.6.2.4.1-007&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.7.2.4.1-008 \uf0e0 R-5.6.2.4.1-008&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.7.2.4.1-009 \uf0e0 R-5.6.2.4.1-009&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.7.2.4.1-010 \uf0e0 R-5.6.2.4.1-010&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.7.2.4.1-011 \uf0e0 R-5.6.2.4.1-011&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.7.2.4.1-012 \uf0e0 R-5.6.2.4.1-012&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.7.2.4.2 MCPTT Emergency Alert cancellation requirements&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.7.2.4.2-001 \uf0e0 R-5.6.2.4.2-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.7.2.4.2-002 \uf0e0 R-5.6.2.4.2-002&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.7.2.4.2-003 \uf0e0 R-5.6.2.4.2-003&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.8 User ID&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.8-001 \uf0e0 R-5.7-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.8-002 \uf0e0 R-5.7-002&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.8-003 \uf0e0 R-5.7-003&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.9 MCPTT UE Management&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.9-001 \uf0e0 R-5.8-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.9-002 \uf0e0 R-5.8-002&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.10 MCPTT User Profile&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.10-001 \uf0e0 R-5.9-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.10-002 \uf0e0 R-5.9-002&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.11 Support for multiple devices&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.11-001 \uf0e0 R-5.10-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.11-002 \uf0e0 R-5.10-002&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.12 Location &lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.12-001 \uf0e0R-5.11-001, R-5.11-002&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.12-002 \uf0e0 R-5.11-003&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.12-003 \uf0e0 R-5.11-004&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.12-004 \uf0e0 R-5.11-005&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.12-005 \uf0e0 R-5.11-006&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.12-006 \uf0e0 R-5.11-007&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.12-007 \uf0e0 R-5.11-008&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.12-008 \uf0e0 R-5.11-009&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.12-009 \uf0e0 R-5.11-010&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.12-010 \uf0e0 R-5.11-011&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.12-012 \uf0e0 R-5.11-012&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.12-013 \uf0e0 R-5.11-013&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.12-014 \uf0e0 R-5.11-014&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.12-015 \uf0e0 R-5.11-015&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.13 Security&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.13-001 \uf0e0 R-5.12-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.13-002 \uf0e0 R-5.12-002&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.13-003 \uf0e0 R-5.12-003&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.13-004 \uf0e0 R-5.12-004&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.13-005 \uf0e0 R-5.12-005&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.13-006 \uf0e0 R-5.12-006&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.13-007 \uf0e0 R-5.12-007&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.13-008 \uf0e0 R-5.12-008&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.13-009 \uf0e0 R-5.12-009&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.13-010 \uf0e0 R-5.12-010&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.13-011 \uf0e0 R-5.12-011&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.13-012 \uf0e0 R-5.12-012&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.13-013 \uf0e0 R-5.12-013&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.14 Audio/voice quality&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.14-001 \uf0e0 R-5.13-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.15 Interactions between MCPTT Group calls and MCPTT Private Calls (with Floor Control)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.16 Relay requirements&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.16-001 \uf0e0 R-5.14-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.16-002 \uf0e0 R-5.14-002&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.16-003 \uf0e0 R-5.14-003&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.17 Gateway Requirements&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.17-001 \uf0e0 R-5.15-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.18 Control and management by Mission Critical Organizations&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.18.1 Overview&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.18.2 General Requirements&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.18.2-001 \uf0e0 R-5.16.2-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.18.2-002 \uf0e0 R-5.16.2-002&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.18.2-003 \uf0e0 R-5.16.2-003&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.18.2-004 \uf0e0 R-5.16.2-004&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.18.2-005 \uf0e0 R-5.16.2-005&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.18.3 Operational visibility for Mission Critical Organizations&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.18.3-001 \uf0e0 R-5.16.3-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;5.19 General Administrative – groups and users&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.19-001 \uf0e0 R-5.17-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.19-002 \uf0e0 R-5.17-002&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.19-003 \uf0e0 R-5.17-003&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.19-004 \uf0e0 R-5.17-004&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.19-005 \uf0e0 R-5.17-005&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.19-006 \uf0e0 R-5.17-006&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.19-007 \uf0e0 R-5.17-007&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-5.19-008 \uf0e0 R-5.17-008&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6 MCPTT Service requirements specific to on-network use&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6.1 General administrative – groups and users&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.1-001 \uf0e0 R-6.1-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.1-002 \uf0e0 R-6.1-002&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.1-003 \uf0e0 R-6.1-003&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.1-006 \uf0e0 R-6.1-004&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.1-007 \uf0e0 R-6.1-005&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6.2 MCPTT calls &lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;\xa0&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6.2.1 Commencement modes for MCPTT Group calls &lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA &lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6.2.2 Queuing&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.2.2-001 \uf0e0 R-6.2.2-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.2.2-002 \uf0e0 R-6.2.2-002&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.2.2-003 \uf0e0 R-6.2.2-003&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.2.2-004 \uf0e0 R-6.2.2-004&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.2.2-005 \uf0e0 R-6.2.2-005&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.2.2-006 \uf0e0 R-6.2.2-006&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6.2.3 Floor control&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6.2.3.1 General aspects&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6.2.3.2 Requesting permission to transmit&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6.2.3.3 Override&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6.2.3.3.1 General aspects&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA &lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6.2.3.3.2 Override – one transmitting Participant&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA &lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6.2.3.3.3 Override – simultaneously Transmitting MCPTT Group Members&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6.2.3.4 Terminating permission to transmit&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA &lt;/span&gt;', '', '', '', '', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6.2.3.5 Transmit time limit&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6.2.3.6 Audio cut-in designated MCPTT Groups&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA&lt;/span&gt;', '', '', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6.2.3.6.1 Overview&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA&lt;/span&gt;', '', '', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6.2.3.6.2 Requirements&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA&lt;/span&gt;', '', '', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6.2.3.6.3 Requesting permission to transmit&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA&lt;/span&gt;', '', '', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6.2.3.6.4 Terminating permission to transmit&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA&lt;/span&gt;', '', '', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6.2.3.6.5 Transmit time limit&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA&lt;/span&gt;', '', '', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6.2.3.7 MCPTT Groups designated for multi-talker control&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA&lt;/span&gt;', '', '', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6.2.3.7.1 Overview&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA&lt;/span&gt;', '', '', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6.2.3.7.2 General Aspects&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA&lt;/span&gt;', '', '', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6.2.3.7.3 Requesting permission to transmit&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA&lt;/span&gt;', '', '', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6.2.3.7.3 Requesting permission to transmit&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA&lt;/span&gt;', '', '', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6.2.3.7.4 Override&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA &lt;/span&gt;', '', '', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6.2.3.7.4.1 General Aspects&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA&lt;/span&gt;', '', '', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6.2.4 Call termination&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA &lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6.3 General requirements&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.3-001 \uf0e0 R-6.3-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.3-002 \uf0e0 R-6.3-002&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.3-003 \uf0e0 R-6.3-003&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.3-004 \uf0e0 R-6.3-004&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6.4 General group call&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6.4.1 General aspects&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.4.1-001 \uf0e0 R-6.4.1-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6.4.2 Group status/information&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.4.2-001 \uf0e0 R-6.4.2-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.4.2-002 \uf0e0 R-6.4.2-002&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.4.2-003 \uf0e0 R-6.4.2-003&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.4.2-004 \uf0e0 R-6.4.2-004&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.4.2-005 \uf0e0 R-6.4.2-005&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.4.2-006 \uf0e0 R-6.4.2-006&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.4.2-007 \uf0e0 R-6.4.2-007&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6.4.3 Identification&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.4.3-001 \uf0e0 R-6.4.3-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.4.3-002 \uf0e0 R-6.4.3-002&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6.4.4 Membership/affiliation&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.4.4-001 \uf0e0 R-6.4.4-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.4.4-002 \uf0e0 R-6.4.4-002&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6.4.5 Membership/affiliation list&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.4.5-001 \uf0e0 R-6.4.5-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.4.5-002 \uf0e0 R-6.4.5-002&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.4.5-003 \uf0e0 R-6.4.5-003&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.4.5-004 \uf0e0 R-6.4.5-004&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.4.5-005 \uf0e0 R-6.4.5-005&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.4.5-006 \uf0e0 R-6.4.5-006&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.4.5-007 \uf0e0 R-6.4.5-007&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.4.5-008 \uf0e0 R-6.4.5-008&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6.4.6 Authorized user remotely changes another MCPTT User’s affiliated and/or Selected MCPTT Group(s)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6.4.6.1 Mandatory change&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.4.6.1-001 \uf0e0 R-6.4.6.1-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.4.6.1-002 \uf0e0 R-6.4.6.1-002&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.4.6.1-003 \uf0e0 R-6.4.6.1-003&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.4.6.1-004 \uf0e0 R-6.4.6.1-004&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6.4.6.2 Negotiated change&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.4.6.2-001 \uf0e0 R-6.4.6.2-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.4.6.2-002 \uf0e0 R-6.4.6.2-002&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.4.6.2-003 \uf0e0 R-6.4.6.2-003&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.4.6.2-004 \uf0e0 R-6.4.6.2-004&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.4.6.2-005 \uf0e0 R-6.4.6.2-005&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.4.6.2-006 \uf0e0 R-6.4.6.2-006&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6.4.7 Prioritization&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.4.7-001 \uf0e0 R-6.4.7-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.4.7-002 \uf0e0 R-6.4.7-002&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.4.7-003 \uf0e0 R-6.4.7-003&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.4.7-004 \uf0e0 R-6.4.7-004&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6.4.8 Relay requirements&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.4.8-001 \uf0e0 R-6.4.8-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6.4.9 Administrative&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.4.9-001 \uf0e0 R-6.4.9-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.4.9-003 \uf0e0 R-6.4.9-002&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.4.9-004 \uf0e0 R-6.4.9-003&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.4.9-007 \uf0e0 R-6.4.9-004&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.4.9-006 \uf0e0 R-6.4.9-005&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.4.9-007 \uf0e0 R-6.4.9-006&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6.5 Broadcast Group&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6.5.1 General Broadcast Group Call&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.5.1-001 \uf0e0 R-6.5.1-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.5.1-002 \uf0e0 R-6.5.1-002&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6.5.2 Group-Broadcast Group (e.g., announcement group)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.5.2-001 \uf0e0 R-6.5.2-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6.5.3 User-Broadcast Group (e.g., System Call)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.5.3-001 \uf0e0 R-6.5.3-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6.6 Dynamic group management (i.e., dynamic reporting)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6.6.1 General dynamic regrouping&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.6.1-001 \uf0e0 R-6.6.1-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.6.1-002 \uf0e0 R-6.6.1-002&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.6.1-003 \uf0e0 R-6.6.1-003&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.6.1-004 \uf0e0 R-6.6.1-004&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.6.1-005 \uf0e0 R-6.6.1-005&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.6.1-006 \uf0e0 R-6.6.1-006&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6.6.2 Group Regrouping&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6.6.2.1 Service Description&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;NA&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;&lt;b&gt;6.6.2.2 Requirements&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6.6.2.2-001 \uf0e0 R-6.6.2.2-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;R-6</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>0.2474001253221745</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;7.2.1	Overview&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>22261-j30.docx</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>['', 'Several scenarios require the support of very low latency and very high communications service availability. Note that this implies a very high reliability. The overall service latency depends on the delay on the radio interface, transmission within the 5G system, transmission to a server which can be outside the 5G system, and data processing. Some of these factors depend directly on the 5G system itself, whereas for others the impact can be reduced by suitable interconnections between the 5G system and services or servers outside of the 5G system, for example, to allow local hosting of the services.', '']</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>0.1951176219670601</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;7.2.2	Scenarios and KPIs &lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>22261-j30.docx</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>['', 'Different deployments of URLLC capabilities will depend on the 3GPP system being able to meet specific sets of KPIs with different values and ranges applicable for each attribute. A common, yet flexible, 5G approach to URLLC will enable the 5G system to meet the specific sets of KPIs needed in a given implementation. To provide clear and precise requirements for specific types of services, the corresponding KPI requirements are included in other specifications as follows:', '', '-\tCyber-physical control applications in vertical domains can be found in 22.104 [21]. ', '', '-\tV2X can be found in 22.186 [9]. ', '', '-\tRail communications can be found in 22.289 [23].', '', 'Some scenarios requiring very low latency and very high communication service availability are described below:', '', '-\tMotion control – Conventional motion control is characterised by high requirements on the communications system regarding latency, reliability, and availability. Systems supporting motion control are usually deployed in geographically limited areas but can also be deployed in wider areas (e.g. city- or country-wide networks), access to them can be limited to authorized users, and they can be isolated from networks or network resources used by other cellular customers.', '', '-\tDiscrete automation – Discrete automation is characterised by high requirements on the communications system regarding reliability and availability. Systems supporting discrete automation are usually deployed in geographically limited areas, access to them can be limited to authorized users, and they can be isolated from networks or network resources used by other cellular customers.', '', '-\tProcess automation – Automation for (reactive) flows, e.g. refineries and water distribution networks. Process automation is characterized by high requirements on the communications system regarding communication service availability. Systems supporting process automation are usually deployed in geographically limited areas, access to them is usually limited to authorized users, and it will usually be served by non-public networks. ', '', '-\tAutomation for electricity distribution and smart grid (mainly medium and high voltage). Electricity distribution and smart grid are is characterized by high requirements on the communications service availability and security, as well as low latency in some cases. In contrast to the above use cases, electricity distribution and smart grid are deeply immersed into the public space. Since electricity distribution is an essential infrastructure, it is well served by network slices to provide service isolation and security, or by non-public networks.', '', '-\tWireless road-side infrastructure backhaul in intelligent transport systems – Automation solutions for the infrastructure supporting street-based traffic. This use case addresses the connection of the road-side infrastructure, e.g. roadside units, with other infrastructure, e.g. a traffic guidance system. As is the case for automation electricity, the nodes are deeply immersed into the public space.', '', '-\tRemote control – Remote control is characterised by a UE being operated remotely by a human or a computer. For example, Remote Driving enables a remote driver or a V2X application to operate a remote vehicle with no driver or a remote vehicle located in a dangerous environment.', '', '-\tRail communications (e.g. railway, rail-bound mass transit) have been using 3GPP based mobile communication (e.g. GSM-R) already for some time, while there is still a driver on-board of the train. The next step of the evolution will be providing fully automated train operation that requires highly reliable communication with moderate latencies but at very high speeds of up to 500 km/h.', '', 'For specific requirements, refer to the specifications noted above [21], [9], [23].', '']</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>0.1922529786526335</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;7.3.1	Description&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>22261-j30.docx</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>LR3_other</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>['', 'Adaptability and flexibility are among the key features of the 5G system to serve a wide diversity of verticals and services, in different environments (e.g. rural, urban, indoor). This applies to high-accuracy positioning and translates into the ability to satisfy different levels of services and requirements, for instance on performance (e.g. accuracy, positioning service availability, positioning service latency) and on functionality (e.g. security).', '']</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>0.21744520753781</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;7.4.2	Requirements&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>22261-j30.docx</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>['', 'A 5G system providing service with satellite access shall be able to support GEO based satellite access with up to 285 ms end-to-end latency.', '', 'NOTE 1:\t 5 ms network latency is assumed and added to satellite one-way delay.', '', 'A 5G system providing service with satellite access shall be able to support MEO based satellite access with up to 95 ms end-to-end latency.', '', 'NOTE 2:\t 5 ms network latency is assumed and added to satellite one-way delay.', '', 'A 5G system providing service with satellite access shall be able to support LEO based satellite access with up to 35 ms end-to-end latency.', '', 'NOTE 3:\t 5 ms network latency is assumed and added to satellite one-way delay.', '', 'A 5G system shall support negotiation on quality of service taking into account latency penalty to optimise the QoE for UE.', '', 'The 5G system with satellite access shall support high uplink data rates for 5G satellite UEs.', '', 'The 5G system with satellite access shall support high downlink data rates for 5G satellite UEs.', '', 'The 5G system with satellite access shall support communication service availabilities of at least 99,99%.', '', 'Table 7.4.2-1: Performance requirements for satellite access', '', '&lt;span style="font-size:16pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Experienced data rate (DL)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Experienced data rate (UL)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Area traffic capacity&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(DL) &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 1)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Area traffic capacity&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(UL) &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 1)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Overall user density &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Activity factor&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UE speed&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UE type&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 2)&lt;/span&gt;', '', '[1] Mbit/s', '', '[100] kbit/s', '', '1,5 Mbit/s/km&lt;sup&gt;2&lt;/sup&gt;', '', '150 kbit/s/km&lt;sup&gt;2&lt;/sup&gt;', '', '[100]/km&lt;sup&gt;2&lt;/sup&gt;', '', '[1,5]\xa0%', '', 'Pedestrian', '', 'Handheld', '', '&lt;span style="font-size:16pt"&gt;Public safety&lt;/span&gt;', '', '[3,5] Mbit/ss', '', '[3,5] Mbit/s', '', 'TBD', '', 'TBD', '', 'TBD', '', 'N/A', '', '100 km/h', '', 'Handheld', '', '&lt;span style="font-size:16pt"&gt;Vehicular connectivity&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 3)&lt;/span&gt;', '', '50 Mbit/s', '', '25 Mbit/s', '', 'TBD', '', 'TBD', '', 'TBD', '', '', '', '50\xa0%', '', 'Up to 250 km/h', '', 'Vehicle mounted', '', '&lt;span style="font-size:16pt"&gt;Airplanes connectivity&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 4)&lt;/span&gt;', '', '360 Mbit/s/ plane', '', '180 Mbit/s/ plane', '', 'TBD', '', 'TBD', '', 'TBD', '', 'N/A', '', 'Up to 1000 km/h', '', 'Airplane mounted', '', '&lt;span style="font-size:16pt"&gt;Stationary&lt;/span&gt;', '', '', '', '50 Mbit/s', '', '25 Mbit/s', '', 'TBD', '', 'TBD', '', 'TBD', '', 'N/A', '', 'Stationary', '', 'Building mounted', '', '&lt;span style="font-size:16pt"&gt;Video surveillance &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 4a)&lt;/span&gt;', '', '', '', '[0,5] Mbit/s', '', '[3] Mbit/s', '', 'TBD', '', 'TBD', '', 'TBD', '', 'N/A', '', 'Up to 120km/h or', '', 'stationary', '', '&lt;span style="font-size:16pt"&gt;(note 4b)&lt;/span&gt;', '', '', '', 'Vehicle mounted or fixed installation', '', '&lt;span style="font-size:16pt"&gt;Narrowband IoT connectivity&lt;/span&gt;', '', '[2] kbit/s', '', '[10] kbit/s', '', '8 kbit/s/km&lt;sup&gt;2&lt;/sup&gt;', '', '40 kbit/s/km&lt;sup&gt;2&lt;/sup&gt;', '', '[400]/km2', '', '[1]\xa0%', '', '[Up to 100 km/h]', '', 'IoT', '', 'Note 1: Area capacity is averaged over a satellite beam.', '', 'Note 2: Data rates based on Extreme long-range coverage target values in clause 6.17.2. User density based on rural area in Table 7.1-1.', '', 'Note 3: Based on Table 7.1-1', '', 'Note 4: Based on an assumption of 120 users per plane 15/7.5 Mbit/s data rate and 20\xa0% activity factor per user', '', 'Note 4a: Refer to video surveillance data transmitted (in UL) from a UE on the ground (e.g. picture or video from a camera) using satellite NG-RAN to connect to 5GC, and video surveillance-related configuration or control data sent (in DL) to the UE/device. 0.5 Mbit/s for DL experienced data rate is based on MAVLINK protocol that is widely used for UAV control. 3 Mbit/s for UL experienced data rate is based on the assumed sum from 2.5 Mbit/s for video streaming and 0.5 Mbit/s for data transmission.', '', 'Note 4b: Up to 120km/h applies to vehicle mounted while stationary applies to fixed installation.', '', 'Note 5: All the values in this table are targeted values and not strict requirements. ', '', 'Note 6: Performance requirements for all the values in this table should be analyzed independently for each scenario. ', '']</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>0.2149400527715492</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;7.5.2	Requirements&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>22261-j30.docx</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>['', 'Table 7.5.21: Performance requirements for highly reliable machine type communication', '', 'Profile', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value in %', '', 'Communication service reliability (Mean Time Between Failure)', '', 'End-to-end latency: maximum', '', 'Bit rate', '', 'Direction', '', 'Message', '', 'Size', '', '[byte]', '', 'Transfer Interval', '', 'Survival Time', '', 'UE speed', '', '(km/h)', '', '# of UEs', '', 'connection', '', 'Service Area', '', '', '', 'Medical monitoring (note 2)', '', '&amp;gt; 99,9999', '', '&amp;lt;1 year (&amp;gt;&amp;gt;\xa01 month)', '', '&amp;lt;\xa0100 ms', '', '&amp;lt;\xa01 Mbit/s', '', 'Uplink', '', '~\xa01000', '', '50 ms', '', 'Transfer Interval', '', '&amp;lt;\xa0500', '', '10/km&lt;sup&gt;2&lt;/sup&gt; to 1000/km&lt;sup&gt;2&lt;/sup&gt; ', '', 'Country wide including rural areas and deep indoor. (note 1)', '', 'NOTE 1: “deep indoor” term is meant to be places like e.g. elevators, building’s basement, underground parking lot, …', '', 'NOTE 2: These performance requirements aim energy-efficient transmissions performed using a device powered with a 3.3V battery of capacity &amp;lt;\xa01000 mAh that can last at least 1 month without recharging and whereby the peak current for transmit operations stays below 50 mA.', '', '', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>0.2187196414036625</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;7.6.1	AR/VR&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>22261-j30.docx</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>['', 'Audio-visual interaction is characterised by a human being interacting with the environment or people, or controlling a UE, and relying on audio-visual feedback. In the use cases like VR and interactive conversation the latency requirements include the latencies at the application layer (e.g. codecs), which could be specified outside of 3GPP.', '', 'To support VR environments with low motion-to-photon capabilities, the 5G system shall support:', '', '-\tmotion-to-photon latency in the range of 7 ms to 15ms while maintaining the required resolution of up to 8k giving user data rate of up to [1Gbit/s] and', '', '-\tmotion-to-sound delay of [&amp;lt; 20 ms].', '', "NOTE: \tThe motion-to-photon latency is defined as the latency between the physical movement of a user's head and the updated picture in the VR headset. The motion-to-sound latency is the latency between the physical movement of a user's head and updated sound waves from a head mounted speaker reaching their ears.", '', 'To support interactive task completion during voice conversation, the 5G system shall support low-delay speech coding for interactive conversational services (100 ms, one-way mouth-to-ear).', '', 'Due to the separate handling of the audio and video component, the 5G system will have to cater for the VR audio-video synchronisation in order to avoid having a negative impact on the user experience (i.e. viewers detecting lack of synchronization). To support VR environments the 5G system shall support audio-video synchronisation thresholds:', '', '-\tin the range of [125 ms to 5 ms] for audio delayed and', '', '-\tin the range of [45 ms to 5 ms] for audio advanced. ', '', 'The 5G system shall support service continuity for AR/VR to support immersive user experience under high UE mobility.', '', 'When it comes to implementation of applications containing AR/VR components, the requirements on the 5G network could depend on architectural choices implementing these services. Note 3 in table 7.1-1 above gives an example on such dependences for a VR application in a 5G system. Table 7.6.1-1 below illustrates additional use cases and provides more corresponding requirements on the 5G system. ', '', '-\tCloud/Edge/Split Rendering – Cloud/Edge/Split Rendering is characterised by the transition and exchange of the rendering data between the rendering server and device.', '', '-\tGaming or Training Data Exchanging – This use case is characterised by the exchange of the gaming or training service data between two 5G connected AR/VR devices.', '', '-\tConsume VR content via tethered VR headset – This use case involves a tethered VR headset receiving VR content via a connected UE; this approach alleviates some of the computation complexity required at the VR headset, by allowing some or all decoding functionality to run locally at the connected UE. The requirements in the table below refer to the direct wireless link between the tethered VR headset and the corresponding connected UE.', '', '', '', 'Table 7.6.1-1 KPI Table for additional high data rate and low latency service', '', 'Use Cases', '', 'Characteristic parameter (KPI)', '', 'Influence quantity', '', '', '', 'Max allowed end-to-end latency', '', 'Service bit rate: user-experienced data rate', '', 'Reliability', '', '# of UEs', '', '', '', 'UE Speed', '', 'Service Area', '', '&lt;b&gt;(note 2)&lt;/b&gt;', '', '&lt;b&gt;Cloud/Edge/Split Rendering&lt;/b&gt;', '', '(note 1)', '', '&lt;b&gt;5 ms (i.e. UL+DL between UE and the interface to data network) (note 4) &lt;/b&gt;', '', '0,1 to [1] Gbit/s supporting visual content (e.g. VR based or high definition video) with 4K, 8K resolution and up to120 frames per second content.', '', '&lt;b&gt;99,99 % in uplink and 99,9 % in downlink (note 4)&lt;/b&gt;', '', '&lt;b&gt;-&lt;/b&gt;', '', 'Stationary or Pedestrian', '', 'Countrywide', '', 'Gaming or Interactive Data Exchanging ', '', '(note 3)', '', '&lt;b&gt;10ms (note 4)&lt;/b&gt;', '', '0,1 to [1] Gbit/s supporting visual content (e.g. VR based or high definition video) with 4K, 8K resolution and up to120 frames per second content.', '', '&lt;b&gt;99,99 % (note 4)&lt;/b&gt;', '', '&lt;b&gt;≤ [10]&lt;/b&gt;', '', 'Stationary or Pedestrian', '', '20 m x 10\xa0m; in one vehicle (up to 120 km/h) and in one train (up to 500 km/h)', '', 'Consumption of VR content via tethered VR headset ', '', '(note 6)', '', '', '', '&lt;b&gt;[5 to 10] ms&lt;/b&gt;', '', '(note 5)', '', '', '', ' 0,1 to [10] Gbit/s ', '', '(note 5)', '', '', '', '&lt;b&gt;[99,99 %]&lt;/b&gt;', '', '&lt;b&gt;-&lt;/b&gt;', '', 'Stationary or Pedestrian', '', '-', '', 'NOTE 1:\tUnless otherwise specified, all communication via wireless link is between UEs and network node (UE to network node and/or network node to UE) rather than direct wireless links (UE to UE).', '', 'NOTE 2:\tLength x width (x height).', '', 'NOTE 3:\tCommunication includes direct wireless links (UE to UE). ', '', 'NOTE 4:\tLatency and reliability KPIs can vary based on specific use case/architecture, e.g. for cloud/edge/split rendering, and can be represented by a range of values.', '', 'NOTE 5:\tThe decoding capability in the VR headset and the encoding/decoding complexity/time of the stream will set the required bit rate and latency over the direct wireless link between the tethered VR headset and its connected UE, bit rate from 100 Mbit/s to [10] Gbit/s and latency from 5 ms to 10 ms.&lt;b&gt; &lt;/b&gt;', '', 'NOTE 6:\tThe performance requirement is valid for the direct wireless link between the tethered VR headset and its connected UE.', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>0.2038770375002855</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;8.2.1			Split AI/ML operation between AI/ML endpoints &lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>22876-j00.docx</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>LR1_signalling</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>['', 'Table 8.1-1 KPI Table of Split AI/ML operation between AI/ML endpoints for AI inference by leveraging direct device connection', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Max allowed UL end-to-end latency (NOTE 1)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;UL Payload size (Intermediate data size)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;UL Experienced data rate &lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Service area dimension&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Communication service availability&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Reliability&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Remarks&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;2–100 ms&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;0.1-1.5 Mbyte for each frame &lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;4.8-720 Mbps &lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:18pt"&gt;Proximity-based work task offloading for Remote driving, AR displaying/gaming, remote-controlled robotics, video recognition and One-shot object recognition&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;10 ms&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;0.000016 – 1.6 MByte&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;(8 bits data format)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;0.128 - 1.28 Gbps&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;900 m&lt;/span&gt;&lt;span style="font-size:18pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:18pt"&gt;', '(30\xa0m x 30\xa0m)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;99.999\xa0%&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;99.999\xa0%&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Local AI/ML model split on factory robots &lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;10 ms&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;0.000064 – 6.4 Mbyte&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;(32 bits data format)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;0.512 - 5.12 Gbps&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:18pt"&gt;Local AI/ML model split on factory robots&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;NOTE 1: For AIML model splitting, the UL intermediate data size is much bigger than DL result data size.&lt;/span&gt;', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>0.2419898743135735</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;8.2.2			AI/ML model/data distribution and sharing by leveraging direct device connection &lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>22876-j00.docx</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>LR1_signalling</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>['', 'Table 8.1-1 KPI Table of AI/ML model/data distribution and sharing by leveraging direct device connection', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Max allowed DL end-to-end latency&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;(NOTE 1)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Experienced DL data rate&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;DL Payload size&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Communication service availability&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Remark&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;1s&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;0.14 - 1.92 Gbit/s&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;18 - 240 MByte&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;99.9\xa0%&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;AI Model Transfer Management through Direct Device Connection&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;3s&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;5 – 81.33 Mbyte/s&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;15 – 244 MByte&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;transfer learning for trajectory prediction&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;NOTE 1: the model distribution mainly requires an KPI for DL data transmission&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;NOTE 2: The AI/ML model data distribution is for a specific application service&lt;/span&gt;', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>0.2378656684903187</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;8.2.3			Distributed/Federated Learning by leveraging direct device connection&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>22876-j00.docx</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>LR1_signalling</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>['', 'Table 8.1-1 KPI Table of Distributed/Federated Learning by leveraging direct device connection', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Ul/DL Payload size&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;(NOTE 1)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Maximum UL/DL latency &lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Experienced UL/DL data rate &lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Reliability&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Remark&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:18pt"&gt;132 MByte&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;2-3 s&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;352 – 528 Mbit/s&lt;/span&gt;', '', '', '', '&lt;span style="font-size:18pt"&gt;Direct device connection assisted Federated Learning (Uncompressed model)&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:18pt"&gt;132 MByte&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="color:000000;font-size:18pt"&gt;Asynchronous Federated Learning via direct device connection&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;18 – 50 MByte&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;1 s&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;140 – 220 Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;99.99%&lt;/span&gt;', '', '', '', '&lt;span style="color:000000;font-size:18pt"&gt;NOTE 1: For Distributed/federated learning, the UL and DL data size are almost the same due to the training gradient (UL) and global model (DL) are corresponding to the same model and have the same number of parameters&lt;/span&gt;', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>0.2442293478987211</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;9.14.3	Service Flows&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>22989-j30.docx</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>['', '1. The following train begins to approach to the leading train by exchanging the information about their position. The two trains, which are far enough to allow a certain amount of end-to-end latency, are initially connected through the 3GPP network.', '', '2. As the following train approaches to the leading train, they start exchanging the information about movement control and each train then controls itself while considering the control of the other train. The two trains, which are still far enough to allow a certain amount of end-to-end latency, keep the connection through the 3GPP network.', '', '3. As the following train further approaches to the leading train, the safe braking distance gets shorter and they are required to have a connection of which end-to-end latency is very short for delicate train control. At this moment, they seamlessly switch the connection from the 3GPP network to PC5 interface', '']</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>0.1931563813710265</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;A.2.2.1	Motion control&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>22104-j00.docx</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>['', 'A motion control system is responsible for controlling moving and/or rotating parts of machines in a well-defined manner, for example in printing machines, machine tools or packaging machines.', '', 'A schematic representation of a motion control system is depicted in Figure A.2.2.1-1. A motion controller periodically sends desired set points to one or several actuators (e.g., a linear actuator or a drive) which thereupon perform a corresponding action on one or several processes (in this case usually a movement or rotation of a certain component). At the same time, sensors determine the current state of the process(es), e.g. the current position and/or rotation of one or multiple components, and send the actual values back to the motion controller. This is done in a strictly cyclic and deterministic manner, such that during one application cycle the motion controller sends updated set points to all actuators, and all sensors send their actual values back to the motion controller. Nowadays, typically Industrial Ethernet technologies are used for motion control systems. ', '', '', '', '----media/image4.emf----', '', 'Figure A.2.2.1-1: Schematic representation of a motion control system', '', 'Table A.2.2.1-1: Service performance requirements for motion control', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Service bitrate: user experienced data rate', '', 'Message size [byte]', '', 'Transfer interval: lower bound', '', 'Transfer interval: upper bound', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service area (note)', '', '1', '', '99.999 to 99.999\xa099', '', '~ 10 years', '', '', '', '&amp;lt; transfer interval value', '', '–', '', '50', '', '500\xa0μs – 500\xa0ns', '', '500\xa0μs + 500\xa0ns', '', '500\xa0μs', '', '≤ 72\xa0km/h', '', '≤ 20', '', '50 m x 10 m x 10 m', '', '2', '', '99.999\xa09 to 99.999\xa0999', '', '~ 10 years', '', '&amp;lt; transfer interval value', '', '–', '', '40', '', '1 ms – 500\xa0ns', '', '1 ms + 500\xa0ns', '', '1 ms', '', '≤ 72\xa0km/h', '', '≤ 50', '', '50 m x 10 m x 10 m', '', '3', '', '99.999\xa09 to 99.999\xa0999', '', '~ 10 years', '', '&amp;lt; transfer interval value', '', '–', '', '&lt;span style="color:000000;font-size:22pt"&gt;20&lt;/span&gt;', '', '', '', '2 ms – 500\xa0ns', '', '2 ms + 500\xa0ns', '', '2 ms', '', '≤ 72\xa0km/h', '', '≤\xa0100', '', '50 m x 10 m x 10 m', '', 'NOTE:\tLength x width x height.', '', '', '', '&lt;i&gt;Use cases one to three&lt;/i&gt;', '', 'Characteristic parameters and influence quantities for a communication service supporting the cyclic interaction described above.', '']</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>0.2192184161652449</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;A.2.2.2	Control-to-control communication&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>22104-j00.docx</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>['', 'Control-to-control communication, i.e., the communication between different industrial controllers is already used today for different use cases, such as:', '', '- \tlarge machines (e.g., newspaper printing machines), where several controls are used to cluster machine functions, which need to communicate with each other; these controls typically need to be synchronised and exchange real-time data;', '', '-\tindividual machines that are used for fulfilling a common task (e.g., machines in an assembly line) often need to communicate, for example for controlling and coordinating the handover of work pieces from one machine to another.', '', 'Typically, a control-to-control network has no fixed configuration of certain controls that need to be present. The control nodes present in the network often vary with the status of machines and the manufacturing plant. Therefore, hot-plugging support for different control nodes is important and often used.', '', 'Table A.2.2.2-1: Service performance requirements for control-to control communication in motion control', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Message size [byte]', '', 'Transfer interval', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service area (note 1)', '', '1', '', '(note 2)', '', '99.999\xa09 to 99.999\xa0999', '', '~ 10 years', '', '&amp;lt; transfer interval value', '', '1 k', '', '≤\xa010\xa0ms', '', '10 ms', '', 'stationary', '', '5 to 10', '', '100 m x 30\xa0m x 10 m', '', '2', '', '(note 2)', '', '99.999\xa09 to 99.999\xa0999', '', '~ 10 years', '', '&amp;lt; transfer interval value', '', '1 k', '', '≤\xa050\xa0ms', '', '50 ms', '', 'stationary', '', '5 to 10', '', '1,000\xa0m x 30\xa0m x 10 m', '', 'NOTE 1:\tLength x width x height.', '', 'NOTE 2:\tCommunication may include two wireless links (UE to UE)', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Control-to-control communication between different motion (control) subsystems, as addressed in Subclause A.2.2.1. An exemplary application for this is large printing machines, where it is not possible or desired to control all actuators and sensors by one motion controller only. ', '', '&lt;i&gt;Use case two&lt;/i&gt;', '', 'Control-to-control communication between different motion (control) subsystems. Exemplary application for this are extra-large machines or individual machines used for fulfilling a common task (e.g., machines in an assembly line).', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>0.2151562636152233</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;A.2.2.3	Mobile robots&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>22104-j00.docx</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>['', 'Mobile robots and mobile platforms, such as automated guided vehicles, have numerous applications in industrial and intra-logistics environments and will play an increasingly important role in the Factory of the Future. A mobile robot essentially is a programmable machine able to execute multiple operations, following programmed paths to fulfil a large variety of tasks. This means, a mobile robot can perform activities like assistance in work steps, collaboration with other robots, e.g. for car assembly, and transport of goods, materials and other objects. Mobile robot systems are characterised by a maximum flexibility in mobility relative to the environment, with a certain level of autonomy and perception ability, i.e., they can sense and react with their environment. ', '', 'Autonomous guided vehicles (AGVs) are a sub-group of mobile robots. AGVs are driverless and used for moving materials efficiently within a facility. A detailed overview of the state of the art of autonomous-guided-vehicle systems is provided elsewhere in the literature [16]. All mobile robots incorporate all functionalities needed for an AGV.', '', 'Today, the AGV’s control intelligence is hosted inside the AGV. In the future, centralised fleet control will be hosted in the edge cloud, which will require reliable wireless communication between the control entity and all AGVs. Also, the current paradigm of pre-describing a route for the AGV will be replaced with target-based navigation. This paradigm change will make AGV routes more flexible.', '', 'Mobile robots are monitored and controlled from a guidance control system. Radio-controlled guidance control is necessary to get up-to-date process information, to avoid collisions between mobile robots, to assign driving jobs to the mobile robots, and to manage the traffic of mobile robots. The mobile robots are track-guided by the infrastructure with markers or wires in the floor or guided by own surround sensors, like cameras and laser scanners. ', '', 'Mobile robot systems can be divided in operation in indoor, outdoor and both indoor and outdoor areas. These environmental conditions have an impact on the requirements of the communication system, e.g., the handover process, to guarantee the required cycle times. ', '', 'Where this document does not explicitly refer to AGVs, the term &lt;i&gt;mobile robots&lt;/i&gt; applies to AGVs as well as to mobile robots.', '', '', '', 'Table A&lt;b&gt;.&lt;/b&gt;2.2.3-1: Service performance requirements for mobile robots', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Service bitrate: user experienced data rate', '', 'Message size [byte]', '', 'Transfer interval: lower bound', '', 'Transfer interval: target value (note)', '', 'Transfer interval: upper bound', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service area', '', '1', '', '&amp;gt; 99.999\xa09', '', '~ 10 years', '', '&amp;lt; target transfer interval value', '', '–', '', '40 to 250', '', ' – &amp;lt; 25\xa0% of target transfer interval value', '', '1\xa0ms to 50\xa0ms', '', '+ &amp;lt; 25\xa0% of target transfer interval value', '', 'target transfer interval value', '', '≤ 50 km/h', '', '≤\xa02,000', '', '≤ 1 km&lt;sup&gt;2&lt;/sup&gt;', '', '2', '', '&amp;gt; 99.999\xa09', '', '~ 1 year', '', '&amp;lt; target transfer interval value', '', '–', '', '15 k to 250\xa0k', '', '– &amp;lt; 25\xa0% of target transfer interval value', '', '10\xa0ms to 100\xa0ms', '', '+ &amp;lt; 25\xa0% of target transfer interval value', '', 'target transfer interval value', '', '≤ 50 km/h', '', '≤\xa02,000', '', '≤ 1 km&lt;sup&gt;2&lt;/sup&gt;', '', '3', '', '&amp;gt; 99.999\xa09', '', '~ 1 year', '', '&amp;lt; target transfer interval value', '', '–', '', '40 to 250', '', '– &amp;lt; 25\xa0% of target transfer interval value', '', '40 ms to 500 ms', '', '+ &amp;lt; 25\xa0% of target transfer interval value', '', 'target transfer interval value', '', '≤ 50 km/h', '', '≤\xa02,000', '', '≤ 1 km&lt;sup&gt;2&lt;/sup&gt;', '', '4', '', '&amp;gt; 99.999\xa09', '', '~ 1 week', '', '10 ms', '', '&amp;gt; 10 Mbit/s', '', '–', '', '–', '', '', '', '–', '', '–', '', '≤ 50 km/h', '', '≤\xa02,000', '', '≤ 1 km&lt;sup&gt;2&lt;/sup&gt;', '', 'NOTE:\tThe transfer interval is not so strictly periodic in these use cases. The transfer interval deviates around its target value within bounds. The mean of the transfer interval is close to the target value.', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Periodic communication for the support of precise cooperative robotic motion control (transfer interval: 1 ms), machine control (transfer interval: 1 ms to 10 ms), co-operative driving (10 ms to 50 ms).', '', '&lt;i&gt;Use case two&lt;/i&gt;', '', 'Periodic communication for video-operated remote control.', '', '&lt;i&gt;Use case three&lt;/i&gt;', '', 'Periodic communication for standard mobile robot operation and traffic management.', '', '&lt;i&gt;Use case four&lt;/i&gt;', '', 'Real-time streaming data transmission (video data) from a mobile robot to the guidance control system.', '', '&lt;b&gt;Additional information&lt;/b&gt;', '', 'AGVs have the following needs.', '', '–\tThe direct-device control is time-critical since the communication involves safety-relevant functions such as emergency stop and the avoidance of obstacles.\xa0', '', '–\tFor the implementation of swarm intelligence, position and availability information are needed. A possible route change due to a blocked route affects the routes of all other AGVs that will follow. The communication is less time-critical than for safety-relevant functions.', '', '–\tCamera-based\xa0navigation requires high data rates. Examples for camera-based navigation are the positioning of boxes/containers, detection of persons and obstacles, as well as creation and administration of a map for flexible navigation. Note that sensor-based navigation requires lower data rates than camera-based navigation.', '', '–\tAGV route control and emergency safety related time critical latency and response can be achieved with an edge cloud where the edge infrastructure is located close to the AGVs', '', 'Mobile robots have additional needs.', '', '–\tThe mobile robot provides an additional service during transport (for instance quality inspection, scanning of surroundings, asset identification, carrying of work pieces). In order to reduce the uplink data rate, pre-compression of data is possible directly on the device. The communication is not or at least less time-critical than the motion control of the mobile robot.', '', '–\tThe mobile robot needs to interact with the periphery (for instance intelligent storage racks, stationary robots, and moving machines). This communication is time-critical. Interaction with the periphery can be relevant at the start point, end point, and also at several intermediate stations (for instance the collection of parts from intelligent storage racks). The exact position and orientation can be determined by a centering station and the AGV sensors. Additional scanning by the robot with a video camera may be necessary.', '', '–\tFor some mobile robots, their control intelligence might be centralized and hosted in an edge cloud. They require secure communication towards the edge cloud. If the path layout such a mobile robot follows (e.g., including indoor and outdoor) causes it to switch the communication between a private network and a public network, consideration should be given to provide the required level of security for communication.', '', '–\tMobile robots whose control intelligence is centralized and hosted in the edge cloud needs privacy protection of data stored in the edge cloud.', '', '–\tIn order to be able to process time-sensitive data from local sensors and devices (AGVs, robots etc.) in an edge cloud, the edge infrastructure needs to be on-premise or close to the factory', '']</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>0.2095455321774533</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;A.2.2.4	Wired to wireless link replacement&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>22104-j00.docx</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>LR1_signalling</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>['', 'In a traditional factory, the production environment is fixed. Machines that are cooperating are connected via cable, typically using an industrial ethernet technology like PROFINET. In order to increase flexibility in the production setup, the wired links are replaced with wireless links. ', '', '----media/image5.emf---- ', '', 'Figure A.2.2.4-1: Example of four cooperating machines with wireless connections (based on [26])', '', 'We assume two or more machines (typically 4 or 5) to be cooperating with each other during production. In order to replace the cables, each machine is equipped with one UE, connected to the controller (shown in Figure A.2.2.4-1). The cooperating machine’s communication can be divided into two types. Periodic traffic and a-periodic traffic. Both types are scheduled, therefore the a-periodic traffic is also adhering to the transfer interval. The traffic requirements are from the point of view of the UE and give the maximum aggregate traffic of all links. Meaning, the traffic per link may change according to the number of cooperating machines but the total traffic at the UE cannot exceed the given values. ', '', 'Table A.2.2.4-1: Service performance requirements for wired to wireless link replacement', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Use case #&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Characteristic parameter&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Influence quantity&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Communication service availability: target value [%]&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Communication service reliability: mean time between failures&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;End-to-end latency: maximum&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Data rate [Mbit/s]&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Transfer interval&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Survival time&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;UE speed&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;# of UEs&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Service area (note\xa01)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;(periodic traffic)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;99.999\xa09 to 99.999\xa0999&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;~ 10 years&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&amp;lt; transfer interval value&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;50&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;≤\xa01\xa0ms&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;3 x transfer interval&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;stationary&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;2 to 5&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;100 m x 30\xa0m x 10 m&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;(aperiodic traffic)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;99.999\xa09 to 99.999\xa0999&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;~ 10 years&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&amp;lt; transfer interval value&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;25&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;≤\xa01\xa0ms&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;(note 2) &lt;/span&gt;', '', '', '', '&lt;span style="font-size:18pt"&gt;stationary&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;2 to 5&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;100 m x&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;30 m x 10 m&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;(periodic traffic)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;99.999\xa09 to 99.999\xa0999&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;~ 10 years&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&amp;lt; transfer interval value&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;250&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;≤\xa01\xa0ms&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;3 x transfer interval&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;stationary&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;2 to 5&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;100 m x&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;30 m x 10 m&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;(aperiodic traffic)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;99.999\xa09 to 99.999\xa0999&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;~ 10 years&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&amp;lt; transfer interval value&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;500&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;≤\xa01\xa0ms &lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;(note 2)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:18pt"&gt;stationary&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;2 to 5&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;100 m x&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;30 m x 10 m&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;NOTE 1:&lt;/span&gt;\t&lt;span style="font-size:18pt"&gt;Length x width x height.&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;NOTE 2:&lt;/span&gt;\t&lt;span style="font-size:18pt"&gt;Transfer interval also applies for scheduled aperiodic traffic&lt;/span&gt;', '', '', '', '&lt;i&gt;Use case one &lt;/i&gt;', '', 'In the case of the 100 Mbit/s link replacement, 50\xa0% periodic traffic and 25\xa0% a-periodic traffic are assumed. ', '', '&lt;i&gt;Use case two&lt;/i&gt;', '', 'In the case of the 1 Gbit/s link replacement, 25\xa0% periodic traffic and 50\xa0% a-periodic traffic are assumed. ', '']</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>0.240430085214184</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;A.2.2.5	Cooperative carrying&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>22104-j00.docx</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>['', 'In a smart factory, large or heavy work pieces will be carried from one place to another by multiple mobile robots or AGVs. These mobile robots / AGVs need to work together in order to carry the large or heavy work piece safely. This cooperation is achieved with a cyber-physical control application that controls the drives and movements of the mobile robots / AGVs in a coordinated way, so that large or heavy work pieces are carried smoothly and safely from one place to another (see Figure 5.11.1-1).', '', '----media/image6.emf----', '', 'Figure A.2.2.5-1: Mobile robots / AGVs carrying a large work piece cooperatively', '', 'The communication between the collaborating mobile robots / AGVs requires high communication service availability and ultra-low latency. The exchange of control commands and control feedback is done with periodic deterministic communication and using time-sensitive networking.', '', 'There are two distinct use case variants of cooperative carrying: (1) carrying of rigid or fragile work pieces that require very precise coordination between the collaborating mobile robots, and (2) carrying of more flexible or elastic work pieces that allow some tolerance in the coordinated movements of the collaborative mobile robots. The higher tolerance in the coordinated movements allows for either faster movement of the work piece or longer transfer intervals (trade-off between UE speed and transfer interval).', '', 'Table A&lt;b&gt;.&lt;/b&gt;2.2.5-1: Service performance requirements for cooperative carrying', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Service bitrate: user experienced data rate', '', 'Message size [byte]', '', 'Transfer interval: target value', '', '(note 1)', '', 'Survival time', '', '(note 1)', '', 'UE ', '', 'speed', '', '# of UEs', '', 'Service area', '', '(note 2)', '', '1', '', '99.999\xa09 to 99.999\xa0999', '', '~ 10 years', '', '&amp;lt; 0.5 x transfer interval', '', '2.5 Mbit/s', '', '250;', '', '500 with localisation information', '', '&amp;gt; 5\xa0ms', '', '&amp;gt; 2.5\xa0ms', '', '&amp;gt; 1.7\xa0ms', '', '0', '', 'transfer interval', '', '2 x transfer interval', '', '≤\xa06\xa0km/h', '', '2 to 8', '', '10\xa0m x 10\xa0m x 5\xa0m;', '50\xa0m x 5\xa0m x 5\xa0m', '', '2', '', '99.999\xa09 to 99.999\xa0999', '', '~ 10 years', '', '&amp;lt; 0.5 x transfer interval', '', '2.5 Mbit/s', '', '250;', '', '500 with localisation information', '', '&amp;gt; 5\xa0ms', '', '&amp;gt; 2.5\xa0ms', '', '&amp;gt; 1.7\xa0ms', '', '0', '', 'transfer interval', '', '2 x transfer interval', '', '≤\xa012\xa0km/h', '', '2 to 8', '', '10\xa0m x 10\xa0m x 5\xa0m;', '50\xa0m x 5\xa0m x 5\xa0m', '', 'NOTE 1:\tThe first value is the application requirement, the other values are the requirement with multiple transmission of the same information (two or three times respectively).', '', 'NOTE 2:\tService Area for direct communication between UEs (length x width x height). The group of UEs with direct communication might move throughout the whole factory site (up to several km²)', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Periodic deterministic communication for cooperative carrying of fragile work pieces (UE to UE / ProSe communication).', '', '&lt;i&gt;Use case two&lt;/i&gt;', '', 'Periodic deterministic communication for cooperative carrying of elastic work pieces (UE to UE / ProSe communication).', '']</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>0.2098559277322234</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;A.2.3.1	Closed-loop control&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>22104-j00.docx</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>['', 'In the closed-loop control use case for process automation, several sensors are installed in a plant and each sensor performs continuous measurements. The measurement data are transported to a controller, which takes decision to set actuators. The latency and determinism in this use case are crucial. This use case has very stringent requirements in terms of latency and service availability. The required service area is usually bigger than for motion control use cases. Interaction with the public network (e.g., service continuity, roaming) is not required.', '', 'Table A.2.3.1-1: Service performance requirements for closed-loop control in process automation', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Message size [byte]', '', 'Transfer interval: lower bound', '', 'Transfer interval: target value', '', 'Transfer interval: upper bound', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service area (note)', '', '1', '', '99.999\xa09 to 99.999\xa0999', '', '≥ 1 year', '', '&amp;lt; target transfer interval value', '', '20', '', '-5\xa0% of target transfer interval value', '', '≥\xa010\xa0ms', '', '+5\xa0% of target transfer interval value', '', '0', '', 'typically stationary', '', 'typically 10 to 20', '', 'typically ≤\xa0100 m x 100 m x 50 m', '', 'NOTE:\tLength x width x height.', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Several sensors are installed in a plant and each sensor performs continuous measurements. The measurement data are transported to a controller, which takes decision to set actuators. ', '']</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>0.2132069796434886</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;A.2.3.2	Process and asset monitoring&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>22104-j00.docx</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>['', 'For process and asset monitoring in the area of process automation, a large number of industrial wireless sensors are installed in the plant to give insight into process and environmental conditions, asset health and inventory of material. The data are transported to displays for observation and/or to databases for registration and data analysis Examples of sensors are temperature, pressure or flow rate sensors for process monitoring, vibration sensors for health monitoring of e.g. motors, or thermal cameras to detect leakages. Industrial wireless sensors are typically constrained in terms of size, complexity and/or power consumption. The operation for this use case can be in a wide service area, and interaction with the public network (e.g., service continuity, roaming) may be required.', '', 'Table A.2.3.2-1: Service performance requirements for process and asset monitoring', '', '', '', 'Characteristic parameter', '', 'Influence quantity', '', 'Use case', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failure', '', 'End-to-end latency', '', 'Transfer interval', '', '(note 1)', '', 'Bit rate', '', '[bits/s]', '', 'Battery lifetime [year]', '', '(note 2)', '', 'Message', '', 'Size', '', '[byte]', '', 'Survival time', '', 'UE speed', '', 'UE density [UE / m²]', '', 'Range', '', '[m]', '', '(note 4)', '', 'Service area', '', '(note 5)', '', '1', '', '99.99', '', '≥ 1 week', '', '&amp;lt; 100 ms', '', '100 ms to 60 s', '', '≤ 1\xa0M', '', '≥\xa05', '', '20', '', '(note 3)', '', '3 x transfer interval', '', 'Stationary', '', 'Up to 1', '', '&amp;lt;\xa0500', '', '≤\xa010\xa0km x 10\xa0km x 50\xa0m', '', '2', '', '99.99', '', '≥ 1 week', '', '&amp;lt; 100 ms', '', '≤ 1 s', '', '≤ 200\xa0k', '', '≥\xa05', '', '25 k', '', '3 x transfer interval', '', 'Stationary', '', 'Up to 0.05', '', '&amp;lt;\xa0500', '', '≤\xa010\xa0km x 10\xa0km x 50\xa0m', '', '3', '', '99.99', '', '≥ 1 week', '', '&amp;lt; 100 ms', '', '≤ 1 s', '', '≤ 2 M', '', '≥\xa05', '', '250 k', '', '3 x transfer interval', '', 'Stationary', '', 'Up to 0.05', '', '&amp;lt;\xa0500', '', '≤\xa010\xa0km x 10\xa0km x 50\xa0m', '', 'NOTE 1:\tThe transfer interval deviates around its target value by &amp;lt; ± 25 %.', '', 'NOTE 2:\tIndustrial sensors can use a wide variety of batteries depending on the use case, but in general they are highly constrained in terms of battery size.', '', 'NOTE 3:\tThe application-level messages in this use case are typically transferred over Ethernet, in which case the minimum Ethernet frame size of 64 bytes applies and dictates the minimum size of the PDU sent over the air interface.', '', 'NOTE 4:\tDistance between the gNB and the UE.', '', 'NOTE 5:\tLength x width x height.', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Sensors generating periodic measurements of a continuous value (e.g. temperature, pressure, flow rate sensors). The traffic is predominantly mobile originated. ', '', '&lt;i&gt;Use case two&lt;/i&gt;', '', 'Sensors generating waveform measurements (e.g. vibration sensors). Even though the waveform measurement is continuous, it is expected that this type of sensors will buffer and transmit the data periodically (e.g. every second) to save battery by enabling discontinuous transmission. The traffic is predominantly mobile originated.', '', '&lt;i&gt;Use case three&lt;/i&gt;', '', 'Cameras (regular or thermal) for asset monitoring (e.g. for leakage detection). Even though the video recording is continuous, it is expected that this type of sensors will buffer and transmit the data periodically (e.g. every second) to save battery by enabling discontinuous transmission. The traffic is predominantly mobile originated.', '']</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>0.2153911558955357</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;A.2.3.3	Plant asset management&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>22104-j00.docx</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>['', 'To keep a plant running, it is essential that the assets, such as pumps, valves, heaters, instruments, etc., are maintained. Timely recognition of any degradation and continuous self-diagnosis of components are used to support and plan maintenance. Remote software updates enhance and adapt the components to changing conditions and advances in technology. The operation for this use case can be in a wide service area, and interaction with the public network (e.g., service continuity, roaming) may be required. In this use case, the assets themselves are assumed to be connected to the 5G system. The use case where sensors are used to monitor assets is covered in clause A.2.3.2.', '', 'Table A.2.3.3-1: Service performance requirements for plant asset management', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Message size [byte]', '', 'Transfer interval', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service area (note)', '', '1', '', '99.99', '', 'TBD', '', '&amp;lt; transfer interval value', '', '20 to 255', '', 'several seconds', '', 'matter of convenience; typically ≥\xa03 x transfer interval value', '', 'typically stationary', '', '≤\xa0100,000', '', 'typically ≤\xa010\xa0km x 10\xa0km x 50\xa0m', '', 'NOTE:\tLength x width x height.', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'To keep a plant running, it is essential that the assets, such as pumps, valves, heaters, and instruments are maintained. Timely recognition of any degradation and continuous self-diagnosis of components are used to support and plan maintenance. Remote software updates enhance and adapt the components to changing conditions and advances in technology. ', '']</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>0.2171342213629242</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;A.2.3.4	Inspection in production systems&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>22104-j00.docx</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>['', 'An Edge Computing use case example: Digital twin based production quality maintenance:', '', 'A digital twin is a virtual representation of a product or production systems. Digital twins are used to simulate, predict and optimize products and production systems. In future, digital twin production control system based on augmented reality based will be used in the factories.  In this usecase,  a digital twin’s  digital and virtual model of a function combined with other physical data to simulate real-time aspects of how a system operates.  A digital twin production control system can  be automated using machine data and the AI/ML trained data after applying the AI/ML algorithm  and further processing. The processed output can be translated to a control command  back to the device by a control function running on the edge cloud. ', '', 'In another case, using telemetry data as input, the digital twin model’s output may be fed to an AR server for sending low latency AR streams toward the manual operator in the factory production area. At the same time, it can further be utilized as input by an AI/ML model.  A process control function can compare the machine data (example:position, rotation level, speed, sensor data, high-speed photography etc.) and perhaps a high-resolution video from the manufacturing line and  if necessary, it can send commands for corrective measure. In this example, the process control functions reside at the edge infrastructure and the inspection related corrective input is sent back to the production system control function.', '', 'Corrective actions/commands for misalignments from the processed output can be sent in two ways:', '', '1)\tManual process with AR server: In this case the service performance requirements should follow the table A&lt;b&gt;.&lt;/b&gt;2.4.2-1.', '', '2)\tAutomatic process with AI/ML: This usecase and service performance requirements are described below in table A.2.3.4', '', 'The general high-level service requirements of the edge computing usecase for the digital twin based production inspection:', '', '--\tHigh bandwidth wireless data for both uplink and downlink', '', '\t--\texact number depends on video encoding, frame rate and video-resolution requirements', '', '--\tTiming accuracy and low latency ( &amp;lt;=20ms) ', '', '--\tHigh availability of the communication network  ', '', '--\tSecurity requirements: Data encryption, connection authentication, user authorization', '', '--\tQoS methods to ensure quality of service performance over different UE to Application connection sessions (video streaming, sensor data, control data)', '', '--\tUE Mobility and session continuity (optional)', '', '', '', 'Table A.2.3.4: Service performance requirements for automated inspection', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Message size [byte]', '', 'Transfer interval: lower bound', '', 'Transfer interval: target value', '', 'Transfer interval: upper bound', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service area (note)', '', '1', '', '99.999\xa0', '', '≥ 1 year', '', '&amp;lt; target transfer interval value', '', '20 – large packets', '', '-20\xa0% of target transfer interval value', '', '&amp;lt;=20\xa0ms', '', '+20% of target transfer interval value', '', 'Variable depending upon vertical industry', '', 'typically stationary', '', '&amp;lt; 5 typically', '', '', '', 'typically ≤100\xa0m x 100\xa0m x 50\xa0m', '', 'NOTE:\tLength x width x height.', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'The periodic telemetry data and video images are used from the digital twin in the production system for analysis and then the processed outcome is sent back to the system for any adjustment of  the machine components.', '', '', '', 'The following diagram explains the above digital twin usecase steps to manage the production in a factory (both manual and automated operations)', '', '', '', '----media/image7.png----', '', ' ', '', '', '', '', '', '--\tLow-latency AR overlays and incorporation of AI/ML techniques to identify manufacturing issues and improve product quality as well as to enable offline adjustments for optimization, adaptations, and preventive operations on the machines', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>0.2164126524074788</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;A.2.4.1	Mobile control panels&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>22104-j00.docx</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>['', 'Control panels are crucial devices for the interaction between people and production machinery as well as for the interaction with moving devices. These panels are mainly used for configuring, monitoring, debugging, controlling and maintaining machines, robots, cranes or complete production lines. In addition to that, (safety) control panels are typically equipped with an emergency stop button and an enabling device, which an operator can use in case of a safety event in order to avoid damage to humans or machinery. When the emergency stop button is pushed, the controlled equipment immediately comes to a safe stationary position. Likewise, if a machine, robot, etc. is operated in the so-called special ‘enabling device mode’, the operator manually keeps the enabling device switch in a special stationary position. If the operator pushes this switch too much or releases it, the controlled equipment immediately comes to a safe stationary position as well. This way, it can be ensured that the hand(s) of the operator are on the panel (and not under a moulding press, for example), and that the operator does―for instance―not suffer from any electric shock or the like. A common use case for this ‘enabling device mode’ is the installation, testing or maintenance of a machine, during which other safety mechanisms (such as a safety fence) are deactivated.', '', 'Due to the criticality of these safety functions, safety control panels currently have mostly a wire-bound connection to the equipment they control. In consequence, there tend to be many such panels for the many machines and production units that typically can be found in a factory. With an ultra-reliable low-latency wireless link, it would be possible to connect such mobile control panels with safety functions wirelessly. This would lead to a higher usability and would allow for the flexible and easy re-use of panels for controlling different machines. ', '', 'The cycle times of the control application depends on the process/machinery/equipment whose safety has to be ensured. For a fast-moving robot, for example, end-to-end latencies are lower than for slowly moving linear actuators. ', '', 'Table A&lt;b&gt;.&lt;/b&gt;2.4.1-1: Service performance requirements for mobile control panels', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Service bitrate: user experienced data rate', '', 'Message size [byte]', '', 'Transfer interval: lower bound', '', 'Transfer interval: target value', '', 'Transfer interval: upper bound', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service area (note\xa01)', '', '1', '', '(note 3)', '', '99.999\xa09 to 99.999\xa0999', '', '~ 1 month', '', '&amp;lt; target transfer interval value', '', '–', '', '40 to 250', '', '– &amp;lt;\xa025\xa0% of target transfer interval value', '', '4 ms to 8\xa0ms', '', '+ 25\xa0% of target transfer interval value', '', 'target transfer interval value', '', '&amp;lt; 7.2 km/h', '', 'TBD', '', '50 m x 10\xa0m x 4\xa0m', '', '2', '', '(note 3)', '', '99.999\xa09 to 99.999\xa0999', '', '~ 1 month', '', '&amp;lt; target transfer interval value', '', '&amp;gt; 5 Mbit/s', '', '–', '', '–\xa0&amp;lt;\xa025\xa0% of target transfer interval value', '', '&amp;lt; 30\xa0ms', '', '+\xa025\xa0% of target transfer interval value', '', 'TBD', '', '&amp;lt; 7.2 km/h', '', 'TBD', '', 'TBD', '', '3', '', '(note 3)', '', '99.999\xa09 to 99.999\xa0999', '', '~ 1 year', '', '&amp;lt; target transfer interval', '', '–', '', '40 to 250', '', '', '', '–\xa0&amp;lt;\xa025\xa0% of target transfer interval value', '', '&amp;lt; 12 ms', '', '+\xa025\xa0% of target transfer interval value', '', '12 ms', '', '&amp;lt; 7.2 km/h', '', 'TBD', '', 'typically 40\xa0m x 60\xa0m; maximum 200 m x 300\xa0m', '', 'NOTE 1:\tLength x width (x height).', '', 'NOTE 2:\tThe transfer interval is not so strictly periodic in these use cases. The transfer interval deviates around its target value within bounds. The mean of the transfer interval is close to the target value. ', '', 'NOTE 3: \tCommunication may include two wireless links (UE to UE)', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Periodic, bi-directional communication for remote control. Examples for controlled units: assembly robots; milling machines.', '', '&lt;i&gt;Use case two&lt;/i&gt;', '', 'Aperiodic data transmission in parallel to remote control (use case one).', '', '&lt;i&gt;Use case three&lt;/i&gt;', '', 'Periodic, bi-directional communication for remote control. Examples for controlled units: mobile cranes, mobile pumps, fixed portal cranes.', '']</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>0.2118933952431994</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;A.2.4.1A	Mobile operation panels&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>22104-j00.docx</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>['', 'Operation and monitoring of machines, mobile robots, or production units via a mobile operation panel provides higher flexibility and comfort for human operators. A single mobile operation panel can be used to manage more than one production system due to its mobility in the factory. The mobile operation panel provides relevant information for configuration, control of industrial machines as well as monitoring of relevant data generated during the construction of a product. The monitoring data is generally considered to be less time-critical subsequently requiring non-real-time communication. On the other hand, the mobile operation panel supports safety-critical functions such as emergency stops or enabling or changing the position of robots and other machines. These functions are generally considered to have strict ultra-low latencies and reliable transmission requirements that must follow strict safety standards making them time-critical (real-time communication).', '', 'Table A&lt;b&gt;.&lt;/b&gt;2.4.1A-1: Service performance requirements for mobile operation panels', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Service bitrate: user experienced data rate', '', 'Direction', '', '(note\xa02)', '', 'Message size [byte]', '', 'Transfer interval: target value', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service area (note\xa01)', '', '1', '', '99.999\xa0999', '', '1 day', '', '&amp;lt;\xa08\xa0ms', '', '250 kbit/s', '', 'Uplink', '', 'Downlink', '', '40 to 250', '', '8\xa0ms', '', '16\xa0ms', '', 'quasi-static; up to 10\xa0km/h', '', '2 or more', '', '30\xa0m x 30\xa0m', '', '2', '', '99.999\xa099', '', '1 day', '', '&amp;lt;\xa010 ms', '', '&amp;lt; 1 Mbit/s', '', 'Uplink', '', '&amp;lt;\xa01,024', '', '10 ms', '', '~10 ms', '', 'quasi-static; up to 10 km/h', '', '2 or more', '', '30\xa0m x 30\xa0m', '', '3', '', '99.999\xa0999', '', '1 day', '', '10\xa0ms to 100\xa0ms', '', '10\xa0kbit/s', '', 'Uplink', '', 'Downlink', '', '10-100', '', '10-100\xa0ms', '', 'transfer interval', '', 'stationary', '', '2 or more', '', '100\xa0m² to 2,000\xa0m²', '', '4', '', '99.999\xa0999', '', '1 day', '', '&amp;lt;\xa01 ms', '', '12\xa0Mbit/s to 16\xa0Mbit/s', '', 'Downlink', '', '10-100', '', '1 ms', '', '~1 ms', '', 'stationary', '', '2 or more', '', '100\xa0m²', '', '5', '', '99.999\xa0999', '', '1 day', '', '&amp;lt;\xa02 ms', '', '16 kbit/s (UL)', '', '2 Mbit/s (DL)', '', 'Uplink', '', 'Downlink', '', '50', '', '2 ms', '', '~2 ms', '', 'stationary', '', '2 or more', '', '100\xa0m²', '', '6', '', '99.999\xa09 to 99.999\xa099', '', '1 day', '', 'up to [x]', '', '12\xa0Mbit/s', '', 'Uplink', '', 'Downlink', '', '250 to 1,500', '', '', '', '', '', 'quasi-static; up to 10\xa0km/h', '', '2 or more', '', '30\xa0m x 30\xa0m', '', 'NOTE 1:\tLength x width.', '', 'NOTE 2: \tThe mobile operation panel is connected wirelessly to the 5G system. If the mobile robot/production line is also connected wirelessly to the 5G system, the communication includes two wireless links.', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Emergency Stop with periodic-deterministic communication for connectivity availability and aperiodic-deterministic communication for emergency stop events.', '', '&lt;i&gt;Use case two&lt;/i&gt;', '', 'Safety data stream with periodic deterministic communication.', '', '&lt;i&gt;Use case three&lt;/i&gt;', '', 'Visualization of Control with periodic deterministic communication.', '', '&lt;i&gt;Use case four&lt;/i&gt;', '', 'Motion Control with periodic deterministic communication.', '', '&lt;i&gt;Use case five&lt;/i&gt;', '', 'Haptic feedback data stream with periodic deterministic communication.', '', '&lt;i&gt;Use case six&lt;/i&gt;', '', 'Manufacturing data stream with mixed traffic.', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>0.2169366197381513</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;A.2.4.2	Augmented reality&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>22104-j00.docx</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>['', 'It is envisioned that in future smart factories and production facilities, people will continue to play an important and substantial role. However, due to the envisaged high flexibility and versatility of the Factories of the Future, shop floor workers should be optimally supported in getting quickly prepared for new tasks and activities and in ensuring smooth operations in an efficient and ergonomic manner. To this end, augmented reality may play a crucial role, for example for the following applications:', '', '-\tmonitoring of processes and production flows;', '', '-\tstep-by-step instructions for specific tasks, for example in manual assembly workplaces;', '', '-\tad hoc support from a remote expert, for example for maintenance or service tasks.', '', 'In this respect, especially head-mounted augmented-reality devices with see-through display are very attractive since they allow for a maximum degree of ergonomics, flexibility and mobility and leave the hands of workers free for other tasks. However, if such augmented-reality devices are worn for a longer period (e.g., one work shift), these devices have to be lightweight and highly energy-efficient while at the same time they should not become very warm. A very promising approach is to offload complex (e.g., video) processing tasks to the network (e.g., an edge cloud) and to reduce the augmented-reality head-mounted device’s functionality. This has the additional benefit that the augmented-reality application may have easy access to different context information (e.g., information about the environment, production machinery, the current link state, etc.) if executed in the network. ', '', 'Table A&lt;b&gt;.&lt;/b&gt;2.4.2-1: Service performance requirements for augmented reality in human-machine interfaces', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'UE ', 'speed', '', 'Service area (note)', '', '1', '', '&amp;gt; 99.9', '', '~ 1 month', '', '&amp;lt; 10 ms', '', '&amp;lt; 8 km/h', '', '20 m x 20 m x 4\xa0m', '', 'NOTE:\tLength x width x height.', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Bi-directional message transmission between an augmented-reality device and an image processing server.', '']</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>0.2164111994443063</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;A.2.5.1	Remote access and maintenance&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>22104-j00.docx</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>['', 'In factories of the future, there are needs to perform remote access and maintenance to devices and entities, for instance, by remote control centres. The devices and entities might be installed at geographically distributed locations. These devices typically have firmware/software which needs to be updated occasionally. Maintenance information also needs to be collected and distributed from/to these devices periodically. The devices can be both stationary and mobile. Device maintenance may happen in parallel to the actual production process and other communication services performed at the device side without any negative impact on these production communication services. ', '', '', '', 'Table A.2.5.1-1: Service performance requirements for remote access and maintenance', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Service bitrate: user experienced data rate', '', 'Message size [byte]', '', 'Transfer interval: lower bound', '', 'Transfer interval: upper bound', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service area (note)', '', '1', '', '–', '', '~ 1 month', '', '–', '', '≥ 1 Mbit/s', '', '&lt;span style="color:000000;font-size:22pt"&gt;–&lt;/span&gt;', '', '–', '', '–', '', '–', '', '≤ 72 km/h', '', '≤ 100', '', '50 m x 10 m x 10 m', '', 'NOTE:\tLength x width x height.', '', '', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Transmission of non-deterministic messages in parallel to other interactions. Example applications: software/firmware updates and exchange of maintenance information.', '']</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>0.2217338410428167</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;A.4.4.1	Distributed automated switching for isolation and service restoration&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>22104-j00.docx</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>['', 'A power distribution grid fault is a stressful situation. There are self-healing solutions for automated switching, fault isolation, and service restoration. Furthermore, these solutions are ideally suited to handle outages that affect critical power consumers, such as industrial plants or data centres. Supply interruptions must be fixed within less than a second for critical power consumers. Automated solutions are able to restore power supply within a few hundred milliseconds.', '', '----media/image8.png----', '', 'Figure A&lt;b&gt;.&lt;/b&gt;4.4.1-1: Depiction of a distribution ring and a failure (flash of lighting) ', '', 'The FLISR (Fault Location, Isolation &amp;amp; Service Restoration) solution consists of switch controller devices which are especially designed for feeder automation applications that support the self-healing of power distribution grids with overhead lines. They serve as control units for reclosers and disconnectors in overhead line distribution grids.', '', 'The system is designed for using fully distributed, independent automated devices. The logic resides in each individual feeder automation controller located at the poles in the feeder level. Each feeder section has a controller device. Using peer-to-peer communication among the controller devices, the system operates autonomously without the need of a regional controller or control centre. However, all self-healing steps carried out will be reported immediately to the control centre to keep the grid status up to date. The controllers conduct self-healing of the distribution line in typically 500 ms by isolating the faults.', '', 'Peer-to-peer communication via IEC 61850 GOOSE (Generic Object Oriented Substation Event) messages provides data as fast as possible (Layer 2 multicast message). They are sent periodically (in steady state, with changing interval time in fault case) by each controller to several or all other controllers of the same feeder and are not acknowledged. ', '', 'The service bit rate per controller is low in steady state, but GOOSE bursts with high service bit rate do occur, especially during fault situations. GOOSE messages are sent by several or all controller units of the feeder nearly at the same point in time during the fault location, isolation and service restoration procedure with a low end-to-end latency. ', '', 'The associated (a)periodic communication KPIs are provided in Table A4.4.1-1. ', '', 'Table A&lt;b&gt;.&lt;/b&gt;4.4-1.1: Service performance requirements for distributed automated switching for isolation and service restoration ', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Service bitrate: user experienced data rate', '', 'Message size [byte]', '', 'Transfer interval: target value', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service area (note 1)', '', '1 (note\xa02)', '', '99.999\xa09', '', '–', '', '&amp;lt; 5 ms', '', '1 kbit/s (steady state)', '1.5 Mbit/s (fault case)', '', '&amp;lt; 1,500', '', '&amp;lt; 60 s (steady state)', '≥ 1 ms (fault case)', '', ' transfer interval (one frame loss)', '', 'stationary', '', '20', '', '30 km x 20\xa0km', '', '2', '', '&amp;gt; 99.999\xa0%', '', '-', '', '20 ms (note\xa02)', '', '-', '', '&amp;lt; 100', '', '-', '', '-', '', 'stationary', '', '≤ 100/km&lt;sup&gt;2&lt;/sup&gt;', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', 'NOTE 1:\tLength x width', '', 'NOTE 2:\tUE to UE communication (two wireless links)', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'GOOSE (a)periodic deterministic communication service supporting bursty message exchange for fault location, isolation, and service restoration.', '', '&lt;i&gt;Use case two&lt;/i&gt;', '', 'Typically event-driven, aperiodic deterministic communication service supporting fault detection and isolation.', '']</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>0.2119961074352469</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;A.4.4.2	Distributed automation without GOOSE&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>22104-j00.docx</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>['', 'If the control of electrical power distribution components is performed from a central system entity, the controlled entities can be operated in a way that a controlled service restoration is possible without the use of GOOSE. Though this is not as effective as the communication has less strict requirements, this form of distribution automation is nevertheless effective, and it is also compliant with IEC standards and widely deployed in energy systems. The associated KPI is provided in Table A.4.4.2-1.', '', 'Table A.4.4.2-1: KPI for distributed automation without use of GOOSE', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Service bitrate: user experienced data rate', '', 'Message size [byte]', '', 'Transfer interval: target value', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service area ', '', '1', '', '99.999', '', '–', '', '100 ms to 2\xa0s', '', '9.6 to100', '', '–', '', '–', '', '–', '', '–', '', 'Concentrated rural: 70.8;', '', 'Dispersed rural and semi-urban: 7.6;', '', 'rural support: 0.048;', '', 'urban: 11.0', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Distributed automation without use of GOOSE using a centralized architecture.', '']</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>0.220980959912753</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;A.4.4.3	Intelligent distributed feeder automation&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>22104-j00.docx</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>['', 'Intelligent distributed feeder automation system which supported by 5G connections is designed to realize intelligent judgment, analysis, fault location, fault isolation and non-fault area power supply restoration operations. As illustrated in the Figure A.4.4.3-1, the distributed feeder automation system is mainly composed of a distribution master station, a distribution terminal, switch stations, and the communication system (UEs in the substations, 5G network, plus the data network). The distribution master station is mainly used for information gathering and human-computer interaction, and the distributed terminals are used for the collection of feeder status information and judgment, fault location, isolation, as well as power supply restoration based on this information. Distributed terminal actions are reported to the distribution master station. The 5G communication system enables communication among the distribution terminals. The distribution master station is usually connected to the 5G system via a data network, which is out of 3GPP scope. ', '', '', '', '', '', '', '', '----media/image9.png----', '', 'Figure A.4.4.3-1: Example of intelligent distributed feeder automation', '', 'The distribution master station manages multiple distributed terminals. Each distributed terminal is served by a 5G UE to exchange the collected data with other distributed terminals. From an application perspective, the communication between distributed terminals is peer-to-peer. The 5G communication service availability needs to be very high. Therefore, at least two communication links are usually deployed for hot standby or for transmitting data synchronously between two distributed terminals. The associated KPI is provided in Table A.4.4.3-1.', '', 'Table A.4.4.3-1: KPI for intelligent distributed feeder automation ', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Service bitrate: user experienced data rate', '', 'Message size [byte]', '', 'Transfer interval: target value', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service area ', '', '1', '', '99.999', '', '–', '', '&lt;span style="font-size:18pt"&gt;Normal: 1\xa0s;&lt;/span&gt;', '', 'Fault: 2\xa0ms', '', '(note 2)', '', '2 M to10 M', '', '(note 1)', '', '–', '', '&lt;span style="font-size:18pt"&gt;Normal: 1\xa0s;&lt;/span&gt;', '', 'Fault: 2\xa0ms', '', '(note 2)', '', '–', '', '–', '', '&lt;span style="font-size:18pt"&gt;54/km&lt;/span&gt;&lt;span style="font-size:18pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:18pt"&gt; (note 3)&lt;/span&gt;', '', '78/km&lt;sup&gt;2&lt;/sup&gt; (note 4)', '', '&lt;span style="font-size:18pt"&gt;several km&lt;/span&gt;&lt;span style="font-size:18pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', 'NOTE 1:\tThe KPI values are sourced from [29].', '', 'NOTE 2:\tIt is the one-way delay from a distributed terminal to 5G network.', '', 'NOTE 3:\t\tWhen the distributed terminals are deployed along overhead line, about 54 terminals will be distributed along overhead lines in one square kilometre.', '', 'NOTE 4:\t\tWhen the distributed terminals are deployed in power distribution cabinets, there are about 78 terminals in one square kilometre.', '', '', '', '&lt;i&gt;Use cases #1: &lt;/i&gt;Intelligent distributed feeder automation', '']</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>0.2210007090573226</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;A.4.4.4	High-speed current differential protection&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>22104-j00.docx</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>['', 'High-speed current differential protection, which is required for sub-millisecond fault detection, is another typical use case of power distribution automation. The approach utilises differential current measurements to significantly reduce fault detection time. The protection relays exchange the current samples via the 5G system. Each relay then compares the sent and received samples to determine if a fault has occurred in a protected area. This is done in order to identify and isolate a fault in the grid. The sampling rate varies and is dependent on the algorithms designed by the manufacturers. A protection relay collects the current samples (with the typical message size of up to 245 bytes) at a frequency of 600 Hz, 1200 Hz, 1600 Hz, or 3000 Hz. The exchange of measurement samples is done in a strictly cyclic and deterministic manner. With the sampling rate of 600 Hz, the transfer interval is 1.7 ms and the required bandwidth 1.2 Mbit/s; for 1200 Hz, the transfer interval is 0.83 ms and the required bandwidth 2.4 Mbit/s. The maximum allowed end-to-end delay between two protection relays is between 5 ms and 10 ms, depending on the voltage (see  IEC 61850-90-1 for more details [28]). For some legacy systems, the latency usually is set to 15 ms. The associated KPIs are provided in Table A.4.4.4-1.', '', 'Table A.4.4.4-1: KPIs for high speed current differential protection', '', 'Use case #', '', 'Communication service availability', '', 'End-to-end latency: maximum', '', '(note)', '', 'Service bitrate: user experienced data rate', '', 'Message size [byte]', '', 'Transfer interval: target value', '', 'Survival time', '', 'UE speed', '', 'UE density [#/km&lt;sup&gt;2&lt;/sup&gt;)]', '', 'Service area', '', '1', '', '&amp;gt; 99.999\xa0%', '', '15 ms', '', '2.5 Mbit/s', '', '&amp;lt; 245', '', '≤ 1 ms', '', ' transfer interval (one frame loss)', '', 'stationary', '', '≤ 100/km&lt;sup&gt;2&lt;/sup&gt;', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', '2', '', '&amp;gt; 99.999\xa0%', '', '15 ms', '', '1.2 Mbit/s', '', '&amp;lt; 245', '', '≤ 2 ms', '', ' transfer interval (one frame loss)', '', 'stationary', '', '≤ 100/km&lt;sup&gt;2&lt;/sup&gt;', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', '3', '', '&amp;gt; 99.999\xa0%', '', '10 ms', '', '2.5 Mbit/s', '', '&amp;lt; 245', '', '≤ 1 ms', '', ' transfer interval (one frame loss)', '', 'stationary', '', '≤ 100/km&lt;sup&gt;2&lt;/sup&gt;', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', '4', '', '&amp;gt; 99.999\xa0%', '', '10 ms', '', '1.2 Mbit/s', '', '&amp;lt; 245', '', '≤ 2 ms', '', ' transfer interval (one frame loss)', '', 'stationary', '', '≤ 100/km&lt;sup&gt;2&lt;/sup&gt;', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', '5', '', '&amp;gt; 99.999\xa0%', '', '5 ms', '', '2.5 Mbit/s', '', '&amp;lt; 245', '', '≤ 1 ms', '', ' transfer interval (one frame loss)', '', 'stationary', '', '≤ 100/km&lt;sup&gt;2&lt;/sup&gt;', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', '6', '', '&amp;gt; 99.999\xa0%', '', '5 ms', '', '1.2 Mbit/s', '', '&amp;lt; 245', '', '≤ 2 ms', '', ' transfer interval (one frame loss)', '', 'stationary', '', '≤ 100/km&lt;sup&gt;2&lt;/sup&gt;', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', 'NOTE :\tUE-to-UE communication.', '', '', '', '&lt;i&gt;Use case #1: &lt;/i&gt;High-speed current differential protection with a sampling rate of 1200 Hz for legacy systems.', '', '&lt;i&gt;Use case #2: &lt;/i&gt;High-speed current differential protection with a sampling rate of 600 Hz for legacy systems.', '', '&lt;i&gt;Use case #3: &lt;/i&gt;High-speed current differential protection with a sampling rate of 1200 Hz under voltage condition 1 (see  IEC 61850-90-1[28] for more details).', '', '&lt;i&gt;Use case #4: &lt;/i&gt;High-speed current differential protection with a sampling rate of 600 Hz under voltage condition 1 (see  IEC 61850-90-1[28] for more details).', '', '&lt;i&gt;Use case #5: &lt;/i&gt;High-speed current differential protection with a sampling rate of 1200 Hz under voltage condition 2 (see  IEC 61850-90-1[28] for more details).', '', '&lt;i&gt;Use case #6: High-speed current differential protection with a sampling rat&lt;/i&gt;', '']</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>0.2093162014116782</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;D.4.1.0		Overview&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>22261-j30.docx</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>LR1_signalling</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>['', 'An energy-automation domain that now has standards based support by mobile-network technology is the backhaul electricity grid, i.e. the part of the distribution grid between primary substations (high voltage &lt;span style=font-family:Wingdings&gt;&amp;#x00E0;&lt;/span&gt; medium voltage) and secondary substations (medium voltage &lt;span style=font-family:Wingdings&gt;&amp;#x00E0;&lt;/span&gt; low voltage), and other smart grid services. In figure D.4.1.0-1 we depict a medium-voltage ring together with energy-automation use cases that either are already deployed or are anticipated within the near future.', '', '----media/image7.emf----', '', 'Figure D.4.1.0-1: Functional, topological sketch of a medium-voltage ring. AMI: advanced metering infrastructure; CB: circuit breaker; DMS: distribution management system; FISR: fault isolation and system restoration; HEM: home energy manager; PQ: power quality; RMU: ring main unit.', '', 'The primary substation and the secondary substations are supervised and controlled by a distribution-management system (DMS). If energy-automation devices in the medium-voltage power line ring need to communicate with each other and /or the DMS, a wireless backhaul network needs to be present (orange "cloud" in figure D.4.1.0-1).', '', 'A majority of applications in electricity distribution adhere to the communication standard IEC 60870-5-104. However, its modern "cousin" IEC 61850 experiences rapidly increasing popularity. The communication requirements for IEC 61850 applications can be found in EC 61850-90-4. Communication in wide-area networks is described in IEC 61850-90-12.', '', 'Usually, power line ring structures have to be open in order to avoid a power-imbalance in the ring (green dot in figure D.4.1.0 1). Examples for energy-automation that already is implemented in medium-voltage grids (albeit in low numbers) are power-quality measurements and the measurement of secondary-substation parameters (temperature, power load, etc.) [13]. Other use cases are demand response and the control of distributed, renewable energy resources (e.g. photovoltaics). ', '', 'A use case that could also be realised in the future is fault isolation and system restoration (FISR). FISR automates the management of faults in the distribution grid. It supports the localization of the fault, the isolation of the fault, and the restoration of the power delivery. For this kind of automation, the pertinent sensors and actuators broadcast telegrams about their states (e.g., "emergency closer idle") and about actions (e.g., "activating closer") into the backhaul network. This information is used by the ring main units (RMUs) as input for their decision algorithms. We illustrate this use of automation telegrams for an automated FISR event in figure D.4.1.0-1. Let us assume the distribution lines are cut at the location indicated by the bolt of lightning in the figure. In that case, the RMUs between the bolt and the green load switch (open) will be without power. The RMUs next to the "bolt" automatically open their load switches after having sensed the loss of electric connectivity between them. They both broadcast these actions into the backhaul network. Typically, these telegrams are repeated many times while the time between adjacent telegrams increases exponentially. This communication patterns leads to sudden, distributed surges in the consumed communication bandwidth. After the RMUs next to the "bolt" have opened their switch, the RMU that so far has kept the power line ring open (green dot in figure D.4.1.0-1) closes the load switch. This event too is broadcasted into the backhaul network. The typical maximum end-to-end latency for this kind of broadcast is 25 ms with a peak experienced data rate of 10 Mbit/s. Note that the distribution system typically subscribes to telegrams from all RMUs in order to keep abreast with the happenings in the distribution grid. ', '', 'Automatic fault handling in the distribution grid shortens outage time and offloads the operators in the distribution control centre for more complicated situations. Therefore, automated FISR can help to improve performance indexes like System Average Interruption Duration Index and System Average Interruption Frequency Index. ', '', 'Automation telegrams are typically distributed via domain multicast. As explained above, the related communication pattern can be "bursty", i.e. only few automation telegrams are sent when the distribution network operates nominally (~ 1 kbit/s), but, for instance, a disruption in the power line triggers a short-lived avalanche of telegrams from related applications in the ring (≥ 1 Mbit/s).', '']</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>0.2088769905070484</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;12.10.2.1	Description&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>22989-j30.docx</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>LR1_signalling</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>['', 'The basis for this use case is the UIC FRMCS URS wherein communication attributes define the QoS to be achieved for the various kinds of railway applications. These attributes are not part of the functional use case description but relevant for the FRMCS System and therefore subject of this use case.', '', 'Regarding the URS communication attributes, not all attributes are covered in the QoS use case. The following items are considered: ', '', '--\tType of communication', '', '--\tLatency, the delay between action and reaction', '', '--\tSession Reliability', '', '--\tSetup of communication, the time to establish a voice or data communication session', '', '--\tTalker assignment time in group communication', '', '--\tAudio (Voice) Quality', '', 'For further details, refer to the corresponding use cases in chapters 5 – 9. In these chapters the QoS requirements are specified on functional level. A reference is used which refers to real values’ in this QoS use case.', '', 'In order to be able to deliver a certain level of communication quality, the FRMCS System enables the allocation of resources meeting a Quality of Service (QoS) characteristics for each communication.', '', 'In order to be able to deliver a certain level of communication precedence, the FRMCS System enables the allocation of a priority for each communication.', '', 'The FRMCS System allows communications with a higher priority to take precedence over communications with a lower priority and have the ability to pre-empt other communications.', '']</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>0.1917578184331981</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;12.10.2.3	Service flows&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>22989-j30.docx</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>['', 'The service flows of the functional use cases out chapter 5 – 9 are applicable.', '', '&lt;b&gt;Application categories&lt;/b&gt;', '', 'Application categories describe the data transfer characteristic to be achieved by a bearer service. The FRMCS System shall consider the following user plane application categories:', '', '&lt;b&gt;Voice&lt;/b&gt; \tfor user to user or multiuser communication; Voice follows the typical conversational pattern and requires low delay inside the transport system;', '', '&lt;b&gt;Critical Voice&lt;/b&gt;\tfollows the voice conversational pattern but requires immediate session setup;', '', '&lt;b&gt;Video&lt;/b&gt;\tused for general observations purposes, e.g. maintenance;', '', '&lt;b&gt;Critical Video&lt;/b&gt;\twith&lt;b&gt; &lt;/b&gt;indirect impact on train operation, e.g. passenger surveillance;', '', '&lt;b&gt;Very Critical Video&lt;/b&gt;\twith direct impact on safety- related critical train control and operation, e.g. used in driverless ( e.g. GoA3/GoA4) operation for automated detection of objects (no human in the loop) or video-based remote control (human in the loop).', '', '&lt;b&gt;Very critical data&lt;/b&gt;\tfor future rail applications;', '', '&lt;b&gt;Critical data&lt;/b&gt;\tfollows the response pattern and requires high reliable transport. This category comprises future and legacy applications e.g. ETCS;', '', '&lt;b&gt;Non-Critical data&lt;/b&gt;\tused for the exchange of railway system or communication relevant information; requires high reliable transmission and preservation of the response pattern;', '', '&lt;b&gt;Messaging&lt;/b&gt;\tfor the exchange of non-critical short information messages, recorded voice (for example voicemail), data, pictures, video; requires reliable transmission; ', '', '&lt;b&gt;Priority Level&lt;/b&gt;', '', 'In order to reach the QoS applicable for each application category, transport priority levels are required to differentiate among the communication urgency. Priority handling of communication service encompasses the assignment of a priority to a communication and involves the seizing of resources, which are in use by a communication having a lower ranking in the absence of idle resources. Priority handling includes as well discontinuation of an ongoing communication having a lower priority to allow an incoming communication of higher priority. Priority handling needs to be provided to a FRMCS User for all communications.', '', 'Priorities are treated by the FRMCS User/Equipment in the FRMCS System based on the following conditions:', '', '--\tThe priority level depends on the FRMCS User initiating the communication.', '', '--\tThe communication can have the priority level selected by the FRMCS User at setup or the priority level is predefined at registration. The treatment of priority level also applies when the FRMCS User is registered to a visited FRMCS network.', '', '--\tThe definition of the priority level which may cause preemption of another ongoing communication needs to be stored and can be changed by the FRMCS User.', '', '--\tThe FRMCS System is able to allocate setup classes i.e. communication setup time requirements and resource pre-emption capabilities to each priority level.', '', '--\tIn case of resource preemption, the preempted FRMCS user needs to be provided with a suitable indication.', '', '--\tThe priority level can be selected by the FRMCs User on a per communication basis.', '', 'The FRMCS User may select any priority level up to the authorised priority level. The maximum priority level needs to be stored on the UICC. At communication setup, the FRMCS Equipment and the FRMCS System verify the priority level at setup against the maximum authorised priority level. If the FRMCS User has not selected a priority level at setup, the FRMCS System applies a FRMCS User specific default priority level. If the FRMCS User has selected at setup a priority level higher than the maximum authorised priority level, the maximum authorised priority level is applied for the communication.', '', '&lt;b&gt;Service Attributes&lt;/b&gt;', '', 'From FRMCS User point of view there are two main service attributes latency and communication reliability.', '', 'For the &lt;b&gt;Latency&lt;/b&gt; two classifications are applicable:', '', 'Low\t\tUser data delay harms the functioning of the application.', '', 'Normal\t\tUser data delay does not harm the sequence and progress of the application.', '', 'From FRMCS System point of view, latency quantifies the end-to-end user data transport delay between the involved communication entities.', '', '&lt;b&gt;Reliability &lt;/b&gt;(in accordance to TS 22.261): in the context of network layer packet transmissions, percentage value of the amount of sent network layer packets successfully delivered to a given system entity within the time constraint required by the targeted service, divided by the total number of sent network layer packets.', '', 'Two levels are to be taken into account:', '', 'High \t\tThe packet loss at transport level is exceptional rare.', '', 'Normal\t\tThe packet loss at transport level is seldom.', '', 'The FRMCS System is able to assign multiple individual FRMCS User communications having individual QoS profile to a single IP address.', '', 'To meet the different application characteristics e.g. conversational pattern, real-time or critical data further itemisation is necessary. The mapping of the service attributes latency and reliability among functional requirements and FRMCS System as well as their target values are summarised in Table 12.10-1.', '', 'Service Attribute', '', 'FRMCS - Functional Requirement', '', 'FRMCS – System Requirement', '', 'Service Attribute value', '', 'Latency', '', 'Low', '', 'Ultra-Low', '', '≤10ms', '', '', '', '', '', 'Low', '', '≤100ms', '', '', '', 'Normal', '', 'Normal', '', '≤500ms', '', '', '', '', '', 'Best Effort', '', '&amp;gt;500ms', '', 'Reliability ', '', 'High', '', 'Ultra-High', '', '99.9999%', '', '', '', '', '', 'High', '', '99.9%', '', '', '', 'Normal', '', 'Normal', '', '99%', '', 'Table 12.10-1 - Service attribute mapping', '', 'Some application categories are time stringent e.g. critical voice or critical data. ', '', 'The range of latency and reliability requirements have a certain dependency on the speed of the trains. In general, the requirement is that the service attributes can be guaranteed up to 500kmh&lt;sup&gt;-1&lt;/sup&gt;. Certain combinations of latency and reliability apply only to &lt;b&gt;Low Speed&lt;/b&gt; (≤ 40kmh&lt;sup&gt;-1&lt;/sup&gt;&lt;b&gt;).&lt;/b&gt; ', '', '', '', 'The applications are considered as real-time when the FRMCS functional requirement for the latency is specified as “Low” and “Ultra Low”, according to table 12.10 1.', '', '&lt;b&gt;Session handling&lt;/b&gt;', '', '&lt;b&gt;Setup time&lt;/b&gt; of a communication session is essential because of their safety related character. Communication session setup encompasses the value of the elapsed time between the communication establishment request and the indication of successful communication session establishment. The FRMCS User requires two classes:', '', '&lt;b&gt;Immediate&lt;/b&gt;\tThe FRMCS User requires immediate setup of the communication session. The duration of the immediate communication session establishment shall not exceed 1 second.', '', '&lt;b&gt;Normal&lt;/b&gt;\tNormal communication session setup time range does not harm the use of the application. The time duration of the normal communication session establishment shall not exceed 3 seconds.', '', '&lt;b&gt;Talker assignment time&lt;/b&gt; comprises the timeframe between talker request and the permission to talk applicable to group communication. This timeframe shall be lower than 300ms. Talker assignment time assumes that a group communication has been set up.', '', '&lt;b&gt;Session Loss Rate (SLR)&lt;/b&gt; indicates the number of sessions released unintentionally per accumulated session time. SLR shall be &amp;lt;10&lt;sup&gt;-2&lt;/sup&gt;/h.', '', '&lt;b&gt;Communication and QoS assignment &lt;/b&gt;', '', 'In order to provide the required level of communication quality, the FRMCS System will request the applicable resources as required for the communication service from the underlying 3GPP transport system and if appropriate also from non-3GPP transport systems. The transport resources are characterised by latency, reliability, guaranteed bitrate/non-guaranteed bitrate and communication service priority.', '', 'If no specific service attributes are required for a certain communication service, the FRMCS System is able to apply a predefined default.', '', 'Each communication service resource characteristic can be requested independently of the others.', '', 'As result of the request to the underlying transport system, the FRMCS System may offer different values than the ones requested but which fit to the categories summarised in Table 12.10-1. ', '', 'The available radio spectrum in certain regions, for example in Europe is rather limited, therefore the FRMCS System might apply different resources for the same communication service in different regions to achieve a radio resource efficient use of the available bandwidth.', '', '&lt;b&gt;Audio quality&lt;/b&gt;', '', 'Voice intelligibility strongly depends on the audio bandwidth. FRMCS System has to consider for voice communication following minimum requirements:', '', '--\tEncoding of speech encompass in minimum the range of 200–7000 Hz;', '', '--\tThe codec meets the local radio channel and capacity requirements of the FRMCS system;', '', '--\tThe coding of speech signals is robust to radio impairments sacrificing voice clarity;', '', '&lt;b&gt;General functional service flows&lt;/b&gt;', '', 'The QoS characteristics and priority levels allowed for each application are predefined by the network operator.', '', 'The performance of the QoS and the priority parameters of the corresponding communication are constantly monitored by the FRMCS System.', '', 'The FRMCS System indicates QoS degradations to the communication application.', '', 'When the required QoS is not achieved, the communication application is able to:', '', '--\tmaintain the communication, or;', '', '--\trelease the communication.', '']</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>0.2040016880873917</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;12.10.2.5	Potential requirements and gap analysis&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>22989-j30.docx</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>LR1_signalling</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>['', '', '', '&lt;span style="font-size:22pt"&gt;&lt;b&gt;Reference Number&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:22pt"&gt;&lt;b&gt;Requirement text&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:22pt"&gt;&lt;b&gt;Application / Transport&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:22pt"&gt;&lt;b&gt;SA1 spec covering&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:22pt"&gt;&lt;b&gt;Comments&lt;/b&gt;&lt;/span&gt;', '', '[R-12.10.2-001]', '', 'The FRMCS System shall be capable of providing different levels of QoS.', '', '&lt;span style="font-size:18pt"&gt;(&lt;/span&gt;&lt;span style="font-size:22pt"&gt;A&lt;/span&gt;&lt;span style="font-size:18pt"&gt;)&lt;/span&gt;&lt;span style="font-size:22pt"&gt;T&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;TS 22.261&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;sub-clause 6.7.2 paragraph 1&lt;/span&gt; ', '', '[R-12.10.2-002]', '', 'The FRMCS-system service attributes shall be allocated unambiguously per application and/or per session and/or per FRMCS User.', '', '&lt;span style="font-size:18pt"&gt;(&lt;/span&gt;&lt;span style="font-size:22pt"&gt;A&lt;/span&gt;&lt;span style="font-size:18pt"&gt;)&lt;/span&gt;&lt;span style="font-size:22pt"&gt;T&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;TS 22.261&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;sub-clause 6.7.2 paragraph 1&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;sub-clause 6.8 paragraph 3, 4&lt;/span&gt; ', '', '[R-12.10.2-003]', '', 'The FRMCS System shall support the efficient use of the radio resources.', '', '&lt;span style="font-size:18pt"&gt;(&lt;/span&gt;&lt;span style="font-size:22pt"&gt;A&lt;/span&gt;&lt;span style="font-size:18pt"&gt;)&lt;/span&gt;&lt;span style="font-size:22pt"&gt;T&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;TS 22.261&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;sub-clause 6.7.2 paragraph 3&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;sub-clause 6.23.2&lt;/span&gt; ', '', '[R-12.10.2-004]', '', 'The FRMCS System shall provide service attribute control on a peer to peer basis.', '', '&lt;span style="font-size:18pt"&gt;(&lt;/span&gt;&lt;span style="font-size:22pt"&gt;A&lt;/span&gt;&lt;span style="font-size:18pt"&gt;)&lt;/span&gt;&lt;span style="font-size:22pt"&gt;T&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;TS 22.261&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;sub-clause 6.7.2 paragraph 6&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;sub-clause 6.8 paragraph 3&lt;/span&gt; ', '', '[R-12.10.2-005]', '', 'The FRMCS System shall provide a mapping between application characteristics and the bearer service attributes.', '', '&lt;span style="font-size:18pt"&gt;(&lt;/span&gt;&lt;span style="font-size:22pt"&gt;A&lt;/span&gt;&lt;span style="font-size:18pt"&gt;)&lt;/span&gt;&lt;span style="font-size:22pt"&gt;T&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;TS 22.261&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;sub-clause 6.7.2 paragraph 1&lt;/span&gt; ', '', '[R-12.10.2-006]', '', 'The FRMCS System shall be able to support different QoS for uplink and downlink of asymmetric bearers.', '', '&lt;span style="font-size:18pt"&gt;(&lt;/span&gt;&lt;span style="font-size:22pt"&gt;A&lt;/span&gt;&lt;span style="font-size:18pt"&gt;)&lt;/span&gt;&lt;span style="font-size:22pt"&gt;T&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;TS 22.261&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;sub-clause 6.7.2 paragraph 2&lt;/span&gt; ', '', '[R-12.10.2-007]', '', 'The FRMCS System shall be able to modify service attributes during an active communication session.', '', '&lt;span style="font-size:22pt"&gt;A/T&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;TS 22.261&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;TS 22.280&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;TS 22.261 sub-clause 6.8 paragraph 1&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;TS 22.280 sub-clause 6.8&lt;/span&gt; ', '', '[R-12.10.2-008]', '', 'The FRMCS System shall detect and process the various user data traffic characteristics, latency and session reliability requirements. These requirements are summarised in Table 12.10-2.', '', '&lt;span style="font-size:18pt"&gt;(&lt;/span&gt;&lt;span style="font-size:22pt"&gt;A&lt;/span&gt;&lt;span style="font-size:18pt"&gt;)&lt;/span&gt;&lt;span style="font-size:22pt"&gt;T&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;TS 22.261&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;sub-clause 6.8 paragraph 6&lt;/span&gt; ', '', '[R-12.10.2-009]', '', 'The FRMCS System shall support the applicable QoS requirements up to a train speed of 500kmh-1 at all locations along the track unless restrictions are indicated which are:', '', 'Low speed ≤ 40kmh&lt;sup&gt;-1&lt;/sup&gt;.', '', '&lt;span style="font-size:22pt"&gt;T&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;22.289&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;sub-clause 5.2.2&lt;/span&gt; ', '', '[R-12.10.2-010]', '', 'To prioritize among the application categories and their related QoS, the FRMCS System shall support 15 priority levels.', '', '&lt;span style="font-size:22pt"&gt;T&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;22.280&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;[R-6.8.7.2-005]&lt;/span&gt; ', '', '[R-12.10.2-011]', '', 'The FRMCS System shall be able to request service attributes (latency, reliability, guaranteed bitrate/ non-guaranteed bitrate and priority) from the underlying 3GPP transport system and if appropriate also from non-3GPP transport systems.', '', '&lt;span style="font-size:22pt"&gt;T&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;TS 22.261&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;sub-clause 6.7.2 paragraph 5, 8&lt;/span&gt; ', '', '[R-12.10.2-012]', '', 'The FRMCS System shall be able to apply predefined default service attributes.', '', '&lt;span style="font-size:22pt"&gt;T&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;TS 22.261&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;sub-clause 6.8 paragraph 4-6&lt;/span&gt; ', '', '[R-12.10.2-013]', '', 'The FRMCS System shall be able to request each communication service attributes independently of the others.', '', '&lt;span style="font-size:22pt"&gt;T&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;TS 22.261&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;sub-clause 6.7.2 paragraph 1, 2, 6&lt;/span&gt; ', '', '[R-12.10.2-014]', '', 'The FRMCS System shall be able to assess whether the communication service attributes received from the transport system are sufficient to support the communication service fully or in a restricted way and report this information to the FRMCS application.', '', '&lt;span style="font-size:22pt"&gt;T&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;TS 22.261&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;sub-clause 6.7.2 paragraph 3&lt;/span&gt; ', '', '[R-12.10.2-015]', '', 'The FRMCS System shall be able to keep the communication priority independent from the QoS parameters latency, reliability, guaranteed/non-guaranteed bitrate.', '', '&lt;span style="font-size:22pt"&gt;T&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;TS 22.261&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;sub-clause 6.7.2 paragraph 4&lt;/span&gt; ', '', '[R-12.10.2-016]', '', 'The FRMCS System shall provide a radio resource efficient allocation of the communication bandwidth.', '', '&lt;span style="font-size:22pt"&gt;T&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;TS 22.261&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;sub-clause 6.7.2 paragraph 3&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;sub-clause 6.23.2&lt;/span&gt; ', '', '[R-12.10.2-017]', '', 'Talker assignment time, the timeframe between talker request and the permission to talk in a multi-user voice communication, shall be lower than 300ms.', '', '&lt;span style="font-size:22pt"&gt;A/T&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;22.179&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;[R-6.15.3.2-012] The MCPTT Service shall provide an MCPTT Access time (KPI 1) less than 300 ms for 95% of all MCPTT Request.&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;[R-6.15.3.2-013] For MCPTT Emergency Group Calls and Imminent Peril Calls the MCPTT Service shall provide an MCPTT Access time (KPI 1) less than 300 ms for 99% of all MCPTT Requests.&lt;/span&gt; ', '', '[R-12.10.2-018]', '', 'FRMCS system shall support at least encoding of speech signals between 200–7000 Hz.', '', '&lt;span style="font-size:22pt"&gt;A/T&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;22.280&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;26.441&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;TS 22.280&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;sub-clause 5.13&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;TS 26.441&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;entire document&lt;/span&gt; ', '', '[R-12.10.2-019]', '', 'The FRMCS voice codec shall be robust to meet different radio channel impairments caused by the different working conditions in the train, beside or under the train.', '', '&lt;span style="font-size:22pt"&gt;A/T&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;22.280&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;26.445&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;clause 5&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;s0504-s0506&lt;/span&gt; ', '', '[R-12.10.2-020]', '', 'The encoding of speech signals in the FRMCS system shall be efficient to meet limited radio resource availability.', '', '&lt;span style="font-size:22pt"&gt;A/T&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;22.280&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;26.445&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;clause 5&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;s0504-s0506&lt;/span&gt; ', '', '[R-12.10.2-021]', '', 'Priority handling of communication service in the FRMCS System shall encompass the assignment of a priority to a communication and involves the seizing of resources, which are in use by a communication having a lower ranking in the absence of idle resources.', '', '&lt;span style="font-size:22pt"&gt;A/T&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;22.280&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;[R-6.8.7.2-001]&lt;/span&gt; ', '', '[R-12.10.2-022]', '', 'Priority handling of the FRMCS System shall support discontinuation of an ongoing communication having a lower priority to allow an incoming communication of higher priority.', '', '&lt;span style="font-size:22pt"&gt;A/T&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;22.280&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;[R-6.8.7.2-004]&lt;/span&gt; ', '', '[R-12.10.2-023]', '', 'The FRMCS System shall always consider the priority of the FRMCS User initiating the communication.', '', '&lt;span style="font-size:22pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;22.280&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;[R-6.8.7.2-002]&lt;/span&gt; ', '', '[R-12.10.2-024]', '', 'The FRMCS System shall consider for a communication the priority level selected by the FRMCS User at setup or the priority level predefined at registration.', '', '&lt;span style="font-size:22pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:22pt"&gt;22.280&lt;/span&gt;', '', '[R-6.8.7.2-004] ', '', '[R-12.10.2-025]', '', 'The FRMCS System shall treat the communication priority levels when the FRMCS User is registered to a FRMCS network.', '', '&lt;span style="font-size:22pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;22.280&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;[R-6.8.7.2-001]&lt;/span&gt; ', '', '[R-12.10.2-026]', '', 'The definition of the priority level which may cause pre-emption of another ongoing communication shall be stored and can be changed by the FRMCS User.', '', '&lt;span style="font-size:22pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;22.280&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;[R-6.8.7.2-004]&lt;/span&gt; ', '', '[R-12.10.2-027]', '', 'The FRMCS System shall be able to allocate setup classes i.e. communication setup time requirements and resource pre-emption capabilities to each priority level.', '', '&lt;span style="font-size:22pt"&gt;A/T&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;22.280&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;[R-6.8.7.2-003]&lt;/span&gt; ', '', '[R-12.10.2-028]', '', 'In case of resource pre-emption, the pre-empted FRMCS user shall be provided with a suitable indication.', '', '&lt;span style="font-size:22pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;It is an implemenation choice&lt;/span&gt; ', '', '[R-12.10.2-029]', '', 'The priority level shall be selected by the FRMCS User on a per communication basis.', '', '&lt;span style="font-size:22pt"&gt;A/T&lt;/span&gt;', '', '&lt;span style="font-size:22pt"&gt;22.280&lt;/span&gt;', '', ' &lt;span style="font-size:18pt"&gt;[R-6.8.7.2-001]&lt;/span&gt;', '', '[R-12.10.2-030]', '', 'The FRMCS User shall be able to select any priority level up to the authorised priority level. The maximum priority level shall be stored on the UICC.', '', '&lt;span style="font-size:22pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;22.280&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;[R-6.8.7.2-006] &lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;[R-6.8.7.2-007]&lt;/span&gt; ', '', '[R-12.10.2-031]', '', 'At communication setup, the FRMCS Equipment/UE and the FRMCS System shall verify the priority level at setup against the maximum authorised priority level.', '', '&lt;span style="font-size:22pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;22.280&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;[R-6.8.7.2-008]&lt;/span&gt; ', '', '[R-12.10.2-032]', '', 'If the FRMCS User has not selected a priority level at setup, the FRMCS System shall apply a FRMCS User specific default priority level.', '', '&lt;span style="font-size:22pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;22.280&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;[R-6.8.7.2-009]&lt;/span&gt; ', '', '[R-12.10.2-033]', '', 'If the FRMCS User has selected at setup a priority level higher than the maximum authorised priority level, the maximum authorised priority level shall be applied by the FRMCS System for the communication.', '', '&lt;span style="font-size:22pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;22.280&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;[R-6.8.7.2-010]&lt;/span&gt; ', '', '[R-12.10.2-034]', '', 'The FRMCS System shall take into account the service attributes to allow selection of the available bearer services.', '', '&lt;span style="font-size:22pt"&gt;T&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;TS 22.261&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;sub-clause 6.7.2 paragraph 5, 8&lt;/span&gt; ', '', '[R-12.10.2-035]', '', 'The FRMCS System shall be able to assign multiple individual FRMCS User communications having individual QoS profile to a single IP address.', '', '', '', '&lt;span style="font-size:18pt"&gt;A/&lt;/span&gt;&lt;span style="font-size:22pt"&gt;T&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;TS 22.261&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;TS 22.280&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;TS 22.261&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;sub-clause 6.8 paragraph 3&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;TS 22.280&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;sub-clause 5.15&lt;/span&gt; ', '', '[R-12.10.2-036]', '', 'The FRMCS System shall provide a mechanism to derive the communication characteristics of an application and map those on a data flow with a predefined QoS profile.', '', '&lt;span style="font-size:18pt"&gt;A/&lt;/span&gt;&lt;span style="font-size:22pt"&gt;T&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;TS 22.261&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;TS 22.280&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;TS 22.261&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;sub-clause 6.8 paragraph 3&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;TS 22.280&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;sub-clause 5.15&lt;/span&gt; ', '', '[R-12.10.2-037]', '', 'The FRMCS System shall be able to notify the communication application when the network is not able to provide the requested QoS. When the required QoS is not achieved, the communication application shall be able to maintain or release the communication.', '', '&lt;span style="font-size:18pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;22.280&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;[R-6.8.6.2-005] communication application notification&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Decision to maintain / release the communication is out of the scope of 3GPP.&lt;/span&gt;', '', '', '', 'Application categories and their related service attributes are grouped into specific QoS class. Table 12.10-2 summarises the QoS classes and their applicable service attributes.', '', '', '', 'Application Category', '', 'Service Attribute (according to Table 12.10-1)', '', 'Session establishment', '', 'Session Loss Rate', '', '', '', 'Latency peer to peer ', '', 'Reliability ', '', '', '', '', '', 'Voice', '', 'Low', '', '', '', 'Normal', '', '', '', 'Normal', '', '', '', 'NA', '', 'Critical Voice', '', 'Low', '', '', '', 'High', '', '', '', 'Immediate', '', '', '', 'NA', '', 'Video', '', 'Normal', '', 'High', '', 'Normal', '', 'NA', '', 'Critical Video', '', 'Low', '', 'High', '', 'Immediate', '', 'NA', '', 'Very Critical Video', '', '&lt;span style="font-size:18pt"&gt;Ultra Low or Low&lt;/span&gt;', '', 'Note 1', '', 'High', '', 'Normal', '', 'NA', '', '&lt;span style="font-size:18pt"&gt;Critical Data&lt;/span&gt;', '', '(future applications) ', '', 'Low', '', 'Ultra-High', '', 'Immediate', '', 'NA', '', 'Very Critical Data', '', '', '', 'Ultra-Low or Low (Note 1)', '', 'Ultra- High', '', 'Immediate', '', 'NA', '', 'Critical Data', '', '(legacy applications)', '', 'Normal', '', 'High', '', 'Normal', '', '&amp;lt;10&lt;sup&gt;-2&lt;/sup&gt;/h', '', 'Non-Critical data', '', 'Normal', '', 'High', '', 'Normal', '', 'NA', '', 'Messaging', '', 'Best Effort', '', 'High', '', 'Normal', '', 'NA', '', 'Note 1: The latency “Ultra low” is restricted to low speed ≤40 kmh&lt;sup&gt;- 1&lt;/sup&gt;.', '', 'Table 12.10-2 - Service and Service Attribute requirements', '', '&lt;b&gt;Railway specific conditions&lt;/b&gt;', '', '1)\t&lt;span style="font-size:20pt"&gt;Following propagation conditions are to be considered:&lt;/span&gt;', '', '--\t&lt;span style="font-size:20pt"&gt;Free space in general&lt;/span&gt;', '', '--\t&lt;span style="font-size:20pt"&gt;Railway corridors in general and especially in hilly terrain&lt;/span&gt;', '', '--\t&lt;span style="font-size:20pt"&gt;Forest Aisle&lt;/span&gt;', '', '--\t&lt;span style="font-size:20pt"&gt;Underground / tunnel environment&lt;/span&gt;', '', '--\t&lt;span style="font-size:20pt"&gt;Moving trains or objects in a railway station and shunting yards&lt;/span&gt;', '', '2)\t&lt;span style="font-size:20pt"&gt;FRMCS System should be able to reuse the existing GSM-R sites. A non-exhaustive &lt;/span&gt;&lt;span style="font-size:20pt"&gt;&lt;u&gt;example list&lt;/u&gt;&lt;/span&gt;&lt;span style="font-size:20pt"&gt; provides the typical site-to-site deployment scenarios:&lt;/span&gt;', '', '&lt;span style="font-size:20pt"&gt;Rural environment: between 5 - 7km.&lt;/span&gt;', '', '&lt;span style="font-size:20pt"&gt;Urban environment: &amp;lt;5km.&lt;/span&gt;', '']</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>0.2291728951938874</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;12.14.2.5	Potential requirements and gap analysis&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>22989-j30.docx</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>['', 'Reference Number', '', 'Requirement text', '', 'Application / Transport', '', 'SA1 spec covering', '', 'Comments', '', '[R-12.14.2-001]', '', 'The consolidated positioning information i.e. the location information resulting from the combination of all positioning sources available to the FRMCS System shall support following absolute positioning accuracy based on the train speed at &amp;gt;= 90% of the occasions:', '', '0 - 40km/h\t\tLongitudinal: ≤1 m\tlateral: 1 - 3 m', '', 'Up to 120km/h\t\tLongitudinal: ≤34m\tlateral: 1 - 3 m', '', 'Up to 160km/h\t\tLongitudinal: ≤45m\tlateral: 1 - 3 m', '', 'Up to 320km/h\t\tLongitudinal: ≤89m\tlateral: 1 - 3 m', '', 'Up to 500km/h\t\tLongitudinal: ≤200m \tlateral: 1 - 3 m', '', 'See [9]', '', 'A/T', '', 'TS 22.261', '', 'TS 22.261 sub-clause 6.27.2', '', 'TS 22.261 sub-clause 7.3.2 – refer to positioning service level 3 (only one speed limit supported – up to 500 km/h – with horizontal accuracy of 1m)', '', '', '', 'TS 22.278 does not consider this requirement. ', '', '[R-12.14.2-002]', '', 'FRMCS System shall be able to support an initial positioning fix time of ≤5s.', '', 'A/T', '', 'TS 22.261', '', 'TS 22.261 sub-clause 7.3.2', '', '', '', 'TS 22.278 does not consider this requirement. ', '', '[R-12.14.2-003]', '', 'To avoid large offsets between adjacent hazard areas due to limited track space in a railway station, FRMCS System shall be able to support a sampling interval between two positioning cycles of &amp;lt;1s.', '', 'A/T', '', 'Not covered', '', 'TS 22.261', '', 'TS 22.261 sub-clause 7.3.2 (Positioning service latency = 1 s)', '', '', '', 'TS 22.278 does not consider this requirement. ', '', '[R-12.14.2-004]', '', 'FRMCS Equipment power consumption due to the use of positioning capabilities shall be minimised.', '', 'A/T', '', 'TS 22.261', '', 'TS 22.261 sub-clause 6.27.2 and 7.3.2.3 (location power saving mode with restriction in update rate)', '', '', '', 'TS 22.278 does not consider this requirement. ', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>0.2203220560988151</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;12.19.2.5	Potential requirements and gap analysis&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>22989-j30.docx</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>['', 'Reference Number', '', 'Requirement text', '', 'Application / Transport', '', 'SA1 spec covering', '', 'Comments', '', '[R-12.19.2.5-001]', '', 'The FRMCS System shall be able to support the segregation of transport data for different application categories.', '', '', '', 'A/T', '', '22.261, clause 4', '', '“Flexible network operations are the mainstay of the 5G system. The capabilities to provide this flexibility include network slicing, network capability exposure, scalability, and diverse mobility. Other network operations requirements address the necessary control and data plane resource efficiencies, as well as network configurations that optimize service delivery by minimizing routing between end users and application servers.” ', '', '[R-12.19.2.5-002]', '', 'The FRMCS System shall support dedicated QoS handling for segregation of transport data.', '', '', '', 'T', '', '22.261 clause 6.1.1', '', '“Network slicing allows the operator to provide customised networks. For example, there can be different requirements on functionality (e.g., priority, charging, policy control, security, and mobility), differences in performance requirements (e.g., latency, mobility, availability, reliability and data rates), or they can serve only specific users (e.g., MPS users, Public Safety users, corporate customers, roamers, or hosting an MVNO).”', '', ' ', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>0.2262813097838364</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.1.6.1	Potential Functionality Requirements&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>22876-j00.docx</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>LR3_other</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>['', '[P.R.5.1.6-001] The 5G system shall be able to support the means to modify the communication QoS ensuring the end-to-end latency can be satisfied when a relay UE is involved for a proximity-based work task offloading.', '', 'NOTE\xa01:\tDue to the proximity-based work task offloading, the data size transmitted via sidelink and Uu of the indirect network connection is different ', '', '[P.R.5.1.6-002] The 5G system shall be able to collect charging information for proximity-based work task offloading.', '', '[PR.5.1.6-003] The 5G system shall support service continuity when a UE communication path changes between a direct network connection and an indirect network connection, including the case when the data size transmitted over the two connection is different (e.g. for a proximity-based work task offloading).', '']</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>0.1861174398896215</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.1.6.2	Potential KPI Requirements&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>22876-j00.docx</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>LR1_signalling</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>['', 'Considering the widely-used AlexNet and VGG-16 model for proximity-based work task offloading, the following KPIs need to be supported:', '', 'Table 5.1-2\tKPI requirements for proximity-based work task offloading', '', '', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;UL data size&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;(for sidelink)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;UL data rate&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;(for sidelink)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Intermediate data uploading latency (including sidelink+Uu)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Image recognition latency&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;AlexNet model with 30FPS (NOTE 1)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;0.15 - 0.02&lt;/span&gt;&lt;span style="font-size:18pt"&gt;&lt;b&gt; &lt;/b&gt;&lt;/span&gt;&lt;span style="font-size:18pt"&gt;Mbyte for each frame&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;4.8 – 65 Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;-  2ms for Remote driving, AR displaying/gaming, and remote-controlled robotics;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;-  10ms for video recognition;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;-  100ms for One-shot object recognition, Person identification, or photo enhancement in smart phone&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;1s&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;VGG-16 model with 30FPS&lt;/span&gt;', '', '\t1)\t&lt;span style="font-size:18pt"&gt;- 1.5&lt;/span&gt; &lt;span style="font-size:18pt"&gt;Mbyte for each frame&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;24 - 720 Mbit/s&lt;/span&gt;', '', '', '', '&lt;span style="font-size:18pt"&gt;1s&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;NOTE 1: FPS stands for Frame Per Second&lt;/b&gt;&lt;/span&gt;', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>0.2298375123503805</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.2.6.1	Potential Functionality Requirements&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>22876-j00.docx</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>['', '[P.R.5.2.6-001] Subject to user consent and operator policy, the 5G system shall support the transfer of AI/ML model intermediate data from UE to UE via the direct device connection.', '', '[P.R.5.2.6-002] Subject to user consent and operator policy, the 5G system shall be able to provide means to predict and expose network condition changes (i.e. bitrate, latency, reliability) and receive user preferences on usage of the direct device connection or the direct network connection in order to meet the user experienced data rate and latency.', '', '[P.R.5.2.6-003] Subject to user consent and operator policy, the 5G system shall be able to dynamically select the intermediate device that is capable to perform the needed functionalities, e.g., AIML splitting.', '', '[P.R.5.2.6-004] Subject to user consent and operator policy, the 5G system shall be able to maintain the QoS (latency, reliability, data rate as defined in the Table\xa05.2.6.2-1 below) of the communication path of the direct device connection.', '', '[P.R.5.2.6-005] Subject to user consent and operator policy, the 5G system shall be able to have the means to modify the QoS of the communication path of the direct device connection.', '', 'NOTE:\tThe split point selection is dynamic. In consequence, the amount of intermediate data will vary. To maintain the QoS, the bandwidth is adjusted.', '']</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>0.1850022460602571</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.2.6.2	Potential KPI Requirements&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>22876-j00.docx</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>LR1_signalling</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>['', 'Based on Table\xa05.2.1-2, the potential KPI requirement is as below:', '', 'Table 5.2.6.2-1 KPI for intermediate AI/ML data transmission for model split based robot control', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Model Name&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Payload size (Intermediate data size)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Max allowed end-to-end latency &lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Experienced data rate &lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Service area dimension&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Communication service availability&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Reliability&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;AlexNet\xa0[21]&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;0.000016 – 1.6 MByte&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;(8 bits data format)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;10 ms&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;0.128 - 1.28 Gbps&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;900 m&lt;/span&gt;&lt;span style="font-size:18pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:18pt"&gt;', '(30\xa0m x 30\xa0m)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;99.999\xa0%&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;99.999\xa0%&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;ResNet50\xa0[22]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:18pt"&gt;VGGFace\xa0[19]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:18pt"&gt;SoundNet\xa0[11]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:18pt"&gt;PointNet\xa0[15]&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;0.000064 – 6.4 Mbyte&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;(32 bits data format)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;10 ms&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;0.512 - 5.12 Gbps&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:18pt"&gt;Inception resnet&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>0.2563577864636639</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.2.6.2	Requirements related to the Transport layer&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>22890-j00.docx</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>LR1_signalling</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>['', '[PR 5.2.6-2] The FRMCS System shall support the following traffic characteristics of data transfer: ', '', 'Note: This table is intended to be included in Section 6.2 of TS 22.289[9].', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Scenario&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;(Note 5)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;End-to-end latency&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Reliability&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;(Note 1)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;UE speed&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;UE Relative&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Speed&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;User experienced data rate&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Payload&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;size&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;(Note 2)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Area traffic density&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Overall UE density&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Service area dimension', '(Note 3)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Multiple trains\' stops at the same platform (Korea, urban railway)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤10 ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.9999%&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;≤100\xa0km/h&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤50km/h&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤1Mb/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Small to large&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤ 1 Mb/s/km&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤ 5 (100m)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤ 15 km&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;along rail tracks including bad weather conditions&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(Note 4)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;NOTE 1:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Reliability as defined in TS 22.289 sub-clause 3.1.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 2:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Small: payload ≤ 256 octets, Medium: payload ≤512 octets; Large: payload 513 -1500 octets.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 3:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Estimates of maximum dimensions.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 4:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Non-Line-of-Sight (NLOS) between UEs shall be supported&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 5:    Off-network traffic characteristics are not addressed in this table since it can be covered by TR22.990.&lt;/span&gt;', '', "Table 5.2.6.2-1: Traffic characteristics for multiple trains' stops at the same platform", '', '', '']</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>0.2397016425733779</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
           <t>&lt;h4&gt;5.3.6.1	KPIs for the collaborative and concurrent engineering in product design &lt;/h4&gt;</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B207" t="inlineStr">
         <is>
           <t>22856-j00.docx</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C207" t="inlineStr">
         <is>
           <t>LR1_signalling</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="D207" t="inlineStr">
         <is>
           <t>['', '[PR 5.3.6.1-1] The 5G System shall provide the appropriate connectivity KPIs for the use case of collaborative and concurrent engineering in product design, see table 5.3.6.1-1.', '', '&lt;b&gt;Table\xa05.3.6.1-1 – Potential key performance requirements for collaborative and concurrent engineering in product design&lt;/b&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Use Cases&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Characteristic parameter (KPI)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Influence quantity&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Max allowed end-to-end latency&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Service bit rate: user-experienced data rate&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Reliability&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Area Traffic capacity&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Message size (byte)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;UE Speed&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Service Area&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Collaborative and concurrent engineering&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[≤10] ms&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Typical haptic data: [5] ms &lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;(note 1)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[1-100] Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;([14])&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[&amp;gt; 99.9%] ([14])&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Typically for Haptic: [&amp;gt; 99.9%] (without compression)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Typically for Haptic: [&amp;gt; 99.999%] (with compression (note 4))&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[26]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[3.804] Tbit/s/km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:16pt"&gt; &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 2)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Typical haptic data:&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1 DoF: 2-8 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3 DoFs: 6-24 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6 DoFs: 12-48 &lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Video: 1500&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Audio: 100&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;([14])&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;typically &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 3)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 1: The network based conference focus is assumed, which receives data from all the participants, performs rendering (image synthesis), and then distributes the results to all participants. The latency refers to the transmission delay between a UE and the application server.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 2: To support at least 15 users present at the same location (e.g. in an area of 20m*20m) to actively enjoy immersive Metaverse service concurrently, the area traffic capacity is calculated considering per user consuming non-haptic XR media (e.g. for video per stream up to 40000 kbit/s) and concurrently 60 haptic sensors (per haptic sensor generates data up to 1024 kbit/s).&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 3: &lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;In practice, the service area depends on the actual deployment. In some cases a local approach (e.g. the application servers are hosted at the network edge) is preferred in order to satisfy the requirements of low latency and high reliability.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 4: The arrival interval of compressed haptic data usually follow some statistical distributions, such as generalized Pareto distribution, and Exponential distribution [26].&lt;/span&gt;', '', '', '']</t>
         </is>
       </c>
-      <c r="E88" t="n">
-        <v>0.6611246413887588</v>
+      <c r="E207" t="n">
+        <v>0.2424062766598454</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;6.1.6.1	Potential Functionality Requirements&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>22876-j00.docx</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>['', '[P.R.6.1-001]\xa0Subject to user consent, operator policies and regional or national regulatory requirements, the 5G system shall be able to support means to monitor a direct device connection and expose corresponding monitoring information (e.g. experienced data rate, latency) to an authorized 3rd party.', '', 'NOTE:  The monitoring information in [P.R.6.1-001] doesn’t include any user position-related data.', '', '[P.R.6.1-002]\xa0Subject to user consent and operator policies, the 5G system shall be able to provide means for an authorized third-party to authorize a group of UEs to exchanging data with each other via direct device connection.', '', '[P.R.6.1-003]\xa0The 5G system shall support a mechanism for an authorized third-party to negotiate a suitable QoS of direct device connections for a group of UEs to exchange data with each other.', '', '[P.R.6.1-004]\xa0Subject to user consent, operator policies and regulatory requirements, the 5G system shall support means to monitor, characteristics of traffic relayed by a UE participating in the communication and expose to 3&lt;sup&gt;rd&lt;/sup&gt; party.', '']</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
+        <v>0.190179600714997</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;6.1.6.2	Potential KPI Requirements&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>22876-j00.docx</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>LR1_signalling</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>['', '[P.R.6.1-005]\xa0The 5G system shall support to use direct device communication to transmit the AI/ML model of image recognition and 3D object recognition with the following KPIs. ', '', 'Table 6.1.6.2-1: KPIs for image recognition and 3D object recognition using direct device connection', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Model Type&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Max allowed DL end-to-end latency&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Experienced data rate&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;in PC5&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Model size&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Communication service availability&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;AlexNet&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1.92 Gbit/s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;240 MByte&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;99.9\xa0%&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;ResNet-152 &lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1.92 Gbit/s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;240 Mbyte&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;99.9\xa0%&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;ResNet-50 &lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;0.8 Gbit/s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;100 Mbyte&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;99.9\xa0%&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;GoogleNet &lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;0.218 Gbit/s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;27.2 Mbyte&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;99.9\xa0%&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Inception-V3 &lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;0.736 Gbit/s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;92 Mbyte&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;99.9\xa0%&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;PV-RCNN &lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;0.4 Gbit/s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;50 Mbyte&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;99.9\xa0%&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;PointPillar &lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;0.14 Gbit/s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;18 Mbyte&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;99.9\xa0%&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;SECOND &lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;0.16 Gbit/s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;20 Mbyte&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;99.9\xa0%&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;For the size of image recognition model, it refers to table 6.1.1-1 in TR22.874 [2], for the size of 3D object recognition model, see [24].&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Reliability is assumed to be [99.9 – 99.999]%&lt;/b&gt;&lt;/span&gt;', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
+        <v>0.2461112791926821</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;6.15.3.1	General overview&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>22179-j00.docx</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>LR1_signalling</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>['', 'For MCPTT Users, one of the most important performance criteria is the MCPTT Access time (KPI 1). The MCPTT Access time is defined as the time between when an MCPTT User request to speak (normally by pressing the MCPTT control on the MCPTT UE) and when this user gets a signal to start speaking. This time does not include confirmations from receiving users.', '', 'The MCPTT Access time (KPI 1) does not include the time for an MCPTT User to affiliate to the group. This is a common scenario within public safety, meaning that affiliations to MCPTT Groups are long lived during several working hours. KPI 1 is applicable in both an MCPTT Group call setup request and subsequent MCPTT Requests that are part of the same call. KPI 1 for subsequent MCPTT Requests might take a slightly shorter time than the first MCPTT setup request of the same call due to its potential need of resource allocation in terms of bearer establishment. However from an end user perspective there is no need to differentiate required performance for an MCPPT Group call setup request and subsequent MCPTT Requests.', '', 'The End-to-end MCPTT Access time (KPI 2) is defined as the time between when an MCPTT User requests to speak (normally by pressing the MCPTT control on the MCPTT UE) and when this user gets a signal to start speaking, including MCPTT call establishment (if applicable) and possibly acknowledgement from first receiving user before voice can be transmitted. Group calls can be set up with or without acknowledgements from receiving users. ', '', 'For MCPTT Private Calls (with Floor control), end-to-end MCPTT Access time (also KPI 2) is measured from the initiating client’s Private call request to reception of either a Private Call response for automatic commencement or the MCPTT ringing indication for manual commencement. End-to-end access time for both automatic and manual commencement private calls (KPI 2) is shown in Figure 6.15.3.1.1.', '', 'NOTE:\tThe End-to-end MCPTT Access time (KPI 2) is not applicable for an MCPTT Group transmission call setup when no acknowledgement is requested from any Affiliated MCPTT Group Member.', '', "The Mouth-to-ear latency (KPI 3) is the time between an utterance by the transmitting user, and the playback of the utterance at the receiving user's speaker. Figure 6.15.3.1.1 illustrates the MCPTT Access time and Mouth-to-ear latency.", '', '----media/image7.emf----', '', 'Figure 6.15.3.1.1: Illustration of MCPTT access time and mouth-to-ear latency', '']</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>0.1990431244736438</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;6.15.3.2 	Requirements&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>22179-j00.docx</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>['', '[R-6.15.3.2-001] KPI 1, KPI 2, and KPI 3 should be measured where there is negligible backhaul delay.', '', '[R-6.15.3.2-002] The MCPTT Service shall provide the MCPTT Access time and Mouth-to-ear latency specified in this subclause to all MCPTT Users related to an MCPTT call regardless of call type (e.g., group, Private Call), group size and/or user density.', '', 'NOTE:\tThis ensures that all MCPTT Users experience the same performance regardless of whether the audio is transferred over unicast or multicast delivery.', '', '[R-6.15.3.2-003] The MCPTT Service shall be capable of providing the performance specified herein for all Affiliated MCPTT Group Members in the Group Call when there is not a transcoder in the bearer path.', '', '[R-6.15.3.2-004] The MCPTT Service shall be capable of providing the performance specified herein for all Participants in a Private Call when there is not a transcoder in the bearer path.', '', '[R-6.15.3.2-005] The KPIs defined in this subclause shall apply in an 3GPP network under traffic load not exceeding 70% of each network nodes capacity.', '', '[R-6.15.3.2-006] On networks with QOS services, the KPIs defined in this subclause shall apply when the total sector loading of the serving sector by MCPTT Users with equal or greater priority than the subject MCPTT User is less than 70%.', '', '[R-6.15.3.2-007] The KPIs defined in this subclause shall apply to group calls when the transmitting MCPTT User is connected to the MCPTT Service and has selected an MCPTT Group.', '', '[R-6.15.3.2-008] The KPIs defined in this subclause shall apply to group calls when the receiving MCPTT User is connected to the MCPTT Service and affiliated with the MCPTT Group.', '', '[R-6.15.3.2-009] The KPIs defined in this subclause shall apply to Automatic Commencement Private Calls when both the transmitting and receiving MCPTT Users are connected to the MCPTT Service.', '', '[R-6.15.3.2-010]  Void', '', '[R-6.15.3.2-011] When there are transcoding functions in the bearer path of the MCPTT Service, the performance provided by the MCPTT Service shall be no more than 40 ms greater than the performance specified herein when there are no transcoding functions in the bearer path.', '', '[R-6.15.3.2-012] For group calls where no acknowledgement is requested from affiliated MCPTT group members, the MCPTT Service shall provide an MCPTT Access time (KPI 1) less than 300 ms for 95% of all MCPTT Request. ', '', '[R-6.15.3.2-012a] For group and private calls where the call is already established, the MCPTT Service shall provide an MCPTT Access time (KPI 1) less than 300 ms for 95% of all MCPTT PTT Requests.', '', '[R-6.15.3.2-013] For MCPTT Emergency Group Calls and Imminent Peril Calls the MCPTT Service shall provide an MCPTT Access time (KPI 1) less than 300 ms for 99% of all MCPTT Requests.', '', '[R-6.15.3.2-014] For group calls where\xa0automatic acknowledgement is requested from\xa0the UEs of the affiliated MCPTT group members, the MCPTT Service shall provide an End-to-end MCPTT Access time (KPI 2) less than 1000 ms for users under coverage of the same network.', '', '[R-6.15.3.2-015] The MCPTT Service shall provide a Mouth-to-ear latency (KPI 3) that is less than 300 ms for 95% of all voice bursts.', '', '[R-6.15.3.2-016] There shall be no (0 ms) initial lost audio at receiving user.', '', '[R-6.15.3.2-017] There shall be no (0 ms) trailing lost audio at the end of the voice burst at receiving user. [R-6.15.3.2-018] The KPIs defined in this subclause shall apply to Manual Commencement Private Calls when both the transmitting and receiving MCPTT Users are connected to the MCPTT Service.', '', '[R-6.15.3.2-019] The MCPTT Service shall provide private call End-to-end MCPTT Access time (KPI 2) equal to or less than 1000 ms for users under coverage of the same network when the MCPTT private call is setup in the Manual Commencement mode.', '', '[R-6.15.3.2-020] The MCPTT Service shall provide private call End-to-end MCPTT Access time (KPI 2) equal to or less than 1000 ms for users under coverage of the same network when the MCPTT private call is setup in the Automatic Commencement mode.', '']</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>0.1820537331429567</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;6.2.6.2	Potential KPI Requirements&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>22876-j00.docx</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>['', '[P.R.6.2-003] The 5G system shall be able to support transmitting an AI/ML model via direct device connection fulfilling the KPIs for transmission of typical AIML model for trajectory prediction and object recognition [24][28] in Table 6.2-1. ', '', '&lt;b&gt;Table 6.2-1 &lt;/b&gt;', '', '', '', '&lt;b&gt;Payload size&lt;/b&gt;', '', '&lt;b&gt;Latency for model transmission (NOTE 1)&lt;/b&gt;', '', '&lt;b&gt;Transmission Data rate&lt;/b&gt;', '', '&lt;b&gt;LaneGCN&lt;/b&gt;', '', '15 MByte ', '', '3 seconds', '', '5 MByte/s', '', '&lt;b&gt;ResNet-50&lt;/b&gt;', '', '25 MByte', '', '3 seconds', '', '8.33 MByte/s', '', '&lt;b&gt;ResNet-152&lt;/b&gt;', '', '60 MByte', '', '3 seconds', '', '20 Mbyte/s', '', '&lt;b&gt;PointPillar&lt;/b&gt;', '', '18 MByte', '', '3 seconds', '', '6 MByte/s', '', '&lt;b&gt;SECOND&lt;/b&gt;', '', '20 MByte', '', '3 seconds', '', '6.67 MByte/s', '', '&lt;b&gt;Part-A2-Free&lt;/b&gt;', '', '226 MByte', '', '3 seconds', '', '75.33 MByte/s', '', '&lt;b&gt;Part-A2-Anchor&lt;/b&gt;', '', '244 MByte', '', '3 seconds', '', '81.33 MByte/s', '', '&lt;b&gt;PV-RCNN&lt;/b&gt;', '', '50 MByte', '', '3 seconds', '', '16.67 MByte/s', '', '&lt;b&gt;Voxel R-CNN (Car)&lt;/b&gt;', '', '28 MByte', '', '3 seconds', '', '9.33 MByte/s', '', '&lt;b&gt;CaDDN (Mono)&lt;/b&gt;', '', '774 MByte', '', '3 seconds', '', '248 MByte/s', '', 'NOTE 1: The transfer learning does not have a very high requirement for transmission latency since it is not a real-time inference service, hence it assumes the model transmission via direct device connection should be finished in 3 seconds.', '', ' ', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>0.216277532730639</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;6.23.3.3	Service flows&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>22989-j30.docx</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>LR1_signalling</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>['', 'The initiating FRMCS user in a train initiates the Virtual Coupling data communication to the receiving FRMCS user in the other train. ', '', 'The FRMCS System establishes a data bearer services for Virtual Coupling data communication which matches to the application category of VERY CRITICAL DATA, the latency attributes of ULTRA-LOW and the reliability attributes of ULTRA-HIGH (see 12.10).', '', 'The FRMCS System establishes the data bearer service(s) within the timeframe specified as IMMEDIATE (see 12.10).', '', 'When Off-network communication becomes available for the receiving side, the initiating FRMCS user initiates the Off-network Virtual Coupling data communication to the receiving side. ', '', ' NOTE:\tThe requirements for the Off-network Virtual Coupling communication are defined in sub-clause 5.8 of TR 22.990 [14] ', '']</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>0.1953049387750545</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;6.26.2.2	5G LAN-virtual network (5G LAN-VN)&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>22261-j30.docx</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>['', 'A UE shall be able to select a 5G LAN-VN, that the UE is a member of, for private communication. ', '', 'A 5G system shall support 5G LAN-VNs with member UEs numbering between a few to tens of thousands.', '', 'The 5G system shall be able to support large numbers of small 5G LAN-VNs.', '', 'NOTE:\tTargeting residential deployments translate into millions of 5GLAN-VN per operator per country. These residential 5G LAN-VNs typically contain between 10-50 devices.', '', 'The 5G LAN-VN shall support member UEs that are subscribed to different PLMNs, e.g. a 5G LAN-VN may span multiple countries and have member UEs that have a subscription to a PLMN in their home country.', '', 'The 5G system shall support on-demand establishment of UE to UE, multicast, and broadcast private communication between members UEs of the same 5G LAN-VN. Multiple types of data communication shall be supported, at least IP and Ethernet.', '', 'The 5G network shall ensure that only member UEs of the same 5G LAN-VN are able to establish or maintain private communications among each other using 5G LAN-type service.', '', 'The 5G system shall allow member UEs of a 5G LAN-VN to join an authorized multicast session over that 5G LAN-VN. ', '', 'The 5G system shall be able to restrict private communications within a 5G LAN-VN based on UE’s location (i.e. when the UE moves out of the area it can no longer communicate on the 5G LAN-VN).', '', 'The 5G network shall enable member UEs of a 5G LAN-VN to use multicast/broadcast over a 5G LAN-type service to communicate with required latency (e.g. 180 ms).', '', 'The 5G system shall support a mechanism to provide consistent QoE to all the member UEs of the same 5G LAN-VN.', '', 'The 5G system shall support routing based on a private addressing scheme within the 5G LAN-VN.', '', 'The 5G system shall support a communication path between a non-3GPP device in the CPN and a UE in the 5G-LAN VN via the eRG of the CPN, for an eRG that is part of the 5G LAN-VN.', '']</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>0.1836140267381153</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;6.4.2.1	General&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>22261-j30.docx</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>['', 'The 5G system shall minimize control and user plane resource usage for data transfer from send only UEs.', '', 'The 5G system shall minimize control and user plane resource usage for stationary UEs (e.g. lower signalling to user data resource usage ratio).', '', 'The 5G system shall minimize control and user plane resource usage for transfer of infrequent small data units.', '', 'The 5G system shall optimize the resource use of the control plane and/or user plane for transfer of small data units.', '', 'The 5G system shall optimize the resource use of the control plane and/or user plane for transfer of continuous uplink data that requires both high data rate (e.g. 10 Mbit/s) and very low end-to-end latency (e.g. 1-10 ms).', '', 'The 5G network shall optimize the resource use of the control plane and/or user plane to support high density connections (e.g. 1 million connections per square kilometre) taking into account, for example, the following criteria:', '', '-\ttype of mobility support;', '', '-\tcommunication pattern (e.g. send-only, frequent or infrequent);', '', '-\tcharacteristics of payload (e.g. small or large size data payload);', '', '-\tcharacteristics of application (e.g. provisioning operation, normal data transfer);', '', '-\tUE location;', '', '-\ttiming pattern of data transfer (e.g. real time or non-delay sensitive).', '', 'The 5G system shall efficiently support service discovery mechanisms where UEs can discover, subject to access rights:', '', '-\tstatus of other UEs (e.g. sound on/off);', '', '-\tcapabilities of other UEs (e.g. the UE is a relay UE) and/or;', '', '-\tservices provided by other UEs (e.g. the UE is a colour printer).', '', 'The 5G system shall be able to minimise the amount of wireless backhaul traffic (e.g. consolidating data transmissions to 1 larger rather than many smaller), when applicable (e.g. providing service in an area subject to power outages).', '', 'The 5G system shall support small form factor UEs with single antenna.', '', 'NOTE:\tSmall form factor UEs are typically expected to have the diagonal less than 1/5 of the lowest supported frequency wave length.', '', 'For a 5G system with satellite access, the following requirements apply:', '', '-\tThe 5G system with satellite access shall support the use of satellite links between the radio access network and core network, by enhancing the 3GPP system to handle the latencies introduced by satellite backhaul.', '', '-\tA 5G system with satellite access shall be able to support meshed connectivity between satellites interconnected with intersatellite links. ', '']</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>0.1811979776819231</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;6.41.2.10	Multicast/Broadcast&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>22261-j30.docx</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>['', 'The operator of a hosting network shall support a mechanism allowing different service providers of localized services to disseminate their services and content over broadcast/multicast transport. This mechanism should also provide means to include diverse content in the same transmission, e.g., to include advertisements with other content, or to include multiple content in the same media delivered to the user.', '', 'A hosting network shall provide multicast and broadcast services in an energy efficient manner to UEs receiving this service.', '', 'A hosting network shall support resource efficient content delivery through multicast/broadcast.', '', 'A hosting network shall support a mechanism to provide low latency signalling for efficient content delivery to many UEs.', '', 'Subject to home operator policy, a hosting network shall be able to prioritize specific multicast and broadcast services for local access over home routed access, even if the same service is available in both networks.', '']</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>0.2006030744738534</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;7.1.6.2	KPI requirement for direct device communication&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>22876-j00.docx</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>LR3_other</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>['', '&lt;span style="color:2E3033"&gt;The 5G system shall be able to support the following KPI for direct device connection as defined in Table 7.1.6-1&lt;/span&gt;', '', 'NOTE:\tThe table refers to a typical AI/ML model for image recognition i.e. a 7-bit CNN model VGG16_BN using 224&lt;span style=font-family:Symbol&gt;&amp;#x00B4;&lt;/span&gt;224&lt;span style=font-family:Symbol&gt;&amp;#x00B4;&lt;/span&gt;3 images as training data) [2]. ', '', 'Table 7.1.6-1: Latency and user experienced UL/DL data rates for uncompressed Federated Learning', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Model size&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;(8 bit VGG-16 BN) (see NOTE 2)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Mini-batch size&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;(images)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Maximum latency for trained gradient uploading and global model distribution (see NOTE 1)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;User experienced UL/DL data rate for trained gradient uploading and global model distribution (see NOTE 2)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;132 Mbyte &lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;64&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;3.24s&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;325Mbit/s&lt;/span&gt;', '', '', '', '&lt;span style="color:000000;font-size:18pt"&gt;32&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:18pt"&gt;1.9s&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:18pt"&gt;55Mbit/s&lt;/span&gt;', '', '', '', '&lt;span style="color:000000;font-size:18pt"&gt;16&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:18pt"&gt;1.3s&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:18pt"&gt;810Mbit/s&lt;/span&gt;', '', '', '', '&lt;span style="color:000000;font-size:18pt"&gt;8&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:18pt"&gt;1.1s&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:18pt"&gt;960Mbit/s&lt;/span&gt;', '', '', '', '&lt;span style="color:000000;font-size:18pt"&gt;4&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:18pt"&gt;1.04s&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:18pt"&gt;1.0Gbit/s&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:18pt"&gt;NOTE 1: Latency in this table is assumed 20 times the device GPU computation time for the given mini-batch size. &lt;/span&gt;', '', '&lt;span style="color:000000;font-size:18pt"&gt;NOTE 2: Values provided in the table are calculative needs for an 8-bit VGG16 BN model with 132MByte size [2]&lt;/span&gt;', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
+        <v>0.2431494562804011</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;7.11.1.1	General overview&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>22179-j00.docx</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>LR1_signalling</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>['', 'For MCPTT Users, one of the most important performance criteria is the MCPTT Access time (KPI 1). The MCPTT Access time is defined as the time between when an MCPTT User requests to speak (normally by pressing the MCPTT control on the UE) and when this user gets a signal to start speaking. This time does not include confirmations from receiving users.', '', "The Mouth-to-ear latency (KPI 3) is the time between an utterance by the transmitting user, and the playback of the utterance at the receiving user's speaker. Figure 7.11.1.1.1 illustrates the MCPTT Access time and Mouth-to-ear latency.", '', '----media/image9.png----', '', 'Figure 7.11.1.1-1: Illustration of MCPTT Access time and Mouth-to-ear latency', '']</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>0.2050794896154039</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;7.11.1.2	Requirements&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>22179-j00.docx</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>['', 'NOTE:\tThe MCPTT Access time and Mouth-to-ear latency for off-network use is FFS.', '']</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
+        <v>0.2136869007648982</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;7.2.3.2	Wireless road-side infrastructure backhaul&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>22261-j30.docx</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>LR1_signalling</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>['', 'Intelligent Transport Systems embrace a wide variety of communications-related applications that are intended to increase travel safety, minimize environmental impact, improve traffic management, and maximize the benefits of transportation to both commercial users and the general public. ', '', 'Road-side infrastructure such as traffic light controllers, roadside units, traffic monitoring in urban areas and along highways and streets is wirelessly connected to traffic control centres for management and control purposes. The backhaul communication between the road-side infrastructure and the traffic control centre requires low-latency, high communication service availability, and high-capacity connections for reliable distribution of data. Road-side infrastructure is deployed alongside streets in urban areas and alongside major roads and highways every 1-2 km.', '', 'For more information about infrastructure backhaul, see clause D.5.', '', 'To support wireless road-side infrastructure backhaul the 5G system shall support the performance requirements in table 7.2.3.2-1. ', '', '\t\t', '', '\t\t', '', 'Table 7.2.3.2-1 Performance requirements for wireless ITS infrastructure backhaul scenario', '', '&lt;span style="font-size:16pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Max. allowed end-to-end latency&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 1)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Survival time&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Communication service availability&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 2)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Reliability&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 2)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;User experienced data rate&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Payload&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;size&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 3)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Traffic density', '(note 4)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Connection density', '(note 5)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Service area dimension', '(note 6)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;wireless road-side infrastructure backhaul&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;30 ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;100 ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99,9999%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99,999%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;10 Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Small to big&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;10 Gbit/s/km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1 000/km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2 km along a road&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 1: &lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;This is the maximum end-to-end latency allowed for the 5G system to deliver the service in the case the end-to-end latency is completely allocated to the 5G system from the UE to the Interface to Data Network.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 2: &lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Communication service availability relates to the service interfaces, and reliability relates to a given system entity. One or more retransmissions of network layer packets can take place in order to satisfy the reliability requirement.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 3: &lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Small: payload typically ≤ 256 bytes &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 4: &lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Based on the assumption that all connected applications within the service volume require the user experienced data rate. &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 5: &lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Under the assumption of 100% 5G penetration.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 6: &lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Estimates of maximum dimensions; the last figure is the vertical dimension.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 7: &lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;All the values in this table are example values and not strict requirements. Deployment configurations should be taken into account when considering service offerings that meet the targets. &lt;/span&gt;', '', '', '', '\t\t', '']</t>
+        </is>
+      </c>
+      <c r="E220" t="n">
+        <v>0.2277775025305209</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;7.3.2.1	General&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>22261-j30.docx</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>['', 'The 5G System shall provide different 5G positioning services with configurable performances working points (e.g. accuracy, positioning service availability, positioning service latency, energy consumption, update rate, TTFF) according to the needs of users, operators and third parties.', '', 'The 5G system shall support the combination of 3GPP and non-3GPP positioning technologies to achieve performances of the 5G positioning services better than those achieved using only 3GPP positioning technologies. ', '', 'NOTE 1:\tFor instance, the combination of 3GPP positioning technologies with non-3GPP positioning technologies such as GNSS (e.g. Beidou, Galileo, GLONASS, and GPS), Terrestrial Beacon Systems (TBS), sensors (e.g. barometer, IMU), WLAN/Bluetooth-based positioning, can support the improvement of accuracy, positioning service availability, reliability and/or confidence level, the reduction of positioning service latency, the increase of the update rate of the position-related data, increase the coverage (service area).', '', 'NOTE 2:\tThe combination can vary over time to optimise the performances, and can be the combination of multiple positioning technologies at the same epoch and/or the combination of multiple positioning technologies at different epochs.', '', 'The corresponding positioning information shall be acquired in a timely fashion, be reliable, and be available (e.g. it is possible to determine the position).', '', 'UEs shall be able to share positioning information between each other e.g. to a controller if the location information cannot be processed or used locally. ', '']</t>
+        </is>
+      </c>
+      <c r="E221" t="n">
+        <v>0.1918976850774382</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;7.3.2.2	Requirements for horizontal and vertical positioning service levels&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>22261-j30.docx</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>['', 'The 5G system shall be able to provide positioning services with the performances requirements reported in Table 7.3.2.2-1.', '', 'NOTE: \tThe requirements do not preclude any type of UE, including specific UE such as for example V2X, MTC.', '', 'Table 7.3.2.2-1 Performance requirements for Horizontal and Vertical positioning service levels', '', '&lt;span style="font-size:16pt"&gt;Positioning service level&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Absolute(A) or Relative(R) positioning&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Accuracy &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(95 % confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Positioning service availability&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Positioning service latency &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Coverage, environment of use and UE velocity &lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Horizontal Accuracy &lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Vertical Accuracy&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 1)&lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;5G positioning service area&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5G enhanced positioning service area&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 2)&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Outdoor and tunnels&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Indoor&lt;/span&gt;', '', '1', '', 'A', '', '10 m', '', '3 m', '', '95 %', '', '1 s', '', 'Indoor - up to 30 km/h', '', '', '', 'Outdoor ', '', '(rural and urban) up to 250 km/h', '', '', '', 'NA', '', 'Indoor - up to 30 km/h', '', '2', '', 'A', '', '3 m', '', '3 m', '', '99 %', '', '1 s', '', 'Outdoor ', '', '(rural and urban) up to 500 km/h for trains and up to 250 km/h for other vehicles', '', 'Outdoor ', '', '(dense urban) up to 60 km/h', '', '', '', 'Along roads up to 250 km/h and along railways up to 500 km/h', '', 'Indoor - up to 30 km/h', '', '3', '', 'A', '', '1 m', '', '2 m', '', '99 %', '', '1 s', '', 'Outdoor ', '', '(rural and urban) up to 500 km/h for trains and up to 250 km/h for other vehicles', '', 'Outdoor ', '', '(dense urban) up to 60 km/h', '', '', '', 'Along roads up to 250 km/h and along railways up to 500 km/h', '', 'Indoor - up to 30 km/h', '', '4', '', 'A', '', '1 m', '', '2 m', '', '99,9 %', '', '15 ms', '', 'NA', '', 'NA', '', 'Indoor - up to 30 km/h', '', '5', '', 'A', '', '0,3 m', '', '2 m', '', '99 %', '', '1 s', '', 'Outdoor ', '', '(rural) up to 250 km/h', '', 'Outdoor ', '', '(dense urban) up to 60 km/h', '', '', '', 'Along roads and along railways up to 250 km/h', '', 'Indoor - up to 30 km/h', '', '6', '', 'A', '', '0,3 m', '', '2 m', '', '99,9 %', '', '10 ms', '', 'NA', '', 'Outdoor ', '', '(dense urban) up to 60 km/h', '', 'Indoor - up to 30 km/h', '', '7', '', 'R', '', '0,2 m', '', '0,2 m', '', '99 %', '', '1 s', '', 'Indoor and outdoor (rural, urban, dense urban) up to 30 km/h', '', 'Relative positioning is between two UEs within 10 m of each other or between one UE and 5G positioning nodes within 10 m of each other (note 3)', '', 'NOTE 1:\tThe objective for the vertical positioning requirement is to determine the floor for indoor use cases and to distinguish between superposed tracks for road and rail use cases (e.g. bridges).', '', '', '', 'NOTE 2: \tIndoor includes location inside buildings such as offices, hospital, industrial buildings. ', '', '', '', 'NOTE 3:\t5G positioning nodes are infrastructure equipment deployed in the service area to enhance positioning capabilities (e.g. beacons deployed on the perimeter of a rendezvous area or on the side of a warehouse).', '', '', '', '', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E222" t="n">
+        <v>0.2352269700474441</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;7.3.6.2	Potential KPI Requirements&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>22876-j00.docx</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>LR1_signalling</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>['', 'According to [24], some typical 3D objection model size and transmission KPI are listed in the table below', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Model Type&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Max allowed DL end-to-end latency&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Experienced data rate&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;(PC5)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Model size&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Communication service availability&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;PointPillar&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;0.14 Gbit/s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;18 MByte&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;99.99\xa0%&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;SECOND&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;0.16 Gbit/s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;20 MByte&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;99.99\xa0%&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;PV-RCNN&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;0.4 Gbit/s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;50 MByte&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;99.99\xa0%&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Voxel R-CNN (Car)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;0.22 Gbit/s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;28 MByte&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;99.99\xa0%&lt;/b&gt;&lt;/span&gt;', '', '', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E223" t="n">
+        <v>0.2479561464900156</v>
       </c>
     </row>
   </sheetData>

--- a/classified_requirements.xlsx
+++ b/classified_requirements.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E223"/>
+  <dimension ref="A1:E288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1975625151368258</v>
+        <v>0.7448899800406521</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LR3_other</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.2061612745754245</v>
+        <v>0.7801581695792764</v>
       </c>
     </row>
     <row r="4">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.2025979705918417</v>
+        <v>0.786540907489601</v>
       </c>
     </row>
     <row r="5">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.1868822749345736</v>
+        <v>0.6774721759897007</v>
       </c>
     </row>
     <row r="6">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.2034154293636458</v>
+        <v>0.7809375641627815</v>
       </c>
     </row>
     <row r="7">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.211391078034468</v>
+        <v>0.8115193160060337</v>
       </c>
     </row>
     <row r="8">
@@ -623,7 +623,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.207674632745685</v>
+        <v>0.8296871155539508</v>
       </c>
     </row>
     <row r="9">
@@ -648,7 +648,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LR3_other</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.1922865084008719</v>
+        <v>0.7292199148677035</v>
       </c>
     </row>
     <row r="10">
@@ -673,7 +673,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.2571863287726727</v>
+        <v>0.9338353398782948</v>
       </c>
     </row>
     <row r="11">
@@ -707,68 +707,68 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.1925860711661109</v>
+        <v>0.7840699720467269</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;4.3	Communication attributes&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;4.1	Description of the MCVideo service&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>22104-j00.docx</t>
+          <t>22281.docx</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>['', 'Communication in automation can be characterised by two main attributes: periodicity and determinism. ', '', 'Periodicity means that a transmission interval is repeated. For example, a transmission occurs every 15 ms. Reasons for a periodical transmission can be the periodic update of a position or the repeated monitoring of a characteristic parameter. Most periodic intervals in communication for automation are rather short. The transmission is started once and continuous unless a stop command is provided.', '', 'An aperiodic transmission is, for example, a transmission which is triggered instantaneously by an event, i.e., events are the trigger of the transmission. Events are defined by the control system or by the user. Example events are:', '', '-\tProcess events: events that come from the process when thresholds are exceeded or fallen below, e.g., temperature, pressure, level, etc.', '', '-\tDiagnostic events: events that indicate malfunctions of an automation device or module, e.g., power supply defective; short circuit; too high temperature; etc.', '', '-\tMaintenance events: events based on information that indicates necessary maintenance work to prevent the failure of an automation device.', '', 'Most events, and especially alarms, are confirmed. In this context, alarms are messages that inform a controller or operator that an event has occurred, e.g., an equipment malfunction, process deviation, or other abnormal condition requiring a response. The receipt of the alarm is acknowledged usually within a short time period by the application that received the alarm. If no acknowledgment is received from the target application after a preset time, the so-called monitoring time, the alarm is sent again after a preset time or some failure response action is started.', '', 'Determinism refers to whether the delay between transmission of a message and receipt of the message at the destination address is stable (within bounds). Usually, communication is called deterministic if it is bounded by a given threshold for the latency/transmission time. In case of a periodic transmission, the variation of the interval is bounded.', '']</t>
+          <t>['', 'MCVideo defines a service for Mission Critical video communication using 3GPP transport networks. Mission Critical refers to meeting the needs of agencies providing Public Safety services such as, but not limited to, Police, Fire and Ambulance services. Those needs include high reachability, availability and reliability of the service, low latency, real-time operating capabilities, highly secured operations, inter-operability with other services and systems, private and group communications, handling of emergencies and ability to provide prioritization, pre-emption, queuing and QoS. Although the service is designed for transport over commercial and dedicated 3GPP networks it is not expected to be limited to use over 3GPP networks. However, performance over other transport networks has not been considered when producing this document.', '', 'MCVideo service includes:', '', '--\tVideo capture and encoding of the video information;', '', '--\tSecure streaming and storing of the video information;', '', '--\tVideo decoding and rendering of the video information;', '', '--\tProcessing of the video information, including the ability to annotate video frames and recognize video features;', '', '--\tMission critical and public safety level functionality (e.g. group sessions, affiliations, end-to-end confidentiality, emergency type communications) and performance (e.g. low latency);', '', '--\tTransmission and control of the parameters relevant to those functions;', '', '--\tSecure operation such that video information can be reasonably un-impeachable when used in evidentiary procedures;', '', '--\tDefinition and configuration of MCVideo groups and applications;', '', "--\tConfiguration of the MCVideo users' profiles and of the MCVideo UEs; and", '', '--\tInteroperability with other services and systems. ', '', 'While the streaming of video is part of the MCVideo Service, the non-real-time or offline transfer of a video clip stored as a file containing video data is covered by the MCData Service as defined in 3GPP TS 22.282 [5].', '', 'An MCVideo video stream can be associated with a stand alone MCVideo group of users, or can be one of the streams of a multi-media MCX Service group.', '', 'An MCVideo UE is a device that provides video acquisition (e.g. has a camera), video rendering (has a display) or both and normally also has some encoding / decoding, communication and storage capabilities. ', '']</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.2053560458026542</v>
+        <v>0.7957941284933525</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;4.3	Overview of MCPTT Group affiliation, call and transmission&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;4.1	General&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>22179-j00.docx</t>
+          <t>22262.docx</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>['', "An MCPTT Service provides Group Call and Private Call capabilities, which have various process flows, states and permissions associated with them. The figure 4.3.1, figure 4.3.2, and figure 4.3.3 indicate the high level flows, states and permissions associated with Group Calls and Private Calls. The diagrams apply to the on-network case and off-network case, as from a user perspective the service and concepts should appear similar on the network and off the network. From a technical perspective there might be differences between the on-network states and off-network states (e.g., off the network Affiliation might not require notifying an application server of a user's affiliation and there might also be other differences in the detail depending on the extent to which the off-network capabilities can match the on-network capabilities).", '', 'If an MCPTT User wants to communicate with an MCPTT Group they have to be allowed to access the MCPTT Group (i.e., be an MCPTT Group Member), they then have to affiliate and then can have an MCPTT Group as their Selected MCPTT Group. If an MCPTT User is only affiliated to a group this is so that they can receive from the group, however if an MCPTT User has a Selected MCPTT Group this is their group for transmitting on. The differences in states enable an MCPTT User to receive from multiple MCPTT Groups, but specify which MCPTT Group they would like to transmit on.', '', '', '', '----media/image3.emf----', '', 'NOTE:\tThis diagram is for illustrative purposes only and does not supersede the requirements. The diagram is not exhaustive and does not include all the different scenarios.', '', 'Figure 4.3.1: MCPTT User state diagram- transmit and receive for a particular MCPTT Group', '', '----media/image4.emf----', '', 'NOTE:\tThis diagram is for illustrative purposes only and does not supersede the requirements. The diagram is not exhaustive and does not include all the different scenarios.', '', 'Figure 4.3.2: MCPTT User state diagram- transmit only for a particular MCPTT Group', '', '----media/image5.emf----', '', 'NOTE:\tThis diagram is for illustrative purposes only and does not supersede the requirements. The diagram is not exhaustive and does not include all the different scenarios.', '', 'Figure 4.3.3: MCPTT User state diagram- receive only for a particular MCPTT Group', '', "It is possible for an MCPTT User to be affiliated with one or more MCPTT Groups. Normally, while in operation, an MCPTT User informs the MCPTT Service about which MCPTT Groups he would like to be affiliated to. These affiliations remain in effect until the MCPTT User removes them, or changes them, or signs out of the service. Some MCPTT Users have permanent affiliations to certain MCPTT Groups and those affiliations are set up implicitly (i.e., automatically) when operating on the network. For those users, the MCPTT Group affiliation starts when the MCPTT Service successfully signs in the user and ends when the MCPTT User's explicit or implicit (e.g., due to inactivity or the turning off of all its devices) request to sign out of the MCPTT Service is acknowledged.", '', 'Every time a PTT request is granted a user can start an MCPTT&lt;i&gt; &lt;/i&gt;transmission or "talk burst". An MCPTT Group Call consists of one or more MCPTT transmissions. Whether two consecutive transmissions from same or different users are part of the same call, or the second transmission starts a new call, depends on the configurable maximum length of the inactivity period between the consecutive MCPTT transmissions. This inactivity period can be seen as a Hang Time that starts at the end of the preceding transmission. While this timer is running, the resources associated with the call stay assigned to the call (except in case of pre-emption), which could reduce the latency of future floor requests for this group versus groups who are not involved in a call. When a new transmission starts during the inactivity period, the timer is stopped, reset and restarted again at the end of that transmission.', '', 'The MCPTT Service recognizes a number of "special" group calls including: Broadcast Group Call, Emergency Group Call and Imminent Peril group call.', '', 'A Broadcast Group Call can be seen as a special group call with only one MCPTT transmission.', '', 'While the In-progress Emergency state or In-progress Imminent Peril state is active, the inactivity period is conceptually set to infinity; i.e., the resources assigned to calls during these states are never released (except in case of pre-emption). An MCPTT Emergency Group Call or an Imminent Peril group call can be seen as having an unspecified number of transmissions: essentially, all the transmissions to a group during In-progress Emergency state or In-progress Imminent Peril are part of the same MCPTT Group Call.', '', 'Conditions on starting ("commencement") and continuing an MCPTT call can be established. Usually at least the call initiator (but also other users) are kept informed via notifications of the starting, stopping, queuing, etc., of a call.', '', 'In general, commencement conditions are related to the presence on the call (i.e., participation) of certain members of the group, and/or of a minimum number of members, as well as on the availability of resources (e.g., GBR bearers) of proper ARP. If the commencement conditions are not met, the call does not start (it can be queued or rejected). Normally, commencement conditions are not checked for individual transmission within a call.', '', 'Continuation conditions are similar (though not required to be identical) to commencement conditions and get re-evaluated when pre-emption, degradation of priority, motion out of communication range, de-selection of the group or de-affiliation (explicit or implicit) occur. If the continuation conditions are not met, the call stops.', '']</t>
+          <t>['', 'Massive Internet of Things (MIoT) is one of key market segments of 5G. The typical IoT device communication is sending and receiving small data which can be delivered just in a message. Today SMS is used as message enabler for some IoT applications. However, SMS has limitation in term of service capabilities (e.g. 140 bytes payload) and performance (e.g. long latency), in addition, the overhead of control plane resource is high. There have been enhancements and optimizations on the 3GPP network capabilities to facilitate IoT applications including device triggering, small data transfer, and Non IP Data Delivery (NIDD) etc.', '', 'Nevertheless, the characteristics of MIoT devices including high density connection, flexible mobility, saving power, limited computing capability, bulk of devices, and traffic pattern of short burst of small data will bring various new demands on message communication, e.g. light weight message communication for provision and monitoring, ultra low latency and high reliability message communication for remote control, and extremely high resource efficiency for large scale connections.', '', 'The MSGin5G Service is basically designed and optimized for massive IoT device communication including thing-to-thing communication and person-to-thing communication. ', '']</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.2141004742579205</v>
+        <v>0.7282189118992007</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;5.1	Overview&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;4.1	General&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>22104-j00.docx</t>
+          <t>22262[1].docx</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -778,22 +778,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>['', 'There are two fundamental perspectives concerning dependable communication in 5G systems: the end-to-end perspective of the communication services and the network perspective (see Figure 5.1-1).', '', '----media/image3.emf----', '', 'Figure 5.1-1: Network perspective of 5G system ', '', 'The Communication Service in Figure 5.1-1 may be implemented as a logical communication link between a UE on one side and a network server on the other side, or between a UE on one side and a UE on the other side.', '', 'In some cases, a local approach (e.g. network edge) is preferred for the communication service on the network side in order to reduce the latency, to increase communication service availability, or to keep sensitive data in a non-public network on the factory site.', '', 'The tables in Clauses 5.2 through 5.5 below provide sets of requirements where periodicity and determinism are critical to meeting cyber-physical control application needs in various vertical scenarios. While many use cases have similar KPI values, the important distinction is that in order to meet the needs of different verticals and different uses, the 5G system will need to be sufficiently flexible to allow deployment configurations that can meet the different sets of KPIs specific to each use. ', '', 'Communication service availability is considered an important service performance requirement for cyber-physical applications, especially for applications with deterministic traffic. The communication service availability depends on the latency and reliability (in the context of network layer packet transmissions, as defined in TS 22.261 [2]) of the logical communication link, as well as the survival time of the cyber-physical application (see Annex C.3 for further details on these relations).', '', 'The communication service reliability requirements also depend on the operation characteristics of the corresponding cyber-physical applications. Typically, the communication services critical for the automation application also come with stringent communication service reliability requirements. Note that the communication service reliability requirement has no direct relationship with the communication service availability requirement.', '', 'The "# of UEs" in the tables in clauses 5.2 to 5.5 is intended to give an indication of the UE density that would need to be served within a given service area.', '', 'Clock synchronisation is needed in many "vertical" use cases. The requirements and tables in Clause 5.6 provide specific criteria for managing time sensitive communications in an industrial environment.', '', 'High accuracy positioning is becoming essential for Factories of the Future. The reason for this is that tracking of mobile devices as well as mobile assets is becoming increasingly important in improving processes and increasing flexibility in industrial environments, Clause 5.7 provides positioning requirements for horizontal and vertical accuracy, availability, heading, latency and UE speed in an industrial use case scenario.', '', 'An example of the relationship between reliability (in the context of network layer packet transmissions, as defined in TS 22.261 [2]), survival time and communication service availability of a logical communication link is illustrated in the following Table 5.1-1. This is done for a special case where packet errors are uncorrelated, which in many cases is an unrealistic assumption.', '', 'Table 5.1-1: Example of relationship between reliability (as defined in TS 22.261) and communication service availability when the survival time is equal to the transfer interval.', '', 'Communication service availability', '', 'Reliability', '( as defined in TS 22.261) ', '1 - p', '', '99.999 9 %', '', '99.9 %', '', '99.999 999 %', '', '99.99 %', '', '99.999 999 99 %', '', '99.999 %', '', '99.999 999 999 9 %', '', '99.999 9 %', '', '99.999 999 999 999 %', '', '99.999 99 %', '', '', '']</t>
+          <t>['', 'Massive Internet of Things (MIoT) is one of key market segments of 5G. The typical IoT device communication is sending and receiving small data which can be delivered just in a message. Today SMS is used as message enabler for some IoT applications. However, SMS has limitation in term of service capabilities (e.g. 140 bytes payload) and performance (e.g. long latency), in addition, the overhead of control plane resource is high. There have been enhancements and optimizations on the 3GPP network capabilities to facilitate IoT applications including device triggering, small data transfer, and Non IP Data Delivery (NIDD) etc.', '', 'Nevertheless, the characteristics of MIoT devices including high density connection, flexible mobility, saving power, limited computing capability, bulk of devices, and traffic pattern of short burst of small data will bring various new demands on message communication, e.g. light weight message communication for provision and monitoring, ultra low latency and high reliability message communication for remote control, and extremely high resource efficiency for large scale connections.', '', 'The MSGin5G Service is basically designed and optimized for massive IoT device communication including thing-to-thing communication and person-to-thing communication. ', '']</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.2032615037288057</v>
+        <v>0.7282189118992007</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;5.2	Periodic deterministic communication&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;4.3	AV production &lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>22104-j00.docx</t>
+          <t>22263.docx</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -803,17 +803,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>['', 'Periodic deterministic communication is periodic with stringent requirements on timeliness and availability of the communication service. A transmission occurs every transfer interval. A description of periodic deterministic communication can be found in Clauses 4.3 and 4.4. Additional information on the underlying use cases of the sets of requirements in Table 5.2-1 can be found in Annex A. Further information on characteristic parameters and influence quantities used in Table 5.2-1 can be found in Annex C. ', '', 'The 5G system shall be able to provide periodic deterministic communication with the service performance requirements for individual logical communication links that realise the communication services reported in Table\xa05.21. ', '', 'Process and asset monitoring using industrial wireless sensors is a special case of periodic deterministic communication with more relaxed requirements on timeliness and availability. These use cases put a slightly different set of requirements on the 5G system due to the specific constraints of industrial wireless sensors. These requirements for individual logical communication links are listed in Table 5.2-2 and additional information on the underlying use cases can be found in Annex A.', '', 'Smart-Grid use case information can be found in Annex A.     ', '', '', '', 'Table 5.2-1: Periodic deterministic communication service performance requirements', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value (note 1)', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum (note 2)&lt;b&gt; (note 12a)&lt;/b&gt;', '', 'Service bit rate: user experienced data rate&lt;b&gt; (note 12a)&lt;/b&gt;', '', 'Message size [byte]&lt;b&gt; (note 12a)&lt;/b&gt;', '', 'Transfer interval: target value&lt;b&gt; (note 12a)&lt;/b&gt;', '', 'Survival time&lt;b&gt; (note 12a)&lt;/b&gt;', '', 'UE ', 'speed&lt;b&gt; (note 13)&lt;/b&gt;', '', '# of UEs', '', 'Service area ', '(note 3)', '', 'Remarks', '', '99.999 % to 99.999\xa099 %', '', '~ 10 years', '', '', '', '&amp;lt; transfer interval value', '', '–', '', '50', '', '500\xa0μs ', '', '500\xa0μs', '', '≤ 75 km/h', '', '≤ 20', '', '50 m x 10\xa0m x 10\xa0m', '', 'Motion control (A.2.2.1)', '', '99.999\xa09\xa0% to 99.999\xa0999\xa0%', '', '~ 10 years', '', '&amp;lt; transfer interval value', '', '–', '', '40', '', '1 ms ', '', '1 ms', '', '≤ 75\xa0km/h', '', '≤ 50', '', '50 m x 10\xa0m x 10\xa0m', '', 'Motion control (A.2.2.1)', '', '99.999\xa09\xa0% to 99.999\xa0999\xa0%', '', '~ 10 years', '', '&amp;lt; transfer interval value', '', '–', '', '&lt;span style="color:000000"&gt;20&lt;/span&gt;', '', '2 ms ', '', '2 ms', '', '≤ 75 km/h', '', '≤\xa0100', '', '50 m x 10\xa0m x 10\xa0m', '', 'Motion control (A.2.2.1)', '', '99.999\xa09\xa0%', '', '–', '', '&amp;lt; 5 ms', '', '1 kbit/s (steady state)', '1.5 Mbit/s (fault case)', '', '&amp;lt; 1,500', '', '&amp;lt; 60 s ', '(steady state)', '≥ 1 ms (fault case)', '', 'transfer interval', '', 'stationary', '', '20', '', '30 km x 20\xa0km', '', 'Electrical Distribution – Distributed automated switching for isolation and service restoration (A.4.4); (note 5) ', '', '99.999\xa09\xa0% to 99.999\xa0999\xa0%', '', '~ 10 years', '', '&amp;lt; transfer interval value', '', '', '', '1 k', '', '≤\xa010\xa0ms', '', '10 ms', '', '-', '', '5 to 10', '', '100 m x 30\xa0m x 10\xa0m', '', 'Control-to-control in motion control (A.2.2.2); (note 9)', '', '99.999\xa09 % to 99.999\xa0999\xa0%', '', '~ 10 years', '', '&amp;lt; transfer interval value (note\xa05)', '', '50 Mbit/s', '', '', '', '≤\xa01\xa0ms', '', '3 x transfer interval', '', 'stationary', '', '2 to 5', '', '100 m x 30\xa0m x 10 m', '', 'Wired-2-wireless 100\xa0Mbit/s link replacement (A.2.2.4)', '', '99.999\xa09 % to 99.999\xa0999\xa0%', '', '~ 10 years', '', '&amp;lt; transfer interval value (note\xa05)', '', '250 Mbit/s', '', '', '', '≤\xa01\xa0ms', '', '3 x transfer interval', '', 'stationary', '', '2 to 5', '', '100 m x', '', '30 m x 10 m', '', 'Wired-2-wireless 1\xa0Gbit/s link replacement (A.2.2.4)', '', '&lt;span style="font-size:18pt"&gt;99.999\xa09\xa0% to 99.999\xa0999\xa0%&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;~ 10 years&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&amp;lt; transfer interval value&lt;/span&gt;', '', '', '', '&lt;span style="font-size:18pt"&gt;1 k&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;≤\xa050\xa0ms&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;50 ms&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;5 to 10&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;1,000 m x 30\xa0m x 10\xa0m&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Control-to-control in motion control (A.2.2.2); (note 9)&lt;/span&gt;', '', '&amp;gt; 99.999\xa09\xa0%', '', '~ 10 years', '', '&amp;lt; transfer interval value', '', '–', '', '40 to 250', '', '1\xa0ms to 50\xa0ms (note 6) (note\xa07)', '', 'transfer interval value', '', '≤ 50 km/h', '', '≤\xa02,000', '', '≤ 1 km&lt;sup&gt;2&lt;/sup&gt;', '', 'Mobile robots (A.2.2.3)', '', '99.999\xa09\xa0% to 99.999\xa0999\xa0%', '', '~ 1 month', '', '&amp;lt; transfer interval value', '', '–', '', '40 to 250', '', '4 ms to 8\xa0ms (note 7)', '', 'transfer interval value', '', '&amp;lt; 8 km/h (linear movement)', '', 'TBD', '', '50 m x 10\xa0m x 4\xa0m', '', 'Mobile control panels – remote control of e.g. assembly robots, milling machines (A.2.4.1); (note 9)', '', '99.999\xa0999\xa0%', '', '1 day', '', '&amp;lt;\xa08\xa0ms', '', '(note 14)', '', '250 kbit/s', '', '40 to 250', '', '8\xa0ms', '', '16 ms', '', 'quasi-static; up to 10\xa0km/h', '', '2 or more', '', '30\xa0m x 30\xa0m', '', 'Mobile Operation Panel: Emergency stop (connectivity availability) (A.2.4.1A)', '', '99.999\xa099\xa0%', '', '1 day', '', '&amp;lt;\xa010 ms', '', '(note 14)', '', '&amp;lt; 1 Mbit/s', '', '&amp;lt; 1024', '', '10 ms', '', '~10 ms', '', 'quasi-static; up to 10 km/h', '', '2 or more', '', '30\xa0m x 30\xa0m', '', 'Mobile Operation Panel: Safety data stream (A.2.4.1A)', '', '99.999\xa0999\xa0%', '', '1 day', '', '10\xa0ms to 100\xa0ms', '', '(note 14)', '', '10\xa0kbit/s', '', '10 to 100', '', '10\xa0ms to 100\xa0ms', '', 'transfer interval', '', 'stationary', '', '2 or more', '', '100\xa0m² to 2,000\xa0m²', '', 'Mobile Operation Panel: Control to visualization (A.2.4.1A)', '', '99.999\xa0999\xa0%', '', '1 day', '', '&amp;lt;\xa01 ms', '', '(note 14)', '', '12\xa0Mbit/s to 16\xa0Mbit/s', '', '10 to 100', '', '1 ms', '', '~\xa01 ms', '', 'stationary', '', '2 or more', '', '100\xa0m²', '', 'Mobile Operation Panel: Motion control (A.2.4.1A)', '', '99.999\xa0999\xa0%', '', '1 day', '', '&amp;lt;\xa02 ms ', '', '(note 14)', '', '16 kbit/s (UL)', '2 Mbit/s (DL)', '', '50', '', '2 ms', '', '~\xa02 ms', '', 'stationary', '', '2 or more', '', '100\xa0m²', '', 'Mobile Operation Panel: Haptic feedback data stream (A.2.4.1A)', '', '99.999\xa09\xa0% to 99.999\xa0999\xa0%', '', '~ 1 year', '', '&amp;lt; transfer interval', '', '–', '', '40 to 250', '', '', '', '&amp;lt; 12 ms (note\xa07)', '', '12 ms', '', '&amp;lt; 8 km/h (linear movement)', '', 'TBD', '', 'typically 40\xa0m x 60\xa0m; maximum 200 m x 300\xa0m', '', 'Mobile control panels -remote control of e.g. mobile cranes, mobile pumps, fixed portal cranes (A.2.4.1); (note 9)', '', '99.999\xa09\xa0% to 99.999\xa0999\xa0%', '', '≥ 1 year', '', '&amp;lt; transfer interval value', '', '–', '', '20', '', '≥\xa010\xa0ms (note\xa08)', '', '0', '', 'typically stationary', '', 'typically 10 to 20', '', 'typically ≤\xa0100 m x 100 m x 50\xa0m', '', 'Process automation – closed loop control (A.2.3.1)', '', '99.999\xa0%', '', 'TBD', '', '~ 50 ms ', '', '–', '', '~ 100', '', '~ 50 ms', '', 'TBD', '', 'stationary', '', '≤\xa0100,000', '', 'several km&lt;sup&gt;2&lt;/sup&gt; up to 100,000\xa0km&lt;sup&gt;2&lt;/sup&gt;', '', 'Primary frequency control (A.4.2); (note 9)', '', '99.999\xa0%', '', 'TBD', '', '~ 100 ms', '', '–', '', '~ 100', '', '~ 200 ms', '', 'TBD', '', 'stationary', '', '≤\xa0100,000', '', 'several km&lt;sup&gt;2&lt;/sup&gt; up to 100,000\xa0km&lt;sup&gt;2&lt;/sup&gt;', '', 'Distributed Voltage Control (A.4.3) (note 9)', '', '&amp;gt; 99.999\xa09\xa0%', '', '~ 1 year', '', '&amp;lt; transfer interval value', '', '–', '', '15 k to 250\xa0k', '', '10\xa0ms to 100\xa0ms (note\xa07)', '', 'transfer interval value', '', '≤ 50 km/h', '', '≤\xa02,000', '', '≤ 1 km&lt;sup&gt;2&lt;/sup&gt;', '', 'Mobile robots – video-operated remote control (A.2.2.3)', '', '&amp;gt; 99.999\xa09\xa0%', '', '~ 1 year', '', '&amp;lt; transfer interval value', '', '–', '', '40 to 250', '', '40 ms to 500\xa0ms (note\xa07)', '', 'transfer interval value', '', '≤ 50 km/h', '', '≤\xa02,000', '', '≤ 1 km&lt;sup&gt;2&lt;/sup&gt;', '', 'Mobile robots (A.2.2.3)', '', '99.99\xa0%', '', '≥ 1 week', '', '&amp;lt; transfer interval value', '', '–', '', '20 to 255', '', '100 ms to 60\xa0s (note 7)', '', '≥\xa03 x transfer interval value', '', 'typically stationary', '', '≤ 10,000 to 100,000', '', '≤ 10 km x 10\xa0km x 50\xa0m', '', 'Plant asset management (A.2.3.3)', '', '&amp;gt;99.999\xa0999\xa0%', '', '&amp;gt;\xa010 years', '', '&amp;lt;\xa02 ms', '', '2\xa0Mbit/s to 16\xa0Mbit/s', '', '250 to 2,000', '', '1\xa0ms', '', 'transfer interval value', '', 'stationary', '', '1', '', '&amp;lt; 100 m&lt;sup&gt;2&lt;/sup&gt;', '', 'Robotic Aided Surgery (A.6.2)', '', '&amp;gt;99.999\xa09\xa0% ', '', '&amp;gt;\xa01 year', '', '&amp;lt;\xa020 ms', '', '2\xa0Mbit/s to 16\xa0Mbit/s', '', '250 to 2,000', '', '1\xa0ms', '', 'transfer interval value', '', 'stationary', '', '2 per 1,000\xa0km&lt;sup&gt;2&lt;/sup&gt;', '', '&amp;lt; 400 km (note 12)', '', 'Robotic Aided Surgery (A.6.2)', '', '&amp;gt;99.999\xa0%', '', '&lt;span style="color:000000"&gt;&amp;gt;&amp;gt; 1 month ', '(&amp;lt; 1 year)&lt;/span&gt;', '', '&amp;lt;\xa020 ms', '', '2\xa0Mbit/s to 16\xa0Mbit/s', '', '80', '', '1\xa0ms', '', 'transfer interval value', '', 'stationary', '', '20 per 100 km&lt;sup&gt;2&lt;/sup&gt;', '', '&amp;lt; 50 km (note 12)', '', 'Robotic Aided Diagnosis (A.6.3)', '', '99.999\xa09\xa0% to 99.999\xa0999\xa0%', '', '~ 10 years', '', '&amp;lt; 0.5 x transfer interval', '', '2.5 Mbit/s', '', '&lt;span style="font-size:18pt"&gt;250', '500 with localisation information&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&amp;gt; 5 ms', '&amp;gt;\xa02.5 ms', '&amp;gt;\xa01.7 ms', '(note 10)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;0', 'transfer interval', '2 x transfer interval', '(note 10)&lt;/span&gt;', '', '≤\xa06 km/h (linear movement)', '', '2 to 8', '', '10\xa0m x 10\xa0m x 5\xa0m;', '50 m x 5\xa0m x 5\xa0m', '(note 11)', '', 'Cooperative carrying – fragile work pieces; (ProSe communication) (A.2.2.5)', '', '99.999\xa09\xa0% to 99.999\xa0999\xa0%', '', '~ 10 years', '', '&amp;lt; 0.5 x transfer interval', '', '2.5 Mbit/s', '', '&lt;span style="font-size:18pt"&gt;250', '500 with localisation information&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&amp;gt; 5 ms ', '&amp;gt;\xa02.5 ms', '&amp;gt;\xa01.7 ms (note 10)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;0', 'transfer interval', '2 x transfer interval', '(note 10)&lt;/span&gt;', '', '≤\xa012 km/h (linear movement)', '', '2 to 8', '', '10\xa0m x 10\xa0m x 5\xa0m;', '50\xa0m x 5\xa0m x 5\xa0m', '(note 11)', '', 'Cooperative carrying – elastic work pieces; (ProSe communication) (A.2.2.5)', '', '&lt;span style="font-size:18pt"&gt; &amp;gt; 99.9 %&lt;/span&gt;', '', '', '', '&lt;span style="font-size:18pt"&gt;DL: &amp;lt; 10\xa0ms', 'UL: &amp;lt; 10\xa0ms&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;UL: &amp;gt; 16\xa0Mbit/s (urban), 640\xa0Mbit/s (rural)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;DL: &amp;gt; 100\xa0kbit/s&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;(note 15)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;UL: 800\xa0kbyte&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;UL: 10\xa0ms&lt;/span&gt;', '', '', '', '', '', '&amp;gt; 10/km&lt;sup&gt;2&lt;/sup&gt; (urban), ', '', '&amp;gt; 100/km&lt;sup&gt;2&lt;/sup&gt; (rural)', '', '(note 16)', '', '', '', 'Distributed energy storage ‒ monitoring (A.4.6)', '', '', '', '&amp;gt; 99.9 %', '', '', '', 'DL: &amp;lt; 10\xa0ms', '', 'UL: &amp;lt; 1\xa0s', '', 'UL: &amp;gt; 128\xa0kbit/s (urban), 10.4\xa0Mbit/s (rural);', '', 'DL: &amp;gt; 100\xa0kbit/s', '', '(note 15)', '', 'UL: 1.3\xa0Mbyte', '', 'DL: &amp;gt; 100\xa0kbyte', '', 'UL: 1000\xa0ms', '', '', '', '', '', '&amp;gt; 10/km&lt;sup&gt;2&lt;/sup&gt; (urban), ', '', '&amp;gt; 100/km&lt;sup&gt;2&lt;/sup&gt; (rural)', '', ' (note 16)', '', '', '', 'Distributed energy storage ‒ data collection (A.4.6)', '', '', '', '&amp;gt; 99.99 %', '', '', '', 'General information data collection: &amp;lt; 3\xa0s', '', '(note 17)', '', 'UL: &amp;lt; 2\xa0Mbit/s', 'DL: &amp;lt; 1\xa0Mbit/s', '', '', '', '', '', '', '', '', '', '&amp;lt; 10,000/km&lt;sup&gt;2&lt;/sup&gt; (note 18)', '', '', '', 'Advanced metering (A.4.7)', '', '99.999 %', '', '', '', '&amp;lt; 10\xa0ms', '', '', '', '2\xa0Mbit/s to 10\xa0Mbit/s', '', '', '', 'normal: 1 s;', '', 'fault: 2 ms ', '', '(note 24)', '', '', '', '', '', '54/km²', '', '(note 19),', '', '78/km&lt;sup&gt;2&lt;/sup&gt; (note\xa020)', '', '', '', 'Intelligent distributed feeder automation (A.4.4.3)', '', '&amp;gt; 99.99 %', '', '', '', '10\xa0ms, 100\xa0ms, 3\xa0s (note 22)', '', '&amp;gt; 2\xa0Mbit/s (note 21)', '', '', '', '', '', '', '', '', '', '500 in the service area (note\xa023)', '', 'Communication distance is from 100 m to 500\xa0m, outdoor, indoor / deep indoor', '', 'Smart distribution ‒transformer terminal (A.4.8)', '', '99.999 %', '', '', '', '5 ms, 10\xa0ms, 15\xa0ms (note 25)', '', '1.2 Mbit/s to 2.5 Mbit/s', '', '&amp;lt; 245\xa0byte', '', '≤ 1 ms', '', '≤ 2\xa0ms', '', '(note 26)', '', '', '', '', '', '≤ 100/km&lt;sup&gt;2&lt;/sup&gt;', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', 'High speed current differential protection (note 12a) (A.4.4.4)', '', '99.999 9\xa0%', '', '', '', '', '', '3 ms', '', '5.4\xa0Mbit/s', '', '140\xa0byte', '', '≤ 1 ms', '', '', '', 'stationary', '', '', '', '', '', 'Distributed Energy Resources (DER) and micro-grids (A.4.9)', '', '99.999 9\xa0%', '', '', '', '', '', '100 ms', '', '(note 12a and note 5)', '', '&amp;lt; 1 kbit/s per DER', '', '', '', '', '', '', '', 'stationary', '', '', '', '', '', 'Ensuring uninterrupted communication service availability during emergencies (A.4.10)', '', '', '', 'NOTE 1:\tOne or more retransmissions of network layer packets may take place in order to satisfy the communication service availability requirement.', '', 'NOTE 2:\tUnless otherwise specified, all communication includes 1 wireless link (UE to network node or network node to UE) rather than two wireless links (UE to UE).', '', 'NOTE 3:\tLength x width (x height).', '', 'NOTE 4:\t(void)', '', 'NOTE 5:\tCommunication includes two wireless links (UE to UE).', '', 'NOTE 6:\tThis covers different transfer intervals for different similar use cases with target values of 1 ms, 1 ms to 10 ms, and 10 ms to 50 ms.', '', 'NOTE 7:\tThe transfer interval deviates around its target value by &amp;lt; ±25 %.', '', 'NOTE 8:\tThe transfer interval deviates around its target value by &amp;lt; ±5 %.', '', 'NOTE 9:\tCommunication may include two wireless links (UE to UE).', '', 'NOTE 10:\tThe first value is the application requirement, the other values are the requirement with multiple transmission of the same information (two or three times, respectively).', '', 'NOTE 11:\tService Area for direct communication between UEs. The group of UEs with direct communication might move throughout the whole factory site (up to several km²). ', '', 'NOTE 12:\tMaximum straight-line distance between UEs. ', '', 'NOTE 12a:\tIt applies to both UL and DL unless stated otherwise.', '', 'NOTE 13:\tIt applies to both linear movement and rotation unless stated otherwise. ', '', 'NOTE 14:\tThe mobile operation panel is connected wirelessly to the 5G system. If the mobile robot/production line is also connected wirelessly to the 5G system, the communication includes two wireless links.', '', 'NOTE 15:\tService bit rate for one energy storage station.', '', 'NOTE 16:\tActivity storage nodes/km&lt;sup&gt;2&lt;/sup&gt;. This value is used for deducing the data volume in an area that features multiple energy storage stations. The data volume can be calculated with the following formula (current service bit rate per storage station) x (activity storage nodes/km&lt;sup&gt;2&lt;/sup&gt;) + (video service bit rate per storage station) x (activity storage nodes/km&lt;sup&gt;2&lt;/sup&gt;). ', '', 'NOTE 17:\tOne-way delay from 5G IoT device to backend system. The distance between the two is below 40\xa0km (city range).', '', 'NOTE 18:\tTypical connection density in today’s city environment. With the evolution from centralised meters to socket meters in the home, the connection density is expected to increase 5 to 10 times. ', '', 'NOTE 19:\tWhen the distributed terminals are deployed along an overhead line, there are about 54 terminals per square kilometre. ', '', 'NOTE 20: When the distributed terminals are deployed in power distribution cabinets, there are about 78 terminals per square kilometre.', '', 'NOTE 21: Service bit rate of the smart metering application between the smart distribution transformer terminal and the energy end equipment. Once there are multiple smart grid applications, the required service bit rate will be higher.', '', 'NOTE 22:\tThe end-to-end latency depends on the applications supported by the smart distribution transformer terminal. The lower the end-to-end latency, the more applications can be supported.', '', 'NOTE 23:\tThe service area is circular with a radius between 100 m and 500 m (0.031 km&lt;sup&gt;2&lt;/sup&gt; to 0.79 km&lt;sup&gt;2&lt;/sup&gt;).', '', 'NOTE 24:\tDuring the normal working phase of the feeder system, the heartbeat packet is transmitted periodically with a 1 s transfer interval. When a fault occurs, the heartbeat is sent with a 2 ms transfer interval.', '', 'NOTE 25: The maximum allowed delay between two protection relays would be between 5 ms and 10 ms, depending on the voltage (see IEC 61850-90-1 for more details [aa]). For some legacy systems, the end-to-end latency is usually set to 15 ms.', '', 'NOTE 26: For a sampling rate of 600 Hz, the transfer interval is 1.7 ms. For 1200 Hz, the transfer interval is 0.83 ms.', '', '', '', '', '', 'Table 5.2-2: Communication service performance requirements for industrial wireless sensors', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value', '', 'Communication service reliability: mean time between failure', '', 'End-to-end latency&lt;b&gt; (note 6)&lt;/b&gt;', '', 'Transfer interval', '', '(note 1)&lt;b&gt; (note 7)&lt;/b&gt;', '', 'Service bit rate: user experienced data rate', '', '(note 2)&lt;b&gt; (note 7)&lt;/b&gt;', '', 'Battery lifetime [year]', '', '(note 3)', '', 'Message', '', 'Size', '', '[byte]&lt;b&gt; (note 7)&lt;/b&gt;', '', 'Survival time&lt;b&gt; ', '(note 7)&lt;/b&gt;', '', 'UE speed', '', 'UE density [UE / m²]', '', 'Range', '', '[m]', '', '(note 4)', '', 'Remarks', '', '99.99 %', '', '≥ 1 week', '', '&amp;lt; 100 ms', '', '100 ms to 60 s', '', '≤ 1\xa0Mbit/s', '', '≥\xa05', '', '20', '', '(note 5)', '', '3 x transfer interval', '', 'stationary', '', 'Up to 1', '', '&amp;lt;\xa0500', '', 'Process monitoring, e.g. temperature sensor (A.2.3.2)', '', '99.99 %', '', '≥ 1 week', '', '&amp;lt; 100 ms', '', '≤ 1 s', '', '≤ 200\xa0kbit/s', '', '≥\xa05', '', '25 k', '', '3 x transfer interval', '', 'stationary', '', 'Up to 0.05', '', '&amp;lt;\xa0500', '', 'Asset monitoring, e.g. vibration sensor (A.2.3.2)', '', '99.99 %', '', '≥ 1 week', '', '&amp;lt; 100 ms', '', '≤ 1 s', '', '≤ 2 Mbit/s', '', '≥\xa05', '', '250 k', '', '3 x transfer interval', '', 'stationary', '', 'Up to 0.05', '', '&amp;lt;\xa0500', '', 'Asset monitoring, e.g. thermal camera (A.2.3.2)', '', 'NOTE 1:\tThe transfer interval deviates around its target value by &amp;lt; ± 25 %.', '', 'NOTE 2:\tThe traffic is predominantly mobile originated.', '', 'NOTE 3:\tIndustrial sensors can use a wide variety of batteries depending on the use case, but in general they are highly constrained in terms of battery size.', '', 'NOTE 4:\tDistance between the gNB and the UE.', '', 'NOTE 5:\tThe application-level messages in this use case are typically transferred over Ethernet. For small messages, the minimum Ethernet frame size of 64 bytes applies and dictates the minimum size of the PDU sent over the air interface. ', '', 'NOTE 6:\tIt applies to both UL and DL unless stated otherwise.', '', 'NOTE 7: \tIt applies to UL.', '']</t>
+          <t>['', 'AV production includes television and radio studios, live news-gathering, sports events, music festivals, among others. Typically, numerous wireless devices such as microphones, in-ear monitoring systems or cameras are used in these scenarios. In the future, the wireless communication service for such devices could potentially be provided by a 5G system. AV production applications require a high degree of confidence, since they are related to the capturing and transmission of data at the beginning of a production chain. This differs drastically when compared to other multimedia services because the communication errors will be propagated to the entire audience that is consuming the content on both live and on recorded outputs. Furthermore, the transmitted data is often post-processed with filters which could actually amplify defects that would be otherwise not noticed by humans. Therefore, these applications call for uncompressed or slightly compressed data, and very low probability of errors. These devices will also be used alongside existing technologies which have a high level of performance and so any new technologies will need to match or improve upon the existing workflows to drive adoption of the technology.', '', 'The performance aspects that are covered in this document also target the latency that these services experience. Since these applications involve physical feedback on performances that are happening live, the latency requirements are very strict. One example is the transmission on professional microphones and in-ear monitors. These systems provide feedback for what the musicians are playing, and even small delays may affect their sensation of timbre, and ability to keep to the tempo of the music. ', '', 'This document also refers to how the network structure of the 5G system is configured in order to accommodate these applications. Many of these are nomadic scenarios that require simplified deployment often in different countries. For this reason, this the 5G system should enable non-public networks that can be deployed in an agile ad-hoc way.', '', 'AV production also relies on a number of other technologies that will be deployed by a 5G system such as the use of UAV’s to capture video and high bandwidth connectivity for file transfer.  Some aspects of specific 5G specifications such as direct communications between devices or multicast/broadcast could also be used to enable future user cases such as the connection of microphones to cameras and cameras to video monitors.  Where this is the case then these requirements will be in line with the specifications in those specific areas. ', '', 'AVProd workflows also require accurate timing protocols for 2 reasons', '', '1)\tTo enable multiple cameras and microphones to be synchronized thus avoiding the capture of mis-matched audio and video.', '', '2)\tTo provide IEEE-1588-2008 PTP [6] with an SMPTE 2059-2 [5] profile which is used for the accurate time stamping of IP packets ', '', 'It is anticipated that the 5G system will act as a master clock and media clocks will be generated by UE applications. Requirements for this are in line with those in 22.104. If suitable sources are available, then each device my operate from its own master clock', '']</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.2157137117177951</v>
+        <v>0.6967583466013999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;5.3	Aperiodic deterministic communication&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;4.3	Communication attributes&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -823,27 +823,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>['', 'Aperiodic deterministic communication is without a pre-set sending time, but still with stringent requirements on timeliness and availability of the communication service. A description of aperiodic deterministic communication can be found in Clauses 4.3 and 4.4. Additional information on the underlying use cases of the sets of requirements in Table 5.3-1 can be found in Annex A. Further information on characteristic parameters and influence quantities used in Table 5.3-1 can be found in Annex C. ', '', 'The 5G system shall be able to provide aperiodic deterministic communication with the service performance requirements for individual logical communication links that realise the communication services reported in Table 5.3-1.', '', 'Table 5.3-1: Aperiodic deterministic communication service performance requirements', '', 'Characteristic parameter (KPI)', '', 'Influence quantity', '', '', '', 'Communication service availability', '', 'Communication service reliability: mean time between failures', '', 'Max Allowed End-to-end latency (note\xa01)&lt;b&gt; ', '(note 5)&lt;/b&gt;', '', 'Service bit rate: user-experienced data rate&lt;b&gt; (note 5)&lt;/b&gt;', '', 'Message size [byte]&lt;b&gt; (note 5)&lt;/b&gt;', '', 'Survival time', '', 'UE speed&lt;b&gt; (note 6)&lt;/b&gt;', '', '# of UEs', '', '', '', 'Service Area (note 3)', '', 'Remarks', '', '&amp;gt; 99.999\xa09\xa0%', '', '~ 1 week', '', '10 ms', '', 'UL: &amp;gt; 10 Mbit/s', '', '–', '', '–', '', '≤ 50 km/h', '', '≤\xa02,000', '', '≤ 1 km&lt;sup&gt;2&lt;/sup&gt;', '', 'Mobile robots – video streaming (A.2.2.3)', '', '99.999\xa09\xa0% to 99.999\xa0999\xa0%', '', '~ 1 month', '', '&amp;lt; 30 ms', '', '&amp;gt; 5 Mbit/s', '', '–', '', '–', '', '&amp;lt; 8 km/h (linear movement)', '', 'TBD', '', 'TBD', '', 'Mobile control panels - parallel data transmission (A.2.4.1)', '', '99.999\xa0999\xa0%', '', '1 day', '', '&amp;lt;8\xa0ms', '', '(note 8)', '', '250 kbit/s', '', '40 to 250', '', '16 ms', '', 'quasi-static; up to 10\xa0km/h', '', '2 or more', '', '30\xa0m x 30\xa0m', '', 'Mobile Operation Panel: Emergency stop (emergency stop events) (A.2.4.1A)', '', '99.999\xa09\xa0%', '', '– ', '', '&amp;lt; 50 ms', '', '0.59 kbit/s', '28 kbit/s', '', '&amp;lt; 100', '', '–', '', 'stationary', '', '&lt;span style="color:000000"&gt;10\xa0km&lt;/span&gt;&lt;span style="color:000000"&gt;² to 100\xa0km&lt;/span&gt;&lt;span style="color:000000"&gt;²&lt;/span&gt;', '', 'TBD', '', 'Smart grid millisecond level precise load control (A.4.5)', '', '&amp;gt; 99.9\xa0%', '', '~ 1 month', '', '&amp;lt; 10 ms', '', '–', '', '–', '', '–', '', '&amp;lt; 8 km/h (linear movement)', '', '≥ 3', '', '20 m x 20 m x 4 m', '', 'Augmented reality; bi-directional transmission to image processing server (A.2.4.2)', '', '99.999\xa09\xa0% to 99.999\xa0999\xa0%', '', '~ 10 years', '', '&amp;lt; 1\xa0ms', '', '(note 4)', '', '25 Mbit/s', '', '–', '', '–', '', 'stationary', '', '2 to 5', '', '100 m x', '', '30 m x 10 m', '', 'Wired-2-wireless 100\xa0Mbit/s link replacement (A.2.2.4)', '', '99.999\xa09\xa0% to 99.999\xa0999\xa0%', '', '~ 10 years', '', '&amp;lt; 1\xa0ms', '', '(note 4)', '', '500 Mbit/s', '', '–', '', '–', '', 'stationary', '', '2 to 5', '', '100 m x', '', '30 m x 10 m', '', 'Wired-2-wireless 1\xa0Gbit/s link replacement (A.2.2.4)', '', ' &amp;gt; 99.9 %', '', '–', '', 'DL: &amp;lt; 10\xa0ms', '', 'UL:&amp;lt;1\xa0s', '', '(rural)', '', 'DL: &amp;gt; 100\xa0kbit/s UL: &amp;gt; 5\xa0Gbit/s', '(note 9)', '', '–', '', '–', '', 'stationary', '', '&amp;gt; 100', '', '', '', 'Distributed energy storage; energy storage station video (A.4.6)', '', '&amp;gt; 99.99 %', '', '–', '', '&amp;lt; 100\xa0ms (note 10);', '', 'DL:&amp;lt;1\xa0Mbit/s', '', '–', '', '–', '', '–', '', '–', '', '–', '', 'Advanced metering (A.4.7)', '', '&amp;gt; 99.999\xa0%', '', '–', '', '20 ms', '', '–', '', '&amp;lt; 100 byte', '', '–', '', '–', '', '–', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', 'Distributed automated switching for isolation and service restoration (A.4.4.1) (note 7)', '', '&amp;gt; 99.999 9\xa0%', '', '', '', '&amp;lt; 3\xa0ms', '', '–', '', '160\xa0byte', '', '–', '', '–', '', '–', '', '–', '', 'Distributed Energy Resources (DERs) and micro-grids (A.4.9) (note 7)', '', 'NOTE 1:\tUnless otherwise specified, all communication includes 1 wireless link (UE to network node or network node to UE) rather than two wireless links (UE to UE).', '', 'NOTE 2:\t(void)', '', 'NOTE 3:\tLength x width x height.', '', 'NOTE 4:\tScheduled aperiodic traffic with transfer interval (max end-to-end allowed latency &amp;lt; transfer interval). ', '', 'NOTE 5:\tIt applies to both UL and DL unless stated otherwise.', '', 'NOTE 6:\tIt applies to both linear movement and rotation unless stated otherwise. ', '', 'NOTE 7:\tCommunication includes two wireless links (UE to UE).', '', 'NOTE 8:\tThe mobile operation panel is connected wirelessly to the 5G system. If the mobile robot/production line is also connected wirelessly to the 5G system, the communication includes two wireless links.', '', 'NOTE 9:\tThe service bit rate in one energy storage station can be calculated as follows:12.5\xa0Mbytes/s x 50 containers x 8 = 5\xa0Gbit/s.', '', 'NOTE 10:\tThe maximum allowed end-to-end latency is for accuracy fee control. It is the delay for one-way communication between the backend system and the 5G IoT device. The distance between the two is 40\xa0km or lower (city range).', '', '', '']</t>
+          <t>['', 'Communication in automation can be characterised by two main attributes: periodicity and determinism. ', '', 'Periodicity means that a transmission interval is repeated. For example, a transmission occurs every 15 ms. Reasons for a periodical transmission can be the periodic update of a position or the repeated monitoring of a characteristic parameter. Most periodic intervals in communication for automation are rather short. The transmission is started once and continuous unless a stop command is provided.', '', 'An aperiodic transmission is, for example, a transmission which is triggered instantaneously by an event, i.e., events are the trigger of the transmission. Events are defined by the control system or by the user. Example events are:', '', '-\tProcess events: events that come from the process when thresholds are exceeded or fallen below, e.g., temperature, pressure, level, etc.', '', '-\tDiagnostic events: events that indicate malfunctions of an automation device or module, e.g., power supply defective; short circuit; too high temperature; etc.', '', '-\tMaintenance events: events based on information that indicates necessary maintenance work to prevent the failure of an automation device.', '', 'Most events, and especially alarms, are confirmed. In this context, alarms are messages that inform a controller or operator that an event has occurred, e.g., an equipment malfunction, process deviation, or other abnormal condition requiring a response. The receipt of the alarm is acknowledged usually within a short time period by the application that received the alarm. If no acknowledgment is received from the target application after a preset time, the so-called monitoring time, the alarm is sent again after a preset time or some failure response action is started.', '', 'Determinism refers to whether the delay between transmission of a message and receipt of the message at the destination address is stable (within bounds). Usually, communication is called deterministic if it is bounded by a given threshold for the latency/transmission time. In case of a periodic transmission, the variation of the interval is bounded.', '']</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.2175129391301303</v>
+        <v>0.8738538650502485</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;5.5	Mixed traffic&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;4.3	Overview of MCPTT Group affiliation, call and transmission&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>22104-j00.docx</t>
+          <t>22179-j00.docx</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -853,22 +853,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>['', 'Mixed traffic cannot be assigned to one of the other communication patterns exclusively. Additional information on the underlying use cases of the sets of requirements in Table 5.5-1 can be found in Annex A. Further information on characteristic parameters and influence quantities used in Table 5.5-1 can be found in Annex C. ', '', 'The 5G system shall be able to provide mixed traffic communication with the service performance requirements for individual logical communication links that realise the communication services reported in Table 5.5-1.', '', 'Table 5.5-1: Mixed traffic communication service performance requirements', '', 'Characteristic parameter (KPI)', '', 'Influence quantity', '', 'Remarks', '', 'Communication service availability', '', 'Communication service reliability: mean time between failures', '', 'Max Allowed End-to-end latency (note\xa01)&lt;b&gt; ', '(note 3)&lt;/b&gt;', '', 'Service bit rate: aggregate user-experienced data rate', '', 'Message', '', 'Size', '', '[byte]', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service Area', '', '', '', '99.999\xa0999\xa09\xa0%', '', '~ 10 years', '', '16 ms', '', '', '', '', '', '', '', 'stationary', '', '&amp;lt; 1,000', '', 'several km²', '', 'Wind power plant – control traffic (A.5.2) ', '', '99.999\xa09\xa0% to 99.999\xa099\xa0%', '', '1 day', '', '(note\xa04)', '', '12\xa0Mbit/s', '', '250 to 1,500', '', '', '', 'quasi-static; up to 10\xa0km/h', '', '2 or more', '', '30\xa0m x 30\xa0m', '', 'Mobile Operation Panel: Manufacturing data stream (A.2.4.1A)', '', 'NOTE 1:\tUnless otherwise specified, all communication includes 1 wireless link (UE to network node or network node to UE) rather than two wireless links (UE to UE).', '', 'NOTE 2:\t(void) ', '', 'NOTE 3: \tIt applies to both UL and DL unless stated otherwise.', '', 'NOTE 4:\tThe mobile operation panel is connected wirelessly to the 5G system. If the mobile robot/production line is also connected wirelessly to the 5G system, the communication includes two wireless links.', '', '', '', '', '']</t>
+          <t>['', "An MCPTT Service provides Group Call and Private Call capabilities, which have various process flows, states and permissions associated with them. The figure 4.3.1, figure 4.3.2, and figure 4.3.3 indicate the high level flows, states and permissions associated with Group Calls and Private Calls. The diagrams apply to the on-network case and off-network case, as from a user perspective the service and concepts should appear similar on the network and off the network. From a technical perspective there might be differences between the on-network states and off-network states (e.g., off the network Affiliation might not require notifying an application server of a user's affiliation and there might also be other differences in the detail depending on the extent to which the off-network capabilities can match the on-network capabilities).", '', 'If an MCPTT User wants to communicate with an MCPTT Group they have to be allowed to access the MCPTT Group (i.e., be an MCPTT Group Member), they then have to affiliate and then can have an MCPTT Group as their Selected MCPTT Group. If an MCPTT User is only affiliated to a group this is so that they can receive from the group, however if an MCPTT User has a Selected MCPTT Group this is their group for transmitting on. The differences in states enable an MCPTT User to receive from multiple MCPTT Groups, but specify which MCPTT Group they would like to transmit on.', '', '', '', '----media/image3.emf----', '', 'NOTE:\tThis diagram is for illustrative purposes only and does not supersede the requirements. The diagram is not exhaustive and does not include all the different scenarios.', '', 'Figure 4.3.1: MCPTT User state diagram- transmit and receive for a particular MCPTT Group', '', '----media/image4.emf----', '', 'NOTE:\tThis diagram is for illustrative purposes only and does not supersede the requirements. The diagram is not exhaustive and does not include all the different scenarios.', '', 'Figure 4.3.2: MCPTT User state diagram- transmit only for a particular MCPTT Group', '', '----media/image5.emf----', '', 'NOTE:\tThis diagram is for illustrative purposes only and does not supersede the requirements. The diagram is not exhaustive and does not include all the different scenarios.', '', 'Figure 4.3.3: MCPTT User state diagram- receive only for a particular MCPTT Group', '', "It is possible for an MCPTT User to be affiliated with one or more MCPTT Groups. Normally, while in operation, an MCPTT User informs the MCPTT Service about which MCPTT Groups he would like to be affiliated to. These affiliations remain in effect until the MCPTT User removes them, or changes them, or signs out of the service. Some MCPTT Users have permanent affiliations to certain MCPTT Groups and those affiliations are set up implicitly (i.e., automatically) when operating on the network. For those users, the MCPTT Group affiliation starts when the MCPTT Service successfully signs in the user and ends when the MCPTT User's explicit or implicit (e.g., due to inactivity or the turning off of all its devices) request to sign out of the MCPTT Service is acknowledged.", '', 'Every time a PTT request is granted a user can start an MCPTT&lt;i&gt; &lt;/i&gt;transmission or "talk burst". An MCPTT Group Call consists of one or more MCPTT transmissions. Whether two consecutive transmissions from same or different users are part of the same call, or the second transmission starts a new call, depends on the configurable maximum length of the inactivity period between the consecutive MCPTT transmissions. This inactivity period can be seen as a Hang Time that starts at the end of the preceding transmission. While this timer is running, the resources associated with the call stay assigned to the call (except in case of pre-emption), which could reduce the latency of future floor requests for this group versus groups who are not involved in a call. When a new transmission starts during the inactivity period, the timer is stopped, reset and restarted again at the end of that transmission.', '', 'The MCPTT Service recognizes a number of "special" group calls including: Broadcast Group Call, Emergency Group Call and Imminent Peril group call.', '', 'A Broadcast Group Call can be seen as a special group call with only one MCPTT transmission.', '', 'While the In-progress Emergency state or In-progress Imminent Peril state is active, the inactivity period is conceptually set to infinity; i.e., the resources assigned to calls during these states are never released (except in case of pre-emption). An MCPTT Emergency Group Call or an Imminent Peril group call can be seen as having an unspecified number of transmissions: essentially, all the transmissions to a group during In-progress Emergency state or In-progress Imminent Peril are part of the same MCPTT Group Call.', '', 'Conditions on starting ("commencement") and continuing an MCPTT call can be established. Usually at least the call initiator (but also other users) are kept informed via notifications of the starting, stopping, queuing, etc., of a call.', '', 'In general, commencement conditions are related to the presence on the call (i.e., participation) of certain members of the group, and/or of a minimum number of members, as well as on the availability of resources (e.g., GBR bearers) of proper ARP. If the commencement conditions are not met, the call does not start (it can be queued or rejected). Normally, commencement conditions are not checked for individual transmission within a call.', '', 'Continuation conditions are similar (though not required to be identical) to commencement conditions and get re-evaluated when pre-emption, degradation of priority, motion out of communication range, de-selection of the group or de-affiliation (explicit or implicit) occur. If the continuation conditions are not met, the call stops.', '']</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.2208672291873073</v>
+        <v>0.8368784149495644</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;6.1	Network support and exposure for UAV usage&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;4.4	Medical applications&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>22843-j00.docx</t>
+          <t>22263.docx</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -878,22 +878,22 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>['', 'CPR #', '', 'Consolidated Potential Requirement', '', 'Original PR #', '', 'Comment', '', 'CPR 6.1-001', '', 'Based on operator’s policy, the 5G system shall be able to support a method to predict, monitor network conditions and QoS (e.g. bitrate, latency, reliability) and report to 3rd party along a continuous geographic planned flight path of a UAV at specific times of its expected flight duration.', '', 'P.R 5.2.6-001', '', 'P.R 5.6.6-001', '', '', '', 'CPR 6.1-002', '', 'Based on operator’s policy, the 5G system shall be able to provide UTM with the information about geographic areas where UAV service requirements could or could not be met based on predicted network conditions and QoS (e.g. bitrate, latency, reliability).', '', 'P.R 5.2.6-002', '', '', '', 'CPR 6.1-003', '', 'Based on a 3&lt;sup&gt;rd&lt;/sup&gt; party request, the 5G system shall be able to provide to the 3&lt;sup&gt;rd&lt;/sup&gt; party alternative UAV flight paths, as long as UTM-provided required waypoints (e.g. start/end locations), required QoS, and exclusion zones are fulfilled.', '', 'P.R 5.2.6-003', '', '', '', 'CPR 6.1-004', '', 'Based on a 3&lt;sup&gt;rd&lt;/sup&gt; party request and operator’s policy, the 5G system shall be able to reconfigure network resources to provide the required QoS along a UAV planned flight path, e.g. at particular geographical area(s) and time(s).', '', 'P.R 5.2.6-004', '', '', '', 'CPR 6.1-005', '', '&lt;span style="color:000000"&gt;The 5G system shall be able to support a mechanism to enable a network operator to track a UAV which doesn’t have subscription with this network operator.&lt;/span&gt;', '', '', '', '&lt;span style="color:000000"&gt;P.R 5.7.6-001&lt;/span&gt;', '', '', '', '', '', 'CPR 6.1-006', '', 'The 5G system shall be able to support service enablement layer exposure mechanisms for the UTM or other authorized 3rd party to provide the UAV application with configuration information to route and switch traffic between one active and one standby PLMN connection, e.g. for C2 communication reliability and redundancy purpose, or to route different traffic across different PLMN connections simultaneously, e.g. C2 traffic via one PLMN and other data via the second PLMN.', '', 'NOTE 1: The above requirement can be extended to scenarios where one network is a PLMN and one is an NPN.', '', 'NOTE 2: There is no impact on legacy network selection. ', '', 'NOTE 3: It is assumed that UAV traffic handling, over each PLMN, is subject to NW control mechanisms (e.g. in accordance with MNO routing priorities, available QoS/NW resources, etc.).', '', '', '', '&lt;span style="color:000000"&gt;P.R 5.8.6-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;P.R 5.9.6-001&lt;/span&gt;', '', '', '', 'CPR 6.1-007', '', 'The 5G system shall be able to support mechanisms for the UTM to configure different aerial flight zones where UAV application settings and communication QoS may be different, and provide network and UAV with means to identify those flight zones.', '', '&lt;span style="color:000000"&gt;P.R 5.10.6-001&lt;/span&gt;', '', '', '', 'CPR 6.1-008', '', 'The 5G system shall be able to support mechanisms for the UTM to provide network and UAV with policy information including UAV application settings and communication QoS to be applied in specific aerial flight zones, e.g. based on flight zone type indicated or available to the UAV in a certain geographical location.', '', '&lt;span style="color:000000"&gt;P.R 5.10.6-002&lt;/span&gt;', '', '', '', '', '']</t>
+          <t>['', '"Medical applications" is a generic concept covering medical devices and applications involved in the delivery of care to patients. ', '', 'Medical applications deployed into operating rooms consume communication services delivered by a 5G system over an NPN. In this document, we’ll deal with hybrid operating rooms which are rooms typically equipped with advanced imaging systems such as e.g. fixed C-arms (x-ray generator and intensifiers), CT scanners (Computer Tomography) and MR scanners (Magnetic Resonance). The whole idea is that advanced imaging enables minimally-invasive surgery that is intended to be less traumatic for the patient as it minimizes incisions and allows to perform surgery procedure through one or several small cuts. This is as an example useful for cardio-vascular surgery or neurosurgery to place deep brain stimulation electrodes. ', '', 'In hybrid rooms, the different type of medical images that can be transmitted by 5G systems and processed by medical applications are e.g.:', '', '-\tUltra-high-resolution video generated by endoscopes where it is expected that some scopes will produce up to 8K uncompressed (or compressed without quality loss) video, with the perspective to support also HDR (High Dynamic Range) for larger colour gamut management (up to 10 bits per channel) as well as HFR (High Frame Rate), i.e.; up to 120 fps. This will allow surgeons to distinguish small details like thin vessels and avoid any artefact that could potentially conduct surgeons to take wrong decisions. ', '', '-\t2D Ultrasound images: A 2D ultrasound typically produces a data stream of uncompressed images of 512x512 pixels with 32 bits per pixel at 20 fps (up to 60 fps in the fastest cases), resulting in a data rate of 160 Mbit/s up to 500 Mbit/s. ', '', '-\t3D Ultrasound volumes: Dedicated 3D probes tend to work at higher data rates, i.e. above 1 Gbit/s of raw data, and are expected to reach multi gigabit data rates in future (e.g. producing 3D Cartesian volumes of 256 x 256 x 256 voxels each encoded with 24 bits at 10 volumes per second or better). ', '', '-\tCT/MR scans: Images can range from a resolution of 1024x2024 to 3000x3000 pixels where higher resolutions are used for diagnosis purpose and lower ones are more suitable to fluoroscopy. In general, the frame rate is variable (5 to 30fps typically) where higher values are used to monitor moving organs in real time. Finally, colour depths of 16bits is considered in general.', '', 'In another deployment option, when specialists and patients are located at different places, medical applications can consume communication services delivered by PLMNs. In this case, the 5G system helps decoupling location from quality of care, and save countless hours for doctors and surgeons, who will be able to “beam” themselves to operating rooms, incident sites and medical houses, rather than having to be physically present. ', '', 'The same type of images as in hybrid rooms is assumed when considering a communication over a PLMN although with different tradeoffs on image resolution, end to end latency and compression algorithms. The key here is to allocate the necessary high priority resources fulfilling SLAs suitable to the transport of medical data (with special care taken on medical data integrity and confidentiality) over a geographical area covering the place where the care is delivered.', '', 'Finally, in all types of deployments, it shall also be noted that each equipment involved in image generation, processing and display shall be synchronized thanks to a common clock either external or provided by the 5G system. The synchronization is often achieved through dedicated protocols such as e.g. PTP version 2 and allows to e.g. guarantee correct recombination of two data streams in a single and accurate A/R image by the A/R application, or enable offline replay of the whole procedure.', '']</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.2267699313305028</v>
+        <v>0.7889215407208713</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;7.1	High data rates and traffic densities&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;5.1	Overview&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>22261-j30.docx</t>
+          <t>22104-j00.docx</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -903,122 +903,122 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>['', 'Several scenarios require the support of very high data rates or traffic densities of the 5G system. The scenarios address different service areas: urban and rural areas, office and home, and special deployments (e.g. massive gatherings, broadcast, residential, and high-speed vehicles). The scenarios and their performance requirements can be found in table 7.1-1.', '', '-\tUrban macro – The general wide-area scenario in urban area', '', '-\tRural macro – The general wide-area scenario in rural area', '', '-\tIndoor hotspot – The scenario for offices and homes, and residential deployments.', '', '-\tBroadband access in a crowd – The scenario for very dense crowds, for example, at stadiums or concerts. In addition to a very high connection density the users want to share what they see and hear, putting a higher requirement on the uplink than the downlink.', '', '-\tDense urban – The scenario for pedestrian users, and users in urban vehicles, for example, in offices, city centres, shopping centres, and residential areas. The users in vehicles can be connected either directly or via an onboard base station to the network.', '', '-\tBroadcast-like services – The scenario for stationary users, pedestrian users, and users in vehicles, for example, in offices, city centres, shopping centres, residential areas, rural areas and in high speed trains. The passengers in vehicles can be connected either directly or via an onboard base station to the network.', '', '-\tHigh-speed train – The scenario for users in trains. The users can be connected either directly or via an onboard base station to the network.', '', '-\tHigh-speed vehicle – The scenario for users in road vehicles. The users can be connected either directly or via an onboard base station to the network.', '', '-\tAirplanes connectivity – The scenario for users in airplanes. The users can be connected either directly or via an onboard base station to the network.', '', 'Table 7.1-1 Performance requirements for high data rate and traffic density scenarios.', '', '', '', '&lt;span style="font-size:16pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Experienced data rate (DL)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Experienced data rate (UL)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Area traffic capacity&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(DL)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Area traffic capacity&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(UL)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Overall user density &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Activity factor&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UE speed&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Coverage&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Urban macro&lt;/span&gt;', '', '50 Mbit/s', '', '25 Mbit/s', '', '100 Gbit/s/km&lt;sup&gt;2&lt;/sup&gt;', '', '(note 4)', '', '50 Gbit/s/km&lt;sup&gt;2&lt;/sup&gt;', '', '(note 4)', '', '10 000/km&lt;sup&gt;2&lt;/sup&gt;', '', '20\xa0%', '', 'Pedestrians and users in vehicles (up to 120 km/h', '', 'Full network (note 1)', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Rural macro&lt;/span&gt;', '', '50 Mbit/s', '', '25 Mbit/s', '', '1 Gbit/s/km&lt;sup&gt;2&lt;/sup&gt;', '', '(note 4)', '', '500 Mbit/s/km&lt;sup&gt;2&lt;/sup&gt;', '', '(note 4)', '', '100/km&lt;sup&gt;2&lt;/sup&gt;', '', '20\xa0%', '', 'Pedestrians and users in vehicles (up to 120 km/h', '', 'Full network (note 1)', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Indoor hotspot&lt;/span&gt;', '', '1 Gbit/s', '', '500 Mbit/s', '', '15 Tbit/s/km&lt;sup&gt;2&lt;/sup&gt;', '', '2 Tbit/s/km&lt;sup&gt;2&lt;/sup&gt;', '', '250 000/km&lt;sup&gt;2&lt;/sup&gt;', '', 'note 2', '', 'Pedestrians', '', '&lt;span style="font-size:16pt"&gt;Office and residential &lt;/span&gt;(note 2) (note 3)', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Broadband access in a crowd&lt;/span&gt;', '', '25 Mbit/s', '', '50 Mbit/s', '', '[3,75] Tbit/s/km&lt;sup&gt;2&lt;/sup&gt;', '', '[7,5] Tbit/s/km&lt;sup&gt;2&lt;/sup&gt;', '', '[500 000]/km&lt;sup&gt;2&lt;/sup&gt;', '', '30\xa0%', '', 'Pedestrians', '', 'Confined area', '', '&lt;span style="font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Dense urban&lt;/span&gt;', '', '300 Mbit/s', '', '50 Mbit/s', '', '750 Gbit/s/km&lt;sup&gt;2&lt;/sup&gt;', '', '(note 4)', '', '125 Gbit/s/km&lt;sup&gt;2&lt;/sup&gt;', '', '(note 4)', '', '25 000/km&lt;sup&gt;2&lt;/sup&gt;', '', '10\xa0%', '', 'Pedestrians and users in vehicles (up to 60 km/h)', '', '&lt;span style="font-size:16pt"&gt;Downtown&lt;/span&gt; (note 1)', '', '&lt;span style="font-size:16pt"&gt;6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Broadcast-like services&lt;/span&gt;', '', 'Maximum 200 Mbit/s (per TV channel)', '', 'N/A or modest (e.g. 500 kbit/s per user)', '', 'N/A', '', 'N/A', '', '[15] TV channels of [20 Mbit/s] on one carrier', '', 'N/A', '', 'Stationary users, pedestrians and users in vehicles (up to 500 km/h)', '', 'Full network (note 1)', '', '&lt;span style="font-size:16pt"&gt;7&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;High-speed train&lt;/span&gt;', '', '50 Mbit/s', '', '25 Mbit/s', '', '15 Gbit/s/train', '', '7,5 Gbit/s/train', '', '1 000/train', '', '30\xa0%', '', 'Users in trains (up to 500 km/h)', '', 'Along railways', '', '(note 1)', '', '&lt;span style="font-size:16pt"&gt;8&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;High-speed vehicle&lt;/span&gt;', '', '50 Mbit/s', '', '25 Mbit/s', '', '[100] Gbit/s/km&lt;sup&gt;2&lt;/sup&gt;', '', '[50] Gbit/s/km&lt;sup&gt;2&lt;/sup&gt;', '', '4 000/km&lt;sup&gt;2&lt;/sup&gt;', '', '50\xa0%', '', 'Users in vehicles (up to 250 km/h)', '', 'Along roads', '', '(note 1)', '', '&lt;span style="font-size:16pt"&gt;9&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Airplanes connectivity&lt;/span&gt;', '', '15 Mbit/s', '', '7,5 Mbit/s', '', '1,2 Gbit/s/plane', '', '600 Mbit/s/plane', '', '400/plane', '', '20\xa0%', '', 'Users in airplanes (up to 1 000 km/h)', '', '(note 1)', '', 'NOTE 1: \tFor users in vehicles, the UE can be connected to the network directly, or via an on-board moving base station.', '', 'NOTE 2:\t\tA certain traffic mix is assumed; only some users use services that require the highest data rates [2].', '', 'NOTE 3: \tFor interactive audio and video services, for example, virtual meetings, the required two-way end-to-end latency (UL and DL) is 24 ms while the corresponding experienced data rate needs to be up to 8K 3D video [300 Mbit/s] in uplink and downlink.', '', 'NOTE 4: \tThese values are derived based on overall user density. Detailed information can be found in [10].', '', 'NOTE 5: \tAll the values in this table are targeted values and not strict requirements.', '', '', '']</t>
+          <t>['', 'There are two fundamental perspectives concerning dependable communication in 5G systems: the end-to-end perspective of the communication services and the network perspective (see Figure 5.1-1).', '', '----media/image3.emf----', '', 'Figure 5.1-1: Network perspective of 5G system ', '', 'The Communication Service in Figure 5.1-1 may be implemented as a logical communication link between a UE on one side and a network server on the other side, or between a UE on one side and a UE on the other side.', '', 'In some cases, a local approach (e.g. network edge) is preferred for the communication service on the network side in order to reduce the latency, to increase communication service availability, or to keep sensitive data in a non-public network on the factory site.', '', 'The tables in Clauses 5.2 through 5.5 below provide sets of requirements where periodicity and determinism are critical to meeting cyber-physical control application needs in various vertical scenarios. While many use cases have similar KPI values, the important distinction is that in order to meet the needs of different verticals and different uses, the 5G system will need to be sufficiently flexible to allow deployment configurations that can meet the different sets of KPIs specific to each use. ', '', 'Communication service availability is considered an important service performance requirement for cyber-physical applications, especially for applications with deterministic traffic. The communication service availability depends on the latency and reliability (in the context of network layer packet transmissions, as defined in TS 22.261 [2]) of the logical communication link, as well as the survival time of the cyber-physical application (see Annex C.3 for further details on these relations).', '', 'The communication service reliability requirements also depend on the operation characteristics of the corresponding cyber-physical applications. Typically, the communication services critical for the automation application also come with stringent communication service reliability requirements. Note that the communication service reliability requirement has no direct relationship with the communication service availability requirement.', '', 'The "# of UEs" in the tables in clauses 5.2 to 5.5 is intended to give an indication of the UE density that would need to be served within a given service area.', '', 'Clock synchronisation is needed in many "vertical" use cases. The requirements and tables in Clause 5.6 provide specific criteria for managing time sensitive communications in an industrial environment.', '', 'High accuracy positioning is becoming essential for Factories of the Future. The reason for this is that tracking of mobile devices as well as mobile assets is becoming increasingly important in improving processes and increasing flexibility in industrial environments, Clause 5.7 provides positioning requirements for horizontal and vertical accuracy, availability, heading, latency and UE speed in an industrial use case scenario.', '', 'An example of the relationship between reliability (in the context of network layer packet transmissions, as defined in TS 22.261 [2]), survival time and communication service availability of a logical communication link is illustrated in the following Table 5.1-1. This is done for a special case where packet errors are uncorrelated, which in many cases is an unrealistic assumption.', '', 'Table 5.1-1: Example of relationship between reliability (as defined in TS 22.261) and communication service availability when the survival time is equal to the transfer interval.', '', 'Communication service availability', '', 'Reliability', '( as defined in TS 22.261) ', '1 - p', '', '99.999 9 %', '', '99.9 %', '', '99.999 999 %', '', '99.99 %', '', '99.999 999 99 %', '', '99.999 %', '', '99.999 999 999 9 %', '', '99.999 9 %', '', '99.999 999 999 999 %', '', '99.999 99 %', '', '', '']</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.2161799104847844</v>
+        <v>0.8119680543474668</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;7.10	KPIs for AI/ML model transfer in 5GS&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;5.2	&lt;span style="background-color:green"&gt;Low latency and high reliability&lt;/span&gt;&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>22261-j30.docx</t>
+          <t>22289.docx</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>['', 'The 5G system shall support split AI/ML inference between UE and Network Server/Application function with performance requirements as given in Table 7.10-1.', '', 'Table 7.10-1 KPI Table of split AI/ML inference between UE and Network Server/Application function', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Uplink KPI&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Downlink KPI&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Remarks&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Max allowed UL end-to-end latency&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Experienced data rate&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Payload size&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Communication service availability&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Reliability&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Max allowed DL end-to-end latency&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Experienced data rate&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Payload size&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Reliability&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;15&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;b&gt;\xa0ms&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;144&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;b&gt;\xa0&lt;/b&gt;&lt;/span&gt;&lt;span style="font-size:16pt"&gt;M&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;b&gt;bit/s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.27 MByte&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.999\xa0%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.9\xa0%&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;99.999\xa0%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Split AI/ML image recognition&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;100\xa0ms&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1.5\xa0Mbit/s&lt;/b&gt;&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;100\xa0ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;150\xa0Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1.5 MByte/\u200cframe&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Enhanced media recognition&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;4.7\xa0Mbit/s&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;12\xa0ms&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;320\xa0Mbit/s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;40\xa0kByte&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Split control for robotics&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 1:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Communication service availability relates to the service interfaces, and reliability relates to a given system entity. One or more retransmissions of network layer packets can take place in order to satisfy the reliability requirement.&lt;/span&gt;', '', '', '', 'The 5G system shall support AI/ML model downloading with performance requirements as given in Table 7.10-2.', '', 'Table 7.10-2 KPI Table of AI/ML model downloading', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Max allowed DL end-to-end latency&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Experienced data rate&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;(DL)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Model size&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Communication service availability&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Reliability&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;User density&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;# of downloaded AI/ML models&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Remarks&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1.1Gbit/s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;138MByte&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;99.999\xa0%&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;99.9% for data transmission of model weight factors; 99.999% for data transmission of model topology&lt;/b&gt;&lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;AI/ML model distribution for image recognition&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;640Mbit/s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;80MByte&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;99.999\xa0%&lt;/b&gt;&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;AI/ML model distribution for speech recognition&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;512Mbit/s(see note 1)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;64MByte&lt;/b&gt;&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Parallel download of up to 50 AI/ML models&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Real time media editing with on-board AI inference&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1s&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;536MByte&lt;/b&gt;&lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;up to 5000~ 10000/km2 in an urban area&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;AI model management as a Service&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;22Mbit/s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;2.4MByte&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;99.999\xa0%&lt;/b&gt;&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;AI/ML based Automotive Networked Systems&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1s&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt; 500MByte&lt;/b&gt;&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Shared AI/ML model monitoring&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;3s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;450Mbit/s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;170MByte&lt;/b&gt;&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Media quality enhancement&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;NOTE 1:&lt;/b&gt;&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;&lt;b&gt;512Mbit/s concerns AI/ML models having a payload size below 64\xa0MB. TBD for larger payload sizes.&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;NOTE 2: &lt;/b&gt;&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;&lt;b&gt;Communication service availability relates to the service interfaces, and reliability relates to a given system entity. One or more retransmissions of network layer packets can take place in order to satisfy the reliability requirement.&lt;/b&gt;&lt;/span&gt;', '', '', '', 'The 5G system shall support Federated Learning between UE and Network Server/Application function with performance requirements as given in Table 7.10-3.', '', 'Table 7.10-3: KPI Table of Federated Learning between UE and Network Server/Application function', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Max allowed DL or UL end-to-end latency&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;DL experienced data rate&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;UL experienced data rate&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;DL packet size&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;UL packet size&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Communication service availability&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Remarks&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1.0Gbit/s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1.0Gbit/s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;132MByte&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;132MByte&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Uncompressed Federated Learning for image recognition&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;80.88Mbit/s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;80.88Mbit/s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;10Mbyte&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;10Mbyte&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt; TBD&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Compressed Federated Learning for image/video processing&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;TBD&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;TBD&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;10MByte&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;10MByte&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Data Transfer Disturbance in Multi-agent multi-device ML Operations&lt;/b&gt;&lt;/span&gt;', '', '', '', '', '']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.2462436406778705</v>
+        <v>0.9455455611088468</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;7.11	KPIs for tactile and multi-modal communication service&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;5.2	Periodic deterministic communication&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>22261-j30.docx</t>
+          <t>22104-j00.docx</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>['', 'The 5G system shall support tactile and multi-modal communication services with the following KPIs.', '', '&lt;b&gt;Table 7.11-1: Multi-modal communication service performance requirements&lt;/b&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Use Cases&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Characteristic parameter (KPI)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Influence quantity&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Remarks&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Max allowed end-to-end latency&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Service bit rate: user-experienced data rate&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Reliability&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Message size (byte)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;UE Speed&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Service Area&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Immersive multi-modal VR (UL: device &lt;span style=font-family:Wingdings&gt;&amp;#x00E0;&lt;/span&gt; application sever)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5 ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 2)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16 kbit/s -2 Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(without haptic compression encoding);&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;0.8 - 200 kbit/s &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(with haptic compression encoding)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.9% (without haptic compression encoding)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;99.999% (with haptic compression encoding)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1 DoF: 2-8 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3 DoFs: 6-24 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6 DoFs: 12-48 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;More DoFs can be supported by the haptic device&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;typically &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 5)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Haptic feedback&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;5 ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 1Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.99%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1500&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;typically &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 5)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Sensing information e.g. position and view information generated by the VR glasses&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Immersive multi-modal VR (DL: application sever &lt;span style=font-family:Wingdings&gt;&amp;#x00E0;&lt;/span&gt; device)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;10 ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note1)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1-100 Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.9%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1500&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;typically &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 5)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Video&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;10 ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5-512 kbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.9%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;50&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;typically &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 5)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Audio&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;5 ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 2)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16 kbit/s -2 Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(without haptic compression encoding);&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;0.8 - 200 kbit/s &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(with haptic compression encoding)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.9% (without haptic compression encoding)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;99.999% (with haptic compression encoding)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1 DoF: 2-8 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3 DoFs: 6-24 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6 DoFs: 12-48&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;typically &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 5)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Haptic feedback&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Remote control robot&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1-20ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16 kbit/s -2 Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(without haptic compression encoding);&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;0.8 - 200 kbit/s &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(with haptic compression encoding)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.999%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2-8 (1 DoF)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;high-dynamic (≤ 50 km/h)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤ 1 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Haptic feedback&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;20-100ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16 kbit/s -2 Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(without haptic compression encoding);&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;0.8 - 200 kbit/s &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(with haptic compression encoding)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.999%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2-8 (1 DoF)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤ 1 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Haptic feedback&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;5 ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1-100 Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.999%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1500&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤ 1 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Video&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;5 ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5-512 kbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.9%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;50-100&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤ 1 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Audio&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;5 ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 1Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.999%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤ 1 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Sensor information&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Skillset sharing low- dynamic robotics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(including teleoperation) Controller to controlee&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5-10ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.8 - 200 kbit/s (with compression)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99,999%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40][45]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1 DoF: 2-8 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3 DoFs: 6-24 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6 DoFs: 12-48&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Haptic &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(position, velocity)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Skillset sharing low- dynamic robotics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(including teleoperation)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Controlee to controller&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5-10ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.8 - 200 kbit/s (with compression)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;99,999%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40][45]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1 DoF: 2-8 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;10 DoFs: 20-80 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;100 DoFs: 200-800&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Haptic feedback&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;10ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1-100 Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99,999%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40] [45]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;1500&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Video&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt; 10ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5-512 kbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99,9%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40] [45]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;50&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Audio&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Skillset sharing Highly dynamic/ mobile robotics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Controller to controlee&lt;/span&gt;&lt;span style="font-size:18pt"&gt; &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1-5ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16 kbit/s -2 Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(without haptic compression encoding);&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;0.8 - 200 kbit/s &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(with haptic compression encoding)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99,999% (with compression)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;99,9% (w/o compression)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40] [45]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1 DoF: 2-8 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3 DoFs: 6-24 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6 DoFs: 12-48&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;high-dynamic&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Haptic &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(position, velocity)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Skillset sharing Highly dynamic/ mobile robotics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Controlee to controller&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1-5ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.8 - 200 kbit/s &lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;99,999% (with compression)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99,9% (w/o compression)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40] [45]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1 DoF: 2-8 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;10 DoFs: 20-80 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;100 DoFs: 200-800&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;high-dynamic&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Haptic feedback&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;1-10ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1-10 Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99,999%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40] [45]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2000-4000&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;high-dynamic&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Video&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;1-10ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;100-500 kbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99,9%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40] [45]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;100&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;high-dynamic&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Audio&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Immersive multi-modal navigation applications &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Remote Site &lt;span style=font-family:Wingdings&gt;&amp;#x00E0;&lt;/span&gt; Local Site (DL)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;50\xa0ms [39]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16\xa0kbit/s -2 Mbit/s (without haptic compression encoding);&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.8 - 200 kbit/s (with haptic compression encoding)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.999\xa0%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1 DoF: 2 to 8&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;10 DoF: 20 to 80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;100 DoF: 200 to 800&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤\xa0100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(&lt;/span&gt; &lt;span style="font-size:16pt"&gt;note\xa05)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Haptic feedback &lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&amp;lt;400\xa0ms [39]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1-100\xa0Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.999\xa0%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1500&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary/ or Pedestrian, &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤\xa0100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note\xa05)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Video&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&amp;lt;150\xa0ms [39]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5-512\xa0kbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.9\xa0%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;50&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤ 100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note\xa05)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Audio&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&amp;lt;300\xa0ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;600\xa0Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.9\xa0%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1500&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤ 100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note\xa05)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;VR&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Immersive multi-modal navigation applications Local Site &lt;span style=font-family:Wingdings&gt;&amp;#x00E0;&lt;/span&gt; Remote Site (UL)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt;300\xa0ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;12 kbit/s\xa0[26]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.999\xa0%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1500&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤ 100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note\xa05)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Biometric / Affective &lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&amp;lt;400\xa0ms [39]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1-100\xa0Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.999\xa0%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1500&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Workers: Stationary/ or Pedestrian, UAV: [30-300mph]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤ 100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note\xa05)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Video&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&amp;lt;150\xa0ms [39]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5-512\xa0kbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.9\xa0%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;50&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤\xa0100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note\xa05)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Audio&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&amp;lt;300\xa0ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;600\xa0Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.9\xa0%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1500&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤\xa0100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note\xa05)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;VR&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;NOTE 1:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Motion-to-photon delay (the time difference between the user’s motion and corresponding change of the video image on display) is less than 20 ms, and the communication latency for transferring the packets of one audio-visual media is less than 10 ms, e.g. the packets corresponding to one video/audio frame are transferred to the devices within 10 ms.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 2:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;According to IEEE 1918.1 [40] as for haptic feedback, the latency is less than 25 ms for accurately completing haptic operations. As rendering and hardware introduce some delay, the communication delay for haptic modality can be reasonably less than 5 ms, i.e. the packets related to one haptic feedback are transferred to the devices within 10 ms.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 3:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Haptic feedback is typically haptic signal, such as force level, torque level, vibration and texture. &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 4:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The latency requirements are expected to be satisfied even when multimodal communication for skillset sharing is via indirect network connection (i.e., relayed by one UE to network relay). &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 5:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;In practice, the service area depends on the actual deployment. In some cases a local approach (e.g. the application servers are hosted at the network edge) is preferred in order to satisfy the requirements of low latency and high reliability.&lt;/span&gt;', '', '', '', '', '']</t>
+          <t>['', 'Periodic deterministic communication is periodic with stringent requirements on timeliness and availability of the communication service. A transmission occurs every transfer interval. A description of periodic deterministic communication can be found in Clauses 4.3 and 4.4. Additional information on the underlying use cases of the sets of requirements in Table 5.2-1 can be found in Annex A. Further information on characteristic parameters and influence quantities used in Table 5.2-1 can be found in Annex C. ', '', 'The 5G system shall be able to provide periodic deterministic communication with the service performance requirements for individual logical communication links that realise the communication services reported in Table\xa05.21. ', '', 'Process and asset monitoring using industrial wireless sensors is a special case of periodic deterministic communication with more relaxed requirements on timeliness and availability. These use cases put a slightly different set of requirements on the 5G system due to the specific constraints of industrial wireless sensors. These requirements for individual logical communication links are listed in Table 5.2-2 and additional information on the underlying use cases can be found in Annex A.', '', 'Smart-Grid use case information can be found in Annex A.     ', '', '', '', 'Table 5.2-1: Periodic deterministic communication service performance requirements', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value (note 1)', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum (note 2)&lt;b&gt; (note 12a)&lt;/b&gt;', '', 'Service bit rate: user experienced data rate&lt;b&gt; (note 12a)&lt;/b&gt;', '', 'Message size [byte]&lt;b&gt; (note 12a)&lt;/b&gt;', '', 'Transfer interval: target value&lt;b&gt; (note 12a)&lt;/b&gt;', '', 'Survival time&lt;b&gt; (note 12a)&lt;/b&gt;', '', 'UE ', 'speed&lt;b&gt; (note 13)&lt;/b&gt;', '', '# of UEs', '', 'Service area ', '(note 3)', '', 'Remarks', '', '99.999 % to 99.999\xa099 %', '', '~ 10 years', '', '', '', '&amp;lt; transfer interval value', '', '–', '', '50', '', '500\xa0μs ', '', '500\xa0μs', '', '≤ 75 km/h', '', '≤ 20', '', '50 m x 10\xa0m x 10\xa0m', '', 'Motion control (A.2.2.1)', '', '99.999\xa09\xa0% to 99.999\xa0999\xa0%', '', '~ 10 years', '', '&amp;lt; transfer interval value', '', '–', '', '40', '', '1 ms ', '', '1 ms', '', '≤ 75\xa0km/h', '', '≤ 50', '', '50 m x 10\xa0m x 10\xa0m', '', 'Motion control (A.2.2.1)', '', '99.999\xa09\xa0% to 99.999\xa0999\xa0%', '', '~ 10 years', '', '&amp;lt; transfer interval value', '', '–', '', '&lt;span style="color:000000"&gt;20&lt;/span&gt;', '', '2 ms ', '', '2 ms', '', '≤ 75 km/h', '', '≤\xa0100', '', '50 m x 10\xa0m x 10\xa0m', '', 'Motion control (A.2.2.1)', '', '99.999\xa09\xa0%', '', '–', '', '&amp;lt; 5 ms', '', '1 kbit/s (steady state)', '1.5 Mbit/s (fault case)', '', '&amp;lt; 1,500', '', '&amp;lt; 60 s ', '(steady state)', '≥ 1 ms (fault case)', '', 'transfer interval', '', 'stationary', '', '20', '', '30 km x 20\xa0km', '', 'Electrical Distribution – Distributed automated switching for isolation and service restoration (A.4.4); (note 5) ', '', '99.999\xa09\xa0% to 99.999\xa0999\xa0%', '', '~ 10 years', '', '&amp;lt; transfer interval value', '', '', '', '1 k', '', '≤\xa010\xa0ms', '', '10 ms', '', '-', '', '5 to 10', '', '100 m x 30\xa0m x 10\xa0m', '', 'Control-to-control in motion control (A.2.2.2); (note 9)', '', '99.999\xa09 % to 99.999\xa0999\xa0%', '', '~ 10 years', '', '&amp;lt; transfer interval value (note\xa05)', '', '50 Mbit/s', '', '', '', '≤\xa01\xa0ms', '', '3 x transfer interval', '', 'stationary', '', '2 to 5', '', '100 m x 30\xa0m x 10 m', '', 'Wired-2-wireless 100\xa0Mbit/s link replacement (A.2.2.4)', '', '99.999\xa09 % to 99.999\xa0999\xa0%', '', '~ 10 years', '', '&amp;lt; transfer interval value (note\xa05)', '', '250 Mbit/s', '', '', '', '≤\xa01\xa0ms', '', '3 x transfer interval', '', 'stationary', '', '2 to 5', '', '100 m x', '', '30 m x 10 m', '', 'Wired-2-wireless 1\xa0Gbit/s link replacement (A.2.2.4)', '', '&lt;span style="font-size:18pt"&gt;99.999\xa09\xa0% to 99.999\xa0999\xa0%&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;~ 10 years&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&amp;lt; transfer interval value&lt;/span&gt;', '', '', '', '&lt;span style="font-size:18pt"&gt;1 k&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;≤\xa050\xa0ms&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;50 ms&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;5 to 10&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;1,000 m x 30\xa0m x 10\xa0m&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Control-to-control in motion control (A.2.2.2); (note 9)&lt;/span&gt;', '', '&amp;gt; 99.999\xa09\xa0%', '', '~ 10 years', '', '&amp;lt; transfer interval value', '', '–', '', '40 to 250', '', '1\xa0ms to 50\xa0ms (note 6) (note\xa07)', '', 'transfer interval value', '', '≤ 50 km/h', '', '≤\xa02,000', '', '≤ 1 km&lt;sup&gt;2&lt;/sup&gt;', '', 'Mobile robots (A.2.2.3)', '', '99.999\xa09\xa0% to 99.999\xa0999\xa0%', '', '~ 1 month', '', '&amp;lt; transfer interval value', '', '–', '', '40 to 250', '', '4 ms to 8\xa0ms (note 7)', '', 'transfer interval value', '', '&amp;lt; 8 km/h (linear movement)', '', 'TBD', '', '50 m x 10\xa0m x 4\xa0m', '', 'Mobile control panels – remote control of e.g. assembly robots, milling machines (A.2.4.1); (note 9)', '', '99.999\xa0999\xa0%', '', '1 day', '', '&amp;lt;\xa08\xa0ms', '', '(note 14)', '', '250 kbit/s', '', '40 to 250', '', '8\xa0ms', '', '16 ms', '', 'quasi-static; up to 10\xa0km/h', '', '2 or more', '', '30\xa0m x 30\xa0m', '', 'Mobile Operation Panel: Emergency stop (connectivity availability) (A.2.4.1A)', '', '99.999\xa099\xa0%', '', '1 day', '', '&amp;lt;\xa010 ms', '', '(note 14)', '', '&amp;lt; 1 Mbit/s', '', '&amp;lt; 1024', '', '10 ms', '', '~10 ms', '', 'quasi-static; up to 10 km/h', '', '2 or more', '', '30\xa0m x 30\xa0m', '', 'Mobile Operation Panel: Safety data stream (A.2.4.1A)', '', '99.999\xa0999\xa0%', '', '1 day', '', '10\xa0ms to 100\xa0ms', '', '(note 14)', '', '10\xa0kbit/s', '', '10 to 100', '', '10\xa0ms to 100\xa0ms', '', 'transfer interval', '', 'stationary', '', '2 or more', '', '100\xa0m² to 2,000\xa0m²', '', 'Mobile Operation Panel: Control to visualization (A.2.4.1A)', '', '99.999\xa0999\xa0%', '', '1 day', '', '&amp;lt;\xa01 ms', '', '(note 14)', '', '12\xa0Mbit/s to 16\xa0Mbit/s', '', '10 to 100', '', '1 ms', '', '~\xa01 ms', '', 'stationary', '', '2 or more', '', '100\xa0m²', '', 'Mobile Operation Panel: Motion control (A.2.4.1A)', '', '99.999\xa0999\xa0%', '', '1 day', '', '&amp;lt;\xa02 ms ', '', '(note 14)', '', '16 kbit/s (UL)', '2 Mbit/s (DL)', '', '50', '', '2 ms', '', '~\xa02 ms', '', 'stationary', '', '2 or more', '', '100\xa0m²', '', 'Mobile Operation Panel: Haptic feedback data stream (A.2.4.1A)', '', '99.999\xa09\xa0% to 99.999\xa0999\xa0%', '', '~ 1 year', '', '&amp;lt; transfer interval', '', '–', '', '40 to 250', '', '', '', '&amp;lt; 12 ms (note\xa07)', '', '12 ms', '', '&amp;lt; 8 km/h (linear movement)', '', 'TBD', '', 'typically 40\xa0m x 60\xa0m; maximum 200 m x 300\xa0m', '', 'Mobile control panels -remote control of e.g. mobile cranes, mobile pumps, fixed portal cranes (A.2.4.1); (note 9)', '', '99.999\xa09\xa0% to 99.999\xa0999\xa0%', '', '≥ 1 year', '', '&amp;lt; transfer interval value', '', '–', '', '20', '', '≥\xa010\xa0ms (note\xa08)', '', '0', '', 'typically stationary', '', 'typically 10 to 20', '', 'typically ≤\xa0100 m x 100 m x 50\xa0m', '', 'Process automation – closed loop control (A.2.3.1)', '', '99.999\xa0%', '', 'TBD', '', '~ 50 ms ', '', '–', '', '~ 100', '', '~ 50 ms', '', 'TBD', '', 'stationary', '', '≤\xa0100,000', '', 'several km&lt;sup&gt;2&lt;/sup&gt; up to 100,000\xa0km&lt;sup&gt;2&lt;/sup&gt;', '', 'Primary frequency control (A.4.2); (note 9)', '', '99.999\xa0%', '', 'TBD', '', '~ 100 ms', '', '–', '', '~ 100', '', '~ 200 ms', '', 'TBD', '', 'stationary', '', '≤\xa0100,000', '', 'several km&lt;sup&gt;2&lt;/sup&gt; up to 100,000\xa0km&lt;sup&gt;2&lt;/sup&gt;', '', 'Distributed Voltage Control (A.4.3) (note 9)', '', '&amp;gt; 99.999\xa09\xa0%', '', '~ 1 year', '', '&amp;lt; transfer interval value', '', '–', '', '15 k to 250\xa0k', '', '10\xa0ms to 100\xa0ms (note\xa07)', '', 'transfer interval value', '', '≤ 50 km/h', '', '≤\xa02,000', '', '≤ 1 km&lt;sup&gt;2&lt;/sup&gt;', '', 'Mobile robots – video-operated remote control (A.2.2.3)', '', '&amp;gt; 99.999\xa09\xa0%', '', '~ 1 year', '', '&amp;lt; transfer interval value', '', '–', '', '40 to 250', '', '40 ms to 500\xa0ms (note\xa07)', '', 'transfer interval value', '', '≤ 50 km/h', '', '≤\xa02,000', '', '≤ 1 km&lt;sup&gt;2&lt;/sup&gt;', '', 'Mobile robots (A.2.2.3)', '', '99.99\xa0%', '', '≥ 1 week', '', '&amp;lt; transfer interval value', '', '–', '', '20 to 255', '', '100 ms to 60\xa0s (note 7)', '', '≥\xa03 x transfer interval value', '', 'typically stationary', '', '≤ 10,000 to 100,000', '', '≤ 10 km x 10\xa0km x 50\xa0m', '', 'Plant asset management (A.2.3.3)', '', '&amp;gt;99.999\xa0999\xa0%', '', '&amp;gt;\xa010 years', '', '&amp;lt;\xa02 ms', '', '2\xa0Mbit/s to 16\xa0Mbit/s', '', '250 to 2,000', '', '1\xa0ms', '', 'transfer interval value', '', 'stationary', '', '1', '', '&amp;lt; 100 m&lt;sup&gt;2&lt;/sup&gt;', '', 'Robotic Aided Surgery (A.6.2)', '', '&amp;gt;99.999\xa09\xa0% ', '', '&amp;gt;\xa01 year', '', '&amp;lt;\xa020 ms', '', '2\xa0Mbit/s to 16\xa0Mbit/s', '', '250 to 2,000', '', '1\xa0ms', '', 'transfer interval value', '', 'stationary', '', '2 per 1,000\xa0km&lt;sup&gt;2&lt;/sup&gt;', '', '&amp;lt; 400 km (note 12)', '', 'Robotic Aided Surgery (A.6.2)', '', '&amp;gt;99.999\xa0%', '', '&lt;span style="color:000000"&gt;&amp;gt;&amp;gt; 1 month ', '(&amp;lt; 1 year)&lt;/span&gt;', '', '&amp;lt;\xa020 ms', '', '2\xa0Mbit/s to 16\xa0Mbit/s', '', '80', '', '1\xa0ms', '', 'transfer interval value', '', 'stationary', '', '20 per 100 km&lt;sup&gt;2&lt;/sup&gt;', '', '&amp;lt; 50 km (note 12)', '', 'Robotic Aided Diagnosis (A.6.3)', '', '99.999\xa09\xa0% to 99.999\xa0999\xa0%', '', '~ 10 years', '', '&amp;lt; 0.5 x transfer interval', '', '2.5 Mbit/s', '', '&lt;span style="font-size:18pt"&gt;250', '500 with localisation information&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&amp;gt; 5 ms', '&amp;gt;\xa02.5 ms', '&amp;gt;\xa01.7 ms', '(note 10)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;0', 'transfer interval', '2 x transfer interval', '(note 10)&lt;/span&gt;', '', '≤\xa06 km/h (linear movement)', '', '2 to 8', '', '10\xa0m x 10\xa0m x 5\xa0m;', '50 m x 5\xa0m x 5\xa0m', '(note 11)', '', 'Cooperative carrying – fragile work pieces; (ProSe communication) (A.2.2.5)', '', '99.999\xa09\xa0% to 99.999\xa0999\xa0%', '', '~ 10 years', '', '&amp;lt; 0.5 x transfer interval', '', '2.5 Mbit/s', '', '&lt;span style="font-size:18pt"&gt;250', '500 with localisation information&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&amp;gt; 5 ms ', '&amp;gt;\xa02.5 ms', '&amp;gt;\xa01.7 ms (note 10)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;0', 'transfer interval', '2 x transfer interval', '(note 10)&lt;/span&gt;', '', '≤\xa012 km/h (linear movement)', '', '2 to 8', '', '10\xa0m x 10\xa0m x 5\xa0m;', '50\xa0m x 5\xa0m x 5\xa0m', '(note 11)', '', 'Cooperative carrying – elastic work pieces; (ProSe communication) (A.2.2.5)', '', '&lt;span style="font-size:18pt"&gt; &amp;gt; 99.9 %&lt;/span&gt;', '', '', '', '&lt;span style="font-size:18pt"&gt;DL: &amp;lt; 10\xa0ms', 'UL: &amp;lt; 10\xa0ms&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;UL: &amp;gt; 16\xa0Mbit/s (urban), 640\xa0Mbit/s (rural)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;DL: &amp;gt; 100\xa0kbit/s&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;(note 15)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;UL: 800\xa0kbyte&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;UL: 10\xa0ms&lt;/span&gt;', '', '', '', '', '', '&amp;gt; 10/km&lt;sup&gt;2&lt;/sup&gt; (urban), ', '', '&amp;gt; 100/km&lt;sup&gt;2&lt;/sup&gt; (rural)', '', '(note 16)', '', '', '', 'Distributed energy storage ‒ monitoring (A.4.6)', '', '', '', '&amp;gt; 99.9 %', '', '', '', 'DL: &amp;lt; 10\xa0ms', '', 'UL: &amp;lt; 1\xa0s', '', 'UL: &amp;gt; 128\xa0kbit/s (urban), 10.4\xa0Mbit/s (rural);', '', 'DL: &amp;gt; 100\xa0kbit/s', '', '(note 15)', '', 'UL: 1.3\xa0Mbyte', '', 'DL: &amp;gt; 100\xa0kbyte', '', 'UL: 1000\xa0ms', '', '', '', '', '', '&amp;gt; 10/km&lt;sup&gt;2&lt;/sup&gt; (urban), ', '', '&amp;gt; 100/km&lt;sup&gt;2&lt;/sup&gt; (rural)', '', ' (note 16)', '', '', '', 'Distributed energy storage ‒ data collection (A.4.6)', '', '', '', '&amp;gt; 99.99 %', '', '', '', 'General information data collection: &amp;lt; 3\xa0s', '', '(note 17)', '', 'UL: &amp;lt; 2\xa0Mbit/s', 'DL: &amp;lt; 1\xa0Mbit/s', '', '', '', '', '', '', '', '', '', '&amp;lt; 10,000/km&lt;sup&gt;2&lt;/sup&gt; (note 18)', '', '', '', 'Advanced metering (A.4.7)', '', '99.999 %', '', '', '', '&amp;lt; 10\xa0ms', '', '', '', '2\xa0Mbit/s to 10\xa0Mbit/s', '', '', '', 'normal: 1 s;', '', 'fault: 2 ms ', '', '(note 24)', '', '', '', '', '', '54/km²', '', '(note 19),', '', '78/km&lt;sup&gt;2&lt;/sup&gt; (note\xa020)', '', '', '', 'Intelligent distributed feeder automation (A.4.4.3)', '', '&amp;gt; 99.99 %', '', '', '', '10\xa0ms, 100\xa0ms, 3\xa0s (note 22)', '', '&amp;gt; 2\xa0Mbit/s (note 21)', '', '', '', '', '', '', '', '', '', '500 in the service area (note\xa023)', '', 'Communication distance is from 100 m to 500\xa0m, outdoor, indoor / deep indoor', '', 'Smart distribution ‒transformer terminal (A.4.8)', '', '99.999 %', '', '', '', '5 ms, 10\xa0ms, 15\xa0ms (note 25)', '', '1.2 Mbit/s to 2.5 Mbit/s', '', '&amp;lt; 245\xa0byte', '', '≤ 1 ms', '', '≤ 2\xa0ms', '', '(note 26)', '', '', '', '', '', '≤ 100/km&lt;sup&gt;2&lt;/sup&gt;', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', 'High speed current differential protection (note 12a) (A.4.4.4)', '', '99.999 9\xa0%', '', '', '', '', '', '3 ms', '', '5.4\xa0Mbit/s', '', '140\xa0byte', '', '≤ 1 ms', '', '', '', 'stationary', '', '', '', '', '', 'Distributed Energy Resources (DER) and micro-grids (A.4.9)', '', '99.999 9\xa0%', '', '', '', '', '', '100 ms', '', '(note 12a and note 5)', '', '&amp;lt; 1 kbit/s per DER', '', '', '', '', '', '', '', 'stationary', '', '', '', '', '', 'Ensuring uninterrupted communication service availability during emergencies (A.4.10)', '', '', '', 'NOTE 1:\tOne or more retransmissions of network layer packets may take place in order to satisfy the communication service availability requirement.', '', 'NOTE 2:\tUnless otherwise specified, all communication includes 1 wireless link (UE to network node or network node to UE) rather than two wireless links (UE to UE).', '', 'NOTE 3:\tLength x width (x height).', '', 'NOTE 4:\t(void)', '', 'NOTE 5:\tCommunication includes two wireless links (UE to UE).', '', 'NOTE 6:\tThis covers different transfer intervals for different similar use cases with target values of 1 ms, 1 ms to 10 ms, and 10 ms to 50 ms.', '', 'NOTE 7:\tThe transfer interval deviates around its target value by &amp;lt; ±25 %.', '', 'NOTE 8:\tThe transfer interval deviates around its target value by &amp;lt; ±5 %.', '', 'NOTE 9:\tCommunication may include two wireless links (UE to UE).', '', 'NOTE 10:\tThe first value is the application requirement, the other values are the requirement with multiple transmission of the same information (two or three times, respectively).', '', 'NOTE 11:\tService Area for direct communication between UEs. The group of UEs with direct communication might move throughout the whole factory site (up to several km²). ', '', 'NOTE 12:\tMaximum straight-line distance between UEs. ', '', 'NOTE 12a:\tIt applies to both UL and DL unless stated otherwise.', '', 'NOTE 13:\tIt applies to both linear movement and rotation unless stated otherwise. ', '', 'NOTE 14:\tThe mobile operation panel is connected wirelessly to the 5G system. If the mobile robot/production line is also connected wirelessly to the 5G system, the communication includes two wireless links.', '', 'NOTE 15:\tService bit rate for one energy storage station.', '', 'NOTE 16:\tActivity storage nodes/km&lt;sup&gt;2&lt;/sup&gt;. This value is used for deducing the data volume in an area that features multiple energy storage stations. The data volume can be calculated with the following formula (current service bit rate per storage station) x (activity storage nodes/km&lt;sup&gt;2&lt;/sup&gt;) + (video service bit rate per storage station) x (activity storage nodes/km&lt;sup&gt;2&lt;/sup&gt;). ', '', 'NOTE 17:\tOne-way delay from 5G IoT device to backend system. The distance between the two is below 40\xa0km (city range).', '', 'NOTE 18:\tTypical connection density in today’s city environment. With the evolution from centralised meters to socket meters in the home, the connection density is expected to increase 5 to 10 times. ', '', 'NOTE 19:\tWhen the distributed terminals are deployed along an overhead line, there are about 54 terminals per square kilometre. ', '', 'NOTE 20: When the distributed terminals are deployed in power distribution cabinets, there are about 78 terminals per square kilometre.', '', 'NOTE 21: Service bit rate of the smart metering application between the smart distribution transformer terminal and the energy end equipment. Once there are multiple smart grid applications, the required service bit rate will be higher.', '', 'NOTE 22:\tThe end-to-end latency depends on the applications supported by the smart distribution transformer terminal. The lower the end-to-end latency, the more applications can be supported.', '', 'NOTE 23:\tThe service area is circular with a radius between 100 m and 500 m (0.031 km&lt;sup&gt;2&lt;/sup&gt; to 0.79 km&lt;sup&gt;2&lt;/sup&gt;).', '', 'NOTE 24:\tDuring the normal working phase of the feeder system, the heartbeat packet is transmitted periodically with a 1 s transfer interval. When a fault occurs, the heartbeat is sent with a 2 ms transfer interval.', '', 'NOTE 25: The maximum allowed delay between two protection relays would be between 5 ms and 10 ms, depending on the voltage (see IEC 61850-90-1 for more details [aa]). For some legacy systems, the end-to-end latency is usually set to 15 ms.', '', 'NOTE 26: For a sampling rate of 600 Hz, the transfer interval is 1.7 ms. For 1200 Hz, the transfer interval is 0.83 ms.', '', '', '', '', '', 'Table 5.2-2: Communication service performance requirements for industrial wireless sensors', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value', '', 'Communication service reliability: mean time between failure', '', 'End-to-end latency&lt;b&gt; (note 6)&lt;/b&gt;', '', 'Transfer interval', '', '(note 1)&lt;b&gt; (note 7)&lt;/b&gt;', '', 'Service bit rate: user experienced data rate', '', '(note 2)&lt;b&gt; (note 7)&lt;/b&gt;', '', 'Battery lifetime [year]', '', '(note 3)', '', 'Message', '', 'Size', '', '[byte]&lt;b&gt; (note 7)&lt;/b&gt;', '', 'Survival time&lt;b&gt; ', '(note 7)&lt;/b&gt;', '', 'UE speed', '', 'UE density [UE / m²]', '', 'Range', '', '[m]', '', '(note 4)', '', 'Remarks', '', '99.99 %', '', '≥ 1 week', '', '&amp;lt; 100 ms', '', '100 ms to 60 s', '', '≤ 1\xa0Mbit/s', '', '≥\xa05', '', '20', '', '(note 5)', '', '3 x transfer interval', '', 'stationary', '', 'Up to 1', '', '&amp;lt;\xa0500', '', 'Process monitoring, e.g. temperature sensor (A.2.3.2)', '', '99.99 %', '', '≥ 1 week', '', '&amp;lt; 100 ms', '', '≤ 1 s', '', '≤ 200\xa0kbit/s', '', '≥\xa05', '', '25 k', '', '3 x transfer interval', '', 'stationary', '', 'Up to 0.05', '', '&amp;lt;\xa0500', '', 'Asset monitoring, e.g. vibration sensor (A.2.3.2)', '', '99.99 %', '', '≥ 1 week', '', '&amp;lt; 100 ms', '', '≤ 1 s', '', '≤ 2 Mbit/s', '', '≥\xa05', '', '250 k', '', '3 x transfer interval', '', 'stationary', '', 'Up to 0.05', '', '&amp;lt;\xa0500', '', 'Asset monitoring, e.g. thermal camera (A.2.3.2)', '', 'NOTE 1:\tThe transfer interval deviates around its target value by &amp;lt; ± 25 %.', '', 'NOTE 2:\tThe traffic is predominantly mobile originated.', '', 'NOTE 3:\tIndustrial sensors can use a wide variety of batteries depending on the use case, but in general they are highly constrained in terms of battery size.', '', 'NOTE 4:\tDistance between the gNB and the UE.', '', 'NOTE 5:\tThe application-level messages in this use case are typically transferred over Ethernet. For small messages, the minimum Ethernet frame size of 64 bytes applies and dictates the minimum size of the PDU sent over the air interface. ', '', 'NOTE 6:\tIt applies to both UL and DL unless stated otherwise.', '', 'NOTE 7: \tIt applies to UL.', '']</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.2474733267048287</v>
+        <v>0.8633803325270506</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;7.2	Consolidated potential KPIs of sensing results&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;5.2	Requirements to support Vehicles Platooning&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>22837-j00.docx</t>
+          <t>22186.docx</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>['', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service level&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area &lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[ms]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[s]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Missed detection&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Example Services&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Object detection and tracking&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1 (use cases 5.1; 5.13 – level1)&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Object to be detected indoor: Human, object to be detected outdoor: UAV&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤10&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤10&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;10 &lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE 2&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;10&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE 3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt;1000&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 2&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;intruder detection in smart home,&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;UAV intrusion detection&lt;/span&gt;', '', '', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;2 (use cases 5.13 – level2, 5.6)&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Object to be detected outdoor:&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Human, UAV&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;10 &lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE 2&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;10&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE 3&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤1000]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤1]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;UAV flight route intrusion detection,&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;intruder detection in surroundings of smart home&lt;/span&gt;', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;3 (use cases 5.2, 5.7, 5.10, 5.11, 5.12, 5.23)&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Factory (100m2), crossroad, highway, railway [air]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE 4&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Object to be detected: Animal, Human, UAV, Vehicle&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE\xa05&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;&amp;lt;1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE\xa05&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE\xa08&lt;/span&gt;', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1 x 1 NOTE\xa09&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤100 ≤1000&lt;/span&gt;', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE\xa06&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE\xa010&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≥0.05 ÷ ≤ 0.1 ≤ 1]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE\xa011&lt;/span&gt;', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤2&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤2&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;pedestrian/animal intrusion detection on a highway/railway,&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;sensing at crossroads with/without obstacle,&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;UAV flight trajectory tracing&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;UAV collision avoidance,&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;AMR collision avoidance in smart factories&lt;/span&gt;', '', '', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;4 (use cases 5.20, 5.22, 5.25, 5.27, 5.32)&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Public area safety, factory&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE 7&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Object to be detected: Animal, Human, UAV, AGV/AMR, Vehicle&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.1&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;Pedestrian: ≤1.5&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;Vehicle: ≤15&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;Pedestrian: ≤1.5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.5m &lt;/span&gt;', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;5 x 5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;for factories 0.5 may be needed&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;250&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.25 ≤ 1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Parking Space Determination,&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;UAVs/vehicles/pedestrians detection near Smart Grid equipment,&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;immersive experience based on sensing,&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;public safety search and rescue or apprehend,&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;integrated sensing and positioning in factory hall&lt;/span&gt;', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;5 (use cases 5.28)&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;ADAS -TBD&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Object to be detected: Vehicle&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[95]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;~ [0.1]-[1.3] ; for short range radar ~[0.02]-[2.6]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;TBD&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[±0.03] -[±0.12] m/s&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt; [0.4]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[0.1] – [0.6]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[50]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[0.05] -[0.2]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[1-10] %&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[&amp;lt;1] %&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;ADAS&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Environment monitoring&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1 (use case 5.14)&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Object to be detected outdoor:&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Human&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤2]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[1] &lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[1]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1000 NOTE\xa010&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤0.2]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;traffic management&lt;/span&gt;', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;2 (use cases 5.3 and 5.5.)&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Rainfall monitoring and flooding&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE 14&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Object to be detected: Rain&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤10&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤0.2]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE\xa015&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1 min&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1&amp;lt;10min, application configurable&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;&amp;lt; 0.1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;&amp;lt; 3&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;rainfall monitoring,&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;flooding monitoring&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Motion monitoring&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1 (use cases 5.15, 5.24, 5.29)&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Indoor human motion -sleep monitoring NOTE 12, sports monitoring NOTE 13, gesture recognition&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Motion on human, gesture&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.1 valid for gesture recognition&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.1 valid for gesture recognition&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;60s&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;60, ≤&lt;/span&gt;&lt;span style="font-size:16pt"&gt;0.1 for gesture recognition&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;sleep monitoring,&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;sports monitoring,&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;gesture recognition&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 1:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 7.2-1 are found in Section 3.1.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 2: To detect the UAV existance (e.g., for intrusion detection), the sensing resolution of distance is 10m [25].&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa03:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;To detect the UAV existence, the sensing resolution of velocity is 10m/s [25].&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa04: The typical size (Length x Width x Height) of UAV is 1.6m x 1.5m x 0.7m, the typical size of pedestrian is 0.5m x 0.5m x 1.75m, and the typical size of engineering vehicle is 7.5m x 2.5m x 3.5 m.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa05:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;T&lt;/span&gt;he KPI values for UAVs are sourced from [25] and [40] and for factories &lt;span style="font-size:16pt"&gt;are sourced from [47]&lt;/span&gt;.', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa06:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The value 100 ms is sourced from [28] and is valid for sensing at crossroads.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa07: The safe distance between pedestrian/vehicle and transmission station/line is 0.7m/0.95m [46]. The size of the park of Smart Grid depends on the real environment.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa08:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;To track the UAV flying (e.g., for collision detection and warning), the sensing resolution of distance is 1m [25].&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa09:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;To track the UAV flying, the sensing resolution of velocity is 1m/s [25].&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa010:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;To realize 1m granularity tracking, when the velocity resolution is 1 m/s, the maximum corresponding sensing service latency is 1s.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa011:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Echodyne MESA-DAA&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;TM &lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:16pt"&gt;has approximate 1Hz scan rate [40].&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 12:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Additional KPI on motion rate accuracy of 2 times/min (0.033 Hz).&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 13:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Additional KPI on motion rate accuracy of 3 times/min (0.05Hz) and 4 times/min (0.07 Hz)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa014:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Rainfall estimation accuracy is1 mm/h[39] and describes the closeness of the measured rainfall estimation to its true rainfall value.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa015:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;This value is for the water level. Description related to NOTE in clause 5.5.1 suggests 0.01 m. [≤0.2] is derived from the water level where people feel difficulty in walking.&lt;/span&gt;', '', '', '', 'Editor’s note: The values in brackets are FFS', '', '', '', 'Editor’s note: Different service level of the KPIs is FFS', '', '', '']</t>
+          <t>['', '[R.5.2-001] The 3GPP system shall be able to support up to 5 UEs for a group of UEs supporting V2X application.', '', '[R.5.2-002] For Vehicle Platooning, the 3GPP system shall be able to support reliable V2V communications between a specific UE supporting V2X applications and up to 19 other UEs supporting V2X applications.', '', 'NOTE 1: \tFor group of heavy goods vehicle platooning, the number of UEs in a platoon can be smaller, due to communication range, the length of truck, inter-truck distance, etc. ', '', '[R.5.2-003] The 3GPP system shall support relative longitudinal position accuracy of less than 0.5 m for UEs supporting V2X application for platooning in proximity.', '', 'Table 5.2-1 Performance requirements for Vehicles Platooning ', '', 'Communication scenario description', '', 'Req #', '', 'Payload (Bytes)', '', 'Tx rate (Message/ Sec)', '', 'Max end-to-end latency', '', '(ms)', '', 'Reliability (%)', '', '(NOTE 5)', '', 'Data rate (Mbps)', '', 'Min required communication', '', ' range (meters)', '', '(NOTE 6)', '', 'Scenario', '', 'Degree', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', 'Cooperative driving for vehicle platooning', '', 'Information exchange between a group of UEs supporting V2X application.', '', '&lt;span style="color:000000"&gt;Lowest degree of automation &lt;/span&gt;', '', '&lt;span style="color:000000"&gt;[R.5.2-004]&lt;/span&gt;', '', '300-400', '', '(NOTE 2)', '', '30', '', '25', '', '90', '', '', '', '', '', '', '', 'Low  ', 'degree of automation', '', '&lt;span style="color:000000"&gt;[R.5.2-005]&lt;/span&gt;', '', '6500', '', '(NOTE 3)', '', '50', '', '20', '', '', '', '', '', '350', '', '', '', 'Highest degree of automation', '', '&lt;span style="color:000000"&gt;[R.5.2-006]&lt;/span&gt;', '', '50-1200', '', '(NOTE 4)', '', '30', '', '10', '', '', '', '99.99', '', '', '', '80', '', '', '', 'High ', 'degree of automation', '', '&lt;span style="color:000000"&gt;[R.5.2-007]&lt;/span&gt;', '', '', '', '', '', '20', '', '', '', '65', '', '(NOTE 3)', '', '180', '', 'Reporting needed for platooning between UEs supporting V2X application and between a UE supporting V2X application and RSU.', '', '&lt;span style="color:000000"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;[R.5.2-008]&lt;/span&gt;', '', '50-1200', '', '2', '', '500', '', '', '', '', '', '', '', 'Information sharing for platooning between UE supporting V2X application and RSU.', '', 'Lower ', 'degree of automation', '', '&lt;span style="color:000000"&gt;[R.5.2-009]&lt;/span&gt;', '', '6000', '', '(NOTE 3)', '', '50', '', '20', '', '', '', '', '', '350', '', '', '', 'Higher degree of automation', '', '&lt;span style="color:000000"&gt;[R.5.2-0010]&lt;/span&gt;', '', '', '', '', '', '20', '', '', '', '50', '', '(NOTE 3)', '', '180', '', 'NOTE 2: This value is applicable for both triggered and periodic transmission of data packets.', '', 'NOTE 3: The data that is considered in this V2X scenario includes both cooperative manoeuvres and cooperative perception data that could be exchanged using two separate messages within the same period of time (e.g., required latency 20ms).', '', 'NOTE 4: This value does not including security related messages component.', '', 'NOTE 5: Sufficient reliability should be provided even for cells having no value in this table ', '', '', '', 'NOTE 6: This is obtained considering UE speed of 130km/h. All vehicles in a platoon are driving in the same direction.', '', '', '']</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.2482400792858852</v>
+        <v>0.8921312651396087</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;7.2	Consolidated potential KPIs&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;5.2	Requirements to support Vehicles Platooning&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>22856-j00.docx</t>
+          <t>22186[1].docx</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>['', '&lt;span style="font-size:16pt"&gt;Use Cases&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Characteristic parameter (KPI)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Influence quantity&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Remarks&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Max allowed end-to-end latency&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Service bit rate: user-experienced data rate&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Reliability&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Area Traffic capacity&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Message size (byte)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Transfer Interval&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Positioning accuracy&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UE Speed&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Service Area&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;5G-enabled Traffic Flow Simulation and Situational Awareness&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 2)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[5-20] ms (NOTE 1)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[10~100 Mbit/s] &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 6)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&amp;gt; 99.9%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[~39.6 Tbit/s/km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:16pt"&gt; ] &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 5)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;20~100 ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 3)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 250 km/h&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;City or Country wide&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 4)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UL&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Collaborative and concurrent engineering&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[≤10] ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[14]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 7)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[1-100] Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[14]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[&amp;gt; 99.9%] &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[14]&lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;[1.55] Tbit/s/km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:16pt"&gt; &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 8)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Video: 1500&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Audio: 100&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[14]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;typically &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 9)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UL and DL audio/video&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[5] ms UL &lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[1-50] ms DL&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[14]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 7)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[&amp;lt;1] Mbit/s &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[14]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[&amp;gt; 99.9%] (without compression)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[&amp;gt; 99.999%] (with compression (NOTE 10))&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[26]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[2.25] Tbit/s/km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:16pt"&gt; &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 8)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1 DoF: 2-8 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3 DoFs: 6-24 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6 DoFs: 12-48 &lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[14]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.25-10 ms &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[14]&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;UL and DL haptic feedback&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Metaverse-based Tele-Operated Driving&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 16)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[100] ms [25] (NOTE 11)&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;[10~50 Mbit/s] [25] &lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;99% [25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[~360 Mbit/s/km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:16pt"&gt; ] &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 14)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;20~100 ms [25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 12)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[10] cm [25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[10-50] km/h (vehicle) [25]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Stationary/Pedestrian (user)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Up to 10km radius [25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 13)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UL real-time vehicle data (video streaming and/or sensor data) [25]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[20] ms [25]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[0.1~0.4 Mbit/s] [25]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;99,999% [25]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[~4 Mbit/s/km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:16pt"&gt; ] &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 14)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Up to 8Kb&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt; [25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;20 ms [25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 12)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[10] cm [25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[10-50] km/h (vehicle) [25]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Stationary/Pedestrian (user)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Up to 10km radius [25]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;(NOTE 13)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;DL control traffic (commands from the remote driver) [25].&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;1-20ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 15)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16 kbit/s -2 Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(without haptic compression encoding);&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;0.8 - 200 kbit/s &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(with haptic compression encoding)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 15)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.999%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 15)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[~20 Mbit/s/km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:16pt"&gt; ] &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 14)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2-8 (1 DoF) (NOTE 15)&lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Stationary/Pedestrian (user)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Up to 10km radius [25]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;(NOTE 13)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Haptic feedback&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 1: The mobile metaverse server receives the data from various sensors, performs data processing, rendering and provide feedback to the vehicles and users. The end-to-end latency refers to the transmission delay between a UE and the mobile metaverse server.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 2: Examples of typical data volume including 1) camera: 10 Mbit/s per sensor (unstructured), 2) LiDAR: 90 Mbit/s per sensor (unstructured), 3) radar: 10 Mbit/s per sensor (unstructured), and 4) real-time Status information including Telemetry data: [&amp;lt; 50 kbit/s] per sensor/vehicle/VRU (structured). This is to support at least 80 vehicles and 1600 users present at the same location (e.g. in an area of 40m*250m) to actively enjoy immersive metaverse services for traffic simulation and traffic awareness, the area traffic capacity is calculated considering 2 cameras, 2 Radars, 2 LiDARs on road side, 1600 user’s smart phones and 80 vehicles with 7 cameras, 4 radar and 2 LiDAR for each vehicle.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 3: The frequency considers different sensor types such as Radar/LiDAR (10Hz) and camera (10~50Hz).&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 4: &lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The service area for traffic flow simulation and situational awareness depends on the actual deployment, for example, it can be deployed for a city or a district within a city or even countrywide. In some cases a local approach (e.g. the application servers are hosted at the network edge) is preferred in order to satisfy the requirements of low latency and high reliability.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 5: The calculation is this table is done per one 5G network, in case of N 5G networks to be involved for such use case in the same area, this value can be divided by N.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 6: User experienced data rate refers to the data rate needed for the vehicle or human, the value is observed from industrial practice. &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 7: The network based conference focus is assumed, which receives data from all the participants, performs rendering (image synthesis), and then distributes the results to all participants. The latency refers to the transmission delay between a UE and the application server. As rendering and hardware introduce some delay, the communication delay for haptic feedback is typically less than 5ms.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 8: To support at least 15 users present at the same location (e.g. in an area of 20m*20m) to actively enjoy immersive Metaverse service concurrently, the area traffic capacity is calculated considering per user consuming non-haptic XR media (e.g. for video per stream up to 40000 kbit/s) and concurrently 60 haptic sensors (per haptic sensor generates data up to 1024 kbit/s).&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 9: &lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;In practice, the service area depends on the actual deployment. In some cases a local approach (e.g. the application servers are hosted at the network edge) is preferred in order to satisfy the requirements of low latency and high reliability.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 10: The arrival interval of compressed haptic data usually follow some statistical distributions, such as generalized Pareto distribution, and Exponential distribution [26].&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 11: The end-to-end latency refers to the transmission delay between a UE and the mobile metaverse server or vice-versa, not including sensor acquisition or actuator control on the vehicle side, processing, and rendering on the user side (estimated additional 100ms total). Target e2e user experienced max delay depends on reaction time of the remote driver (e.g. at 50km/h, 20ms means 27cm of remote vehicle movement).&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 12: UL data transfer interval around 20ms (video) to 100ms (sensor), DL data transfer interval (commands) around 20ms.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 13: The service area for teleoperation depends on the actual deployment; for example, it can be deployed for a warehouse, a factory, a transportation hub (seaport, airport etc.), or even a city district or city. In some cases, a local approach (e.g., the application servers are hosted at the network edge) is preferred to satisfy low latency and high-reliability requirements.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 14: The area traffic capacity is calculated for one 5G network, considering 4 cameras + sensors on each vehicle. Density is estimated to 10 vehicles/km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:16pt"&gt;, each of the vehicles with one user controlling them. [25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 15: KPI comes from [5] clause 7.11 “remote control robot” use case.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 16: Examples of typical data volume including 1) ~8Mbps video stream. Four cameras per vehicle (one for each side): 4*8=32Mbps. 2) sensor data (interpreted objects), assuming 1 kB/object/100 ms and 50 objects: 4 Mbps [25].&lt;/span&gt;', '', '', '']</t>
+          <t>['', '[R.5.2-001] The 3GPP system shall be able to support up to 5 UEs for a group of UEs supporting V2X application.', '', '[R.5.2-002] For Vehicle Platooning, the 3GPP system shall be able to support reliable V2V communications between a specific UE supporting V2X applications and up to 19 other UEs supporting V2X applications.', '', 'NOTE 1: \tFor group of heavy goods vehicle platooning, the number of UEs in a platoon can be smaller, due to communication range, the length of truck, inter-truck distance, etc. ', '', '[R.5.2-003] The 3GPP system shall support relative longitudinal position accuracy of less than 0.5 m for UEs supporting V2X application for platooning in proximity.', '', 'Table 5.2-1 Performance requirements for Vehicles Platooning ', '', 'Communication scenario description', '', 'Req #', '', 'Payload (Bytes)', '', 'Tx rate (Message/ Sec)', '', 'Max end-to-end latency', '', '(ms)', '', 'Reliability (%)', '', '(NOTE 5)', '', 'Data rate (Mbps)', '', 'Min required communication', '', ' range (meters)', '', '(NOTE 6)', '', 'Scenario', '', 'Degree', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', 'Cooperative driving for vehicle platooning', '', 'Information exchange between a group of UEs supporting V2X application.', '', '&lt;span style="color:000000"&gt;Lowest degree of automation &lt;/span&gt;', '', '&lt;span style="color:000000"&gt;[R.5.2-004]&lt;/span&gt;', '', '300-400', '', '(NOTE 2)', '', '30', '', '25', '', '90', '', '', '', '', '', '', '', 'Low  ', 'degree of automation', '', '&lt;span style="color:000000"&gt;[R.5.2-005]&lt;/span&gt;', '', '6500', '', '(NOTE 3)', '', '50', '', '20', '', '', '', '', '', '350', '', '', '', 'Highest degree of automation', '', '&lt;span style="color:000000"&gt;[R.5.2-006]&lt;/span&gt;', '', '50-1200', '', '(NOTE 4)', '', '30', '', '10', '', '', '', '99.99', '', '', '', '80', '', '', '', 'High ', 'degree of automation', '', '&lt;span style="color:000000"&gt;[R.5.2-007]&lt;/span&gt;', '', '', '', '', '', '20', '', '', '', '65', '', '(NOTE 3)', '', '180', '', 'Reporting needed for platooning between UEs supporting V2X application and between a UE supporting V2X application and RSU.', '', '&lt;span style="color:000000"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;[R.5.2-008]&lt;/span&gt;', '', '50-1200', '', '2', '', '500', '', '', '', '', '', '', '', 'Information sharing for platooning between UE supporting V2X application and RSU.', '', 'Lower ', 'degree of automation', '', '&lt;span style="color:000000"&gt;[R.5.2-009]&lt;/span&gt;', '', '6000', '', '(NOTE 3)', '', '50', '', '20', '', '', '', '', '', '350', '', '', '', 'Higher degree of automation', '', '&lt;span style="color:000000"&gt;[R.5.2-0010]&lt;/span&gt;', '', '', '', '', '', '20', '', '', '', '50', '', '(NOTE 3)', '', '180', '', 'NOTE 2: This value is applicable for both triggered and periodic transmission of data packets.', '', 'NOTE 3: The data that is considered in this V2X scenario includes both cooperative manoeuvres and cooperative perception data that could be exchanged using two separate messages within the same period of time (e.g., required latency 20ms).', '', 'NOTE 4: This value does not including security related messages component.', '', 'NOTE 5: Sufficient reliability should be provided even for cells having no value in this table ', '', '', '', 'NOTE 6: This is obtained considering UE speed of 130km/h. All vehicles in a platoon are driving in the same direction.', '', '', '']</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.2464001567216211</v>
+        <v>0.8921312651396087</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;7.2	Low latency and high reliability&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;5.3	Aperiodic deterministic communication&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>22261-j30.docx</t>
+          <t>22104-j00.docx</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1028,47 +1028,47 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>['']</t>
+          <t>['', 'Aperiodic deterministic communication is without a pre-set sending time, but still with stringent requirements on timeliness and availability of the communication service. A description of aperiodic deterministic communication can be found in Clauses 4.3 and 4.4. Additional information on the underlying use cases of the sets of requirements in Table 5.3-1 can be found in Annex A. Further information on characteristic parameters and influence quantities used in Table 5.3-1 can be found in Annex C. ', '', 'The 5G system shall be able to provide aperiodic deterministic communication with the service performance requirements for individual logical communication links that realise the communication services reported in Table 5.3-1.', '', 'Table 5.3-1: Aperiodic deterministic communication service performance requirements', '', 'Characteristic parameter (KPI)', '', 'Influence quantity', '', '', '', 'Communication service availability', '', 'Communication service reliability: mean time between failures', '', 'Max Allowed End-to-end latency (note\xa01)&lt;b&gt; ', '(note 5)&lt;/b&gt;', '', 'Service bit rate: user-experienced data rate&lt;b&gt; (note 5)&lt;/b&gt;', '', 'Message size [byte]&lt;b&gt; (note 5)&lt;/b&gt;', '', 'Survival time', '', 'UE speed&lt;b&gt; (note 6)&lt;/b&gt;', '', '# of UEs', '', '', '', 'Service Area (note 3)', '', 'Remarks', '', '&amp;gt; 99.999\xa09\xa0%', '', '~ 1 week', '', '10 ms', '', 'UL: &amp;gt; 10 Mbit/s', '', '–', '', '–', '', '≤ 50 km/h', '', '≤\xa02,000', '', '≤ 1 km&lt;sup&gt;2&lt;/sup&gt;', '', 'Mobile robots – video streaming (A.2.2.3)', '', '99.999\xa09\xa0% to 99.999\xa0999\xa0%', '', '~ 1 month', '', '&amp;lt; 30 ms', '', '&amp;gt; 5 Mbit/s', '', '–', '', '–', '', '&amp;lt; 8 km/h (linear movement)', '', 'TBD', '', 'TBD', '', 'Mobile control panels - parallel data transmission (A.2.4.1)', '', '99.999\xa0999\xa0%', '', '1 day', '', '&amp;lt;8\xa0ms', '', '(note 8)', '', '250 kbit/s', '', '40 to 250', '', '16 ms', '', 'quasi-static; up to 10\xa0km/h', '', '2 or more', '', '30\xa0m x 30\xa0m', '', 'Mobile Operation Panel: Emergency stop (emergency stop events) (A.2.4.1A)', '', '99.999\xa09\xa0%', '', '– ', '', '&amp;lt; 50 ms', '', '0.59 kbit/s', '28 kbit/s', '', '&amp;lt; 100', '', '–', '', 'stationary', '', '&lt;span style="color:000000"&gt;10\xa0km&lt;/span&gt;&lt;span style="color:000000"&gt;² to 100\xa0km&lt;/span&gt;&lt;span style="color:000000"&gt;²&lt;/span&gt;', '', 'TBD', '', 'Smart grid millisecond level precise load control (A.4.5)', '', '&amp;gt; 99.9\xa0%', '', '~ 1 month', '', '&amp;lt; 10 ms', '', '–', '', '–', '', '–', '', '&amp;lt; 8 km/h (linear movement)', '', '≥ 3', '', '20 m x 20 m x 4 m', '', 'Augmented reality; bi-directional transmission to image processing server (A.2.4.2)', '', '99.999\xa09\xa0% to 99.999\xa0999\xa0%', '', '~ 10 years', '', '&amp;lt; 1\xa0ms', '', '(note 4)', '', '25 Mbit/s', '', '–', '', '–', '', 'stationary', '', '2 to 5', '', '100 m x', '', '30 m x 10 m', '', 'Wired-2-wireless 100\xa0Mbit/s link replacement (A.2.2.4)', '', '99.999\xa09\xa0% to 99.999\xa0999\xa0%', '', '~ 10 years', '', '&amp;lt; 1\xa0ms', '', '(note 4)', '', '500 Mbit/s', '', '–', '', '–', '', 'stationary', '', '2 to 5', '', '100 m x', '', '30 m x 10 m', '', 'Wired-2-wireless 1\xa0Gbit/s link replacement (A.2.2.4)', '', ' &amp;gt; 99.9 %', '', '–', '', 'DL: &amp;lt; 10\xa0ms', '', 'UL:&amp;lt;1\xa0s', '', '(rural)', '', 'DL: &amp;gt; 100\xa0kbit/s UL: &amp;gt; 5\xa0Gbit/s', '(note 9)', '', '–', '', '–', '', 'stationary', '', '&amp;gt; 100', '', '', '', 'Distributed energy storage; energy storage station video (A.4.6)', '', '&amp;gt; 99.99 %', '', '–', '', '&amp;lt; 100\xa0ms (note 10);', '', 'DL:&amp;lt;1\xa0Mbit/s', '', '–', '', '–', '', '–', '', '–', '', '–', '', 'Advanced metering (A.4.7)', '', '&amp;gt; 99.999\xa0%', '', '–', '', '20 ms', '', '–', '', '&amp;lt; 100 byte', '', '–', '', '–', '', '–', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', 'Distributed automated switching for isolation and service restoration (A.4.4.1) (note 7)', '', '&amp;gt; 99.999 9\xa0%', '', '', '', '&amp;lt; 3\xa0ms', '', '–', '', '160\xa0byte', '', '–', '', '–', '', '–', '', '–', '', 'Distributed Energy Resources (DERs) and micro-grids (A.4.9) (note 7)', '', 'NOTE 1:\tUnless otherwise specified, all communication includes 1 wireless link (UE to network node or network node to UE) rather than two wireless links (UE to UE).', '', 'NOTE 2:\t(void)', '', 'NOTE 3:\tLength x width x height.', '', 'NOTE 4:\tScheduled aperiodic traffic with transfer interval (max end-to-end allowed latency &amp;lt; transfer interval). ', '', 'NOTE 5:\tIt applies to both UL and DL unless stated otherwise.', '', 'NOTE 6:\tIt applies to both linear movement and rotation unless stated otherwise. ', '', 'NOTE 7:\tCommunication includes two wireless links (UE to UE).', '', 'NOTE 8:\tThe mobile operation panel is connected wirelessly to the 5G system. If the mobile robot/production line is also connected wirelessly to the 5G system, the communication includes two wireless links.', '', 'NOTE 9:\tThe service bit rate in one energy storage station can be calculated as follows:12.5\xa0Mbytes/s x 50 containers x 8 = 5\xa0Gbit/s.', '', 'NOTE 10:\tThe maximum allowed end-to-end latency is for accuracy fee control. It is the delay for one-way communication between the backend system and the 5G IoT device. The distance between the two is 40\xa0km or lower (city range).', '', '', '']</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.2912154848903127</v>
+        <v>0.8727317834255206</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;7.3	Performance &lt;/h2&gt;</t>
+          <t>&lt;h2&gt;5.3	Requirements to support Advanced Driving&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>22890-j00.docx</t>
+          <t>22186.docx</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>['', 'Table 7.3-1: KPIs for Railway Smart Station Services', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Scenario&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;(Note 5)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;End-to-end latency&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Reliability&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;(Note 1)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;UE speed&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;UE Relative&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Speed&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;User experienced data rate&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Payload&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;size&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;(Note 2)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Area traffic density&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Overall UE density&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Service area dimension', '(Note 3)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Multiple trains\' stops at the same platform (Korea, urban railway)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤10 ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.9999%&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;≤100\xa0km/h&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤50km/h&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤1Mb/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Small to large&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤ 1 Mb/s/km&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤ 5 (100m)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤ 15 km&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;along rail tracks including bad weather conditions&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(Note 4)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;NOTE 1:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Reliability as defined in TS 22.289 sub-clause 3.1.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 2:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Small: payload ≤ 256 octets, Medium: payload ≤512 octets; Large: payload 513 -1500 octets.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 3:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Estimates of maximum dimensions.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 4:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Non-Line-of-Sight (NLOS) between UEs shall be supported&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 5:    Off-network traffic characteristics are not addressed in this table since it can be covered by TR22.990.&lt;/span&gt;', '', 'Note:\tThis table is intended to be included in clause 6.2 of TS 22.289 [9].', '', '', '']</t>
+          <t>['', 'Table 5.3-1 Performance requirements for advanced driving', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Communication scenario description&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Req #&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Payload (Bytes)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Tx rate (Message/Sec)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Max', 'end-to-end latency&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;(ms)&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Reliability (%)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;(NOTE3)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Data rate (Mbps)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Min required Communication range (meters) &lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;(NOTE 4)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Scenario&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Degree&lt;/b&gt;&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', 'Cooperative collision avoidance  between UEs supporting V2X applications.', '', '[R.5.3-001]', '', '2000', '', '(NOTE 5)', '', '100', '(NOTE 5)', '', '10', '', '99.99', '', '10', '', '(NOTE 1)', '', '', '', 'Information sharing for automated driving between UEs supporting V2X application.', '', 'Lower ', 'degree of automation', '', '[R.5.3-002]', '', '6500', '', '(NOTE 1)', '', '10', '', '100', '', '', '', '', '', '700', '', '', '', 'Higher degree of automation', '', '&lt;span style="color:000000"&gt;[R.5.3-003]&lt;/span&gt;', '', '', '', '', '', '100', '', '', '', '53', '', '(NOTE 1)', '', '360', '', 'Information sharing for automated driving between UE supporting V2X application and RSU', '', 'Lower ', 'degree of automation', '', '[R.5.3-004]', '', '6000', '', '(NOTE 1)', '', '10', '', '100', '', '', '', '', '', '700', '', '', '', 'Higher degree of automation', '', '[R.5.3-005]', '', '', '', '', '', '100', '', '', '', '50', '', '(NOTE 1)', '', '360', '', 'Emergency trajectory alignment between UEs supporting V2X application.', '', '[R.5.3-006]', '', '2000', '', '(NOTE 5)', '', '', '', '3', '', '99.999', '', '30', '', '500', '', 'Intersection safety information between an RSU and UEs supporting V2X application.', '', '&lt;span style="color:000000"&gt;[R.5.3-007]&lt;/span&gt;', '', 'UL: 450', '', 'UL: 50', '', '', '', '', '', 'UL: 0. 25 DL: 50', '', '(NOTE 2)', '', '', '', 'Cooperative lane change between UEs supporting V2X applications.', '', 'Lower ', 'degree of automation', '', '[R.5.3-008]', '', '300-400', '', '', '', '25', '', '90', '', '', '', '', '', '', '', 'Higher degree of automation', '', '[R.5.3-009]', '', '12000', '', '', '', '10', '', '99.99', '', '', '', '', '', 'Video sharing between a UE supporting V2X application and a V2X application server. ', '', '&lt;span style="color:000000"&gt;[R.5.3-010]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', 'UL: 10', '', '', '', '&lt;span style="font-size:18pt"&gt;NOTE 1:&lt;/span&gt;\t&lt;span style="font-size:18pt"&gt;This includes both cooperative manoeuvers and cooperative perception data that could be exchanged using two separate messages within the same period of time (e.g., required latency 100ms). &lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;NOTE 2:&lt;/span&gt;\t&lt;span style="font-size:18pt"&gt;This value is referring to a maximum number of 200 UEs. The value of 50 Mbps DL is applicable to broadcast or is the maximum aggregated bitrate of the all UEs for unicast.&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;NOTE 3: &lt;/span&gt;\t&lt;span style="font-size:18pt"&gt;Sufficient reliability should be provided even for cells having no values in  this table &lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;NOTE 4:   This is obtained considering UE speed of 130km/h. Vehicles may move in different directions. &lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;NOTE 5: &lt;/span&gt;\t&lt;span style="font-size:18pt"&gt;These values are based on calculations for cooperative maneuvers only.&lt;/span&gt;', '', '', '']</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.2418821432652148</v>
+        <v>0.9034866684223262</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;7.6	High data rate and low latency&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;5.3	Requirements to support Advanced Driving&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>22261-j30.docx</t>
+          <t>22186[1].docx</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1078,72 +1078,72 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>['']</t>
+          <t>['', 'Table 5.3-1 Performance requirements for advanced driving', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Communication scenario description&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Req #&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Payload (Bytes)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Tx rate (Message/Sec)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Max', 'end-to-end latency&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;(ms)&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Reliability (%)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;(NOTE3)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Data rate (Mbps)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Min required Communication range (meters) &lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;(NOTE 4)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Scenario&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Degree&lt;/b&gt;&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', 'Cooperative collision avoidance  between UEs supporting V2X applications.', '', '[R.5.3-001]', '', '2000', '', '(NOTE 5)', '', '100', '(NOTE 5)', '', '10', '', '99.99', '', '10', '', '(NOTE 1)', '', '', '', 'Information sharing for automated driving between UEs supporting V2X application.', '', 'Lower ', 'degree of automation', '', '[R.5.3-002]', '', '6500', '', '(NOTE 1)', '', '10', '', '100', '', '', '', '', '', '700', '', '', '', 'Higher degree of automation', '', '&lt;span style="color:000000"&gt;[R.5.3-003]&lt;/span&gt;', '', '', '', '', '', '100', '', '', '', '53', '', '(NOTE 1)', '', '360', '', 'Information sharing for automated driving between UE supporting V2X application and RSU', '', 'Lower ', 'degree of automation', '', '[R.5.3-004]', '', '6000', '', '(NOTE 1)', '', '10', '', '100', '', '', '', '', '', '700', '', '', '', 'Higher degree of automation', '', '[R.5.3-005]', '', '', '', '', '', '100', '', '', '', '50', '', '(NOTE 1)', '', '360', '', 'Emergency trajectory alignment between UEs supporting V2X application.', '', '[R.5.3-006]', '', '2000', '', '(NOTE 5)', '', '', '', '3', '', '99.999', '', '30', '', '500', '', 'Intersection safety information between an RSU and UEs supporting V2X application.', '', '&lt;span style="color:000000"&gt;[R.5.3-007]&lt;/span&gt;', '', 'UL: 450', '', 'UL: 50', '', '', '', '', '', 'UL: 0. 25 DL: 50', '', '(NOTE 2)', '', '', '', 'Cooperative lane change between UEs supporting V2X applications.', '', 'Lower ', 'degree of automation', '', '[R.5.3-008]', '', '300-400', '', '', '', '25', '', '90', '', '', '', '', '', '', '', 'Higher degree of automation', '', '[R.5.3-009]', '', '12000', '', '', '', '10', '', '99.99', '', '', '', '', '', 'Video sharing between a UE supporting V2X application and a V2X application server. ', '', '&lt;span style="color:000000"&gt;[R.5.3-010]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', 'UL: 10', '', '', '', '&lt;span style="font-size:18pt"&gt;NOTE 1:&lt;/span&gt;\t&lt;span style="font-size:18pt"&gt;This includes both cooperative manoeuvers and cooperative perception data that could be exchanged using two separate messages within the same period of time (e.g., required latency 100ms). &lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;NOTE 2:&lt;/span&gt;\t&lt;span style="font-size:18pt"&gt;This value is referring to a maximum number of 200 UEs. The value of 50 Mbps DL is applicable to broadcast or is the maximum aggregated bitrate of the all UEs for unicast.&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;NOTE 3: &lt;/span&gt;\t&lt;span style="font-size:18pt"&gt;Sufficient reliability should be provided even for cells having no values in  this table &lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;NOTE 4:   This is obtained considering UE speed of 130km/h. Vehicles may move in different directions. &lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;NOTE 5: &lt;/span&gt;\t&lt;span style="font-size:18pt"&gt;These values are based on calculations for cooperative maneuvers only.&lt;/span&gt;', '', '', '']</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.2912154848903127</v>
+        <v>0.9034866684223262</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;7.7	KPIs for UE to network relaying in 5G system&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;5.4	Requirements to support Extended Sensors&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>22261-j30.docx</t>
+          <t>22186.docx</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>['', 'In several scenarios, it can be beneficial to relay communication between one UE and the network via one or more other UEs. The functional requirements related to relaying can be found in clause 6.9.2. Performance requirements for relaying in different scenarios can be found in table 7.7-1.', '', 'Table 7.7-1: Key Performance for UE to network relaying', '', '&lt;span style="font-size:16pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Max. data rate (DL)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Max. data rate (UL)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;End-to-end latency&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 7)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Area traffic capacity&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(DL)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Area traffic capacity&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(UL)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Area user density &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Area&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Range of a single hop&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 8)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Estimated number of hops &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;InHome Scenario&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 1)&lt;/span&gt;', '', '1 Gbit/s', '', '500 Mbit/s', '', '10 ms', '', '5 Gbit/s/ home', '', '2 Gbit/s /home', '', '50 devices /house', '', '10 m x 10m – 3 floors&lt;sup&gt; &lt;/sup&gt;', '', '10 m indoor', '', '2 to 3', '', '&lt;span style="font-size:16pt"&gt;Factory Sensors&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 2)&lt;/span&gt;', '', '100 kbit/s', '', '5 Mbit/s', '', '50 ms to 1 s', '', '1 Gbit/s /factory', '', '50 Gbit/s /factory', '', '10000 devices /factory', '', '100\xa0m x 100\xa0m', '', '30 m indoor / metallic', '', '2 to 3', '', '&lt;span style="font-size:16pt"&gt;Smart Metering&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 3)&lt;/span&gt;', '', '100 bytes / 15 mins', '', '100 bytes / 15 mins', '', '10 s', '', '200 x 100 bytes / 15 mins /hectare', '', '200 x 100 bytes / 15 mins /hectare', '', '200 devices /hectare', '', '100 m x 100 m', '', '&amp;gt;\xa0100 m indoor / deep indoor', '', '2 to 5', '', '&lt;span style="font-size:16pt"&gt;Containers&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 4)&lt;/span&gt;', '', '100 bytes / 15 mins', '', '100 bytes / 15 mins', '', '10 s', '', '15000 x 100 bytes / 15 mins /ship', '', '15000 x 100 bytes / 15 mins /ship', '', '15000 containers /ship', '', '400 m x 60 m x 40 m', '', '&amp;gt;\xa0100 m indoor / outdoor / metallic', '', '3 to 9', '', '&lt;span style="font-size:16pt"&gt;Freight Wagons&lt;/span&gt;', '', '100 bytes / 15 mins', '', '100 bytes / 15 mins', '', '10 s', '', '200 x 100 bytes / 15 mins /train', '', '200 x 100 bytes / 15 mins /train', '', '120 wagons /train', '', '1 km', '', '&amp;gt;\xa0100 m outdoor / tunnel', '', '10 to 15', '', '&lt;span style="font-size:16pt"&gt;Public Safety&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 5)&lt;/span&gt;', '', '12 Mbit/s', '', '12 Mbit/s', '', '30 ms', '', '20 Mbit/s /building', '', '40 Mbit/s /building', '', '30', '', 'devices', '', '/building', '', '100 m x 100 m – 3 floors', '', '&amp;gt;\xa050 m indoor (floor or stairwell)', '', '2 to 4', '', '&lt;span style="font-size:16pt"&gt;Wearables&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 6)&lt;/span&gt;', '', '10 Mbit/s', '', '10 Mbit/s', '', '10 ms', '', '20 Mbit/s per 100 m&lt;sup&gt;2&lt;/sup&gt;', '', '20 Mbit/s per 100 m&lt;sup&gt;2&lt;/sup&gt;', '', '10 wearables per 100 m&lt;sup&gt;2&lt;/sup&gt;', '', '10 m x 10 m', '', '10 m indoor / outdoor', '', '1 to 2', '', 'NOTE 1:\tArea traffic capacity is determined by high bandwidth consuming devices (e.g. ultra HD TVs, VR headsets), the number of devices has been calculated assuming a family of 4 members.', '', 'NOTE 2:\tHighest data rate assumes audio sensors with sampling rate of 192 kHz and 24 bits sample size.', '', 'NOTE 3:\tThree meters (gas, water, electricity) per house, medium density of 50 to 70 houses per hectare.', '', 'NOTE 4:\tA large containership with a mix of 20 foot and 40 foot containers is assumed.', '', 'NOTE 5:\tA mix of MCPTT, MCVideo, and MCData is assumed. Average 3 devices per firefighter / police officer, of which one video device. Area traffic based on 1080 p, 60 fps is 12 Mbit/s video, with an activity factor of 30% in uplink (30% of devices transmit simultaneously at high bitrate) and 15% in downlink. ', '', 'NOTE 6:\tCommunication for wearables is relayed via a UE. This relay UE can use a further relay UE.', '', 'NOTE 7:\tEnd-to-end latency implies that all hops are included.', '', "NOTE 8:\t'Metallic' implies an environment with a lot of metal obstructions (e.g. machinery, containers). 'Deep indoor' implies that there can be concrete walls / floors between the devices.", '', 'NOTE 9:\tAll the values in this table are example values and not strict requirements.', '', '', '']</t>
+          <t>['', 'Table 5.4-1 Performance requirements for extended sensors', '', 'Communication scenario description', '', 'Req #', '', 'Payload (Bytes)', '', 'Tx rate (Message /Sec)', '', 'Max ', 'end-to-end', '', 'latency', '', '(ms)', '', 'Reliability (%)', '', 'Data rate (Mbps)', '', 'Min required communication range (meters)', '', 'Scenario', '', 'Degree', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', 'Sensor information sharing between UEs supporting V2X application', '', 'Lower ', 'degree of automation', '', '[R.5.4-001]', '', '1600', '', '10', '', '100', '', '99', '', '', '', '1000', '', '', '', 'Higher degree of automation', '', '[R.5.4-002]', '', '', '', '', '', '10', '', '95', '', '25', '', '(NOTE 1)', '', '', '', '', '', '', '', '[R.5.4-003]', '', '', '', '', '', '3', '', '99.999', '', '50', '', '200', '', '', '', '', '', '[R.5.4-004]', '', '', '', '', '', '10', '', '99.99', '', '25', '', '500', '', '', '', '', '', '[R.5.4-005]', '', '', '', '', '', '50', '', '99', '', '10', '', '1000', '', '', '', '', '', '[R.5.4-006]', '', '(NOTE 2)', '', '', '', '', '', '10', '', '99.99', '', '1000', '', '50', '', 'Video sharing between UEs supporting V2X application', '', 'Lower ', 'degree of automation', '', '[R.5.4-007]', '', '', '', '', '', '50', '', '90', '', '10', '', '100', '', '', '', 'Higher degree of automation', '', '[R.5.4-008]', '', '', '', '', '', '10', '', '99.99', '', '700', '', '200', '', '', '', '', '', '[R.5.4-009]', '', '', '', '', '', '10', '', '99.99', '', '90', '', '400', '', 'NOTE 1: This is peak data rate.', '', 'NOTE 2: This is for imminent collision scenario.', '', '', '']</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.2132580952264782</v>
+        <v>0.9062666028254543</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;7.9	KPIs for ranging based services&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;5.4	Requirements to support Extended Sensors&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>22261-j30.docx</t>
+          <t>22186[1].docx</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>['', 'In several scenarios, it can be beneficial to determine the distance between two UEs and/or the direction of one UE from the other one via direct communication connection. The functional requirements related to ranging based services can be found in clause 6.37. Performance requirements for ranging based services in different scenarios can be found in table 7.9-1.', '', '&lt;span style="font-size:20pt"&gt;Key performance indicators and key attributes for ranging are defined as follows: &lt;/span&gt;', '', '-\t&lt;b&gt;Ranging accuracy&lt;/b&gt;: describes the absolute value of the deviation of the measured distance and/or direction between two UEs to the true distance and/or direction value. ', '', '-\t&lt;b&gt;Confidence level&lt;/b&gt;: describes the percentage of all the possible measured distance and/or direction that can be expected to include the true distance and/or direction considering the ranging accuracy.', '', '-\t&lt;b&gt;Effective ranging distance&lt;/b&gt;: the largest distance between the UE who initiates the ranging and target UEs in the ranging operation. ', '', '-\t&lt;b&gt;Line-of-sight (LOS) Environment&lt;/b&gt;: the environment between the UE who initiates the ranging and target UEs, such as LOS and non-LOS (NLOS). ', '', '- \t&lt;b&gt;Coverage:&lt;/b&gt; type of radio coverage conditions of the UEs who are involved in ranging, such as in coverage (IC), partial coverage (PC) and out of coverage (OOC). See also figure 6.37.1-1.', '', 'NOTE:\tIf using licensed spectrum&lt;s&gt;,&lt;/s&gt; ranging is only permitted in network coverage\xa0under the full control of the operator who provides the coverage\u200b, except for public safety networks with dedicated spectrum where ranging might be allowed out of coverage or in partial coverage as well. ', '', '-\t&lt;b&gt;Relative UE velocity&lt;/b&gt;: the target UE can be either static or mobile relative to the UE who initiates the ranging. In the latter, the attribute shall also provide some elements about its motion, e.g. maximum speed, trajectory.', '', '-\t&lt;b&gt;Availability&lt;/b&gt;: percentage value of the amount of time when a ranging system is able to provide the required ranging-related data within the performance targets or requirements divided by the amount of time the system is expected to provide the ranging service in a targeted service area.', '', '-\t&lt;b&gt;Latency&lt;/b&gt;: time elapsed between the event that triggers the determination of the ranging-related data and the availability of the ranging-related data at the ranging system interface. ', '', '&lt;b&gt;-&lt;/b&gt;\t&lt;b&gt;Ranging interval: &lt;/b&gt;time difference between two consecutive ranging operations.', '', 'Table 7.9-1: Performance requirements for ranging based services', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Ranging scenario&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Ranging Accuracy &lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;(95 % confidence level)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Availability&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Latency&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;10ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;50ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;50ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Effective ranging distance&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Coverage &lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;NLOS/LOS&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Relative UE velocity &lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Ranging interval&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Number of concurrent ranging operation for a UE&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Number of concurrent ranging operation in an area&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Distance Accuracy&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Direction Accuracy&lt;/b&gt;&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:18pt"&gt;Smart TV Remoter&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;10cm up to 3 meter separation&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;±2° horizontal direction accuracy at 0.1 to 3 meter separation and AoA coverage of (-60°) to (+60°);&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;±2° Elevation direction accuracy at 0.1 to 3 meter separation and AoA coverage of (-45°) to (+45°)&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;99 %&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;50ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;10m&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;IC/PC/OOC&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;LOS&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;Static/ Moving&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;(&amp;lt;1m/s)&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;50ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;\xa0-&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Picture and video sharing based on Ranging results&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;10cm&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;2°&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;99 %&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;50ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;10m&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;IC/PC/OOC&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;LOS&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;Static/ Moving&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;(&amp;lt;1m/s)&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;50ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt; -&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Distance based smart device control&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;10cm&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;99 %&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;100ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;20m&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;IC/PC/OOC&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;LOS&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;Static/ Moving&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;(&amp;lt;1m/s)&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;50ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;\xa020&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Smart Vehicle Key&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;10 cm&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;99 %&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;50ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;30m&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;IC/PC/OOC&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;LOS&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;Static/ Moving&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;(&amp;lt;2m/s)&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;25ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt; -&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;50UEs/&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;(10&lt;/span&gt;&lt;span style="font-size:15pt"&gt;&lt;sup&gt;4&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:15pt"&gt;m&lt;/span&gt;&lt;span style="font-size:15pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:15pt"&gt;)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Touchless Self-checkout Machine Control&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;10cm&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;99%&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;150ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;1m&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;IC/PC/OOC&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;LOS&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;Static/ Moving&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;(&amp;lt;1m/s)&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;100ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;=&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Hands Free Access&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;10cm&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;99 %&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;500ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;10 m&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;IC/PC/OOC&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;LOS&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;Static/ Moving&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;(1 m/s)&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;50ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt; -&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;20 UEs/3.14*100m&lt;/span&gt;&lt;span style="font-size:15pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Smart Transportation Metro/Bus Validation&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;10cm&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;99 %&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;2m&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;IC/PC/OOC&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;LOS&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;Static/ Moving&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;(3km/h)&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;50ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;\xa020&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;100 in the area of 8 m&lt;/span&gt;&lt;span style="font-size:15pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Ranging of UE’s in front of vending machine&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;20cm&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;10°&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;1s&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;5m&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;IC/PC/OOC&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;LOS&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;Static/ Moving&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;(&amp;lt;1m/s)&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;50ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt; -&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;10&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Finding Items in a supermarket &lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;50 cm&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;5 degree&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;95 %&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;100m&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;IC/PC/OOC&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;LOS&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;Static/ Moving&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;(&amp;lt;1m/s)&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;250ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt; -&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;100 UEs/&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;(3.14*10&lt;/span&gt;&lt;span style="font-size:15pt"&gt;&lt;sup&gt;4&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:15pt"&gt;m&lt;/span&gt;&lt;span style="font-size:15pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:15pt"&gt;)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;distance based intelligent perception for public safety&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;50cm&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;99 %&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;20m&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;IC/PC/OOC&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;LOS&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;Static/ Moving&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;(&amp;lt;20km/h)&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;100&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Long Distance Search&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;20m&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;5°&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;99 %&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;100m-1km&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;IC/PC/OOC&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;LOS&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;Static/ Moving&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;(up to 10m/s)&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;5s&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt; -&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Long range approximate location&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;[10m]&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;±[12.5°]&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;99 %&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;500m&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;IC/PC/OOC&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;LOS&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;Static/ Moving&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;(&amp;lt;10m/s)&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;[50]UEs/&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;(10&lt;/span&gt;&lt;span style="font-size:15pt"&gt;&lt;sup&gt;4&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:15pt"&gt;m&lt;/span&gt;&lt;span style="font-size:15pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:15pt"&gt;)&lt;/span&gt;', '', '', '']</t>
+          <t>['', 'Table 5.4-1 Performance requirements for extended sensors', '', 'Communication scenario description', '', 'Req #', '', 'Payload (Bytes)', '', 'Tx rate (Message /Sec)', '', 'Max ', 'end-to-end', '', 'latency', '', '(ms)', '', 'Reliability (%)', '', 'Data rate (Mbps)', '', 'Min required communication range (meters)', '', 'Scenario', '', 'Degree', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', 'Sensor information sharing between UEs supporting V2X application', '', 'Lower ', 'degree of automation', '', '[R.5.4-001]', '', '1600', '', '10', '', '100', '', '99', '', '', '', '1000', '', '', '', 'Higher degree of automation', '', '[R.5.4-002]', '', '', '', '', '', '10', '', '95', '', '25', '', '(NOTE 1)', '', '', '', '', '', '', '', '[R.5.4-003]', '', '', '', '', '', '3', '', '99.999', '', '50', '', '200', '', '', '', '', '', '[R.5.4-004]', '', '', '', '', '', '10', '', '99.99', '', '25', '', '500', '', '', '', '', '', '[R.5.4-005]', '', '', '', '', '', '50', '', '99', '', '10', '', '1000', '', '', '', '', '', '[R.5.4-006]', '', '(NOTE 2)', '', '', '', '', '', '10', '', '99.99', '', '1000', '', '50', '', 'Video sharing between UEs supporting V2X application', '', 'Lower ', 'degree of automation', '', '[R.5.4-007]', '', '', '', '', '', '50', '', '90', '', '10', '', '100', '', '', '', 'Higher degree of automation', '', '[R.5.4-008]', '', '', '', '', '', '10', '', '99.99', '', '700', '', '200', '', '', '', '', '', '[R.5.4-009]', '', '', '', '', '', '10', '', '99.99', '', '90', '', '400', '', 'NOTE 1: This is peak data rate.', '', 'NOTE 2: This is for imminent collision scenario.', '', '', '']</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.2360911915853937</v>
+        <v>0.9062666028254543</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;8.9	Data security and privacy&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;5.5	Mixed traffic&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>22261-j30.docx</t>
+          <t>22104-j00.docx</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1153,47 +1153,47 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>['', '\tThe 5G system shall support data integrity protection and confidentiality methods that serve URLLC, high data rates and energy constrained devices. ', '', 'The 5G system shall support a mechanism to verify the integrity of a message as well as the authenticity of the sender of the message.', '', 'The 5G system shall support encryption for URLLC services within the requested end-to-end latency.', '', 'Subject to regulatory requirements, the 5G system shall enable an MNO to provide end-to-end integrity protection, confidentiality, and protection against replay attacks between a UE and third-party application server, such that the 3GPP network is not able to intercept or modify the data transferred between a UE and third-party application server.', '', 'Subject to regulatory requirements and based on operator policy, the 5G system shall provide a mechanism to support data integrity verification service to assure the integrity of the data exchanged between the 5G network and a third-party service provider.', '', 'NOTE: \tThis requirement could apply&lt;span style="color:000000"&gt; to &lt;/span&gt;mechanisms supported over the interface between 5G core network and an external application, &lt;span style="color:000000"&gt;with &lt;/span&gt;no&lt;span style="color:000000"&gt; impact on RAN and UE&lt;/span&gt;.', '', 'Subject to regulatory requirements and based on operator policy, the 5G system shall provide a mechanism to support confidentiality to prevent exposure of data exchanged between the 5G network and a third party service provider.', '', 'NOTE: \tThis requirement could apply&lt;span style="color:000000"&gt; to &lt;/span&gt;mechanisms supported over the interface between 5G core network and an external application, &lt;span style="color:000000"&gt;with &lt;/span&gt;no&lt;span style="color:000000"&gt; impact on RAN and UE&lt;/span&gt;.', '']</t>
+          <t>['', 'Mixed traffic cannot be assigned to one of the other communication patterns exclusively. Additional information on the underlying use cases of the sets of requirements in Table 5.5-1 can be found in Annex A. Further information on characteristic parameters and influence quantities used in Table 5.5-1 can be found in Annex C. ', '', 'The 5G system shall be able to provide mixed traffic communication with the service performance requirements for individual logical communication links that realise the communication services reported in Table 5.5-1.', '', 'Table 5.5-1: Mixed traffic communication service performance requirements', '', 'Characteristic parameter (KPI)', '', 'Influence quantity', '', 'Remarks', '', 'Communication service availability', '', 'Communication service reliability: mean time between failures', '', 'Max Allowed End-to-end latency (note\xa01)&lt;b&gt; ', '(note 3)&lt;/b&gt;', '', 'Service bit rate: aggregate user-experienced data rate', '', 'Message', '', 'Size', '', '[byte]', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service Area', '', '', '', '99.999\xa0999\xa09\xa0%', '', '~ 10 years', '', '16 ms', '', '', '', '', '', '', '', 'stationary', '', '&amp;lt; 1,000', '', 'several km²', '', 'Wind power plant – control traffic (A.5.2) ', '', '99.999\xa09\xa0% to 99.999\xa099\xa0%', '', '1 day', '', '(note\xa04)', '', '12\xa0Mbit/s', '', '250 to 1,500', '', '', '', 'quasi-static; up to 10\xa0km/h', '', '2 or more', '', '30\xa0m x 30\xa0m', '', 'Mobile Operation Panel: Manufacturing data stream (A.2.4.1A)', '', 'NOTE 1:\tUnless otherwise specified, all communication includes 1 wireless link (UE to network node or network node to UE) rather than two wireless links (UE to UE).', '', 'NOTE 2:\t(void) ', '', 'NOTE 3: \tIt applies to both UL and DL unless stated otherwise.', '', 'NOTE 4:\tThe mobile operation panel is connected wirelessly to the 5G system. If the mobile robot/production line is also connected wirelessly to the 5G system, the communication includes two wireless links.', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.1729215590060198</v>
+        <v>0.8603197025241884</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;A.2.1	Overview&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;5.5	Requirements to support Remote Driving&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>22104-j00.docx</t>
+          <t>22186.docx</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>['', 'The manufacturing industry is currently subject to a fundamental change, which is often referred to as the "Fourth Industrial Revolution" or simply "Industry 4.0" [15]. The main goals of Industry 4.0 are―among others―the improvement of flexibility, versatility, resource efficiency, cost efficiency, worker support, and quality of industrial production and logistics. These improvements are important for addressing the needs of increasingly volatile and globalised markets. A major enabler for all this is cyber-physical production systems based on a ubiquitous and powerful connectivity, communication, and computing infrastructure. The infrastructure interconnects people, machines, products, and all kinds of other devices in a flexible, secure and consistent manner. Several different application areas can be distinguished:', '', '&lt;b&gt;1)&lt;/b&gt;\t&lt;b&gt;Factory automation:&lt;/b&gt; Factory automation deals with the automated control, monitoring and optimisation of processes and workflows within a factory. This includes aspects like closed-loop control applications (e.g., based on programmable logic or motion controllers) and robotics, as well as aspects of computer-integrated manufacturing. Factory automation generally represents a key enabler for industrial mass production with high quality and cost-efficiency. Corresponding applications are often characterised by highest requirements on the underlying communication infrastructure, especially in terms of communication service availability, determinism, and latency. In the Factories of the Future, static sequential production systems will be more and more replaced by novel modular production systems offering a high flexibility and versatility. This involves many increasingly mobile production assets, for which powerful wireless communication and localisation services are required. ', '', '&lt;b&gt;2)&lt;/b&gt;\t&lt;b&gt;Process automation: &lt;/b&gt;Process automation refers to the control of production and handling of substances like chemicals, food &amp;amp; beverage, pulp, etc. Process automation improves the efficiency of production processes, energy consumption, and safety of the facilities. Sensors measuring process values, such as pressures or temperatures, are working in closed loops via centralised and decentralised controllers. In turn, the controllers interact with actuators, e.g., valves, pumps, heaters. Also, monitoring of attributes such as the filling levels of tanks, quality of material, or environmental data are important, as well as safety warnings or plant shut downs. Workers in the plant are supported by mobile devices. A process automation facility may range from a few 100\xa0m² to several km², and the facility may be geographically distributed. Depending on the size, a production plant may have several 10,000 measurement points and actuators. Autarkic device power supply for years is needed in order to stay flexible and to keep the total costs of ownership low. ', '', '&lt;b&gt;3)&lt;/b&gt;\t&lt;b&gt;HMIs and production IT: &lt;/b&gt;Human-machine interfaces (HMIs) include all sorts of devices for the interaction between people and production facilities, such as panels attached to a machine or production line, but also standard IT devices, such as laptops, tablet PCs, smartphones, etc. In addition, augmented- and virtual-reality applications are expected to play an increasingly important role in future. ', '', '4) \t&lt;b&gt;Logistics and warehousing&lt;/b&gt;: Organisation and control of the flow and storage of materials and goods in the context of industrial production. In this respect, intra-logistics is dealing with logistics within a certain property (e.g., within a factory), for example by ensuring the uninterrupted supply of raw materials on the shop floor level using automated guided vehicles (AGVs), fork-lifts, etc. This is to be seen in contrast to logistics between different sites. Warehousing particularly refers to the storage of materials and goods, which is also getting more and more automated, for example based on conveyors, cranes and automated storage and retrieval systems.', '', '5)\t&lt;b&gt;Monitoring and maintenance&lt;/b&gt;: Monitoring of certain processes and/or assets in the context of industrial production without an immediate impact on the processes themselves (in contrast to a typical closed-loop control system in factory automation, for example). This particularly includes applications such as condition monitoring and predictive maintenance based on sensor data, but also big data analytics for optimising future parameter sets of a certain process, for instance. For these use cases, the data acquisition process is typically not latency-critical.', '', 'For each of these application areas, a multitude of potential use cases exists, some of which are outlined in the following subclauses. These use cases can be mapped to the given application areas (see Table A.2.1-1).', '', 'Table A&lt;b&gt;.&lt;/b&gt;2.1-1: Mapping of the considered use cases (columns) to application areas (rows)', '', '', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Motion control&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Control-to-control&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Mobile control panels with safety&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Mobile robots&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Remote access and maintenance&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Augmented reality&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Closed-loop process control&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Process monitoring&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Plant asset management&lt;/b&gt;&lt;/span&gt;', '', 'Factory automation', '', 'X', '', 'X', '', '', '', 'X', '', '', '', '', '', '', '', '', '', '', '', 'Process automation', '', '', '', '', '', '', '', 'X', '', '', '', '', '', 'X', '', 'X', '', 'X', '', 'HMIs and Production IT', '', '', '', '', '', 'X', '', '', '', '', '', 'X', '', '', '', '', '', '', '', 'Logistics and warehousing', '', '', '', 'X', '', '', '', 'X', '', '', '', '', '', '', '', '', '', 'X', '', 'Monitoring and maintenance', '', '', '', '', '', '', '', '', '', 'X', '', '', '', '', '', '', '', '', '', '', '']</t>
+          <t>['', '[R.5.5-001]\tThe 3GPP system shall support message exchange between a UE supporting V2X application and V2X application server for an absolute speed of up to 250 km/h.', '', 'Table 5.5-1 Performance requirements for remote driving', '', 'Communication scenario description', '', 'Req #', '', 'Max end-to-end latency (ms)', '', 'Reliability (%)', '', 'Data rate (Mbps)', '', 'Information exchange between a UE supporting V2X application and a V2X Application Server', '', '[R.5.5-002]', '', '5', '', '99.999', '', 'UL: 25', '', 'DL: 1', '', '', '', '&lt;span style="font-size:32pt"&gt;5.6&lt;/span&gt;\t&lt;span style="font-size:32pt"&gt;Requirements to support vehicle quality of service &lt;/span&gt;', '', '[R.5.6-001]\tThe 3GPP system shall be able to provide a standardized interface to V2X applications to enable the V2X application to adjust its service offerings based on the quality of service of the ongoing connection or on the estimated quality of service. ', '', '[R.5.6-002]\tThe 3GPP system shall be able to authenticate and authorize V2X application for requesting information on the quality of service of the ongoing connection or on the estimated quality of service.', '', '[R.5.6-003]\tThe 3GPP system shall be able to provide quality of service information to the V2X application in a resource efficient way.', '', '[R.5.6-004]\tThe 3GPP system shall be able to support an efficient and secure mechanism to gather information (e.g. location information, reliability information, timing information, latency information, velocity information), in order to generate information about quality of service in a resource efficient way.', '', '[R.5.6-005]\tThe 3GPP system shall be able to support continuity of reporting estimated quality of service for a UE even when the PLMN serving the UE changes. ', '', '[R.5.6-006]\tThe 3GPP system shall be able to provide V2X applications with estimated quality of service information for a certain geographic area and time.', '', '[R.5.6-007]\tThe 3GPP system shall be able to provide a V2X application with quality of service parameters that can be provisioned for connection for a certain geographic area in a certain time.', '', '[R.5.6-008]\tThe 3GPP system shall be able to notify V2X applications with updated estimation of unfulfillment (or re-fulfilment) of quality of service for a certain geographic area, at least a certain amount of time before when the actual change occurs. ', '', '[R.5.6-009]\tOn request by the V2X application, the 3GPP system shall be able to provide information on whether connectivity with specific quality of service is expected to be fulfilled in a certain geographical area and at a certain time.', '', '[R.5.6-010]\tThe 3GPP network shall notify a V2X application that &lt;span style="color:000000"&gt;the current quality&lt;/span&gt; of service of a UE’s ongoing communication might be unfulfilled (or re-fulfilled) in the future.', '', '[R.5.6-011]\tThe 3GPP system shall be able to support negotiating quality of service alternatives with the V2X application.', '', '[R.5.6-012]\tThe 3GPP system shall be able to provide V2X applications with updated quality of service from the quality of service alternatives previously negotiated by the V2X application, when the quality of service of the UE’s ongoing connection changes.', '', '[R.5.6-013]\t The 3GPP system shall be able to support a V2X application to request connectivity with specific quality of service parameter for a certain geographic area and time.', '', '[R.5.6-014]\tThe 3GPP system shall be able to provide a V2X application with response on whether the request of connectivity service with specific quality of service parameter for a certain geographic area and a certain time is accepted or not.', '', '', '', '', 'Annex A (informative):', 'Background information on service Requirements', '', 'For each requirement in this specification, Table A-1 indicates reference to the consolidated potential requirements in TR 22.886:', '', 'Table A-1 Reference information for requirements', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Requirement # in this specification&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;CPR # in TR 22.886&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;[R.5.1-001]&lt;/span&gt;', '', '[CPR.G-001]\t', '', '&lt;span style="color:000000"&gt;[R.5.1-002]&lt;/span&gt;', '', '[CPR.G-002]\t', '', '&lt;span style="color:000000"&gt;[R.5.1-003]&lt;/span&gt;', '', '[CPR.G-003]\t', '', '&lt;span style="color:000000"&gt;[R.5.1-004]&lt;/span&gt;', '', '[CPR.G-004]\t', '', '&lt;span style="color:000000"&gt;[R.5.1-005]&lt;/span&gt;', '', '[CPR.G-005]\t', '', '&lt;span style="color:000000"&gt;[R.5.1-006]&lt;/span&gt;', '', '[CPR.G-006]\t', '', '&lt;span style="color:000000"&gt;[R.5.1-007]&lt;/span&gt;', '', '[CPR.G-007]\t', '', '&lt;span style="color:000000"&gt;[R.5.1-008]&lt;/span&gt;', '', '[CPR.G-009]\t', '', '&lt;span style="color:000000"&gt;[R.5.1-009]&lt;/span&gt;', '', '[CPR.G-010]\t', '', '&lt;span style="color:000000"&gt;[R.5.1-010]&lt;/span&gt;', '', '[CPR.G-011]\t', '', '&lt;span style="color:000000"&gt;[R.5.1-011]&lt;/span&gt;', '', '[CPR.G-012]', '', '&lt;span style="color:000000"&gt;[R.5.1-012]&lt;/span&gt;', '', '[CPR.G-013]', '', '&lt;span style="color:000000"&gt;[R.5.1-013]&lt;/span&gt;', '', '[CPR.G-014]', '', '&lt;span style="color:000000"&gt;[R.5.1-014]&lt;/span&gt;', '', '[CPR.G-016]', '', '&lt;span style="color:000000"&gt;[R.5.1-015]&lt;/span&gt;', '', '[CPR.G-017]', '', '&lt;span style="color:000000"&gt;[R.5.1-016]&lt;/span&gt;', '', '[CPR.G-018]', '', '&lt;span style="color:000000"&gt;[R.5.1-017]&lt;/span&gt;', '', '[CPR.G-019]', '', '&lt;span style="color:000000"&gt;[R.5.1-018]&lt;/span&gt;', '', '[CPR.G-020]', '', '&lt;span style="color:000000"&gt;[R.5.1-019]&lt;/span&gt;', '', '[CPR.G-021]', '', '&lt;span style="color:000000"&gt;[R.5.1-020]&lt;/span&gt;', '', '[CPR.G-022]', '', '&lt;span style="color:000000"&gt;[R.5.1-021]&lt;/span&gt;', '', '[CPR.G-022]', '', '&lt;span style="color:000000"&gt;[R.5.1-022]&lt;/span&gt;', '', '[CPR.G-023]', '', '&lt;span style="color:000000"&gt;[R.5.1-023]&lt;/span&gt;', '', '[CPR.G-025]', '', '&lt;span style="color:000000"&gt;[R.5.2-001]&lt;/span&gt;', '', '[CPR.P-001]\t', '', '&lt;span style="color:000000"&gt;[R.5.2-002]&lt;/span&gt;', '', '[CPR.P-002]\t', '', '&lt;span style="color:000000"&gt;[R.5.2-003]&lt;/span&gt;', '', '[CPR.P-003]\t', '', '&lt;span style="color:000000"&gt;[R.5.2-004]&lt;/span&gt;', '', '[CPR.P-005]\t', '', '&lt;span style="color:000000"&gt;[R.5.2-004]&lt;/span&gt;', '', '[CPR.P-007]', '', '&lt;span style="color:000000"&gt;[R.5.2-005]&lt;/span&gt;', '', '[CPR.P-009]', '', '&lt;span style="color:000000"&gt;[R.5.2-006]&lt;/span&gt;', '', '[CPR.P-008]', '', '&lt;span style="color:000000"&gt;[R.5.2-006]&lt;/span&gt;', '', '[CPR.P-004]', '', '&lt;span style="color:000000"&gt;[R.5.2-007]&lt;/span&gt;', '', '[CPR.P-010]', '', '&lt;span style="color:000000"&gt;[R.5.2-008]&lt;/span&gt;', '', '[CPR.P-006]', '', '&lt;span style="color:000000"&gt;[R.5.2-009]&lt;/span&gt;', '', '[CPR.P-011]', '', '&lt;span style="color:000000"&gt;[R.5.2-010]&lt;/span&gt;', '', '[CPR.P-012]', '', '&lt;span style="color:000000"&gt;[R.5.3-001]&lt;/span&gt;', '', '[CPR.A-001]\t', '', '&lt;span style="color:000000"&gt;[R.5.3-002]&lt;/span&gt;', '', '[CPR.A-002]', '', '&lt;span style="color:000000"&gt;[R.5.3-003]&lt;/span&gt;', '', '[CPR.A-003]', '', '&lt;span style="color:000000"&gt;[R.5.3-004]&lt;/span&gt;', '', '[CPR.A-004]', '', '&lt;span style="color:000000"&gt;[R.5.3-005]&lt;/span&gt;', '', '[CPR.A-005]', '', '&lt;span style="color:000000"&gt;[R.5.3-006]&lt;/span&gt;', '', '[CPR.A-006]', '', '&lt;span style="color:000000"&gt;[R.5.3-007]&lt;/span&gt;', '', '[CPR.A-007]', '', '&lt;span style="color:000000"&gt;[R.5.3-008]&lt;/span&gt;', '', '[CPR.A-008]', '', '&lt;span style="color:000000"&gt;[R.5.3-009]&lt;/span&gt;', '', '[CPR.A-009]', '', '&lt;span style="color:000000"&gt;[R.5.3-010]&lt;/span&gt;', '', '[CPR.A-010]', '', '&lt;span style="color:000000"&gt;[R.5.4-001]&lt;/span&gt;', '', '[CPR.E-002]\t', '', '&lt;span style="color:000000"&gt;[R.5.4-002]&lt;/span&gt;', '', '[CPR.E-001]\t', '', '&lt;span style="color:000000"&gt;[R.5.4-003]&lt;/span&gt;', '', '[CPR.E-003]\t', '', '&lt;span style="color:000000"&gt;[R.5.4-004]&lt;/span&gt;', '', '[CPR.E-004]\t', '', '&lt;span style="color:000000"&gt;[R.5.4-005]&lt;/span&gt;', '', '[CPR.E-005]\t', '', '&lt;span style="color:000000"&gt;[R.5.4-006]&lt;/span&gt;', '', '[CPR.E-006]\t', '', '&lt;span style="color:000000"&gt;[R.5.4-007]&lt;/span&gt;', '', '[CPR.E-007]\t', '', '&lt;span style="color:000000"&gt;[R.5.4-008]&lt;/span&gt;', '', '[CPR.E-008]', '', '&lt;span style="color:000000"&gt;[R.5.4-009]&lt;/span&gt;', '', '[CPR.E-008]', '', '&lt;span style="color:000000"&gt;[R.5.5-001]&lt;/span&gt;', '', '[CPR.R-001]\t', '', '&lt;span style="color:000000"&gt;[R.5.5-002]&lt;/span&gt;', '', '[CPR.R-001]\t', '', '[CPR.R-002]\t', '', '[CPR.R-003]\t', '', '[CPR.R-004]\t', '', '&lt;span style="color:000000"&gt;[R.5.6-001]&lt;/span&gt;', '', '[CPR.Q-015]\t', '', '&lt;span style="color:000000"&gt;[R.5.6-002]&lt;/span&gt;', '', '[CPR.Q-009]\t', '', '&lt;span style="color:000000"&gt;[R.5.6-003]&lt;/span&gt;', '', '[CPR.Q-002]', '', '&lt;span style="color:000000"&gt;[R.5.6-004]&lt;/span&gt;', '', '[CPR.Q-002]', '', '&lt;span style="color:000000"&gt;[R.5.6-005]&lt;/span&gt;', '', '[CPR.Q-004]', '', '&lt;span style="color:000000"&gt;[R.5.6-006]&lt;/span&gt;', '', '[CPR.Q-001]', '', '&lt;span style="color:000000"&gt;[R.5.6-007]&lt;/span&gt;', '', '[CPR.Q-006]', '', '&lt;span style="color:000000"&gt;[R.5.6-008]&lt;/span&gt;', '', '[CPR.Q-017]', '', '&lt;span style="color:000000"&gt;[R.5.6-009]&lt;/span&gt;', '', '[CPR.Q-011]', '', '&lt;span style="color:000000"&gt;[R.5.6-010]&lt;/span&gt;', '', '[CPR.Q-018]', '', '&lt;span style="color:000000"&gt;[R.5.6-011]&lt;/span&gt;', '', '[CPR.Q-007]', '', '&lt;span style="color:000000"&gt;[R.5.6-012]&lt;/span&gt;', '', '[CPR.Q-019]', '', '&lt;span style="color:000000"&gt;[R.5.6-013]&lt;/span&gt;', '', '[CPR.Q-012]', '', '&lt;span style="color:000000"&gt;[R.5.6-014]&lt;/span&gt;', '', '[CPR.Q-013]', '', '', '', '', 'Annex B (informative):', 'Relation between TS 22.185 and this TS ', '', '3GPP Technical Specification on Service Requirements for V2X Services [3] was developed with focus on basic safety aspect and non-safety aspect using LTE-based technology. This Technical Specification on Enhancement of 3GPP Support for V2X Services was developed with focus on enhancements of V2X Use Case scenarios, including more rigorous functional requirements for advanced features that cannot be achieved by [3].', '', '', 'Annex C (informative):', 'Relationship between V2X applications and V2X requirements', '', 'In this specification, performance requirements for various scenarios are defined. KPIs of the various scenarios are not mutually exclusive. When several V2X applications are simultaneously running in the vehicle, total performance requirement to serve that vehicle is not the sum of individual performance requirement of each V2X application:', '', '-\tDifferent use cases or applications may use and share same V2X message. For example, according to ETSI TS 102.637, information included in a DENM message can be used by multiple applications such as emergency electronic brake lights, wrong way driving warning and so on. Thus, there is no need for each application to generate separately V2X messages.', '', '-\tAccording to ETSI EN 302.665, V2X application layer is separated from V2X Facilities layer. V2X applications do not have V2X message handling capabilities, and this is left to V2X Facilities layer. Because V2X Facilities layer serves all V2X applications, the V2X Facilities layer can optimize V2X message handling, by considering overall requirements of different V2X applications.', '', 'Figure C-1 shows one of example configuration where multiples V2X applications and one common V2X message handling entity exist. Because only one driving wheel, one accelerator and one brake exist in a vehicle, the applications in a vehicle may either be combined or operate in a harmonized fashion. Then, V2X messages are also used in a harmonized fashion.', '', '', '', '----media/image3.emf----', '', 'Figure C-1. Relationship between V2X messages and Applications (illustrative purpose only)', '', '', '', '', '&lt;span style="font-size:36pt"&gt;Annex D (informative):', 'Role model for service exposure for Estimation&lt;/span&gt;', '', 'In relation to the service requirements in section 5.6, following figure shows the role model for the involved entities. Data gathering entity gathers relevant data that can be used as an input to estimation entity. The data can be statistical data, historical data and etc. Based on the data provided by data gathering entity, estimation entity makes an estimation that is requested by third parties. The result of estimation is provided from 3GPP system to third party. While interface from 3GPP system toward third party and interface among entities within 3GPP system is standardized, how actual estimation mechanism is performed within estimation entity or how much the estimation is accurate is out of 3GPP scope.', '', '----media/image4.emf----', '', '', '', '', '', '', '', '', 'Annex E (informative):', 'Change history', '', '&lt;b&gt;Change history&lt;/b&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Date&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Meeting&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;TDoc&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;CR&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Rev&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Cat&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Subject/Comment&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;New version&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2017-01&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Skeleton&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2017-02&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Update based on agreement in SA1 #77&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2017-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#75&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-170158&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;MCC Clean-up&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2017-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#75&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-170250&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Update based on input from SA#75, including assigned TS number&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1.0.1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2017-03&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Raised to v.15.0.0 following SA’s approval&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.0.0&lt;/span&gt;', '', '\t', '', '&lt;b&gt;Change history&lt;/b&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;TSG\xa0SA#&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;SA Doc.&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;SA1 Doc&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Spec&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;CR&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Rev&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Rel&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Cat&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Subject/Comment&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Old&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;New&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Work Item&lt;/b&gt;&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="font-size:14pt"&gt;SP-76&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:14pt"&gt;SP-170444&lt;/span&gt;', '', '&lt;a href="http://www.3gpp.org/ftp/tsg_sa/WG1_Serv/TSGS1_78_Porto/docs/S1-172363.zip"&gt;&lt;span style="font-size:14pt"&gt;S1-172363&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Specifications/SpecificationDetails.aspx?specificationId=3180"&gt;&lt;span style="font-size:14pt"&gt;22.186&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:14pt"&gt;0006&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;4&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="font-size:14pt"&gt;Rel-15&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:14pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Adding requirement on addressing information of V2X application server(s)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;15.0.0&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/WorkItem/WorkItemDetails.aspx?workitemId=750003"&gt;&lt;span style="font-size:14pt"&gt;eV2X&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="font-size:14pt"&gt;SP-76&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:14pt"&gt;SP-170444&lt;/span&gt;', '', '&lt;a href="http://www.3gpp.org/ftp/tsg_sa/WG1_Serv/TSGS1_78_Porto/docs/S1-172304.zip"&gt;&lt;span style="font-size:14pt"&gt;S1-172304&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Specifications/SpecificationDetails.aspx?specificationId=3180"&gt;&lt;span style="font-size:14pt"&gt;22.186&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:14pt"&gt;0003&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;1&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="font-size:14pt"&gt;Rel-15&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:14pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Clean-up of KPI of eV2X TS&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;15.0.0&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/WorkItem/WorkItemDetails.aspx?workitemId=750003"&gt;&lt;span style="font-size:14pt"&gt;eV2X&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="font-size:14pt"&gt;SP-76&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:14pt"&gt;SP-170444&lt;/span&gt;', '', '&lt;a href="http://www.3gpp.org/ftp/tsg_sa/WG1_Serv/TSGS1_78_Porto/docs/S1-172311.zip"&gt;&lt;span style="font-size:14pt"&gt;S1-172311&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Specifications/SpecificationDetails.aspx?specificationId=3180"&gt;&lt;span style="font-size:14pt"&gt;22.186&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:14pt"&gt;0008&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;3&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="font-size:14pt"&gt;Rel-15&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:14pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Consolidate communication range in 5.3 Advanced Driving&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;15.0.0&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/WorkItem/WorkItemDetails.aspx?workitemId=750003"&gt;&lt;span style="font-size:14pt"&gt;eV2X&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="font-size:14pt"&gt;SP-76&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:14pt"&gt;SP-170444&lt;/span&gt;', '', '&lt;a href="http://www.3gpp.org/ftp/tsg_sa/WG1_Serv/TSGS1_78_Porto/docs/S1-172310.zip"&gt;&lt;span style="font-size:14pt"&gt;S1-172310&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Specifications/SpecificationDetails.aspx?specificationId=3180"&gt;&lt;span style="font-size:14pt"&gt;22.186&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:14pt"&gt;0009&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;2&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="font-size:14pt"&gt;Rel-15&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:14pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Correction of NOTE 2 UL/DL values in 5.3 Advanced Driving&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;15.0.0&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/WorkItem/WorkItemDetails.aspx?workitemId=750003"&gt;&lt;span style="font-size:14pt"&gt;eV2X&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="font-size:14pt"&gt;SP-76&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:14pt"&gt;SP-170444&lt;/span&gt;', '', '&lt;a href="http://www.3gpp.org/ftp/tsg_sa/WG1_Serv/TSGS1_78_Porto/docs/S1-172301.zip"&gt;&lt;span style="font-size:14pt"&gt;S1-172301&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Specifications/SpecificationDetails.aspx?specificationId=3180"&gt;&lt;span style="font-size:14pt"&gt;22.186&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:14pt"&gt;0007&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;1&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="font-size:14pt"&gt;Rel-15&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:14pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Editorial modifications for TS 22.186&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;15.0.0&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/WorkItem/WorkItemDetails.aspx?workitemId=750003"&gt;&lt;span style="font-size:14pt"&gt;eV2X&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="font-size:14pt"&gt;SP-76&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:14pt"&gt;SP-170444&lt;/span&gt;', '', '&lt;a href="http://www.3gpp.org/ftp/tsg_sa/WG1_Serv/TSGS1_78_Porto/docs/S1-172306.zip"&gt;&lt;span style="font-size:14pt"&gt;S1-172306&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Specifications/SpecificationDetails.aspx?specificationId=3180"&gt;&lt;span style="font-size:14pt"&gt;22.186&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:14pt"&gt;0012&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;1&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="font-size:14pt"&gt;Rel-15&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:14pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Global editorial clean-up&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;15.0.0&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/WorkItem/WorkItemDetails.aspx?workitemId=750003"&gt;&lt;span style="font-size:14pt"&gt;eV2X&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="font-size:14pt"&gt;SP-76&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:14pt"&gt;SP-170444&lt;/span&gt;', '', '&lt;a href="http://www.3gpp.org/ftp/tsg_sa/WG1_Serv/TSGS1_78_Porto/docs/S1-172309.zip"&gt;&lt;span style="font-size:14pt"&gt;S1-172309&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Specifications/SpecificationDetails.aspx?specificationId=3180"&gt;&lt;span style="font-size:14pt"&gt;22.186&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:14pt"&gt;0001&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;2&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="font-size:14pt"&gt;Rel-15&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:14pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Removal of editor\'s NOTE in section 5.1&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;15.0.0&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/WorkItem/WorkItemDetails.aspx?workitemId=750003"&gt;&lt;span style="font-size:14pt"&gt;eV2X&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="font-size:14pt"&gt;SP-76&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:14pt"&gt;SP-170444&lt;/span&gt;', '', '&lt;a href="http://www.3gpp.org/ftp/tsg_sa/WG1_Serv/TSGS1_78_Porto/docs/S1-172313.zip"&gt;&lt;span style="font-size:14pt"&gt;S1-172313&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Specifications/SpecificationDetails.aspx?specificationId=3180"&gt;&lt;span style="font-size:14pt"&gt;22.186&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:14pt"&gt;0010&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;2&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="font-size:14pt"&gt;Rel-15&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:14pt"&gt;C&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Remove the brakets and Editor\'s note in Video sharing of 5.4 Extended Sensors&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;15.0.0&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/WorkItem/WorkItemDetails.aspx?workitemId=750003"&gt;&lt;span style="font-size:14pt"&gt;eV2X&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-77&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-170693&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;S1-173479&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;22.186&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0013&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Rel-15&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction to information exchange via RSU&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;eV2X&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-77&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-170693&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;S1-173480&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;22.186&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0015&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Rel-15&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;correction to data rate and transmission rate&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;eV2X&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Specifications/SpecificationDetails.aspx?specificationId=3180"&gt;&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180309&lt;/span&gt;', '', '&lt;a href="http://www.3gpp.org/ftp/tsg_sa/WG1_Serv/TSGS1_82_Dubrovnik/Docs/S1-181562.zip"&gt;&lt;span style="font-size:16pt"&gt;S1-181562&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Specifications/SpecificationDetails.aspx?specificationId=3180"&gt;&lt;span style="font-size:16pt"&gt;22.186&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:16pt"&gt;0016&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="font-size:16pt"&gt;Rel-15&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update the note in the RSU definition&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.3.0&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/WorkItem/WorkItemDetails.aspx?workitemId=750003"&gt;&lt;span style="font-size:16pt"&gt;eV2X&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-81&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180755&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;S1-182626&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;22.186&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Rel-16&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SAE International\'s Levels of Automation reference link&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;eV2X&lt;/span&gt;', '', '', '', '&lt;b&gt;Change history&lt;/b&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Date&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Meeting&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;TDoc&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;CR&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Rev&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Cat&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Subject/Comment&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;New version&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-82&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-181012&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0019&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;normative requirements for V2XIMP&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-82&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-181012&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0020&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Annex Role model for V2XIMP&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#84&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190568&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0023&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;CR to TS 22.186 on eV2X Requirements&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#95e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Updated to Rel-17 by MCC&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.0.0&lt;/span&gt;', '', '', '', '3GPP', '', '', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.2578804919804748</v>
+        <v>0.9106044738734906</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;A.4.10	Ensuring uninterrupted communication service availability during emergencies&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;5.5	Requirements to support Remote Driving&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>22104-j00.docx</t>
+          <t>22186[1].docx</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1203,22 +1203,22 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>['', 'During emergencies, public mobile land networks (PLMNs) may restrict network access, which may lead to a prohibitevly low communication service availability for machine-type communication (MTC) for Smart Grid applications. An example is communication for microgrids. Microgrids are separate parts of a power grid that can be controlled and operated individually in a so-called island mode, or together with other parts of the power grid. The idea is to prioritise Smart Grid-related communication in order to ensure reliable and available communication for selected devices during emergency conditions. Existing features of a mobile network can be used to differentiate MTC of devices in a microgrid from other kind of MTC traffic or human-to-human communication. These features can help these microgrid devices to have communication service during emergencies. The communication among the microgrid devices enables co-ordination of DERs, which help the DERs can autarkically implement recovery of an islanded microgrid. ', '', 'The associated KPI is provided in Table A.4.10-1.', '', '&lt;span style="font-size:20pt"&gt;&lt;b&gt;Table A.4.10-1: Key Performance for uninterrupted MTC service availability&lt;/b&gt;&lt;/span&gt;', '', '', '', 'Characteristic parameter (KPI)', '', 'Influence quantity', '', 'Communication service availability: target value', '', 'Communication service reliability: mean time between failures', '', 'Max Allowed End-to-end latency (note\xa01;  ', '(note 2)', '', 'Service bit rate: user-experienced data rate (note 2)', '', 'Message size [byte] ', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', '', '', 'Service Area', '', '99.999\xa09\xa0%', '', '–', '', '100 ms', '', '&amp;lt; 1 kbit/s per DER', '', '–', '', '–', '', 'Stationary', '', '–', '', '–', '', 'NOTE 1:\tUnless otherwise specified, all communication includes 1 wireless link (UE to network node or network node to UE) rather than two wireless links (UE to UE).', '', 'NOTE 2:\tIt applies to both UL and DL unless stated otherwise.', '']</t>
+          <t>['', '[R.5.5-001]\tThe 3GPP system shall support message exchange between a UE supporting V2X application and V2X application server for an absolute speed of up to 250 km/h.', '', 'Table 5.5-1 Performance requirements for remote driving', '', 'Communication scenario description', '', 'Req #', '', 'Max end-to-end latency (ms)', '', 'Reliability (%)', '', 'Data rate (Mbps)', '', 'Information exchange between a UE supporting V2X application and a V2X Application Server', '', '[R.5.5-002]', '', '5', '', '99.999', '', 'UL: 25', '', 'DL: 1', '', '', '', '&lt;span style="font-size:32pt"&gt;5.6&lt;/span&gt;\t&lt;span style="font-size:32pt"&gt;Requirements to support vehicle quality of service &lt;/span&gt;', '', '[R.5.6-001]\tThe 3GPP system shall be able to provide a standardized interface to V2X applications to enable the V2X application to adjust its service offerings based on the quality of service of the ongoing connection or on the estimated quality of service. ', '', '[R.5.6-002]\tThe 3GPP system shall be able to authenticate and authorize V2X application for requesting information on the quality of service of the ongoing connection or on the estimated quality of service.', '', '[R.5.6-003]\tThe 3GPP system shall be able to provide quality of service information to the V2X application in a resource efficient way.', '', '[R.5.6-004]\tThe 3GPP system shall be able to support an efficient and secure mechanism to gather information (e.g. location information, reliability information, timing information, latency information, velocity information), in order to generate information about quality of service in a resource efficient way.', '', '[R.5.6-005]\tThe 3GPP system shall be able to support continuity of reporting estimated quality of service for a UE even when the PLMN serving the UE changes. ', '', '[R.5.6-006]\tThe 3GPP system shall be able to provide V2X applications with estimated quality of service information for a certain geographic area and time.', '', '[R.5.6-007]\tThe 3GPP system shall be able to provide a V2X application with quality of service parameters that can be provisioned for connection for a certain geographic area in a certain time.', '', '[R.5.6-008]\tThe 3GPP system shall be able to notify V2X applications with updated estimation of unfulfillment (or re-fulfilment) of quality of service for a certain geographic area, at least a certain amount of time before when the actual change occurs. ', '', '[R.5.6-009]\tOn request by the V2X application, the 3GPP system shall be able to provide information on whether connectivity with specific quality of service is expected to be fulfilled in a certain geographical area and at a certain time.', '', '[R.5.6-010]\tThe 3GPP network shall notify a V2X application that &lt;span style="color:000000"&gt;the current quality&lt;/span&gt; of service of a UE’s ongoing communication might be unfulfilled (or re-fulfilled) in the future.', '', '[R.5.6-011]\tThe 3GPP system shall be able to support negotiating quality of service alternatives with the V2X application.', '', '[R.5.6-012]\tThe 3GPP system shall be able to provide V2X applications with updated quality of service from the quality of service alternatives previously negotiated by the V2X application, when the quality of service of the UE’s ongoing connection changes.', '', '[R.5.6-013]\t The 3GPP system shall be able to support a V2X application to request connectivity with specific quality of service parameter for a certain geographic area and time.', '', '[R.5.6-014]\tThe 3GPP system shall be able to provide a V2X application with response on whether the request of connectivity service with specific quality of service parameter for a certain geographic area and a certain time is accepted or not.', '', '', '', '', 'Annex A (informative):', 'Background information on service Requirements', '', 'For each requirement in this specification, Table A-1 indicates reference to the consolidated potential requirements in TR 22.886:', '', 'Table A-1 Reference information for requirements', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Requirement # in this specification&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;CPR # in TR 22.886&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;[R.5.1-001]&lt;/span&gt;', '', '[CPR.G-001]\t', '', '&lt;span style="color:000000"&gt;[R.5.1-002]&lt;/span&gt;', '', '[CPR.G-002]\t', '', '&lt;span style="color:000000"&gt;[R.5.1-003]&lt;/span&gt;', '', '[CPR.G-003]\t', '', '&lt;span style="color:000000"&gt;[R.5.1-004]&lt;/span&gt;', '', '[CPR.G-004]\t', '', '&lt;span style="color:000000"&gt;[R.5.1-005]&lt;/span&gt;', '', '[CPR.G-005]\t', '', '&lt;span style="color:000000"&gt;[R.5.1-006]&lt;/span&gt;', '', '[CPR.G-006]\t', '', '&lt;span style="color:000000"&gt;[R.5.1-007]&lt;/span&gt;', '', '[CPR.G-007]\t', '', '&lt;span style="color:000000"&gt;[R.5.1-008]&lt;/span&gt;', '', '[CPR.G-009]\t', '', '&lt;span style="color:000000"&gt;[R.5.1-009]&lt;/span&gt;', '', '[CPR.G-010]\t', '', '&lt;span style="color:000000"&gt;[R.5.1-010]&lt;/span&gt;', '', '[CPR.G-011]\t', '', '&lt;span style="color:000000"&gt;[R.5.1-011]&lt;/span&gt;', '', '[CPR.G-012]', '', '&lt;span style="color:000000"&gt;[R.5.1-012]&lt;/span&gt;', '', '[CPR.G-013]', '', '&lt;span style="color:000000"&gt;[R.5.1-013]&lt;/span&gt;', '', '[CPR.G-014]', '', '&lt;span style="color:000000"&gt;[R.5.1-014]&lt;/span&gt;', '', '[CPR.G-016]', '', '&lt;span style="color:000000"&gt;[R.5.1-015]&lt;/span&gt;', '', '[CPR.G-017]', '', '&lt;span style="color:000000"&gt;[R.5.1-016]&lt;/span&gt;', '', '[CPR.G-018]', '', '&lt;span style="color:000000"&gt;[R.5.1-017]&lt;/span&gt;', '', '[CPR.G-019]', '', '&lt;span style="color:000000"&gt;[R.5.1-018]&lt;/span&gt;', '', '[CPR.G-020]', '', '&lt;span style="color:000000"&gt;[R.5.1-019]&lt;/span&gt;', '', '[CPR.G-021]', '', '&lt;span style="color:000000"&gt;[R.5.1-020]&lt;/span&gt;', '', '[CPR.G-022]', '', '&lt;span style="color:000000"&gt;[R.5.1-021]&lt;/span&gt;', '', '[CPR.G-022]', '', '&lt;span style="color:000000"&gt;[R.5.1-022]&lt;/span&gt;', '', '[CPR.G-023]', '', '&lt;span style="color:000000"&gt;[R.5.1-023]&lt;/span&gt;', '', '[CPR.G-025]', '', '&lt;span style="color:000000"&gt;[R.5.2-001]&lt;/span&gt;', '', '[CPR.P-001]\t', '', '&lt;span style="color:000000"&gt;[R.5.2-002]&lt;/span&gt;', '', '[CPR.P-002]\t', '', '&lt;span style="color:000000"&gt;[R.5.2-003]&lt;/span&gt;', '', '[CPR.P-003]\t', '', '&lt;span style="color:000000"&gt;[R.5.2-004]&lt;/span&gt;', '', '[CPR.P-005]\t', '', '&lt;span style="color:000000"&gt;[R.5.2-004]&lt;/span&gt;', '', '[CPR.P-007]', '', '&lt;span style="color:000000"&gt;[R.5.2-005]&lt;/span&gt;', '', '[CPR.P-009]', '', '&lt;span style="color:000000"&gt;[R.5.2-006]&lt;/span&gt;', '', '[CPR.P-008]', '', '&lt;span style="color:000000"&gt;[R.5.2-006]&lt;/span&gt;', '', '[CPR.P-004]', '', '&lt;span style="color:000000"&gt;[R.5.2-007]&lt;/span&gt;', '', '[CPR.P-010]', '', '&lt;span style="color:000000"&gt;[R.5.2-008]&lt;/span&gt;', '', '[CPR.P-006]', '', '&lt;span style="color:000000"&gt;[R.5.2-009]&lt;/span&gt;', '', '[CPR.P-011]', '', '&lt;span style="color:000000"&gt;[R.5.2-010]&lt;/span&gt;', '', '[CPR.P-012]', '', '&lt;span style="color:000000"&gt;[R.5.3-001]&lt;/span&gt;', '', '[CPR.A-001]\t', '', '&lt;span style="color:000000"&gt;[R.5.3-002]&lt;/span&gt;', '', '[CPR.A-002]', '', '&lt;span style="color:000000"&gt;[R.5.3-003]&lt;/span&gt;', '', '[CPR.A-003]', '', '&lt;span style="color:000000"&gt;[R.5.3-004]&lt;/span&gt;', '', '[CPR.A-004]', '', '&lt;span style="color:000000"&gt;[R.5.3-005]&lt;/span&gt;', '', '[CPR.A-005]', '', '&lt;span style="color:000000"&gt;[R.5.3-006]&lt;/span&gt;', '', '[CPR.A-006]', '', '&lt;span style="color:000000"&gt;[R.5.3-007]&lt;/span&gt;', '', '[CPR.A-007]', '', '&lt;span style="color:000000"&gt;[R.5.3-008]&lt;/span&gt;', '', '[CPR.A-008]', '', '&lt;span style="color:000000"&gt;[R.5.3-009]&lt;/span&gt;', '', '[CPR.A-009]', '', '&lt;span style="color:000000"&gt;[R.5.3-010]&lt;/span&gt;', '', '[CPR.A-010]', '', '&lt;span style="color:000000"&gt;[R.5.4-001]&lt;/span&gt;', '', '[CPR.E-002]\t', '', '&lt;span style="color:000000"&gt;[R.5.4-002]&lt;/span&gt;', '', '[CPR.E-001]\t', '', '&lt;span style="color:000000"&gt;[R.5.4-003]&lt;/span&gt;', '', '[CPR.E-003]\t', '', '&lt;span style="color:000000"&gt;[R.5.4-004]&lt;/span&gt;', '', '[CPR.E-004]\t', '', '&lt;span style="color:000000"&gt;[R.5.4-005]&lt;/span&gt;', '', '[CPR.E-005]\t', '', '&lt;span style="color:000000"&gt;[R.5.4-006]&lt;/span&gt;', '', '[CPR.E-006]\t', '', '&lt;span style="color:000000"&gt;[R.5.4-007]&lt;/span&gt;', '', '[CPR.E-007]\t', '', '&lt;span style="color:000000"&gt;[R.5.4-008]&lt;/span&gt;', '', '[CPR.E-008]', '', '&lt;span style="color:000000"&gt;[R.5.4-009]&lt;/span&gt;', '', '[CPR.E-008]', '', '&lt;span style="color:000000"&gt;[R.5.5-001]&lt;/span&gt;', '', '[CPR.R-001]\t', '', '&lt;span style="color:000000"&gt;[R.5.5-002]&lt;/span&gt;', '', '[CPR.R-001]\t', '', '[CPR.R-002]\t', '', '[CPR.R-003]\t', '', '[CPR.R-004]\t', '', '&lt;span style="color:000000"&gt;[R.5.6-001]&lt;/span&gt;', '', '[CPR.Q-015]\t', '', '&lt;span style="color:000000"&gt;[R.5.6-002]&lt;/span&gt;', '', '[CPR.Q-009]\t', '', '&lt;span style="color:000000"&gt;[R.5.6-003]&lt;/span&gt;', '', '[CPR.Q-002]', '', '&lt;span style="color:000000"&gt;[R.5.6-004]&lt;/span&gt;', '', '[CPR.Q-002]', '', '&lt;span style="color:000000"&gt;[R.5.6-005]&lt;/span&gt;', '', '[CPR.Q-004]', '', '&lt;span style="color:000000"&gt;[R.5.6-006]&lt;/span&gt;', '', '[CPR.Q-001]', '', '&lt;span style="color:000000"&gt;[R.5.6-007]&lt;/span&gt;', '', '[CPR.Q-006]', '', '&lt;span style="color:000000"&gt;[R.5.6-008]&lt;/span&gt;', '', '[CPR.Q-017]', '', '&lt;span style="color:000000"&gt;[R.5.6-009]&lt;/span&gt;', '', '[CPR.Q-011]', '', '&lt;span style="color:000000"&gt;[R.5.6-010]&lt;/span&gt;', '', '[CPR.Q-018]', '', '&lt;span style="color:000000"&gt;[R.5.6-011]&lt;/span&gt;', '', '[CPR.Q-007]', '', '&lt;span style="color:000000"&gt;[R.5.6-012]&lt;/span&gt;', '', '[CPR.Q-019]', '', '&lt;span style="color:000000"&gt;[R.5.6-013]&lt;/span&gt;', '', '[CPR.Q-012]', '', '&lt;span style="color:000000"&gt;[R.5.6-014]&lt;/span&gt;', '', '[CPR.Q-013]', '', '', '', '', 'Annex B (informative):', 'Relation between TS 22.185 and this TS ', '', '3GPP Technical Specification on Service Requirements for V2X Services [3] was developed with focus on basic safety aspect and non-safety aspect using LTE-based technology. This Technical Specification on Enhancement of 3GPP Support for V2X Services was developed with focus on enhancements of V2X Use Case scenarios, including more rigorous functional requirements for advanced features that cannot be achieved by [3].', '', '', 'Annex C (informative):', 'Relationship between V2X applications and V2X requirements', '', 'In this specification, performance requirements for various scenarios are defined. KPIs of the various scenarios are not mutually exclusive. When several V2X applications are simultaneously running in the vehicle, total performance requirement to serve that vehicle is not the sum of individual performance requirement of each V2X application:', '', '-\tDifferent use cases or applications may use and share same V2X message. For example, according to ETSI TS 102.637, information included in a DENM message can be used by multiple applications such as emergency electronic brake lights, wrong way driving warning and so on. Thus, there is no need for each application to generate separately V2X messages.', '', '-\tAccording to ETSI EN 302.665, V2X application layer is separated from V2X Facilities layer. V2X applications do not have V2X message handling capabilities, and this is left to V2X Facilities layer. Because V2X Facilities layer serves all V2X applications, the V2X Facilities layer can optimize V2X message handling, by considering overall requirements of different V2X applications.', '', 'Figure C-1 shows one of example configuration where multiples V2X applications and one common V2X message handling entity exist. Because only one driving wheel, one accelerator and one brake exist in a vehicle, the applications in a vehicle may either be combined or operate in a harmonized fashion. Then, V2X messages are also used in a harmonized fashion.', '', '', '', '----media/image3.emf----', '', 'Figure C-1. Relationship between V2X messages and Applications (illustrative purpose only)', '', '', '', '', '&lt;span style="font-size:36pt"&gt;Annex D (informative):', 'Role model for service exposure for Estimation&lt;/span&gt;', '', 'In relation to the service requirements in section 5.6, following figure shows the role model for the involved entities. Data gathering entity gathers relevant data that can be used as an input to estimation entity. The data can be statistical data, historical data and etc. Based on the data provided by data gathering entity, estimation entity makes an estimation that is requested by third parties. The result of estimation is provided from 3GPP system to third party. While interface from 3GPP system toward third party and interface among entities within 3GPP system is standardized, how actual estimation mechanism is performed within estimation entity or how much the estimation is accurate is out of 3GPP scope.', '', '----media/image4.emf----', '', '', '', '', '', '', '', '', 'Annex E (informative):', 'Change history', '', '&lt;b&gt;Change history&lt;/b&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Date&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Meeting&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;TDoc&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;CR&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Rev&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Cat&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Subject/Comment&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;New version&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2017-01&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Skeleton&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2017-02&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Update based on agreement in SA1 #77&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2017-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#75&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-170158&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;MCC Clean-up&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2017-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#75&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-170250&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Update based on input from SA#75, including assigned TS number&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1.0.1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2017-03&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Raised to v.15.0.0 following SA’s approval&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.0.0&lt;/span&gt;', '', '\t', '', '&lt;b&gt;Change history&lt;/b&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;TSG\xa0SA#&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;SA Doc.&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;SA1 Doc&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Spec&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;CR&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Rev&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Rel&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Cat&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Subject/Comment&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Old&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;New&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Work Item&lt;/b&gt;&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="font-size:14pt"&gt;SP-76&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:14pt"&gt;SP-170444&lt;/span&gt;', '', '&lt;a href="http://www.3gpp.org/ftp/tsg_sa/WG1_Serv/TSGS1_78_Porto/docs/S1-172363.zip"&gt;&lt;span style="font-size:14pt"&gt;S1-172363&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Specifications/SpecificationDetails.aspx?specificationId=3180"&gt;&lt;span style="font-size:14pt"&gt;22.186&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:14pt"&gt;0006&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;4&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="font-size:14pt"&gt;Rel-15&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:14pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Adding requirement on addressing information of V2X application server(s)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;15.0.0&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/WorkItem/WorkItemDetails.aspx?workitemId=750003"&gt;&lt;span style="font-size:14pt"&gt;eV2X&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="font-size:14pt"&gt;SP-76&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:14pt"&gt;SP-170444&lt;/span&gt;', '', '&lt;a href="http://www.3gpp.org/ftp/tsg_sa/WG1_Serv/TSGS1_78_Porto/docs/S1-172304.zip"&gt;&lt;span style="font-size:14pt"&gt;S1-172304&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Specifications/SpecificationDetails.aspx?specificationId=3180"&gt;&lt;span style="font-size:14pt"&gt;22.186&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:14pt"&gt;0003&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;1&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="font-size:14pt"&gt;Rel-15&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:14pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Clean-up of KPI of eV2X TS&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;15.0.0&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/WorkItem/WorkItemDetails.aspx?workitemId=750003"&gt;&lt;span style="font-size:14pt"&gt;eV2X&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="font-size:14pt"&gt;SP-76&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:14pt"&gt;SP-170444&lt;/span&gt;', '', '&lt;a href="http://www.3gpp.org/ftp/tsg_sa/WG1_Serv/TSGS1_78_Porto/docs/S1-172311.zip"&gt;&lt;span style="font-size:14pt"&gt;S1-172311&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Specifications/SpecificationDetails.aspx?specificationId=3180"&gt;&lt;span style="font-size:14pt"&gt;22.186&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:14pt"&gt;0008&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;3&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="font-size:14pt"&gt;Rel-15&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:14pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Consolidate communication range in 5.3 Advanced Driving&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;15.0.0&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/WorkItem/WorkItemDetails.aspx?workitemId=750003"&gt;&lt;span style="font-size:14pt"&gt;eV2X&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="font-size:14pt"&gt;SP-76&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:14pt"&gt;SP-170444&lt;/span&gt;', '', '&lt;a href="http://www.3gpp.org/ftp/tsg_sa/WG1_Serv/TSGS1_78_Porto/docs/S1-172310.zip"&gt;&lt;span style="font-size:14pt"&gt;S1-172310&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Specifications/SpecificationDetails.aspx?specificationId=3180"&gt;&lt;span style="font-size:14pt"&gt;22.186&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:14pt"&gt;0009&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;2&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="font-size:14pt"&gt;Rel-15&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:14pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Correction of NOTE 2 UL/DL values in 5.3 Advanced Driving&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;15.0.0&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/WorkItem/WorkItemDetails.aspx?workitemId=750003"&gt;&lt;span style="font-size:14pt"&gt;eV2X&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="font-size:14pt"&gt;SP-76&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:14pt"&gt;SP-170444&lt;/span&gt;', '', '&lt;a href="http://www.3gpp.org/ftp/tsg_sa/WG1_Serv/TSGS1_78_Porto/docs/S1-172301.zip"&gt;&lt;span style="font-size:14pt"&gt;S1-172301&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Specifications/SpecificationDetails.aspx?specificationId=3180"&gt;&lt;span style="font-size:14pt"&gt;22.186&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:14pt"&gt;0007&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;1&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="font-size:14pt"&gt;Rel-15&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:14pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Editorial modifications for TS 22.186&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;15.0.0&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/WorkItem/WorkItemDetails.aspx?workitemId=750003"&gt;&lt;span style="font-size:14pt"&gt;eV2X&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="font-size:14pt"&gt;SP-76&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:14pt"&gt;SP-170444&lt;/span&gt;', '', '&lt;a href="http://www.3gpp.org/ftp/tsg_sa/WG1_Serv/TSGS1_78_Porto/docs/S1-172306.zip"&gt;&lt;span style="font-size:14pt"&gt;S1-172306&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Specifications/SpecificationDetails.aspx?specificationId=3180"&gt;&lt;span style="font-size:14pt"&gt;22.186&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:14pt"&gt;0012&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;1&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="font-size:14pt"&gt;Rel-15&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:14pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Global editorial clean-up&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;15.0.0&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/WorkItem/WorkItemDetails.aspx?workitemId=750003"&gt;&lt;span style="font-size:14pt"&gt;eV2X&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="font-size:14pt"&gt;SP-76&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:14pt"&gt;SP-170444&lt;/span&gt;', '', '&lt;a href="http://www.3gpp.org/ftp/tsg_sa/WG1_Serv/TSGS1_78_Porto/docs/S1-172309.zip"&gt;&lt;span style="font-size:14pt"&gt;S1-172309&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Specifications/SpecificationDetails.aspx?specificationId=3180"&gt;&lt;span style="font-size:14pt"&gt;22.186&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:14pt"&gt;0001&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;2&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="font-size:14pt"&gt;Rel-15&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:14pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Removal of editor\'s NOTE in section 5.1&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;15.0.0&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/WorkItem/WorkItemDetails.aspx?workitemId=750003"&gt;&lt;span style="font-size:14pt"&gt;eV2X&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="font-size:14pt"&gt;SP-76&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:14pt"&gt;SP-170444&lt;/span&gt;', '', '&lt;a href="http://www.3gpp.org/ftp/tsg_sa/WG1_Serv/TSGS1_78_Porto/docs/S1-172313.zip"&gt;&lt;span style="font-size:14pt"&gt;S1-172313&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Specifications/SpecificationDetails.aspx?specificationId=3180"&gt;&lt;span style="font-size:14pt"&gt;22.186&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:14pt"&gt;0010&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;2&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="font-size:14pt"&gt;Rel-15&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:14pt"&gt;C&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Remove the brakets and Editor\'s note in Video sharing of 5.4 Extended Sensors&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;15.0.0&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/WorkItem/WorkItemDetails.aspx?workitemId=750003"&gt;&lt;span style="font-size:14pt"&gt;eV2X&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-77&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-170693&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;S1-173479&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;22.186&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0013&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Rel-15&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction to information exchange via RSU&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;eV2X&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-77&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-170693&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;S1-173480&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;22.186&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0015&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Rel-15&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;correction to data rate and transmission rate&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;eV2X&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Specifications/SpecificationDetails.aspx?specificationId=3180"&gt;&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180309&lt;/span&gt;', '', '&lt;a href="http://www.3gpp.org/ftp/tsg_sa/WG1_Serv/TSGS1_82_Dubrovnik/Docs/S1-181562.zip"&gt;&lt;span style="font-size:16pt"&gt;S1-181562&lt;/span&gt;&lt;/a&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Specifications/SpecificationDetails.aspx?specificationId=3180"&gt;&lt;span style="font-size:16pt"&gt;22.186&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:16pt"&gt;0016&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/Release/ReleaseDetails.aspx?releaseId=190"&gt;&lt;span style="font-size:16pt"&gt;Rel-15&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update the note in the RSU definition&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.3.0&lt;/span&gt;', '', '&lt;a href="http://portal.3gpp.org/desktopmodules/WorkItem/WorkItemDetails.aspx?workitemId=750003"&gt;&lt;span style="font-size:16pt"&gt;eV2X&lt;/span&gt;&lt;/a&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-81&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180755&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;S1-182626&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;22.186&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Rel-16&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SAE International\'s Levels of Automation reference link&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;eV2X&lt;/span&gt;', '', '', '', '&lt;b&gt;Change history&lt;/b&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Date&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Meeting&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;TDoc&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;CR&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Rev&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Cat&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Subject/Comment&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;New version&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-82&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-181012&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0019&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;normative requirements for V2XIMP&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-82&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-181012&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0020&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Annex Role model for V2XIMP&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#84&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190568&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0023&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;CR to TS 22.186 on eV2X Requirements&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#95e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Updated to Rel-17 by MCC&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.0.0&lt;/span&gt;', '', '', '', '3GPP', '', '', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.2143682924958542</v>
+        <v>0.9106044738734906</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;A.4.2	Primary frequency control&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;5.6	Multi-network connectivity and service delivery &lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>22104-j00.docx</t>
+          <t>22263.docx</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1228,22 +1228,22 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>['', 'Primary frequency control is among the most challenging and demanding control applications in the utility sector. A primary frequency control system is responsible for controlling the energy supply injected and withheld to ensure that the frequency is not deviating more than 0.02\xa0% from the nominal value (e.g., 50 Hz in Europe). Frequency control is based on having sensors for measuring the features in all parts of the network at all points where energy generation or storage units are connected to the grid. At these points, electronic power converters, also known as inverters, are equipped with communication units to send measurement values to other points in the grid such as a frequency control unit, or receive control commands to inject more, or less, energy into the local network. ', '', 'With the widespread deployment of local generation units, i.e. solar power units, or wind turbines, hundreds of thousands of such units, and their inverters, may have to be connected in a larger power distribution network. ', '', 'Primary frequency control is carried out in one of three ways: ', '', '1)\tCentralised control, all data analysis and corrective actions are determined by a central frequency control unit.', '', '2)\tDecentralised control, the automatic routine frequency control is performed by the individual local inverter based on local frequency values. Statistics and other information is communicated to the central frequency control unit. ', '', '3)\tDistributed control, the automatic routine frequency control is performed by the individual local inverter based on local and neighbouring frequency values. Statistics and other information are communicated to the central frequency control unit. ', '', 'Table A&lt;b&gt;.&lt;/b&gt;4.2-1: Service performance requirements for primary frequency control', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Message size [byte]', '', 'Transfer interval: target value', '', 'Survival time', '', '# of UEs', '', 'Service area', '', '1', '', '99.999', '', 'TBD', '', '~ 50 ms ', '', '~ 100', '', '~ 50 ms', '', 'TBD', '', '≤\xa0100,000', '', 'several km&lt;sup&gt;2&lt;/sup&gt; up to 100,000\xa0km&lt;sup&gt;2&lt;/sup&gt;', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Periodic communication service supporting message exchange for primary frequency control.', '']</t>
+          <t>['', 'The 3GPP system shall be able to enable a UE to receive low-latency downlink multicast traffic from one network (e.g. NPN), and paging as well as data services from another network (e.g. PLMN) simultaneously.', '', 'NOTE: \tDepending on the capabilities and configurations of the UE, limitations of data-rate and latency may be acceptable. ', '']</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.2126139674435083</v>
+        <v>0.6869581337547852</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;A.4.3	Distributed voltage control&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;6.1	Network support and exposure for UAV usage&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>22104-j00.docx</t>
+          <t>22843-j00.docx</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1253,22 +1253,22 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>['', 'In the evolution towards 100\xa0% renewable electric power production, the objective of voltage control is to balance the voltage in future low voltage distribution grids connecting local loads and prosumers, as well as energy storage facilities. The aim is to stabilise the voltage as locally as possible, so that decisions and control commands can be issued as quickly as possible. Distributed voltage control is a challenging and demanding control application. Consumer devices rely on having stable voltage levels to operate successfully. When future energy networks rely on thousands of local energy generation units relying mostly on solar and wind power, then it is crucial to stabilise the voltage levels in all segments of the distribution grid. Inverters, or electronic power converters, measure the voltage and power and change the amount of power injected into the grid, and they connect and disconnect end points from the distribution network.', '', 'Distributed control means that the automated voltage control shall be performed by the local voltage control units based on local &lt;i&gt;and neighbouring&lt;/i&gt; voltage and impedance values. Statistics and other information shall be communicated to the central distribution management system, though. ', '', 'Table A&lt;b&gt;.&lt;/b&gt;4.3-1: Service performance requirements for distributed voltage control', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Message size [byte]', '', 'Transfer interval: target value', '', 'Survival time', '', '# of UEs', '', 'Service area', '', '1', '', '99.999', '', 'TBD', '', '~ 100 ms', '', '~ 100', '', '~\xa0200\xa0ms', '', 'TBD', '', '≤\xa0100,000', '', 'several km&lt;sup&gt;2&lt;/sup&gt; up to 100,000\xa0km&lt;sup&gt;2&lt;/sup&gt;', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Periodic communication service supporting message exchange for distributed voltage control.', '']</t>
+          <t>['', 'CPR #', '', 'Consolidated Potential Requirement', '', 'Original PR #', '', 'Comment', '', 'CPR 6.1-001', '', 'Based on operator’s policy, the 5G system shall be able to support a method to predict, monitor network conditions and QoS (e.g. bitrate, latency, reliability) and report to 3rd party along a continuous geographic planned flight path of a UAV at specific times of its expected flight duration.', '', 'P.R 5.2.6-001', '', 'P.R 5.6.6-001', '', '', '', 'CPR 6.1-002', '', 'Based on operator’s policy, the 5G system shall be able to provide UTM with the information about geographic areas where UAV service requirements could or could not be met based on predicted network conditions and QoS (e.g. bitrate, latency, reliability).', '', 'P.R 5.2.6-002', '', '', '', 'CPR 6.1-003', '', 'Based on a 3&lt;sup&gt;rd&lt;/sup&gt; party request, the 5G system shall be able to provide to the 3&lt;sup&gt;rd&lt;/sup&gt; party alternative UAV flight paths, as long as UTM-provided required waypoints (e.g. start/end locations), required QoS, and exclusion zones are fulfilled.', '', 'P.R 5.2.6-003', '', '', '', 'CPR 6.1-004', '', 'Based on a 3&lt;sup&gt;rd&lt;/sup&gt; party request and operator’s policy, the 5G system shall be able to reconfigure network resources to provide the required QoS along a UAV planned flight path, e.g. at particular geographical area(s) and time(s).', '', 'P.R 5.2.6-004', '', '', '', 'CPR 6.1-005', '', '&lt;span style="color:000000"&gt;The 5G system shall be able to support a mechanism to enable a network operator to track a UAV which doesn’t have subscription with this network operator.&lt;/span&gt;', '', '', '', '&lt;span style="color:000000"&gt;P.R 5.7.6-001&lt;/span&gt;', '', '', '', '', '', 'CPR 6.1-006', '', 'The 5G system shall be able to support service enablement layer exposure mechanisms for the UTM or other authorized 3rd party to provide the UAV application with configuration information to route and switch traffic between one active and one standby PLMN connection, e.g. for C2 communication reliability and redundancy purpose, or to route different traffic across different PLMN connections simultaneously, e.g. C2 traffic via one PLMN and other data via the second PLMN.', '', 'NOTE 1: The above requirement can be extended to scenarios where one network is a PLMN and one is an NPN.', '', 'NOTE 2: There is no impact on legacy network selection. ', '', 'NOTE 3: It is assumed that UAV traffic handling, over each PLMN, is subject to NW control mechanisms (e.g. in accordance with MNO routing priorities, available QoS/NW resources, etc.).', '', '', '', '&lt;span style="color:000000"&gt;P.R 5.8.6-001&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;P.R 5.9.6-001&lt;/span&gt;', '', '', '', 'CPR 6.1-007', '', 'The 5G system shall be able to support mechanisms for the UTM to configure different aerial flight zones where UAV application settings and communication QoS may be different, and provide network and UAV with means to identify those flight zones.', '', '&lt;span style="color:000000"&gt;P.R 5.10.6-001&lt;/span&gt;', '', '', '', 'CPR 6.1-008', '', 'The 5G system shall be able to support mechanisms for the UTM to provide network and UAV with policy information including UAV application settings and communication QoS to be applied in specific aerial flight zones, e.g. based on flight zone type indicated or available to the UAV in a certain geographical location.', '', '&lt;span style="color:000000"&gt;P.R 5.10.6-002&lt;/span&gt;', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.2162285749832517</v>
+        <v>0.8604418089147792</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;A.4.5	Smart grid millisecond-level precise load control&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;6.2	&lt;span style="background-color:green"&gt;Low latency and high reliability&lt;/span&gt;&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>22104-j00.docx</t>
+          <t>22289.docx</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1278,22 +1278,22 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>['', 'Precise Load Control is the basic application for smart grid. When serious HVDC (high-voltage direct current) transmission fault happens, Millisecond-Level Precise Load Control is used to quickly remove interruptible less-important load, such as electric vehicle charging piles and non-continuous production power supplies in factories.', '', 'Table A&lt;b&gt;.&lt;/b&gt;4.5-1: Service performance requirements for smart grid millisecond-level precise load control ', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Service bitrate: user experienced data rate', '', 'Message size [byte]', '', 'Transfer interval: target value', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service area', '', '1', '', '99.999\xa09', '', '– ', '', '&amp;lt; 50 ms', '', '0.59 kbit/s', '28 kbit/s', '', '&amp;lt; 100', '', 'n/a ', '(note)', '', '–', '', 'stationary', '', '&lt;span style="color:000000"&gt;10\xa0km&lt;/span&gt;&lt;span style="color:000000"&gt;&lt;sup&gt;-&lt;/sup&gt;&lt;/span&gt;&lt;span style="color:000000"&gt;² to 100\xa0km&lt;/span&gt;&lt;span style="color:000000"&gt;&lt;sup&gt;-&lt;/sup&gt;&lt;/span&gt;&lt;span style="color:000000"&gt;²&lt;/span&gt;', '', 'TBD', '', 'NOTE:\tevent-triggered', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'A non-periodic deterministic communication service between control primary station and load control terminals for removing interruptible less-important load quickly.', '']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.2133236832286611</v>
+        <v>0.9455455611088468</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;A.4.6	Distributed energy storage&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;6.2	General performance requirements&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>22104-j00.docx</t>
+          <t>22263.docx</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1303,47 +1303,47 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>['', 'Distributed power generation includes various power sources such as solar, wind, fuel cells, and gas. Distributed power generation typically comes with a low power density and entails thus typicall a decentralised deployment. Decentralisation causes technical problems and challenges Smart Grid operators. When distributed power generation is connected to the elctrical grid, the energy flow becomes more complicated as the user often is both an electricity consumer and producer (a so-called “prosumer”). Therefore, the current in the electricity grid can change direction at different locations of the grid and at different times of the day. ', '', 'The information exchange in a distributed energy grid does not only include power-generation-related data, but also control commands for the distributed energy storage equipment. An example for such a command is “change the load characteristics to realise a flexible electricity grid” etc.', '', '----media/image10.jpeg----', '', 'Figure A.4.6-1 Example of a distributed-energy storage grid', '', 'Figure A.4.6-1 shows an example of distributed-energy storage grid. The distributed-energy storage grid needs to exchange information among the distributed-energy storage management platform (DESMP) and distributed-energy devices (DEDs). ', '', 'The DED is a plug-and-play device and periodically collects its energy information, such as battery energy, charge and discharge status, energy alarm information, etc. The DED then transfers this information via 5G UE to the DESMP. The DESMP regularly manages the DEDs, e.g., the DESMP monitors the DEDs working status, controls the DEDs working modes, or configures the DEDs energy parameters etc. The associated KPIs are provided in Table A.4.6-1. ', '', '', '', 'Table A.4.6-1: Communication service performance requirements ‒ data for distributed energy storage', '', 'Use case#', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value ', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum ', '', 'Service bit rate: user experienced data rate&lt;b&gt; &lt;/b&gt;', '', 'Message size [byte]&lt;b&gt; &lt;/b&gt;', '', 'Transfer interval: target value&lt;b&gt; &lt;/b&gt;', '', 'Survival time&lt;b&gt; &lt;/b&gt;', '', 'UE ', 'speed&lt;b&gt; &lt;/b&gt;', '', '# of UEs', '', 'Service area ', '', '', '1', '', ' &amp;gt; 99.9 %', '', '', '', 'DL: &amp;lt; 10\xa0ms', 'UL: &amp;lt; 10\xa0ms', '', 'UL: &amp;gt; 16\xa0Mbit/s (urban); 640\xa0Mbit/s (rural)', '', 'DL: &amp;gt; 100\xa0kbit/s', '', '(note 1)', '', 'UL: 800\xa0kbyte', '', 'UL: 10\xa0ms', '', '–', '', 'stationary', '', '&amp;gt; 10/km&lt;sup&gt;2&lt;/sup&gt; (urban); ', '', '&amp;gt; 100/km&lt;sup&gt;2&lt;/sup&gt; (rural)', '', '(note 2)', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', '2', '', '&amp;gt; 99.9 %', '', '', '', 'DL: &amp;lt; 10\xa0ms', '', 'UL: &amp;lt; 1\xa0s', '', 'UL: &amp;gt; 128\xa0kbit/s (urban); 10.4\xa0Mbit/s (rural);', '', 'DL: &amp;gt; 100\xa0kbit/s', '', '(note 1)', '', 'UL: 1.3\xa0Mbyte', '', 'DL: &amp;gt; 100\xa0kbyte', '', 'UL: 1000\xa0ms', '', '–', '', 'stationary', '', '&amp;gt; 10/km&lt;sup&gt;2&lt;/sup&gt; (urban); ', '', '&amp;gt; 100/km&lt;sup&gt;2&lt;/sup&gt; (rural)', '', ' (note 2)', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', '3', '', ' &amp;gt; 99.9 %', '', '', '', '&lt;span style="font-size:18pt"&gt;DL: &amp;lt; 10\xa0ms&lt;/span&gt;', '', 'UL:&amp;lt; 1\xa0s (rural)', '', 'DL: &amp;gt; 100\xa0kbit/s', '', 'UL: &amp;gt; 5\xa0Gbit/s', '(note 3)', '', '', '', '', '', '', '', 'stationary', '', '&amp;gt; 100/km&lt;sup&gt;2&lt;/sup&gt;', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', 'NOTE 1:\tService bit rate for one energy storage station.', '', 'NOTE 2:\tActivity storage nodes/km&lt;sup&gt;2&lt;/sup&gt;. This value is used for deducing the data volume in an area that features multiple energy storage stations. The data volume can be calculated with the following formula (current service bit rate per storage station) x (activity storage nodes/km&lt;sup&gt;2&lt;/sup&gt;) + (video service bit rate per storage station) x (activity storage nodes/km&lt;sup&gt;2&lt;/sup&gt;). ', '', 'NOTE 3:\tThe downlink user experienced data rate is calculated as follows: 12.5 Mbytes/s x 50(containers) x 8 = 5\xa0Gbit/s', '', '&lt;span style="font-size:20pt"&gt;&lt;i&gt;Use case#1:&lt;/i&gt;&lt;/span&gt; Distributed energy storage ‒ periodic communication for monitoring ', '', '&lt;span style="font-size:20pt"&gt;&lt;i&gt;Use case#2:&lt;/i&gt;&lt;/span&gt; Distributed energy storage ‒ periodic communication for data collection ', '', '&lt;b&gt;&lt;i&gt;Use case#3:&lt;/i&gt;&lt;/b&gt;&lt;span style="font-size:18pt"&gt;&lt;b&gt; Distributed energy storage ‒ aperiodic video communication&lt;/b&gt;&lt;/span&gt;', '']</t>
+          <t>['', '&lt;span style="font-size:28pt"&gt;6.2.1&lt;/span&gt;\t&lt;span style="font-size:28pt"&gt;Video and audio production applications&lt;/span&gt;', '', 'Table 6.2.1-1: Performance requirements of professional low-latency periodic deterministic audio transport service', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Profile&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;# of active UEs&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;UE Speed&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Service Area&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;E2E latency (Note 1)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Transfer interval (Note 1)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Packet error rate (Note 2, Note 3)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Data rate UL&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Data rate DL&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Music Festival&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;200&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;10 km/h&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;500 m x 500 m&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;750 µs&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;250 µs&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;10&lt;/span&gt;&lt;span style="font-size:18pt"&gt;&lt;sup&gt;-6&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;500 kbit/s&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;-&lt;/span&gt;', '', '', '', '&lt;span style="font-size:18pt"&gt;100&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;10 km/h&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;500 m x 500 m&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;750 µs&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;250 µs&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;10&lt;/span&gt;&lt;span style="font-size:18pt"&gt;&lt;sup&gt;-6&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;1 Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Musical&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;30&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;50 km/h&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;50 m x 50 m&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;750 µs&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;250 µs&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;10&lt;/span&gt;&lt;span style="font-size:18pt"&gt;&lt;sup&gt;-6&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;500 kbit/s&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;-&lt;/span&gt;', '', '', '', '&lt;span style="font-size:18pt"&gt;20&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;50 km/h&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;50 m x 50 m&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;750 µs&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;250 µs&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;10&lt;/span&gt;&lt;span style="font-size:18pt"&gt;&lt;sup&gt;-6&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;1 Mbit/s&lt;/span&gt;', '', '', '', '&lt;span style="font-size:18pt"&gt;10&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;50 m x 50 m&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;750 µs&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;250 µs&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;10&lt;/span&gt;&lt;span style="font-size:18pt"&gt;&lt;sup&gt;-6&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;500 kbit/s&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Semi-professional&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;10&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;5 km/h&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;5 m x 5 m&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;750 µs&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;250 µs&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;10&lt;/span&gt;&lt;span style="font-size:18pt"&gt;&lt;sup&gt;-6&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;100 kbit/s&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;-&lt;/span&gt;', '', '', '', '&lt;span style="font-size:18pt"&gt;10&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;5 km/h&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;5 m x 5 m&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;750 µs&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;250 µs&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;10&lt;/span&gt;&lt;span style="font-size:18pt"&gt;&lt;sup&gt;-6&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;200 kbit/s&lt;/span&gt;', '', '', '', '&lt;span style="font-size:18pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;5 m x 5 m&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;750 µs&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;250 µs&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;10&lt;/span&gt;&lt;span style="font-size:18pt"&gt;&lt;sup&gt;-6&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;100 kbit/s&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;AV production&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;20&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;5 km/h&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;30 m x 30 m&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;750 µs&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;250 µs&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;10&lt;/span&gt;&lt;span style="font-size:18pt"&gt;&lt;sup&gt;-6&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;1.5 Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;-&lt;/span&gt;', '', '', '', '&lt;span style="font-size:18pt"&gt;10&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;5 km/h&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;30 m x 30 m&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;750 µs&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;250 µs&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;10&lt;/span&gt;&lt;span style="font-size:18pt"&gt;&lt;sup&gt;-6&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;3 Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Audio Studio&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;30&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;10 m x 10 m&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;750 µs&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;250 µs&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;10&lt;/span&gt;&lt;span style="font-size:18pt"&gt;&lt;sup&gt;-6&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;5 Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;-&lt;/span&gt;', '', '', '', '&lt;span style="font-size:18pt"&gt;10&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;5 km/h&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;10 m x 10 m&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;750 µs&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;250 µs&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;10&lt;/span&gt;&lt;span style="font-size:18pt"&gt;&lt;sup&gt;-6&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;1 Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;NOTE 1: &lt;/span&gt;\t&lt;span style="font-size:18pt"&gt;Transfer interval refers to periodicity of the packet transfers. It has to be constant during the whole operation. The value given in the table is a typical one, however other transfer intervals are possible as long as the end-to-end latency is ≤ (1ms – Transfer interval).&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;NOTE 2: &lt;/span&gt;\t&lt;span style="font-size:18pt"&gt;Packet error rate is related to a packet size of (transfer interval × data rate). Packets that do not conform with the end-to-end latency are also accounted as error.&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;NOTE 3: &lt;/span&gt;\t&lt;span style="font-size:18pt"&gt;The given requirement for a packet error rate assumes a uniform error distribution. The requirement for packet error rate is stricter if packet errors occur in bursts.&lt;/span&gt;', '', '', '', '', '', 'Table 6.2-1-2: Performance requirements of low-latency periodic deterministic audio transport service in presentation use cases', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Profile&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;# of active UEs&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;UE Speed&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Service Area&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;E2E latency (Note 1)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Transfer interval (Note 1)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Packet error rate (Note 2, Note 3)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Data rate UL&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Data rate DL&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Ad hoc&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;20&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;5 km/h&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;300 m x 300 m&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;4 ms&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;1 ms&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;10&lt;/span&gt;&lt;span style="font-size:18pt"&gt;&lt;sup&gt;-5&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;200 kbit/s&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;-&lt;/span&gt;', '', '', '', '&lt;span style="font-size:18pt"&gt;8&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;stationary&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;300 m x 300 m&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;4 ms&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;1 ms&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;10&lt;/span&gt;&lt;span style="font-size:18pt"&gt;&lt;sup&gt;-5&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;200 kbit/s&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Campus&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;1000&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;5 km/h&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;2 km x 2 km&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;4 ms&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;1 ms&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;10&lt;/span&gt;&lt;span style="font-size:18pt"&gt;&lt;sup&gt;-5&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;200 kbit/s&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Conference&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;10&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;5 km/h&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;100 m x 100 m&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;4 ms&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;1 ms&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;10&lt;/span&gt;&lt;span style="font-size:18pt"&gt;&lt;sup&gt;-5&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;1.5 Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;-&lt;/span&gt;', '', '', '', '&lt;span style="font-size:18pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;stationary&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;100 m x 100 m&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;4 ms&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;1 ms&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;10&lt;/span&gt;&lt;span style="font-size:18pt"&gt;&lt;sup&gt;-5&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;1.5 Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Lecture room&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;5 km/h&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;10 m x 10 m&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;4 ms&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;1 ms&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;10&lt;/span&gt;&lt;span style="font-size:18pt"&gt;&lt;sup&gt;-5&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;50 kbit/s&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;-&lt;/span&gt;', '', '', '', '&lt;span style="font-size:18pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;stationary&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;10 m x 10 m&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;4 ms&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;1 ms&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;10&lt;/span&gt;&lt;span style="font-size:18pt"&gt;&lt;sup&gt;-5&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;50 kbit/s&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;NOTE 1: &lt;/span&gt;\t&lt;span style="font-size:18pt"&gt;Transfer interval refers to periodicity of the packet transfers. It has to be constant during the whole operation. The value given in the table is a typical one, however other transfer intervals are possible as long as the end-to-end latency is ≤ (5 ms – Transfer interval).&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;NOTE 2: &lt;/span&gt;\t&lt;span style="font-size:18pt"&gt;Packet error rate is related to a packet size of (Transfer interval × data rate). Packets that do not conform with the end-to-end latency are also accounted as error.&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;NOTE 3: &lt;/span&gt;\t&lt;span style="font-size:18pt"&gt;The given requirement for a packet error rate assumes a uniform error distribution. The requirement for packet error rate is stricter if packet errors occur in bursts.&lt;/span&gt;', '', '', '', '', '', 'Table 6.2.1-3: Performance requirements for low latency video.', '', 'Profile', '', '# of active UEs', '', 'UE Speed', '', 'Service Area', '', 'E2E latency ', '', 'Packet error rate (Note 1)', '', 'Data rate UL', '', 'Data rate DL', '', 'Uncompressed UHD video', '', '1', '', '0 km/h', '', '1 km&lt;sup&gt;2&lt;/sup&gt;', '', '400 ms', '', '10&lt;sup&gt;-10&lt;/sup&gt; UL', '', '10&lt;sup&gt;-7&lt;/sup&gt; DL', '', '12 Gbit/s', '', '20 Mbit/s', '', 'Uncompressed HD video', '', '1', '', '0 km/h', '', '1 km&lt;sup&gt;2&lt;/sup&gt;', '', '400 ms', '', '10&lt;sup&gt;-9&lt;/sup&gt; UL', '', '10&lt;sup&gt;-7&lt;/sup&gt; DL', '', '3 .2 Gbit/s', '', '20 Mbit/s', '', 'Mezzanine compression UHD video', '', '5', '', '0 km/h', '', '1000 m&lt;sup&gt;2&lt;/sup&gt;', '', '1 s', '', '', '', '10&lt;sup&gt;-9&lt;/sup&gt; UL', '', '10&lt;sup&gt;-7&lt;/sup&gt; DL', '', '3 Gbit/s', '', '20 Mbit/s', '', 'Mezzanine compression HD video', '', '5', '', '0 km/h', '', '1000 m&lt;sup&gt;2&lt;/sup&gt;', '', '1 s', '', '', '', '10&lt;sup&gt;-9&lt;/sup&gt; UL', '', '10&lt;sup&gt;-7&lt;/sup&gt; DL', '', '1 Gbit/s', '', '20 Mbit/s', '', 'Tier one events UHD', '', '5', '', '0 km/h', '', '1000 m&lt;sup&gt;2&lt;/sup&gt;', '', '1 s', '', '', '', '10&lt;sup&gt;-9&lt;/sup&gt; UL', '', '10&lt;sup&gt;-7&lt;/sup&gt; DL', '', '500 Mbit/s', '', '20 Mbit/s', '', 'Tier one events HD', '', '5', '', '0 km/h', '', '1000 m&lt;sup&gt;2&lt;/sup&gt;', '', '1 s', '', '', '', '10&lt;sup&gt;-8&lt;/sup&gt; UL', '', '10&lt;sup&gt;-7&lt;/sup&gt; DL', '', '200 Mbit/s', '', '20 Mbit/s', '', 'Tier two events UHD', '', '5', '', '7 km/h', '', '1000 m&lt;sup&gt;2&lt;/sup&gt;', '', '1 s', '', '', '', '10&lt;sup&gt;-8&lt;/sup&gt; UL', '', '10&lt;sup&gt;-7&lt;/sup&gt; DL', '', '100 Mbit/s', '', '20 Mbit/s', '', 'Tier two events HD', '', '5', '', '7 km/h', '', '1000 m&lt;sup&gt;2&lt;/sup&gt;', '', '1 s', '', '', '', '10&lt;sup&gt;-8&lt;/sup&gt; UL', '', '10&lt;sup&gt;-7&lt;/sup&gt; DL', '', '80 Mbit/s', '', '20 Mbit/s', '', 'Tier three events UHD (Note 2)', '', '5', '', '200 km/h', '', '1000 m&lt;sup&gt;2&lt;/sup&gt;', '', '1 s', '', '', '', '10&lt;sup&gt;-7&lt;/sup&gt; UL', '', '10&lt;sup&gt;-7&lt;/sup&gt; DL', '', '20 Mbit/s', '', '10 Mbit/s', '', 'Tier three events HD (Note 2)', '', '5', '', '200 km/h', '', '1000 m&lt;sup&gt;2&lt;/sup&gt;', '', '1 s', '', '', '', '10&lt;sup&gt;-7&lt;/sup&gt; UL', '', '10&lt;sup&gt;-7&lt;/sup&gt; DL', '', '10 Mbit/s', '', '10 Mbit/s', '', 'Remote OB', '', '5', '', '7 km/h', '', '1000 m&lt;sup&gt;2&lt;/sup&gt;', '', '6 ms', '', '10&lt;sup&gt;-8&lt;/sup&gt; UL', '', '10&lt;sup&gt;-7&lt;/sup&gt; DL', '', '200 Mbit/s', '', '20 Mbit/s', '', 'NOTE 1: \tPackets that do not conform with the end-to-end latency are also accounted as error. The packet error rate requirement is calculated considering 1500 B packets, and 1 packet error per hour is 10&lt;sup&gt;-5&lt;/sup&gt;/(3*x) ----media/image4.emf----, where x ----media/image5.emf---- is the data rate in Mbps.', '', 'NOTE 2: \tCould use either professional equipment or mobile phone equipped with dedicated newsgathering app ', '', '', '', 'Table 6.2.1-4: Performance requirements for airborne base stations for NPN.', '', 'Profile', '', '# of active UEs', '', 'UE Speed', '', 'Service Area', '', 'E2E latency ', '', 'Packet error rate (Note 1)', '', 'Data rate UL', '', 'Data rate DL', '', 'NPN ground to air UHD up Link', '', '10', '', '500 km/h', '', '700 km2 x 6000 m (Note 2)', '', '', '', '40 ms', '', '10&lt;sup&gt;-8&lt;/sup&gt; UL', '', '10&lt;sup&gt;-7&lt;/sup&gt; DL', '', '100 Mbit/s', '', '20 Mbit/s', '', 'NPN ground to air HD up link', '', '10', '', '500 km/h', '', '700 km2 x 6000 m (Note 2)', '', '40 ms', '', '10&lt;sup&gt;-8&lt;/sup&gt; UL', '', '10&lt;sup&gt;-7&lt;/sup&gt; DL', '', '80 Mbit/s', '', '20 Mbit/s', '', 'NPN air to ground', '', 'UHD down Link', '', '2', '', '500 km/h', '', '700 km2 x 6000 m (Note 2)', '', '40 ms', '', '10&lt;sup&gt;-7&lt;/sup&gt; UL', '', '10&lt;sup&gt;-8&lt;/sup&gt; DL', '', '20 Mbit/s', '', '100 Mbit/s', '', 'NPN air to ground    HD down link', '', '2', '', '500 km/h', '', '700 km2 x 6000 m (Note 2)', '', '40 ms', '', '10&lt;sup&gt;-7&lt;/sup&gt; UL', '', '10&lt;sup&gt;-8&lt;/sup&gt; DL', '', '20 Mbit/s', '', '80 Mbit/s', '', 'NPN radio Camera UHD', '', '10', '', '200 km/h', '', '1 km&lt;sup&gt;2&lt;/sup&gt;', '', '3 ms', '', '10&lt;sup&gt;-8&lt;/sup&gt; UL', '', '10&lt;sup&gt;-7&lt;/sup&gt; DL', '', '100 Mbit/s', '', '20 Mbit/s', '', 'NPN radio camera HD', '', '10', '', '200 km/h', '', '1 km&lt;sup&gt;2&lt;/sup&gt;', '', '3 ms', '', '10&lt;sup&gt;-8&lt;/sup&gt; UL', '', '10&lt;sup&gt;-7&lt;/sup&gt; DL', '', '80 Mbit/s', '', '20 Mbit/s', '', 'NOTE 1: \t Packets that do not conform with the end-to-end latency are also accounted as error. The packet error rate requirement is calculated considering 1500 B packets, and 1 packet error per hour  is 10&lt;sup&gt;-5&lt;/sup&gt;/(3*x)----media/image6.emf----, where x  is the data rate in Mbps.', '', 'NOTE 2: \t6000 m = height but in a cone formation (i.e. ground coverage with a circle of diameter 30 KM)', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.2187879276115464</v>
+        <v>0.8759177122411159</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;A.4.7	Advanced metering&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;6.2	Network exposure for UAV services&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>22104-j00.docx</t>
+          <t>22125.docx</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>['', 'Instead of recording and sending metering data from a wired electricity meter unit, electricity metering collecting can be executed by a UE-integrated smart meter unit. Smart meter units can send real-time metering data to a server in the utility through mobile networks. In this way, the power enterprise―based on the analysis of the user’s power consumption behavior―gives the user power consumption suggestions, which fosters the user’s power consumption and energy saving habits. ', '', 'The electric smart meters monitor relevant user energy status and deliver the status data to a measurement data management system (MDMS). The MDMS sends control commands according to its policy and the status of the data collected from the smart meters. The MDMS commands include tripping, closing permission, alarm, alarm release, power protection, and power protection release. Accurate-fee control is one of the basic services of advanced metering. When the electric power user doesn’t pay her electric fee on time, the MDMS can cut off the power supply. And when there is a need for temporary power supply for this user, the MDMS can recover the power supply. This operation requires real-time interaction between the electric smart meter and the MDMS. Due to massive number of electricity meters, it is estimated that in the near future, the amount of this kind of interaction will increase 5 to 10 times. The associated KPIs are provided in Table A.4.7-1.', '', 'Table A.4.7-1: Communication KPI for advanced metering', '', 'Use case#', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value ', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum ', '', 'Service bit rate: user experienced data rate&lt;b&gt; &lt;/b&gt;', '', 'Message size [byte]&lt;b&gt; &lt;/b&gt;', '', 'Transfer interval: target value&lt;b&gt; &lt;/b&gt;', '', 'Survival time&lt;b&gt; &lt;/b&gt;', '', 'UE ', 'speed&lt;b&gt; &lt;/b&gt;', '', '# of UEs', '', 'Service area ', '', '', '&lt;span style="font-size:18pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&amp;gt; 99.99&lt;/span&gt;', '', '', '', '&lt;span style="font-size:18pt"&gt;Accuracy fee control: &amp;lt; 100 (note 1);&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;General information data collection: &amp;lt; 3000&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;UL: &amp;lt; 2 M&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;DL: &amp;lt; 1 M&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;stationary&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&amp;lt; 10\xa0000/km2 (note2)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;–&lt;/span&gt;', '', 'NOTE 1: \tOne-way delay from 5G IoT device to backend system. The distance between the two is below 40\xa0km (city range).', '', 'NOTE 2: \tIt is the typical connection density in today city environment. With the evolution from centralised meters to socket meters in the home, the connection density is expected to increase 5 to 10 times.', '', '&lt;b&gt;&lt;i&gt;Use case#1:&lt;/i&gt;&lt;/b&gt;&lt;span style="font-size:18pt"&gt;&lt;b&gt; Advanced metering&lt;/b&gt;&lt;/span&gt;', '', '', '']</t>
+          <t>['', '[R-6.2-001] The 3GPP system shall provide means to allow a 3&lt;sup&gt;rd&lt;/sup&gt; party to request and obtain real-time monitoring the status information (e.g., location of UAV, communication link status) of a UAV.', '', "[R-6.2-002] Based on operator 's policy, the 3GPP system shall provide means to provide a 3&lt;sup&gt;rd&lt;/sup&gt; party with the information regarding the service status for UAVs in a certain geographical area and/or at a certain time.", '', 'NOTE: \tService status is about the information of whether the communication service to the UAV can be provided with a certain QoS by the network.', '', '[R-6.2-003] Based on operator’s policy, the 5G system shall be able to support a method to predict, monitor network conditions and QoS (e.g. bitrate, latency, reliability) and report to 3&lt;sup&gt;rd&lt;/sup&gt; party along a continuous geographic planned flight path of a UAV at specific times of its expected flight duration.', '']</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.2239796435878373</v>
+        <v>0.6774087922827429</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;A.4.8	Smart distribution transformer terminal&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;6.2	Network exposure for UAV services&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>22104-j00.docx</t>
+          <t>22125[1].docx</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1353,22 +1353,22 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>['', 'A smart distribution transformer terminal is usually deployed in a distribution transformer area. The terminal can support multiple energy applications simultaneously. Multiple kinds of energy data are collected by the terminal and then delivered to a energy application platform. Figure A.4.8.1-1 illustrates a workflow example for a smart distribution transformer terminal.', '', '----media/image11.png----', '', 'Figure A.4.8-1: Example of a smart distribution transformer terminal workflow', '', 'In general, the connections between the smart distribution transformer terminal and the energy application platform are provided by the 5G system. The connections between energy end equipment and smart distribution transformer terminal may be provided by 5G system. In this case, about 300 to 500 energy end devices are connected to one smart distribution transformer terminal. The average service bit rate between the smart distribution transformer terminal and an energy end device is more than 2\xa0Mbit/s in uplink for each application. The related communication distance is between 100 m and 500 m. The associated KPI is provided in Table A.4.8-1.', '', '', '', '&lt;span style="font-size:20pt"&gt;&lt;b&gt;Table A.4.8-1: Key Performance for Smart Distribution Transformer Terminal&lt;/b&gt;&lt;/span&gt;', '', 'Use case#', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value ', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum ', '', 'Service bit rate: user experienced data rate&lt;b&gt; &lt;/b&gt;', '', 'Message size [byte]&lt;b&gt; &lt;/b&gt;', '', 'Transfer interval: target value&lt;b&gt; &lt;/b&gt;', '', 'Survival time&lt;b&gt; &lt;/b&gt;', '', 'UE ', 'speed&lt;b&gt; &lt;/b&gt;', '', '# of UEs', '', 'Service area ', '', '', '&lt;span style="font-size:18pt"&gt;1&lt;/span&gt;', '', '&lt;b&gt;&amp;gt;99.99%&lt;/b&gt;', '', '&lt;b&gt;–&lt;/b&gt;', '', '&lt;b&gt;10\xa0ms, 100\xa0ms, 3\xa0s (note 2)&lt;/b&gt;', '', '&lt;b&gt;&amp;gt; 2\xa0Mbit/s (note 1)&lt;/b&gt;', '', '–', '', '–', '', '–', '', '–', '', '&lt;b&gt;500 in the service area (note\xa03)&lt;/b&gt;', '', '&lt;b&gt;Communication distance is from 100 m to 500\xa0m, (outdoor, indoor, and deep indoor)&lt;/b&gt;', '', 'NOTE 1: \tIt is the smart metering application data rate between the Smart Distribution Transformer Terminal and energy end equipment. Once there are multiple smart grid applications, it is required more data rate.', '', 'NOTE 2: \tIt depends on different applications supported by the Smart Distribution Transformer Terminal. The less the latency is, the more applications can be supported.', '', 'NOTE 3: \tThe distribution area can be calculated as 3.14 x range&lt;sup&gt;2&lt;/sup&gt; and in general is between 0.031 km&lt;sup&gt;2&lt;/sup&gt; and 0.79 km&lt;sup&gt;2&lt;/sup&gt;.', '', '&lt;b&gt;&lt;i&gt;Use case#1:&lt;/i&gt;&lt;/b&gt;&lt;span style="font-size:18pt"&gt;&lt;b&gt; smart distribution transformer terminal&lt;/b&gt;&lt;/span&gt;', '', '', '']</t>
+          <t>['', '[R-6.2-001] The 3GPP system shall provide means to allow a 3&lt;sup&gt;rd&lt;/sup&gt; party to request and obtain real-time monitoring the status information (e.g., location of UAV, communication link status) of a UAV.', '', "[R-6.2-002] Based on operator 's policy, the 3GPP system shall provide means to provide a 3&lt;sup&gt;rd&lt;/sup&gt; party with the information regarding the service status for UAVs in a certain geographical area and/or at a certain time.", '', 'NOTE: \tService status is about the information of whether the communication service to the UAV can be provided with a certain QoS by the network.', '', '[R-6.2-003] Based on operator’s policy, the 5G system shall be able to support a method to predict, monitor network conditions and QoS (e.g. bitrate, latency, reliability) and report to 3&lt;sup&gt;rd&lt;/sup&gt; party along a continuous geographic planned flight path of a UAV at specific times of its expected flight duration.', '']</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.2185563781732996</v>
+        <v>0.6774087922827429</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;A.4.9	Distributed energy resources and micro-grids&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;6.2	Performance requirements&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>22104-j00.docx</t>
+          <t>22156.docx</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1378,22 +1378,22 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>['', 'Distributed energy resources (DER) become increasingly important. The potentially large number of DERs will have an impact on security, stability, and operation efficiency of the energy grid. ', '', 'The integration of DERs into the energy grid poses many challenges for the involved communication system. To incorporate more renewable and alternative energy sources, the communication infrastructure must have the ability to easily handle an increasing amount of data traffic or service requests and must provide a real-time monitoring and control operation for these distributed energy resources. A reliable communication between the DERs is crucial. ', '', 'When it comes to communications architecture, IEC 61850 is a widely used standard for automation and equipment of power utilities and DER, specifically for defining protocols for IEDs (Intelligent electronic devices) at electrical substations The IEC 61850 standard specifies the timing constraints for messages typically used in substations. GOOSE (Generic Object Oriented Substation Events) and SV (Sampled Values) messages are assumed as time critical messages. They have the tightest deadlines (maximum allowed transfer time) among all IEC 61850 messages, corresponding to 3 ms. While GOOSE is typically used for transfering information related to monitoring and control functions (circuit breaker status etc.), SV is used for transfering measurement samples of current and voltage signals. The SV protocol works on a periodic information transmission model, sending messages at a fixed rate. For protection purposes, the default rate is 4000 or 4800 messages per second for 50 and 60 Hz power systems, respectively. On the other hand, the GOOSE protocol operates in a sporadic information transmission model, where a continuous flow of data is maintained to increase communication reliability. The typical sizes of GOOSE and SV messages are160 and 140 bytes, respectively. GOOSE messages are transmitted in two different modes: (1) safe operation: 1 message per second (service bit rate = 1.28 kbit/s); (2) emergency operation: 32 messages per second (service bit rate = 41.0 kbit/s). SV messages are transmitted at much higher rate, namely 4800 messages per second (service bit rate = 5.4 Mbit/s). The associated KPIs are provided in Table A.4.9-1.', '', '&lt;span style="font-size:20pt"&gt;&lt;b&gt;Table A.4.9-1: Key Performance for Distributed energy resources (DER): using SV (Sampled Values) message&lt;/b&gt;&lt;/span&gt;', '', '', '', 'Use case#', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Service bit rate: user experienced data rate', '', 'Message size [byte]', '', 'Transfer interval: target value', '', 'Survival time', '', 'UE ', 'speed', '', '&lt;b&gt;1&lt;/b&gt;', '', '&lt;b&gt;99,9999\xa0%&lt;/b&gt;', '', '&lt;b&gt;–&lt;/b&gt;', '', '&lt;b&gt;&amp;lt; 3 ms&lt;/b&gt;', '', '&lt;b&gt;4.5 Mbit/s&lt;/b&gt;', '', '&lt;b&gt;140&lt;/b&gt;', '', '&lt;b&gt;≤ 1 ms&lt;/b&gt;', '', '&lt;b&gt;transfer interval&lt;/b&gt;', '', '&lt;b&gt;stationary&lt;/b&gt;', '', '&lt;b&gt;2&lt;/b&gt;', '', '&lt;b&gt;99,9999\xa0%&lt;/b&gt;', '', '&lt;b&gt;–&lt;/b&gt;', '', '&lt;b&gt;&amp;lt; 3 ms&lt;/b&gt;', '', '&lt;b&gt;5.4 Mbit/s&lt;/b&gt;', '', '&lt;b&gt;140&lt;/b&gt;', '', '&lt;b&gt;≤ 1 ms&lt;/b&gt;', '', '&lt;b&gt;transfer interval&lt;/b&gt;', '', '&lt;b&gt;stationary&lt;/b&gt;', '', '&lt;b&gt;3&lt;/b&gt;', '', '&lt;b&gt;&amp;gt; 99.9999\xa0%&lt;/b&gt;', '', '&lt;b&gt;–&lt;/b&gt;', '', '&lt;b&gt;&amp;lt; 3 ms&lt;/b&gt;', '', '&lt;b&gt;–&lt;/b&gt;', '', '&lt;b&gt;160&lt;/b&gt;', '', '&lt;b&gt;–&lt;/b&gt;', '', '&lt;b&gt;–&lt;/b&gt;', '', '&lt;b&gt;stationary&lt;/b&gt;', '', 'NOTE:\tUE to UE communication is assumed.', '', '', '', '&lt;b&gt;&lt;i&gt;Use case#1:&lt;/i&gt;&lt;/b&gt;&lt;span style="font-size:18pt"&gt;&lt;b&gt; &lt;/b&gt;&lt;/span&gt;&lt;b&gt;Distributed energy resources and micro-grids: using SV(sample value) message with 50Hz&lt;/b&gt;', '', '&lt;b&gt;&lt;i&gt;Use case#2:&lt;/i&gt;&lt;/b&gt;&lt;span style="font-size:18pt"&gt;&lt;b&gt; &lt;/b&gt;&lt;/span&gt;&lt;b&gt;Distributed energy resources and micro-grids: using SV(sample value) message with 60Hz&lt;/b&gt;', '', '&lt;b&gt;&lt;i&gt;Use case#3:&lt;/i&gt;&lt;/b&gt;&lt;span style="font-size:18pt"&gt;&lt;b&gt; &lt;/b&gt;&lt;/span&gt;&lt;b&gt;Distributed energy resources and micro-grids: using GOOSE message&lt;/b&gt;', '', '', '', '', '']</t>
+          <t>['', '[R-6.2-001] The 5G system shall support various mobile metaverse services with the following KPIs.', '', 'NOTE: \tUnless stated otherwise, the "Max allowed end-to-end latency" refers to the maximum transmission delay expected between a UE and the mobile metaverse server or vice-versa.', '', 'Table 6.2-1:\tPerformance requirements for Mobile Metaverse Services', '', '&lt;span style="font-size:16pt"&gt;Use Cases&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Characteristic parameter (KPI)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Influence quantity&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Remarks&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Max allowed end-to-end latency&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Service bit rate: user-experienced data rate&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Reliability&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Area Traffic capacity&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Message size (byte)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Transfer Interval&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Positioning accuracy&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UE Speed&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Service Area&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;5G-enabled Traffic Flow Simulation and Situational Awareness&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 2)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[5-20] ms (NOTE 1)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[10~100] Mbit/s &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[8]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 6)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&amp;gt; 99.9%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1.14 Tbit/s/km2 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 5)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;20~100 ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 3)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 250 km/h&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;City or Country wide&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 4)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UL&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Collaborative and concurrent engineering&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[≤10] ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[9]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 7)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[1-100] Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[9]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[&amp;gt; 99.9%] &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[9]&lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;[1.55] Tbit/s/km2 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 8)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Video: 1500&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Audio: 100&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[9]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;typically &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 100 km2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 9)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UL and DL audio/video&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[5] ms UL &lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[1-50] ms DL&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[9]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 7)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[&amp;lt;1] Mbit/s &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[9]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[&amp;gt; 99.9%] (without compression)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[&amp;gt; 99.999%] (with compression (NOTE 10))&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[10]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[2.25] Tbit/s/km2 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 8)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1 DoF: 2-8 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3 DoFs: 6-24 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6 DoFs: 12-48 &lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[9]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.25-10 ms &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[9]&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;UL and DL haptic feedback&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Metaverse-based Tele-Operated Driving&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 16)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[100] ms &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[8] &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 11)&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;[10~50] Mbit/s &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[8] &lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;99% &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[8]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[~360] Mbit/s/km2 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 14)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;20~100 ms [8]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 12)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[10] cm &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[8]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[10-50] km/h (vehicle) &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[8]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Up to 10 km radius &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[8]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 13)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UL real-time vehicle data (video streaming and/or sensor data) &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[8]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[20] ms &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[8]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[0.1~0.4] Mbit/s &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[8]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;99.999% &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[8]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[~4] Mbit/s/km2 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 14)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Up to 8Kb&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[8]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;20 ms &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[8]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 12)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[10] cm &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[8]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[10-50] km/h (vehicle) &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[8]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Up to 10 km radius &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[8]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 13)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;DL control traffic (commands from the remote driver) &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[8]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;1-20 ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 15)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16 kbit/s -2 Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(without haptic compression encoding);&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;0.8 - 200 kbit/s &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(with haptic compression encoding)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 15)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.999%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 15)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[~20] Mbit/s/km2 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 14)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2-8 (1 DoF) (NOTE 15)&lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Up to 10 km radius &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[8]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 13)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Haptic feedback&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Viewports streaming from rendering device to AR glasses through direct device connection', '(tethered/relaying case)', '(NOTE 17)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;10 ms (i.e., UL+DL between AR Glasses display and the rendering UE) (NOTE 18)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[200-2000] Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.9 % ', '(NOTE 18)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or pedestrian (between rendering device and AR glasses)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Up to direct device connection ranging&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Immersive AR interactive experience: tethered link&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Pose information from AR glasses to rendering device through direct device connection', '(tethered/relaying case)', '(NOTE 17)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5 ms ', '(NOTE 18)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[100-400] Kbit/s ', '(NOTE 18)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.9 % ', '(NOTE 18)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or pedestrian (between rendering device and AR glasses)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Up to direct device connection ranging&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Movie streaming from metaverse server to the rendering device', '(NOTE 20)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Only relevant for live streaming.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[1-5] s in case of live streaming&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[0.1-50] Mbit/s (i.e., covering a complete OTT ladder from low resolution to 3D-8K)', '(NOTE 19)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.9 %&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Pedestrians and users in vehicles&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Immersive AR interactive experience: NG-RAN multimodal communication link&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Avatar information streaming between remote UEs (end to end)', '&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;10 ms (i.e., 20ms between both UEs excluding metaverse server processing time)', '(NOTE 22)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[0.1-30] Mbit/s ', '(NOTE 21)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.9 %&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Pedestrians and users in vehicles&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Interactive data exchange: voice and text between remote UEs (end to end)', '(NOTE 22)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;10 ms (i.e., 20ms between both UEs excluding metaverse server processing time)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[0.1-0.5] Mbit/s &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.9 %&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Pedestrians and users in vehicles&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;NOTE 1: &lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The mobile metaverse server receives the data from various sensors, performs data processing, rendering and provide feedback to the vehicles and users.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 2: &lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Based on [8] and 3GPP TS 22.261 [7], typical data volume include 1) camera: 8 Mbit/s per sensor (unstructured), 2) LiDAR: 35 Mbit/s per sensor (unstructured), 3) radar: 160 Kbit/s per sensor (unstructured), and 4) real-time Status information including Telemetry data: [&amp;lt; 50 kbit/s] per sensor/vehicle/VRU (structured). Typical urban density [8] considers 120 vehicles and 220 users/smartphones (120 drivers + 100 VRU) present in an area of 40m*250m to actively enjoy immersive metaverse services for traffic simulation and traffic awareness.This further considers 2 cameras, 2 Radars, 2 LiDARs on road side per direction, which communicate with the same equipment at previous roadside infrastructure node, Estimated vehicle equipments are 7 cameras, 8 radar and 1 LiDAR for each vehicle.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 3: &lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The frequency considers different sensor types such as Radar/LiDAR (10Hz) and camera (10~50Hz).&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 4: &lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The service area for traffic flow simulation and situational awareness depends on the actual deployment, for example, it can be deployed for a city or a district within a city or even countrywide. In some cases a local approach (e.g., the application servers are hosted at the network edge) is preferred in order to satisfy the requirements of low latency and high reliability.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 5: &lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The calculation is this table is done per one 5G network, in case of N 5G networks to be involved for such use case in the same area, this value can be divided by N.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 6: &lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;User experienced data rate refers to the data rate needed for the vehicle or human, the value is observed from industrial practice. &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 7: &lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The network based conference focus is assumed, which receives data from all the participants, performs rendering (image synthesis), and then distributes the results to all participants. As rendering and hardware introduce some delay, the communication delay for haptic feedback is typically less than 5ms.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 8: &lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;To support at least 15 users present at the same location (e.g., in an area of 20m*20m) to actively enjoy immersive Metaverse service concurrently, the area traffic capacity is calculated considering per user consuming non-haptic XR media (e.g., for video per stream up to 40000 kbit/s) and concurrently 60 haptic sensors (per haptic sensor generates data up to 1024 kbit/s).&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 9: &lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;In practice, the service area depends on the actual deployment. In some cases a local approach (e.g., the application servers are hosted at the network edge) is preferred in order to satisfy the requirements of low latency and high reliability.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 10: &lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The arrival interval of compressed haptic data usually follow some statistical distributions, such as generalized Pareto distribution, and Exponential distribution [10].&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 11: &lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The end-to-end latency does not include sensor acquisition or actuator control on the vehicle side, processing, and rendering on the user side (estimated additional 100ms total). Target e2e user experienced max delay depends on reaction time of the remote driver (e.g., at 50km/h, 20ms means 27cm of remote vehicle movement).&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 12: &lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;UL data transfer interval around 20ms (video) to 100ms (sensor), DL data transfer interval (commands) around 20ms.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 13: &lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The service area for teleoperation depends on the actual deployment; for example, it can be deployed for a warehouse, a factory, a transportation hub (seaport, airport etc.), or even a city district or city. In some cases, a local approach (e.g., the application servers are hosted at the network edge) is preferred to satisfy low latency and high-reliability requirements.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 14: &lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The area traffic capacity is calculated for one 5G network, considering 4 cameras + sensors on each vehicle. Density is estimated to 10 vehicles/km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:16pt"&gt;, each of the vehicles with one user controlling them. [8]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 15: &lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;KPI comes from 3GPP TS 22.261 [7] clause 7.11 “remote control robot” use case.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 16: &lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Examples of typical data volume including 1) ~8Mbps video stream. Four cameras per vehicle (one for each side): 4*8=32Mbps. 2) sensor data (interpreted objects), assuming 1 kB/object/100 ms and 50 objects: 4 Mbps [8].&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 17:   These KPIs are only valid for cases where the viewport rendering is done in the tethered device and streamed down to the AR glasses. In the case of rendering capable AR glasses, these KPIs are not valid.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 18:   These values are aligned with the tactile and multi-modal communication KPI table in TS 22.261 [7], clause 7.11.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 19:   These values are aligned with “high-speed train” DL KPI from TS 22.261 [7] clause 7.1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 20:   To leverage existing streaming assets and delivery ecosystem, it is assumed that the legacy streaming data are delivered to the rendering device, which incrusts this in the virtual screen prior to rendering. For a live streaming event, the user-experience end-to-end latency is expected to be competitive with traditional live TV services, typically [1-5] seconds.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 21:   For example, the glTF format [13] can be used to deliver avatar representation and animation metadata in a standardized manner. Based on this format, the required bitrate for transmitting such data is highly dependent on avatar’s complexity (e.g., basic model versus photorealistic).&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 22:   These values are aligned with “immersive multi-modal VR” KPIs in TS 22.261 [7], clause 7.11.&lt;/span&gt;', '', ' ', '', '', '']</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.2235125704868153</v>
+        <v>0.9088498432276888</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;A.5.2	Wind power plant network&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;6.2	Performance service requirements for Inventory &lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>22104-j00.docx</t>
+          <t>22369.docx</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1403,47 +1403,47 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>['', 'Table A&lt;b&gt;.&lt;/b&gt;5.2-1: Service performance requirements for wind power plant network', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Packet error ratio', '', 'UE speed', '', 'Service area', '', '1', '', '99.999\xa0999\xa09', '', '~ 10 years', '', '16 ms', '', '&amp;lt; 10&lt;sup&gt;-9&lt;/sup&gt;', '', 'stationary', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Communication in support of closed-loop cyber-physical control in a wind farm. The wind farm can be deployed offshore.', '', 'NOTE:\tThis type of communication service can be provided via a wired connection.', '']</t>
+          <t>['', '', '', '', '', 'Table 6.2-1 KPIs for inventory ', '', 'Scenarios', '', 'Max. allowed end-to-end latency', '', 'Communication service availability', '', 'Reliability', '', 'User-experienced data rate', '', 'Message size', '', 'Device density', '', '', '', 'Communication range (Note 1)', '', 'Service area dimension', '', 'Device speed', '', 'Transfer interval', '', 'Positioning service latency', '', 'Positioning service availability', '', 'Positioning accuracy', '', 'Remark', '', 'Inventory or asset management', '', 'Typically, seconds level', '', '', '', '99%', '', 'NA', '', '&amp;lt;2 kbit/s', '', '96/256 bits', '', '&amp;lt;1.5 million devices/km²', '', 'indoor only', '', '(Note 2)', '', '30 m – 50 m indoor,', '', '200 m - 400 m outdoor', '', '1 km² – 10 km²', '', '3 km/h – 10 km/h', '', 'NA', '', 'NA', '', 'NA', '', '3 m indoor,', '', '', '', 'cell-level outdoor', '', '', '', 'NOTE 1: The communication range is the communication distance between the ambient IoT device and the 5G network or between the ambient IoT device and an ambient IoT capable UE.', '', 'NOTE 2: The device density is much lower in outdoors as only a subset of assets (e.g., stored indoors) will be in transit, and a much larger area for transit applies.', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.2179340450720584</v>
+        <v>0.8516637384879348</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;A.6.1	Overview&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;6.3	Performance service requirements for sensor data collection &lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>22104-j00.docx</t>
+          <t>22369.docx</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>['', 'The traditional value chain for the medical device industry, which historically has been driven by innovation and research and development, is currently witnessing a shift in the landscape. As governments and health insurers worldwide implement measures to control costs, public hospitals are operating on tighter budgets, while private facilities are receiving lower reimbursements. In the developed world, decisions that used to be the sole preserve of doctors are now also made by regulators, hospital administrators, and other non-clinicians. This broader set of influencers comes with different objectives, e.g. the prioritization of cost effectiveness or even just costs. ', '', 'This shift in focus from volume-based healthcare to value-based healthcare has led medical devices companies to move to business models based on providing clinical value with cost efficiency.', '', 'Technological progress and better infrastructures, in particular high-quality wireless networks, have fed this business model transformation, allowing coordinated therapies, services, and health analytics and enabling efficient outcome measurement solutions. ', '', 'On this matter, 5G enables shifting care location from hospitals to homes and others lower cost facilities which mechanically translates into more savings. Additionally, another example showing that 5G can enable cost savings required by the medical industry can be found inside hospitals where wireless transmission of low latency data streams improves operating room planning, enable streamlining equipment usage and simplifies operating theater implementation.', '']</t>
+          <t>['', 'Table 6.3-1 KPIs for sensor data collection', '', 'Deployment', '', '', '', 'Scenarios', '', 'Max. allowed end-to-end latency', '', 'Communication service availability', '', 'Reliability', '', 'User-experienced data rate', '', 'Message size', '', 'Device density', '', '', '', 'Communication range', '', '(Note 1)', '', 'Service area dimension', '', 'Device speed', '', 'Transfer interval', '', 'Positioning service latency', '', 'Positioning service availability', '', 'Positioning accuracy', '', 'Remark', '', 'Indoor', '', 'Room environment monitoring (e.g. domicile, machinery)', '', '20 s - 30 s', '', '99 %', '', 'NA', '', '&amp;lt;1 kbit/s', '', '&amp;lt;100 bits', '', '1.5 devices/m²', '', '10 m - 30 m', '', '', '', 'NA', '', 'Stationary', '', 'NA', '', 'NA', '', 'NA', '', 'NA', '', '', '', '', '', 'Indoor agriculture and husbandry', '', '&amp;gt;10 s', '', '99.9%', '', 'NA', '', '&amp;lt;1 kbit/s', '', 'Typically,  ', '&amp;lt;1,000 bits', '', '1 device /m²', '', '30 m - 200 m', '', '', '', '6,000 m² - 30,000 m²', '', 'Quasi-stationary', '', '15 mins - 30 mins', '', 'NA', '', 'NA', '', 'NA', '', '', '', 'Outdoor', '', 'Smart grid', '', '1 s', '', '99%', '', 'NA', '', '&amp;lt;1 kbit/s', '', '', '', 'Typically, ', '&amp;lt;800 bits', '', '&amp;lt; 10,000 devices /km²', '', '', '', 'Typically, 50 m - 200 m', '', '[several km² up to 100,000 km²]', '', 'Stationary', '', '5 mins - 15 mins', '', 'NA', '', 'NA', '', 'several 10 m', '', '', '', '', '', 'Outdoor husbandry and logistics', '', 'Typically, &amp;gt; tens of seconds', '', '99%', '', 'NA', '', '&amp;lt;0.5 kbit/s', '', '', '', 'Typically, ', '[&amp;lt;800 bits]', '', '&amp;lt;5,200 devices/ km²', '', '[300 m - 500 m]', '', '', '', '430,000 m²', '', '≤ 3 km/h', '', '15 mins', '', 'NA', '', 'NA', '', 'NA', '', '', '', '', '', 'Smart city', '', '10 s - 30 s', '', '99%', '', 'NA', '', '&amp;lt;1 kbit/s', '', 'Typically,', '&amp;lt;800 bits', '', '&amp;lt;1,000 devices/ km²', '', '300 m - 500 m', '', '', '', 'City wide including rural areas', '', 'Stationary', '', '15 mins', '', 'NA', '', 'NA', '', 'NA', '', '', '', 'NOTE:  The communication range is the communication distance between the ambient IoT device and the 5G network or between the ambient IoT device and an ambient IoT capable UE.', '']</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.2215444770523926</v>
+        <v>0.8727789242344896</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;A.6.2	Robotic Aided Surgery&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;6.4	Performance service requirements for tracking&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>22104-j00.docx</t>
+          <t>22369.docx</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1453,22 +1453,22 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>['', '&lt;span style="color:000000"&gt;Robotic aided surgery is particularly suitable to invasive surgical procedures that require delicate tissue manipulation and access to areas with difficult exposure. It is achieved through complex systems that translate the surgeon’s hand movements into smaller, precise movements of tiny instruments that can generally bend and rotate far more than a human hand is capable of doing inside the patient’s body. In addition, those systems are usually able to filter out hand tremor and therefore &lt;/span&gt;allow more consistent outcomes for existing procedures, and more importantly the development of new procedures currently made impractical by the accuracy limits of unaided manipulation&lt;span style="color:000000"&gt;.&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;A typical robotic setup for telesurgery can be depicted as follows.&lt;/span&gt;', '', '----media/image12.png----', '', 'Figure A.6.2-1: Typical Robotic Surgery System Setup', '', 'The robot and the surgeon’s console can be co-located in the same operating room in which case they communicate through a NPN, or, in another deployment option, when specialists and patients are far from each other (hundreds of kilometres) they can exchange data through communication services delivered by PLMNs. The depicted medical application can be instantiated at either side or in the Cloud. Its role consists in: ', '', '-\tGenerating appropriate haptic feedback based on instrument location, velocity, effort measurements data and images issued by surgical instruments and 3D pre-operative patient body model. This allows to provide tactile guidance by constraining where the instruments (scalpel, etc.) can go.', '', '-\tFiltering motion control commands for better closed loop stability', '', 'Typical surgery robotic systems can have around 40 actuators and the same number of sensors which allows to compute the data rate requires in each direction in order to execute a given movement. ', '', 'Human sensitivity of touch is very high, tactile sensing has about 400 Hz bandwidth, where bandwidth refers to the frequency of which the stimuli can be sensed. This is why, in general, haptic feedback systems operate at frequencies around 1,000 Hz. This rate naturally applies to the update of all information used in the generation of the haptic feedback, e.g. instruments velocity, position … Therefore, the robot control process involves:', '', '-\tThe surgeon console periodically sending a set of points to actuators', '', '-\tActuators executing a given process ', '', '-\tSensors sampling velocity, forces, positions, … at the very same time and returning that information to the surgeon console at the rate of 1 kHz', '', 'As opposed to machine to machine communication, robotic aided surgery implies there is a human being in the middle of the control loop, which means that the console generates new commands based on the system state collected in the previous 1 kHz cycle and also on surgeon’s hand movement.', '', 'Each equipment involved in a robotic telesurgery setup (endoscopes, image processing system, displays, motion controller and haptic feedback systems) is synchronized thanks to a common clock either external or provided by the 5G system. The synchronization is often achieved through dedicated protocols such as e.g. PTP version 2 and allows to e.g. guarantee the consistency of the haptic feedback and displayed images at the master console, or enable the recording and offline replay of the whole procedure.', '', '', '', '', '', 'Table A.6.2-1: Service performance requirements for motion control and haptic feedback', '', 'Use case # ', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: Mean Time Between Failure', '', 'End-to-end latency: maximum', '', 'Bit rate', '', 'Direction', '', 'Message', '', 'Size', '', '[byte]', '', 'Transfer Interval', '', 'Survival time', '', 'UE speed', '', '# of active UEs', '(note1)', '', 'Service Area', '', '1', '', '&amp;gt;\xa099.999\xa0999', '', '&amp;gt;\xa010 years', '', '&amp;lt;\xa02 ms', '', '2\xa0Mbit/s to 16\xa0Mbit/s', '', 'network to UE; UE to network', '', '250 to 2,000', '', '1 ms', '', 'transfer interval', '', 'stationary', '', '1', '', 'room', '', '2', '', '&amp;gt;\xa099.999\xa09', '', '&amp;gt;\xa01 year', '', '&amp;lt;\xa020 ms', '', '2\xa0Mbit/s to 16\xa0Mbit/s', '', 'network to UE; UE to network', '', '250 to 2,000', '', '1 ms', '', 'transfer interval', '', 'stationary', '', '&amp;lt;\xa02 per 1,000\xa0km&lt;sup&gt;2&lt;/sup&gt;', '', 'national', '', 'Note 1: The upper limit of UEs’ density is provided for large service areas to address non-uniform distributions of UEs, while an absolute number of UEs is provided for small service areas.', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Periodic communication for the support of precise cooperative robotic motion control and haptic feedback in case of robotic aided surgery where the surgeon console and the robot are collocated in the same operating room', '', '&lt;i&gt;Use case two&lt;/i&gt;', '', 'Periodic communication for the support of cooperative robotic motion control and haptic feedback in case of telesurgery. In this case, the surgeon console and the robot are not collocated and communicate with each other through a connection established over a PLMN possibly spanning an entire country. Relaxed requirements imply that much less complex surgical procedures are achievable in use case 2 than in use case 1. It shall be noted that this use case also involves more experienced and trained surgeons, who can cope with longer latencies in the communication system.', '', '', '', '', '']</t>
+          <t>['', 'Table 6.4-1 KPIs for tracking', '', 'Deployment', '', 'Scenarios', '', 'Max. allowed end-to-end latency', '', 'Communication service availability', '', 'Reliability', '', 'User-experienced data rate', '', 'Message size', '', 'Device density', '', 'Communication range', '', '(Note 1)', '', 'Service area dimension', '', 'Device speed', '', 'Transfer interval', '', 'Positioning service latency', '', 'Positioning service availability', '', 'Positioning accuracy', '', 'Remark', '', 'Indoor', '', 'Indoor tracking', '', '1 s', '', '99.9%', '', 'NA', '', '&amp;lt;1 kbit/s', '', '&amp;lt;1 kbits', '', '25 devices /100 m²', '', '-', '', '250 devices /100 m²', '', '10 m', '', '200 m²', '', 'up to 3km/h', '', '60 mins', '', '1 s', '', '90%', '', '1 m - 3 m, 90% availability', '', '', '', 'Outdoor', '', 'Outdoor tracking', '', '1 s', '', '99.9%', '', 'NA', '', '&amp;lt;1 kbit/s', '', '&amp;lt;1 kbits', '', '', '', '≤10 devices/  100 m²', '', '500 m', '', 'Up to the whole PLMN', '', 'up to 10 km/h', '', '60 mins', '', '1 s', '', '95%', '', 'several 10 m', '', '', '', 'NOTE:  The communication range is the communication distance between the ambient IoT device and the 5G network or between the ambient IoT device and an ambient IoT capable UE.', '', '', '']</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.2168361989318253</v>
+        <v>0.8557799787964595</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;A.6.3	Robotic Aided Diagnosis&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;6.5	Performance service requirements for actuator control&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>22104-j00.docx</t>
+          <t>22369.docx</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1478,97 +1478,97 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>['', 'Robotic aided diagnosis involves a remote expert in a large central hospital who controls a diagnosis robotic system deployed in a local medical facility. Such robotic systems can be e.g.:', '', '-\tHaptic feedback tool used for palpating and deployed in e.g. a Mobile Specialist Practise facility', '', '-\tUltrasound probe deployed in an ambulance or a medical facility ', '', '&lt;span style="color:000000"&gt;A typical robotic setup for tele diagnosis can be depicted as follows:&lt;/span&gt;', '', '----media/image13.png----', '', 'Figure A.6.3-1: Typical Robotic Surgery System Setup', '', 'Specialists and patients are far from each other (typically dozens of kilometres) and can exchange data through communication services delivered by PLMNs. The depicted medical application can be instantiated at either side or in the Cloud. Its role consists in: ', '', '--\tGenerating appropriate haptic feedback based on instrument location, velocity, effort measurements data and images issued by instruments.', '', '--\tFiltering motion control commands for better closed loop stability', '', '', '', '', '', 'Table A.6.3-1: Service performance requirements for motion control and haptic feedback', '', 'Use case # ', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: Mean Time Between Failure', '', 'End-to-end latency: maximum', '', 'Bit rate', '', 'Direction', '', 'Message', '', 'Size', '', '[byte]', '', 'Transfer Interval', '', 'Survival time', '', 'UE speed', '', '# of active UEs', '', 'Service Area', '', '1', '', '&amp;gt;\xa099.999', '', '&lt;span style="color:000000"&gt;&amp;gt;&amp;gt; 1 month (&amp;lt; 1 year)&lt;/span&gt;', '', '&amp;lt;\xa020 ms', '', '2\xa0Mbit/s to 16\xa0Mbit/s', '', 'network to UE; UE to network', '', '~80', '', '&amp;lt;\xa020\xa0ms per 100\xa0km&lt;sup&gt;2&lt;/sup&gt; ', '', 'transfer interval', '', 'stationary', '', '&amp;lt; 20 per 100\xa0km&lt;sup&gt;2&lt;/sup&gt;', '', 'regional', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Periodic communication for the support of precise cooperative robotic motion control and haptic feedback in case of robotic aided diagnosis where the expert and the patient are not collocated and communicate with each other through a connection established over a PLMN.', '', '', '']</t>
+          <t>['', 'Table 6.5-1 KPIs for actuator control ', '', 'Deployment', '', 'Scenarios', '', 'Max. allowed end-to-end latency', '', 'Communication service availability', '', 'Reliability', '', 'User-experienced data rate', '', 'Message size', '', 'Device density', '', '', '', 'Communication range', '', '(Note 1)', '', 'Service area dimension', '', 'Device speed', '', 'Transfer interval', '', 'Positioning service latency', '', 'Positioning service availability', '', 'Positioning accuracy', '', 'Remark', '', 'Indoor', '', '&lt;span style="color:000000"&gt;Indoor actuator control&lt;/span&gt;', '', 'Several seconds', '', '99%', '', 'NA', '', '2 kbit/s', '', '&amp;lt;100 Bytes', '', '&amp;lt;1.5 million/km²', '', '50 m', '', '&amp;lt;250 m² for home, and', '', '15,800 square meters for supermarket', '', 'stationary', '', '20 mins - 120 mins', '', 'NA', '', 'NA', '', '3\xa0m to 5\xa0m indoor', '', '', '', '&lt;span style="color:000000"&gt;Outdoor&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;Outdoor actuator control for large coverage&lt;/span&gt;', '', 'Several seconds', '', '99%', '', 'N/A', '', 'NA', '', '128 bit (DL)', '', 'NA', '', '[500] m', '', 'outdoors', '', '40,000 m&lt;sup&gt;2 &lt;/sup&gt;-  4,000,000 m&lt;sup&gt;2&lt;/sup&gt;', '', '', '', 'Static', '', 'NA', '', 'NA', '', 'NA', '', 'NA', '', '', '', '', '', '&lt;span style="color:000000"&gt;Outdoor actuator control for medium coverage&lt;/span&gt;', '', '', '', 'Several seconds', '', '99%', '', 'NA', '', '&amp;lt;2 kbit/s', '', '&amp;lt;200 bits', '', '', '', '&amp;lt;20 devices/100 m²', '', '200 m', '', 'City wide including rural areas', '', 'Static', '', 'NA', '', 'NA', '', 'NA', '', 'NA', '', '', '', 'NOTE: The communication range is the communication distance between the ambient IoT device and the 5G network or between the ambient IoT device and an ambient IoT capable UE.', '', '', '', '', '', '', 'Annex A (informative):', 'Change history', '', '', '', '&lt;b&gt;Change history&lt;/b&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Date&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Meeting&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;TDoc&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;CR&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Rev&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Cat&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Subject/Comment&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;New version&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-11&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA1#104&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;S1-233257&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Draft provided by editor. Note: corresponding WID not yet approved, so no official TS number&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#102&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-231405&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;MCC clean-up for presentation for one-step approval to SA. Corresponding WID to be submitted at the same time as this TS, then a TS number will be allocated.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#102&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-231750&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;TR number known and added: TR 22.369&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1.0.1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#102&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Approved at SA#102&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;19.0.0&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;2024-03&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;SA#103&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;SP-240202&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;0001&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;TS.22.369_adding the abbreviation&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;19.1.0&lt;/span&gt;', '', '', '', '', '', '', '3GPP', '', '', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.2192007100680515</v>
+        <v>0.9002084573923202</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;C.1.1	Area of consideration&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;6.8	UTM assistance requirements&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>22104-j00.docx</t>
+          <t>22125.docx</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>LR3_other</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>['', 'For our discussion of communication in automation we apply a definition of the area of consideration for industrial radio communication that is found elsewhere in the literature [4]. This definition is illustrated in Figure C.1.1-1. ', '', '----media/image14.emf----', '', 'NOTE:\tBlue objects: communication system; other objects: automation application system.', '', 'Figure\xa0C&lt;b&gt;.&lt;/b&gt;1.1-1: Abstract diagram of the area of consideration for industrial radio communication ', '', 'Here, a distributed automation application system is depicted. This system includes a distributed automation application, which is the aggregation of several automation functions. These can be functions in sensors, measurement devices, drives, switches, I/O devices, encoders etc. All of these functions contribute toward the control of physical objects. Field bus systems, industrial Ethernet systems, or wireless communication systems can be used for connecting the distributed functions. The essential function of these communication systems is the distribution of messages among the distributed automation functions. For cyber-physical control applications, the dependability of the entire communication system and/or of its devices or its links is essential. Communication functions are realised by the respective hardware and software implementation.', '', 'In order for the automation application system to operate, messages need to be exchanged between spatially distributed application functions. For that process, messages are exchanged at an interface between the automation application system and the communication system. This interface is termed the reference interface. Required and guaranteed values for characteristic parameters, which describe the behavioural properties of the radio communication system, as well as some influence quantities refer to that interface.', '', 'The conditions that influence the behaviour of wireless communication are framed by the communication requirements of the application (e.g., end-to-end latency), the characteristics of the communication system (e.g., output power of a transmitter), and the transmission conditions of the media (e.g., signal fluctuations caused by multipath propagation). ', '', 'General requirements from the application point of view for the time and failure behaviour of a communication system are mostly related to an end-to-end link. It is assumed in the present document that the behaviour of the link is representative of the communication system as a whole and of the entire scope of the application. ', '']</t>
+          <t>['', '[R-6.8-001] Based on operator’s policy, the 5G system shall be able to provide UTM with the information about geographic areas where UAV service requirements could or could not be met based on predicted network conditions and QoS (e.g. bitrate, latency, reliability).', '', '[R-6.8-002] Based on a 3&lt;sup&gt;rd&lt;/sup&gt; party request, the 5G system shall be able to assist the UTM with mechanism to provide to the 3&lt;sup&gt;rd&lt;/sup&gt; party alternative UAV flight paths, e.g., based on required waypoints, QoS, and exclusion zones.', '', '[R-6.8-003] The 5G system shall be able to support service enablement layer exposure mechanisms for the UTM or other authorized 3&lt;sup&gt;rd&lt;/sup&gt; party to provide the UAV application with configuration information to route and switch traffic between one active and one standby PLMN connection, e.g. for C2 communication reliability and redundancy purpose, or to route different traffic across different PLMN connections simultaneously, e.g. C2 traffic via one PLMN and other data via the second PLMN.', '', 'NOTE 1:\tThe above requirement can be extended to scenarios where one network is a PLMN and one is an NPN.', '', 'NOTE 2: There is no impact on legacy network selection. ', '', 'NOTE 3: It is assumed that UAV traffic handling, over each PLMN, is subject to NW control mechanisms (e.g. in accordance with MNO routing priorities, available QoS/NW resources, etc.).', '']</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.2087407855453877</v>
+        <v>0.7187023921815547</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;C.2.2	Characteristic parameters&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;6.8	UTM assistance requirements&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>22104-j00.docx</t>
+          <t>22125[1].docx</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>['', 'Table C&lt;b&gt;.&lt;/b&gt;2.2-1: Candidate characteristic parameters for the dependable communication service interface', '', 'Parameter name', '', 'Typical metric (unit)', '', 'Traffic class (note)', '', '', '', '', '', 'Deterministic periodic communication', '', 'Deterministic aperiodic communication', '', 'Non-deterministic communication', '', 'Communication service availability', '', 'Minimum availability (dimensionless)', '', 'X', '', 'X', '', 'X', '', 'End-to-end latency', '', 'Target value and timeliness (ms)', '', 'X', '', 'X', '', 'X', '', 'Communication service reliability', '', 'Mean time between failures (days)', '', 'X', '', 'X', '', 'X', '', 'Service bit rate', '', 'Target value (bit/s); user experienced data rate (bit/s); time window (s)', '', '–', '', 'X', '', 'X', '', 'Update time', '', 'Target value and timeliness', '', 'X', '', '–', '', '–', '', 'NOTE:\t– application requirements (KPIs). X: applies; –: does not apply.', '', '', '', '&lt;b&gt;Parameter description&lt;/b&gt;', '', '&lt;i&gt;Communication service availability&lt;/i&gt;', '', 'This parameter indicates if the communication system works as contracted ("available"/"unavailable" state). The communication system is in the "available" state as long as the availability criteria for transmitted packets are met. The service is unavailable if the packets received at the target are impaired and/or untimely (e.g. update time &amp;gt; stipulated maximum). If the survival time (see Table C.2.3-1) is larger than zero, consecutive impairments and/or delays are ignored until the respective time has expired.', '', '&lt;i&gt;End-to-end latency&lt;/i&gt;', '', 'This parameter indicates the time allotted to the communication system for transmitting a message and the permitted timeliness.', '', '&lt;i&gt;Communication service reliability&lt;/i&gt;', '', 'Mean time between failures is one of the typical indicators for communication service reliability. This parameter states the mean value of how long the communication service is available before it becomes unavailable. For instance, a mean time between failures of one month indicates that a communication service runs error-free for one month on average before an error/errors make the communication service unavailable. Usually, an exponential distribution is assumed. This means, there will be several failures where the time between two subsequent errors is below the mean value (1 month in the example).', '', 'Communication service availability and communication service reliability (mean time between failures) give an indication on the time between failures and the length of the failures.', '', '&lt;i&gt;Service bit rate&lt;/i&gt;', '', '&lt;i&gt;a) deterministic communication&lt;/i&gt;', '', 'The target value indicates committed data rate in bit/s sought from the communication service. This is the minimum data rate the communication system guarantees to provide at any time, i.e. in this case target value = user experienced data rate. ', '', '&lt;i&gt;b) non-deterministic communication&lt;/i&gt;', '', 'The target value indicates the target data rate in bit/s. This is the information rate the communication system aims at providing on average during a given (moving) time window (unit: s). The user experienced data rate the lower data rate threshold for any of the time windows.', '', '&lt;i&gt;Update time&lt;/i&gt;', '', 'Applicable only to periodic communication, the update time indicates the time interval between any two consecutive messages delivered from the egress (of the communication system) to the application.', '', '&lt;b&gt;Traffic classes&lt;/b&gt;', '', 'In practice, vertical communication networks serve applications exhibiting a wide range of communication requirements. In order to facilitate efficient modelling of the communication network during engineering, and for reducing the complexity of network optimisation, disjoint QoS sets have been identified. These sets are referred to as traffic classes [6]. Typically, only three traffic classes are needed in industrial environments [6], i.e.', '', '-\tdeterministic periodic communication; ', '', '-\tdeterministic aperiodic communication; and ', '', '-\tnon-deterministic communication.', '', 'Deterministic periodic communication stands for periodic communication with stringent requirements on timeliness of the transmission.', '', 'Deterministic aperiodic communication stands for communication without a pre-set sending time. Typical activity patterns for which this kind of communication is suitable are event-driven actions.', '', 'Non-deterministic communication subsumes all other types of traffic. Periodic non-real time and aperiodic non-real time traffic are subsumed by the non-deterministic traffic class, since periodicity is irrelevant in case the communication is not time-critical.', '', '&lt;b&gt;Usage of the parameters in Table C.2.2-1&lt;/b&gt;', '', 'Control service request and response; monitoring service response and indication.', '']</t>
+          <t>['', '[R-6.8-001] Based on operator’s policy, the 5G system shall be able to provide UTM with the information about geographic areas where UAV service requirements could or could not be met based on predicted network conditions and QoS (e.g. bitrate, latency, reliability).', '', '[R-6.8-002] Based on a 3&lt;sup&gt;rd&lt;/sup&gt; party request, the 5G system shall be able to assist the UTM with mechanism to provide to the 3&lt;sup&gt;rd&lt;/sup&gt; party alternative UAV flight paths, e.g., based on required waypoints, QoS, and exclusion zones.', '', '[R-6.8-003] The 5G system shall be able to support service enablement layer exposure mechanisms for the UTM or other authorized 3&lt;sup&gt;rd&lt;/sup&gt; party to provide the UAV application with configuration information to route and switch traffic between one active and one standby PLMN connection, e.g. for C2 communication reliability and redundancy purpose, or to route different traffic across different PLMN connections simultaneously, e.g. C2 traffic via one PLMN and other data via the second PLMN.', '', 'NOTE 1:\tThe above requirement can be extended to scenarios where one network is a PLMN and one is an NPN.', '', 'NOTE 2: There is no impact on legacy network selection. ', '', 'NOTE 3: It is assumed that UAV traffic handling, over each PLMN, is subject to NW control mechanisms (e.g. in accordance with MNO routing priorities, available QoS/NW resources, etc.).', '']</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.2121255814079211</v>
+        <v>0.7187023921815547</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;C.4.1	Overview&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;7.1	High data rates and traffic densities&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>22104-j00.docx</t>
+          <t>22261-j30.docx</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>LR3_other</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>['', 'There are several time parameters in dependability assessment. A required value is specified for every time parameter. This value can be a maximum, mean, modal, minimum etc. Typically, there is a deviation from the desired value to the actual value. Jitter is often used to characterise this variation. Since jitter generally is used for characterising the behaviour of a measured parameter, for instance the scatter of measured end-to-end latencies ("the world as it is"), it can be quite confusing to use it for formulating service performance requirements ("the world as we want it to be"). What is needed is a concept and related parameters that allow for formulating and talking about the end-to-end latency requirements in Clause 5 and Annex A.', '', 'The most important attribute is timeliness. Timeliness can be formulated a permitted interval for the actual value of the time parameter. Accuracy, earliness and lateness describe the allowed deviation from a target value. Accuracy is the magnitude of deviation. It can be negative (early) or positive (tardy).', '']</t>
+          <t>['', 'Several scenarios require the support of very high data rates or traffic densities of the 5G system. The scenarios address different service areas: urban and rural areas, office and home, and special deployments (e.g. massive gatherings, broadcast, residential, and high-speed vehicles). The scenarios and their performance requirements can be found in table 7.1-1.', '', '-\tUrban macro – The general wide-area scenario in urban area', '', '-\tRural macro – The general wide-area scenario in rural area', '', '-\tIndoor hotspot – The scenario for offices and homes, and residential deployments.', '', '-\tBroadband access in a crowd – The scenario for very dense crowds, for example, at stadiums or concerts. In addition to a very high connection density the users want to share what they see and hear, putting a higher requirement on the uplink than the downlink.', '', '-\tDense urban – The scenario for pedestrian users, and users in urban vehicles, for example, in offices, city centres, shopping centres, and residential areas. The users in vehicles can be connected either directly or via an onboard base station to the network.', '', '-\tBroadcast-like services – The scenario for stationary users, pedestrian users, and users in vehicles, for example, in offices, city centres, shopping centres, residential areas, rural areas and in high speed trains. The passengers in vehicles can be connected either directly or via an onboard base station to the network.', '', '-\tHigh-speed train – The scenario for users in trains. The users can be connected either directly or via an onboard base station to the network.', '', '-\tHigh-speed vehicle – The scenario for users in road vehicles. The users can be connected either directly or via an onboard base station to the network.', '', '-\tAirplanes connectivity – The scenario for users in airplanes. The users can be connected either directly or via an onboard base station to the network.', '', 'Table 7.1-1 Performance requirements for high data rate and traffic density scenarios.', '', '', '', '&lt;span style="font-size:16pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Experienced data rate (DL)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Experienced data rate (UL)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Area traffic capacity&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(DL)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Area traffic capacity&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(UL)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Overall user density &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Activity factor&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UE speed&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Coverage&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Urban macro&lt;/span&gt;', '', '50 Mbit/s', '', '25 Mbit/s', '', '100 Gbit/s/km&lt;sup&gt;2&lt;/sup&gt;', '', '(note 4)', '', '50 Gbit/s/km&lt;sup&gt;2&lt;/sup&gt;', '', '(note 4)', '', '10 000/km&lt;sup&gt;2&lt;/sup&gt;', '', '20\xa0%', '', 'Pedestrians and users in vehicles (up to 120 km/h', '', 'Full network (note 1)', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Rural macro&lt;/span&gt;', '', '50 Mbit/s', '', '25 Mbit/s', '', '1 Gbit/s/km&lt;sup&gt;2&lt;/sup&gt;', '', '(note 4)', '', '500 Mbit/s/km&lt;sup&gt;2&lt;/sup&gt;', '', '(note 4)', '', '100/km&lt;sup&gt;2&lt;/sup&gt;', '', '20\xa0%', '', 'Pedestrians and users in vehicles (up to 120 km/h', '', 'Full network (note 1)', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Indoor hotspot&lt;/span&gt;', '', '1 Gbit/s', '', '500 Mbit/s', '', '15 Tbit/s/km&lt;sup&gt;2&lt;/sup&gt;', '', '2 Tbit/s/km&lt;sup&gt;2&lt;/sup&gt;', '', '250 000/km&lt;sup&gt;2&lt;/sup&gt;', '', 'note 2', '', 'Pedestrians', '', '&lt;span style="font-size:16pt"&gt;Office and residential &lt;/span&gt;(note 2) (note 3)', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Broadband access in a crowd&lt;/span&gt;', '', '25 Mbit/s', '', '50 Mbit/s', '', '[3,75] Tbit/s/km&lt;sup&gt;2&lt;/sup&gt;', '', '[7,5] Tbit/s/km&lt;sup&gt;2&lt;/sup&gt;', '', '[500 000]/km&lt;sup&gt;2&lt;/sup&gt;', '', '30\xa0%', '', 'Pedestrians', '', 'Confined area', '', '&lt;span style="font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Dense urban&lt;/span&gt;', '', '300 Mbit/s', '', '50 Mbit/s', '', '750 Gbit/s/km&lt;sup&gt;2&lt;/sup&gt;', '', '(note 4)', '', '125 Gbit/s/km&lt;sup&gt;2&lt;/sup&gt;', '', '(note 4)', '', '25 000/km&lt;sup&gt;2&lt;/sup&gt;', '', '10\xa0%', '', 'Pedestrians and users in vehicles (up to 60 km/h)', '', '&lt;span style="font-size:16pt"&gt;Downtown&lt;/span&gt; (note 1)', '', '&lt;span style="font-size:16pt"&gt;6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Broadcast-like services&lt;/span&gt;', '', 'Maximum 200 Mbit/s (per TV channel)', '', 'N/A or modest (e.g. 500 kbit/s per user)', '', 'N/A', '', 'N/A', '', '[15] TV channels of [20 Mbit/s] on one carrier', '', 'N/A', '', 'Stationary users, pedestrians and users in vehicles (up to 500 km/h)', '', 'Full network (note 1)', '', '&lt;span style="font-size:16pt"&gt;7&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;High-speed train&lt;/span&gt;', '', '50 Mbit/s', '', '25 Mbit/s', '', '15 Gbit/s/train', '', '7,5 Gbit/s/train', '', '1 000/train', '', '30\xa0%', '', 'Users in trains (up to 500 km/h)', '', 'Along railways', '', '(note 1)', '', '&lt;span style="font-size:16pt"&gt;8&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;High-speed vehicle&lt;/span&gt;', '', '50 Mbit/s', '', '25 Mbit/s', '', '[100] Gbit/s/km&lt;sup&gt;2&lt;/sup&gt;', '', '[50] Gbit/s/km&lt;sup&gt;2&lt;/sup&gt;', '', '4 000/km&lt;sup&gt;2&lt;/sup&gt;', '', '50\xa0%', '', 'Users in vehicles (up to 250 km/h)', '', 'Along roads', '', '(note 1)', '', '&lt;span style="font-size:16pt"&gt;9&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Airplanes connectivity&lt;/span&gt;', '', '15 Mbit/s', '', '7,5 Mbit/s', '', '1,2 Gbit/s/plane', '', '600 Mbit/s/plane', '', '400/plane', '', '20\xa0%', '', 'Users in airplanes (up to 1 000 km/h)', '', '(note 1)', '', 'NOTE 1: \tFor users in vehicles, the UE can be connected to the network directly, or via an on-board moving base station.', '', 'NOTE 2:\t\tA certain traffic mix is assumed; only some users use services that require the highest data rates [2].', '', 'NOTE 3: \tFor interactive audio and video services, for example, virtual meetings, the required two-way end-to-end latency (UL and DL) is 24 ms while the corresponding experienced data rate needs to be up to 8K 3D video [300 Mbit/s] in uplink and downlink.', '', 'NOTE 4: \tThese values are derived based on overall user density. Detailed information can be found in [10].', '', 'NOTE 5: \tAll the values in this table are targeted values and not strict requirements.', '', '', '']</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.2042076333505576</v>
+        <v>0.832980438028886</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;C.4.2	Network latency requirement formulated by use of timeliness&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;7.1	KPIs for services provided to the UAV applications&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>22104-j00.docx</t>
+          <t>22125.docx</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1578,42 +1578,42 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>['', 'In 5G networks, the end-to-end latency KPI is a critical KPI in order to ensure that the network can deliver the packet within a time limit specified by an application: not too early and not too late. ', '', 'In cyber-physical automation, the arrival time of a specific packet should be strictly inside a prescribed time window. In other words, a strict time boundary applies: [minimum end-to-end latency, maximum end-to-end latency]. Otherwise, the transmission is erroneous. Although most use cases that require timely delivery only specify the maximum end-to-end latency, the minimum latency is also sometimes prescribed. In the latter case, a communication error occurs if the packet is delivered earlier than the minimum end-to-end latency. An example for a related application is putting labels at a specific location on moving objects, and the arrival of a message is interpreted as a trigger for this action. In other words, the application does not keep its own time, but interprets the message arrival as clock signal. Maximum and minimum end-to-end latency alone do not disclose which value is preferred, i.e. target value. The next three subclauses introduce concepts help with relating maximum end-to-end latency, minimum end-to-end latency, and target vale to each other. ', '']</t>
+          <t>['', 'The 5G system shall be able to provide uncrewed aerial vehicle with the service performance requirements reported in Table 7.1-1.', '', 'UAV originated QoS in the table refers to the QoS of Uplink data (e.g. from UAV to the network side). UAV terminated QoS is the QoS of downlink data (e.g. from the network side to UAV).', '', 'The data transmitted by the 5G system includes data collected by hardware devices installed on UAV such as cameras, e.g. pictures, videos and files. It is also possible to transmit some software calculation or statistical data, e.g. UAV management data. The service control data transmitted by the 5G system may be based on application triggers, such as switch, rotation, promotion and demotion control of equipment on UAV. Various UAV applications may require different uplink and downlink QoS at the same time. The 5G system may simultaneously provide services to other users on the ground (e.g., the KPIs for rural and urban scenarios as defined in 7.1 of TS 22.261 [4]) in the same area without service degradation.', '', 'Table 7.1-1 KPIs for services provided to the UAV applications ', '', 'Use case', '', 'Services', '', 'Data rate', '', '', '', 'End to end Latency', '', 'Altitude AGL', '', 'service area', '', '(note 4)', '', '1', '', '8K video live broadcast', '', ' 100Mbps', '', 'UAV ', '', 'originated ', '', '200 ms', '', '&amp;lt;100 m', '', 'Urban, scenic area', '', '', '', '', '', '600Kbps', '', 'UAV ', '', 'terminated', '', '20 ms', '', '&amp;lt;100 m', '', '', '', '2', '', 'Laser mapping/', '', 'HD patrol', '', 'Note 7', '', '120Mbps', '', 'UAV ', '', 'originated', '', 'Note 1', '', '200 ms', '', '30-300 m', '', 'Urban, rural area, scenic area', '', '', '', '', '', '300Kbps', '', 'UAV ', '', 'terminated', '', '20 ms', '', '30-300 m', '', '', '', '3', '', '4*4K AI surveillance', '', '120Mbps', '', 'UAV ', '', 'originated ', '', '20 ms', '', '&amp;lt;200 m', '', 'Urban, rural area', '', '', '', '', '', '50Mbps', '', 'UAV terminated ', '', '20 ms', '', '&amp;lt;200 m', '', '', '', '4', '', 'Remote UAV controller through HD video', '', '&amp;gt;=25Mbps ', '', 'UAV ', '', 'originated ', '', '(Note 3)', '', '100 ms', '', '&amp;lt;300 m ', '', 'Urban, rural area', '', '', '', '', '', '300Kbps', '', 'UAV ', '', 'terminated', '', '20 ms', '', '&amp;lt;300 m ', '', '', '', '5', '', 'Real-Time Video', '', '0.06 Mbps w/o video', '', 'UAV', '', 'originated', '', '100 ms', '', '', '', '-', '', 'Urban, rural, countryside', '', '6', '', 'Video streaming', '', '4 Mbps for 720p video', '', '9 Mbps for 1080p video', '', 'UAV ', '', 'originated', '', '100 ms', '', '', '', '-', '', 'Urban, rural, countryside', '', '7', '', 'Periodic still photos', '', '1Mbps', '', 'UAV ', '', 'originated ', '', '1S', '', '0.1m', '', '&amp;lt;120m', '', '-', '', 'Urban, rural area', '', '', '', '1s', '', '&amp;lt;120 m', '', 'Urban, rural, countryside', '', '', '', 'NOTE 1:   The flight average speed is 60km/h. The KPI is referring to [5].', '', 'NOTE 2:   The latency is the time of the 5G system provide higher accuracy location information of a UAV to a third party.', '', 'NOTE 3:   Referring to clause 5.2.2, the absolute flying speed of UAV in this service can be up to 160km/h. ', '', 'NOTE 4:   The density of active UAV is 10/200km&lt;sup&gt;2&lt;/sup&gt;. The maximum altitude is 300m. The flight average speed is 60km/h.', '', '', '']</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.1807571548471393</v>
+        <v>0.8526966271505431</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;C.4.3	Timeliness&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;7.1	KPIs for services provided to the UAV applications&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>22104-j00.docx</t>
+          <t>22125[1].docx</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>['', 'Timeliness is described by a time interval (see Figure C.4.3-1). The interval is restricted by a lower bound (&lt;i&gt;t&lt;/i&gt;&lt;sub&gt;LB&lt;/sub&gt;) and an upper bound (&lt;i&gt;t&lt;/i&gt;&lt;sub&gt;UB&lt;/sub&gt;). This interval contains all values &lt;i&gt;t&lt;/i&gt;&lt;sub&gt;A&lt;/sub&gt; that are within an accepted "distance" to the target value &lt;i&gt;t&lt;/i&gt;&lt;sub&gt;R&lt;/sub&gt;. ', '', '----media/image20.png----', '', 'Figure\xa0C.4.3-1: Timeliness function ', '', 'A message reception is considered in time, if it is received within the timeliness interval. If it is received outside the timeliness interval, the message reception is considered invalid. This is related to the communication error "unacceptable deviation from target end-to-end latency" (see Subclause B.6). In other words, maximum end-to-end latency = &lt;i&gt;t&lt;/i&gt;&lt;sub&gt;UB&lt;/sub&gt; and minimum end-to-end latency = &lt;i&gt;t&lt;/i&gt;&lt;sub&gt;LB&lt;/sub&gt;.', '', 'Timeliness is related to deviation (see Subclause C.4.4), the lower bound &lt;i&gt;t&lt;/i&gt;&lt;sub&gt;LB&lt;/sub&gt; is related to earliness (see Subclause C.4.5), and the upper bound &lt;i&gt;t&lt;/i&gt;&lt;sub&gt;UB&lt;/sub&gt; is related to lateness (see Subclause C.4.6).', '']</t>
+          <t>['', 'The 5G system shall be able to provide uncrewed aerial vehicle with the service performance requirements reported in Table 7.1-1.', '', 'UAV originated QoS in the table refers to the QoS of Uplink data (e.g. from UAV to the network side). UAV terminated QoS is the QoS of downlink data (e.g. from the network side to UAV).', '', 'The data transmitted by the 5G system includes data collected by hardware devices installed on UAV such as cameras, e.g. pictures, videos and files. It is also possible to transmit some software calculation or statistical data, e.g. UAV management data. The service control data transmitted by the 5G system may be based on application triggers, such as switch, rotation, promotion and demotion control of equipment on UAV. Various UAV applications may require different uplink and downlink QoS at the same time. The 5G system may simultaneously provide services to other users on the ground (e.g., the KPIs for rural and urban scenarios as defined in 7.1 of TS 22.261 [4]) in the same area without service degradation.', '', 'Table 7.1-1 KPIs for services provided to the UAV applications ', '', 'Use case', '', 'Services', '', 'Data rate', '', '', '', 'End to end Latency', '', 'Altitude AGL', '', 'service area', '', '(note 4)', '', '1', '', '8K video live broadcast', '', ' 100Mbps', '', 'UAV ', '', 'originated ', '', '200 ms', '', '&amp;lt;100 m', '', 'Urban, scenic area', '', '', '', '', '', '600Kbps', '', 'UAV ', '', 'terminated', '', '20 ms', '', '&amp;lt;100 m', '', '', '', '2', '', 'Laser mapping/', '', 'HD patrol', '', 'Note 7', '', '120Mbps', '', 'UAV ', '', 'originated', '', 'Note 1', '', '200 ms', '', '30-300 m', '', 'Urban, rural area, scenic area', '', '', '', '', '', '300Kbps', '', 'UAV ', '', 'terminated', '', '20 ms', '', '30-300 m', '', '', '', '3', '', '4*4K AI surveillance', '', '120Mbps', '', 'UAV ', '', 'originated ', '', '20 ms', '', '&amp;lt;200 m', '', 'Urban, rural area', '', '', '', '', '', '50Mbps', '', 'UAV terminated ', '', '20 ms', '', '&amp;lt;200 m', '', '', '', '4', '', 'Remote UAV controller through HD video', '', '&amp;gt;=25Mbps ', '', 'UAV ', '', 'originated ', '', '(Note 3)', '', '100 ms', '', '&amp;lt;300 m ', '', 'Urban, rural area', '', '', '', '', '', '300Kbps', '', 'UAV ', '', 'terminated', '', '20 ms', '', '&amp;lt;300 m ', '', '', '', '5', '', 'Real-Time Video', '', '0.06 Mbps w/o video', '', 'UAV', '', 'originated', '', '100 ms', '', '', '', '-', '', 'Urban, rural, countryside', '', '6', '', 'Video streaming', '', '4 Mbps for 720p video', '', '9 Mbps for 1080p video', '', 'UAV ', '', 'originated', '', '100 ms', '', '', '', '-', '', 'Urban, rural, countryside', '', '7', '', 'Periodic still photos', '', '1Mbps', '', 'UAV ', '', 'originated ', '', '1S', '', '0.1m', '', '&amp;lt;120m', '', '-', '', 'Urban, rural area', '', '', '', '1s', '', '&amp;lt;120 m', '', 'Urban, rural, countryside', '', '', '', 'NOTE 1:   The flight average speed is 60km/h. The KPI is referring to [5].', '', 'NOTE 2:   The latency is the time of the 5G system provide higher accuracy location information of a UAV to a third party.', '', 'NOTE 3:   Referring to clause 5.2.2, the absolute flying speed of UAV in this service can be up to 160km/h. ', '', 'NOTE 4:   The density of active UAV is 10/200km&lt;sup&gt;2&lt;/sup&gt;. The maximum altitude is 300m. The flight average speed is 60km/h.', '', '', '']</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.2099464793656442</v>
+        <v>0.8526966271505431</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;D.1.0		General&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;7.10	KPIs for AI/ML model transfer in 5GS&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1628,17 +1628,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>['', 'Factory automation requires communications for closed-loop control applications. Examples for such applications are motion control of robots, machine tools, as well as packaging and printing machines. All other factory automation applications are addressed in Annex D.2.', '', 'The corresponding industrial communication solutions are referred to as fieldbuses. The pertinent standard suite is IEC 61158. Note that clock synchronization is an integral part of fieldbuses that support motion control use cases.', '', 'In motion control applications, a controller interacts with a large number of sensors and actuators (e.g. up to 100) that are integrated in a manufacturing unit. The resulting sensor/actuator density is often very high (up to 1 m&lt;sup&gt;-3&lt;/sup&gt;). Many such manufacturing units have to be supported within close proximity within a factory (e.g. up to 100 in automobile assembly line production).', '', 'In a closed-loop control application, the controller periodically submits instructions to a set of sensor/actuator devices, which return a response within a so-called cycle time. The messages, which are referred to as telegrams, are typically small (≤ 56\xa0bytes). The cycle time can be as low as 2 ms, setting stringent end-to-end latency constraints on telegram forwarding (≤ 1\xa0ms). Additional constraints on isochronous telegram delivery add tight constraints on the lateness (1\xa0\uf06ds), and the communication service has also to be highly available (99,9999%). ', '', 'Multi-robot cooperation is a case in closed-loop control, where a group of robots collaborate to conduct an action, for example, symmetrical welding of a car body to minimize deformation. This requires isochronous operation between all robots. For multi-robot cooperation, the lateness (1\xa0µs) is to be interpreted as the lateness among the command messages of a control event to the group robots.', '', 'To meet the stringent requirements of closed-loop factory automation, the following considerations have to be taken:', '', '-\tLimitation to short-range communications.', '', '-\tUse of direct device connection between the controller and actuators.', '', '-\tAllocation of licensed spectrum. Licensed spectrum can further be used as a complement to unlicensed spectrum, e.g. to enhance reliability.', '', '-\tReservation of dedicated radio interface resources for each link.', '', '-\tCombination of multiple diversity techniques to approach the high reliability target within stringent end-to-end latency constraints (example: frequency, antenna and various forms of spatial diversity, e.g. via relaying)', '', '-\tUtilizing OTA time synchronization to satisfy latency-variation constraints for isochronous operation.', '', 'A typical industrial closed-loop motion control application is based on individual control events. Each closed-loop control event consists of a downlink transaction followed by a synchronous uplink transaction, both of which are executed within a cycle time. Control events within a manufacturing unit might need to occur isochronously. Factory automation considers application layer transaction cycles between controller devices and sensor/actuator devices. Each transaction cycle consists of (1) a command sent by the controller to the sensor/actuator (downlink), (2) application-layer processing on the sensor/actuator device, and (3) a subsequent response by the sensor/actuator to the controller (uplink). Cycle time includes the entire transaction from the transmission of a command by the controller to the reception of a response by the controller. It includes all lower layer processes and latencies on the radio interface as well the application-layer processing time on the sensor/actuator.', '', '----media/image5.emf----', '', 'Figure D.1.0-1: Communication path for isochronous control cycles within factory units. Step 1 (red): controller requests sensor data (or an actuator to conduct actuation) from the sensor/actuator (S/A). Step 2 (blue): sensor sends measurement information (or acknowledges actuation) to controller.', '', 'Figure D.1.0-1 depicts how communication can occur in factory automation. In this use case, communication is confined to local controller-to-sensor/actuator interaction within each manufacturing unit. Repeaters can provide spatial diversity to enhance reliability.', '']</t>
+          <t>['', 'The 5G system shall support split AI/ML inference between UE and Network Server/Application function with performance requirements as given in Table 7.10-1.', '', 'Table 7.10-1 KPI Table of split AI/ML inference between UE and Network Server/Application function', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Uplink KPI&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Downlink KPI&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Remarks&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Max allowed UL end-to-end latency&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Experienced data rate&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Payload size&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Communication service availability&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Reliability&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Max allowed DL end-to-end latency&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Experienced data rate&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Payload size&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Reliability&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;15&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;b&gt;\xa0ms&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;144&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;b&gt;\xa0&lt;/b&gt;&lt;/span&gt;&lt;span style="font-size:16pt"&gt;M&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;b&gt;bit/s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.27 MByte&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.999\xa0%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.9\xa0%&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;99.999\xa0%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Split AI/ML image recognition&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;100\xa0ms&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1.5\xa0Mbit/s&lt;/b&gt;&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;100\xa0ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;150\xa0Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1.5 MByte/\u200cframe&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Enhanced media recognition&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;4.7\xa0Mbit/s&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;12\xa0ms&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;320\xa0Mbit/s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;40\xa0kByte&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Split control for robotics&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 1:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Communication service availability relates to the service interfaces, and reliability relates to a given system entity. One or more retransmissions of network layer packets can take place in order to satisfy the reliability requirement.&lt;/span&gt;', '', '', '', 'The 5G system shall support AI/ML model downloading with performance requirements as given in Table 7.10-2.', '', 'Table 7.10-2 KPI Table of AI/ML model downloading', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Max allowed DL end-to-end latency&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Experienced data rate&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;(DL)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Model size&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Communication service availability&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Reliability&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;User density&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;# of downloaded AI/ML models&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Remarks&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1.1Gbit/s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;138MByte&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;99.999\xa0%&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;99.9% for data transmission of model weight factors; 99.999% for data transmission of model topology&lt;/b&gt;&lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;AI/ML model distribution for image recognition&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;640Mbit/s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;80MByte&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;99.999\xa0%&lt;/b&gt;&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;AI/ML model distribution for speech recognition&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;512Mbit/s(see note 1)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;64MByte&lt;/b&gt;&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Parallel download of up to 50 AI/ML models&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Real time media editing with on-board AI inference&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1s&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;536MByte&lt;/b&gt;&lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;up to 5000~ 10000/km2 in an urban area&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;AI model management as a Service&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;22Mbit/s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;2.4MByte&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;99.999\xa0%&lt;/b&gt;&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;AI/ML based Automotive Networked Systems&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1s&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt; 500MByte&lt;/b&gt;&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Shared AI/ML model monitoring&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;3s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;450Mbit/s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;170MByte&lt;/b&gt;&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Media quality enhancement&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;NOTE 1:&lt;/b&gt;&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;&lt;b&gt;512Mbit/s concerns AI/ML models having a payload size below 64\xa0MB. TBD for larger payload sizes.&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;NOTE 2: &lt;/b&gt;&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;&lt;b&gt;Communication service availability relates to the service interfaces, and reliability relates to a given system entity. One or more retransmissions of network layer packets can take place in order to satisfy the reliability requirement.&lt;/b&gt;&lt;/span&gt;', '', '', '', 'The 5G system shall support Federated Learning between UE and Network Server/Application function with performance requirements as given in Table 7.10-3.', '', 'Table 7.10-3: KPI Table of Federated Learning between UE and Network Server/Application function', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Max allowed DL or UL end-to-end latency&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;DL experienced data rate&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;UL experienced data rate&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;DL packet size&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;UL packet size&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Communication service availability&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Remarks&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1.0Gbit/s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1.0Gbit/s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;132MByte&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;132MByte&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Uncompressed Federated Learning for image recognition&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;80.88Mbit/s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;80.88Mbit/s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;10Mbyte&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;10Mbyte&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt; TBD&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Compressed Federated Learning for image/video processing&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;1s&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;TBD&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;TBD&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;10MByte&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;10MByte&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Data Transfer Disturbance in Multi-agent multi-device ML Operations&lt;/b&gt;&lt;/span&gt;', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.194293950144844</v>
+        <v>0.9070550872243567</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;D.2.0		General&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;7.11	KPIs for tactile and multi-modal communication service&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1648,27 +1648,27 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>['', 'Factory automation encompasses all types of production that result in discrete products: cars, chocolate bars, etc. Automation that addresses the control of flows and chemical reactions is referred to as process automation (see clause D.3). Discrete automation requires communications for supervisory and open-loop control applications, as well as process monitoring and tracking of operations inside an industrial plant. In these applications, a large number of sensors, which are distributed over the plant, forward measurement data to process controllers on a periodic or event-driven base. Traditionally, wireline field bus technologies have been used to interconnect sensors and control equipment. Due to the sizable extension of a plant (up to10\xa0km&lt;sup&gt;2&lt;/sup&gt;), the large number of sensors, rotary joints, and the high deployment complexity of wired infrastructure, wireless solutions have made inroads into industrial process automation. ', '', 'The related use cases require support of a large number of sensor devices per plant, as well as high communication service availability (99,99%). Furthermore, power consumption is relevant since some sensor devices are battery-powered with a targeted battery lifetime of several years (while providing measurement updates every few seconds). Range also becomes a critical factor due to the low transmit power levels of the sensors, the large size of the plant, and the high-reliability requirements on transport. End-to-end latency requirements typically range between 10\xa0ms and 1\xa0s. User-experienced data rates can be rather low since each transaction typically comprises less than 256 bytes. However, there has been a shift from field busses featuring somewhat modest data rates (~ 2 Mbit/s) to those with higher data rates (~ 10 Mbit/s) due to the increasing number of distributed applications and "data-hungry" applications. An example for the latter is the visual control of production processes. For this application, the user experienced data rate is typically around 10 Mbit/s and the transmitted packets are much larger than what was stated earlier.', '', 'Existing wireless technologies for factory automation rely on unlicensed bands. Communication is therefore vulnerable to interference caused by other technologies (e.g. WLAN). With the stringent requirements on transport reliability, such interference is detrimental to proper operation.', '', 'The use of licensed spectrum could overcome the vulnerability to same-band interference and therefore enable higher reliability. Utilization of licensed spectrum can be confined to those events where high interference bursts in unlicensed bands jeopardizes communication service availability and end-to-end latency constraints. This allows sharing the licensed spectrum between process automation and conventional mobile services.', '', 'Multi-hop topologies can provide range extension and mesh topologies can increase reliability through path redundancy. Clock synchronization will be highly beneficial since it enables more power-efficient sensor operation and mesh forwarding.', '', 'The corresponding industrial communication solutions are referred to as fieldbuses. The related standard suite is IEC 61158.', '', 'A typical discrete automation application supports downstream and upstream data flows between process controllers and sensors/actuators. The communication consists of individual transactions. The process controller resides in the plant network. This network interconnects via base stations to the wireless (mesh-) network which hosts the sensor/actuator devices. Typically, each transaction uses less than 256 bytes. An example of a controller-initiated transaction service flow is:', '', '1.\tThe process controller requests sensor data (or an actuator to conduct actuation). The request is forwarded via the plant network and the wireless network to the sensors/actuators.', '', '2.\tThe sensors/actuators process the request and send a replay in upstream direction to the controller. This reply can contain an acknowledgement or a measurement reading.', '', 'An example of a sensor/actuator device-initiated transaction service flow:', '', '1.\tThe sensor sends a measurement reading to the process controller. The request is forwarded via the wireless (mesh) network and the plant network.', '', '2.\tThe process controller can send an acknowledgement in opposite direction.', '', 'For both controller- and sensor/actuator-initiated service flows, upstream and downstream transactions can occur asynchronously.', '', 'Figure D.2.0-1 depicts how communication can occur in discrete automation. In this use case, communication runs between process controller and sensor/actuator device via the plant network and the wireless (mesh) network. The wireless (mesh) network can also support access for handheld devices for supervisory control or process monitoring purposes.', '', '----media/image6.emf----', '', 'Figure D.2.0-1: Communication path for service flows between process controllers and sensor/actuator devices. Left-hand side: Step 1 (red) – the sensor/actuator (S/A) sends measurement report autonomously, Step 2 (blue) controller acknowledges. Right-hand side: Step 1 (red) - controller requests sensor data (or an actuator to conduct actuation), Step 2 (blue): S/A sends measurement information (or acknowledges actuation) to controller.', '']</t>
+          <t>['', 'The 5G system shall support tactile and multi-modal communication services with the following KPIs.', '', '&lt;b&gt;Table 7.11-1: Multi-modal communication service performance requirements&lt;/b&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Use Cases&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Characteristic parameter (KPI)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Influence quantity&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Remarks&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Max allowed end-to-end latency&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Service bit rate: user-experienced data rate&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Reliability&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Message size (byte)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;UE Speed&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Service Area&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Immersive multi-modal VR (UL: device &lt;span style=font-family:Wingdings&gt;&amp;#x00E0;&lt;/span&gt; application sever)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5 ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 2)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16 kbit/s -2 Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(without haptic compression encoding);&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;0.8 - 200 kbit/s &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(with haptic compression encoding)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.9% (without haptic compression encoding)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;99.999% (with haptic compression encoding)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1 DoF: 2-8 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3 DoFs: 6-24 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6 DoFs: 12-48 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;More DoFs can be supported by the haptic device&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;typically &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 5)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Haptic feedback&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;5 ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 1Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.99%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1500&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;typically &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 5)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Sensing information e.g. position and view information generated by the VR glasses&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Immersive multi-modal VR (DL: application sever &lt;span style=font-family:Wingdings&gt;&amp;#x00E0;&lt;/span&gt; device)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;10 ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note1)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1-100 Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.9%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1500&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;typically &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 5)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Video&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;10 ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5-512 kbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.9%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;50&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;typically &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 5)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Audio&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;5 ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 2)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16 kbit/s -2 Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(without haptic compression encoding);&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;0.8 - 200 kbit/s &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(with haptic compression encoding)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.9% (without haptic compression encoding)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;99.999% (with haptic compression encoding)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1 DoF: 2-8 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3 DoFs: 6-24 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6 DoFs: 12-48&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;typically &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 5)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Haptic feedback&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Remote control robot&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1-20ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16 kbit/s -2 Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(without haptic compression encoding);&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;0.8 - 200 kbit/s &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(with haptic compression encoding)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.999%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2-8 (1 DoF)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;high-dynamic (≤ 50 km/h)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤ 1 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Haptic feedback&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;20-100ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16 kbit/s -2 Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(without haptic compression encoding);&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;0.8 - 200 kbit/s &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(with haptic compression encoding)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.999%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2-8 (1 DoF)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤ 1 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Haptic feedback&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;5 ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1-100 Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.999%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1500&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤ 1 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Video&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;5 ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5-512 kbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.9%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;50-100&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤ 1 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Audio&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;5 ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 1Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.999%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤ 1 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Sensor information&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Skillset sharing low- dynamic robotics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(including teleoperation) Controller to controlee&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5-10ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.8 - 200 kbit/s (with compression)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99,999%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40][45]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1 DoF: 2-8 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3 DoFs: 6-24 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6 DoFs: 12-48&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Haptic &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(position, velocity)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Skillset sharing low- dynamic robotics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(including teleoperation)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Controlee to controller&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5-10ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.8 - 200 kbit/s (with compression)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;99,999%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40][45]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1 DoF: 2-8 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;10 DoFs: 20-80 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;100 DoFs: 200-800&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Haptic feedback&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;10ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1-100 Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99,999%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40] [45]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;1500&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Video&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt; 10ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5-512 kbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99,9%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40] [45]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;50&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Audio&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Skillset sharing Highly dynamic/ mobile robotics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Controller to controlee&lt;/span&gt;&lt;span style="font-size:18pt"&gt; &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1-5ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16 kbit/s -2 Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(without haptic compression encoding);&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;0.8 - 200 kbit/s &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(with haptic compression encoding)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99,999% (with compression)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;99,9% (w/o compression)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40] [45]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1 DoF: 2-8 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3 DoFs: 6-24 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6 DoFs: 12-48&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;high-dynamic&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Haptic &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(position, velocity)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Skillset sharing Highly dynamic/ mobile robotics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Controlee to controller&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1-5ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.8 - 200 kbit/s &lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;99,999% (with compression)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99,9% (w/o compression)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40] [45]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1 DoF: 2-8 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;10 DoFs: 20-80 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;100 DoFs: 200-800&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;high-dynamic&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Haptic feedback&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;1-10ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1-10 Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99,999%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40] [45]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2000-4000&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;high-dynamic&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Video&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;1-10ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;100-500 kbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99,9%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40] [45]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;100&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;high-dynamic&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Audio&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Immersive multi-modal navigation applications &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Remote Site &lt;span style=font-family:Wingdings&gt;&amp;#x00E0;&lt;/span&gt; Local Site (DL)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;50\xa0ms [39]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16\xa0kbit/s -2 Mbit/s (without haptic compression encoding);&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.8 - 200 kbit/s (with haptic compression encoding)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.999\xa0%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1 DoF: 2 to 8&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;10 DoF: 20 to 80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;100 DoF: 200 to 800&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤\xa0100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(&lt;/span&gt; &lt;span style="font-size:16pt"&gt;note\xa05)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Haptic feedback &lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&amp;lt;400\xa0ms [39]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1-100\xa0Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.999\xa0%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1500&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary/ or Pedestrian, &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤\xa0100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note\xa05)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Video&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&amp;lt;150\xa0ms [39]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5-512\xa0kbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.9\xa0%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;50&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤ 100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note\xa05)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Audio&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&amp;lt;300\xa0ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;600\xa0Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.9\xa0%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1500&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤ 100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note\xa05)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;VR&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Immersive multi-modal navigation applications Local Site &lt;span style=font-family:Wingdings&gt;&amp;#x00E0;&lt;/span&gt; Remote Site (UL)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt;300\xa0ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;12 kbit/s\xa0[26]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.999\xa0%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1500&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤ 100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note\xa05)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Biometric / Affective &lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&amp;lt;400\xa0ms [39]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1-100\xa0Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.999\xa0%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1500&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Workers: Stationary/ or Pedestrian, UAV: [30-300mph]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤ 100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note\xa05)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Video&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&amp;lt;150\xa0ms [39]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5-512\xa0kbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.9\xa0%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;50&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤\xa0100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note\xa05)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Audio&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&amp;lt;300\xa0ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;600\xa0Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.9\xa0%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[40]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1500&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤\xa0100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note\xa05)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;VR&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;NOTE 1:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Motion-to-photon delay (the time difference between the user’s motion and corresponding change of the video image on display) is less than 20 ms, and the communication latency for transferring the packets of one audio-visual media is less than 10 ms, e.g. the packets corresponding to one video/audio frame are transferred to the devices within 10 ms.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 2:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;According to IEEE 1918.1 [40] as for haptic feedback, the latency is less than 25 ms for accurately completing haptic operations. As rendering and hardware introduce some delay, the communication delay for haptic modality can be reasonably less than 5 ms, i.e. the packets related to one haptic feedback are transferred to the devices within 10 ms.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 3:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Haptic feedback is typically haptic signal, such as force level, torque level, vibration and texture. &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 4:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The latency requirements are expected to be satisfied even when multimodal communication for skillset sharing is via indirect network connection (i.e., relayed by one UE to network relay). &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 5:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;In practice, the service area depends on the actual deployment. In some cases a local approach (e.g. the application servers are hosted at the network edge) is preferred in order to satisfy the requirements of low latency and high reliability.&lt;/span&gt;', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.2006051538005999</v>
+        <v>0.9103578058324231</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;D.5.0 	General&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;7.2	Consolidated potential KPIs of sensing results&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>22261-j30.docx</t>
+          <t>22837-j00.docx</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1678,22 +1678,22 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>['', 'Intelligent Transport Systems (ITS) embrace a wide variety of communications-related applications that are intended to increase travel safety, minimize environmental impact, improve traffic management, and maximize the benefits of transportation to both commercial users and the general public. Over recent years, the emphasis in intelligent vehicle research has turned to co-operative systems, in which the traffic participants (vehicles, bicycles, pedestrians, etc.) communicate with each other and/or with the infrastructure.', '', 'Cooperative ITS is the term used to describe technology that allows vehicles to become connected to each other, and to the infrastructure and other parts of the transport network. In addition to what drivers can immediately see around them, and what vehicle sensors can detect, all parts of the transport system will increasingly be able to share information to improve decision making. Thus, this technology can improve road safety through avoiding collisions, but also assist in reducing congestion and improving traffic flows, and reduce environmental impacts. Once the basic technology is in place as a platform, an array of applications can be developed.', '', 'Cooperative ITS can greatly increase the quality and reliability of information available about vehicles, their location and the road environment. In the future, cars will know the location of road works and the switching phases of traffic lights ahead, and they will be able to react accordingly. This will make for safer and more convenient travel and faster arrival at the destination. &lt;span style="color:000000"&gt;On-board driver assistance, coupled with two-way communication between vehicles and between vehicles and road infrastructure, can help drivers to better control their vehicle and hence have positive effects in terms of safety and traffic efficiency. An important role in this plays the so-called road side units (RSUs). Vehicles can also function as sensors reporting weather and road conditions including incidents. In this way, cars can be used as information sources for high-quality information services.&lt;/span&gt;', '', 'RSUs are connected to the traffic control centre for management and control purposes. They broadcast, e.g., traffic light information (RSU &lt;span style=font-family:Wingdings&gt;&amp;#x00E0;&lt;/span&gt; vehicle) and traffic information from the traffic-control centre (TCC) via the RSU to the vehicles (TCC &lt;span style=font-family:Wingdings&gt;&amp;#x00E0;&lt;/span&gt; RSU &lt;span style=font-family:Wingdings&gt;&amp;#x00E0;&lt;/span&gt; vehicle). RSUs also collect vehicle probe data for the traffic control centre (vehicle &lt;span style=font-family:Wingdings&gt;&amp;#x00E0;&lt;/span&gt; RSU &lt;span style=font-family:Wingdings&gt;&amp;#x00E0;&lt;/span&gt; TCC). For reliable distribution of data, low-latency and high-capacity connections between RSUs (e.g. traffic lights, traffic signs, etc.) and the TCC are required. This type of application comes with rather tight end-to-end latency requirements for the communication service between RSU and TCC (10 ms), since relayed data needs to be processed in the TCC and, if needed, the results are forwarded to neighbouring RSUs. Also, the availability of the communication service has to be very high (99,9999%) in order to compete with existing wired technology and in order to justify the costly deployment and maintenance of RSUs. Furthermore, due to considerably large aggregation areas (see clause D.5.1), considerable amounts of data need to be backhauled to the TCC (up to 10 Mbit/s per RSU).', '']</t>
+          <t>['', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service level&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area &lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[ms]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[s]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Missed detection&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Example Services&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Object detection and tracking&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1 (use cases 5.1; 5.13 – level1)&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Object to be detected indoor: Human, object to be detected outdoor: UAV&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤10&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤10&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;10 &lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE 2&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;10&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE 3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt;1000&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 2&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;intruder detection in smart home,&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;UAV intrusion detection&lt;/span&gt;', '', '', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;2 (use cases 5.13 – level2, 5.6)&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Object to be detected outdoor:&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Human, UAV&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;10 &lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE 2&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;10&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE 3&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤1000]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤1]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;UAV flight route intrusion detection,&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;intruder detection in surroundings of smart home&lt;/span&gt;', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;3 (use cases 5.2, 5.7, 5.10, 5.11, 5.12, 5.23)&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Factory (100m2), crossroad, highway, railway [air]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE 4&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Object to be detected: Animal, Human, UAV, Vehicle&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE\xa05&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;&amp;lt;1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE\xa05&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE\xa08&lt;/span&gt;', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1 x 1 NOTE\xa09&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤100 ≤1000&lt;/span&gt;', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE\xa06&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE\xa010&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≥0.05 ÷ ≤ 0.1 ≤ 1]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE\xa011&lt;/span&gt;', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤2&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤2&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;pedestrian/animal intrusion detection on a highway/railway,&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;sensing at crossroads with/without obstacle,&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;UAV flight trajectory tracing&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;UAV collision avoidance,&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;AMR collision avoidance in smart factories&lt;/span&gt;', '', '', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;4 (use cases 5.20, 5.22, 5.25, 5.27, 5.32)&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Public area safety, factory&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE 7&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Object to be detected: Animal, Human, UAV, AGV/AMR, Vehicle&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.1&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;Pedestrian: ≤1.5&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;Vehicle: ≤15&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;Pedestrian: ≤1.5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.5m &lt;/span&gt;', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;5 x 5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;for factories 0.5 may be needed&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;250&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.25 ≤ 1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Parking Space Determination,&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;UAVs/vehicles/pedestrians detection near Smart Grid equipment,&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;immersive experience based on sensing,&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;public safety search and rescue or apprehend,&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;integrated sensing and positioning in factory hall&lt;/span&gt;', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;5 (use cases 5.28)&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;ADAS -TBD&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Object to be detected: Vehicle&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[95]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;~ [0.1]-[1.3] ; for short range radar ~[0.02]-[2.6]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;TBD&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[±0.03] -[±0.12] m/s&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt; [0.4]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[0.1] – [0.6]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[50]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[0.05] -[0.2]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[1-10] %&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[&amp;lt;1] %&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;ADAS&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Environment monitoring&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1 (use case 5.14)&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Object to be detected outdoor:&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Human&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤2]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[1] &lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[1]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1000 NOTE\xa010&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤0.2]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;traffic management&lt;/span&gt;', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;2 (use cases 5.3 and 5.5.)&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Rainfall monitoring and flooding&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE 14&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Object to be detected: Rain&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤10&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤0.2]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE\xa015&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1 min&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1&amp;lt;10min, application configurable&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;&amp;lt; 0.1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;&amp;lt; 3&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;rainfall monitoring,&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;flooding monitoring&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Motion monitoring&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1 (use cases 5.15, 5.24, 5.29)&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Indoor human motion -sleep monitoring NOTE 12, sports monitoring NOTE 13, gesture recognition&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Motion on human, gesture&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.1 valid for gesture recognition&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.1 valid for gesture recognition&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;60s&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;60, ≤&lt;/span&gt;&lt;span style="font-size:16pt"&gt;0.1 for gesture recognition&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;sleep monitoring,&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;sports monitoring,&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;gesture recognition&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 1:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 7.2-1 are found in Section 3.1.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 2: To detect the UAV existance (e.g., for intrusion detection), the sensing resolution of distance is 10m [25].&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa03:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;To detect the UAV existence, the sensing resolution of velocity is 10m/s [25].&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa04: The typical size (Length x Width x Height) of UAV is 1.6m x 1.5m x 0.7m, the typical size of pedestrian is 0.5m x 0.5m x 1.75m, and the typical size of engineering vehicle is 7.5m x 2.5m x 3.5 m.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa05:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;T&lt;/span&gt;he KPI values for UAVs are sourced from [25] and [40] and for factories &lt;span style="font-size:16pt"&gt;are sourced from [47]&lt;/span&gt;.', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa06:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The value 100 ms is sourced from [28] and is valid for sensing at crossroads.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa07: The safe distance between pedestrian/vehicle and transmission station/line is 0.7m/0.95m [46]. The size of the park of Smart Grid depends on the real environment.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa08:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;To track the UAV flying (e.g., for collision detection and warning), the sensing resolution of distance is 1m [25].&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa09:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;To track the UAV flying, the sensing resolution of velocity is 1m/s [25].&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa010:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;To realize 1m granularity tracking, when the velocity resolution is 1 m/s, the maximum corresponding sensing service latency is 1s.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa011:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Echodyne MESA-DAA&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;TM &lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:16pt"&gt;has approximate 1Hz scan rate [40].&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 12:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Additional KPI on motion rate accuracy of 2 times/min (0.033 Hz).&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 13:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Additional KPI on motion rate accuracy of 3 times/min (0.05Hz) and 4 times/min (0.07 Hz)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa014:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Rainfall estimation accuracy is1 mm/h[39] and describes the closeness of the measured rainfall estimation to its true rainfall value.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa015:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;This value is for the water level. Description related to NOTE in clause 5.5.1 suggests 0.01 m. [≤0.2] is derived from the water level where people feel difficulty in walking.&lt;/span&gt;', '', '', '', 'Editor’s note: The values in brackets are FFS', '', '', '', 'Editor’s note: Different service level of the KPIs is FFS', '', '', '']</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.2197491127760855</v>
+        <v>0.9277717976761253</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;E.1	Description&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;7.2	Consolidated potential KPIs&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>22104-j00.docx</t>
+          <t>22856-j00.docx</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1703,22 +1703,22 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>['', 'AV production includes television and radio studios, outside and remotely controlled broadcasts, live newsgathering, sports events, music festivals, among others. All of these applications require a high degree of reliability, since they are related to the capturing and transmission of data at the beginning of a production chain. This differs drastically when compared to other multimedia services because the communication errors will be propagated to the entire audience that is consuming that content both live and recorded for later distribution. Furthermore, the transmitted data is often post-processed with nonlinear filters which could actually amplify defects that would be otherwise not noticed by humans. Therefore, these applications call for uncompressed or only slightly compressed data, and very low probability of errors. These devices will also be used alongside existing technologies which have a high level of performance and so any new technologies will need to match or improve upon the existing workflows to drive adoption of the technology.', '', 'The performance aspects that are covered by/in TS 22.263 [27] (Service requirements for Video, Imaging and Audio for professional applications) also target the latency that these services experience. ', '', 'In recent years, production facilities have moved from bespoke unidirectional highly specialised networks to IP based systems and software-based workflows. This migration is expected to continue, and wireless IP connectivity is key to a number of these workflows.', '', 'Typical set ups require multiple devices such as cameras, microphones and control surfaces that require extremely close synchronisation to maintain consistency of pictures and audio. Such clock synchronization requirements are captured in clause 5.6. Often devices need to communicate directly to each other for instance a camera to a monitor or a microphone to a PA system.', '', 'Video and audio applications also require extremely high quality of service metrics as the loss of a single packet can cause picture or sound breakup in the downstream processing or distribution. Often this is a legal, regulatory or contractual agreement to maintain a high quality, stable and clear video or audio signal.', '']</t>
+          <t>['', '&lt;span style="font-size:16pt"&gt;Use Cases&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Characteristic parameter (KPI)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Influence quantity&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Remarks&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Max allowed end-to-end latency&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Service bit rate: user-experienced data rate&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Reliability&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Area Traffic capacity&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Message size (byte)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Transfer Interval&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Positioning accuracy&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UE Speed&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Service Area&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;5G-enabled Traffic Flow Simulation and Situational Awareness&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 2)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[5-20] ms (NOTE 1)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[10~100 Mbit/s] &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 6)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&amp;gt; 99.9%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[~39.6 Tbit/s/km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:16pt"&gt; ] &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 5)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;20~100 ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 3)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 250 km/h&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;City or Country wide&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 4)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UL&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Collaborative and concurrent engineering&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[≤10] ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[14]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 7)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[1-100] Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[14]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[&amp;gt; 99.9%] &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[14]&lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;[1.55] Tbit/s/km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:16pt"&gt; &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 8)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Video: 1500&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Audio: 100&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[14]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stationary or Pedestrian&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;typically &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 100 km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 9)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UL and DL audio/video&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[5] ms UL &lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[1-50] ms DL&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[14]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 7)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[&amp;lt;1] Mbit/s &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[14]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[&amp;gt; 99.9%] (without compression)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[&amp;gt; 99.999%] (with compression (NOTE 10))&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[26]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[2.25] Tbit/s/km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:16pt"&gt; &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 8)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1 DoF: 2-8 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3 DoFs: 6-24 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6 DoFs: 12-48 &lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[14]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.25-10 ms &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[14]&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;UL and DL haptic feedback&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Metaverse-based Tele-Operated Driving&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 16)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[100] ms [25] (NOTE 11)&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;[10~50 Mbit/s] [25] &lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;99% [25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[~360 Mbit/s/km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:16pt"&gt; ] &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 14)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;20~100 ms [25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 12)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[10] cm [25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[10-50] km/h (vehicle) [25]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Stationary/Pedestrian (user)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Up to 10km radius [25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 13)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UL real-time vehicle data (video streaming and/or sensor data) [25]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[20] ms [25]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[0.1~0.4 Mbit/s] [25]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;99,999% [25]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;[~4 Mbit/s/km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:16pt"&gt; ] &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 14)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Up to 8Kb&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt; [25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;20 ms [25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 12)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[10] cm [25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[10-50] km/h (vehicle) [25]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Stationary/Pedestrian (user)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Up to 10km radius [25]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;(NOTE 13)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;DL control traffic (commands from the remote driver) [25].&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;1-20ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 15)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16 kbit/s -2 Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(without haptic compression encoding);&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;0.8 - 200 kbit/s &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(with haptic compression encoding)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 15)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.999%&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 15)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[~20 Mbit/s/km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:16pt"&gt; ] &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE 14)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2-8 (1 DoF) (NOTE 15)&lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Stationary/Pedestrian (user)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Up to 10km radius [25]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;(NOTE 13)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Haptic feedback&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 1: The mobile metaverse server receives the data from various sensors, performs data processing, rendering and provide feedback to the vehicles and users. The end-to-end latency refers to the transmission delay between a UE and the mobile metaverse server.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 2: Examples of typical data volume including 1) camera: 10 Mbit/s per sensor (unstructured), 2) LiDAR: 90 Mbit/s per sensor (unstructured), 3) radar: 10 Mbit/s per sensor (unstructured), and 4) real-time Status information including Telemetry data: [&amp;lt; 50 kbit/s] per sensor/vehicle/VRU (structured). This is to support at least 80 vehicles and 1600 users present at the same location (e.g. in an area of 40m*250m) to actively enjoy immersive metaverse services for traffic simulation and traffic awareness, the area traffic capacity is calculated considering 2 cameras, 2 Radars, 2 LiDARs on road side, 1600 user’s smart phones and 80 vehicles with 7 cameras, 4 radar and 2 LiDAR for each vehicle.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 3: The frequency considers different sensor types such as Radar/LiDAR (10Hz) and camera (10~50Hz).&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 4: &lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The service area for traffic flow simulation and situational awareness depends on the actual deployment, for example, it can be deployed for a city or a district within a city or even countrywide. In some cases a local approach (e.g. the application servers are hosted at the network edge) is preferred in order to satisfy the requirements of low latency and high reliability.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 5: The calculation is this table is done per one 5G network, in case of N 5G networks to be involved for such use case in the same area, this value can be divided by N.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 6: User experienced data rate refers to the data rate needed for the vehicle or human, the value is observed from industrial practice. &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 7: The network based conference focus is assumed, which receives data from all the participants, performs rendering (image synthesis), and then distributes the results to all participants. The latency refers to the transmission delay between a UE and the application server. As rendering and hardware introduce some delay, the communication delay for haptic feedback is typically less than 5ms.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 8: To support at least 15 users present at the same location (e.g. in an area of 20m*20m) to actively enjoy immersive Metaverse service concurrently, the area traffic capacity is calculated considering per user consuming non-haptic XR media (e.g. for video per stream up to 40000 kbit/s) and concurrently 60 haptic sensors (per haptic sensor generates data up to 1024 kbit/s).&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 9: &lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;In practice, the service area depends on the actual deployment. In some cases a local approach (e.g. the application servers are hosted at the network edge) is preferred in order to satisfy the requirements of low latency and high reliability.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 10: The arrival interval of compressed haptic data usually follow some statistical distributions, such as generalized Pareto distribution, and Exponential distribution [26].&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 11: The end-to-end latency refers to the transmission delay between a UE and the mobile metaverse server or vice-versa, not including sensor acquisition or actuator control on the vehicle side, processing, and rendering on the user side (estimated additional 100ms total). Target e2e user experienced max delay depends on reaction time of the remote driver (e.g. at 50km/h, 20ms means 27cm of remote vehicle movement).&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 12: UL data transfer interval around 20ms (video) to 100ms (sensor), DL data transfer interval (commands) around 20ms.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 13: The service area for teleoperation depends on the actual deployment; for example, it can be deployed for a warehouse, a factory, a transportation hub (seaport, airport etc.), or even a city district or city. In some cases, a local approach (e.g., the application servers are hosted at the network edge) is preferred to satisfy low latency and high-reliability requirements.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 14: The area traffic capacity is calculated for one 5G network, considering 4 cameras + sensors on each vehicle. Density is estimated to 10 vehicles/km&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:16pt"&gt;, each of the vehicles with one user controlling them. [25]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 15: KPI comes from [5] clause 7.11 “remote control robot” use case.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 16: Examples of typical data volume including 1) ~8Mbps video stream. Four cameras per vehicle (one for each side): 4*8=32Mbps. 2) sensor data (interpreted objects), assuming 1 kB/object/100 ms and 50 objects: 4 Mbps [25].&lt;/span&gt;', '', '', '']</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.1930882802125889</v>
+        <v>0.9109246195902679</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;E.2	Multiple source wireless studio&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;7.2	KPIs for UAV command and control&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>22104-j00.docx</t>
+          <t>22125.docx</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1728,47 +1728,47 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>['', 'This use case will deploy a multiple camera studio of approximately 1,000 m&lt;sup&gt;2&lt;/sup&gt; (~5 cameras) where wired and wireless functionalities currently provided by traditional infrastructure technologies are likely to be deployed using a standalone non-public network. A combination of IP enabled wired and wireless cameras working at both HD and UHD resolutions will be deployed in a studio. Associated equipment such as video monitors,\xa0prompting systems, camera control will be provided over the 5G network. Camera timing and synchronisation will be provided over the 5G system. As well as video, audio will be sourced from both wired and wireless microphones incl. control/monitoring and combined with the video to produce high quality synchronised AV content. 5G will also be deployed to control lighting and camera robotics. Talkback intercom systems will be deployed using low latency multicast links.', '', '&lt;b&gt;Today’s digital AV network transport is typically handled separately for wireless and wired transfers (see &lt;/b&gt;&lt;span style="color:000000"&gt;&lt;b&gt;figure E.1.2-1&lt;/b&gt;&lt;/span&gt;&lt;b&gt;). Wireless AV transmissions are implemented with application specific solutions that allow deterministic data transport of a single isolated audio or video link. Wired AV transmissions are Ethernet / IP based. Quality of service in AV IP networks is mainly achieved with IP DiffServ / DSCP based prioritization of packets in network switches. This method is sufficient for most AV use cases since jitter resulting from packet collisions is small, for example in the order of 10 µs per concurring data stream in Gbit Ethernet.&lt;/b&gt;', '', '', '', '', '', '        ----media/image29.jpeg----', '', 'Figure E.2-1: Typical AVPROD setup', '', 'The microphones and cameras can be co-located in a broadcast centre in which case they would communicate through a LAN or NPN. For remote production operations the mixing and production console may be separated by some distance (existing examples are cross continental. In this instance they may communicate via a PLMN or combination of PLMN and WAN networks.', '', 'Some approaches may also deploy main (leader) equipment at the broadcast centre with secondary (follower) equipment at the location site to reduce latency. ', '', 'Other aspects of this workflow may also include robotic control where both the physical position (height, direction and tilt) and the technical control (focus, zoom, iris, colour) of a device of a camera, microphone or light may be controlled remotely. In this instance round trip latency of &amp;lt; 20ms is required in order for an operator to see a move reflected at his control position as it is made.', '', 'It is important to note that these are a combination of automated robotics (pre-programmed moves) and manually controlled robotics (following an unpredictable event such a sport).', '']</t>
+          <t>['', 'UAVs may use a variety of flight command and control modes. Command and control (C2) communications refers to the two-way communication, which may include video, required to control the operation of the UAV itself. C2 messages may be communicated with the UAV controller, the UTM or both and may or may not be periodic. UAV controller and UTM communications may happen at essentially the same time with different required QoS. Any mission specific communication (e.g. HD video for area surveillance), if required, is additional. Different modes of control and their typical KPIs are listed in this clause below. The 5G system shall support UAV operation at altitudes of at least 120m / 400ft above ground level, e.g. the services should be provided and characterized up to 3000ft AGL.', '', 'Table 7.2-1 KPIs for command and control of UAV operation', '', 'Control Mode', '', 'Function', '', 'Typical Message Interval', '', '', '', 'Max UAV ground speed', '', 'Typical message Size', '', '(note 1)', '', 'End to end Latency', '', '', '', 'Reliability', '', '(note 2)', '', 'Positive ACK', '', '(note 8)', '', 'Steer to waypoints (note 3)', '', 'UAV terminated C2 message', '', '&amp;gt;=1 s', '', '300 km/h', '', '', '', '100 byte', '', '', '', '1 s', '', '99.9%', '', 'Required', '', '', '', 'UAV originated C2 message', '', '(note 4)', '', '1 s', '', '', '', '84-140 byte', '', '1 s', '', '99.9%', '', 'Not Required', '', 'Direct stick steering ', '', '(note 5)', '', 'UAV terminated C2 message', '', '40 ms', '', '(note 6)', '', '60km/h', '', '24 byte', '', '40 ms', '', '99.9%', '', 'Required ', '', '', '', 'UAV originated C2 message ', '', '(note 7)', '', '40 ms', '', '', '', '84-140 byte', '', '40 ms', '', '', '', '99.9%', '', 'Not Required', '', 'Automatic flight on UTM', '', '(note 10)', '', ' ', '', 'UAV terminated C2 message', '', '1 s     ', '', '300 km/h', '', '', '', '', '', '&amp;lt;10 kbyte', '', '5 s (note 9)', '', '99.9%', '', 'Required', '', '', '', 'UAV originated C2 message', '', '1 s', '', '(note 9)', '', '', '', '1500 byte ', '', '5 s', '', '(note 9)', '', '99.9% ', '', 'Required', '', 'Approaching Autonomous Navigation Infrastructure', '', 'UAV terminated C2 message', '', '500 ms', '', '50 km/h', '', '4 kbyte', '', '10 ms', '', '99%', '', 'Required', '', '', '', 'UAVoriginated C2 message', '', '500 ms', '', '', '', '4 kbyte', '', '140 ms', '', '99.99%', '', 'Required', '', 'NOTE 1: Message size is at the application layer and excludes any headers and security related load. The numbers shown are typical as message size depends on the commands sent and is implementation specific.', '', 'NOTE 2: Message reliability is defined as the probability of successful transmission within the required latency at the application layer while under network coverage.', '', 'NOTE 3: Video is neither required nor expected to be used for steering in this mode.', '', 'NOTE 4: It may be possible to transmit this message on an event driven basis (e.g. approaching a geo fence). A status message may, but is not required to, be sent as a response to a control message.', '', 'NOTE 5: A video feedback is required for this mode. The KPIs for video are defined in table 7.2-2.', '', 'NOTE 6: UAVs on-board controllers typically update at either 50Hz (20ms) or 25Hz (40ms).', '', 'NOTE 7: A status message may, but is not required to, be sent as a response to a control message A 1Hz slow mode also exists.', '', 'NOTE 8: Positive ACK is sent to the originator of the message (i.e. UAV controller and / or the UTM). The 5G system makes no assumption whether an appropriate ACK is sent by the application layer.', '', 'NOTE 9: At the application layer, the C2 communication between a UAV and UTM can be allowed to experience much longer traffic interruptions, e.g. timeouts of 30 s on the uplink and 300 s on the downlink.', '', 'NOTE 10: This only represents periodic message exchange during a nominal mission in steady state. Itdoes not represent unusual or aperiodic events such as conveying dynamic restrictions or a flight plan to the UAV on the downlink.', '', '', '', 'Table 7.2-2 KPIs for video used to aid UAV control. ', '', 'Scenario ', '', '(note 2)', '', 'Data rate', '', 'End to end Latency', '', 'Reliability', '', '(note 1)', '', 'Direction', '', 'Positive ACK required', '', 'VLOS (visual line of sight)', '', '2 Mpbs at 480 p, 30 fps', '', '1 s', '', '99.9%', '', 'Sent by UAV', '', 'Not Required', '', 'Non-VLOS', '', '4 Mbps at 720 p, 30 fps', '', '140 ms', '', '99.99%', '', 'Sent by UAV', '', 'Not Required', '', 'NOTE 1:  Message reliability is defined as the probability of successful transmission within the required latency.', '', 'NOTE 2:  Maximum UAV speed is same as control mode of direct stick steering in 7.2-1', '', '', '']</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.2162556306856115</v>
+        <v>0.8592532994715167</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;E.3	Timing use in AV production applications&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;7.2	KPIs for UAV command and control&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>22104-j00.docx</t>
+          <t>22125[1].docx</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>['', 'Timing of multiple devices such as microphones and camera is also critical. Timing signals are used in 2 separate ways. ', '', '-\tTo maintain synchronisation between devices so that electronic shutters on cameras operate at the same time and frequency and that when cutting between any two cameras pointed at the same source no discernible jumps can be seen. This requires accuracy within the frame boundary of a given video signal. A single frame of video at 120 Hz would require a clock accurate to within 8\xa0ms. ', '', '-\tTo timestamp an IP packet carrying a video or audio sample. Existing standards and workflows for AVPROD rely on IEEE 1588 PTP timing with a SMPTE media profile applied. This requires a clock accurate to within 1\xa0µs', '', '', '', '', '', '----media/image30.jpeg----', '', 'Figure E.3-1 Typical IP based timing set up for AVPROD', '', '', '', '', '', 'Annex F (informative):', 'Relation of reliability and communication service availability', '', 'Availability and reliability are used both in 3GPP and vertical industries, but with different meanings. Communication service availability addresses the availability of a communication service. This definition follows the vertical standard IEC 61907 [7]. On the other hand, reliability is a 3GPP term and addresses the availability of a communication network. The relation of both terms is depicted in figure F-1 for a mobile network.', '', '----media/image31.emf----', '', '&lt;b&gt;Figure F-1: Illustration of the concepts reliability and communication service availability.&lt;/b&gt;', '', 'As depicted, reliability covers the communication-related aspects between two nodes (here: end nodes), while communication service availability addresses the communication-related aspects between two communication service interfaces. This might seem to be a small difference, but this difference can lead to situations, where reliability and communication service availability have different values.', '', '&lt;b&gt;Example: traffic gets "stuck"&lt;/b&gt;', '', 'The related scenario is depicted in figure F-2.', '', '----media/image32.emf----', '', '&lt;b&gt;Figure F-2: Example in which reliability and communication service availability have different values. Packets are reliably transmitted from the communication service interface A to end node B, but they are not exposed at the communication service interface B.&lt;/b&gt;', '', 'This scenario addresses unicast communication from application A to B. The packets are handed over at the communication service interface A from the application to the communication network, and the packets are then transmitted to the end node B. In this example, the packets received by end node B are not exposed at the communication service interface B. So, even if all packets that are handed over to end node A are successfully delivered to end node B within the time constraint required by the targeted service (reliability = 100 %), the communication service availability is 0% since no packets arrive at the "end", namely the communication service interface B.', '', '&lt;b&gt;Example: packets dropped at the communication service interface&lt;/b&gt;', '', 'The related scenario is depicted in figure F-3.', '', '&lt;span style="color:000000;font-size:0pt"&gt;&lt;b&gt;&lt;u&gt; &lt;/u&gt;&lt;/b&gt;&lt;/span&gt;----media/image33.emf----', '', '&lt;b&gt;Figure F-3: Example in which reliability and communication service availability have different values. Only half of the packets handed over to the end node A are actually transmitted to end node B and then handed over to application B at the communication service interface B.&lt;/b&gt;', '', 'This scenario describes unicast communication of evenly interspersed packets from application A to B. The packets are handed over at the communication service interface A from the application to the communication network, and the packets are then transmitted to the end node B. However, only every second packet is actually successfully handed over to end node A and then transmitted to end node B. Thus, only half of the packets arrive at application B. Note though that the reliability of the mobile network is 100%, since all packets transmitted by end node A are delivered to end node B within the time constraint required by the targeted service. However, depending on the agreed QoS, the communication service availability can be of the same value as the reliability or much lower. For instance, if the agreed survival time is equal to or larger than the end-to-end latency, reliability and communication service availability are equal. However, if the survival time is smaller, the reliability is two times the communication service availability. ', '', 'Note that the shortest time interval over which the communication service availability should be calculated is the sum of maximum allowed end-to-end latency and survival time.', '', 'Annex G (informative):', 'Change history', '', '', '', '&lt;b&gt;Change history&lt;/b&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Date&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Meeting&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;TDoc&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;CR&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Rev&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Cat&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Subject/Comment&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;New version&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-05&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA1#82&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;S1-181551&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Skeleton for TS 22.104 ("Service requirements for cyber-physical control applications in vertical domains")&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-05&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA1#82&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;S1-181552&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Includes agreements at SA1#82, Dubrovnik, Croatia&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-08&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA1#83&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;S1-182344&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Includes agreements at SA1#83, West Palm Beach, Florida&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-11&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA1#84&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;S1-183276&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Includes agreements at SA1#83, Spokane, WA, USA, rapporteur’s clean-up&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#82&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-181006&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Presentation to SA for one-step approval&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#82&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-181006&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Raised to v.16.0.0 following SA approval&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#83&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190081&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0003&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarifying UE-to-UE versus UE-to-network&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#83&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190081&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0002&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Moving rail-bound mass transit requirements – shift from cyberCAV&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#83&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190081&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0001&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clean-up and corrections of TS 22.104 cyberCAV&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#84&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190299&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0008&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to TS 22.104 v16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#84&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190299&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0006&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Add missing abbreviations to TS 22.104&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#84&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190299&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0005&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;C&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Adding edge computing aspect&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#84&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190311&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0009&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;C&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Adding vertical positioning requirements to TS 22.104 v16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190807&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0012&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Addition of a new synchronisation performance requirement&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190807&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0011&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Addition of robotic aided surgery and diagnosis performance requirements&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190800&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0023&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of a figure number in Annex D.2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190812&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0010&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Add one more case for control-to-control communication&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190812&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0013&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Network operation requirements&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190812&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0015&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;eCAV – Further 5G service requirements for Positioning&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190812&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;eCAV – Service performance requirements for Industrial Wireless Sensors&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190812&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0016&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;eCAV – further 5G service requirements for wired to wireless link replacement for smart manufacturing / Industry 4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190812&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0020&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;eCAV – further 5G service requirements for network performance&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190857&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0021&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;ECAV - further 5G service requirements for ProSe communication for CAV&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190856&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0019&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;ECAV - further 5G service requirements for industrial Ethernet integration (clock synchronization, time-sensitive communication)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191016&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0027&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Addition of informative annex for AV Prod&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191020&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0026&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of CMED KPIs tables&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191028&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0034&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification of clock synchronicity requirements&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191028&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0028&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Addition of transmission directions and movement characteristics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191028&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0030&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on communication service reliability&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191028&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0035&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Derivation of communication service availability and reliability from network performance metrics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191028&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0037&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Editorial and minor corrections to TR 22.104&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191028&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0032&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;C&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Network performance requirements for mobile operation panel&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191028&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0038&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TS 22104 - Annex A for cooperative carrying&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#88e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200568&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0050&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of service performance requirements in tables of annex A.6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#88e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200567&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0049&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;22.104 Miscellaneous editorial corrections&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#88e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200562&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0041&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarifications to communication service performance requirements&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#88e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200567&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0048&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Miscellaneous values for further study&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#88e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200562&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0045&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correcting description of communication service status in Clause C.3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#88e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200562&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0047&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clock synchronicity budget for the 5G system&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#89e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200790&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0055&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Quality improvement – burst definition&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#89e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200790&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0058&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;CR 22.104 R17 - Editorial Improvements – Decimal Separator&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#91e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210200&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0063&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt; &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Non-inclusive language replacement 22.104&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.5.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#91e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210217&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Adding energy efficiency use cases for positioning to the ANNEX A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.5.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#92e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210564&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0075&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Quality improvement - update of definition of communication service availability &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#92e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210565&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0066&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Quality improvement - addition of new annex (relationship between reliability and communication service availability) &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#92e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210565&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0068&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;22.104 - V18.0.0 - quality improvement - update of mobile-robots use case description  &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#92e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210565&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0069&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of mobile-robot use cases (UE number)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#92e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210565&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Quality improvement - service duration &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#92e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210517&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0065&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5G timing resiliency &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#92e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210524&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0073&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Alignment of positioning power consumption aspects between 22.261 and 22.104&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#92e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210524&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0072&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Adding LPHAP requirements for Industrial IoT&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#93e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211038&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0077&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Quality improvement: update of reference to IEEE 802.1AS&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#93e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0078&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Introduction of Smart Energy Infrastructure Requirements&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#93e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0080&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Annex for smart grid&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#93e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0082&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Introduction of SEI KPIs&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#93e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0083&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Adjusting scope clause in TS 22.104 to the specification s content&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#93e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211039&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0084&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification of requirements for clock synchronization with direct device connection and indirect network connection communication&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#93e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0087&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Inclusion of Smart Energy Infrastructure Requirements&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-94&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211497&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0089&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;C&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of references for clause 2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-94&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211497&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0090&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Remove editor note for Figure A.4.4.3-1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-94&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211497&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0091&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update to Smart Grid normative requirements&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230230&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0093&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Additional clarification on security, privacy for mobile robots using edge cloud&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;19.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230230&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0094&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;An additional u</t>
+          <t>['', 'UAVs may use a variety of flight command and control modes. Command and control (C2) communications refers to the two-way communication, which may include video, required to control the operation of the UAV itself. C2 messages may be communicated with the UAV controller, the UTM or both and may or may not be periodic. UAV controller and UTM communications may happen at essentially the same time with different required QoS. Any mission specific communication (e.g. HD video for area surveillance), if required, is additional. Different modes of control and their typical KPIs are listed in this clause below. The 5G system shall support UAV operation at altitudes of at least 120m / 400ft above ground level, e.g. the services should be provided and characterized up to 3000ft AGL.', '', 'Table 7.2-1 KPIs for command and control of UAV operation', '', 'Control Mode', '', 'Function', '', 'Typical Message Interval', '', '', '', 'Max UAV ground speed', '', 'Typical message Size', '', '(note 1)', '', 'End to end Latency', '', '', '', 'Reliability', '', '(note 2)', '', 'Positive ACK', '', '(note 8)', '', 'Steer to waypoints (note 3)', '', 'UAV terminated C2 message', '', '&amp;gt;=1 s', '', '300 km/h', '', '', '', '100 byte', '', '', '', '1 s', '', '99.9%', '', 'Required', '', '', '', 'UAV originated C2 message', '', '(note 4)', '', '1 s', '', '', '', '84-140 byte', '', '1 s', '', '99.9%', '', 'Not Required', '', 'Direct stick steering ', '', '(note 5)', '', 'UAV terminated C2 message', '', '40 ms', '', '(note 6)', '', '60km/h', '', '24 byte', '', '40 ms', '', '99.9%', '', 'Required ', '', '', '', 'UAV originated C2 message ', '', '(note 7)', '', '40 ms', '', '', '', '84-140 byte', '', '40 ms', '', '', '', '99.9%', '', 'Not Required', '', 'Automatic flight on UTM', '', '(note 10)', '', ' ', '', 'UAV terminated C2 message', '', '1 s     ', '', '300 km/h', '', '', '', '', '', '&amp;lt;10 kbyte', '', '5 s (note 9)', '', '99.9%', '', 'Required', '', '', '', 'UAV originated C2 message', '', '1 s', '', '(note 9)', '', '', '', '1500 byte ', '', '5 s', '', '(note 9)', '', '99.9% ', '', 'Required', '', 'Approaching Autonomous Navigation Infrastructure', '', 'UAV terminated C2 message', '', '500 ms', '', '50 km/h', '', '4 kbyte', '', '10 ms', '', '99%', '', 'Required', '', '', '', 'UAVoriginated C2 message', '', '500 ms', '', '', '', '4 kbyte', '', '140 ms', '', '99.99%', '', 'Required', '', 'NOTE 1: Message size is at the application layer and excludes any headers and security related load. The numbers shown are typical as message size depends on the commands sent and is implementation specific.', '', 'NOTE 2: Message reliability is defined as the probability of successful transmission within the required latency at the application layer while under network coverage.', '', 'NOTE 3: Video is neither required nor expected to be used for steering in this mode.', '', 'NOTE 4: It may be possible to transmit this message on an event driven basis (e.g. approaching a geo fence). A status message may, but is not required to, be sent as a response to a control message.', '', 'NOTE 5: A video feedback is required for this mode. The KPIs for video are defined in table 7.2-2.', '', 'NOTE 6: UAVs on-board controllers typically update at either 50Hz (20ms) or 25Hz (40ms).', '', 'NOTE 7: A status message may, but is not required to, be sent as a response to a control message A 1Hz slow mode also exists.', '', 'NOTE 8: Positive ACK is sent to the originator of the message (i.e. UAV controller and / or the UTM). The 5G system makes no assumption whether an appropriate ACK is sent by the application layer.', '', 'NOTE 9: At the application layer, the C2 communication between a UAV and UTM can be allowed to experience much longer traffic interruptions, e.g. timeouts of 30 s on the uplink and 300 s on the downlink.', '', 'NOTE 10: This only represents periodic message exchange during a nominal mission in steady state. Itdoes not represent unusual or aperiodic events such as conveying dynamic restrictions or a flight plan to the UAV on the downlink.', '', '', '', 'Table 7.2-2 KPIs for video used to aid UAV control. ', '', 'Scenario ', '', '(note 2)', '', 'Data rate', '', 'End to end Latency', '', 'Reliability', '', '(note 1)', '', 'Direction', '', 'Positive ACK required', '', 'VLOS (visual line of sight)', '', '2 Mpbs at 480 p, 30 fps', '', '1 s', '', '99.9%', '', 'Sent by UAV', '', 'Not Required', '', 'Non-VLOS', '', '4 Mbps at 720 p, 30 fps', '', '140 ms', '', '99.99%', '', 'Sent by UAV', '', 'Not Required', '', 'NOTE 1:  Message reliability is defined as the probability of successful transmission within the required latency.', '', 'NOTE 2:  Maximum UAV speed is same as control mode of direct stick steering in 7.2-1', '', '', '']</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.2572981744426481</v>
+        <v>0.8592532994715167</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;</t>
+          <t>&lt;h2&gt;7.2	Low latency and high reliability&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>22876-j00.docx</t>
+          <t>22261-j30.docx</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1778,47 +1778,47 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>['8.1.2\tQoS support&lt;/h3&gt;', '', 'Table 8.1.2 – QoS support Consolidated Requirements', '', 'CPR #', '', 'Consolidated Potential Requirement', '', 'Original PR #', '', 'Comment', '', '&lt;b&gt;CPR 8.1.2-1&lt;/b&gt;', '', 'Based on user consent and operator policy, the 5G network shall be able to have the means for operator to modify the communication QoS so that the end to end latency can be satisfied when a relay UE is involved for a proximity-based work task offloading.', '', 'NOTE\xa01:\tDue to the proximity-based work task offloading, the data size transmitted via sidelink and Uu of the indirect network connection can be different', '', 'NOTE 2:\tThe split point selection is dynamic. In consequence, the amount of intermediate data will vary. ', '', 'NOTE 3:  Similarly as existing direct device connection based transmission the QoS for the specific service can be impacted by the distance between UEs then the UE reselection may be needed.', '', 'P.R.5.1.6-001', '', 'P.R.5.2.6-005', '', '', '', '&lt;b&gt;CPR 8.1.2-2&lt;/b&gt;', '', 'Subject to user consent and operator policy, the 5G network shall be able to configure the QoS (latency, reliability, data rate) of the communication path of the direct device connection.', '', 'P.R.5.2.6-004', '', '', '', '&lt;b&gt;CPR 8.1.2-3&lt;/b&gt;', '', 'Based on user consent, operator policy and regulatory requirement, the 5G network shall be able to support means to monitor the characteristics (e.g. experienced data rate, latency) of the traffic transmitted via direct device connection or the traffic relayed by a UE and expose the monitoring information to trusted 3rd party.', '', 'NOTE:  The monitoring information doesn’t include any user position-related data.', '', 'P.R.6.1-001', '', '', '', '&lt;b&gt;CPR 8.1.2-4&lt;/b&gt;', '', 'Subject to user consent, operator policy and trusted 3&lt;sup&gt;rd&lt;/sup&gt; party request, the 5G system shall be able to provide means for operator to predict and expose condition changes of QoS for indirect network connection (i.e. bitrate, latency, reliability).', '', 'P.R.5.2.6-002', '', '', '', '&lt;b&gt;CPR 8.1.2-5&lt;/b&gt;', '', 'The 5G system shall support a mechanism for an authorized third-party to negotiate with a 5G network for a suitable QoS for direct device connections for a group of UEs to exchange data with each other', '', 'P.R.6.1-003', '', '', '', '&lt;b&gt;CPR 8.1.2-6&lt;/b&gt;', '', 'Based on user consent, operator policy and trusted 3&lt;sup&gt;rd&lt;/sup&gt; party’s request, the 5G network shall be able to support and provision an aggregated QoS for a group of UEs served by a relay UE.', '', 'P.R. 7.2-001', '', 'P.R. 7.2-002', '', '', '', '&lt;b&gt;CPR 8.1.2-7&lt;/b&gt;', '', 'Based on user consent, operator policy and 3&lt;sup&gt;rd&lt;/sup&gt; party’s request, the 5G network shall be able to provide and configure the QoS limitation applied to a group of UEs communicating via direct device connection (e.g. part of a joint AIML inference task).', '', 'NOTE: the above requirement assumes unicast type of communication.', '', 'P.R.7.3-001', '', '', '', '', '', '', '']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.2197259518282827</v>
+        <v>0.9455455611088468</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;	5.32.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;7.3	Performance &lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>22837-j00.docx</t>
+          <t>22890-j00.docx</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>['', '[PR 5.32.6-1] Based on operator’s policy, the 5G system may provide a mechanism for a trusted third party to provide sensing assistance information about a sensing target.', '', '[PR 5.32.6-2] The 5G system shall be able to provide sensing results with the following KPIs:', '', 'Table 5.32.6-1\tPerformance requirements of the sensing results exposed to the third party', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area &lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[ms]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[s]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Missed detection&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Indoor Factory&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;100 m&lt;/span&gt;&lt;span style="color:0C0C0C;font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;99&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤0.5]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[0.5]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[0.5]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤100&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.32.6-1 are found in Section 3.1.&lt;/span&gt;', '', '', '']</t>
+          <t>['', 'Table 7.3-1: KPIs for Railway Smart Station Services', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Scenario&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;(Note 5)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;End-to-end latency&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Reliability&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;(Note 1)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;UE speed&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;UE Relative&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Speed&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;User experienced data rate&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Payload&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;size&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;(Note 2)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Area traffic density&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Overall UE density&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Service area dimension', '(Note 3)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Multiple trains\' stops at the same platform (Korea, urban railway)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤10 ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.9999%&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;≤100\xa0km/h&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤50km/h&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤1Mb/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Small to large&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤ 1 Mb/s/km&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤ 5 (100m)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤ 15 km&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;along rail tracks including bad weather conditions&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(Note 4)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;NOTE 1:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Reliability as defined in TS 22.289 sub-clause 3.1.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 2:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Small: payload ≤ 256 octets, Medium: payload ≤512 octets; Large: payload 513 -1500 octets.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 3:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Estimates of maximum dimensions.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 4:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Non-Line-of-Sight (NLOS) between UEs shall be supported&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 5:    Off-network traffic characteristics are not addressed in this table since it can be covered by TR22.990.&lt;/span&gt;', '', 'Note:\tThis table is intended to be included in clause 6.2 of TS 22.289 [9].', '', '', '']</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.2491538676627245</v>
+        <v>0.9067973115743555</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;12.20.2	Description&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;7.3	Positioning performance requirements	&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>22989-j30.docx</t>
+          <t>22125.docx</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1828,22 +1828,22 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>['', 'In the case of vehicle/train composition, FRMCS Users can take full advantage of the transport facilities of the 3GPP system while ensuring priority, latency and reliability for each communication. FRMCS User and the associated communication applications need to be decoupled from the FRMCS Equipment.', '']</t>
+          <t>['', 'Table 7.3-1 below lists typical scenarios and the corresponding positioning requirements for horizontal and vertical accuracy, availability, heading, latency, and UE speed.', '', 'NOTE:\tThe column on "Corresponding Positioning Service Level in TS 22.261" maps the scenarios listed in Table 7.3-1 to the service levels defined in TS 22.261 [4].', '', 'Table 7.3-1: Positioning performance requirements', '', 'Scenario', '', 'Accuracy', '', '(95 % confidence level)', '', 'Availability', '', 'Heading', '', 'Latency for position estimation of UE', '', 'UE Speed', '', '&lt;span style="font-size:16pt"&gt;Corresponding Positioning Service Level in TS 22.261&lt;/span&gt;', '', '', '', 'Horizontal accuracy', '', 'Vertical accuracy', '', '', '', '', '', '', '', '', '', '', '', '8K video live broadcast', '', '[0.5 m]', '', '[1 m]', '', '99%', '', '', '', '1s', '', '[&amp;lt;120 km/h]', '', '5', '', 'Laser mapping/', '', 'HD patrol', '', '[0.5 m]', '', '[1 m]', '', '99%', '', '', '', '1s', '', '[&amp;lt;120 km/h]', '', '5', '', '4*4K AI surveillance', '', '[0.1\xa0m]', '', '', '', '', '', '', '', '', '', '[&amp;lt;60 ', '', 'km/h]', '', '', '', 'Remote UAV controller through HD video', '', '[0.5 m]', '', '[1 m]', '', '99%', '', '', '', '1s', '', '[&amp;lt;120 km/h]', '', '5', '', 'Periodic still photos', '', '[0.1 m]', '', '[1 m]', '', '', '', '', '', '', '', '[&amp;lt;60 km/h]', '', '', '', 'NOTE: The positioning accuracy in this table is not related to navigation or safety. ', '']</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.2166992227326293</v>
+        <v>0.8931256635451295</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;12.20.6	Potential requirements and gap analysis&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;7.3	Positioning performance requirements	&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>22989-j30.docx</t>
+          <t>22125[1].docx</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1853,22 +1853,22 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>['', 'Reference Number', '', 'Requirement text', '', 'Application / Transport', '', 'SA1 spec covering', '', 'Comments', '', '[R-12.20.6-001]', '', 'Multiple FRMCS Users in the vehicle/train shall be able to use one FRMCS Equipment simultaneously.', '', 'A/T', '', 'TS 22.280', '', 'TS 22.280 sub-clause 5.15', '', '5.15-001 ', '', '[R-12.20.6-002]', '', 'The service capabilities of an FRMCS Equipment shall be attributable individually to multiple FRMCS Users.', '', 'A/T', '', 'TS 22.280', '', 'TS 22.280 [R-5.15-002] &amp;amp; [R-5.15-003] ', '', '[R-12.20.6-003]', '', 'When an FRMCS Equipment is simultaneously used by multiple FRMCS Users, the communication for each of the FRMCS Users shall receive its required priority and QoS (latency and reliability) within the FRMCS System.', '', 'T', '', 'TS 22.280', '', 'TS 22.280 [R-5.15-003] [', '', '[R-12.20.6-004]', '', 'When an FRMCS Equipment is simultaneously used by multiple FRMCS Users, each of the FRMCS Users shall be individually addressable.', '', 'A', '', 'TS 22.280', '', 'TS 22.280 [R-5.15-002] ', '', '', '']</t>
+          <t>['', 'Table 7.3-1 below lists typical scenarios and the corresponding positioning requirements for horizontal and vertical accuracy, availability, heading, latency, and UE speed.', '', 'NOTE:\tThe column on "Corresponding Positioning Service Level in TS 22.261" maps the scenarios listed in Table 7.3-1 to the service levels defined in TS 22.261 [4].', '', 'Table 7.3-1: Positioning performance requirements', '', 'Scenario', '', 'Accuracy', '', '(95 % confidence level)', '', 'Availability', '', 'Heading', '', 'Latency for position estimation of UE', '', 'UE Speed', '', '&lt;span style="font-size:16pt"&gt;Corresponding Positioning Service Level in TS 22.261&lt;/span&gt;', '', '', '', 'Horizontal accuracy', '', 'Vertical accuracy', '', '', '', '', '', '', '', '', '', '', '', '8K video live broadcast', '', '[0.5 m]', '', '[1 m]', '', '99%', '', '', '', '1s', '', '[&amp;lt;120 km/h]', '', '5', '', 'Laser mapping/', '', 'HD patrol', '', '[0.5 m]', '', '[1 m]', '', '99%', '', '', '', '1s', '', '[&amp;lt;120 km/h]', '', '5', '', '4*4K AI surveillance', '', '[0.1\xa0m]', '', '', '', '', '', '', '', '', '', '[&amp;lt;60 ', '', 'km/h]', '', '', '', 'Remote UAV controller through HD video', '', '[0.5 m]', '', '[1 m]', '', '99%', '', '', '', '1s', '', '[&amp;lt;120 km/h]', '', '5', '', 'Periodic still photos', '', '[0.1 m]', '', '[1 m]', '', '', '', '', '', '', '', '[&amp;lt;60 km/h]', '', '', '', 'NOTE: The positioning accuracy in this table is not related to navigation or safety. ', '']</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.2232725019605552</v>
+        <v>0.8931256635451295</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;12.22.5	Potential requirements and gap analysis&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;7.4	Other requirements &lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>22989-j30.docx</t>
+          <t>22125.docx</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1878,22 +1878,22 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>['', 'Reference Number', '', 'Requirement text', '', 'Application / Transport', '', 'SA1 spec covering', '', 'Comments', '', '[R-12.22-001]', '', 'The FRMCS System shall be able to provide a mechanism to allow redundancy of transmission paths making use of multiple spectrum blocks.', '', 'T', '', 'Covered in TS 22.261 chapter 7.2 by referring to TS 22.289', '', 'The reliability figures for rail is included in 22.289 (KPI for rail) and referenced in 22.261 sub-clause 7.2 on low latency and high reliability. ', '', '[R-12.22-002]', '', 'The FRMCS System shall provide a mechanism that minimizes the risk of single point of failure.', '', 'A/T', '', 'Covered in TS 22.261 chapter 7.2 by referring to TS 22.289', '', 'The reliability figures for rail is included in 22.289 (KPI for rail) and referenced in 22.261 sub-clause 7.2 on low latency and high reliability. ', '']</t>
+          <t>['', '[R-7.4-001] The 5G system shall support a mechanism to switch between C2 communication modes for UAS operation, e.g. from indirect C2 communication to direct C2 communication, and ensure the disconnect time is below the latency requirements.', '', '[R-7.4-002] The 3GPP system shall enable concurrent communications between the UAV-controller and UAV and between the UTM and the UAV that may require different KPIs. ', '', '[R-7.4-003] The 3GPP system shall be capable of switching between the KPIs, as requested by the UAV-controller or the UTM, within [500ms].  ', '', '', 'Annex A (informative):', 'UAS Reference Model', '']</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.2161571150738006</v>
+        <v>0.7242542437347971</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.1.1	Description&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;7.4	Other requirements &lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>22882-j00.docx</t>
+          <t>22125[1].docx</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1903,22 +1903,22 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>['', 'Currently energy consumption and efficiency can be monitored and considered through O&amp;amp;M and network operation, but not as a service performance criterion, as for example bit rate, latency or availability. Guidance from SA to all working groups in states: ', '', '&lt;i&gt;"The EE-specific efforts so far undertaken e.g., in SA5 have aimed mostly at improving the energy efficiency by impacting the operations of the system. As we now are starting to specify the 5G-Advanced features, TSG SA kindly requests the recipient WGs and TSGs to consider EE even more as a guiding principle when developing new solutions and evolving the 3GPP systems specification, in addition to the other established principles of 3GPP system design.&lt;/i&gt;', '', '&lt;i&gt;TSG SA clarifies that in addition to EE, other system level criteria shall continue to be met (i.e. the energy efficiency aspects of a solution defined in 3GPP is not to be interpreted to take priority or to be alternative to security, privacy, complexity etc. and to meeting the requirements and performance targets of the specific feature(s) the solution addresses)."&lt;/i&gt;', '', 'There is an important type of traffic where energy efficiency policy, for example a &lt;i&gt;maximum amount of energy to be utilized &lt;/i&gt;could be applied without conflict with this guidance. Best effort traffic is a type of traffic that is provided as a service to customers &lt;i&gt;everything else being equal&lt;/i&gt;. Of course, security, privacy and complexity principles will not be sacrificed, but there is no conflict between a service policy that constrains performance (e.g. latency, throughput, even availability) on the basis of energy consumption and a best effort service, since there are no guarantees in the case of best effort traffic. We can say that best effort traffic is not associated with QoS policy service performance level criteria.', '', 'Today the 5G system works to support services efficiently, though does not take into account energy consumption at the service level. The use case explores a particular opportunity to identify this information and use it to make more efficient use of all network resources without sacrificing service quality. In particular, information gathered through O&amp;amp;M, and in the future possibly from the network (see 5.1.5 which identifies a gap and opportunity), can be leveraged to make it possible to employ energy consumption information as part of service delivery. ', '', 'In the following use case, the possibility of using energy consumption as a new service criterion for this less constrained type of mobile telecommunication service is explored.', '', "A large-scale logistics company L has deployed a large number of communicating components. These are integrated into vehicles, palettes, facilities, etc. Essentially, IoT terminals enable remote tracking and monitoring functions. The information gathered is relevant, but not constrained with respect to latency. In fact, eventual delivery (e.g. after hours or even a full day) of communication is entirely acceptable for L. The MNO M offers a 'green service' which limits the rate of energy utilized for communication over a particular time interval (e.g. per day) and this service is appropriate for L, whose overall corporate goals are also served by 'green service,' as they strive to operate with energy efficiency.", '']</t>
+          <t>['', '[R-7.4-001] The 5G system shall support a mechanism to switch between C2 communication modes for UAS operation, e.g. from indirect C2 communication to direct C2 communication, and ensure the disconnect time is below the latency requirements.', '', '[R-7.4-002] The 3GPP system shall enable concurrent communications between the UAV-controller and UAV and between the UTM and the UAV that may require different KPIs. ', '', '[R-7.4-003] The 3GPP system shall be capable of switching between the KPIs, as requested by the UAV-controller or the UTM, within [500ms].  ', '', '', 'Annex A (informative):', 'UAS Reference Model', '']</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.1983692164568904</v>
+        <v>0.7242542437347971</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.1.3	Service Flows&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;7.6	High data rate and low latency&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>22876-j00.docx</t>
+          <t>22261-j30.docx</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>['', '', '', '', '', '----media/image4.emf----                ----media/image5.emf----', '', '(a)\tno task offloading   \t\t\t\t(b) task offloading by UE-B', '', 'Figure 5.1-2: Using direct device connection (sidelink) to realize the proximity-based work task offloading. In this case, the data rate on Uu need not be increased while the original UE’s computation load is offloaded', '', '1)\tAs shown in left(a) of Figure 5.1-2, UE-A is doing image recognition using Alexnet Model as described in clause 5.4.2. It selects splitting point-3 for the AI inference. ', '', 'The E2E service latency (including image recognition latency and intermediate data transmission latency) is 1 second. ', '', '2)\tWhen the UE-A’s battery becomes low, it cannot afford the heavy work task for the AlexNet model (i.e. calculating layer 1-15 for AlexNet model in local side).', '', '3)\tBeing managed by 5G network, the UE-A discovers UE-B (a Customer Premise Equipment, CPE) which has installed the same model and is willing to take the offloading task from UE-A. ', '', 'NOTE 1:\tThe 5G network does not store UE-A and UE-B’s location data. ', '', 'Then UE-A established the sidelink (direct device connection) to UE-B. During the sidelink establishment, the UE-B also gets the information of the total service latency (including the image recognition latency and intermediate data transmission latency) and the processing time consumed by UE-A for computing layer 1-4.', '', '\tSince the UE-B has acquired the E2E service latency and the processing time consumed by UE-A, and also it knows its own processing time for computing layer 5-15, the UE-B can determine the QoS parameters applied to both Uu and Sidelink while keeping the E2E service latency same as the E2E service latency described in step-1. ', '', 'NOTE 2:\tIt is assumed that the UE-A and UE-B have the same computation capacity, i.e. the time used for computing the certain AlexNet model layers are the same for UE-A and UE-B. Otherwise, the data rate on Uu and Sidelink may be changed accordingly. ', '', '4)\tThe UE-A sends the intermediate data (data after calculating layer 1-4) to UE-B via sidelink and let UE-B make further processing then transmit the intermediate data (data after calculating layer 5-15) to application server via Uu. The specific model layers being computed by UE-A and UE-B are shown in the right(b) in figure 5.1-2.', '', '5)\tUE-A continues to perform image recognition by leveraging sidelink and UE-B’s computation capacity while the source and destination IP address and the E2E service latency for the image recognition service is unchanged.', '']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.1977725274094676</v>
+        <v>0.9455455611088468</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.1.3	Service flows&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;7.7	KPIs for UE to network relaying in 5G system&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>22882-j00.docx</t>
+          <t>22261-j30.docx</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>LR3_other</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>['', "1.\tThe fleet of trucks belonging to L leave the logistic center located in the middle of the uninhabited region hundreds of kilometers northeast of the major city Erehwon. There are many devices located in this fleet. The trucks and their contents comprise a physically dense group of UEs, all communicating periodically with the network. This 'massive IoT' group leaves the coverage of the logistics center. The network coverage over the road through the uninhabited region is very sparse.", '', '2.\tAs the trucks proceed into extreme low coverage, the energy utilized to communicate with the IoT devices increases. This energy consumption increase is monitored by the 5G network and can be aggregated, e.g. at the slice level.', '', "3.\tThe 'green service' policy for the service provided to L includes a maximum energy consumption rate. At a certain point the IoT communication of the fleet exceed&lt;i&gt;s&lt;/i&gt; this maximum energy consumption rate.", '', "4.\tThe policy indicates that latency can be traded off with energy consumption for service to L; the communication service is delay tolerant in this condition. As the energy consumption rate has exceeded the maximum, the latency is increased to enforce this policy. In effect, L's fleet receives very limited service, with high latency, even for a limited period of time, no service at all.", '', 'NOTE:\tThis use case does not describe how latency is increased, but does assume that this increase will result in a reduction of energy consumption. It is possible to reduce energy consumption by offering less service.', '', "The use case description does not define how operator M offers the 'green service'. One possibility is that the maximum energy consumption policy applies to all services for the subscription of a device deployed by L with operator M. This simple policy may not be appropriate if the UEs deployed by L use different kinds of services at different times. In this case, the policy would apply to specific services (service flows, etc.) A requirement at the service flow level is not pursued in this use case.", '', "A further option is that specific network slices apply a 'green service' policy to all services communicating by means of that slice. ", '', "The use case does not describe how energy consumption is determined. There is related work in SA5 and RAN3 to determine energy consumption. If energy consumption cannot be determined at the granularity, e.g. of a specific service or network slice or even the aggregate energy consumption of a subscriber, it is still possible to identify the total energy consumption of different elements in the 5G network. It is therefore possible, at least in principle, to divide the total energy by the number of served sessions, subscribers, etc. 'Average consumption' of a node or cell or slice, etc. is a course unit of measurement, and does not reflect the true energy consumption at the finer granularity, though it still can be a useful metric.", '', "Though an averaging approach could be useful to count the total amount of energy used to attribute to each subscriber, this approach is not enough to measure the rate of energy consumption as described in this use case. For this, there would have to be finer granularity energy reporting than 'per node' or 'per cell.' Though this is not yet supported in the 5G network.", '']</t>
+          <t>['', 'In several scenarios, it can be beneficial to relay communication between one UE and the network via one or more other UEs. The functional requirements related to relaying can be found in clause 6.9.2. Performance requirements for relaying in different scenarios can be found in table 7.7-1.', '', 'Table 7.7-1: Key Performance for UE to network relaying', '', '&lt;span style="font-size:16pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Max. data rate (DL)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Max. data rate (UL)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;End-to-end latency&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 7)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Area traffic capacity&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(DL)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Area traffic capacity&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(UL)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Area user density &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Area&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Range of a single hop&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 8)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Estimated number of hops &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;InHome Scenario&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 1)&lt;/span&gt;', '', '1 Gbit/s', '', '500 Mbit/s', '', '10 ms', '', '5 Gbit/s/ home', '', '2 Gbit/s /home', '', '50 devices /house', '', '10 m x 10m – 3 floors&lt;sup&gt; &lt;/sup&gt;', '', '10 m indoor', '', '2 to 3', '', '&lt;span style="font-size:16pt"&gt;Factory Sensors&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 2)&lt;/span&gt;', '', '100 kbit/s', '', '5 Mbit/s', '', '50 ms to 1 s', '', '1 Gbit/s /factory', '', '50 Gbit/s /factory', '', '10000 devices /factory', '', '100\xa0m x 100\xa0m', '', '30 m indoor / metallic', '', '2 to 3', '', '&lt;span style="font-size:16pt"&gt;Smart Metering&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 3)&lt;/span&gt;', '', '100 bytes / 15 mins', '', '100 bytes / 15 mins', '', '10 s', '', '200 x 100 bytes / 15 mins /hectare', '', '200 x 100 bytes / 15 mins /hectare', '', '200 devices /hectare', '', '100 m x 100 m', '', '&amp;gt;\xa0100 m indoor / deep indoor', '', '2 to 5', '', '&lt;span style="font-size:16pt"&gt;Containers&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 4)&lt;/span&gt;', '', '100 bytes / 15 mins', '', '100 bytes / 15 mins', '', '10 s', '', '15000 x 100 bytes / 15 mins /ship', '', '15000 x 100 bytes / 15 mins /ship', '', '15000 containers /ship', '', '400 m x 60 m x 40 m', '', '&amp;gt;\xa0100 m indoor / outdoor / metallic', '', '3 to 9', '', '&lt;span style="font-size:16pt"&gt;Freight Wagons&lt;/span&gt;', '', '100 bytes / 15 mins', '', '100 bytes / 15 mins', '', '10 s', '', '200 x 100 bytes / 15 mins /train', '', '200 x 100 bytes / 15 mins /train', '', '120 wagons /train', '', '1 km', '', '&amp;gt;\xa0100 m outdoor / tunnel', '', '10 to 15', '', '&lt;span style="font-size:16pt"&gt;Public Safety&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 5)&lt;/span&gt;', '', '12 Mbit/s', '', '12 Mbit/s', '', '30 ms', '', '20 Mbit/s /building', '', '40 Mbit/s /building', '', '30', '', 'devices', '', '/building', '', '100 m x 100 m – 3 floors', '', '&amp;gt;\xa050 m indoor (floor or stairwell)', '', '2 to 4', '', '&lt;span style="font-size:16pt"&gt;Wearables&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(note 6)&lt;/span&gt;', '', '10 Mbit/s', '', '10 Mbit/s', '', '10 ms', '', '20 Mbit/s per 100 m&lt;sup&gt;2&lt;/sup&gt;', '', '20 Mbit/s per 100 m&lt;sup&gt;2&lt;/sup&gt;', '', '10 wearables per 100 m&lt;sup&gt;2&lt;/sup&gt;', '', '10 m x 10 m', '', '10 m indoor / outdoor', '', '1 to 2', '', 'NOTE 1:\tArea traffic capacity is determined by high bandwidth consuming devices (e.g. ultra HD TVs, VR headsets), the number of devices has been calculated assuming a family of 4 members.', '', 'NOTE 2:\tHighest data rate assumes audio sensors with sampling rate of 192 kHz and 24 bits sample size.', '', 'NOTE 3:\tThree meters (gas, water, electricity) per house, medium density of 50 to 70 houses per hectare.', '', 'NOTE 4:\tA large containership with a mix of 20 foot and 40 foot containers is assumed.', '', 'NOTE 5:\tA mix of MCPTT, MCVideo, and MCData is assumed. Average 3 devices per firefighter / police officer, of which one video device. Area traffic based on 1080 p, 60 fps is 12 Mbit/s video, with an activity factor of 30% in uplink (30% of devices transmit simultaneously at high bitrate) and 15% in downlink. ', '', 'NOTE 6:\tCommunication for wearables is relayed via a UE. This relay UE can use a further relay UE.', '', 'NOTE 7:\tEnd-to-end latency implies that all hops are included.', '', "NOTE 8:\t'Metallic' implies an environment with a lot of metal obstructions (e.g. machinery, containers). 'Deep indoor' implies that there can be concrete walls / floors between the devices.", '', 'NOTE 9:\tAll the values in this table are example values and not strict requirements.', '', '', '']</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.1931361343878207</v>
+        <v>0.8517905891480977</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.1.4	Post-conditions&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;7.9	KPIs for ranging based services&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>22882-j00.docx</t>
+          <t>22261-j30.docx</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1978,22 +1978,22 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>['', 'The IoT devices in the fleet belonging to L are able to communicate with varying latency, depending on the energy consumption required to serve the devices. When the UEs are in poor coverage, they communicate seldom, when under good coverage, they can communicate more frequently.', '', "The total energy consumption of M's network has reduced while still providing adequate service to customer L.", '', "It is important to emphasize that there has been no trade-off between 'energy efficiency' and 'service quality.' Customer L received what was necessary while using less energy precisely because the energy consumption was taken into account in the service delivery.", '']</t>
+          <t>['', 'In several scenarios, it can be beneficial to determine the distance between two UEs and/or the direction of one UE from the other one via direct communication connection. The functional requirements related to ranging based services can be found in clause 6.37. Performance requirements for ranging based services in different scenarios can be found in table 7.9-1.', '', '&lt;span style="font-size:20pt"&gt;Key performance indicators and key attributes for ranging are defined as follows: &lt;/span&gt;', '', '-\t&lt;b&gt;Ranging accuracy&lt;/b&gt;: describes the absolute value of the deviation of the measured distance and/or direction between two UEs to the true distance and/or direction value. ', '', '-\t&lt;b&gt;Confidence level&lt;/b&gt;: describes the percentage of all the possible measured distance and/or direction that can be expected to include the true distance and/or direction considering the ranging accuracy.', '', '-\t&lt;b&gt;Effective ranging distance&lt;/b&gt;: the largest distance between the UE who initiates the ranging and target UEs in the ranging operation. ', '', '-\t&lt;b&gt;Line-of-sight (LOS) Environment&lt;/b&gt;: the environment between the UE who initiates the ranging and target UEs, such as LOS and non-LOS (NLOS). ', '', '- \t&lt;b&gt;Coverage:&lt;/b&gt; type of radio coverage conditions of the UEs who are involved in ranging, such as in coverage (IC), partial coverage (PC) and out of coverage (OOC). See also figure 6.37.1-1.', '', 'NOTE:\tIf using licensed spectrum&lt;s&gt;,&lt;/s&gt; ranging is only permitted in network coverage\xa0under the full control of the operator who provides the coverage\u200b, except for public safety networks with dedicated spectrum where ranging might be allowed out of coverage or in partial coverage as well. ', '', '-\t&lt;b&gt;Relative UE velocity&lt;/b&gt;: the target UE can be either static or mobile relative to the UE who initiates the ranging. In the latter, the attribute shall also provide some elements about its motion, e.g. maximum speed, trajectory.', '', '-\t&lt;b&gt;Availability&lt;/b&gt;: percentage value of the amount of time when a ranging system is able to provide the required ranging-related data within the performance targets or requirements divided by the amount of time the system is expected to provide the ranging service in a targeted service area.', '', '-\t&lt;b&gt;Latency&lt;/b&gt;: time elapsed between the event that triggers the determination of the ranging-related data and the availability of the ranging-related data at the ranging system interface. ', '', '&lt;b&gt;-&lt;/b&gt;\t&lt;b&gt;Ranging interval: &lt;/b&gt;time difference between two consecutive ranging operations.', '', 'Table 7.9-1: Performance requirements for ranging based services', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Ranging scenario&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Ranging Accuracy &lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;(95 % confidence level)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Availability&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Latency&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;10ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;50ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;50ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Effective ranging distance&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Coverage &lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;NLOS/LOS&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Relative UE velocity &lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Ranging interval&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Number of concurrent ranging operation for a UE&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Number of concurrent ranging operation in an area&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Distance Accuracy&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Direction Accuracy&lt;/b&gt;&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:18pt"&gt;Smart TV Remoter&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;10cm up to 3 meter separation&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;±2° horizontal direction accuracy at 0.1 to 3 meter separation and AoA coverage of (-60°) to (+60°);&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;±2° Elevation direction accuracy at 0.1 to 3 meter separation and AoA coverage of (-45°) to (+45°)&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;99 %&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;50ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;10m&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;IC/PC/OOC&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;LOS&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;Static/ Moving&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;(&amp;lt;1m/s)&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;50ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;\xa0-&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Picture and video sharing based on Ranging results&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;10cm&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;2°&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;99 %&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;50ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;10m&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;IC/PC/OOC&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;LOS&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;Static/ Moving&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;(&amp;lt;1m/s)&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;50ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt; -&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Distance based smart device control&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;10cm&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;99 %&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;100ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;20m&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;IC/PC/OOC&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;LOS&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;Static/ Moving&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;(&amp;lt;1m/s)&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;50ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;\xa020&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Smart Vehicle Key&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;10 cm&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;99 %&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;50ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;30m&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;IC/PC/OOC&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;LOS&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;Static/ Moving&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;(&amp;lt;2m/s)&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;25ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt; -&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;50UEs/&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;(10&lt;/span&gt;&lt;span style="font-size:15pt"&gt;&lt;sup&gt;4&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:15pt"&gt;m&lt;/span&gt;&lt;span style="font-size:15pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:15pt"&gt;)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Touchless Self-checkout Machine Control&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;10cm&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;99%&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;150ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;1m&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;IC/PC/OOC&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;LOS&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;Static/ Moving&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;(&amp;lt;1m/s)&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;100ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;=&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Hands Free Access&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;10cm&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;99 %&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;500ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;10 m&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;IC/PC/OOC&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;LOS&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;Static/ Moving&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;(1 m/s)&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;50ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt; -&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;20 UEs/3.14*100m&lt;/span&gt;&lt;span style="font-size:15pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Smart Transportation Metro/Bus Validation&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;10cm&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;99 %&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;2m&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;IC/PC/OOC&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;LOS&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;Static/ Moving&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;(3km/h)&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;50ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;\xa020&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;100 in the area of 8 m&lt;/span&gt;&lt;span style="font-size:15pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Ranging of UE’s in front of vending machine&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;20cm&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;10°&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;1s&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;5m&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;IC/PC/OOC&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;LOS&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;Static/ Moving&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;(&amp;lt;1m/s)&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;50ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt; -&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;10&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Finding Items in a supermarket &lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;50 cm&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;5 degree&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;95 %&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;100m&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;IC/PC/OOC&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;LOS&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;Static/ Moving&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;(&amp;lt;1m/s)&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;250ms&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt; -&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;100 UEs/&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;(3.14*10&lt;/span&gt;&lt;span style="font-size:15pt"&gt;&lt;sup&gt;4&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:15pt"&gt;m&lt;/span&gt;&lt;span style="font-size:15pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:15pt"&gt;)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;distance based intelligent perception for public safety&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;50cm&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;99 %&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;20m&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;IC/PC/OOC&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;LOS&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;Static/ Moving&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;(&amp;lt;20km/h)&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;100&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Long Distance Search&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;20m&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;5°&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;99 %&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;100m-1km&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;IC/PC/OOC&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;LOS&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;Static/ Moving&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;(up to 10m/s)&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;5s&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt; -&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Long range approximate location&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;[10m]&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;±[12.5°]&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;99 %&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;500m&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;IC/PC/OOC&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;LOS&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;Static/ Moving&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;(&amp;lt;10m/s)&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;[50]UEs/&lt;/span&gt;', '', '&lt;span style="font-size:15pt"&gt;(10&lt;/span&gt;&lt;span style="font-size:15pt"&gt;&lt;sup&gt;4&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:15pt"&gt;m&lt;/span&gt;&lt;span style="font-size:15pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:15pt"&gt;)&lt;/span&gt;', '', '', '']</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.202196761384169</v>
+        <v>0.9037660580321518</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.1.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;8.9	Data security and privacy&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>22837-j00.docx</t>
+          <t>22261-j30.docx</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2003,22 +2003,22 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>['', '[P.R.5.1.6-1] The 5G system shall provide a mechanism for an operator to authorize a UE for sensing, e.g., based on location.', '', "Editor's Note:\tTerminology of UE/base station needs to be adapted.", '', '[PR 5.1.6-2] The 5G system shall support a UE to perform sensing measurement process based on the trusted third-party’s request.', '', '[PR 5.1.6-3] The 5G system shall provide mechanisms for an operator to only collect or expose the sensing information requested by a trusted third-party according to agreement.', '', '[PR 5.1.6-4] The 5G system shall support UE to perform sensing measurement process using signals received from other UE(s).', '', '[PR 5.1.6-5] The 5G system shall support UE to perform sensing measurement process in licensed or unlicensed band.', '', '[PR 5.1.6-6] The 5G system shall be able to provide the sensing service with following KPIs:', '', 'Table 5.1.6-1\tPerformance requirements of sensing results for intruder detection in smart home', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency[ms]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate [s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Missed detection [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm [%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Intruder detection in smart home&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Indoor&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤10&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤10&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt;1000&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE: &lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.1.6-1 are found in Section 3.1.&lt;/span&gt;', '', "Editor's Note:\tit is FFS whether other potential requirements will be identified.", '', 'NOTE:\tIn this use case UE is acting as sensing transmitter and/or sensing receiver. This is an example and other options can also be valid.', '']</t>
+          <t>['', '\tThe 5G system shall support data integrity protection and confidentiality methods that serve URLLC, high data rates and energy constrained devices. ', '', 'The 5G system shall support a mechanism to verify the integrity of a message as well as the authenticity of the sender of the message.', '', 'The 5G system shall support encryption for URLLC services within the requested end-to-end latency.', '', 'Subject to regulatory requirements, the 5G system shall enable an MNO to provide end-to-end integrity protection, confidentiality, and protection against replay attacks between a UE and third-party application server, such that the 3GPP network is not able to intercept or modify the data transferred between a UE and third-party application server.', '', 'Subject to regulatory requirements and based on operator policy, the 5G system shall provide a mechanism to support data integrity verification service to assure the integrity of the data exchanged between the 5G network and a third-party service provider.', '', 'NOTE: \tThis requirement could apply&lt;span style="color:000000"&gt; to &lt;/span&gt;mechanisms supported over the interface between 5G core network and an external application, &lt;span style="color:000000"&gt;with &lt;/span&gt;no&lt;span style="color:000000"&gt; impact on RAN and UE&lt;/span&gt;.', '', 'Subject to regulatory requirements and based on operator policy, the 5G system shall provide a mechanism to support confidentiality to prevent exposure of data exchanged between the 5G network and a third party service provider.', '', 'NOTE: \tThis requirement could apply&lt;span style="color:000000"&gt; to &lt;/span&gt;mechanisms supported over the interface between 5G core network and an external application, &lt;span style="color:000000"&gt;with &lt;/span&gt;no&lt;span style="color:000000"&gt; impact on RAN and UE&lt;/span&gt;.', '']</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.2361850176540863</v>
+        <v>0.7035120564789431</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.10.1	Description&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;A.2.1	Overview&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>22856-j00.docx</t>
+          <t>22104-j00.docx</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2028,22 +2028,22 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>['', '&lt;b&gt;Mobile metaverse for Critical HealthCare Services. &lt;/b&gt;Immersive interactive mobile services encompass multiple services such as gaming, education, healthcare, shopping, recreation etc. Healthcare is a lifesaving critical service, which will benefit the most from mobile metaverse services. Remote surgery and surgeon training are already emerging examples, for geographically spread specialized surgeons, students and patients. Healthcare making use of mobile metaverse services can save lives by providing healthcare services at the earliest, train students better and free surgeons/doctors from being physically present at patient’s location. This area will encompass services such as surgery, medical student training, surgeon training. It will enable remote physician and patient examination. Mobile metaverse services can be characterized as a typical class of application that involves a server and a client device. This class of application will typically exchange haptic signals (forces, torques, position, velocity, vibration etc.), video and audio signals. Mobile metaverse services largely depend on low latency, highly reliable, secure wireless communication networks. [14, 32, 33, 36, 37]', '', '&lt;b&gt;Mobile metaverse-Surgeries. &lt;/b&gt;Normally, surgeons have to be physically present at hospital to perform their surgeries. Surgeons and patients may have to travel a great distance for surgeries, which is resource intensive and burdensome. The outbreak of coronavirus has further proves the case for remote surgeries. At present, there are increasingly more surgical rooms adapted with advanced surgical robots and doctors can remotely operate on the patients by controlling these surgical robots as shown in Figure-5.10.1-1b [35]. Mobile metaverse services can bring doctors and patients closer virtually, which further improves the accuracy and surgery flexibility. It can also facilitate consultation to provide suggestions and domain knowledge to reduce risks in actual operation. Recently, a real time remote breast cancer surgery was performed using private 5G network and head mounted display. Dr. G, physically present in the operating room, wore a head mounted display and could see the crucial information displayed by the goggles and performed breast cancer surgery remotely. Dr. G received constant advice from Dr. A, who was seated on the stage at the congress of Spanish association of Breast Surgeons, 900 km away from the surgery room [34, 35]. ', '', '&lt;b&gt;Mobile metaverse Physician Consultation. &lt;/b&gt;With the outbreak of COVID&lt;b&gt;, v&lt;/b&gt;irtual consultation through audio and video conference calls has gained considerable momentum. Mobile metaverse services enabled by tactile sensors along with video and audio media can provide a rich and successful experience to both physician and patient. The ability to perform mobile metaverse service consultation without the need for the doctors and patient to be physically co-located is an extremely efficient prospect. Doctors can potentially use mobile metaverse services to examine and interact with representations of aspects and views of the patient, and benefit from a plethora of medical advice database as shown in Figure-5.10.1-1.c. 5G communication is one the key factors to enable mobile metaverse service based physician consolation. Doctors and patients both need high throughput, ultra-reliable and low latency 5G communication for these services to succeed. [30, 32]. ', '', '&lt;b&gt;Mobile metaverse Body scan and vitals. &lt;/b&gt;Mobile metaverse services can significantly improve and change the way current body scan diagnostics and vital statistics are gathered. Mobile metaverse services can be utilized to see the real-time diagnostic data of the patient such as body temperature, heart rate, blood pressure, breathing rate along with MRI, CT and 3D scans as show in Figure-5.10.1-1.d. Medical challenges such as vein detection for IV, shots etc., can easily be resolved using mobile metaverse services. These will help medical professionals to detect, diagnose and treat a patient [30, 32].&lt;span style="font-size:22pt"&gt; &lt;/span&gt;', '', '----media/image25.jpeg----', '', 'Figure-5.10.1-1: Mobile metaverse service examples', '', 'The examples in Figure 5.10.1-1 feature the use of mobile metaverse services for a) Training Surgeons, b) remote surgery, c) physician consultation d) remote medical diagnostics. (Image source: healthcareoutlook.net, courthousenews.com, gmw3.com, ourplnt.com) ', '', '&lt;b&gt;Mobile metaverse Training Medical Students. &lt;/b&gt;Surgeries performed by surgeons all over the world can be used to train students using mobile metaverse services. Students can observe a live surgery with almost all the important vital and view on display, as they would be displayed to a surgeon. Further, the students can view the live surgery from different viewing perspectives, hear surgeon’s instruction, display of suggestions and domain knowledge as show in Figure-5.10.1-1.a. In May 2021, a live lung surgery was performed using an extended reality (XR) technology platform. More than 200 thoracic surgeons from Asian countries attended the outreach program and received training. The participants wore a head-mounted display (HMD) at their respective locations and participated in the program virtually represented by a digital representation (e.g. an avatar). They participants viewed the live lung surgery with lecture and 360deg high resolution surgical scenes as show in Figure-5.10.1-2 [31]. ', '', '----media/image26.jpeg----', '', ' Figure-5.10.1-2: Live lung surgery training through metaverse ', '', 'The source of figure 5.10.1-2 is [31] (Image source: Journal of Educational Evaluation for Health Professions (Jeehp)) ', '']</t>
+          <t>['', 'The manufacturing industry is currently subject to a fundamental change, which is often referred to as the "Fourth Industrial Revolution" or simply "Industry 4.0" [15]. The main goals of Industry 4.0 are―among others―the improvement of flexibility, versatility, resource efficiency, cost efficiency, worker support, and quality of industrial production and logistics. These improvements are important for addressing the needs of increasingly volatile and globalised markets. A major enabler for all this is cyber-physical production systems based on a ubiquitous and powerful connectivity, communication, and computing infrastructure. The infrastructure interconnects people, machines, products, and all kinds of other devices in a flexible, secure and consistent manner. Several different application areas can be distinguished:', '', '&lt;b&gt;1)&lt;/b&gt;\t&lt;b&gt;Factory automation:&lt;/b&gt; Factory automation deals with the automated control, monitoring and optimisation of processes and workflows within a factory. This includes aspects like closed-loop control applications (e.g., based on programmable logic or motion controllers) and robotics, as well as aspects of computer-integrated manufacturing. Factory automation generally represents a key enabler for industrial mass production with high quality and cost-efficiency. Corresponding applications are often characterised by highest requirements on the underlying communication infrastructure, especially in terms of communication service availability, determinism, and latency. In the Factories of the Future, static sequential production systems will be more and more replaced by novel modular production systems offering a high flexibility and versatility. This involves many increasingly mobile production assets, for which powerful wireless communication and localisation services are required. ', '', '&lt;b&gt;2)&lt;/b&gt;\t&lt;b&gt;Process automation: &lt;/b&gt;Process automation refers to the control of production and handling of substances like chemicals, food &amp;amp; beverage, pulp, etc. Process automation improves the efficiency of production processes, energy consumption, and safety of the facilities. Sensors measuring process values, such as pressures or temperatures, are working in closed loops via centralised and decentralised controllers. In turn, the controllers interact with actuators, e.g., valves, pumps, heaters. Also, monitoring of attributes such as the filling levels of tanks, quality of material, or environmental data are important, as well as safety warnings or plant shut downs. Workers in the plant are supported by mobile devices. A process automation facility may range from a few 100\xa0m² to several km², and the facility may be geographically distributed. Depending on the size, a production plant may have several 10,000 measurement points and actuators. Autarkic device power supply for years is needed in order to stay flexible and to keep the total costs of ownership low. ', '', '&lt;b&gt;3)&lt;/b&gt;\t&lt;b&gt;HMIs and production IT: &lt;/b&gt;Human-machine interfaces (HMIs) include all sorts of devices for the interaction between people and production facilities, such as panels attached to a machine or production line, but also standard IT devices, such as laptops, tablet PCs, smartphones, etc. In addition, augmented- and virtual-reality applications are expected to play an increasingly important role in future. ', '', '4) \t&lt;b&gt;Logistics and warehousing&lt;/b&gt;: Organisation and control of the flow and storage of materials and goods in the context of industrial production. In this respect, intra-logistics is dealing with logistics within a certain property (e.g., within a factory), for example by ensuring the uninterrupted supply of raw materials on the shop floor level using automated guided vehicles (AGVs), fork-lifts, etc. This is to be seen in contrast to logistics between different sites. Warehousing particularly refers to the storage of materials and goods, which is also getting more and more automated, for example based on conveyors, cranes and automated storage and retrieval systems.', '', '5)\t&lt;b&gt;Monitoring and maintenance&lt;/b&gt;: Monitoring of certain processes and/or assets in the context of industrial production without an immediate impact on the processes themselves (in contrast to a typical closed-loop control system in factory automation, for example). This particularly includes applications such as condition monitoring and predictive maintenance based on sensor data, but also big data analytics for optimising future parameter sets of a certain process, for instance. For these use cases, the data acquisition process is typically not latency-critical.', '', 'For each of these application areas, a multitude of potential use cases exists, some of which are outlined in the following subclauses. These use cases can be mapped to the given application areas (see Table A.2.1-1).', '', 'Table A&lt;b&gt;.&lt;/b&gt;2.1-1: Mapping of the considered use cases (columns) to application areas (rows)', '', '', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Motion control&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Control-to-control&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Mobile control panels with safety&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Mobile robots&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Remote access and maintenance&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Augmented reality&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Closed-loop process control&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Process monitoring&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Plant asset management&lt;/b&gt;&lt;/span&gt;', '', 'Factory automation', '', 'X', '', 'X', '', '', '', 'X', '', '', '', '', '', '', '', '', '', '', '', 'Process automation', '', '', '', '', '', '', '', 'X', '', '', '', '', '', 'X', '', 'X', '', 'X', '', 'HMIs and Production IT', '', '', '', '', '', 'X', '', '', '', '', '', 'X', '', '', '', '', '', '', '', 'Logistics and warehousing', '', '', '', 'X', '', '', '', 'X', '', '', '', '', '', '', '', '', '', 'X', '', 'Monitoring and maintenance', '', '', '', '', '', '', '', '', '', 'X', '', '', '', '', '', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.2176903863868322</v>
+        <v>0.9320955530941056</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.10.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;A.4.10	Ensuring uninterrupted communication service availability during emergencies&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>22837-j00.docx</t>
+          <t>22104-j00.docx</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2053,22 +2053,22 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>['', '[PR 5.10.6-1] Based on operator policy, request from UTM and sensing configuration (e.g. sensing area), the 5G system shall be able to support RAN entities and UEs in sensing the characteristics of an airborne object of interest (e.g., UAV), including generating 3GPP sensing data related to the object’s location and motion metrics &lt;span style="color:000000"&gt;(see examples in Table 5.10.6-1).&lt;/span&gt;', '', '[PR 5.10.6-2] The 5G system shall be able to support means to authorize RAN entities and UEs in certain location area generating and reporting 3GPP sensing data (e.g., related to a UAV position, velocity) to a 5G sensing processing entity.', '', 'NOTE 1:\tThe requirement above assumes that the 3GPP sensing data is post-processed in 5G sensing processing entity which is located within the 5G system.', '', '[PR 5.10.6-3] The 5G system shall be able to support means to process the 3GPP sensing data and expose in real time the sensing results (e.g., related to a UAV position, velocity) from a 5G sensing processing entity to a trusted third-party application.', '', '&lt;span style="color:7030A0"&gt;[&lt;/span&gt;&lt;span style="color:000000"&gt;PR 5.10.6-4] The 5G system shall support energy efficient sensing operations.&lt;/span&gt;', '', 'NOTE 2:\tExamples of energy efficient sensing operations can include temporarily disabling sensing transmitters and receivers that are not involved in sensing and communication operations or adjusting the sensing operation parameters (e.g. sensing frequency).', '', '[PR 5.10.6-5] Subject to operator’s policy, the 5G network may provide secure means for the operator to expose information on sensing service availability (e.g., if sensing service is available and the supported KPIs) in a desired sensing service area location to a trusted third-party.', '', '[PR 5.10.6-6] The 5G system shall be able to provide the means for supporting sensing service continuity.', '', '[PR 5.10.6-7] The 5G system shall support sensing services with KPIs as given in Table 5.10.6-1.', '', 'Table 5.10.6-1\tPerformance requirements of sensing results for UAV flight trajectory tracing', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency[ms]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate [s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Missed detection [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm [%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution (horizontal/vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[mxm]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;UAV flight trajectory tracing&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Outdoor&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1-2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1-2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1-2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1-2&lt;/span&gt;', '', '&lt;span style="color:242424;font-size:16pt"&gt;1m x 1m ~10m x 10m NOTE&lt;/span&gt;&lt;span style="font-size:16pt"&gt;\xa02&lt;/span&gt;', '', '&lt;span style="color:242424;font-size:16pt"&gt;1m/s x 1m/s ~ 10m/s x 10m/s &lt;/span&gt;&lt;span style="font-size:16pt"&gt;NOTE\xa03&lt;/span&gt;', '', '&lt;span style="color:242424;font-size:16pt"&gt;100~1000 NOTE\xa04&lt;/span&gt;', '', '&lt;span style="color:242424;font-size:16pt"&gt;1Hz&lt;/span&gt;', '', '&lt;span style="color:242424;font-size:16pt"&gt;NOTE\xa05&lt;/span&gt;', '', '&lt;span style="color:242424"&gt;5&lt;/span&gt;', '', '&lt;span style="color:242424"&gt;5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa01:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.10.6-1 are found in Section 3.1.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa02:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;To detect the UAV existence (e.g., for intrusion detection), the sensing resolution of distance is 10m [25]. To track the UAV flying (e.g., for collision detection and warning), the sensing resolution of distance is 1m [25].&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa03:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;To detect the UAV existence, the sensing resolution of velocity is 10m/s [25]. To track the UAV flying, the sensing resolution of velocity is 1m/s [25].&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa04:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;To realize 1m granularity tracking, when the velocity resolution is 1~10m/s, the maximum corresponding sensing service latency is 0.1~1s.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa05:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Echodyne MESA-DAA&lt;/span&gt;&lt;span style="font-size:16pt"&gt;&lt;sup&gt;TM &lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:16pt"&gt;has approximate 1Hz scan rate [40].&lt;/span&gt;', '']</t>
+          <t>['', 'During emergencies, public mobile land networks (PLMNs) may restrict network access, which may lead to a prohibitevly low communication service availability for machine-type communication (MTC) for Smart Grid applications. An example is communication for microgrids. Microgrids are separate parts of a power grid that can be controlled and operated individually in a so-called island mode, or together with other parts of the power grid. The idea is to prioritise Smart Grid-related communication in order to ensure reliable and available communication for selected devices during emergency conditions. Existing features of a mobile network can be used to differentiate MTC of devices in a microgrid from other kind of MTC traffic or human-to-human communication. These features can help these microgrid devices to have communication service during emergencies. The communication among the microgrid devices enables co-ordination of DERs, which help the DERs can autarkically implement recovery of an islanded microgrid. ', '', 'The associated KPI is provided in Table A.4.10-1.', '', '&lt;span style="font-size:20pt"&gt;&lt;b&gt;Table A.4.10-1: Key Performance for uninterrupted MTC service availability&lt;/b&gt;&lt;/span&gt;', '', '', '', 'Characteristic parameter (KPI)', '', 'Influence quantity', '', 'Communication service availability: target value', '', 'Communication service reliability: mean time between failures', '', 'Max Allowed End-to-end latency (note\xa01;  ', '(note 2)', '', 'Service bit rate: user-experienced data rate (note 2)', '', 'Message size [byte] ', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', '', '', 'Service Area', '', '99.999\xa09\xa0%', '', '–', '', '100 ms', '', '&amp;lt; 1 kbit/s per DER', '', '–', '', '–', '', 'Stationary', '', '–', '', '–', '', 'NOTE 1:\tUnless otherwise specified, all communication includes 1 wireless link (UE to network node or network node to UE) rather than two wireless links (UE to UE).', '', 'NOTE 2:\tIt applies to both UL and DL unless stated otherwise.', '']</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.2312099346782683</v>
+        <v>0.8556875625831958</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.11.5	Existing feature partly or fully covering use case functionality&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;A.4.2	Primary frequency control&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>22856-j00.docx</t>
+          <t>22104-j00.docx</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2078,47 +2078,47 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>['', 'TS 22.228 define the service requirements for IMS. IMS supports different IMS multimedia applications. IMS supports a wide range of services, notably voice and video calls. There is extensive support for services, tightly integrated with the 3GPP system, with extensive support for roaming and integration with both PSTN and ISDN telephony, emergency services and more. The requirements for a 3D avatar application are largely covered by existing requirements in the 5G standard for IMS.', '', 'TS 22.173 defines the media handling capabilities of the IMS Multimedia Telephony service', '', 'The specific gaps that are addressed in 5.A.6 include: extended feature negotiation, enabling the user to decide whether to present video or avatar communication, the ability to support Avatar communication and content efficiently, the ability to support standardized Avatar media in the 5G system.', '', 'The following KPIs are easily supported by the 5G system. They are included in order to contrast the requirements of an avatar call with a video call.', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Use Case&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Characteristic parameter (KPI)&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;End-to-end latency&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Service bit rate: user-experienced data rate&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Avatar call&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;[NOTE1]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt;5 kbps [45]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Video call&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt; 150 msec preferred&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt;400 msec limit&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Lip-synch: &amp;lt; 100 msec [46]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;32-384 kb/s [46]&lt;/span&gt;', '', 'NOTE1: \tThe latency requirement for real time immersive service experience would be the same as the video call below. For some user experiences (smaller devices or an embedded icon-sized representation in other application, etc.) the latency tolerance could be greater.', '', 'NOTE2: \tThe video call KPIs are from TS 22.105 and have not changed since Rel-99. Actual transactional video call parameters may be higher now.', '']</t>
+          <t>['', 'Primary frequency control is among the most challenging and demanding control applications in the utility sector. A primary frequency control system is responsible for controlling the energy supply injected and withheld to ensure that the frequency is not deviating more than 0.02\xa0% from the nominal value (e.g., 50 Hz in Europe). Frequency control is based on having sensors for measuring the features in all parts of the network at all points where energy generation or storage units are connected to the grid. At these points, electronic power converters, also known as inverters, are equipped with communication units to send measurement values to other points in the grid such as a frequency control unit, or receive control commands to inject more, or less, energy into the local network. ', '', 'With the widespread deployment of local generation units, i.e. solar power units, or wind turbines, hundreds of thousands of such units, and their inverters, may have to be connected in a larger power distribution network. ', '', 'Primary frequency control is carried out in one of three ways: ', '', '1)\tCentralised control, all data analysis and corrective actions are determined by a central frequency control unit.', '', '2)\tDecentralised control, the automatic routine frequency control is performed by the individual local inverter based on local frequency values. Statistics and other information is communicated to the central frequency control unit. ', '', '3)\tDistributed control, the automatic routine frequency control is performed by the individual local inverter based on local and neighbouring frequency values. Statistics and other information are communicated to the central frequency control unit. ', '', 'Table A&lt;b&gt;.&lt;/b&gt;4.2-1: Service performance requirements for primary frequency control', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Message size [byte]', '', 'Transfer interval: target value', '', 'Survival time', '', '# of UEs', '', 'Service area', '', '1', '', '99.999', '', 'TBD', '', '~ 50 ms ', '', '~ 100', '', '~ 50 ms', '', 'TBD', '', '≤\xa0100,000', '', 'several km&lt;sup&gt;2&lt;/sup&gt; up to 100,000\xa0km&lt;sup&gt;2&lt;/sup&gt;', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Periodic communication service supporting message exchange for primary frequency control.', '']</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.2162956152315575</v>
+        <v>0.8544235176199175</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.11.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;A.4.3	Distributed voltage control&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>22837-j00.docx</t>
+          <t>22104-j00.docx</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>['', '[PR 5.11.6-1] The 5G system shall be able to support a mechanism to provide available sensing service in a target sensing service area.', '', '[PR 5.11.6-2] The 5G RAN shall be able to collect 3GPP sensing data from requested target sensing service area according to the operator’s policy.', '', 'NOTE 1:\tThe operator policy means to configure the target sensing service area, real time 3GPP sensing data collection or periodic collection etc.', '', '[PR 5.11.6-3] The 5G system shall be able to report the sensing result to the trusted third-party with refresh rate which is requested by the trusted third-party e.g. a map service provider, and controllable by the operator,\xa0according to a business agreement.', '', 'NOTE 2:\tThe sensing result can be the target object’s size, shape, position, moving\xa0direction, moving speed, etc.', '', '[PR 5.11.6-4] The 5G system shall support means for\xa0a trusted third-party application, e.g. a map service provider to configure sensing per location.', '', '[PR. 5.11.6-5] The 5G system shall be able to support the sensing service with given KPIs in Table 5.11.6-1.', '', 'Table 5.11.6-1\tPerformance requirements of sensing results for sensing at crossroads with/without obstacle', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency[ms]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate [s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Missed detection [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm [%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Sensing at crossroads with/without obstacle&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Outdoor &lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤100&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;NOTE\xa02&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤ 0.1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa01:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.11.6-1 are found in Section 3.1.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa02:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The value is sourced from [28].&lt;/span&gt;', '', 'NOTE:\tIn this use case base station is acting as sensing transmitter and/or sensing receiver. This is an example and other options can also be valid.', '']</t>
+          <t>['', 'In the evolution towards 100\xa0% renewable electric power production, the objective of voltage control is to balance the voltage in future low voltage distribution grids connecting local loads and prosumers, as well as energy storage facilities. The aim is to stabilise the voltage as locally as possible, so that decisions and control commands can be issued as quickly as possible. Distributed voltage control is a challenging and demanding control application. Consumer devices rely on having stable voltage levels to operate successfully. When future energy networks rely on thousands of local energy generation units relying mostly on solar and wind power, then it is crucial to stabilise the voltage levels in all segments of the distribution grid. Inverters, or electronic power converters, measure the voltage and power and change the amount of power injected into the grid, and they connect and disconnect end points from the distribution network.', '', 'Distributed control means that the automated voltage control shall be performed by the local voltage control units based on local &lt;i&gt;and neighbouring&lt;/i&gt; voltage and impedance values. Statistics and other information shall be communicated to the central distribution management system, though. ', '', 'Table A&lt;b&gt;.&lt;/b&gt;4.3-1: Service performance requirements for distributed voltage control', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Message size [byte]', '', 'Transfer interval: target value', '', 'Survival time', '', '# of UEs', '', 'Service area', '', '1', '', '99.999', '', 'TBD', '', '~ 100 ms', '', '~ 100', '', '~\xa0200\xa0ms', '', 'TBD', '', '≤\xa0100,000', '', 'several km&lt;sup&gt;2&lt;/sup&gt; up to 100,000\xa0km&lt;sup&gt;2&lt;/sup&gt;', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Periodic communication service supporting message exchange for distributed voltage control.', '']</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.2365807748545536</v>
+        <v>0.8630022095600502</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.12.1	Description&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;A.4.5	Smart grid millisecond-level precise load control&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>22856-j00.docx</t>
+          <t>22104-j00.docx</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2128,22 +2128,22 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>['', "Virtual humans (or digital representations of humans, also referred to as 'avatars' in this use case) are simulations of human beings on computers [47]. There is a wide range of applications, such as games, film and TV productions, financial industry (smart adviser), telecommunications (avatars), etc. ", '', 'In the coming era, the technology of virtual humans is one of foundations of mobile metaverse service. A virtual human can be a digital representation of a natural person in a mobile metaverse service, which is driven by the natural person. Or a virtual human also can be a digital representation of a digital assistant driven by AI model. ', '', "Mobile metaverse services offer an important opportunity for socialization and entertainment, where user experience of the virtual world and the real world combine. This use case focuses on the scenario of a natural person's digital embodiment in a metaverse as a location agnostic service experience. A virtual human is customized according to a user's personal characteristics and shape preferences. Users wear motion capture devices, vibrating backpacks, haptic gloves, VR glasses to drive the virtual human in a meta-universe space for semi-open exploration. The devices mentioned above are 5G UEs, which need to collaborate with each other to complete the actions of user and get real-time feedback.", '', '----media/image30.png----', '', 'Figure\xa05.12.1-1: Virtual humans in metaverse (Source: &lt;a href="https://vr.baidu.com/product/xirang"&gt;https://vr.baidu.com/product/xirang&lt;/a&gt;, https://en.wikipedia.org/wiki/Virtual_humans)', '', 'For smooth experience, the motion-to-photon latency should be less than 20ms [48]. The motion-to-photon latency requires that the latency between the moment that players do one movement and the corresponding new videos shown in VR glasses and tactile from vibrating backpacks or haptic gloves should be less than 20ms. As the asynchrony between different modalities increases, users’ experience will decrease because uses are able to detect asynchronies. Therefore, the synchronisation among audio, visual and tactile is also very important. The synchronisation thresholds regarding audio, visual and tactile modalities measured by Hirsh and Sherrick are described as follows [49]. The obtained results vary, depending on the kind of stimuli, biasing effects of stimulus range, the psychometric methods employed, etc.', '', '-\taudio-tactile stimuli: 12 ms when the audio comes first and 25 ms when the tactile comes first to be perceived as being synchronous.', '', '-\tvisual-tactile stimuli: 30 ms when the video comes first and 20 ms when the tactile comes first to be perceived as being synchronous.', '', '-\taudio-visual stimuli: 20 ms when the audio comes first and 20 ms when the video comes first to be perceived as being synchronous.', '', 'NOTE 1:\tTaking audio-tactile stimuli as an example, when the audio comes first, users are not able to detect asynchronies if the tactile comes within 12ms. Accordingly, when the tactile comes first, users are not able to detect asynchronies if the audio comes within 25ms.', '', '', '']</t>
+          <t>['', 'Precise Load Control is the basic application for smart grid. When serious HVDC (high-voltage direct current) transmission fault happens, Millisecond-Level Precise Load Control is used to quickly remove interruptible less-important load, such as electric vehicle charging piles and non-continuous production power supplies in factories.', '', 'Table A&lt;b&gt;.&lt;/b&gt;4.5-1: Service performance requirements for smart grid millisecond-level precise load control ', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Service bitrate: user experienced data rate', '', 'Message size [byte]', '', 'Transfer interval: target value', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service area', '', '1', '', '99.999\xa09', '', '– ', '', '&amp;lt; 50 ms', '', '0.59 kbit/s', '28 kbit/s', '', '&amp;lt; 100', '', 'n/a ', '(note)', '', '–', '', 'stationary', '', '&lt;span style="color:000000"&gt;10\xa0km&lt;/span&gt;&lt;span style="color:000000"&gt;&lt;sup&gt;-&lt;/sup&gt;&lt;/span&gt;&lt;span style="color:000000"&gt;² to 100\xa0km&lt;/span&gt;&lt;span style="color:000000"&gt;&lt;sup&gt;-&lt;/sup&gt;&lt;/span&gt;&lt;span style="color:000000"&gt;²&lt;/span&gt;', '', 'TBD', '', 'NOTE:\tevent-triggered', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'A non-periodic deterministic communication service between control primary station and load control terminals for removing interruptible less-important load quickly.', '']</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.2048462563484151</v>
+        <v>0.8615131902996062</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.12.1	Description&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;A.4.6	Distributed energy storage&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>22865-j00.docx</t>
+          <t>22104-j00.docx</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2153,22 +2153,22 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>['', 'In Mediterranean climate regions, forest fires are quite common in summer months due to temperature rise [14]. The early detection and monitoring of forest fire is important for fire suppression quickly and reducing the loss of human and property. Therefore, how to detect the forest fire in real time and accurately is an urgent problem to be solved. Another problem is that due to extremely low population density and complex geography, these regions are often not covered by terrestrial networks. ', '', 'UAV equipped with satellite access capabilities is a feasible method, mainly through the following steps:', '', '--\tThe UAV collects real-time information (including high-precision three-dimensional surface topographic data, real-time pictures, real-time video, etc.);', '', '--\tThis real-time information is transmitted to the forest fire monitoring centre via the 5G network with satellite access;', '', '--\tThe forest fire monitoring centre monitors whether there is a fire, and may request the position of the UAV and adjust its route;', '', '--\tThe positioning services request and adjustment command are sent to the UAV via the 5G network with satellite access.', '', 'Forest fire monitoring centre with AI system can optimize the route through real-time information collected by UAV. In addition, the 5G system provides high-precision positioning of the UAV, which has been specified in 3GPP TS 22.261 [2].  But for UAVs using only satellites access, 5G system is difficult to provide high-precision positioning service under low latency. The end-to-end delay of LEO based satellite access can reach 35 ms [2]. After 5G system gets the real-time location data of flying UAV, it sends them to a trusted third party (e.g., The forest fire monitoring centre equipped with AI system) for UAVs to assist flying.', '']</t>
+          <t>['', 'Distributed power generation includes various power sources such as solar, wind, fuel cells, and gas. Distributed power generation typically comes with a low power density and entails thus typicall a decentralised deployment. Decentralisation causes technical problems and challenges Smart Grid operators. When distributed power generation is connected to the elctrical grid, the energy flow becomes more complicated as the user often is both an electricity consumer and producer (a so-called “prosumer”). Therefore, the current in the electricity grid can change direction at different locations of the grid and at different times of the day. ', '', 'The information exchange in a distributed energy grid does not only include power-generation-related data, but also control commands for the distributed energy storage equipment. An example for such a command is “change the load characteristics to realise a flexible electricity grid” etc.', '', '----media/image10.jpeg----', '', 'Figure A.4.6-1 Example of a distributed-energy storage grid', '', 'Figure A.4.6-1 shows an example of distributed-energy storage grid. The distributed-energy storage grid needs to exchange information among the distributed-energy storage management platform (DESMP) and distributed-energy devices (DEDs). ', '', 'The DED is a plug-and-play device and periodically collects its energy information, such as battery energy, charge and discharge status, energy alarm information, etc. The DED then transfers this information via 5G UE to the DESMP. The DESMP regularly manages the DEDs, e.g., the DESMP monitors the DEDs working status, controls the DEDs working modes, or configures the DEDs energy parameters etc. The associated KPIs are provided in Table A.4.6-1. ', '', '', '', 'Table A.4.6-1: Communication service performance requirements ‒ data for distributed energy storage', '', 'Use case#', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value ', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum ', '', 'Service bit rate: user experienced data rate&lt;b&gt; &lt;/b&gt;', '', 'Message size [byte]&lt;b&gt; &lt;/b&gt;', '', 'Transfer interval: target value&lt;b&gt; &lt;/b&gt;', '', 'Survival time&lt;b&gt; &lt;/b&gt;', '', 'UE ', 'speed&lt;b&gt; &lt;/b&gt;', '', '# of UEs', '', 'Service area ', '', '', '1', '', ' &amp;gt; 99.9 %', '', '', '', 'DL: &amp;lt; 10\xa0ms', 'UL: &amp;lt; 10\xa0ms', '', 'UL: &amp;gt; 16\xa0Mbit/s (urban); 640\xa0Mbit/s (rural)', '', 'DL: &amp;gt; 100\xa0kbit/s', '', '(note 1)', '', 'UL: 800\xa0kbyte', '', 'UL: 10\xa0ms', '', '–', '', 'stationary', '', '&amp;gt; 10/km&lt;sup&gt;2&lt;/sup&gt; (urban); ', '', '&amp;gt; 100/km&lt;sup&gt;2&lt;/sup&gt; (rural)', '', '(note 2)', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', '2', '', '&amp;gt; 99.9 %', '', '', '', 'DL: &amp;lt; 10\xa0ms', '', 'UL: &amp;lt; 1\xa0s', '', 'UL: &amp;gt; 128\xa0kbit/s (urban); 10.4\xa0Mbit/s (rural);', '', 'DL: &amp;gt; 100\xa0kbit/s', '', '(note 1)', '', 'UL: 1.3\xa0Mbyte', '', 'DL: &amp;gt; 100\xa0kbyte', '', 'UL: 1000\xa0ms', '', '–', '', 'stationary', '', '&amp;gt; 10/km&lt;sup&gt;2&lt;/sup&gt; (urban); ', '', '&amp;gt; 100/km&lt;sup&gt;2&lt;/sup&gt; (rural)', '', ' (note 2)', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', '3', '', ' &amp;gt; 99.9 %', '', '', '', '&lt;span style="font-size:18pt"&gt;DL: &amp;lt; 10\xa0ms&lt;/span&gt;', '', 'UL:&amp;lt; 1\xa0s (rural)', '', 'DL: &amp;gt; 100\xa0kbit/s', '', 'UL: &amp;gt; 5\xa0Gbit/s', '(note 3)', '', '', '', '', '', '', '', 'stationary', '', '&amp;gt; 100/km&lt;sup&gt;2&lt;/sup&gt;', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', 'NOTE 1:\tService bit rate for one energy storage station.', '', 'NOTE 2:\tActivity storage nodes/km&lt;sup&gt;2&lt;/sup&gt;. This value is used for deducing the data volume in an area that features multiple energy storage stations. The data volume can be calculated with the following formula (current service bit rate per storage station) x (activity storage nodes/km&lt;sup&gt;2&lt;/sup&gt;) + (video service bit rate per storage station) x (activity storage nodes/km&lt;sup&gt;2&lt;/sup&gt;). ', '', 'NOTE 3:\tThe downlink user experienced data rate is calculated as follows: 12.5 Mbytes/s x 50(containers) x 8 = 5\xa0Gbit/s', '', '&lt;span style="font-size:20pt"&gt;&lt;i&gt;Use case#1:&lt;/i&gt;&lt;/span&gt; Distributed energy storage ‒ periodic communication for monitoring ', '', '&lt;span style="font-size:20pt"&gt;&lt;i&gt;Use case#2:&lt;/i&gt;&lt;/span&gt; Distributed energy storage ‒ periodic communication for data collection ', '', '&lt;b&gt;&lt;i&gt;Use case#3:&lt;/i&gt;&lt;/b&gt;&lt;span style="font-size:18pt"&gt;&lt;b&gt; Distributed energy storage ‒ aperiodic video communication&lt;/b&gt;&lt;/span&gt;', '']</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.1995071820606371</v>
+        <v>0.8598516738749015</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.12.3	Service Flows&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;A.4.7	Advanced metering&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>22865-j00.docx</t>
+          <t>22104-j00.docx</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2178,22 +2178,22 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>['', '1. The UAV A takes a real-time picture with its 4-way 4K full-angle camera; ', '', '2. The picture is transmitted to the forest fire monitoring centre via the 5G network with satellite access network. This would require high data rate (e.g., 120Mbit/s) in UL direction.', '', '3. The forest fire monitoring centre uses the AI system to determine whether there is a fire, according to the received picture. In case of fire, the forest fire monitoring centre will request the position of the UAV.', '', '4. After receiving the positioning service request, the 5G network detects an error that the negotiated location delivery latency cannot be guaranteed. Then, it provides a lower position accuracy to ensure latency.', '', '5. If the forest fire monitoring centre decides to adjust the route of UAV A, it will send adjustment commands to the UAV via the 5G network with satellite access network, which requires low delay and high reliability in DL direction.', '']</t>
+          <t>['', 'Instead of recording and sending metering data from a wired electricity meter unit, electricity metering collecting can be executed by a UE-integrated smart meter unit. Smart meter units can send real-time metering data to a server in the utility through mobile networks. In this way, the power enterprise―based on the analysis of the user’s power consumption behavior―gives the user power consumption suggestions, which fosters the user’s power consumption and energy saving habits. ', '', 'The electric smart meters monitor relevant user energy status and deliver the status data to a measurement data management system (MDMS). The MDMS sends control commands according to its policy and the status of the data collected from the smart meters. The MDMS commands include tripping, closing permission, alarm, alarm release, power protection, and power protection release. Accurate-fee control is one of the basic services of advanced metering. When the electric power user doesn’t pay her electric fee on time, the MDMS can cut off the power supply. And when there is a need for temporary power supply for this user, the MDMS can recover the power supply. This operation requires real-time interaction between the electric smart meter and the MDMS. Due to massive number of electricity meters, it is estimated that in the near future, the amount of this kind of interaction will increase 5 to 10 times. The associated KPIs are provided in Table A.4.7-1.', '', 'Table A.4.7-1: Communication KPI for advanced metering', '', 'Use case#', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value ', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum ', '', 'Service bit rate: user experienced data rate&lt;b&gt; &lt;/b&gt;', '', 'Message size [byte]&lt;b&gt; &lt;/b&gt;', '', 'Transfer interval: target value&lt;b&gt; &lt;/b&gt;', '', 'Survival time&lt;b&gt; &lt;/b&gt;', '', 'UE ', 'speed&lt;b&gt; &lt;/b&gt;', '', '# of UEs', '', 'Service area ', '', '', '&lt;span style="font-size:18pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&amp;gt; 99.99&lt;/span&gt;', '', '', '', '&lt;span style="font-size:18pt"&gt;Accuracy fee control: &amp;lt; 100 (note 1);&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;General information data collection: &amp;lt; 3000&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;UL: &amp;lt; 2 M&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;DL: &amp;lt; 1 M&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;stationary&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&amp;lt; 10\xa0000/km2 (note2)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;–&lt;/span&gt;', '', 'NOTE 1: \tOne-way delay from 5G IoT device to backend system. The distance between the two is below 40\xa0km (city range).', '', 'NOTE 2: \tIt is the typical connection density in today city environment. With the evolution from centralised meters to socket meters in the home, the connection density is expected to increase 5 to 10 times.', '', '&lt;b&gt;&lt;i&gt;Use case#1:&lt;/i&gt;&lt;/b&gt;&lt;span style="font-size:18pt"&gt;&lt;b&gt; Advanced metering&lt;/b&gt;&lt;/span&gt;', '', '', '']</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.1909307326477842</v>
+        <v>0.868873987746835</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.12.5	Existing features partly or fully covering the use case functionality&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;A.4.8	Smart distribution transformer terminal&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>22856-j00.docx</t>
+          <t>22104-j00.docx</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2203,22 +2203,22 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>['', '3GPP TS 22.261 [6] specifies KPIs for high data rate and low latency interactive services including Cloud/Edge/Split Rendering, Gaming or Interactive Data Exchanging, Consumption of VR content via tethered VR headset, and audio-video synchronization thresholds.', '', 'Support of audio-video synchronization thresholds has been captured in TS 22.261:', '', '\tDue to the separate handling of the audio and video component, the 5G system will have to cater for the VR audio-video synchronisation in order to avoid having a negative impact on the user experience (i.e. viewers detecting lack of synchronization). To support VR environments, the 5G system shall support audio-video synchronisation thresholds:', '', '-\tin the range of [125 ms to 5 ms] for audio delayed and', '', '-\tin the range of [45 ms to 5 ms] for audio advanced.', '', 'Existing synchronization requirements in current SA1 specification are only for data transmission of one UE. Existing specifications do not contain requirements for coordination of synchronization transmission of data packet for multiple UEs.', '']</t>
+          <t>['', 'A smart distribution transformer terminal is usually deployed in a distribution transformer area. The terminal can support multiple energy applications simultaneously. Multiple kinds of energy data are collected by the terminal and then delivered to a energy application platform. Figure A.4.8.1-1 illustrates a workflow example for a smart distribution transformer terminal.', '', '----media/image11.png----', '', 'Figure A.4.8-1: Example of a smart distribution transformer terminal workflow', '', 'In general, the connections between the smart distribution transformer terminal and the energy application platform are provided by the 5G system. The connections between energy end equipment and smart distribution transformer terminal may be provided by 5G system. In this case, about 300 to 500 energy end devices are connected to one smart distribution transformer terminal. The average service bit rate between the smart distribution transformer terminal and an energy end device is more than 2\xa0Mbit/s in uplink for each application. The related communication distance is between 100 m and 500 m. The associated KPI is provided in Table A.4.8-1.', '', '', '', '&lt;span style="font-size:20pt"&gt;&lt;b&gt;Table A.4.8-1: Key Performance for Smart Distribution Transformer Terminal&lt;/b&gt;&lt;/span&gt;', '', 'Use case#', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value ', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum ', '', 'Service bit rate: user experienced data rate&lt;b&gt; &lt;/b&gt;', '', 'Message size [byte]&lt;b&gt; &lt;/b&gt;', '', 'Transfer interval: target value&lt;b&gt; &lt;/b&gt;', '', 'Survival time&lt;b&gt; &lt;/b&gt;', '', 'UE ', 'speed&lt;b&gt; &lt;/b&gt;', '', '# of UEs', '', 'Service area ', '', '', '&lt;span style="font-size:18pt"&gt;1&lt;/span&gt;', '', '&lt;b&gt;&amp;gt;99.99%&lt;/b&gt;', '', '&lt;b&gt;–&lt;/b&gt;', '', '&lt;b&gt;10\xa0ms, 100\xa0ms, 3\xa0s (note 2)&lt;/b&gt;', '', '&lt;b&gt;&amp;gt; 2\xa0Mbit/s (note 1)&lt;/b&gt;', '', '–', '', '–', '', '–', '', '–', '', '&lt;b&gt;500 in the service area (note\xa03)&lt;/b&gt;', '', '&lt;b&gt;Communication distance is from 100 m to 500\xa0m, (outdoor, indoor, and deep indoor)&lt;/b&gt;', '', 'NOTE 1: \tIt is the smart metering application data rate between the Smart Distribution Transformer Terminal and energy end equipment. Once there are multiple smart grid applications, it is required more data rate.', '', 'NOTE 2: \tIt depends on different applications supported by the Smart Distribution Transformer Terminal. The less the latency is, the more applications can be supported.', '', 'NOTE 3: \tThe distribution area can be calculated as 3.14 x range&lt;sup&gt;2&lt;/sup&gt; and in general is between 0.031 km&lt;sup&gt;2&lt;/sup&gt; and 0.79 km&lt;sup&gt;2&lt;/sup&gt;.', '', '&lt;b&gt;&lt;i&gt;Use case#1:&lt;/i&gt;&lt;/b&gt;&lt;span style="font-size:18pt"&gt;&lt;b&gt; smart distribution transformer terminal&lt;/b&gt;&lt;/span&gt;', '', '', '']</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.1791252165432054</v>
+        <v>0.8718240812265635</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.12.5	Existing features partly or fully covering use case functionality&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;A.4.9	Distributed energy resources and micro-grids&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>22865-j00.docx</t>
+          <t>22104-j00.docx</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2228,22 +2228,22 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>['', 'There are a few position requirements specified in 3GPP TS 22.125 [15], which have been described as:', '', '&lt;i&gt;[R-5.1-009] The 3GPP system should enable an MNO to augment the data sent to a UTM with the following: network-based positioning information of UAV and UAV controller.&lt;/i&gt;', '', '&lt;i&gt;NOTE 1: &lt;/i&gt;\t&lt;i&gt;This augmentation may be trust-based (i.e. the MNO informs the UTM that the UAV position information is trusted) or it may be additional location information based on network information, such as OTDOA, cell coordinates, synchronization source, etc.&lt;/i&gt;', '', '&lt;i&gt;NOTE 2: &lt;/i&gt;\t&lt;i&gt;This requirement will not be applied to the case which the UAS and UTM has direct control communication connection without going through MNO, such as OTDOA, cell coordinates, synchronization source, etc.&lt;/i&gt;', '', '&lt;i&gt;[R-5.1-012] The 3GPP system shall enable a UAS to update a UTM with the live location information of a UAV and its UAV controller.&lt;/i&gt;', '', '&lt;i&gt;[R-5.1-013] The 3GPP network should be able to provide supplement location information of UAV and its controller to a UTM.&lt;/i&gt;', '', '&lt;i&gt;NOTE 3: &lt;/i&gt;\t&lt;i&gt;This supplement may be trust-based (i.e. the MNO informs the UTM that the UAV position information&lt;/i&gt; is &lt;i&gt;trusted) or it may be additional location information based on network information.&lt;/i&gt;', '', 'There are also a few position requirements specified in 3GPP TS 22.261 [2], which have been described as:', '', '&lt;i&gt;The 5G system shall support mechanisms to determine the UE’s position-related data for period when the UE is outside the coverage of 3GPP RAT-dependent positioning technologies but within the 5G positioning service area (e.g. within the coverage of satellite access).&lt;/i&gt;', '', 'In 3GPP TS 22.071 [x], the following location service requirements are captured:', '', '&lt;i&gt;The precision of the location shall be network design dependent, i.e., should be an operator’s choice. This precision requirement may vary from one part of a network to another.&lt;/i&gt;', '', 'About horizontal accuracy:', '', '&lt;i&gt;The LCS service shall provide techniques that allow operators to deploy networks that can provide at least the level of accuracy required by the regional regulatory bodies.&lt;/i&gt;', '', '&lt;i&gt;10m-50m: Asset Location, route guidance, navigation&lt;/i&gt;', '', 'About vertical accuracy:', '', '&lt;i&gt;For Value Added Services, and PLMN Operator Services, the following is applicable:&lt;/i&gt;', '', '&lt;i&gt;-&lt;/i&gt;\t&lt;i&gt;When providing a Location Estimate, the LCS Server may provide the vertical location of a UE in terms of either absolute height/depth or relative height/depth to local ground level. The LCS Server shall allow an LCS Client to specify or negotiate the required vertical accuracy. The LCS Server shall normally attempt to satisfy or approach as closely as possible the requested or negotiated accuracy when other quality of service parameters are not in conflict.&lt;/i&gt;', '', '&lt;i&gt;-&lt;/i&gt;\t&lt;i&gt;The vertical accuracy may range from about three metres (e.g. to resolve within 1 floor of a building) to hundreds of metres.&lt;/i&gt;', '', 'About location delivery latency:', '', '&lt;i&gt;Location Delivery Latency (Time to First Fix) is set at a maximum of 30 seconds from the time the user initiates an emergency service call to the time it is available at the location information center.&lt;/i&gt;', '']</t>
+          <t>['', 'Distributed energy resources (DER) become increasingly important. The potentially large number of DERs will have an impact on security, stability, and operation efficiency of the energy grid. ', '', 'The integration of DERs into the energy grid poses many challenges for the involved communication system. To incorporate more renewable and alternative energy sources, the communication infrastructure must have the ability to easily handle an increasing amount of data traffic or service requests and must provide a real-time monitoring and control operation for these distributed energy resources. A reliable communication between the DERs is crucial. ', '', 'When it comes to communications architecture, IEC 61850 is a widely used standard for automation and equipment of power utilities and DER, specifically for defining protocols for IEDs (Intelligent electronic devices) at electrical substations The IEC 61850 standard specifies the timing constraints for messages typically used in substations. GOOSE (Generic Object Oriented Substation Events) and SV (Sampled Values) messages are assumed as time critical messages. They have the tightest deadlines (maximum allowed transfer time) among all IEC 61850 messages, corresponding to 3 ms. While GOOSE is typically used for transfering information related to monitoring and control functions (circuit breaker status etc.), SV is used for transfering measurement samples of current and voltage signals. The SV protocol works on a periodic information transmission model, sending messages at a fixed rate. For protection purposes, the default rate is 4000 or 4800 messages per second for 50 and 60 Hz power systems, respectively. On the other hand, the GOOSE protocol operates in a sporadic information transmission model, where a continuous flow of data is maintained to increase communication reliability. The typical sizes of GOOSE and SV messages are160 and 140 bytes, respectively. GOOSE messages are transmitted in two different modes: (1) safe operation: 1 message per second (service bit rate = 1.28 kbit/s); (2) emergency operation: 32 messages per second (service bit rate = 41.0 kbit/s). SV messages are transmitted at much higher rate, namely 4800 messages per second (service bit rate = 5.4 Mbit/s). The associated KPIs are provided in Table A.4.9-1.', '', '&lt;span style="font-size:20pt"&gt;&lt;b&gt;Table A.4.9-1: Key Performance for Distributed energy resources (DER): using SV (Sampled Values) message&lt;/b&gt;&lt;/span&gt;', '', '', '', 'Use case#', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Service bit rate: user experienced data rate', '', 'Message size [byte]', '', 'Transfer interval: target value', '', 'Survival time', '', 'UE ', 'speed', '', '&lt;b&gt;1&lt;/b&gt;', '', '&lt;b&gt;99,9999\xa0%&lt;/b&gt;', '', '&lt;b&gt;–&lt;/b&gt;', '', '&lt;b&gt;&amp;lt; 3 ms&lt;/b&gt;', '', '&lt;b&gt;4.5 Mbit/s&lt;/b&gt;', '', '&lt;b&gt;140&lt;/b&gt;', '', '&lt;b&gt;≤ 1 ms&lt;/b&gt;', '', '&lt;b&gt;transfer interval&lt;/b&gt;', '', '&lt;b&gt;stationary&lt;/b&gt;', '', '&lt;b&gt;2&lt;/b&gt;', '', '&lt;b&gt;99,9999\xa0%&lt;/b&gt;', '', '&lt;b&gt;–&lt;/b&gt;', '', '&lt;b&gt;&amp;lt; 3 ms&lt;/b&gt;', '', '&lt;b&gt;5.4 Mbit/s&lt;/b&gt;', '', '&lt;b&gt;140&lt;/b&gt;', '', '&lt;b&gt;≤ 1 ms&lt;/b&gt;', '', '&lt;b&gt;transfer interval&lt;/b&gt;', '', '&lt;b&gt;stationary&lt;/b&gt;', '', '&lt;b&gt;3&lt;/b&gt;', '', '&lt;b&gt;&amp;gt; 99.9999\xa0%&lt;/b&gt;', '', '&lt;b&gt;–&lt;/b&gt;', '', '&lt;b&gt;&amp;lt; 3 ms&lt;/b&gt;', '', '&lt;b&gt;–&lt;/b&gt;', '', '&lt;b&gt;160&lt;/b&gt;', '', '&lt;b&gt;–&lt;/b&gt;', '', '&lt;b&gt;–&lt;/b&gt;', '', '&lt;b&gt;stationary&lt;/b&gt;', '', 'NOTE:\tUE to UE communication is assumed.', '', '', '', '&lt;b&gt;&lt;i&gt;Use case#1:&lt;/i&gt;&lt;/b&gt;&lt;span style="font-size:18pt"&gt;&lt;b&gt; &lt;/b&gt;&lt;/span&gt;&lt;b&gt;Distributed energy resources and micro-grids: using SV(sample value) message with 50Hz&lt;/b&gt;', '', '&lt;b&gt;&lt;i&gt;Use case#2:&lt;/i&gt;&lt;/b&gt;&lt;span style="font-size:18pt"&gt;&lt;b&gt; &lt;/b&gt;&lt;/span&gt;&lt;b&gt;Distributed energy resources and micro-grids: using SV(sample value) message with 60Hz&lt;/b&gt;', '', '&lt;b&gt;&lt;i&gt;Use case#3:&lt;/i&gt;&lt;/b&gt;&lt;span style="font-size:18pt"&gt;&lt;b&gt; &lt;/b&gt;&lt;/span&gt;&lt;b&gt;Distributed energy resources and micro-grids: using GOOSE message&lt;/b&gt;', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.1841692230512538</v>
+        <v>0.8879511075445741</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.12.6	Potential New Requirements needed to support the use case	&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;A.5.2	Wind power plant network&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>22856-j00.docx</t>
+          <t>22104-j00.docx</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2253,22 +2253,22 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>['', '[PR 5.12.6-1]\tThe 5G system shall provide a mechanism to support coordination and synchronization of multiple data flows transmitted via one UE or different UEs, e.g., subject to synchronization thresholds provided by 3&lt;sup&gt;rd&lt;/sup&gt; party. ', '', '[PR 5.12.6-2]\tThe 5G system shall provide means to achieve low end-to-end round-trip latency (e.g., [20ms]).', '', '', '']</t>
+          <t>['', 'Table A&lt;b&gt;.&lt;/b&gt;5.2-1: Service performance requirements for wind power plant network', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Packet error ratio', '', 'UE speed', '', 'Service area', '', '1', '', '99.999\xa0999\xa09', '', '~ 10 years', '', '16 ms', '', '&amp;lt; 10&lt;sup&gt;-9&lt;/sup&gt;', '', 'stationary', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Communication in support of closed-loop cyber-physical control in a wind farm. The wind farm can be deployed offshore.', '', 'NOTE:\tThis type of communication service can be provided via a wired connection.', '']</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.2031039787772597</v>
+        <v>0.8529900538998503</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.12.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;A.6.1	Overview&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>22837-j00.docx</t>
+          <t>22104-j00.docx</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2278,22 +2278,22 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>['', '[PR 5.12.6-1] The 5G system shall be able to provide a sensing service to track one specific target object and the environment around the target object with the sensing assistance information provided by the UE on board the specific target object or authorized third-party.', '', '[PR 5.12.6-2] The base stations shall be able to sense multiple specific target objects and their environments at the same time.', '', ' [PR 5.12.6-3] The 5G system shall be able to provide a mechanism controllable by the operator,\xa0according to a business agreement, for a trusted third-party to request the sensing service related with a certain target object or multiple target objects of a certain location area.', '', '[PR 5.12.6-4] Based on &lt;span style="color:000000;font-size:21pt"&gt;operator policy, &lt;/span&gt;the 5G system shall be able to provide a mechanism for a trusted third-party to request per location area different sensing services configuration (e.g. sensing KPI, report refresh rate etc.).', '', '[PR 5.12.6-5] The 5G system shall be able to report sensing result of the environment around a specific target object to a trusted third-party.', '', 'NOTE\xa02: \tThe sensing result of the environment for example can be its position, the size of obstacles around, and other moving objects nearby.', '', '[PR 5.12.6-6] The 5G system shall be able to provide sensing service with follow KPIs:', '', 'Table 5.12.6-1\tPerformance requirements of sensing results for network assisted sensing to avoid UAV collision', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area &lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[ms]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[s]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Missed detection&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Network assisted sensing to avoid UAV collision&lt;/span&gt;', '', '&lt;span style="color:242424;font-size:16pt"&gt;Outdoor&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa02&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1 NOTE 2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&amp;lt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa02&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;500&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa01:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.12.6-1 are found in Section 3.1.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa02:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;T&lt;/span&gt;he KPI values are sourced from [25] and [40].', '', "Editor's Note: Other potential new requirements are FFS.", '', 'NOTE 3:\tIn this use case base station is acting as sensing transmitter and/or sensing receiver. This is an example and other options can also be valid.', '']</t>
+          <t>['', 'The traditional value chain for the medical device industry, which historically has been driven by innovation and research and development, is currently witnessing a shift in the landscape. As governments and health insurers worldwide implement measures to control costs, public hospitals are operating on tighter budgets, while private facilities are receiving lower reimbursements. In the developed world, decisions that used to be the sole preserve of doctors are now also made by regulators, hospital administrators, and other non-clinicians. This broader set of influencers comes with different objectives, e.g. the prioritization of cost effectiveness or even just costs. ', '', 'This shift in focus from volume-based healthcare to value-based healthcare has led medical devices companies to move to business models based on providing clinical value with cost efficiency.', '', 'Technological progress and better infrastructures, in particular high-quality wireless networks, have fed this business model transformation, allowing coordinated therapies, services, and health analytics and enabling efficient outcome measurement solutions. ', '', 'On this matter, 5G enables shifting care location from hospitals to homes and others lower cost facilities which mechanically translates into more savings. Additionally, another example showing that 5G can enable cost savings required by the medical industry can be found inside hospitals where wireless transmission of low latency data streams improves operating room planning, enable streamlining equipment usage and simplifies operating theater implementation.', '']</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.2411696712070197</v>
+        <v>0.842909571631119</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.13.5	Existing features partly or fully covering use case functionality&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;A.6.2	Robotic Aided Surgery&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>22865-j00.docx</t>
+          <t>22104-j00.docx</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2303,97 +2303,97 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>['', 'Regarding TS 22.261[2] as below, UE using satellite access shall have the capability to offer the location, and 5G system needs to determine the location for service, but not consider the situation that the location cannot be decided by UE alone. ', '', '&lt;i&gt;A UE supporting satellite access shall be able to provide or assist in providing its location to the 5G network.&lt;/i&gt;', '', "&lt;i&gt;A 5G system with satellite access shall be able to determine a UE's location in order to provide service (e.g. route traffic, support emergency calls) in accordance with the governing national or regional regulatory requirements applicable to that UE. &lt;/i&gt;", '', 'The legacy requirements for positioning service defined in TS 22.261 [2] are not well adapted to all types of UE with satellite access considering the satellite characteristics (e.g. latency). ', '', '&lt;i&gt;The 5G system shall provide 5G positioning services in compliance with regulatory requirements.&lt;/i&gt;', '', '&lt;i&gt;The 5G network shall be able to request the UE to provide its position-related-data on request—together with the accuracy of its position—triggered by an event or periodically and to request the UE to stop providing its position-related data periodically.&lt;/i&gt;', '', "&lt;i&gt;The 5G System with satellite access shall be able to negotiate the positioning methods according to the operator's policy or the application’s requirements or the user's preferences and shall support mechanisms to allow the network or the UE to trigger this negotiation.&lt;/i&gt;", '']</t>
+          <t>['', '&lt;span style="color:000000"&gt;Robotic aided surgery is particularly suitable to invasive surgical procedures that require delicate tissue manipulation and access to areas with difficult exposure. It is achieved through complex systems that translate the surgeon’s hand movements into smaller, precise movements of tiny instruments that can generally bend and rotate far more than a human hand is capable of doing inside the patient’s body. In addition, those systems are usually able to filter out hand tremor and therefore &lt;/span&gt;allow more consistent outcomes for existing procedures, and more importantly the development of new procedures currently made impractical by the accuracy limits of unaided manipulation&lt;span style="color:000000"&gt;.&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;A typical robotic setup for telesurgery can be depicted as follows.&lt;/span&gt;', '', '----media/image12.png----', '', 'Figure A.6.2-1: Typical Robotic Surgery System Setup', '', 'The robot and the surgeon’s console can be co-located in the same operating room in which case they communicate through a NPN, or, in another deployment option, when specialists and patients are far from each other (hundreds of kilometres) they can exchange data through communication services delivered by PLMNs. The depicted medical application can be instantiated at either side or in the Cloud. Its role consists in: ', '', '-\tGenerating appropriate haptic feedback based on instrument location, velocity, effort measurements data and images issued by surgical instruments and 3D pre-operative patient body model. This allows to provide tactile guidance by constraining where the instruments (scalpel, etc.) can go.', '', '-\tFiltering motion control commands for better closed loop stability', '', 'Typical surgery robotic systems can have around 40 actuators and the same number of sensors which allows to compute the data rate requires in each direction in order to execute a given movement. ', '', 'Human sensitivity of touch is very high, tactile sensing has about 400 Hz bandwidth, where bandwidth refers to the frequency of which the stimuli can be sensed. This is why, in general, haptic feedback systems operate at frequencies around 1,000 Hz. This rate naturally applies to the update of all information used in the generation of the haptic feedback, e.g. instruments velocity, position … Therefore, the robot control process involves:', '', '-\tThe surgeon console periodically sending a set of points to actuators', '', '-\tActuators executing a given process ', '', '-\tSensors sampling velocity, forces, positions, … at the very same time and returning that information to the surgeon console at the rate of 1 kHz', '', 'As opposed to machine to machine communication, robotic aided surgery implies there is a human being in the middle of the control loop, which means that the console generates new commands based on the system state collected in the previous 1 kHz cycle and also on surgeon’s hand movement.', '', 'Each equipment involved in a robotic telesurgery setup (endoscopes, image processing system, displays, motion controller and haptic feedback systems) is synchronized thanks to a common clock either external or provided by the 5G system. The synchronization is often achieved through dedicated protocols such as e.g. PTP version 2 and allows to e.g. guarantee the consistency of the haptic feedback and displayed images at the master console, or enable the recording and offline replay of the whole procedure.', '', '', '', '', '', 'Table A.6.2-1: Service performance requirements for motion control and haptic feedback', '', 'Use case # ', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: Mean Time Between Failure', '', 'End-to-end latency: maximum', '', 'Bit rate', '', 'Direction', '', 'Message', '', 'Size', '', '[byte]', '', 'Transfer Interval', '', 'Survival time', '', 'UE speed', '', '# of active UEs', '(note1)', '', 'Service Area', '', '1', '', '&amp;gt;\xa099.999\xa0999', '', '&amp;gt;\xa010 years', '', '&amp;lt;\xa02 ms', '', '2\xa0Mbit/s to 16\xa0Mbit/s', '', 'network to UE; UE to network', '', '250 to 2,000', '', '1 ms', '', 'transfer interval', '', 'stationary', '', '1', '', 'room', '', '2', '', '&amp;gt;\xa099.999\xa09', '', '&amp;gt;\xa01 year', '', '&amp;lt;\xa020 ms', '', '2\xa0Mbit/s to 16\xa0Mbit/s', '', 'network to UE; UE to network', '', '250 to 2,000', '', '1 ms', '', 'transfer interval', '', 'stationary', '', '&amp;lt;\xa02 per 1,000\xa0km&lt;sup&gt;2&lt;/sup&gt;', '', 'national', '', 'Note 1: The upper limit of UEs’ density is provided for large service areas to address non-uniform distributions of UEs, while an absolute number of UEs is provided for small service areas.', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Periodic communication for the support of precise cooperative robotic motion control and haptic feedback in case of robotic aided surgery where the surgeon console and the robot are collocated in the same operating room', '', '&lt;i&gt;Use case two&lt;/i&gt;', '', 'Periodic communication for the support of cooperative robotic motion control and haptic feedback in case of telesurgery. In this case, the surgeon console and the robot are not collocated and communicate with each other through a connection established over a PLMN possibly spanning an entire country. Relaxed requirements imply that much less complex surgical procedures are achievable in use case 2 than in use case 1. It shall be noted that this use case also involves more experienced and trained surgeons, who can cope with longer latencies in the communication system.', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.1832100336191919</v>
+        <v>0.8647163317538934</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.13.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;A.6.3	Robotic Aided Diagnosis&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>22837-j00.docx</t>
+          <t>22104-j00.docx</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>['', '[PR 5.13.6-1] The 5G system shall be able to provide a sensing service by using RAN to collect 3GPP sensing data.', '', '[PR 5.13.6-2] The RAN shall be able to sense a target object by obtaining 3GPP sensing data without active involvement of the target object.', '', '[PR 5.13.6-3] The 5G system shall provide mechanisms for an operator to transport 3GPP sensing data from RAN towards the core network.', '', '[PR 5.13.6-4] Based on operator’s policy and subject to regulatory requirements, the 5G system shall be able to provide a mechanism for a trusted third-party to request the sensing service and based on the request, the base station shall be able to operate sensing periodically or continuously in certain location area for a certain amount of time.', '', '[PR 5.13.6-5] Based on operator’s policy and subject to regulatory requirements, the 5G system shall be able to periodically expose sensing results to a trusted third-party application.', '', '[PR 5.13.6-6] The 5G system shall provide a mechanism controllable by the operator, according to a business agreement, to report sensing result to a trusted third-party about a target object and multiple target objects when specific conditions are met.', '', ' NOTE:\tThese conditions could be the target object distance from the restricted area border less than 10m or entering restricted area.', '', '[PR 5.13.6-7] The 5G system shall be able to support the activation and deactivation of the sensing service according to operator’s policy.', '', '[PR 5.13.6-8] The 5G system shall be able to provide a mechanism for network operator to configure and adjust sensing operation (e.g. authorization, sensing area, sensing operation period and sensing operation time window etc.) based on request from a trusted third-party.', '', '[PR 5.13.6-9] The 5G system shall be able to provide sensing with following KPIs:', '', 'Table 5.13.6-1\tPerformance requirements of sensing results for UAV intrusion detection', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area &lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[ms]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[s]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Missed detection&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;UAV intrusion detection&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;NOTE\xa02&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Level 1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Outdoor&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤10&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤10&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;10&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[5]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤1000]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤1]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤5&lt;/span&gt;', '', '', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Levle2&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Outdoor&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;10&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[5]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤1000]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤1]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa01:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.13.6-1 are found in Section 3.1.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa02: &lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Level 1 and level 2 depend on the size of the restriction area to be sensed.&lt;/span&gt;', '', 'NOTE:\tIn this use case base station is acting as sensing transmitter and/or sensing receiver. This is an example and other options can also be valid.', '']</t>
+          <t>['', 'Robotic aided diagnosis involves a remote expert in a large central hospital who controls a diagnosis robotic system deployed in a local medical facility. Such robotic systems can be e.g.:', '', '-\tHaptic feedback tool used for palpating and deployed in e.g. a Mobile Specialist Practise facility', '', '-\tUltrasound probe deployed in an ambulance or a medical facility ', '', '&lt;span style="color:000000"&gt;A typical robotic setup for tele diagnosis can be depicted as follows:&lt;/span&gt;', '', '----media/image13.png----', '', 'Figure A.6.3-1: Typical Robotic Surgery System Setup', '', 'Specialists and patients are far from each other (typically dozens of kilometres) and can exchange data through communication services delivered by PLMNs. The depicted medical application can be instantiated at either side or in the Cloud. Its role consists in: ', '', '--\tGenerating appropriate haptic feedback based on instrument location, velocity, effort measurements data and images issued by instruments.', '', '--\tFiltering motion control commands for better closed loop stability', '', '', '', '', '', 'Table A.6.3-1: Service performance requirements for motion control and haptic feedback', '', 'Use case # ', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: Mean Time Between Failure', '', 'End-to-end latency: maximum', '', 'Bit rate', '', 'Direction', '', 'Message', '', 'Size', '', '[byte]', '', 'Transfer Interval', '', 'Survival time', '', 'UE speed', '', '# of active UEs', '', 'Service Area', '', '1', '', '&amp;gt;\xa099.999', '', '&lt;span style="color:000000"&gt;&amp;gt;&amp;gt; 1 month (&amp;lt; 1 year)&lt;/span&gt;', '', '&amp;lt;\xa020 ms', '', '2\xa0Mbit/s to 16\xa0Mbit/s', '', 'network to UE; UE to network', '', '~80', '', '&amp;lt;\xa020\xa0ms per 100\xa0km&lt;sup&gt;2&lt;/sup&gt; ', '', 'transfer interval', '', 'stationary', '', '&amp;lt; 20 per 100\xa0km&lt;sup&gt;2&lt;/sup&gt;', '', 'regional', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Periodic communication for the support of precise cooperative robotic motion control and haptic feedback in case of robotic aided diagnosis where the expert and the patient are not collocated and communicate with each other through a connection established over a PLMN.', '', '', '']</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.2390467502569599</v>
+        <v>0.859649841290949</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.14.1	Description&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;C.1.1	Area of consideration&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>22882-j00.docx</t>
+          <t>22104-j00.docx</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>LR3_other</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>['', 'Global warming caused by excessive emissions of GHG (e.g., carbon dioxide) due to human activity (e.g., burning fossil fuels for electricity generation) is the main driver to climate change, which poses a significant threat to society and the environment. &lt;span style="color:000000"&gt;To achieve carbon neutrality, it is important to reduce the GHG incl. carbon emissions in the first place rather than offset them later. Recent advancements in communication and computing capabilities of networks (e.g., 5GS, cloud services) enables offloading tasks to networked and distributed computing nodes (e.g., edge computing, cloud computing) for a wide range of services. However, the rising demand for such services in turn triggers a rising demand for energy and a greater risk of an even higher resulting GHG footprint. 3GPP plays a crucial role in the ICT sector to enable the deployment of these technologies on a global scale and therefore must also play a central role in enabling a sustainable future.&lt;/span&gt;', '', 'The adoption of alternative sustainable sources of energy incl. renewable energy (e.g., solar, wind, hydropower, geothermy) could help offset the GHG footprint of energy generation based on fossil fuels, even though their corresponding environmental impact also need to be considered. From an ICT standpoint and, 3GPP system in particular, the energy used by computing nodes in networks can be from varied energy with different related levels of environmental impact incl. GHG emissions. Due to the highly variable and unpredictable nature of renewable energy sources, the supply of renewable energy varies substantially by time and location. Hence, it is critical to take temporal and spatial dimensions of energy sources into account to accomplish compute tasks not only for a better traceability of the energy sources used but in turn for enabling a more sustainable energy use to achieve those tasks.', '', 'Up until now usually a system is designed to finish compute tasks as soon as possible (high throughput) and indicate results to the requester as soon as possible (low latency). However, some compute tasks have flexibility in both when and where they are executed, i.e., such type of workload could be executed in any computing node and tolerate some delays if the workload gets completed within certain given deadline. For example, some of AI/ML training, simulation, and video processing tasks might not require a quick response, which would &lt;span style="color:000000"&gt;allow flexibility to delay the execution of the related workloads in a computing node until, e.g., the utilized energy is deemed satisfactory in terms of GHG emissions. Such flexibility further allows to route workloads to a computing node using the (most) sustainable energy sources at that moment. As part of service, 3GPP system is able to execute compute tasks in a sustainable way by leveraging such flexibility.&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;In addition, consuming the renewable energy immediately when they are available, instead of storing them for the future use (e.g., in a big battery system), can also bring some economic benefits to operators or service providers, because this can reduce the cost and investment for scaling the energy storage system needed by the overall system. &lt;/span&gt;', '', 'In the following use case, by considering the temporal and spatial information of sustainable energy source and availability, the possibility of reduction of the GHG footprint for application services is explored.', '']</t>
+          <t>['', 'For our discussion of communication in automation we apply a definition of the area of consideration for industrial radio communication that is found elsewhere in the literature [4]. This definition is illustrated in Figure C.1.1-1. ', '', '----media/image14.emf----', '', 'NOTE:\tBlue objects: communication system; other objects: automation application system.', '', 'Figure\xa0C&lt;b&gt;.&lt;/b&gt;1.1-1: Abstract diagram of the area of consideration for industrial radio communication ', '', 'Here, a distributed automation application system is depicted. This system includes a distributed automation application, which is the aggregation of several automation functions. These can be functions in sensors, measurement devices, drives, switches, I/O devices, encoders etc. All of these functions contribute toward the control of physical objects. Field bus systems, industrial Ethernet systems, or wireless communication systems can be used for connecting the distributed functions. The essential function of these communication systems is the distribution of messages among the distributed automation functions. For cyber-physical control applications, the dependability of the entire communication system and/or of its devices or its links is essential. Communication functions are realised by the respective hardware and software implementation.', '', 'In order for the automation application system to operate, messages need to be exchanged between spatially distributed application functions. For that process, messages are exchanged at an interface between the automation application system and the communication system. This interface is termed the reference interface. Required and guaranteed values for characteristic parameters, which describe the behavioural properties of the radio communication system, as well as some influence quantities refer to that interface.', '', 'The conditions that influence the behaviour of wireless communication are framed by the communication requirements of the application (e.g., end-to-end latency), the characteristics of the communication system (e.g., output power of a transmitter), and the transmission conditions of the media (e.g., signal fluctuations caused by multipath propagation). ', '', 'General requirements from the application point of view for the time and failure behaviour of a communication system are mostly related to an end-to-end link. It is assumed in the present document that the behaviour of the link is representative of the communication system as a whole and of the entire scope of the application. ', '']</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.2127961063691381</v>
+        <v>0.7962859604467707</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.14.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;C.2.2	Characteristic parameters&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>22837-j00.docx</t>
+          <t>22104-j00.docx</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>['', '[PR 5.14.6-1] The 5G system shall be able to provide means to use base station(s) to perform sensing in certain area. ', '', '[PR 5.14.6-2] Subject to regulatory requirements and operator policy, the 5G system shall be able to expose sensing results to a trusted third-party application.', '', '[PR 5.14.6-3] Subject to regulatory requirements and operator policy, the 5G system shall be able to support the activation and deactivation of the sensing service based on location.', '', '[PR 5.14.6-4] The 5G system shall be able to provide sensing service with KPIs given in Table 5.14.6-1.', '', 'Table 5.14.6-1\tPerformance requirements of sensing results for tourist spot traffic management', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area &lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[ms]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate&lt;/span&gt;', '', '